--- a/Estimates 22 BDG [Final].xlsx
+++ b/Estimates 22 BDG [Final].xlsx
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="597">
   <si>
     <t>Milestone Title (Visible to User):</t>
   </si>
@@ -340,7 +340,23 @@
     <t xml:space="preserve">The majority of delays and challenges with the estimates process are related to the preparation of data inputs. Best practice suggests that high quality data inputs should be prepared prior to beginning your estimates. Ensure all programme data are available in your country's national health management information system (e.g., DHIS2), reviewed for quality, validated by the relevant authorities, and ready for use in this year's estimates process. To learn more about the programme data required, see Guide 8, Data Quality, Indicator Element Matrix. </t>
   </si>
   <si>
-    <t>Guide 8, Data Quality, Indicator Element Matrix (https://hivtools.unaids.org/hiv-estimates-training-material-en/)</t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t xml:space="preserve">Guide 8, Data Quality, Indicator Element Matrix </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <sz val="8.0"/>
+        <u/>
+      </rPr>
+      <t>https://hivtools.unaids.org/hiv-estimates-training-material-en/</t>
+    </r>
   </si>
   <si>
     <t>MM: Add sheet to HIV tools page and put link to that sheet here
@@ -362,7 +378,23 @@
     <t>The greatest impediment to a successful estimates process is poor quality programme data. The most important thing you can do before you begin is review the quality of your programme data. There are specific analyses recommended to assess the quality of your program data. These analyses are available in Guide 6, Data Quality Standards of Practice. Table 2 provides specific analyses for the different programme inputs to ensure you start the estimates process with high quality inputs. ShinyRob is another tool available to users for assessing data quality. This step will be completed after data are uploaded to ADR.</t>
   </si>
   <si>
-    <t>Guide 6, Data Quality Standards of Practice (https://hivtools.unaids.org/hiv-estimates-training-material-en/)</t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t xml:space="preserve">Guide 6, Data Quality Standards of Practice </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <sz val="8.0"/>
+        <u/>
+      </rPr>
+      <t>https://hivtools.unaids.org/hiv-estimates-training-material-en/</t>
+    </r>
   </si>
   <si>
     <t>MM: training materials ID: D.8</t>
@@ -383,7 +415,7 @@
     <t>Some HIV estimates models require data inputs to be in a specific format. They are a part of the Inputs to UNAIDS Estimates Package for this year. Data inputs include programme data such as ANC, HIV testing, and ART data, survey data, population data, and an area boundary file. Note models may require similar data, but in slightly different formats. For example, Shiny 90 requires survey data at the level of your Spectrum estimates file. UNAIDS has provided the templates required by the models in the AIDS Data Repository.</t>
   </si>
   <si>
-    <t>Data Input Templates on the AIDS Data Repository - https://adr.unaids.org/en/pages/inputs-unaids</t>
+    <t>Data Input Templates on the AIDS Data Repository https://adr.unaids.org/en/pages/inputs-unaids</t>
   </si>
   <si>
     <t xml:space="preserve">MM: @S4 I think this should be deleted given question GEN-05.  We don't want them starting fresh they should update previously used sheets
@@ -408,7 +440,7 @@
     <t>Before you upload your data inputs package to ADR, ensure you have prepopulated all of them and reviewed the quality of data. Complete each of the required templates: i) Population, ii) area boundary, iii) Naomi survey, iv) HIV testing, v) ART, and vi) ANC?</t>
   </si>
   <si>
-    <t>AIDS Data Repository - https://adr.unaids.org/</t>
+    <t>AIDS Data Repository https://adr.unaids.org/</t>
   </si>
   <si>
     <r>
@@ -805,9 +837,6 @@
   </si>
   <si>
     <t>In order to use ShinyRob, you must upload three files to your estimates inputs package for this year. To upload your files, access your organization on ADR and find this year's inputs package. Upload each of the required files for this year's estimates process in the required format. Be sure to confirm the green "Valid" badge next to each file. If any files are missing the green "valid" badge, be sure to review the data issues identified by ADR and correct them. If any changes are made to the data in the estimates templates, ensure changes are cascaded to the source systems (e.g., DHIS2) as needed. Once data are uploaded and valid in ADR, you may proceed to ShinyRob to conduct thorough data quality reviews.</t>
-  </si>
-  <si>
-    <t>AIDS Data Repository https://adr.unaids.org/</t>
   </si>
   <si>
     <t>@UNAIDS - I've tagged everything here as mandatory right now. This means the user will not be able to proceed to Spectrum data entry until this process is complete. Are we okay with that order of operations to help avoid data quality problems downstream?</t>
@@ -2656,7 +2685,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="30">
+  <fonts count="27">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2688,17 +2717,6 @@
       <sz val="11.0"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="8.0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
     </font>
     <font>
       <b/>
@@ -2740,6 +2758,12 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u/>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="8.0"/>
       <color theme="9"/>
       <name val="Calibri"/>
@@ -2748,12 +2772,6 @@
       <sz val="11.0"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="8.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="8.0"/>
@@ -2974,7 +2992,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="133">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3013,16 +3031,16 @@
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3034,14 +3052,14 @@
     <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -3060,10 +3078,10 @@
     <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3075,126 +3093,125 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="16" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="12" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="5" fillId="0" fontId="12" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="6" fillId="0" fontId="9" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="5" fillId="0" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="9" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="3" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3203,22 +3220,22 @@
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -3228,11 +3245,11 @@
     <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -3241,20 +3258,20 @@
     <xf borderId="10" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="3" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3263,42 +3280,42 @@
     <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="15" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="12" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -32613,7 +32630,7 @@
     <col customWidth="1" min="2" max="2" width="24.29"/>
     <col customWidth="1" min="3" max="3" width="34.57"/>
     <col customWidth="1" min="4" max="4" width="43.14"/>
-    <col customWidth="1" min="5" max="5" width="15.14"/>
+    <col customWidth="1" min="5" max="5" width="69.86"/>
     <col customWidth="1" min="6" max="6" width="11.57"/>
     <col customWidth="1" hidden="1" min="7" max="7" width="37.29"/>
     <col customWidth="1" hidden="1" min="8" max="8" width="26.86"/>
@@ -32716,11 +32733,11 @@
       <c r="D5" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="60"/>
-      <c r="G5" s="61">
+      <c r="F5" s="61"/>
+      <c r="G5" s="62">
         <v>0.0</v>
       </c>
       <c r="H5" s="58" t="s">
@@ -32745,11 +32762,11 @@
       <c r="D6" s="58" t="s">
         <v>66</v>
       </c>
-      <c r="E6" s="58" t="s">
+      <c r="E6" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="62"/>
-      <c r="G6" s="63">
+      <c r="F6" s="63"/>
+      <c r="G6" s="64">
         <v>1.0</v>
       </c>
       <c r="H6" s="58" t="s">
@@ -32774,17 +32791,17 @@
       <c r="D7" s="58" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="58" t="s">
+      <c r="E7" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="F7" s="60"/>
-      <c r="G7" s="61">
+      <c r="F7" s="61"/>
+      <c r="G7" s="62">
         <v>1.0</v>
       </c>
-      <c r="H7" s="64" t="s">
+      <c r="H7" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="I7" s="65" t="s">
+      <c r="I7" s="66" t="s">
         <v>76</v>
       </c>
       <c r="J7" s="22"/>
@@ -32805,17 +32822,17 @@
       <c r="D8" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="58" t="s">
+      <c r="E8" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="60"/>
-      <c r="G8" s="61">
+      <c r="F8" s="61"/>
+      <c r="G8" s="62">
         <v>1.0</v>
       </c>
-      <c r="H8" s="65" t="s">
+      <c r="H8" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="I8" s="65"/>
+      <c r="I8" s="66"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22" t="s">
         <v>84</v>
@@ -32835,16 +32852,16 @@
         <v>88</v>
       </c>
       <c r="E9" s="58"/>
-      <c r="F9" s="60">
+      <c r="F9" s="61">
         <v>1.0</v>
       </c>
-      <c r="G9" s="61">
+      <c r="G9" s="62">
         <v>1.0</v>
       </c>
-      <c r="H9" s="65" t="s">
+      <c r="H9" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="I9" s="65" t="s">
+      <c r="I9" s="66" t="s">
         <v>90</v>
       </c>
       <c r="J9" s="22"/>
@@ -32866,14 +32883,14 @@
         <v>95</v>
       </c>
       <c r="E10" s="58"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="61">
+      <c r="F10" s="61"/>
+      <c r="G10" s="62">
         <v>0.0</v>
       </c>
-      <c r="H10" s="65" t="s">
+      <c r="H10" s="66" t="s">
         <v>96</v>
       </c>
-      <c r="I10" s="65" t="s">
+      <c r="I10" s="66" t="s">
         <v>97</v>
       </c>
       <c r="J10" s="22"/>
@@ -32895,14 +32912,14 @@
         <v>102</v>
       </c>
       <c r="E11" s="58"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="61">
+      <c r="F11" s="61"/>
+      <c r="G11" s="62">
         <v>0.0</v>
       </c>
       <c r="H11" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="I11" s="66" t="s">
+      <c r="I11" s="67" t="s">
         <v>104</v>
       </c>
       <c r="J11" s="22"/>
@@ -32924,8 +32941,8 @@
         <v>109</v>
       </c>
       <c r="E12" s="58"/>
-      <c r="F12" s="67"/>
-      <c r="G12" s="68">
+      <c r="F12" s="68"/>
+      <c r="G12" s="69">
         <v>0.0</v>
       </c>
       <c r="H12" s="44"/>
@@ -32936,7 +32953,7 @@
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="C13" s="69"/>
+      <c r="C13" s="70"/>
       <c r="H13" s="39"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
@@ -34177,10 +34194,14 @@
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E5"/>
+    <hyperlink r:id="rId2" ref="E6"/>
+  </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -34197,7 +34218,7 @@
     <col customWidth="1" min="1" max="2" width="10.43"/>
     <col customWidth="1" min="3" max="3" width="24.43"/>
     <col customWidth="1" min="4" max="4" width="51.29"/>
-    <col customWidth="1" min="5" max="5" width="46.57"/>
+    <col customWidth="1" min="5" max="5" width="85.29"/>
     <col customWidth="1" min="6" max="6" width="12.0"/>
     <col customWidth="1" min="7" max="7" width="27.0"/>
     <col customWidth="1" hidden="1" min="8" max="8" width="37.86"/>
@@ -34217,7 +34238,7 @@
       <c r="D1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="70"/>
+      <c r="E1" s="71"/>
       <c r="F1" s="43" t="s">
         <v>3</v>
       </c>
@@ -34233,20 +34254,20 @@
       <c r="D2" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="E2" s="71"/>
+      <c r="E2" s="72"/>
       <c r="F2" s="47">
         <v>0.1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="74"/>
+      <c r="D3" s="74"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
     </row>
     <row r="4">
       <c r="A4" s="55" t="s">
@@ -34261,7 +34282,7 @@
       <c r="D4" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="74" t="s">
+      <c r="E4" s="75" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="54" t="s">
@@ -34284,7 +34305,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="76" t="s">
         <v>114</v>
       </c>
       <c r="B5" s="58" t="s">
@@ -34296,7 +34317,7 @@
       <c r="D5" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="60" t="s">
         <v>118</v>
       </c>
       <c r="F5" s="77">
@@ -34315,7 +34336,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="76" t="s">
         <v>121</v>
       </c>
       <c r="B6" s="58" t="s">
@@ -34334,17 +34355,17 @@
       <c r="G6" s="77">
         <v>0.0</v>
       </c>
-      <c r="H6" s="65" t="s">
+      <c r="H6" s="66" t="s">
         <v>125</v>
       </c>
-      <c r="I6" s="65"/>
+      <c r="I6" s="66"/>
       <c r="J6" s="22"/>
       <c r="K6" s="22" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="75" t="s">
+      <c r="A7" s="76" t="s">
         <v>127</v>
       </c>
       <c r="B7" s="58" t="s">
@@ -34356,7 +34377,7 @@
       <c r="D7" s="58" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="76" t="s">
+      <c r="E7" s="60" t="s">
         <v>130</v>
       </c>
       <c r="F7" s="78">
@@ -34375,7 +34396,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="75" t="s">
+      <c r="A8" s="76" t="s">
         <v>133</v>
       </c>
       <c r="B8" s="58" t="s">
@@ -34419,7 +34440,7 @@
       <c r="Z8" s="80"/>
     </row>
     <row r="9">
-      <c r="A9" s="75" t="s">
+      <c r="A9" s="76" t="s">
         <v>139</v>
       </c>
       <c r="B9" s="58" t="s">
@@ -34431,7 +34452,7 @@
       <c r="D9" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="E9" s="76" t="s">
+      <c r="E9" s="60" t="s">
         <v>143</v>
       </c>
       <c r="F9" s="59">
@@ -34499,7 +34520,7 @@
       <c r="D1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="70"/>
+      <c r="E1" s="71"/>
       <c r="F1" s="43" t="s">
         <v>3</v>
       </c>
@@ -34576,57 +34597,57 @@
         <v>151</v>
       </c>
       <c r="E5" s="59" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" s="61">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="H5" s="79" t="s">
         <v>152</v>
-      </c>
-      <c r="F5" s="60">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="79" t="s">
-        <v>153</v>
       </c>
       <c r="I5" s="38"/>
       <c r="J5" s="38" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="C6" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="58" t="s">
+      <c r="D6" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="D6" s="58" t="s">
+      <c r="E6" s="59" t="s">
         <v>158</v>
       </c>
-      <c r="E6" s="59" t="s">
-        <v>159</v>
-      </c>
-      <c r="F6" s="60">
+      <c r="F6" s="61">
         <v>1.0</v>
       </c>
-      <c r="G6" s="60">
+      <c r="G6" s="61">
         <v>0.0</v>
       </c>
-      <c r="H6" s="62"/>
+      <c r="H6" s="63"/>
       <c r="I6" s="38"/>
       <c r="J6" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="82" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B7" s="82"/>
       <c r="C7" s="82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D7" s="82"/>
       <c r="E7" s="82"/>
@@ -34637,93 +34658,93 @@
         <v>1.0</v>
       </c>
       <c r="H7" s="84" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I7" s="85"/>
       <c r="J7" s="85" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="C8" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="D8" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="E8" s="59" t="s">
         <v>168</v>
       </c>
-      <c r="E8" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="F8" s="60">
+      <c r="F8" s="61">
         <v>1.0</v>
       </c>
-      <c r="G8" s="60">
+      <c r="G8" s="61">
         <v>0.0</v>
       </c>
-      <c r="H8" s="62"/>
+      <c r="H8" s="63"/>
       <c r="I8" s="38"/>
       <c r="J8" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="C9" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="D9" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="D9" s="58" t="s">
+      <c r="E9" s="59" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" s="63">
+        <v>1.0</v>
+      </c>
+      <c r="G9" s="63">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="63"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="38" t="s">
         <v>174</v>
-      </c>
-      <c r="E9" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="F9" s="62">
-        <v>1.0</v>
-      </c>
-      <c r="G9" s="62">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="38" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="B10" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="C10" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="D10" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="D10" s="58" t="s">
+      <c r="E10" s="58"/>
+      <c r="F10" s="61">
+        <v>1.0</v>
+      </c>
+      <c r="G10" s="61">
+        <v>0.0</v>
+      </c>
+      <c r="H10" s="58"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="38" t="s">
         <v>179</v>
-      </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="60">
-        <v>1.0</v>
-      </c>
-      <c r="G10" s="60">
-        <v>0.0</v>
-      </c>
-      <c r="H10" s="58"/>
-      <c r="I10" s="87"/>
-      <c r="J10" s="38" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -35842,21 +35863,21 @@
       <c r="D1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="70"/>
+      <c r="E1" s="71"/>
       <c r="F1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="44" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>181</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>182</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="46" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="47">
@@ -35865,31 +35886,31 @@
     </row>
     <row r="3" ht="14.25" customHeight="1"/>
     <row r="4">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="89" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" s="88" t="s">
+      <c r="B4" s="88" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="90" t="s">
+      <c r="E4" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="91" t="s">
+      <c r="F4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="88" t="s">
+      <c r="G4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="88" t="s">
+      <c r="H4" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="88" t="s">
+      <c r="I4" s="87" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="52" t="s">
@@ -35904,48 +35925,48 @@
     </row>
     <row r="5">
       <c r="A5" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="91"/>
+      <c r="C5" s="37" t="s">
         <v>185</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="37" t="s">
+      <c r="D5" s="37" t="s">
         <v>186</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="E5" s="92" t="s">
         <v>187</v>
       </c>
-      <c r="E5" s="93" t="s">
+      <c r="F5" s="93" t="s">
         <v>188</v>
-      </c>
-      <c r="F5" s="94" t="s">
-        <v>189</v>
       </c>
       <c r="G5" s="37"/>
       <c r="H5" s="37">
         <v>1.0</v>
       </c>
-      <c r="I5" s="87"/>
+      <c r="I5" s="86"/>
       <c r="J5" s="58"/>
-      <c r="K5" s="95" t="s">
-        <v>190</v>
+      <c r="K5" s="94" t="s">
+        <v>189</v>
       </c>
       <c r="L5" s="38"/>
       <c r="M5" s="38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="95"/>
+      <c r="C6" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="96"/>
-      <c r="C6" s="37" t="s">
+      <c r="D6" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="E6" s="96" t="s">
         <v>194</v>
-      </c>
-      <c r="E6" s="97" t="s">
-        <v>195</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37">
@@ -35955,34 +35976,34 @@
         <v>1.0</v>
       </c>
       <c r="I6" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="J6" s="58" t="s">
         <v>196</v>
       </c>
-      <c r="J6" s="58" t="s">
+      <c r="K6" s="94" t="s">
         <v>197</v>
-      </c>
-      <c r="K6" s="95" t="s">
-        <v>198</v>
       </c>
       <c r="L6" s="38"/>
       <c r="M6" s="38" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="B7" s="91" t="s">
         <v>200</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="C7" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="D7" s="37" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="E7" s="96" t="s">
         <v>203</v>
-      </c>
-      <c r="E7" s="97" t="s">
-        <v>204</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
@@ -35990,32 +36011,32 @@
         <v>1.0</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J7" s="58"/>
       <c r="L7" s="38"/>
       <c r="M7" s="38" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="B8" s="97">
+        <v>1.0</v>
+      </c>
+      <c r="C8" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="B8" s="98">
-        <v>1.0</v>
-      </c>
-      <c r="C8" s="37" t="s">
+      <c r="D8" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="E8" s="92" t="s">
         <v>209</v>
       </c>
-      <c r="E8" s="93" t="s">
+      <c r="F8" s="93" t="s">
         <v>210</v>
-      </c>
-      <c r="F8" s="94" t="s">
-        <v>211</v>
       </c>
       <c r="G8" s="37"/>
       <c r="H8" s="37">
@@ -36025,170 +36046,170 @@
       <c r="J8" s="58"/>
       <c r="L8" s="38"/>
       <c r="M8" s="38" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" s="95"/>
+      <c r="C9" s="37" t="s">
         <v>213</v>
       </c>
-      <c r="B9" s="96"/>
-      <c r="C9" s="37" t="s">
+      <c r="D9" s="37" t="s">
         <v>214</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="E9" s="92" t="s">
         <v>215</v>
       </c>
-      <c r="E9" s="93" t="s">
-        <v>216</v>
-      </c>
-      <c r="F9" s="99"/>
+      <c r="F9" s="98"/>
       <c r="G9" s="37"/>
       <c r="H9" s="37">
         <v>0.0</v>
       </c>
-      <c r="I9" s="100" t="s">
+      <c r="I9" s="99" t="s">
+        <v>216</v>
+      </c>
+      <c r="J9" s="58"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="38" t="s">
         <v>217</v>
-      </c>
-      <c r="J9" s="58"/>
-      <c r="L9" s="86"/>
-      <c r="M9" s="38" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="37" t="s">
+        <v>218</v>
+      </c>
+      <c r="B10" s="95"/>
+      <c r="C10" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="B10" s="96"/>
-      <c r="C10" s="37" t="s">
+      <c r="D10" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="E10" s="92" t="s">
         <v>221</v>
       </c>
-      <c r="E10" s="93" t="s">
+      <c r="F10" s="38" t="s">
         <v>222</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>223</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="37">
         <v>1.0</v>
       </c>
-      <c r="I10" s="101"/>
+      <c r="I10" s="100"/>
       <c r="J10" s="58"/>
-      <c r="L10" s="87"/>
+      <c r="L10" s="86"/>
       <c r="M10" s="38" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="B11" s="97" t="s">
         <v>225</v>
       </c>
-      <c r="B11" s="98" t="s">
+      <c r="C11" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="D11" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="E11" s="92" t="s">
         <v>228</v>
       </c>
-      <c r="E11" s="93" t="s">
-        <v>229</v>
-      </c>
       <c r="F11" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="37">
         <v>1.0</v>
       </c>
-      <c r="I11" s="100" t="s">
+      <c r="I11" s="99" t="s">
+        <v>229</v>
+      </c>
+      <c r="J11" s="58" t="s">
         <v>230</v>
-      </c>
-      <c r="J11" s="58" t="s">
-        <v>231</v>
       </c>
       <c r="L11" s="38"/>
       <c r="M11" s="38" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" s="97"/>
+      <c r="C12" s="37" t="s">
         <v>233</v>
       </c>
-      <c r="B12" s="98"/>
-      <c r="C12" s="37" t="s">
+      <c r="D12" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="E12" s="92" t="s">
         <v>235</v>
-      </c>
-      <c r="E12" s="93" t="s">
-        <v>236</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37">
         <v>0.0</v>
       </c>
-      <c r="I12" s="100" t="s">
-        <v>237</v>
+      <c r="I12" s="99" t="s">
+        <v>236</v>
       </c>
       <c r="J12" s="58"/>
       <c r="L12" s="38"/>
       <c r="M12" s="38" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13" s="97">
+        <v>2.0</v>
+      </c>
+      <c r="C13" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="B13" s="98">
-        <v>2.0</v>
-      </c>
-      <c r="C13" s="37" t="s">
+      <c r="D13" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="E13" s="92" t="s">
         <v>241</v>
       </c>
-      <c r="E13" s="93" t="s">
-        <v>242</v>
-      </c>
       <c r="F13" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G13" s="37"/>
       <c r="H13" s="37">
         <v>1.0</v>
       </c>
-      <c r="I13" s="100"/>
+      <c r="I13" s="99"/>
       <c r="J13" s="58"/>
       <c r="L13" s="38"/>
       <c r="M13" s="38" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="37" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="101"/>
+      <c r="C14" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="37" t="s">
+      <c r="D14" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="E14" s="37" t="s">
         <v>246</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>247</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
@@ -36196,253 +36217,253 @@
         <v>1.0</v>
       </c>
       <c r="I14" s="37" t="s">
+        <v>247</v>
+      </c>
+      <c r="J14" s="37"/>
+      <c r="K14" s="102" t="s">
         <v>248</v>
-      </c>
-      <c r="J14" s="37"/>
-      <c r="K14" s="103" t="s">
-        <v>249</v>
       </c>
       <c r="L14" s="38"/>
       <c r="M14" s="38" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="103" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="104" t="s">
+      <c r="B15" s="104"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103" t="s">
         <v>251</v>
       </c>
-      <c r="B15" s="105"/>
-      <c r="C15" s="104"/>
-      <c r="D15" s="104" t="s">
+      <c r="E15" s="105"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="103">
+        <v>1.0</v>
+      </c>
+      <c r="H15" s="103"/>
+      <c r="I15" s="106" t="s">
         <v>252</v>
       </c>
-      <c r="E15" s="106"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="104">
-        <v>1.0</v>
-      </c>
-      <c r="H15" s="104"/>
-      <c r="I15" s="107" t="s">
+      <c r="J15" s="82"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="85" t="s">
         <v>253</v>
-      </c>
-      <c r="J15" s="82"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="85" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="B16" s="97" t="s">
         <v>255</v>
       </c>
-      <c r="B16" s="98" t="s">
+      <c r="C16" s="107" t="s">
         <v>256</v>
       </c>
-      <c r="C16" s="108" t="s">
+      <c r="D16" s="107" t="s">
         <v>257</v>
       </c>
-      <c r="D16" s="108" t="s">
+      <c r="E16" s="108" t="s">
         <v>258</v>
       </c>
-      <c r="E16" s="109" t="s">
+      <c r="F16" s="109" t="s">
         <v>259</v>
       </c>
-      <c r="F16" s="110" t="s">
+      <c r="G16" s="107"/>
+      <c r="H16" s="107">
+        <v>1.0</v>
+      </c>
+      <c r="I16" s="110" t="s">
         <v>260</v>
       </c>
-      <c r="G16" s="108"/>
-      <c r="H16" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="I16" s="111" t="s">
+      <c r="J16" s="111" t="s">
         <v>261</v>
-      </c>
-      <c r="J16" s="112" t="s">
-        <v>262</v>
       </c>
       <c r="L16" s="38"/>
       <c r="M16" s="38" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="37" t="s">
+        <v>263</v>
+      </c>
+      <c r="B17" s="95" t="s">
         <v>264</v>
       </c>
-      <c r="B17" s="96" t="s">
+      <c r="C17" s="107" t="s">
         <v>265</v>
       </c>
-      <c r="C17" s="108" t="s">
+      <c r="D17" s="107" t="s">
         <v>266</v>
       </c>
-      <c r="D17" s="108" t="s">
+      <c r="E17" s="108" t="s">
         <v>267</v>
       </c>
-      <c r="E17" s="109" t="s">
+      <c r="F17" s="109" t="s">
+        <v>259</v>
+      </c>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107">
+        <v>1.0</v>
+      </c>
+      <c r="I17" s="110" t="s">
         <v>268</v>
       </c>
-      <c r="F17" s="110" t="s">
-        <v>260</v>
-      </c>
-      <c r="G17" s="108"/>
-      <c r="H17" s="108">
-        <v>1.0</v>
-      </c>
-      <c r="I17" s="111" t="s">
+      <c r="J17" s="111" t="s">
         <v>269</v>
-      </c>
-      <c r="J17" s="112" t="s">
-        <v>270</v>
       </c>
       <c r="L17" s="38"/>
       <c r="M17" s="38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="37" t="s">
+        <v>271</v>
+      </c>
+      <c r="B18" s="95" t="s">
         <v>272</v>
       </c>
-      <c r="B18" s="96" t="s">
+      <c r="C18" s="37" t="s">
         <v>273</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="D18" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="E18" s="92" t="s">
         <v>275</v>
       </c>
-      <c r="E18" s="93" t="s">
-        <v>276</v>
-      </c>
-      <c r="F18" s="113" t="s">
-        <v>260</v>
+      <c r="F18" s="112" t="s">
+        <v>259</v>
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="37">
         <v>1.0</v>
       </c>
-      <c r="I18" s="101"/>
+      <c r="I18" s="100"/>
       <c r="J18" s="58"/>
       <c r="L18" s="38"/>
       <c r="M18" s="38" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="B19" s="95">
+        <v>19.0</v>
+      </c>
+      <c r="C19" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="B19" s="96">
-        <v>19.0</v>
-      </c>
-      <c r="C19" s="37" t="s">
+      <c r="D19" s="37" t="s">
         <v>279</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="E19" s="92" t="s">
         <v>280</v>
       </c>
-      <c r="E19" s="93" t="s">
+      <c r="F19" s="112" t="s">
         <v>281</v>
-      </c>
-      <c r="F19" s="113" t="s">
-        <v>282</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="37">
         <v>1.0</v>
       </c>
-      <c r="I19" s="101"/>
+      <c r="I19" s="100"/>
       <c r="J19" s="58"/>
       <c r="L19" s="38"/>
       <c r="M19" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="B20" s="95">
+        <v>20.0</v>
+      </c>
+      <c r="C20" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="B20" s="96">
-        <v>20.0</v>
-      </c>
-      <c r="C20" s="37" t="s">
+      <c r="D20" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="D20" s="37" t="s">
+      <c r="E20" s="92" t="s">
         <v>286</v>
       </c>
-      <c r="E20" s="93" t="s">
-        <v>287</v>
-      </c>
-      <c r="F20" s="113" t="s">
-        <v>260</v>
+      <c r="F20" s="112" t="s">
+        <v>259</v>
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="37">
         <v>1.0</v>
       </c>
-      <c r="I20" s="101" t="s">
+      <c r="I20" s="100" t="s">
+        <v>287</v>
+      </c>
+      <c r="J20" s="58"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="38" t="s">
         <v>288</v>
       </c>
-      <c r="J20" s="58"/>
-      <c r="L20" s="86"/>
-      <c r="M20" s="38" t="s">
+    </row>
+    <row r="21">
+      <c r="A21" s="103" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="104" t="s">
+      <c r="B21" s="113"/>
+      <c r="C21" s="103"/>
+      <c r="D21" s="103" t="s">
         <v>290</v>
       </c>
-      <c r="B21" s="114"/>
-      <c r="C21" s="104"/>
-      <c r="D21" s="104" t="s">
+      <c r="E21" s="105"/>
+      <c r="F21" s="114"/>
+      <c r="G21" s="115">
+        <v>1.0</v>
+      </c>
+      <c r="H21" s="115"/>
+      <c r="I21" s="106" t="s">
         <v>291</v>
-      </c>
-      <c r="E21" s="106"/>
-      <c r="F21" s="115"/>
-      <c r="G21" s="116">
-        <v>1.0</v>
-      </c>
-      <c r="H21" s="116"/>
-      <c r="I21" s="107" t="s">
-        <v>292</v>
       </c>
       <c r="J21" s="82"/>
       <c r="L21" s="38"/>
       <c r="M21" s="85" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="B22" s="95" t="s">
         <v>294</v>
       </c>
-      <c r="B22" s="96" t="s">
+      <c r="C22" s="37" t="s">
         <v>295</v>
       </c>
-      <c r="C22" s="37" t="s">
+      <c r="D22" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="D22" s="37" t="s">
+      <c r="E22" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="E22" s="37" t="s">
+      <c r="F22" s="116"/>
+      <c r="G22" s="116"/>
+      <c r="H22" s="116">
+        <v>1.0</v>
+      </c>
+      <c r="I22" s="79" t="s">
         <v>298</v>
       </c>
-      <c r="F22" s="117"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="117">
-        <v>1.0</v>
-      </c>
-      <c r="I22" s="79" t="s">
+      <c r="J22" s="58"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="38" t="s">
         <v>299</v>
-      </c>
-      <c r="J22" s="58"/>
-      <c r="L22" s="86"/>
-      <c r="M22" s="38" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
@@ -37530,21 +37551,21 @@
       <c r="D1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="70"/>
+      <c r="E1" s="71"/>
       <c r="F1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="84.0" customHeight="1">
       <c r="A2" s="44" t="s">
+        <v>300</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>301</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>302</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="46" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="47">
@@ -37553,31 +37574,31 @@
     </row>
     <row r="3" ht="14.25" customHeight="1"/>
     <row r="4">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="88" t="s">
+      <c r="F4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="88" t="s">
+      <c r="G4" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="88" t="s">
-        <v>304</v>
-      </c>
-      <c r="I4" s="118" t="s">
+      <c r="H4" s="87" t="s">
+        <v>303</v>
+      </c>
+      <c r="I4" s="117" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="17" t="s">
@@ -37589,97 +37610,97 @@
     </row>
     <row r="5">
       <c r="A5" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="C5" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="D5" s="37" t="s">
         <v>307</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>308</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
       <c r="G5" s="37">
         <v>0.0</v>
       </c>
-      <c r="H5" s="93" t="s">
-        <v>309</v>
-      </c>
-      <c r="I5" s="100"/>
+      <c r="H5" s="92" t="s">
+        <v>308</v>
+      </c>
+      <c r="I5" s="99"/>
       <c r="J5" s="38"/>
       <c r="K5" s="38" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="37" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" s="37" t="s">
         <v>311</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="C6" s="37" t="s">
         <v>312</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="D6" s="37" t="s">
         <v>313</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>314</v>
       </c>
       <c r="E6" s="37"/>
       <c r="F6" s="37"/>
       <c r="G6" s="37">
         <v>1.0</v>
       </c>
-      <c r="H6" s="93" t="s">
-        <v>315</v>
+      <c r="H6" s="92" t="s">
+        <v>314</v>
       </c>
       <c r="I6" s="37"/>
       <c r="J6" s="38"/>
       <c r="K6" s="38" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="B7" s="37" t="s">
         <v>317</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="C7" s="37" t="s">
         <v>318</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="D7" s="37" t="s">
         <v>319</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>320</v>
       </c>
       <c r="E7" s="37"/>
       <c r="F7" s="37"/>
       <c r="G7" s="37">
         <v>1.0</v>
       </c>
-      <c r="H7" s="93" t="s">
-        <v>315</v>
+      <c r="H7" s="92" t="s">
+        <v>314</v>
       </c>
       <c r="I7" s="37"/>
       <c r="J7" s="38"/>
       <c r="K7" s="38" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="B8" s="37" t="s">
         <v>322</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="C8" s="37" t="s">
         <v>323</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="D8" s="37" t="s">
         <v>324</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>325</v>
       </c>
       <c r="E8" s="37"/>
       <c r="F8" s="37">
@@ -37688,28 +37709,28 @@
       <c r="G8" s="37">
         <v>1.0</v>
       </c>
-      <c r="H8" s="93"/>
+      <c r="H8" s="92"/>
       <c r="I8" s="37"/>
       <c r="J8" s="38"/>
       <c r="K8" s="38" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="37" t="s">
+        <v>326</v>
+      </c>
+      <c r="B9" s="37" t="s">
         <v>327</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="C9" s="37" t="s">
         <v>328</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="D9" s="37" t="s">
         <v>329</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="E9" s="118" t="s">
         <v>330</v>
-      </c>
-      <c r="E9" s="119" t="s">
-        <v>331</v>
       </c>
       <c r="F9" s="37">
         <v>1.0</v>
@@ -37717,54 +37738,54 @@
       <c r="G9" s="37">
         <v>1.0</v>
       </c>
-      <c r="H9" s="93"/>
+      <c r="H9" s="92"/>
       <c r="I9" s="37" t="s">
+        <v>331</v>
+      </c>
+      <c r="J9" s="28"/>
+      <c r="K9" s="38" t="s">
         <v>332</v>
-      </c>
-      <c r="J9" s="86"/>
-      <c r="K9" s="38" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="B10" s="37" t="s">
         <v>334</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="C10" s="37" t="s">
         <v>335</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="D10" s="37" t="s">
         <v>336</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>337</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
       <c r="G10" s="37">
         <v>1.0</v>
       </c>
-      <c r="H10" s="120" t="s">
+      <c r="H10" s="119" t="s">
+        <v>337</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="38" t="s">
         <v>338</v>
-      </c>
-      <c r="I10" s="37"/>
-      <c r="J10" s="87"/>
-      <c r="K10" s="38" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="37" t="s">
+        <v>339</v>
+      </c>
+      <c r="B11" s="37" t="s">
         <v>340</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="C11" s="37" t="s">
         <v>341</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="D11" s="37" t="s">
         <v>342</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>343</v>
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="37">
@@ -37774,14 +37795,14 @@
         <v>1.0</v>
       </c>
       <c r="H11" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="I11" s="37" t="s">
         <v>344</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>345</v>
       </c>
       <c r="J11" s="38"/>
       <c r="K11" s="38" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L11" s="80"/>
       <c r="M11" s="80"/>
@@ -38817,21 +38838,21 @@
       <c r="D1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="70"/>
+      <c r="E1" s="71"/>
       <c r="F1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="82.5" customHeight="1">
       <c r="A2" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>347</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>348</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="46" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="47">
@@ -38839,25 +38860,25 @@
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="K3" s="121"/>
+      <c r="K3" s="120"/>
     </row>
     <row r="4">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="88" t="s">
+      <c r="F4" s="87" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="17" t="s">
@@ -38866,134 +38887,134 @@
       <c r="H4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="88" t="s">
+      <c r="I4" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="88" t="s">
-        <v>304</v>
-      </c>
-      <c r="K4" s="118" t="s">
+      <c r="J4" s="87" t="s">
+        <v>303</v>
+      </c>
+      <c r="K4" s="117" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>350</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="C5" s="99" t="s">
         <v>351</v>
       </c>
-      <c r="C5" s="100" t="s">
+      <c r="D5" s="99" t="s">
         <v>352</v>
       </c>
-      <c r="D5" s="100" t="s">
-        <v>353</v>
-      </c>
-      <c r="E5" s="101"/>
+      <c r="E5" s="100"/>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
       <c r="H5" s="38" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I5" s="37">
         <v>0.0</v>
       </c>
-      <c r="J5" s="120" t="s">
-        <v>355</v>
-      </c>
-      <c r="K5" s="100"/>
+      <c r="J5" s="119" t="s">
+        <v>354</v>
+      </c>
+      <c r="K5" s="99"/>
     </row>
     <row r="6">
       <c r="A6" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="B6" s="37" t="s">
         <v>356</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="C6" s="37" t="s">
         <v>357</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="D6" s="37" t="s">
         <v>358</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="E6" s="38" t="s">
         <v>359</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>360</v>
       </c>
       <c r="F6" s="37">
         <v>1.0</v>
       </c>
       <c r="G6" s="37"/>
       <c r="H6" s="38" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I6" s="37">
         <v>1.0</v>
       </c>
-      <c r="J6" s="93"/>
+      <c r="J6" s="92"/>
       <c r="K6" s="37"/>
     </row>
     <row r="7">
-      <c r="A7" s="122" t="s">
+      <c r="A7" s="121" t="s">
+        <v>361</v>
+      </c>
+      <c r="B7" s="121"/>
+      <c r="C7" s="121" t="s">
         <v>362</v>
       </c>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122" t="s">
+      <c r="D7" s="121"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="121"/>
+      <c r="H7" s="85" t="s">
         <v>363</v>
       </c>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="85" t="s">
+      <c r="I7" s="121">
+        <v>1.0</v>
+      </c>
+      <c r="J7" s="122" t="s">
         <v>364</v>
       </c>
-      <c r="I7" s="122">
-        <v>1.0</v>
-      </c>
-      <c r="J7" s="123" t="s">
-        <v>365</v>
-      </c>
-      <c r="K7" s="124"/>
+      <c r="K7" s="123"/>
     </row>
     <row r="8">
       <c r="A8" s="37" t="s">
+        <v>365</v>
+      </c>
+      <c r="B8" s="37" t="s">
         <v>366</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="C8" s="37" t="s">
         <v>367</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="D8" s="37" t="s">
         <v>368</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>369</v>
       </c>
       <c r="E8" s="37"/>
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
       <c r="H8" s="38" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I8" s="37">
         <v>1.0</v>
       </c>
-      <c r="J8" s="93" t="s">
-        <v>371</v>
-      </c>
-      <c r="K8" s="125"/>
+      <c r="J8" s="92" t="s">
+        <v>370</v>
+      </c>
+      <c r="K8" s="124"/>
     </row>
     <row r="9">
       <c r="A9" s="37" t="s">
+        <v>371</v>
+      </c>
+      <c r="B9" s="37" t="s">
         <v>372</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="C9" s="37" t="s">
         <v>373</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="D9" s="37" t="s">
         <v>374</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>375</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="37">
@@ -39001,107 +39022,107 @@
       </c>
       <c r="G9" s="37"/>
       <c r="H9" s="38" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I9" s="37">
         <v>1.0</v>
       </c>
-      <c r="J9" s="93"/>
-      <c r="K9" s="125"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="124"/>
     </row>
     <row r="10">
       <c r="A10" s="37" t="s">
+        <v>376</v>
+      </c>
+      <c r="B10" s="37" t="s">
         <v>377</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="C10" s="37" t="s">
         <v>378</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="D10" s="37" t="s">
         <v>379</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>380</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
       <c r="H10" s="38" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I10" s="37">
         <v>0.0</v>
       </c>
-      <c r="J10" s="93" t="s">
-        <v>382</v>
-      </c>
-      <c r="K10" s="125"/>
+      <c r="J10" s="92" t="s">
+        <v>381</v>
+      </c>
+      <c r="K10" s="124"/>
     </row>
     <row r="11">
       <c r="A11" s="37" t="s">
+        <v>382</v>
+      </c>
+      <c r="B11" s="37" t="s">
         <v>383</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="C11" s="37" t="s">
         <v>384</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="D11" s="37" t="s">
         <v>385</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>386</v>
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
       <c r="H11" s="38" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I11" s="37">
         <v>0.0</v>
       </c>
-      <c r="J11" s="93" t="s">
-        <v>388</v>
+      <c r="J11" s="92" t="s">
+        <v>387</v>
       </c>
       <c r="K11" s="37"/>
     </row>
     <row r="12">
       <c r="A12" s="37" t="s">
+        <v>388</v>
+      </c>
+      <c r="B12" s="37" t="s">
         <v>389</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="C12" s="37" t="s">
         <v>390</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="D12" s="37" t="s">
         <v>391</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>392</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
       <c r="H12" s="38" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I12" s="37">
         <v>0.0</v>
       </c>
-      <c r="J12" s="93" t="s">
-        <v>394</v>
-      </c>
-      <c r="K12" s="125"/>
+      <c r="J12" s="92" t="s">
+        <v>393</v>
+      </c>
+      <c r="K12" s="124"/>
     </row>
     <row r="13">
       <c r="A13" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="B13" s="37" t="s">
         <v>395</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="C13" s="37" t="s">
         <v>396</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="D13" s="37" t="s">
         <v>397</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>398</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="37">
@@ -39109,53 +39130,53 @@
       </c>
       <c r="G13" s="37"/>
       <c r="H13" s="38" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I13" s="37">
         <v>1.0</v>
       </c>
-      <c r="J13" s="93" t="s">
-        <v>400</v>
-      </c>
-      <c r="K13" s="125"/>
+      <c r="J13" s="92" t="s">
+        <v>399</v>
+      </c>
+      <c r="K13" s="124"/>
     </row>
     <row r="14">
       <c r="A14" s="37" t="s">
+        <v>400</v>
+      </c>
+      <c r="B14" s="37" t="s">
         <v>401</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="C14" s="37" t="s">
         <v>402</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="D14" s="37" t="s">
         <v>403</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>404</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
       <c r="H14" s="38" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I14" s="37">
         <v>0.0</v>
       </c>
-      <c r="J14" s="93"/>
-      <c r="K14" s="125"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="124"/>
     </row>
     <row r="15">
       <c r="A15" s="37" t="s">
+        <v>405</v>
+      </c>
+      <c r="B15" s="37" t="s">
         <v>406</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="C15" s="37" t="s">
         <v>407</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="D15" s="37" t="s">
         <v>408</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>409</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="37">
@@ -39163,53 +39184,53 @@
       </c>
       <c r="G15" s="37"/>
       <c r="H15" s="38" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I15" s="37">
         <v>1.0</v>
       </c>
-      <c r="J15" s="93" t="s">
-        <v>411</v>
-      </c>
-      <c r="K15" s="125"/>
+      <c r="J15" s="92" t="s">
+        <v>410</v>
+      </c>
+      <c r="K15" s="124"/>
     </row>
     <row r="16">
       <c r="A16" s="37" t="s">
+        <v>411</v>
+      </c>
+      <c r="B16" s="37" t="s">
         <v>412</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="C16" s="37" t="s">
         <v>413</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="D16" s="37" t="s">
         <v>414</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>415</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
       <c r="H16" s="38" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I16" s="37">
         <v>0.0</v>
       </c>
-      <c r="J16" s="93"/>
-      <c r="K16" s="125"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="124"/>
     </row>
     <row r="17">
       <c r="A17" s="37" t="s">
+        <v>416</v>
+      </c>
+      <c r="B17" s="37" t="s">
         <v>417</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="C17" s="37" t="s">
         <v>418</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="D17" s="37" t="s">
         <v>419</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>420</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="37">
@@ -39217,38 +39238,38 @@
       </c>
       <c r="G17" s="37"/>
       <c r="H17" s="38" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I17" s="37">
         <v>1.0</v>
       </c>
-      <c r="J17" s="93"/>
-      <c r="K17" s="125"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="124"/>
     </row>
     <row r="18">
       <c r="A18" s="37" t="s">
+        <v>421</v>
+      </c>
+      <c r="B18" s="37" t="s">
         <v>422</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="C18" s="37" t="s">
         <v>423</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="D18" s="37" t="s">
         <v>424</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>425</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
       <c r="H18" s="38" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I18" s="37">
         <v>0.0</v>
       </c>
-      <c r="J18" s="93"/>
-      <c r="K18" s="125"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="124"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="C19" s="39"/>
@@ -40290,28 +40311,28 @@
       <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="126" t="s">
+      <c r="B1" s="125" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="70"/>
+      <c r="E1" s="71"/>
       <c r="F1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="75.0" customHeight="1">
       <c r="A2" s="44" t="s">
+        <v>426</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>427</v>
       </c>
-      <c r="B2" s="46" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="126" t="s">
         <v>428</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="127" t="s">
-        <v>429</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="47">
@@ -40320,25 +40341,25 @@
     </row>
     <row r="3" ht="13.5" customHeight="1"/>
     <row r="4">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="128" t="s">
-        <v>184</v>
-      </c>
-      <c r="C4" s="88" t="s">
+      <c r="B4" s="127" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="91" t="s">
+      <c r="F4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="88" t="s">
+      <c r="G4" s="87" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="17" t="s">
@@ -40347,87 +40368,87 @@
       <c r="I4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="88" t="s">
+      <c r="J4" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="88" t="s">
+      <c r="K4" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="118" t="s">
+      <c r="L4" s="117" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="38" t="s">
+        <v>429</v>
+      </c>
+      <c r="B5" s="101"/>
+      <c r="C5" s="37" t="s">
         <v>430</v>
       </c>
-      <c r="B5" s="102"/>
-      <c r="C5" s="37" t="s">
+      <c r="D5" s="37" t="s">
         <v>431</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="E5" s="37" t="s">
         <v>432</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>433</v>
       </c>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
       <c r="H5" s="37"/>
       <c r="I5" s="38" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J5" s="37">
         <v>0.0</v>
       </c>
       <c r="K5" s="37" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="L5" s="37"/>
     </row>
     <row r="6">
       <c r="A6" s="38" t="s">
+        <v>435</v>
+      </c>
+      <c r="B6" s="101"/>
+      <c r="C6" s="37" t="s">
         <v>436</v>
       </c>
-      <c r="B6" s="102"/>
-      <c r="C6" s="37" t="s">
+      <c r="D6" s="37" t="s">
         <v>437</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="E6" s="37" t="s">
         <v>438</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>439</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
       <c r="H6" s="37"/>
       <c r="I6" s="38" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="J6" s="37">
         <v>0.0</v>
       </c>
       <c r="K6" s="37" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="L6" s="37"/>
     </row>
     <row r="7">
       <c r="A7" s="38" t="s">
+        <v>441</v>
+      </c>
+      <c r="B7" s="101">
+        <v>21.0</v>
+      </c>
+      <c r="C7" s="37" t="s">
         <v>442</v>
       </c>
-      <c r="B7" s="102">
-        <v>21.0</v>
-      </c>
-      <c r="C7" s="37" t="s">
+      <c r="D7" s="37" t="s">
         <v>443</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="E7" s="37" t="s">
         <v>444</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>445</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37">
@@ -40435,32 +40456,32 @@
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="38" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J7" s="37">
         <v>1.0</v>
       </c>
       <c r="K7" s="37" t="s">
+        <v>446</v>
+      </c>
+      <c r="L7" s="37"/>
+      <c r="M7" s="128" t="s">
         <v>447</v>
-      </c>
-      <c r="L7" s="37"/>
-      <c r="M7" s="129" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="38" t="s">
+        <v>448</v>
+      </c>
+      <c r="B8" s="101"/>
+      <c r="C8" s="37" t="s">
         <v>449</v>
       </c>
-      <c r="B8" s="102"/>
-      <c r="C8" s="37" t="s">
+      <c r="D8" s="37" t="s">
         <v>450</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="E8" s="37" t="s">
         <v>451</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>452</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="37">
@@ -40468,98 +40489,98 @@
       </c>
       <c r="H8" s="37"/>
       <c r="I8" s="38" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J8" s="37">
         <v>1.0</v>
       </c>
       <c r="K8" s="37" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="L8" s="37"/>
     </row>
     <row r="9">
       <c r="A9" s="38" t="s">
+        <v>454</v>
+      </c>
+      <c r="B9" s="101"/>
+      <c r="C9" s="37" t="s">
         <v>455</v>
       </c>
-      <c r="B9" s="102"/>
-      <c r="C9" s="37" t="s">
+      <c r="D9" s="37" t="s">
         <v>456</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="E9" s="37" t="s">
         <v>457</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>458</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
       <c r="I9" s="38" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="J9" s="37">
         <v>0.0</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="L9" s="37"/>
-      <c r="M9" s="129" t="s">
-        <v>448</v>
+      <c r="M9" s="128" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="38" t="s">
+        <v>460</v>
+      </c>
+      <c r="B10" s="101"/>
+      <c r="C10" s="37" t="s">
         <v>461</v>
       </c>
-      <c r="B10" s="102"/>
-      <c r="C10" s="37" t="s">
+      <c r="D10" s="37" t="s">
         <v>462</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="E10" s="37" t="s">
         <v>463</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>464</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
       <c r="I10" s="38" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="J10" s="37">
         <v>0.0</v>
       </c>
       <c r="K10" s="37" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="L10" s="37"/>
     </row>
     <row r="11">
       <c r="A11" s="38" t="s">
+        <v>466</v>
+      </c>
+      <c r="B11" s="101" t="s">
         <v>467</v>
       </c>
-      <c r="B11" s="102" t="s">
+      <c r="C11" s="37" t="s">
         <v>468</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="D11" s="37" t="s">
         <v>469</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="E11" s="37" t="s">
         <v>470</v>
       </c>
-      <c r="E11" s="37" t="s">
-        <v>471</v>
-      </c>
-      <c r="F11" s="101"/>
+      <c r="F11" s="100"/>
       <c r="G11" s="37">
         <v>1.0</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="38" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J11" s="37">
         <v>1.0</v>
@@ -40569,47 +40590,47 @@
     </row>
     <row r="12">
       <c r="A12" s="38" t="s">
+        <v>472</v>
+      </c>
+      <c r="B12" s="101"/>
+      <c r="C12" s="37" t="s">
         <v>473</v>
       </c>
-      <c r="B12" s="102"/>
-      <c r="C12" s="37" t="s">
+      <c r="D12" s="37" t="s">
         <v>474</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="E12" s="37" t="s">
         <v>475</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>476</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
       <c r="I12" s="38" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J12" s="37">
         <v>0.0</v>
       </c>
       <c r="K12" s="37" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="L12" s="37"/>
     </row>
     <row r="13">
       <c r="A13" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="B13" s="101">
+        <v>22.0</v>
+      </c>
+      <c r="C13" s="37" t="s">
         <v>479</v>
       </c>
-      <c r="B13" s="102">
-        <v>22.0</v>
-      </c>
-      <c r="C13" s="37" t="s">
+      <c r="D13" s="37" t="s">
         <v>480</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="E13" s="37" t="s">
         <v>481</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>482</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37">
@@ -40617,35 +40638,35 @@
       </c>
       <c r="H13" s="37"/>
       <c r="I13" s="38" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="J13" s="37">
         <v>1.0</v>
       </c>
       <c r="K13" s="37" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="L13" s="37"/>
     </row>
     <row r="14">
       <c r="A14" s="38" t="s">
+        <v>484</v>
+      </c>
+      <c r="B14" s="101"/>
+      <c r="C14" s="37" t="s">
         <v>485</v>
       </c>
-      <c r="B14" s="102"/>
-      <c r="C14" s="37" t="s">
+      <c r="D14" s="37" t="s">
         <v>486</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="E14" s="37" t="s">
         <v>487</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>488</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
       <c r="I14" s="38" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="J14" s="37">
         <v>0.0</v>
@@ -40655,23 +40676,23 @@
     </row>
     <row r="15">
       <c r="A15" s="38" t="s">
+        <v>489</v>
+      </c>
+      <c r="B15" s="101"/>
+      <c r="C15" s="37" t="s">
         <v>490</v>
       </c>
-      <c r="B15" s="102"/>
-      <c r="C15" s="37" t="s">
+      <c r="D15" s="37" t="s">
         <v>491</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="E15" s="37" t="s">
         <v>492</v>
-      </c>
-      <c r="E15" s="37" t="s">
-        <v>493</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
       <c r="I15" s="38" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="J15" s="37">
         <v>0.0</v>
@@ -40681,105 +40702,105 @@
     </row>
     <row r="16">
       <c r="A16" s="38" t="s">
+        <v>494</v>
+      </c>
+      <c r="B16" s="101"/>
+      <c r="C16" s="37" t="s">
         <v>495</v>
       </c>
-      <c r="B16" s="102"/>
-      <c r="C16" s="37" t="s">
+      <c r="D16" s="37" t="s">
         <v>496</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="E16" s="37" t="s">
         <v>497</v>
       </c>
-      <c r="E16" s="37" t="s">
+      <c r="F16" s="93" t="s">
         <v>498</v>
-      </c>
-      <c r="F16" s="94" t="s">
-        <v>499</v>
       </c>
       <c r="G16" s="37">
         <v>1.0</v>
       </c>
       <c r="H16" s="37"/>
       <c r="I16" s="38" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J16" s="37">
         <v>1.0</v>
       </c>
       <c r="K16" s="37" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="L16" s="37"/>
     </row>
     <row r="17">
       <c r="A17" s="38" t="s">
+        <v>501</v>
+      </c>
+      <c r="B17" s="101"/>
+      <c r="C17" s="37" t="s">
+        <v>455</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>431</v>
+      </c>
+      <c r="E17" s="37" t="s">
         <v>502</v>
-      </c>
-      <c r="B17" s="102"/>
-      <c r="C17" s="37" t="s">
-        <v>456</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>432</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>503</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
       <c r="I17" s="38" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="J17" s="37">
         <v>1.0</v>
       </c>
       <c r="K17" s="37" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="L17" s="37"/>
     </row>
     <row r="18">
       <c r="A18" s="38" t="s">
+        <v>505</v>
+      </c>
+      <c r="B18" s="101"/>
+      <c r="C18" s="37" t="s">
         <v>506</v>
       </c>
-      <c r="B18" s="102"/>
-      <c r="C18" s="37" t="s">
+      <c r="D18" s="37" t="s">
         <v>507</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="E18" s="37" t="s">
         <v>508</v>
-      </c>
-      <c r="E18" s="37" t="s">
-        <v>509</v>
       </c>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
       <c r="I18" s="38" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="J18" s="37">
         <v>1.0</v>
       </c>
       <c r="K18" s="37" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="L18" s="37"/>
     </row>
     <row r="19">
       <c r="A19" s="38" t="s">
+        <v>511</v>
+      </c>
+      <c r="B19" s="101"/>
+      <c r="C19" s="37" t="s">
         <v>512</v>
       </c>
-      <c r="B19" s="102"/>
-      <c r="C19" s="37" t="s">
+      <c r="D19" s="37" t="s">
         <v>513</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="E19" s="37" t="s">
         <v>514</v>
-      </c>
-      <c r="E19" s="37" t="s">
-        <v>515</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" s="37">
@@ -40787,7 +40808,7 @@
       </c>
       <c r="H19" s="37"/>
       <c r="I19" s="38" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J19" s="37">
         <v>1.0</v>
@@ -41825,48 +41846,48 @@
       <c r="D1" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="70"/>
+      <c r="E1" s="71"/>
       <c r="F1" s="43" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="49.5" customHeight="1">
       <c r="A2" s="44" t="s">
+        <v>516</v>
+      </c>
+      <c r="B2" s="46" t="s">
         <v>517</v>
-      </c>
-      <c r="B2" s="46" t="s">
-        <v>518</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="46" t="s">
-        <v>519</v>
-      </c>
-      <c r="E2" s="71"/>
-      <c r="F2" s="130">
+        <v>518</v>
+      </c>
+      <c r="E2" s="72"/>
+      <c r="F2" s="129">
         <v>0.1</v>
       </c>
-      <c r="G2" s="131"/>
-      <c r="H2" s="132"/>
-      <c r="I2" s="132"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
     </row>
     <row r="3" ht="14.25" customHeight="1"/>
     <row r="4">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="88" t="s">
+      <c r="D4" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="91" t="s">
+      <c r="E4" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="88" t="s">
+      <c r="F4" s="87" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="17" t="s">
@@ -41875,28 +41896,28 @@
       <c r="H4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="88" t="s">
+      <c r="I4" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="88" t="s">
+      <c r="J4" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="118" t="s">
+      <c r="K4" s="117" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="37" t="s">
+        <v>519</v>
+      </c>
+      <c r="B5" s="37" t="s">
         <v>520</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="C5" s="37" t="s">
         <v>521</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="D5" s="37" t="s">
         <v>522</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>523</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" s="37">
@@ -41904,34 +41925,34 @@
       </c>
       <c r="G5" s="37"/>
       <c r="H5" s="38" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I5" s="37">
         <v>0.0</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="K5" s="37"/>
     </row>
     <row r="6">
       <c r="A6" s="37" t="s">
+        <v>525</v>
+      </c>
+      <c r="B6" s="37" t="s">
         <v>526</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="C6" s="37" t="s">
         <v>527</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="D6" s="37" t="s">
         <v>528</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>529</v>
       </c>
       <c r="E6" s="37"/>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
       <c r="H6" s="38" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I6" s="37">
         <v>0.0</v>
@@ -41941,49 +41962,49 @@
     </row>
     <row r="7">
       <c r="A7" s="37" t="s">
+        <v>530</v>
+      </c>
+      <c r="B7" s="37" t="s">
         <v>531</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="C7" s="37" t="s">
         <v>532</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="D7" s="37" t="s">
         <v>533</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>534</v>
       </c>
       <c r="E7" s="37"/>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
       <c r="H7" s="38" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I7" s="37">
         <v>0.0</v>
       </c>
-      <c r="J7" s="101" t="s">
-        <v>536</v>
+      <c r="J7" s="100" t="s">
+        <v>535</v>
       </c>
       <c r="K7" s="37"/>
     </row>
     <row r="8">
       <c r="A8" s="37" t="s">
+        <v>536</v>
+      </c>
+      <c r="B8" s="37" t="s">
         <v>537</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="C8" s="37" t="s">
         <v>538</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="D8" s="37" t="s">
         <v>539</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>540</v>
       </c>
       <c r="E8" s="37"/>
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
       <c r="H8" s="38" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I8" s="37">
         <v>0.0</v>
@@ -41993,22 +42014,22 @@
     </row>
     <row r="9">
       <c r="A9" s="37" t="s">
+        <v>541</v>
+      </c>
+      <c r="B9" s="37" t="s">
         <v>542</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="C9" s="37" t="s">
         <v>543</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="D9" s="37" t="s">
         <v>544</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>545</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
       <c r="H9" s="38" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I9" s="37">
         <v>1.0</v>
@@ -42018,26 +42039,26 @@
     </row>
     <row r="10">
       <c r="A10" s="37" t="s">
+        <v>546</v>
+      </c>
+      <c r="B10" s="37" t="s">
         <v>547</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="C10" s="37" t="s">
         <v>548</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="D10" s="37" t="s">
         <v>549</v>
       </c>
-      <c r="D10" s="37" t="s">
-        <v>550</v>
-      </c>
-      <c r="E10" s="113" t="s">
-        <v>223</v>
+      <c r="E10" s="112" t="s">
+        <v>222</v>
       </c>
       <c r="F10" s="37">
         <v>1.0</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="38" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I10" s="37">
         <v>1.0</v>
@@ -42047,24 +42068,24 @@
     </row>
     <row r="11">
       <c r="A11" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="B11" s="37" t="s">
         <v>552</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="C11" s="37" t="s">
         <v>553</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="D11" s="37" t="s">
         <v>554</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="E11" s="112" t="s">
         <v>555</v>
-      </c>
-      <c r="E11" s="113" t="s">
-        <v>556</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
       <c r="H11" s="38" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I11" s="37">
         <v>0.0</v>
@@ -42074,49 +42095,49 @@
     </row>
     <row r="12">
       <c r="A12" s="37" t="s">
+        <v>557</v>
+      </c>
+      <c r="B12" s="37" t="s">
         <v>558</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="C12" s="37" t="s">
         <v>559</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="D12" s="132" t="s">
         <v>560</v>
       </c>
-      <c r="D12" s="133" t="s">
+      <c r="E12" s="38" t="s">
         <v>561</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>562</v>
       </c>
       <c r="F12" s="37">
         <v>1.0</v>
       </c>
       <c r="G12" s="37"/>
       <c r="H12" s="38" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I12" s="37">
         <v>1.0</v>
       </c>
       <c r="J12" s="37" t="s">
+        <v>563</v>
+      </c>
+      <c r="K12" s="37" t="s">
         <v>564</v>
-      </c>
-      <c r="K12" s="37" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="37" t="s">
+        <v>565</v>
+      </c>
+      <c r="B13" s="37" t="s">
         <v>566</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="C13" s="37" t="s">
         <v>567</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="D13" s="37" t="s">
         <v>568</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>569</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="37">
@@ -42124,7 +42145,7 @@
       </c>
       <c r="G13" s="37"/>
       <c r="H13" s="38" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I13" s="37">
         <v>1.0</v>
@@ -42134,26 +42155,26 @@
     </row>
     <row r="14">
       <c r="A14" s="37" t="s">
+        <v>570</v>
+      </c>
+      <c r="B14" s="37" t="s">
         <v>571</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="C14" s="37" t="s">
         <v>572</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="D14" s="37" t="s">
         <v>573</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="E14" s="38" t="s">
         <v>574</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>575</v>
       </c>
       <c r="F14" s="37">
         <v>1.0</v>
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="38" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I14" s="37">
         <v>1.0</v>
@@ -42163,16 +42184,16 @@
     </row>
     <row r="15">
       <c r="A15" s="37" t="s">
+        <v>576</v>
+      </c>
+      <c r="B15" s="37" t="s">
         <v>577</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="C15" s="37" t="s">
         <v>578</v>
       </c>
-      <c r="C15" s="37" t="s">
-        <v>579</v>
-      </c>
       <c r="D15" s="37" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="37">
@@ -42180,34 +42201,34 @@
       </c>
       <c r="G15" s="37"/>
       <c r="H15" s="38" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I15" s="37">
         <v>1.0</v>
       </c>
-      <c r="J15" s="101" t="s">
-        <v>581</v>
+      <c r="J15" s="100" t="s">
+        <v>580</v>
       </c>
       <c r="K15" s="37"/>
     </row>
     <row r="16">
       <c r="A16" s="37" t="s">
+        <v>581</v>
+      </c>
+      <c r="B16" s="37" t="s">
         <v>582</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="C16" s="37" t="s">
         <v>583</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="D16" s="37" t="s">
         <v>584</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>585</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
       <c r="H16" s="38" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I16" s="37">
         <v>0.0</v>
@@ -42217,16 +42238,16 @@
     </row>
     <row r="17">
       <c r="A17" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="B17" s="37" t="s">
         <v>587</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="C17" s="37" t="s">
         <v>588</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="D17" s="37" t="s">
         <v>589</v>
-      </c>
-      <c r="D17" s="37" t="s">
-        <v>590</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="37">
@@ -42234,7 +42255,7 @@
       </c>
       <c r="G17" s="37"/>
       <c r="H17" s="38" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I17" s="37">
         <v>1.0</v>
@@ -42244,26 +42265,26 @@
     </row>
     <row r="18">
       <c r="A18" s="37" t="s">
+        <v>591</v>
+      </c>
+      <c r="B18" s="37" t="s">
         <v>592</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="C18" s="37" t="s">
         <v>593</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="D18" s="37" t="s">
         <v>594</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="E18" s="38" t="s">
         <v>595</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>596</v>
       </c>
       <c r="F18" s="37">
         <v>1.0</v>
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="38" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I18" s="37">
         <v>1.0</v>

--- a/Estimates 22 BDG [Final].xlsx
+++ b/Estimates 22 BDG [Final].xlsx
@@ -26,6 +26,13 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="E16">
+      <text>
+        <t xml:space="preserve">@jonathan@fjelltopp.org ADD LINK DIRECTLY TO USER'S ORGANIZATION PAGE / INPUTS PACKAGE FOR THIS YEAR.
+_Assigned to Jonathan Berry_
+	-Jonathan Berry</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="E9">
       <text>
         <t xml:space="preserve">@jonathan@fjelltopp.org ADD LINK DIRECTLY TO USER'S ORGANIZATION PAGE / INPUTS PACKAGE FOR THIS YEAR.
@@ -33,14 +40,7 @@
 	-Jonathan Berry</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E7">
-      <text>
-        <t xml:space="preserve">@jonathan@fjelltopp.org ADD LINK DIRECTLY TO USER'S ORGANIZATION PAGE / INPUTS PACKAGE FOR THIS YEAR.
-_Assigned to Jonathan Berry_
-	-Jonathan Berry</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D8">
+    <comment authorId="0" ref="D15">
       <text>
         <t xml:space="preserve">Unaids to add justification for why uploading data is important.
 	-Jonathan Berry</t>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="766" uniqueCount="631">
   <si>
     <t>Milestone Title (Visible to User):</t>
   </si>
@@ -704,6 +704,54 @@
     <t>check_manual_confirmation('EST-ADR-03-A')</t>
   </si>
   <si>
+    <t>ADR-03A</t>
+  </si>
+  <si>
+    <t>Upload your Shiny 90 Survey template to the ADR</t>
+  </si>
+  <si>
+    <t>Has the user uploaded a Shiny90 survey testing template?</t>
+  </si>
+  <si>
+    <t>It looks like you have not uploaded your Shiny90 survey file to the ADR.
+UNAIDS strongly recommends the use of the AIDS Data Repository (ADR) to store your estimates data, both inputs and outputs. Using ADR provides a number of advantages and efficiencies for your estimates process, including a secure location to store your data files as well as automated validation function to ensure your data meet formatting and minimum data quality requirements before beginning the data. Access your organization on ADR and find this year's inputs package. Upload each of the required files for this year's estimates process in the required format.
+**To upload your Shiny90 Survey template to the ADR:**
+- Open your estimates 2022 dataset in the ADR
+- Under *Missing Resources* find "Shiny90 Survey Data" and click *Add Data*
+- Drag your Shiny90 template file into the file upload zone
+- Add any useful notes about the file under *Description* 
+- Confirm the format field is correct
+- If you wish to share the file with someone outside your organisation you can do so under *Access Restriction* 
+- Click "Add" to upload the file</t>
+  </si>
+  <si>
+    <t>check_resource_key('inputs-unaids-shiny90-survey', 'url', '.*')</t>
+  </si>
+  <si>
+    <t>ADR-03B</t>
+  </si>
+  <si>
+    <t>Upload your Shiny 90 HIV Testing template to ADR</t>
+  </si>
+  <si>
+    <t>Has the user uploaded a Shiny90 HIV Testing template?</t>
+  </si>
+  <si>
+    <t>It looks like you have not uploaded your Shiny90 HIV Testing template to the ADR.
+UNAIDS strongly recommends the use of the AIDS Data Repository (ADR) to store your estimates data, both inputs and outputs. Using ADR provides a number of advantages and efficiencies for your estimates process, including a secure location to store your data files as well as automated validation function to ensure your data meet formatting and minimum data quality requirements before beginning the data. Access your organization on ADR and find this year's inputs package. Upload each of the required files for this year's estimates process in the required format.
+**To upload your Shiny90 HIV Testing template to the ADR:**
+- Open your estimates 2022 dataset in the ADR
+- Under *Missing Resources* find "Shiny90 Survey Data" and click *Add Data*
+- Drag your Shiny90 template file into the file upload zone
+- Add any useful notes about the file under *Description* 
+- Confirm the format field is correct
+- If you wish to share the file with someone outside your organisation you can do so under *Access Restriction* 
+- Click "Add" to upload the file</t>
+  </si>
+  <si>
+    <t>check_resource_key('inputs-unaids-hiv-testing', 'url', '.*')</t>
+  </si>
+  <si>
     <t>ADR-04</t>
   </si>
   <si>
@@ -740,6 +788,126 @@
     <t>check_manual_confirmation('EST-ADR-04-A')</t>
   </si>
   <si>
+    <t>ADR-04A</t>
+  </si>
+  <si>
+    <t>Upload your area boundaries data to the ADR</t>
+  </si>
+  <si>
+    <t>Has the user uploaded a Geographic data file?</t>
+  </si>
+  <si>
+    <t>It looks like you have not uploaded your Geographic area boundaries file to the ADR.
+UNAIDS strongly recommends the use of the AIDS Data Repository (ADR) to store your estimates data, both inputs and outputs. Using ADR provides a number of advantages and efficiencies for your estimates process, including a secure location to store your data files as well as automated validation function to ensure your data meet formatting and minimum data quality requirements before beginning the data. Access your organization on ADR and find this year's inputs package. Upload each of the required files for this year's estimates process in the required format.
+**To upload your  Geographic area boundaries data to the ADR:**
+- Open your estimates 2022 dataset in the ADR
+- Under *Missing Resources* find "Geographic Data" and click *Add Data*
+- Drag your Geographic areas boundaries file into the file upload zone
+- Add any useful notes about the file under *Description* 
+- Confirm the format field is correct
+- If you wish to share the file with someone outside your organisation you can do so under *Access Restriction* 
+- Click "Add" to upload the file</t>
+  </si>
+  <si>
+    <t>check_resource_key('inputs-unaids-geographic', 'url', '.*')</t>
+  </si>
+  <si>
+    <t>ADR-04B</t>
+  </si>
+  <si>
+    <t>Upload your population data to the ADR</t>
+  </si>
+  <si>
+    <t>Has the user uploaded a population template file?</t>
+  </si>
+  <si>
+    <t>It looks like you have not uploaded your population template file to the ADR.
+UNAIDS strongly recommends the use of the AIDS Data Repository (ADR) to store your estimates data, both inputs and outputs. Using ADR provides a number of advantages and efficiencies for your estimates process, including a secure location to store your data files as well as automated validation function to ensure your data meet formatting and minimum data quality requirements before beginning the data. Access your organization on ADR and find this year's inputs package. Upload each of the required files for this year's estimates process in the required format.
+**To upload your population data to the ADR:**
+- Open your estimates 2022 dataset in the ADR
+- Under *Missing Resources* find "Population Data" and click *Add Data*
+- Drag your population template file into the file upload zone
+- Add any useful notes about the file under *Description* 
+- Confirm the format field is correct
+- If you wish to share the file with someone outside your organisation you can do so under *Access Restriction* 
+- Click "Add" to upload the file</t>
+  </si>
+  <si>
+    <t>check_resource_key('inputs-unaids-population', 'url', '.*')</t>
+  </si>
+  <si>
+    <t>ADR-04C</t>
+  </si>
+  <si>
+    <t>Upload your Naomi survey data to the ADR</t>
+  </si>
+  <si>
+    <t>Has the user uploaded a survey template file?</t>
+  </si>
+  <si>
+    <t>It looks like you have not uploaded your survey template file to the ADR.
+UNAIDS strongly recommends the use of the AIDS Data Repository (ADR) to store your estimates data, both inputs and outputs. Using ADR provides a number of advantages and efficiencies for your estimates process, including a secure location to store your data files as well as automated validation function to ensure your data meet formatting and minimum data quality requirements before beginning the data. Access your organization on ADR and find this year's inputs package. Upload each of the required files for this year's estimates process in the required format.
+**To upload your  Naomi survey data to the ADR:**
+- Open your estimates 2022 dataset in the ADR
+- Under *Missing Resources* find "Survey Data" and click *Add Data*
+- Drag your Naomi survey template file into the file upload zone
+- Add any useful notes about the file under *Description* 
+- Confirm the format field is correct
+- If you wish to share the file with someone outside your organisation you can do so under *Access Restriction* 
+- Click "Add" to upload the file</t>
+  </si>
+  <si>
+    <t>check_resource_key('inputs-unaids-survey', 'url', '.*')</t>
+  </si>
+  <si>
+    <t>ADR-04D</t>
+  </si>
+  <si>
+    <t>Upload your ART data to the ADR</t>
+  </si>
+  <si>
+    <t>Has the user uploaded an ART template file?</t>
+  </si>
+  <si>
+    <t>It looks like you have not uploaded your ART template file to the ADR.
+UNAIDS strongly recommends the use of the AIDS Data Repository (ADR) to store your estimates data, both inputs and outputs. Using ADR provides a number of advantages and efficiencies for your estimates process, including a secure location to store your data files as well as automated validation function to ensure your data meet formatting and minimum data quality requirements before beginning the data. Access your organization on ADR and find this year's inputs package. Upload each of the required files for this year's estimates process in the required format.
+**To upload your  ART data to the ADR:**
+- Open your estimates 2022 dataset in the ADR
+- Under *Missing Resources* find "ART Data" and click *Add Data*
+- Drag your ART template file into the file upload zone
+- Add any useful notes about the file under *Description* 
+- Confirm the format field is correct
+- If you wish to share the file with someone outside your organisation you can do so under *Access Restriction* 
+- Click "Add" to upload the file</t>
+  </si>
+  <si>
+    <t>check_resource_key('inputs-unaids-art', 'url', '.*')</t>
+  </si>
+  <si>
+    <t>ADR-04E</t>
+  </si>
+  <si>
+    <t>Upload your ANC survey data to the ADR</t>
+  </si>
+  <si>
+    <t>Has the user uploaded an  ANC template file?</t>
+  </si>
+  <si>
+    <t>It looks like you have not uploaded your ANC template file to the ADR.
+UNAIDS strongly recommends the use of the AIDS Data Repository (ADR) to store your estimates data, both inputs and outputs. Using ADR provides a number of advantages and efficiencies for your estimates process, including a secure location to store your data files as well as automated validation function to ensure your data meet formatting and minimum data quality requirements before beginning the data. Access your organization on ADR and find this year's inputs package. Upload each of the required files for this year's estimates process in the required format.
+**To upload your ANC data to the ADR:**
+- Open your estimates 2022 dataset in the ADR
+- Under *Missing Resources* find "ANC Data" and click *Add Data*
+- Drag your ANC template file into the file upload zone
+- Add any useful notes about the file under *Description* 
+- Confirm the format field is correct
+- If you wish to share the file with someone outside your organisation you can do so under *Access Restriction* 
+- Click "Add" to upload the file</t>
+  </si>
+  <si>
+    <t>check_resource_key('inputs-unaids-anc', 'url', '.*')</t>
+  </si>
+  <si>
     <t>ADR-05</t>
   </si>
   <si>
@@ -789,7 +957,7 @@
     </r>
   </si>
   <si>
-    <t>check_manual_confirmation('EST-ADR-06-A')</t>
+    <t>check_dataset_valid()</t>
   </si>
   <si>
     <t>Review quality of programme data inputs in ShinyRob</t>
@@ -842,7 +1010,7 @@
     <t>@UNAIDS - I've tagged everything here as mandatory right now. This means the user will not be able to proceed to Spectrum data entry until this process is complete. Are we okay with that order of operations to help avoid data quality problems downstream?</t>
   </si>
   <si>
-    <t>check_manual_confirmation('EST-ROB-01-A')</t>
+    <t>check_not_skipped(['EST-ADR-04-A', 'EST-ADR-04A-A', 'EST-ADR-04B-A', 'EST-ADR-04C-A', 'EST-ADR-04D-A', 'EST-ADR-04E-A', 'EST-ADR-06-A'])</t>
   </si>
   <si>
     <t>ROB-02</t>
@@ -871,9 +1039,6 @@
   </si>
   <si>
     <t>not a user-facing task check; required to import data from ADR</t>
-  </si>
-  <si>
-    <t>check_not_skipped(['EST-ADR-04-A', 'EST-ADR-06-A'])</t>
   </si>
   <si>
     <t>ROB-03</t>
@@ -2827,7 +2992,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2838,6 +3003,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB6D7A8"/>
+        <bgColor rgb="FFB6D7A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
       </patternFill>
     </fill>
     <fill>
@@ -2856,12 +3033,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD8D8D8"/>
         <bgColor rgb="FFD8D8D8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor theme="0"/>
       </patternFill>
     </fill>
     <fill>
@@ -2992,7 +3163,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="145">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3184,6 +3355,35 @@
     <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="6" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="5" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -3191,21 +3391,24 @@
     <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="9" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="9" fillId="3" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="5" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="6" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3214,7 +3417,7 @@
     <xf borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3224,11 +3427,11 @@
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="6" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="6" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -3238,43 +3441,43 @@
     <xf borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="6" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="6" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3288,13 +3491,13 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="1" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="8" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -3302,7 +3505,7 @@
     <xf borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="7" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyFont="1"/>
@@ -32630,7 +32833,7 @@
     <col customWidth="1" min="2" max="2" width="24.29"/>
     <col customWidth="1" min="3" max="3" width="34.57"/>
     <col customWidth="1" min="4" max="4" width="43.14"/>
-    <col customWidth="1" min="5" max="5" width="69.86"/>
+    <col customWidth="1" min="5" max="5" width="41.57"/>
     <col customWidth="1" min="6" max="6" width="11.57"/>
     <col customWidth="1" hidden="1" min="7" max="7" width="37.29"/>
     <col customWidth="1" hidden="1" min="8" max="8" width="26.86"/>
@@ -34364,108 +34567,395 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="76" t="s">
+    <row r="7" ht="87.0" customHeight="1">
+      <c r="A7" s="79" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="80" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="80" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="58" t="s">
-        <v>124</v>
-      </c>
-      <c r="E7" s="60" t="s">
+      <c r="D7" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="F7" s="78">
+      <c r="E7" s="81"/>
+      <c r="F7" s="82">
         <v>0.0</v>
       </c>
-      <c r="G7" s="77">
+      <c r="G7" s="83"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="84"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="86" t="s">
+        <v>131</v>
+      </c>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="87"/>
+      <c r="U7" s="87"/>
+      <c r="V7" s="87"/>
+      <c r="W7" s="87"/>
+      <c r="X7" s="87"/>
+      <c r="Y7" s="87"/>
+      <c r="Z7" s="87"/>
+      <c r="AA7" s="87"/>
+    </row>
+    <row r="8" ht="87.0" customHeight="1">
+      <c r="A8" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="80" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" s="80" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" s="80" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="81"/>
+      <c r="F8" s="82">
         <v>0.0</v>
       </c>
-      <c r="H7" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="I7" s="58"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="76" t="s">
-        <v>133</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="59" t="s">
+      <c r="G8" s="83"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85" t="s">
         <v>136</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="78">
-        <v>0.0</v>
-      </c>
-      <c r="G8" s="77">
-        <v>0.0</v>
-      </c>
-      <c r="H8" s="79" t="s">
-        <v>137</v>
-      </c>
-      <c r="I8" s="58"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="L8" s="80"/>
-      <c r="M8" s="80"/>
-      <c r="N8" s="80"/>
-      <c r="O8" s="80"/>
-      <c r="P8" s="80"/>
-      <c r="Q8" s="80"/>
-      <c r="R8" s="80"/>
-      <c r="S8" s="80"/>
-      <c r="T8" s="80"/>
-      <c r="U8" s="80"/>
-      <c r="V8" s="80"/>
-      <c r="W8" s="80"/>
-      <c r="X8" s="80"/>
-      <c r="Y8" s="80"/>
-      <c r="Z8" s="80"/>
+      <c r="L8" s="87"/>
+      <c r="M8" s="87"/>
+      <c r="N8" s="87"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="87"/>
+      <c r="R8" s="87"/>
+      <c r="S8" s="87"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="87"/>
+      <c r="V8" s="87"/>
+      <c r="W8" s="87"/>
+      <c r="X8" s="87"/>
+      <c r="Y8" s="87"/>
+      <c r="Z8" s="87"/>
+      <c r="AA8" s="87"/>
     </row>
     <row r="9">
       <c r="A9" s="76" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="D9" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="60" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="F9" s="78">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="77">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="58" t="s">
-        <v>142</v>
-      </c>
-      <c r="E9" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="F9" s="59">
-        <v>0.0</v>
-      </c>
-      <c r="G9" s="58">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="58"/>
       <c r="I9" s="58"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="B10" s="80" t="s">
         <v>144</v>
+      </c>
+      <c r="C10" s="80" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="80" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="88"/>
+      <c r="F10" s="82">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="83"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85" t="s">
+        <v>147</v>
+      </c>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="89"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="B11" s="80" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="80" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="80" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="88"/>
+      <c r="F11" s="82">
+        <v>0.0</v>
+      </c>
+      <c r="G11" s="83"/>
+      <c r="H11" s="81"/>
+      <c r="I11" s="81"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85" t="s">
+        <v>152</v>
+      </c>
+      <c r="L11" s="89"/>
+      <c r="M11" s="89"/>
+      <c r="N11" s="89"/>
+      <c r="O11" s="89"/>
+      <c r="P11" s="89"/>
+      <c r="Q11" s="89"/>
+      <c r="R11" s="89"/>
+      <c r="S11" s="89"/>
+      <c r="T11" s="89"/>
+      <c r="U11" s="89"/>
+      <c r="V11" s="89"/>
+      <c r="W11" s="89"/>
+      <c r="X11" s="89"/>
+      <c r="Y11" s="89"/>
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="89"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="79" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="80" t="s">
+        <v>155</v>
+      </c>
+      <c r="D12" s="80" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="88"/>
+      <c r="F12" s="82">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="83"/>
+      <c r="H12" s="81"/>
+      <c r="I12" s="81"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85" t="s">
+        <v>157</v>
+      </c>
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="89"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="89"/>
+      <c r="R12" s="89"/>
+      <c r="S12" s="89"/>
+      <c r="T12" s="89"/>
+      <c r="U12" s="89"/>
+      <c r="V12" s="89"/>
+      <c r="W12" s="89"/>
+      <c r="X12" s="89"/>
+      <c r="Y12" s="89"/>
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="89"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="79" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="80" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13" s="80" t="s">
+        <v>160</v>
+      </c>
+      <c r="D13" s="80" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="88"/>
+      <c r="F13" s="82">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="83"/>
+      <c r="H13" s="81"/>
+      <c r="I13" s="81"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85" t="s">
+        <v>162</v>
+      </c>
+      <c r="L13" s="89"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="89"/>
+      <c r="T13" s="89"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
+      <c r="X13" s="89"/>
+      <c r="Y13" s="89"/>
+      <c r="Z13" s="89"/>
+      <c r="AA13" s="89"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="80" t="s">
+        <v>165</v>
+      </c>
+      <c r="D14" s="80" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="88"/>
+      <c r="F14" s="82">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="83"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85" t="s">
+        <v>167</v>
+      </c>
+      <c r="L14" s="89"/>
+      <c r="M14" s="89"/>
+      <c r="N14" s="89"/>
+      <c r="O14" s="89"/>
+      <c r="P14" s="89"/>
+      <c r="Q14" s="89"/>
+      <c r="R14" s="89"/>
+      <c r="S14" s="89"/>
+      <c r="T14" s="89"/>
+      <c r="U14" s="89"/>
+      <c r="V14" s="89"/>
+      <c r="W14" s="89"/>
+      <c r="X14" s="89"/>
+      <c r="Y14" s="89"/>
+      <c r="Z14" s="89"/>
+      <c r="AA14" s="89"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="58"/>
+      <c r="F15" s="78">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="77">
+        <v>0.0</v>
+      </c>
+      <c r="H15" s="90" t="s">
+        <v>172</v>
+      </c>
+      <c r="I15" s="58"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="L15" s="91"/>
+      <c r="M15" s="91"/>
+      <c r="N15" s="91"/>
+      <c r="O15" s="91"/>
+      <c r="P15" s="91"/>
+      <c r="Q15" s="91"/>
+      <c r="R15" s="91"/>
+      <c r="S15" s="91"/>
+      <c r="T15" s="91"/>
+      <c r="U15" s="91"/>
+      <c r="V15" s="91"/>
+      <c r="W15" s="91"/>
+      <c r="X15" s="91"/>
+      <c r="Y15" s="91"/>
+      <c r="Z15" s="91"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="76" t="s">
+        <v>174</v>
+      </c>
+      <c r="B16" s="58" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="58" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="E16" s="60" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="59">
+        <v>0.0</v>
+      </c>
+      <c r="G16" s="58">
+        <v>0.0</v>
+      </c>
+      <c r="H16" s="58"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -34475,8 +34965,8 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId2" ref="E5"/>
-    <hyperlink r:id="rId3" ref="E7"/>
-    <hyperlink r:id="rId4" ref="E9"/>
+    <hyperlink r:id="rId3" ref="E9"/>
+    <hyperlink r:id="rId4" ref="E16"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -34510,7 +35000,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="42" t="s">
@@ -34527,14 +35017,14 @@
     </row>
     <row r="2" ht="48.0" customHeight="1">
       <c r="A2" s="44" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="46" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="47">
@@ -34585,16 +35075,16 @@
     </row>
     <row r="5">
       <c r="A5" s="58" t="s">
-        <v>148</v>
+        <v>183</v>
       </c>
       <c r="B5" s="58" t="s">
-        <v>149</v>
+        <v>184</v>
       </c>
       <c r="C5" s="58" t="s">
-        <v>150</v>
+        <v>185</v>
       </c>
       <c r="D5" s="58" t="s">
-        <v>151</v>
+        <v>186</v>
       </c>
       <c r="E5" s="59" t="s">
         <v>82</v>
@@ -34605,29 +35095,29 @@
       <c r="G5" s="61">
         <v>0.0</v>
       </c>
-      <c r="H5" s="79" t="s">
-        <v>152</v>
+      <c r="H5" s="90" t="s">
+        <v>187</v>
       </c>
       <c r="I5" s="38"/>
-      <c r="J5" s="38" t="s">
-        <v>153</v>
+      <c r="J5" s="93" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="58" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="B6" s="58" t="s">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="C6" s="58" t="s">
-        <v>156</v>
+        <v>191</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>157</v>
+        <v>192</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>158</v>
+        <v>193</v>
       </c>
       <c r="F6" s="61">
         <v>1.0</v>
@@ -34638,48 +35128,48 @@
       <c r="H6" s="63"/>
       <c r="I6" s="38"/>
       <c r="J6" s="38" t="s">
-        <v>159</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="82" t="s">
-        <v>160</v>
-      </c>
-      <c r="B7" s="82"/>
-      <c r="C7" s="82" t="s">
-        <v>161</v>
-      </c>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="83">
+      <c r="A7" s="94" t="s">
+        <v>195</v>
+      </c>
+      <c r="B7" s="94"/>
+      <c r="C7" s="94" t="s">
+        <v>196</v>
+      </c>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="95">
         <v>1.0</v>
       </c>
-      <c r="G7" s="83">
+      <c r="G7" s="95">
         <v>1.0</v>
       </c>
-      <c r="H7" s="84" t="s">
-        <v>162</v>
-      </c>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85" t="s">
-        <v>163</v>
+      <c r="H7" s="96" t="s">
+        <v>197</v>
+      </c>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="58" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="C8" s="58" t="s">
-        <v>166</v>
+        <v>200</v>
       </c>
       <c r="D8" s="58" t="s">
-        <v>167</v>
+        <v>201</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="F8" s="61">
         <v>1.0</v>
@@ -34690,24 +35180,24 @@
       <c r="H8" s="63"/>
       <c r="I8" s="38"/>
       <c r="J8" s="38" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="58" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>171</v>
+        <v>205</v>
       </c>
       <c r="C9" s="58" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="D9" s="58" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>168</v>
+        <v>202</v>
       </c>
       <c r="F9" s="63">
         <v>1.0</v>
@@ -34718,21 +35208,21 @@
       <c r="H9" s="63"/>
       <c r="I9" s="28"/>
       <c r="J9" s="38" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="58" t="s">
-        <v>175</v>
+        <v>209</v>
       </c>
       <c r="B10" s="58" t="s">
-        <v>176</v>
+        <v>210</v>
       </c>
       <c r="C10" s="58" t="s">
-        <v>177</v>
+        <v>211</v>
       </c>
       <c r="D10" s="58" t="s">
-        <v>178</v>
+        <v>212</v>
       </c>
       <c r="E10" s="58"/>
       <c r="F10" s="61">
@@ -34742,9 +35232,9 @@
         <v>0.0</v>
       </c>
       <c r="H10" s="58"/>
-      <c r="I10" s="86"/>
+      <c r="I10" s="98"/>
       <c r="J10" s="38" t="s">
-        <v>179</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -35853,7 +36343,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="42" t="s">
@@ -35870,14 +36360,14 @@
     </row>
     <row r="2">
       <c r="A2" s="44" t="s">
-        <v>180</v>
+        <v>214</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>181</v>
+        <v>215</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="46" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="47">
@@ -35886,31 +36376,31 @@
     </row>
     <row r="3" ht="14.25" customHeight="1"/>
     <row r="4">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="88" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" s="87" t="s">
+      <c r="B4" s="100" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="90" t="s">
+      <c r="F4" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="I4" s="87" t="s">
+      <c r="I4" s="99" t="s">
         <v>17</v>
       </c>
       <c r="J4" s="52" t="s">
@@ -35925,48 +36415,48 @@
     </row>
     <row r="5">
       <c r="A5" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="B5" s="91"/>
+        <v>218</v>
+      </c>
+      <c r="B5" s="103"/>
       <c r="C5" s="37" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="E5" s="92" t="s">
-        <v>187</v>
-      </c>
-      <c r="F5" s="93" t="s">
-        <v>188</v>
+        <v>220</v>
+      </c>
+      <c r="E5" s="104" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" s="105" t="s">
+        <v>222</v>
       </c>
       <c r="G5" s="37"/>
       <c r="H5" s="37">
         <v>1.0</v>
       </c>
-      <c r="I5" s="86"/>
+      <c r="I5" s="98"/>
       <c r="J5" s="58"/>
-      <c r="K5" s="94" t="s">
-        <v>189</v>
+      <c r="K5" s="106" t="s">
+        <v>223</v>
       </c>
       <c r="L5" s="38"/>
       <c r="M5" s="38" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="B6" s="95"/>
+        <v>225</v>
+      </c>
+      <c r="B6" s="107"/>
       <c r="C6" s="37" t="s">
-        <v>192</v>
+        <v>226</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="E6" s="96" t="s">
-        <v>194</v>
+        <v>227</v>
+      </c>
+      <c r="E6" s="108" t="s">
+        <v>228</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37">
@@ -35976,34 +36466,34 @@
         <v>1.0</v>
       </c>
       <c r="I6" s="37" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="J6" s="58" t="s">
-        <v>196</v>
-      </c>
-      <c r="K6" s="94" t="s">
-        <v>197</v>
+        <v>230</v>
+      </c>
+      <c r="K6" s="106" t="s">
+        <v>231</v>
       </c>
       <c r="L6" s="38"/>
       <c r="M6" s="38" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="B7" s="91" t="s">
-        <v>200</v>
+        <v>233</v>
+      </c>
+      <c r="B7" s="103" t="s">
+        <v>234</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="E7" s="96" t="s">
-        <v>203</v>
+        <v>236</v>
+      </c>
+      <c r="E7" s="108" t="s">
+        <v>237</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
@@ -36011,32 +36501,32 @@
         <v>1.0</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="J7" s="58"/>
       <c r="L7" s="38"/>
       <c r="M7" s="38" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="B8" s="97">
+        <v>240</v>
+      </c>
+      <c r="B8" s="109">
         <v>1.0</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="E8" s="92" t="s">
-        <v>209</v>
-      </c>
-      <c r="F8" s="93" t="s">
-        <v>210</v>
+        <v>242</v>
+      </c>
+      <c r="E8" s="104" t="s">
+        <v>243</v>
+      </c>
+      <c r="F8" s="105" t="s">
+        <v>244</v>
       </c>
       <c r="G8" s="37"/>
       <c r="H8" s="37">
@@ -36046,170 +36536,170 @@
       <c r="J8" s="58"/>
       <c r="L8" s="38"/>
       <c r="M8" s="38" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="B9" s="95"/>
+        <v>246</v>
+      </c>
+      <c r="B9" s="107"/>
       <c r="C9" s="37" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="E9" s="92" t="s">
-        <v>215</v>
-      </c>
-      <c r="F9" s="98"/>
+        <v>248</v>
+      </c>
+      <c r="E9" s="104" t="s">
+        <v>249</v>
+      </c>
+      <c r="F9" s="110"/>
       <c r="G9" s="37"/>
       <c r="H9" s="37">
         <v>0.0</v>
       </c>
-      <c r="I9" s="99" t="s">
-        <v>216</v>
+      <c r="I9" s="111" t="s">
+        <v>250</v>
       </c>
       <c r="J9" s="58"/>
       <c r="L9" s="28"/>
       <c r="M9" s="38" t="s">
-        <v>217</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="B10" s="95"/>
+        <v>252</v>
+      </c>
+      <c r="B10" s="107"/>
       <c r="C10" s="37" t="s">
-        <v>219</v>
+        <v>253</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="E10" s="92" t="s">
-        <v>221</v>
+        <v>254</v>
+      </c>
+      <c r="E10" s="104" t="s">
+        <v>255</v>
       </c>
       <c r="F10" s="38" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="37">
         <v>1.0</v>
       </c>
-      <c r="I10" s="100"/>
+      <c r="I10" s="112"/>
       <c r="J10" s="58"/>
-      <c r="L10" s="86"/>
+      <c r="L10" s="98"/>
       <c r="M10" s="38" t="s">
-        <v>223</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="B11" s="97" t="s">
-        <v>225</v>
+        <v>258</v>
+      </c>
+      <c r="B11" s="109" t="s">
+        <v>259</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="E11" s="92" t="s">
-        <v>228</v>
+        <v>261</v>
+      </c>
+      <c r="E11" s="104" t="s">
+        <v>262</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="37">
         <v>1.0</v>
       </c>
-      <c r="I11" s="99" t="s">
-        <v>229</v>
+      <c r="I11" s="111" t="s">
+        <v>263</v>
       </c>
       <c r="J11" s="58" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
       <c r="L11" s="38"/>
       <c r="M11" s="38" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="37" t="s">
-        <v>232</v>
-      </c>
-      <c r="B12" s="97"/>
+        <v>266</v>
+      </c>
+      <c r="B12" s="109"/>
       <c r="C12" s="37" t="s">
-        <v>233</v>
+        <v>267</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>234</v>
-      </c>
-      <c r="E12" s="92" t="s">
-        <v>235</v>
+        <v>268</v>
+      </c>
+      <c r="E12" s="104" t="s">
+        <v>269</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37">
         <v>0.0</v>
       </c>
-      <c r="I12" s="99" t="s">
-        <v>236</v>
+      <c r="I12" s="111" t="s">
+        <v>270</v>
       </c>
       <c r="J12" s="58"/>
       <c r="L12" s="38"/>
       <c r="M12" s="38" t="s">
-        <v>237</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="37" t="s">
-        <v>238</v>
-      </c>
-      <c r="B13" s="97">
+        <v>272</v>
+      </c>
+      <c r="B13" s="109">
         <v>2.0</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>239</v>
+        <v>273</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>240</v>
-      </c>
-      <c r="E13" s="92" t="s">
-        <v>241</v>
+        <v>274</v>
+      </c>
+      <c r="E13" s="104" t="s">
+        <v>275</v>
       </c>
       <c r="F13" s="38" t="s">
-        <v>222</v>
+        <v>256</v>
       </c>
       <c r="G13" s="37"/>
       <c r="H13" s="37">
         <v>1.0</v>
       </c>
-      <c r="I13" s="99"/>
+      <c r="I13" s="111"/>
       <c r="J13" s="58"/>
       <c r="L13" s="38"/>
       <c r="M13" s="38" t="s">
-        <v>242</v>
+        <v>276</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="B14" s="101"/>
+        <v>277</v>
+      </c>
+      <c r="B14" s="113"/>
       <c r="C14" s="37" t="s">
-        <v>244</v>
+        <v>278</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>245</v>
+        <v>279</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>246</v>
+        <v>280</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
@@ -36217,253 +36707,253 @@
         <v>1.0</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>247</v>
+        <v>281</v>
       </c>
       <c r="J14" s="37"/>
-      <c r="K14" s="102" t="s">
-        <v>248</v>
+      <c r="K14" s="114" t="s">
+        <v>282</v>
       </c>
       <c r="L14" s="38"/>
       <c r="M14" s="38" t="s">
-        <v>249</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="103" t="s">
-        <v>250</v>
-      </c>
-      <c r="B15" s="104"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="103" t="s">
-        <v>251</v>
-      </c>
-      <c r="E15" s="105"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="103">
+      <c r="A15" s="115" t="s">
+        <v>284</v>
+      </c>
+      <c r="B15" s="116"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115" t="s">
+        <v>285</v>
+      </c>
+      <c r="E15" s="117"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115">
         <v>1.0</v>
       </c>
-      <c r="H15" s="103"/>
-      <c r="I15" s="106" t="s">
-        <v>252</v>
-      </c>
-      <c r="J15" s="82"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="118" t="s">
+        <v>286</v>
+      </c>
+      <c r="J15" s="94"/>
       <c r="L15" s="28"/>
-      <c r="M15" s="85" t="s">
-        <v>253</v>
+      <c r="M15" s="97" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="37" t="s">
-        <v>254</v>
-      </c>
-      <c r="B16" s="97" t="s">
-        <v>255</v>
-      </c>
-      <c r="C16" s="107" t="s">
-        <v>256</v>
-      </c>
-      <c r="D16" s="107" t="s">
-        <v>257</v>
-      </c>
-      <c r="E16" s="108" t="s">
-        <v>258</v>
-      </c>
-      <c r="F16" s="109" t="s">
-        <v>259</v>
-      </c>
-      <c r="G16" s="107"/>
-      <c r="H16" s="107">
+        <v>288</v>
+      </c>
+      <c r="B16" s="109" t="s">
+        <v>289</v>
+      </c>
+      <c r="C16" s="119" t="s">
+        <v>290</v>
+      </c>
+      <c r="D16" s="119" t="s">
+        <v>291</v>
+      </c>
+      <c r="E16" s="120" t="s">
+        <v>292</v>
+      </c>
+      <c r="F16" s="121" t="s">
+        <v>293</v>
+      </c>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119">
         <v>1.0</v>
       </c>
-      <c r="I16" s="110" t="s">
-        <v>260</v>
-      </c>
-      <c r="J16" s="111" t="s">
-        <v>261</v>
+      <c r="I16" s="122" t="s">
+        <v>294</v>
+      </c>
+      <c r="J16" s="123" t="s">
+        <v>295</v>
       </c>
       <c r="L16" s="38"/>
       <c r="M16" s="38" t="s">
-        <v>262</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="37" t="s">
-        <v>263</v>
-      </c>
-      <c r="B17" s="95" t="s">
-        <v>264</v>
-      </c>
-      <c r="C17" s="107" t="s">
-        <v>265</v>
-      </c>
-      <c r="D17" s="107" t="s">
-        <v>266</v>
-      </c>
-      <c r="E17" s="108" t="s">
-        <v>267</v>
-      </c>
-      <c r="F17" s="109" t="s">
-        <v>259</v>
-      </c>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107">
+        <v>297</v>
+      </c>
+      <c r="B17" s="107" t="s">
+        <v>298</v>
+      </c>
+      <c r="C17" s="119" t="s">
+        <v>299</v>
+      </c>
+      <c r="D17" s="119" t="s">
+        <v>300</v>
+      </c>
+      <c r="E17" s="120" t="s">
+        <v>301</v>
+      </c>
+      <c r="F17" s="121" t="s">
+        <v>293</v>
+      </c>
+      <c r="G17" s="119"/>
+      <c r="H17" s="119">
         <v>1.0</v>
       </c>
-      <c r="I17" s="110" t="s">
-        <v>268</v>
-      </c>
-      <c r="J17" s="111" t="s">
-        <v>269</v>
+      <c r="I17" s="122" t="s">
+        <v>302</v>
+      </c>
+      <c r="J17" s="123" t="s">
+        <v>303</v>
       </c>
       <c r="L17" s="38"/>
       <c r="M17" s="38" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="37" t="s">
-        <v>271</v>
-      </c>
-      <c r="B18" s="95" t="s">
-        <v>272</v>
+        <v>305</v>
+      </c>
+      <c r="B18" s="107" t="s">
+        <v>306</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>274</v>
-      </c>
-      <c r="E18" s="92" t="s">
-        <v>275</v>
-      </c>
-      <c r="F18" s="112" t="s">
-        <v>259</v>
+        <v>308</v>
+      </c>
+      <c r="E18" s="104" t="s">
+        <v>309</v>
+      </c>
+      <c r="F18" s="124" t="s">
+        <v>293</v>
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="37">
         <v>1.0</v>
       </c>
-      <c r="I18" s="100"/>
+      <c r="I18" s="112"/>
       <c r="J18" s="58"/>
       <c r="L18" s="38"/>
       <c r="M18" s="38" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="B19" s="95">
+        <v>311</v>
+      </c>
+      <c r="B19" s="107">
         <v>19.0</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>279</v>
-      </c>
-      <c r="E19" s="92" t="s">
-        <v>280</v>
-      </c>
-      <c r="F19" s="112" t="s">
-        <v>281</v>
+        <v>313</v>
+      </c>
+      <c r="E19" s="104" t="s">
+        <v>314</v>
+      </c>
+      <c r="F19" s="124" t="s">
+        <v>315</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="37">
         <v>1.0</v>
       </c>
-      <c r="I19" s="100"/>
+      <c r="I19" s="112"/>
       <c r="J19" s="58"/>
       <c r="L19" s="38"/>
       <c r="M19" s="38" t="s">
-        <v>282</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="37" t="s">
-        <v>283</v>
-      </c>
-      <c r="B20" s="95">
+        <v>317</v>
+      </c>
+      <c r="B20" s="107">
         <v>20.0</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>284</v>
+        <v>318</v>
       </c>
       <c r="D20" s="37" t="s">
-        <v>285</v>
-      </c>
-      <c r="E20" s="92" t="s">
-        <v>286</v>
-      </c>
-      <c r="F20" s="112" t="s">
-        <v>259</v>
+        <v>319</v>
+      </c>
+      <c r="E20" s="104" t="s">
+        <v>320</v>
+      </c>
+      <c r="F20" s="124" t="s">
+        <v>293</v>
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="37">
         <v>1.0</v>
       </c>
-      <c r="I20" s="100" t="s">
-        <v>287</v>
+      <c r="I20" s="112" t="s">
+        <v>321</v>
       </c>
       <c r="J20" s="58"/>
       <c r="L20" s="28"/>
       <c r="M20" s="38" t="s">
-        <v>288</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="103" t="s">
-        <v>289</v>
-      </c>
-      <c r="B21" s="113"/>
-      <c r="C21" s="103"/>
-      <c r="D21" s="103" t="s">
-        <v>290</v>
-      </c>
-      <c r="E21" s="105"/>
-      <c r="F21" s="114"/>
-      <c r="G21" s="115">
+      <c r="A21" s="115" t="s">
+        <v>323</v>
+      </c>
+      <c r="B21" s="125"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115" t="s">
+        <v>324</v>
+      </c>
+      <c r="E21" s="117"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="127">
         <v>1.0</v>
       </c>
-      <c r="H21" s="115"/>
-      <c r="I21" s="106" t="s">
-        <v>291</v>
-      </c>
-      <c r="J21" s="82"/>
+      <c r="H21" s="127"/>
+      <c r="I21" s="118" t="s">
+        <v>325</v>
+      </c>
+      <c r="J21" s="94"/>
       <c r="L21" s="38"/>
-      <c r="M21" s="85" t="s">
-        <v>292</v>
+      <c r="M21" s="97" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="B22" s="95" t="s">
-        <v>294</v>
+        <v>327</v>
+      </c>
+      <c r="B22" s="107" t="s">
+        <v>328</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>295</v>
+        <v>329</v>
       </c>
       <c r="D22" s="37" t="s">
-        <v>296</v>
+        <v>330</v>
       </c>
       <c r="E22" s="37" t="s">
-        <v>297</v>
-      </c>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116">
+        <v>331</v>
+      </c>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128">
         <v>1.0</v>
       </c>
-      <c r="I22" s="79" t="s">
-        <v>298</v>
+      <c r="I22" s="90" t="s">
+        <v>332</v>
       </c>
       <c r="J22" s="58"/>
       <c r="L22" s="28"/>
       <c r="M22" s="38" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1">
@@ -37541,7 +38031,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="42" t="s">
@@ -37558,14 +38048,14 @@
     </row>
     <row r="2" ht="84.0" customHeight="1">
       <c r="A2" s="44" t="s">
-        <v>300</v>
+        <v>334</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>301</v>
+        <v>335</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="46" t="s">
-        <v>302</v>
+        <v>336</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="47">
@@ -37574,31 +38064,31 @@
     </row>
     <row r="3" ht="14.25" customHeight="1"/>
     <row r="4">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="90" t="s">
+      <c r="E4" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="87" t="s">
-        <v>303</v>
-      </c>
-      <c r="I4" s="117" t="s">
+      <c r="H4" s="99" t="s">
+        <v>337</v>
+      </c>
+      <c r="I4" s="129" t="s">
         <v>18</v>
       </c>
       <c r="J4" s="17" t="s">
@@ -37610,97 +38100,97 @@
     </row>
     <row r="5">
       <c r="A5" s="37" t="s">
-        <v>304</v>
+        <v>338</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>305</v>
+        <v>339</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>307</v>
+        <v>341</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" s="37"/>
       <c r="G5" s="37">
         <v>0.0</v>
       </c>
-      <c r="H5" s="92" t="s">
-        <v>308</v>
-      </c>
-      <c r="I5" s="99"/>
+      <c r="H5" s="104" t="s">
+        <v>342</v>
+      </c>
+      <c r="I5" s="111"/>
       <c r="J5" s="38"/>
       <c r="K5" s="38" t="s">
-        <v>309</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="37" t="s">
-        <v>310</v>
+        <v>344</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>311</v>
+        <v>345</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>312</v>
+        <v>346</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="E6" s="37"/>
       <c r="F6" s="37"/>
       <c r="G6" s="37">
         <v>1.0</v>
       </c>
-      <c r="H6" s="92" t="s">
-        <v>314</v>
+      <c r="H6" s="104" t="s">
+        <v>348</v>
       </c>
       <c r="I6" s="37"/>
       <c r="J6" s="38"/>
       <c r="K6" s="38" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="37" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="E7" s="37"/>
       <c r="F7" s="37"/>
       <c r="G7" s="37">
         <v>1.0</v>
       </c>
-      <c r="H7" s="92" t="s">
-        <v>314</v>
+      <c r="H7" s="104" t="s">
+        <v>348</v>
       </c>
       <c r="I7" s="37"/>
       <c r="J7" s="38"/>
       <c r="K7" s="38" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="37" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="E8" s="37"/>
       <c r="F8" s="37">
@@ -37709,28 +38199,28 @@
       <c r="G8" s="37">
         <v>1.0</v>
       </c>
-      <c r="H8" s="92"/>
+      <c r="H8" s="104"/>
       <c r="I8" s="37"/>
       <c r="J8" s="38"/>
       <c r="K8" s="38" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="37" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>327</v>
+        <v>361</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>328</v>
+        <v>362</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>329</v>
-      </c>
-      <c r="E9" s="118" t="s">
-        <v>330</v>
+        <v>363</v>
+      </c>
+      <c r="E9" s="130" t="s">
+        <v>364</v>
       </c>
       <c r="F9" s="37">
         <v>1.0</v>
@@ -37738,54 +38228,54 @@
       <c r="G9" s="37">
         <v>1.0</v>
       </c>
-      <c r="H9" s="92"/>
+      <c r="H9" s="104"/>
       <c r="I9" s="37" t="s">
-        <v>331</v>
+        <v>365</v>
       </c>
       <c r="J9" s="28"/>
       <c r="K9" s="38" t="s">
-        <v>332</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="37" t="s">
-        <v>333</v>
+        <v>367</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>334</v>
+        <v>368</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>336</v>
+        <v>370</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
       <c r="G10" s="37">
         <v>1.0</v>
       </c>
-      <c r="H10" s="119" t="s">
-        <v>337</v>
+      <c r="H10" s="131" t="s">
+        <v>371</v>
       </c>
       <c r="I10" s="37"/>
-      <c r="J10" s="86"/>
+      <c r="J10" s="98"/>
       <c r="K10" s="38" t="s">
-        <v>338</v>
+        <v>372</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="37" t="s">
-        <v>339</v>
+        <v>373</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>340</v>
+        <v>374</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>341</v>
+        <v>375</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>342</v>
+        <v>376</v>
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="37">
@@ -37795,31 +38285,31 @@
         <v>1.0</v>
       </c>
       <c r="H11" s="37" t="s">
-        <v>343</v>
+        <v>377</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>344</v>
+        <v>378</v>
       </c>
       <c r="J11" s="38"/>
       <c r="K11" s="38" t="s">
-        <v>345</v>
-      </c>
-      <c r="L11" s="80"/>
-      <c r="M11" s="80"/>
-      <c r="N11" s="80"/>
-      <c r="O11" s="80"/>
-      <c r="P11" s="80"/>
-      <c r="Q11" s="80"/>
-      <c r="R11" s="80"/>
-      <c r="S11" s="80"/>
-      <c r="T11" s="80"/>
-      <c r="U11" s="80"/>
-      <c r="V11" s="80"/>
-      <c r="W11" s="80"/>
-      <c r="X11" s="80"/>
-      <c r="Y11" s="80"/>
-      <c r="Z11" s="80"/>
-      <c r="AA11" s="80"/>
+        <v>379</v>
+      </c>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="91"/>
+      <c r="R11" s="91"/>
+      <c r="S11" s="91"/>
+      <c r="T11" s="91"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="91"/>
+      <c r="W11" s="91"/>
+      <c r="X11" s="91"/>
+      <c r="Y11" s="91"/>
+      <c r="Z11" s="91"/>
+      <c r="AA11" s="91"/>
     </row>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -38828,7 +39318,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="42" t="s">
@@ -38845,14 +39335,14 @@
     </row>
     <row r="2" ht="82.5" customHeight="1">
       <c r="A2" s="44" t="s">
-        <v>346</v>
+        <v>380</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>347</v>
+        <v>381</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="46" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="47">
@@ -38860,25 +39350,25 @@
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="K3" s="120"/>
+      <c r="K3" s="132"/>
     </row>
     <row r="4">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="90" t="s">
+      <c r="E4" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="99" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="17" t="s">
@@ -38887,134 +39377,134 @@
       <c r="H4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="87" t="s">
+      <c r="I4" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="87" t="s">
-        <v>303</v>
-      </c>
-      <c r="K4" s="117" t="s">
+      <c r="J4" s="99" t="s">
+        <v>337</v>
+      </c>
+      <c r="K4" s="129" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="37" t="s">
-        <v>349</v>
+        <v>383</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>350</v>
-      </c>
-      <c r="C5" s="99" t="s">
-        <v>351</v>
-      </c>
-      <c r="D5" s="99" t="s">
-        <v>352</v>
-      </c>
-      <c r="E5" s="100"/>
+        <v>384</v>
+      </c>
+      <c r="C5" s="111" t="s">
+        <v>385</v>
+      </c>
+      <c r="D5" s="111" t="s">
+        <v>386</v>
+      </c>
+      <c r="E5" s="112"/>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
       <c r="H5" s="38" t="s">
-        <v>353</v>
+        <v>387</v>
       </c>
       <c r="I5" s="37">
         <v>0.0</v>
       </c>
-      <c r="J5" s="119" t="s">
-        <v>354</v>
-      </c>
-      <c r="K5" s="99"/>
+      <c r="J5" s="131" t="s">
+        <v>388</v>
+      </c>
+      <c r="K5" s="111"/>
     </row>
     <row r="6">
       <c r="A6" s="37" t="s">
-        <v>355</v>
+        <v>389</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>356</v>
+        <v>390</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>357</v>
+        <v>391</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>358</v>
+        <v>392</v>
       </c>
       <c r="E6" s="38" t="s">
-        <v>359</v>
+        <v>393</v>
       </c>
       <c r="F6" s="37">
         <v>1.0</v>
       </c>
       <c r="G6" s="37"/>
       <c r="H6" s="38" t="s">
-        <v>360</v>
+        <v>394</v>
       </c>
       <c r="I6" s="37">
         <v>1.0</v>
       </c>
-      <c r="J6" s="92"/>
+      <c r="J6" s="104"/>
       <c r="K6" s="37"/>
     </row>
     <row r="7">
-      <c r="A7" s="121" t="s">
-        <v>361</v>
-      </c>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121" t="s">
-        <v>362</v>
-      </c>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="85" t="s">
-        <v>363</v>
-      </c>
-      <c r="I7" s="121">
+      <c r="A7" s="133" t="s">
+        <v>395</v>
+      </c>
+      <c r="B7" s="133"/>
+      <c r="C7" s="133" t="s">
+        <v>396</v>
+      </c>
+      <c r="D7" s="133"/>
+      <c r="E7" s="133"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="97" t="s">
+        <v>397</v>
+      </c>
+      <c r="I7" s="133">
         <v>1.0</v>
       </c>
-      <c r="J7" s="122" t="s">
-        <v>364</v>
-      </c>
-      <c r="K7" s="123"/>
+      <c r="J7" s="134" t="s">
+        <v>398</v>
+      </c>
+      <c r="K7" s="135"/>
     </row>
     <row r="8">
       <c r="A8" s="37" t="s">
-        <v>365</v>
+        <v>399</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>367</v>
+        <v>401</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>368</v>
+        <v>402</v>
       </c>
       <c r="E8" s="37"/>
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
       <c r="H8" s="38" t="s">
-        <v>369</v>
+        <v>403</v>
       </c>
       <c r="I8" s="37">
         <v>1.0</v>
       </c>
-      <c r="J8" s="92" t="s">
-        <v>370</v>
-      </c>
-      <c r="K8" s="124"/>
+      <c r="J8" s="104" t="s">
+        <v>404</v>
+      </c>
+      <c r="K8" s="136"/>
     </row>
     <row r="9">
       <c r="A9" s="37" t="s">
-        <v>371</v>
+        <v>405</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>372</v>
+        <v>406</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>373</v>
+        <v>407</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="37">
@@ -39022,107 +39512,107 @@
       </c>
       <c r="G9" s="37"/>
       <c r="H9" s="38" t="s">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="I9" s="37">
         <v>1.0</v>
       </c>
-      <c r="J9" s="92"/>
-      <c r="K9" s="124"/>
+      <c r="J9" s="104"/>
+      <c r="K9" s="136"/>
     </row>
     <row r="10">
       <c r="A10" s="37" t="s">
-        <v>376</v>
+        <v>410</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>378</v>
+        <v>412</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="E10" s="37"/>
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
       <c r="H10" s="38" t="s">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="I10" s="37">
         <v>0.0</v>
       </c>
-      <c r="J10" s="92" t="s">
-        <v>381</v>
-      </c>
-      <c r="K10" s="124"/>
+      <c r="J10" s="104" t="s">
+        <v>415</v>
+      </c>
+      <c r="K10" s="136"/>
     </row>
     <row r="11">
       <c r="A11" s="37" t="s">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>384</v>
+        <v>418</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>385</v>
+        <v>419</v>
       </c>
       <c r="E11" s="37"/>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
       <c r="H11" s="38" t="s">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="I11" s="37">
         <v>0.0</v>
       </c>
-      <c r="J11" s="92" t="s">
-        <v>387</v>
+      <c r="J11" s="104" t="s">
+        <v>421</v>
       </c>
       <c r="K11" s="37"/>
     </row>
     <row r="12">
       <c r="A12" s="37" t="s">
-        <v>388</v>
+        <v>422</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>389</v>
+        <v>423</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>391</v>
+        <v>425</v>
       </c>
       <c r="E12" s="37"/>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
       <c r="H12" s="38" t="s">
-        <v>392</v>
+        <v>426</v>
       </c>
       <c r="I12" s="37">
         <v>0.0</v>
       </c>
-      <c r="J12" s="92" t="s">
-        <v>393</v>
-      </c>
-      <c r="K12" s="124"/>
+      <c r="J12" s="104" t="s">
+        <v>427</v>
+      </c>
+      <c r="K12" s="136"/>
     </row>
     <row r="13">
       <c r="A13" s="37" t="s">
-        <v>394</v>
+        <v>428</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>395</v>
+        <v>429</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>396</v>
+        <v>430</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>397</v>
+        <v>431</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="37">
@@ -39130,53 +39620,53 @@
       </c>
       <c r="G13" s="37"/>
       <c r="H13" s="38" t="s">
-        <v>398</v>
+        <v>432</v>
       </c>
       <c r="I13" s="37">
         <v>1.0</v>
       </c>
-      <c r="J13" s="92" t="s">
-        <v>399</v>
-      </c>
-      <c r="K13" s="124"/>
+      <c r="J13" s="104" t="s">
+        <v>433</v>
+      </c>
+      <c r="K13" s="136"/>
     </row>
     <row r="14">
       <c r="A14" s="37" t="s">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="E14" s="37"/>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
       <c r="H14" s="38" t="s">
-        <v>404</v>
+        <v>438</v>
       </c>
       <c r="I14" s="37">
         <v>0.0</v>
       </c>
-      <c r="J14" s="92"/>
-      <c r="K14" s="124"/>
+      <c r="J14" s="104"/>
+      <c r="K14" s="136"/>
     </row>
     <row r="15">
       <c r="A15" s="37" t="s">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="37">
@@ -39184,53 +39674,53 @@
       </c>
       <c r="G15" s="37"/>
       <c r="H15" s="38" t="s">
-        <v>409</v>
+        <v>443</v>
       </c>
       <c r="I15" s="37">
         <v>1.0</v>
       </c>
-      <c r="J15" s="92" t="s">
-        <v>410</v>
-      </c>
-      <c r="K15" s="124"/>
+      <c r="J15" s="104" t="s">
+        <v>444</v>
+      </c>
+      <c r="K15" s="136"/>
     </row>
     <row r="16">
       <c r="A16" s="37" t="s">
-        <v>411</v>
+        <v>445</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>412</v>
+        <v>446</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
       <c r="H16" s="38" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="I16" s="37">
         <v>0.0</v>
       </c>
-      <c r="J16" s="92"/>
-      <c r="K16" s="124"/>
+      <c r="J16" s="104"/>
+      <c r="K16" s="136"/>
     </row>
     <row r="17">
       <c r="A17" s="37" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="37">
@@ -39238,38 +39728,38 @@
       </c>
       <c r="G17" s="37"/>
       <c r="H17" s="38" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="I17" s="37">
         <v>1.0</v>
       </c>
-      <c r="J17" s="92"/>
-      <c r="K17" s="124"/>
+      <c r="J17" s="104"/>
+      <c r="K17" s="136"/>
     </row>
     <row r="18">
       <c r="A18" s="37" t="s">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>424</v>
+        <v>458</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
       <c r="H18" s="38" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="I18" s="37">
         <v>0.0</v>
       </c>
-      <c r="J18" s="92"/>
-      <c r="K18" s="124"/>
+      <c r="J18" s="104"/>
+      <c r="K18" s="136"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="C19" s="39"/>
@@ -40308,10 +40798,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="125" t="s">
+      <c r="B1" s="137" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
@@ -40325,14 +40815,14 @@
     </row>
     <row r="2" ht="75.0" customHeight="1">
       <c r="A2" s="44" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="126" t="s">
-        <v>428</v>
+      <c r="D2" s="138" t="s">
+        <v>462</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="47">
@@ -40341,25 +40831,25 @@
     </row>
     <row r="3" ht="13.5" customHeight="1"/>
     <row r="4">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="127" t="s">
-        <v>183</v>
-      </c>
-      <c r="C4" s="87" t="s">
+      <c r="B4" s="139" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="90" t="s">
+      <c r="F4" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="87" t="s">
+      <c r="G4" s="99" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="17" t="s">
@@ -40368,87 +40858,87 @@
       <c r="I4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="87" t="s">
+      <c r="J4" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="87" t="s">
+      <c r="K4" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="117" t="s">
+      <c r="L4" s="129" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="38" t="s">
-        <v>429</v>
-      </c>
-      <c r="B5" s="101"/>
+        <v>463</v>
+      </c>
+      <c r="B5" s="113"/>
       <c r="C5" s="37" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="F5" s="37"/>
       <c r="G5" s="37"/>
       <c r="H5" s="37"/>
       <c r="I5" s="38" t="s">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="J5" s="37">
         <v>0.0</v>
       </c>
       <c r="K5" s="37" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="L5" s="37"/>
     </row>
     <row r="6">
       <c r="A6" s="38" t="s">
-        <v>435</v>
-      </c>
-      <c r="B6" s="101"/>
+        <v>469</v>
+      </c>
+      <c r="B6" s="113"/>
       <c r="C6" s="37" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>437</v>
+        <v>471</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
       <c r="H6" s="37"/>
       <c r="I6" s="38" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="J6" s="37">
         <v>0.0</v>
       </c>
       <c r="K6" s="37" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="L6" s="37"/>
     </row>
     <row r="7">
       <c r="A7" s="38" t="s">
-        <v>441</v>
-      </c>
-      <c r="B7" s="101">
+        <v>475</v>
+      </c>
+      <c r="B7" s="113">
         <v>21.0</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>444</v>
+        <v>478</v>
       </c>
       <c r="F7" s="37"/>
       <c r="G7" s="37">
@@ -40456,32 +40946,32 @@
       </c>
       <c r="H7" s="37"/>
       <c r="I7" s="38" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
       <c r="J7" s="37">
         <v>1.0</v>
       </c>
       <c r="K7" s="37" t="s">
-        <v>446</v>
+        <v>480</v>
       </c>
       <c r="L7" s="37"/>
-      <c r="M7" s="128" t="s">
-        <v>447</v>
+      <c r="M7" s="140" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="38" t="s">
-        <v>448</v>
-      </c>
-      <c r="B8" s="101"/>
+        <v>482</v>
+      </c>
+      <c r="B8" s="113"/>
       <c r="C8" s="37" t="s">
-        <v>449</v>
+        <v>483</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="F8" s="37"/>
       <c r="G8" s="37">
@@ -40489,98 +40979,98 @@
       </c>
       <c r="H8" s="37"/>
       <c r="I8" s="38" t="s">
-        <v>452</v>
+        <v>486</v>
       </c>
       <c r="J8" s="37">
         <v>1.0</v>
       </c>
       <c r="K8" s="37" t="s">
-        <v>453</v>
+        <v>487</v>
       </c>
       <c r="L8" s="37"/>
     </row>
     <row r="9">
       <c r="A9" s="38" t="s">
-        <v>454</v>
-      </c>
-      <c r="B9" s="101"/>
+        <v>488</v>
+      </c>
+      <c r="B9" s="113"/>
       <c r="C9" s="37" t="s">
-        <v>455</v>
+        <v>489</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>456</v>
+        <v>490</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>457</v>
+        <v>491</v>
       </c>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
       <c r="H9" s="37"/>
       <c r="I9" s="38" t="s">
-        <v>458</v>
+        <v>492</v>
       </c>
       <c r="J9" s="37">
         <v>0.0</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>459</v>
+        <v>493</v>
       </c>
       <c r="L9" s="37"/>
-      <c r="M9" s="128" t="s">
-        <v>447</v>
+      <c r="M9" s="140" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="38" t="s">
-        <v>460</v>
-      </c>
-      <c r="B10" s="101"/>
+        <v>494</v>
+      </c>
+      <c r="B10" s="113"/>
       <c r="C10" s="37" t="s">
-        <v>461</v>
+        <v>495</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>463</v>
+        <v>497</v>
       </c>
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
       <c r="I10" s="38" t="s">
-        <v>464</v>
+        <v>498</v>
       </c>
       <c r="J10" s="37">
         <v>0.0</v>
       </c>
       <c r="K10" s="37" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="L10" s="37"/>
     </row>
     <row r="11">
       <c r="A11" s="38" t="s">
-        <v>466</v>
-      </c>
-      <c r="B11" s="101" t="s">
-        <v>467</v>
+        <v>500</v>
+      </c>
+      <c r="B11" s="113" t="s">
+        <v>501</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>468</v>
+        <v>502</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>469</v>
+        <v>503</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>470</v>
-      </c>
-      <c r="F11" s="100"/>
+        <v>504</v>
+      </c>
+      <c r="F11" s="112"/>
       <c r="G11" s="37">
         <v>1.0</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="38" t="s">
-        <v>471</v>
+        <v>505</v>
       </c>
       <c r="J11" s="37">
         <v>1.0</v>
@@ -40590,47 +41080,47 @@
     </row>
     <row r="12">
       <c r="A12" s="38" t="s">
-        <v>472</v>
-      </c>
-      <c r="B12" s="101"/>
+        <v>506</v>
+      </c>
+      <c r="B12" s="113"/>
       <c r="C12" s="37" t="s">
-        <v>473</v>
+        <v>507</v>
       </c>
       <c r="D12" s="37" t="s">
-        <v>474</v>
+        <v>508</v>
       </c>
       <c r="E12" s="37" t="s">
-        <v>475</v>
+        <v>509</v>
       </c>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
       <c r="I12" s="38" t="s">
-        <v>476</v>
+        <v>510</v>
       </c>
       <c r="J12" s="37">
         <v>0.0</v>
       </c>
       <c r="K12" s="37" t="s">
-        <v>477</v>
+        <v>511</v>
       </c>
       <c r="L12" s="37"/>
     </row>
     <row r="13">
       <c r="A13" s="38" t="s">
-        <v>478</v>
-      </c>
-      <c r="B13" s="101">
+        <v>512</v>
+      </c>
+      <c r="B13" s="113">
         <v>22.0</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>479</v>
+        <v>513</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>480</v>
+        <v>514</v>
       </c>
       <c r="E13" s="37" t="s">
-        <v>481</v>
+        <v>515</v>
       </c>
       <c r="F13" s="37"/>
       <c r="G13" s="37">
@@ -40638,35 +41128,35 @@
       </c>
       <c r="H13" s="37"/>
       <c r="I13" s="38" t="s">
-        <v>482</v>
+        <v>516</v>
       </c>
       <c r="J13" s="37">
         <v>1.0</v>
       </c>
       <c r="K13" s="37" t="s">
-        <v>483</v>
+        <v>517</v>
       </c>
       <c r="L13" s="37"/>
     </row>
     <row r="14">
       <c r="A14" s="38" t="s">
-        <v>484</v>
-      </c>
-      <c r="B14" s="101"/>
+        <v>518</v>
+      </c>
+      <c r="B14" s="113"/>
       <c r="C14" s="37" t="s">
-        <v>485</v>
+        <v>519</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>486</v>
+        <v>520</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>487</v>
+        <v>521</v>
       </c>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
       <c r="H14" s="37"/>
       <c r="I14" s="38" t="s">
-        <v>488</v>
+        <v>522</v>
       </c>
       <c r="J14" s="37">
         <v>0.0</v>
@@ -40676,23 +41166,23 @@
     </row>
     <row r="15">
       <c r="A15" s="38" t="s">
-        <v>489</v>
-      </c>
-      <c r="B15" s="101"/>
+        <v>523</v>
+      </c>
+      <c r="B15" s="113"/>
       <c r="C15" s="37" t="s">
-        <v>490</v>
+        <v>524</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>491</v>
+        <v>525</v>
       </c>
       <c r="E15" s="37" t="s">
-        <v>492</v>
+        <v>526</v>
       </c>
       <c r="F15" s="37"/>
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
       <c r="I15" s="38" t="s">
-        <v>493</v>
+        <v>527</v>
       </c>
       <c r="J15" s="37">
         <v>0.0</v>
@@ -40702,105 +41192,105 @@
     </row>
     <row r="16">
       <c r="A16" s="38" t="s">
-        <v>494</v>
-      </c>
-      <c r="B16" s="101"/>
+        <v>528</v>
+      </c>
+      <c r="B16" s="113"/>
       <c r="C16" s="37" t="s">
-        <v>495</v>
+        <v>529</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>496</v>
+        <v>530</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>497</v>
-      </c>
-      <c r="F16" s="93" t="s">
-        <v>498</v>
+        <v>531</v>
+      </c>
+      <c r="F16" s="105" t="s">
+        <v>532</v>
       </c>
       <c r="G16" s="37">
         <v>1.0</v>
       </c>
       <c r="H16" s="37"/>
       <c r="I16" s="38" t="s">
-        <v>499</v>
+        <v>533</v>
       </c>
       <c r="J16" s="37">
         <v>1.0</v>
       </c>
       <c r="K16" s="37" t="s">
-        <v>500</v>
+        <v>534</v>
       </c>
       <c r="L16" s="37"/>
     </row>
     <row r="17">
       <c r="A17" s="38" t="s">
-        <v>501</v>
-      </c>
-      <c r="B17" s="101"/>
+        <v>535</v>
+      </c>
+      <c r="B17" s="113"/>
       <c r="C17" s="37" t="s">
-        <v>455</v>
+        <v>489</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="E17" s="37" t="s">
-        <v>502</v>
+        <v>536</v>
       </c>
       <c r="F17" s="37"/>
       <c r="G17" s="37"/>
       <c r="H17" s="37"/>
       <c r="I17" s="38" t="s">
-        <v>503</v>
+        <v>537</v>
       </c>
       <c r="J17" s="37">
         <v>1.0</v>
       </c>
       <c r="K17" s="37" t="s">
-        <v>504</v>
+        <v>538</v>
       </c>
       <c r="L17" s="37"/>
     </row>
     <row r="18">
       <c r="A18" s="38" t="s">
-        <v>505</v>
-      </c>
-      <c r="B18" s="101"/>
+        <v>539</v>
+      </c>
+      <c r="B18" s="113"/>
       <c r="C18" s="37" t="s">
-        <v>506</v>
+        <v>540</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>507</v>
+        <v>541</v>
       </c>
       <c r="E18" s="37" t="s">
-        <v>508</v>
+        <v>542</v>
       </c>
       <c r="F18" s="37"/>
       <c r="G18" s="37"/>
       <c r="H18" s="37"/>
       <c r="I18" s="38" t="s">
-        <v>509</v>
+        <v>543</v>
       </c>
       <c r="J18" s="37">
         <v>1.0</v>
       </c>
       <c r="K18" s="37" t="s">
-        <v>510</v>
+        <v>544</v>
       </c>
       <c r="L18" s="37"/>
     </row>
     <row r="19">
       <c r="A19" s="38" t="s">
-        <v>511</v>
-      </c>
-      <c r="B19" s="101"/>
+        <v>545</v>
+      </c>
+      <c r="B19" s="113"/>
       <c r="C19" s="37" t="s">
-        <v>512</v>
+        <v>546</v>
       </c>
       <c r="D19" s="37" t="s">
-        <v>513</v>
+        <v>547</v>
       </c>
       <c r="E19" s="37" t="s">
-        <v>514</v>
+        <v>548</v>
       </c>
       <c r="F19" s="37"/>
       <c r="G19" s="37">
@@ -40808,7 +41298,7 @@
       </c>
       <c r="H19" s="37"/>
       <c r="I19" s="38" t="s">
-        <v>515</v>
+        <v>549</v>
       </c>
       <c r="J19" s="37">
         <v>1.0</v>
@@ -41836,7 +42326,7 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="42" t="s">
@@ -41853,41 +42343,41 @@
     </row>
     <row r="2" ht="49.5" customHeight="1">
       <c r="A2" s="44" t="s">
-        <v>516</v>
+        <v>550</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>517</v>
+        <v>551</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="46" t="s">
-        <v>518</v>
+        <v>552</v>
       </c>
       <c r="E2" s="72"/>
-      <c r="F2" s="129">
+      <c r="F2" s="141">
         <v>0.1</v>
       </c>
-      <c r="G2" s="130"/>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
     </row>
     <row r="3" ht="14.25" customHeight="1"/>
     <row r="4">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="87" t="s">
+      <c r="B4" s="99" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="87" t="s">
+      <c r="C4" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="90" t="s">
+      <c r="E4" s="102" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="87" t="s">
+      <c r="F4" s="99" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="17" t="s">
@@ -41896,28 +42386,28 @@
       <c r="H4" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="87" t="s">
+      <c r="I4" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="87" t="s">
+      <c r="J4" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="117" t="s">
+      <c r="K4" s="129" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="37" t="s">
-        <v>519</v>
+        <v>553</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>520</v>
+        <v>554</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>521</v>
+        <v>555</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>522</v>
+        <v>556</v>
       </c>
       <c r="E5" s="37"/>
       <c r="F5" s="37">
@@ -41925,34 +42415,34 @@
       </c>
       <c r="G5" s="37"/>
       <c r="H5" s="38" t="s">
-        <v>523</v>
+        <v>557</v>
       </c>
       <c r="I5" s="37">
         <v>0.0</v>
       </c>
       <c r="J5" s="37" t="s">
-        <v>524</v>
+        <v>558</v>
       </c>
       <c r="K5" s="37"/>
     </row>
     <row r="6">
       <c r="A6" s="37" t="s">
-        <v>525</v>
+        <v>559</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>526</v>
+        <v>560</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>527</v>
+        <v>561</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>528</v>
+        <v>562</v>
       </c>
       <c r="E6" s="37"/>
       <c r="F6" s="37"/>
       <c r="G6" s="37"/>
       <c r="H6" s="38" t="s">
-        <v>529</v>
+        <v>563</v>
       </c>
       <c r="I6" s="37">
         <v>0.0</v>
@@ -41962,49 +42452,49 @@
     </row>
     <row r="7">
       <c r="A7" s="37" t="s">
-        <v>530</v>
+        <v>564</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>531</v>
+        <v>565</v>
       </c>
       <c r="C7" s="37" t="s">
-        <v>532</v>
+        <v>566</v>
       </c>
       <c r="D7" s="37" t="s">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="E7" s="37"/>
       <c r="F7" s="37"/>
       <c r="G7" s="37"/>
       <c r="H7" s="38" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="I7" s="37">
         <v>0.0</v>
       </c>
-      <c r="J7" s="100" t="s">
-        <v>535</v>
+      <c r="J7" s="112" t="s">
+        <v>569</v>
       </c>
       <c r="K7" s="37"/>
     </row>
     <row r="8">
       <c r="A8" s="37" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c r="E8" s="37"/>
       <c r="F8" s="37"/>
       <c r="G8" s="37"/>
       <c r="H8" s="38" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="I8" s="37">
         <v>0.0</v>
@@ -42014,22 +42504,22 @@
     </row>
     <row r="9">
       <c r="A9" s="37" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>542</v>
+        <v>576</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>543</v>
+        <v>577</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>544</v>
+        <v>578</v>
       </c>
       <c r="E9" s="37"/>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
       <c r="H9" s="38" t="s">
-        <v>545</v>
+        <v>579</v>
       </c>
       <c r="I9" s="37">
         <v>1.0</v>
@@ -42039,26 +42529,26 @@
     </row>
     <row r="10">
       <c r="A10" s="37" t="s">
-        <v>546</v>
+        <v>580</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>547</v>
+        <v>581</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>548</v>
+        <v>582</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>549</v>
-      </c>
-      <c r="E10" s="112" t="s">
-        <v>222</v>
+        <v>583</v>
+      </c>
+      <c r="E10" s="124" t="s">
+        <v>256</v>
       </c>
       <c r="F10" s="37">
         <v>1.0</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="38" t="s">
-        <v>550</v>
+        <v>584</v>
       </c>
       <c r="I10" s="37">
         <v>1.0</v>
@@ -42068,24 +42558,24 @@
     </row>
     <row r="11">
       <c r="A11" s="37" t="s">
-        <v>551</v>
+        <v>585</v>
       </c>
       <c r="B11" s="37" t="s">
-        <v>552</v>
+        <v>586</v>
       </c>
       <c r="C11" s="37" t="s">
-        <v>553</v>
+        <v>587</v>
       </c>
       <c r="D11" s="37" t="s">
-        <v>554</v>
-      </c>
-      <c r="E11" s="112" t="s">
-        <v>555</v>
+        <v>588</v>
+      </c>
+      <c r="E11" s="124" t="s">
+        <v>589</v>
       </c>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
       <c r="H11" s="38" t="s">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="I11" s="37">
         <v>0.0</v>
@@ -42095,49 +42585,49 @@
     </row>
     <row r="12">
       <c r="A12" s="37" t="s">
-        <v>557</v>
+        <v>591</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>558</v>
+        <v>592</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>559</v>
-      </c>
-      <c r="D12" s="132" t="s">
-        <v>560</v>
+        <v>593</v>
+      </c>
+      <c r="D12" s="144" t="s">
+        <v>594</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>561</v>
+        <v>595</v>
       </c>
       <c r="F12" s="37">
         <v>1.0</v>
       </c>
       <c r="G12" s="37"/>
       <c r="H12" s="38" t="s">
-        <v>562</v>
+        <v>596</v>
       </c>
       <c r="I12" s="37">
         <v>1.0</v>
       </c>
       <c r="J12" s="37" t="s">
-        <v>563</v>
+        <v>597</v>
       </c>
       <c r="K12" s="37" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="37" t="s">
-        <v>565</v>
+        <v>599</v>
       </c>
       <c r="B13" s="37" t="s">
-        <v>566</v>
+        <v>600</v>
       </c>
       <c r="C13" s="37" t="s">
-        <v>567</v>
+        <v>601</v>
       </c>
       <c r="D13" s="37" t="s">
-        <v>568</v>
+        <v>602</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="37">
@@ -42145,7 +42635,7 @@
       </c>
       <c r="G13" s="37"/>
       <c r="H13" s="38" t="s">
-        <v>569</v>
+        <v>603</v>
       </c>
       <c r="I13" s="37">
         <v>1.0</v>
@@ -42155,26 +42645,26 @@
     </row>
     <row r="14">
       <c r="A14" s="37" t="s">
-        <v>570</v>
+        <v>604</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>571</v>
+        <v>605</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>572</v>
+        <v>606</v>
       </c>
       <c r="D14" s="37" t="s">
-        <v>573</v>
+        <v>607</v>
       </c>
       <c r="E14" s="38" t="s">
-        <v>574</v>
+        <v>608</v>
       </c>
       <c r="F14" s="37">
         <v>1.0</v>
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="38" t="s">
-        <v>575</v>
+        <v>609</v>
       </c>
       <c r="I14" s="37">
         <v>1.0</v>
@@ -42184,16 +42674,16 @@
     </row>
     <row r="15">
       <c r="A15" s="37" t="s">
-        <v>576</v>
+        <v>610</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>577</v>
+        <v>611</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>578</v>
+        <v>612</v>
       </c>
       <c r="D15" s="37" t="s">
-        <v>502</v>
+        <v>536</v>
       </c>
       <c r="E15" s="37"/>
       <c r="F15" s="37">
@@ -42201,34 +42691,34 @@
       </c>
       <c r="G15" s="37"/>
       <c r="H15" s="38" t="s">
-        <v>579</v>
+        <v>613</v>
       </c>
       <c r="I15" s="37">
         <v>1.0</v>
       </c>
-      <c r="J15" s="100" t="s">
-        <v>580</v>
+      <c r="J15" s="112" t="s">
+        <v>614</v>
       </c>
       <c r="K15" s="37"/>
     </row>
     <row r="16">
       <c r="A16" s="37" t="s">
-        <v>581</v>
+        <v>615</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>582</v>
+        <v>616</v>
       </c>
       <c r="C16" s="37" t="s">
-        <v>583</v>
+        <v>617</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>584</v>
+        <v>618</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
       <c r="G16" s="37"/>
       <c r="H16" s="38" t="s">
-        <v>585</v>
+        <v>619</v>
       </c>
       <c r="I16" s="37">
         <v>0.0</v>
@@ -42238,16 +42728,16 @@
     </row>
     <row r="17">
       <c r="A17" s="37" t="s">
-        <v>586</v>
+        <v>620</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>587</v>
+        <v>621</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>588</v>
+        <v>622</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>589</v>
+        <v>623</v>
       </c>
       <c r="E17" s="37"/>
       <c r="F17" s="37">
@@ -42255,7 +42745,7 @@
       </c>
       <c r="G17" s="37"/>
       <c r="H17" s="38" t="s">
-        <v>590</v>
+        <v>624</v>
       </c>
       <c r="I17" s="37">
         <v>1.0</v>
@@ -42265,26 +42755,26 @@
     </row>
     <row r="18">
       <c r="A18" s="37" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>592</v>
+        <v>626</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>593</v>
+        <v>627</v>
       </c>
       <c r="D18" s="37" t="s">
-        <v>594</v>
+        <v>628</v>
       </c>
       <c r="E18" s="38" t="s">
-        <v>595</v>
+        <v>629</v>
       </c>
       <c r="F18" s="37">
         <v>1.0</v>
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="38" t="s">
-        <v>596</v>
+        <v>630</v>
       </c>
       <c r="I18" s="37">
         <v>1.0</v>

--- a/Estimates 22 BDG [Final].xlsx
+++ b/Estimates 22 BDG [Final].xlsx
@@ -18,7 +18,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataSignature="AMtx7mhXm71E5VMdC1qXIcBprYdxJCNlxg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataSignature="AMtx7mjiNpm5AzZuJU2TnI9xV+4aLknm9A=="/>
     </ext>
   </extLst>
 </workbook>
@@ -77,7 +77,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miSs3mMnk0YBVYPSxILsEYFzGTiMQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mj819Io1FNxZ4HoiNPoz9tksp3vbA=="/>
     </ext>
   </extLst>
 </comments>
@@ -89,7 +89,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="E8">
+    <comment authorId="0" ref="E9">
       <text>
         <t xml:space="preserve">======
 ID#AAAASYjj5eY
@@ -99,7 +99,7 @@
 	-Jonathan Berry</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E11">
+    <comment authorId="0" ref="E12">
       <text>
         <t xml:space="preserve">======
 ID#AAAASYjj5d8
@@ -109,7 +109,7 @@
 	-Jonathan Berry</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E10">
+    <comment authorId="0" ref="E11">
       <text>
         <t xml:space="preserve">======
 ID#AAAASYjj5d0
@@ -119,7 +119,7 @@
 	-Jonathan Berry</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E9">
+    <comment authorId="0" ref="E10">
       <text>
         <t xml:space="preserve">======
 ID#AAAASYjj5dw
@@ -158,7 +158,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjo22ZfdbVCXMI1MMT0aasqHkGbpw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgHlTMUvHUTre4T4ahVahmEueX3vg=="/>
     </ext>
   </extLst>
 </comments>
@@ -240,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="603">
   <si>
     <t>Milestone Title (Visible to User):</t>
   </si>
@@ -686,6 +686,27 @@
     <t>ADR-01-10</t>
   </si>
   <si>
+    <t>Associate your ADR account with an organization as an editor</t>
+  </si>
+  <si>
+    <t>Is user a member of an organization (country) with an "editor" role on ADR?</t>
+  </si>
+  <si>
+    <t>In order to take advantage of the features available to users on the AIDS Data Repository, you must register an account. It is a quick and simple process. There is an instructional video available on Youtube which will demonstrate how to register and join an organization. Typically, the organization is your country. In order to upload and edit data, you must be an "editor" or "admin". Request the one most appropriate for your estimates role when you are requesting access to the organization.</t>
+  </si>
+  <si>
+    <t>Registering and Joining an Organisation - The AIDS Data Repository https://www.youtube.com/watch?v=O34wTKvn1xI</t>
+  </si>
+  <si>
+    <t>MM Would recomend linking to training manuals instead of youtube</t>
+  </si>
+  <si>
+    <t>check_manual_confirmation('EST-ADR-01-10-A')</t>
+  </si>
+  <si>
+    <t>ADR-01-11</t>
+  </si>
+  <si>
     <t>Check that the required data has been preloaded into your ADR dataset</t>
   </si>
   <si>
@@ -707,7 +728,7 @@
     <t>check_resource_key(['inputs-unaids-geographic', 'inputs-unaids-survey', 'inputs-unaids-population', 'inputs-unaids-spectrum'], 'url', '.*')</t>
   </si>
   <si>
-    <t>ADR-01-11</t>
+    <t>ADR-01-12</t>
   </si>
   <si>
     <t>Upload data inputs to the ADR using the required templates</t>
@@ -729,7 +750,7 @@
 - Click "Upload Files"</t>
   </si>
   <si>
-    <t>check_manual_confirmation('EST-ADR-01-11-A')</t>
+    <t>check_manual_confirmation('EST-ADR-01-12-A')</t>
   </si>
   <si>
     <t>ADR-02-01</t>
@@ -2997,7 +3018,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="116">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3110,14 +3131,20 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -10188,7 +10215,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
@@ -10205,44 +10232,44 @@
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" s="29" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="30" t="s">
-        <v>519</v>
+        <v>526</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="30">
         <v>0.2</v>
       </c>
-      <c r="G2" s="112"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
+      <c r="G2" s="114"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
     </row>
     <row r="3" ht="12.0" customHeight="1"/>
     <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="109" t="s">
-        <v>520</v>
-      </c>
-      <c r="C4" s="81" t="s">
+      <c r="B4" s="111" t="s">
+        <v>527</v>
+      </c>
+      <c r="C4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="81" t="s">
+      <c r="G4" s="83" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="34" t="s">
@@ -10251,26 +10278,26 @@
       <c r="I4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="81" t="s">
+      <c r="J4" s="83" t="s">
         <v>17</v>
       </c>
       <c r="K4" s="49" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>521</v>
-      </c>
-      <c r="B5" s="110"/>
+        <v>528</v>
+      </c>
+      <c r="B5" s="112"/>
       <c r="C5" s="15" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15">
@@ -10278,26 +10305,26 @@
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="23" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>526</v>
-      </c>
-      <c r="B6" s="110" t="s">
-        <v>527</v>
+        <v>533</v>
+      </c>
+      <c r="B6" s="112" t="s">
+        <v>534</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15">
@@ -10305,186 +10332,186 @@
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="23" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="K6" s="15"/>
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>533</v>
-      </c>
-      <c r="B7" s="110"/>
+        <v>540</v>
+      </c>
+      <c r="B7" s="112"/>
       <c r="C7" s="15" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="23" t="s">
-        <v>535</v>
-      </c>
-      <c r="J7" s="90"/>
+        <v>542</v>
+      </c>
+      <c r="J7" s="92"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>536</v>
-      </c>
-      <c r="B8" s="110"/>
+        <v>543</v>
+      </c>
+      <c r="B8" s="112"/>
       <c r="C8" s="15" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="23" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>538</v>
-      </c>
-      <c r="B9" s="110" t="s">
-        <v>539</v>
+        <v>545</v>
+      </c>
+      <c r="B9" s="112" t="s">
+        <v>546</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="23" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>542</v>
-      </c>
-      <c r="B10" s="110" t="s">
-        <v>543</v>
+        <v>549</v>
+      </c>
+      <c r="B10" s="112" t="s">
+        <v>550</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>546</v>
-      </c>
-      <c r="F10" s="97" t="s">
-        <v>267</v>
+        <v>553</v>
+      </c>
+      <c r="F10" s="99" t="s">
+        <v>274</v>
       </c>
       <c r="G10" s="15">
         <v>1.0</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="23" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
     </row>
     <row r="11" ht="12.0" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>548</v>
-      </c>
-      <c r="B11" s="110"/>
+        <v>555</v>
+      </c>
+      <c r="B11" s="112"/>
       <c r="C11" s="15" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="F11" s="97" t="s">
-        <v>552</v>
+        <v>558</v>
+      </c>
+      <c r="F11" s="99" t="s">
+        <v>559</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="23" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" ht="49.5" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="B12" s="110" t="s">
-        <v>555</v>
+        <v>561</v>
+      </c>
+      <c r="B12" s="112" t="s">
+        <v>562</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>557</v>
-      </c>
-      <c r="E12" s="87" t="s">
-        <v>558</v>
+        <v>564</v>
+      </c>
+      <c r="E12" s="89" t="s">
+        <v>565</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="G12" s="15">
         <v>1.0</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="23" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="K12" s="15"/>
     </row>
     <row r="13" ht="12.0" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="B13" s="110" t="s">
-        <v>563</v>
+        <v>569</v>
+      </c>
+      <c r="B13" s="112" t="s">
+        <v>570</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15">
@@ -10492,53 +10519,53 @@
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="23" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="B14" s="110" t="s">
-        <v>569</v>
+        <v>575</v>
+      </c>
+      <c r="B14" s="112" t="s">
+        <v>576</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>570</v>
+        <v>577</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>571</v>
+        <v>578</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>572</v>
+        <v>579</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>573</v>
+        <v>580</v>
       </c>
       <c r="G14" s="15">
         <v>1.0</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="23" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>575</v>
-      </c>
-      <c r="B15" s="110"/>
+        <v>582</v>
+      </c>
+      <c r="B15" s="112"/>
       <c r="C15" s="15" t="s">
-        <v>576</v>
+        <v>583</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15">
@@ -10546,47 +10573,47 @@
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="23" t="s">
-        <v>579</v>
-      </c>
-      <c r="J15" s="90"/>
+        <v>586</v>
+      </c>
+      <c r="J15" s="92"/>
       <c r="K15" s="15"/>
     </row>
     <row r="16" ht="12.0" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>580</v>
-      </c>
-      <c r="B16" s="110"/>
+        <v>587</v>
+      </c>
+      <c r="B16" s="112"/>
       <c r="C16" s="15" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="23" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>585</v>
-      </c>
-      <c r="B17" s="110"/>
+        <v>592</v>
+      </c>
+      <c r="B17" s="112"/>
       <c r="C17" s="15" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15">
@@ -10594,34 +10621,34 @@
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="23" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>590</v>
-      </c>
-      <c r="B18" s="110"/>
+        <v>597</v>
+      </c>
+      <c r="B18" s="112"/>
       <c r="C18" s="15" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="G18" s="15">
         <v>1.0</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="23" t="s">
-        <v>595</v>
+        <v>602</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
@@ -13235,7 +13262,7 @@
       <c r="F3" s="48"/>
       <c r="G3" s="48"/>
     </row>
-    <row r="4" ht="12.0" customHeight="1">
+    <row r="4" ht="11.25" customHeight="1">
       <c r="A4" s="49" t="s">
         <v>9</v>
       </c>
@@ -13264,7 +13291,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="12.0" customHeight="1">
+    <row r="5" ht="92.25" customHeight="1">
       <c r="A5" s="50" t="s">
         <v>116</v>
       </c>
@@ -13277,148 +13304,134 @@
       <c r="D5" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="52" t="s">
+      <c r="E5" s="51" t="s">
         <v>120</v>
       </c>
+      <c r="F5" s="52">
+        <v>1.0</v>
+      </c>
+      <c r="G5" s="53" t="s">
+        <v>121</v>
+      </c>
       <c r="H5" s="18"/>
-      <c r="I5" s="17" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="6" ht="69.0" customHeight="1">
-      <c r="A6" s="50" t="s">
+      <c r="I5" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="53" t="s">
+    </row>
+    <row r="6" ht="12.0" customHeight="1">
+      <c r="A6" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="B6" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="C6" s="51" t="s">
         <v>125</v>
+      </c>
+      <c r="D6" s="51" t="s">
+        <v>126</v>
       </c>
       <c r="E6" s="37"/>
       <c r="F6" s="39"/>
-      <c r="G6" s="54"/>
+      <c r="G6" s="53" t="s">
+        <v>127</v>
+      </c>
       <c r="H6" s="18"/>
-      <c r="I6" s="55" t="s">
-        <v>126</v>
-      </c>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
-    </row>
-    <row r="7" ht="12.0" customHeight="1">
-      <c r="A7" s="57" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="37" t="s">
+      <c r="I6" s="17" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="37" t="s">
+    </row>
+    <row r="7" ht="69.0" customHeight="1">
+      <c r="A7" s="54" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="B7" s="55" t="s">
         <v>130</v>
       </c>
+      <c r="C7" s="55" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>132</v>
+      </c>
       <c r="E7" s="37"/>
-      <c r="F7" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="G7" s="54"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="56"/>
       <c r="H7" s="18"/>
-      <c r="I7" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="56"/>
-    </row>
-    <row r="8" ht="26.25" customHeight="1">
-      <c r="A8" s="57" t="s">
-        <v>132</v>
+      <c r="I7" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+      <c r="L7" s="58"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="58"/>
+      <c r="P7" s="58"/>
+      <c r="Q7" s="58"/>
+      <c r="R7" s="58"/>
+      <c r="S7" s="58"/>
+      <c r="T7" s="58"/>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="58"/>
+      <c r="X7" s="58"/>
+      <c r="Y7" s="58"/>
+    </row>
+    <row r="8" ht="12.0" customHeight="1">
+      <c r="A8" s="59" t="s">
+        <v>134</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D8" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>136</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="E8" s="37"/>
       <c r="F8" s="39">
         <v>1.0</v>
       </c>
-      <c r="G8" s="37"/>
+      <c r="G8" s="56"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-    </row>
-    <row r="9" ht="99.75" customHeight="1">
-      <c r="A9" s="57" t="s">
+      <c r="I8" s="17" t="s">
         <v>138</v>
       </c>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+      <c r="L8" s="58"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="58"/>
+      <c r="P8" s="58"/>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="58"/>
+      <c r="S8" s="58"/>
+      <c r="T8" s="58"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="58"/>
+      <c r="W8" s="58"/>
+      <c r="X8" s="58"/>
+      <c r="Y8" s="58"/>
+    </row>
+    <row r="9" ht="26.25" customHeight="1">
+      <c r="A9" s="59" t="s">
+        <v>139</v>
+      </c>
       <c r="B9" s="37" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D9" s="51" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E9" s="42" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F9" s="39">
         <v>1.0</v>
@@ -13426,7 +13439,7 @@
       <c r="G9" s="37"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -13445,29 +13458,29 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
     </row>
-    <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="B10" s="59" t="s">
+    <row r="10" ht="99.75" customHeight="1">
+      <c r="A10" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="B10" s="37" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="C10" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="D10" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="F10" s="61">
+      <c r="E10" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="F10" s="39">
         <v>1.0</v>
       </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="64" t="s">
-        <v>149</v>
+      <c r="G10" s="37"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18" t="s">
+        <v>150</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -13487,46 +13500,86 @@
       <c r="Y10" s="6"/>
     </row>
     <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="57" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" s="37" t="s">
+      <c r="A11" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="B11" s="61" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="C11" s="61" t="s">
         <v>153</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="D11" s="61" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="37">
+      <c r="E11" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="F11" s="63">
         <v>1.0</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="65"/>
-    </row>
-    <row r="12" ht="12.0" customHeight="1"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="66" t="s">
+        <v>156</v>
+      </c>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+      <c r="V11" s="6"/>
+      <c r="W11" s="6"/>
+      <c r="X11" s="6"/>
+      <c r="Y11" s="6"/>
+    </row>
+    <row r="12" ht="12.0" customHeight="1">
+      <c r="A12" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>160</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="37">
+        <v>1.0</v>
+      </c>
+      <c r="G12" s="37"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="J12" s="67"/>
+      <c r="K12" s="67"/>
+      <c r="L12" s="67"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="67"/>
+      <c r="Q12" s="67"/>
+      <c r="R12" s="67"/>
+      <c r="S12" s="67"/>
+      <c r="T12" s="67"/>
+      <c r="U12" s="67"/>
+      <c r="V12" s="67"/>
+      <c r="W12" s="67"/>
+      <c r="X12" s="67"/>
+    </row>
     <row r="13" ht="12.0" customHeight="1"/>
     <row r="14" ht="12.0" customHeight="1"/>
     <row r="15" ht="12.0" customHeight="1"/>
@@ -14511,6 +14564,7 @@
     <row r="994" ht="12.0" customHeight="1"/>
     <row r="995" ht="12.0" customHeight="1"/>
     <row r="996" ht="12.0" customHeight="1"/>
+    <row r="997" ht="12.0" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
@@ -14518,10 +14572,10 @@
     <mergeCell ref="D2:E2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="E8"/>
-    <hyperlink r:id="rId3" ref="E9"/>
-    <hyperlink r:id="rId4" ref="E10"/>
-    <hyperlink r:id="rId5" ref="E11"/>
+    <hyperlink r:id="rId2" ref="E9"/>
+    <hyperlink r:id="rId3" ref="E10"/>
+    <hyperlink r:id="rId4" ref="E11"/>
+    <hyperlink r:id="rId5" ref="E12"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -14554,7 +14608,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
@@ -14571,14 +14625,14 @@
     </row>
     <row r="2" ht="48.0" customHeight="1">
       <c r="A2" s="29" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="30" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="29">
@@ -14624,143 +14678,143 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="67" t="s">
-        <v>159</v>
-      </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68" t="s">
-        <v>160</v>
-      </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="69">
+      <c r="A5" s="69" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="69"/>
+      <c r="C5" s="70" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="71">
         <v>1.0</v>
       </c>
-      <c r="G5" s="70" t="s">
-        <v>161</v>
-      </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="72" t="s">
-        <v>162</v>
+      <c r="G5" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="H5" s="73"/>
+      <c r="I5" s="74" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="37" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="F6" s="73">
+        <v>174</v>
+      </c>
+      <c r="F6" s="75">
         <v>1.0</v>
       </c>
-      <c r="G6" s="74"/>
+      <c r="G6" s="76"/>
       <c r="H6" s="15"/>
       <c r="I6" s="23" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="37" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="E7" s="15"/>
-      <c r="F7" s="73">
+      <c r="F7" s="75">
         <v>1.0</v>
       </c>
-      <c r="G7" s="74"/>
+      <c r="G7" s="76"/>
       <c r="H7" s="15"/>
       <c r="I7" s="23" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="37" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="E8" s="18"/>
-      <c r="F8" s="73">
+      <c r="F8" s="75">
         <v>1.0</v>
       </c>
-      <c r="G8" s="74"/>
+      <c r="G8" s="76"/>
       <c r="H8" s="15"/>
       <c r="I8" s="23" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="37" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E9" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="73">
+      <c r="F9" s="75">
         <v>1.0</v>
       </c>
-      <c r="G9" s="74"/>
+      <c r="G9" s="76"/>
       <c r="H9" s="15"/>
       <c r="I9" s="23" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="37" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="E10" s="37"/>
-      <c r="F10" s="74">
+      <c r="F10" s="76">
         <v>1.0</v>
       </c>
-      <c r="G10" s="75"/>
+      <c r="G10" s="77"/>
       <c r="H10" s="21"/>
       <c r="I10" s="23" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -15861,7 +15915,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
@@ -15877,15 +15931,15 @@
       </c>
     </row>
     <row r="2" ht="48.0" customHeight="1">
-      <c r="A2" s="76" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2" s="77" t="s">
-        <v>190</v>
+      <c r="A2" s="78" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>197</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="77" t="s">
-        <v>158</v>
+      <c r="D2" s="79" t="s">
+        <v>165</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="29">
@@ -15902,8 +15956,8 @@
       <c r="G3" s="32"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="78" t="s">
-        <v>191</v>
+      <c r="A4" s="80" t="s">
+        <v>198</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>9</v>
@@ -15935,166 +15989,166 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="37" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="73">
+      <c r="G5" s="75">
         <v>1.0</v>
       </c>
-      <c r="H5" s="75"/>
+      <c r="H5" s="77"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="79" t="s">
-        <v>197</v>
+      <c r="J5" s="81" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="37" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="G6" s="73">
+        <v>209</v>
+      </c>
+      <c r="G6" s="75">
         <v>1.0</v>
       </c>
-      <c r="H6" s="74"/>
+      <c r="H6" s="76"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="67" t="s">
+      <c r="A7" s="69" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="71">
+        <v>1.0</v>
+      </c>
+      <c r="H7" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73" t="s">
         <v>204</v>
-      </c>
-      <c r="B7" s="67" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67" t="s">
-        <v>206</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="69">
-        <v>1.0</v>
-      </c>
-      <c r="H7" s="70" t="s">
-        <v>161</v>
-      </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="37" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C8" s="37" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D8" s="37" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="E8" s="37" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="G8" s="73">
+        <v>216</v>
+      </c>
+      <c r="G8" s="75">
         <v>1.0</v>
       </c>
-      <c r="H8" s="74"/>
+      <c r="H8" s="76"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="37" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="G9" s="74">
+        <v>216</v>
+      </c>
+      <c r="G9" s="76">
         <v>1.0</v>
       </c>
-      <c r="H9" s="80" t="s">
-        <v>215</v>
+      <c r="H9" s="82" t="s">
+        <v>222</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="15" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="37" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="F10" s="37"/>
-      <c r="G10" s="73">
+      <c r="G10" s="75">
         <v>1.0</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="19"/>
       <c r="J10" s="15" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -17187,7 +17241,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="9.29"/>
-    <col customWidth="1" min="2" max="2" width="8.71"/>
+    <col customWidth="1" min="2" max="2" width="25.57"/>
     <col customWidth="1" min="3" max="3" width="14.57"/>
     <col customWidth="1" min="4" max="4" width="20.0"/>
     <col customWidth="1" min="5" max="5" width="70.43"/>
@@ -17199,7 +17253,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
@@ -17216,14 +17270,14 @@
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" s="29" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="30" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="29">
@@ -17232,31 +17286,31 @@
     </row>
     <row r="3" ht="12.0" customHeight="1"/>
     <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="82" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" s="81" t="s">
+      <c r="B4" s="84" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="81" t="s">
+      <c r="G4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="81" t="s">
+      <c r="H4" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="84" t="s">
+      <c r="I4" s="86" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="34" t="s">
@@ -17265,46 +17319,46 @@
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" s="85"/>
+        <v>233</v>
+      </c>
+      <c r="B5" s="87"/>
       <c r="C5" s="15" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="E5" s="86" t="s">
-        <v>229</v>
-      </c>
-      <c r="F5" s="87" t="s">
-        <v>230</v>
+        <v>235</v>
+      </c>
+      <c r="E5" s="88" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" s="89" t="s">
+        <v>237</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="23" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B6" s="85"/>
+        <v>240</v>
+      </c>
+      <c r="B6" s="87"/>
       <c r="C6" s="15" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="E6" s="86" t="s">
-        <v>236</v>
+        <v>242</v>
+      </c>
+      <c r="E6" s="88" t="s">
+        <v>243</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="G6" s="15">
         <v>1.0</v>
@@ -17312,22 +17366,22 @@
       <c r="H6" s="19"/>
       <c r="I6" s="15"/>
       <c r="J6" s="23" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="B7" s="88"/>
+        <v>246</v>
+      </c>
+      <c r="B7" s="90"/>
       <c r="C7" s="15" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="E7" s="86" t="s">
-        <v>242</v>
+        <v>248</v>
+      </c>
+      <c r="E7" s="88" t="s">
+        <v>249</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15">
@@ -17336,381 +17390,381 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="23" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="B8" s="85"/>
+        <v>251</v>
+      </c>
+      <c r="B8" s="87"/>
       <c r="C8" s="15" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="E8" s="86" t="s">
-        <v>247</v>
+        <v>253</v>
+      </c>
+      <c r="E8" s="88" t="s">
+        <v>254</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="23" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="B9" s="88" t="s">
-        <v>251</v>
+        <v>257</v>
+      </c>
+      <c r="B9" s="90" t="s">
+        <v>258</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="E9" s="86" t="s">
-        <v>254</v>
-      </c>
-      <c r="F9" s="87" t="s">
-        <v>255</v>
+        <v>260</v>
+      </c>
+      <c r="E9" s="88" t="s">
+        <v>261</v>
+      </c>
+      <c r="F9" s="89" t="s">
+        <v>262</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="23" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B10" s="88"/>
+        <v>264</v>
+      </c>
+      <c r="B10" s="90"/>
       <c r="C10" s="15" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="E10" s="86" t="s">
-        <v>260</v>
-      </c>
-      <c r="F10" s="89"/>
+        <v>266</v>
+      </c>
+      <c r="E10" s="88" t="s">
+        <v>267</v>
+      </c>
+      <c r="F10" s="91"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="57" t="s">
-        <v>261</v>
+      <c r="H10" s="59" t="s">
+        <v>268</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="23" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" ht="57.0" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="B11" s="88"/>
+        <v>270</v>
+      </c>
+      <c r="B11" s="90"/>
       <c r="C11" s="15" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="E11" s="86" t="s">
-        <v>266</v>
+        <v>272</v>
+      </c>
+      <c r="E11" s="88" t="s">
+        <v>273</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="G11" s="15"/>
-      <c r="H11" s="90"/>
+      <c r="H11" s="92"/>
       <c r="I11" s="19"/>
       <c r="J11" s="23" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" ht="12.0" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="B12" s="85" t="s">
-        <v>270</v>
+        <v>276</v>
+      </c>
+      <c r="B12" s="87" t="s">
+        <v>277</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="E12" s="86" t="s">
-        <v>273</v>
+        <v>279</v>
+      </c>
+      <c r="E12" s="88" t="s">
+        <v>280</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="G12" s="15"/>
-      <c r="H12" s="57"/>
+      <c r="H12" s="59"/>
       <c r="I12" s="15"/>
       <c r="J12" s="23" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" ht="12.0" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="B13" s="91"/>
+        <v>282</v>
+      </c>
+      <c r="B13" s="93"/>
       <c r="C13" s="15" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="E13" s="86" t="s">
-        <v>278</v>
+        <v>284</v>
+      </c>
+      <c r="E13" s="88" t="s">
+        <v>285</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="57" t="s">
-        <v>279</v>
+      <c r="H13" s="59" t="s">
+        <v>286</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="23" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="B14" s="88" t="s">
-        <v>282</v>
+        <v>288</v>
+      </c>
+      <c r="B14" s="90" t="s">
+        <v>289</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="E14" s="86" t="s">
-        <v>285</v>
+        <v>291</v>
+      </c>
+      <c r="E14" s="88" t="s">
+        <v>292</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="G14" s="15"/>
-      <c r="H14" s="57"/>
+      <c r="H14" s="59"/>
       <c r="I14" s="15"/>
       <c r="J14" s="23" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="B15" s="88" t="s">
-        <v>288</v>
+        <v>294</v>
+      </c>
+      <c r="B15" s="90" t="s">
+        <v>295</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="E15" s="86" t="s">
-        <v>291</v>
+        <v>297</v>
+      </c>
+      <c r="E15" s="88" t="s">
+        <v>298</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="23" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" ht="12.0" customHeight="1">
-      <c r="A16" s="71" t="s">
-        <v>294</v>
-      </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="E16" s="92"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71">
+      <c r="A16" s="73" t="s">
+        <v>301</v>
+      </c>
+      <c r="B16" s="90"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73" t="s">
+        <v>302</v>
+      </c>
+      <c r="E16" s="94"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73">
         <v>1.0</v>
       </c>
-      <c r="H16" s="93" t="s">
-        <v>296</v>
+      <c r="H16" s="95" t="s">
+        <v>303</v>
       </c>
       <c r="I16" s="21"/>
-      <c r="J16" s="72" t="s">
-        <v>297</v>
+      <c r="J16" s="74" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="B17" s="88" t="s">
-        <v>299</v>
-      </c>
-      <c r="C17" s="79" t="s">
-        <v>300</v>
-      </c>
-      <c r="D17" s="79" t="s">
-        <v>301</v>
-      </c>
-      <c r="E17" s="94" t="s">
-        <v>302</v>
-      </c>
-      <c r="F17" s="95" t="s">
-        <v>303</v>
-      </c>
-      <c r="G17" s="79"/>
-      <c r="H17" s="96"/>
+        <v>305</v>
+      </c>
+      <c r="B17" s="90" t="s">
+        <v>306</v>
+      </c>
+      <c r="C17" s="81" t="s">
+        <v>307</v>
+      </c>
+      <c r="D17" s="81" t="s">
+        <v>308</v>
+      </c>
+      <c r="E17" s="96" t="s">
+        <v>309</v>
+      </c>
+      <c r="F17" s="97" t="s">
+        <v>310</v>
+      </c>
+      <c r="G17" s="81"/>
+      <c r="H17" s="98"/>
       <c r="I17" s="15"/>
       <c r="J17" s="23" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="B18" s="88" t="s">
-        <v>306</v>
-      </c>
-      <c r="C18" s="79" t="s">
-        <v>307</v>
-      </c>
-      <c r="D18" s="79" t="s">
-        <v>308</v>
-      </c>
-      <c r="E18" s="94" t="s">
-        <v>309</v>
-      </c>
-      <c r="F18" s="95" t="s">
-        <v>303</v>
-      </c>
-      <c r="G18" s="79"/>
-      <c r="H18" s="96"/>
+        <v>312</v>
+      </c>
+      <c r="B18" s="90" t="s">
+        <v>313</v>
+      </c>
+      <c r="C18" s="81" t="s">
+        <v>314</v>
+      </c>
+      <c r="D18" s="81" t="s">
+        <v>315</v>
+      </c>
+      <c r="E18" s="96" t="s">
+        <v>316</v>
+      </c>
+      <c r="F18" s="97" t="s">
+        <v>310</v>
+      </c>
+      <c r="G18" s="81"/>
+      <c r="H18" s="98"/>
       <c r="I18" s="15"/>
       <c r="J18" s="23" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" ht="12.0" customHeight="1">
       <c r="A19" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="B19" s="88" t="s">
-        <v>312</v>
+        <v>318</v>
+      </c>
+      <c r="B19" s="90" t="s">
+        <v>319</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="E19" s="86" t="s">
-        <v>315</v>
-      </c>
-      <c r="F19" s="97" t="s">
-        <v>303</v>
+        <v>321</v>
+      </c>
+      <c r="E19" s="88" t="s">
+        <v>322</v>
+      </c>
+      <c r="F19" s="99" t="s">
+        <v>310</v>
       </c>
       <c r="G19" s="15"/>
-      <c r="H19" s="90"/>
+      <c r="H19" s="92"/>
       <c r="I19" s="15"/>
       <c r="J19" s="23" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" ht="12.0" customHeight="1">
       <c r="A20" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="B20" s="88" t="s">
-        <v>318</v>
+        <v>324</v>
+      </c>
+      <c r="B20" s="90" t="s">
+        <v>325</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="E20" s="86" t="s">
-        <v>321</v>
-      </c>
-      <c r="F20" s="97" t="s">
-        <v>322</v>
+        <v>327</v>
+      </c>
+      <c r="E20" s="88" t="s">
+        <v>328</v>
+      </c>
+      <c r="F20" s="99" t="s">
+        <v>329</v>
       </c>
       <c r="G20" s="15"/>
-      <c r="H20" s="90"/>
+      <c r="H20" s="92"/>
       <c r="I20" s="15"/>
       <c r="J20" s="23" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" ht="12.0" customHeight="1">
       <c r="A21" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="B21" s="88" t="s">
-        <v>325</v>
+        <v>331</v>
+      </c>
+      <c r="B21" s="90" t="s">
+        <v>332</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="E21" s="86" t="s">
-        <v>328</v>
-      </c>
-      <c r="F21" s="97" t="s">
-        <v>303</v>
+        <v>334</v>
+      </c>
+      <c r="E21" s="88" t="s">
+        <v>335</v>
+      </c>
+      <c r="F21" s="99" t="s">
+        <v>310</v>
       </c>
       <c r="G21" s="15"/>
-      <c r="H21" s="90"/>
+      <c r="H21" s="92"/>
       <c r="I21" s="21"/>
       <c r="J21" s="23" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" ht="12.0" customHeight="1">
-      <c r="A22" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="B22" s="98"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71" t="s">
-        <v>331</v>
-      </c>
-      <c r="E22" s="92"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="100">
+      <c r="A22" s="73" t="s">
+        <v>337</v>
+      </c>
+      <c r="B22" s="100"/>
+      <c r="C22" s="73"/>
+      <c r="D22" s="73" t="s">
+        <v>338</v>
+      </c>
+      <c r="E22" s="94"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="102">
         <v>1.0</v>
       </c>
-      <c r="H22" s="93" t="s">
-        <v>332</v>
+      <c r="H22" s="95" t="s">
+        <v>339</v>
       </c>
       <c r="I22" s="15"/>
-      <c r="J22" s="72" t="s">
-        <v>333</v>
+      <c r="J22" s="74" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="23" ht="12.0" customHeight="1">
@@ -18781,7 +18835,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
@@ -18797,15 +18851,15 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="76" t="s">
-        <v>334</v>
-      </c>
-      <c r="B2" s="77" t="s">
-        <v>335</v>
+      <c r="A2" s="78" t="s">
+        <v>341</v>
+      </c>
+      <c r="B2" s="79" t="s">
+        <v>342</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="77" t="s">
-        <v>336</v>
+      <c r="D2" s="79" t="s">
+        <v>343</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="29">
@@ -18814,29 +18868,29 @@
     </row>
     <row r="3" ht="14.25" customHeight="1"/>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="81" t="s">
-        <v>337</v>
+      <c r="G4" s="83" t="s">
+        <v>344</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="I4" s="34" t="s">
         <v>16</v>
@@ -18847,138 +18901,138 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="57"/>
+      <c r="G5" s="88"/>
+      <c r="H5" s="59"/>
       <c r="I5" s="15"/>
       <c r="J5" s="23" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="86" t="s">
-        <v>348</v>
+      <c r="G6" s="88" t="s">
+        <v>355</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="23" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="86" t="s">
-        <v>348</v>
+      <c r="G7" s="88" t="s">
+        <v>355</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="23" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15">
         <v>1.0</v>
       </c>
-      <c r="G8" s="86"/>
+      <c r="G8" s="88"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="23" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="E9" s="101" t="s">
-        <v>364</v>
+        <v>370</v>
+      </c>
+      <c r="E9" s="103" t="s">
+        <v>371</v>
       </c>
       <c r="F9" s="15">
         <v>1.0</v>
       </c>
-      <c r="G9" s="86" t="s">
-        <v>365</v>
+      <c r="G9" s="88" t="s">
+        <v>372</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="21"/>
       <c r="J9" s="23" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15">
@@ -18988,24 +19042,24 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
+        <v>378</v>
+      </c>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
+      <c r="R10" s="67"/>
+      <c r="S10" s="67"/>
+      <c r="T10" s="67"/>
+      <c r="U10" s="67"/>
+      <c r="V10" s="67"/>
+      <c r="W10" s="67"/>
+      <c r="X10" s="67"/>
+      <c r="Y10" s="67"/>
+      <c r="Z10" s="67"/>
     </row>
     <row r="11" ht="14.25" customHeight="1"/>
     <row r="12" ht="14.25" customHeight="1"/>
@@ -20036,7 +20090,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
@@ -20053,14 +20107,14 @@
     </row>
     <row r="2" ht="82.5" customHeight="1">
       <c r="A2" s="29" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="30" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="29">
@@ -20068,25 +20122,25 @@
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="J3" s="102"/>
+      <c r="J3" s="104"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="83" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="34" t="s">
@@ -20095,93 +20149,93 @@
       <c r="H4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="81" t="s">
-        <v>337</v>
+      <c r="I4" s="83" t="s">
+        <v>344</v>
       </c>
       <c r="J4" s="49" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="C5" s="57" t="s">
-        <v>377</v>
-      </c>
-      <c r="D5" s="57" t="s">
-        <v>378</v>
-      </c>
-      <c r="E5" s="90"/>
+        <v>383</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>384</v>
+      </c>
+      <c r="D5" s="59" t="s">
+        <v>385</v>
+      </c>
+      <c r="E5" s="92"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="23" t="s">
-        <v>379</v>
-      </c>
-      <c r="I5" s="103"/>
-      <c r="J5" s="57"/>
+        <v>386</v>
+      </c>
+      <c r="I5" s="105"/>
+      <c r="J5" s="59"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="F6" s="15">
         <v>1.0</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="I6" s="86"/>
+        <v>392</v>
+      </c>
+      <c r="I6" s="88"/>
       <c r="J6" s="15"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="104" t="s">
-        <v>386</v>
-      </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104" t="s">
-        <v>387</v>
-      </c>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
-      <c r="H7" s="72" t="s">
-        <v>388</v>
-      </c>
-      <c r="I7" s="105" t="s">
-        <v>389</v>
-      </c>
-      <c r="J7" s="106"/>
+      <c r="A7" s="106" t="s">
+        <v>393</v>
+      </c>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106" t="s">
+        <v>394</v>
+      </c>
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="74" t="s">
+        <v>395</v>
+      </c>
+      <c r="I7" s="107" t="s">
+        <v>396</v>
+      </c>
+      <c r="J7" s="108"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15">
@@ -20189,45 +20243,45 @@
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="I8" s="86"/>
-      <c r="J8" s="107"/>
+        <v>401</v>
+      </c>
+      <c r="I8" s="88"/>
+      <c r="J8" s="109"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="I9" s="86"/>
-      <c r="J9" s="107"/>
+        <v>406</v>
+      </c>
+      <c r="I9" s="88"/>
+      <c r="J9" s="109"/>
     </row>
     <row r="10" ht="115.5" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15">
@@ -20235,47 +20289,47 @@
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="23" t="s">
-        <v>404</v>
-      </c>
-      <c r="I10" s="86" t="s">
-        <v>405</v>
-      </c>
-      <c r="J10" s="107"/>
+        <v>411</v>
+      </c>
+      <c r="I10" s="88" t="s">
+        <v>412</v>
+      </c>
+      <c r="J10" s="109"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="23" t="s">
-        <v>410</v>
-      </c>
-      <c r="I11" s="86"/>
-      <c r="J11" s="107"/>
+        <v>417</v>
+      </c>
+      <c r="I11" s="88"/>
+      <c r="J11" s="109"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15">
@@ -20283,47 +20337,47 @@
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="I12" s="86" t="s">
-        <v>416</v>
-      </c>
-      <c r="J12" s="107"/>
+        <v>422</v>
+      </c>
+      <c r="I12" s="88" t="s">
+        <v>423</v>
+      </c>
+      <c r="J12" s="109"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="23" t="s">
-        <v>421</v>
-      </c>
-      <c r="I13" s="86"/>
-      <c r="J13" s="107"/>
+        <v>428</v>
+      </c>
+      <c r="I13" s="88"/>
+      <c r="J13" s="109"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15">
@@ -20331,32 +20385,32 @@
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="23" t="s">
-        <v>426</v>
-      </c>
-      <c r="I14" s="86"/>
-      <c r="J14" s="107"/>
+        <v>433</v>
+      </c>
+      <c r="I14" s="88"/>
+      <c r="J14" s="109"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="23" t="s">
-        <v>431</v>
-      </c>
-      <c r="I15" s="86"/>
-      <c r="J15" s="107"/>
+        <v>438</v>
+      </c>
+      <c r="I15" s="88"/>
+      <c r="J15" s="109"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="C16" s="26"/>
@@ -21380,7 +21434,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="19.43"/>
-    <col customWidth="1" min="2" max="2" width="9.29"/>
+    <col customWidth="1" min="2" max="2" width="28.86"/>
     <col customWidth="1" min="3" max="3" width="10.86"/>
     <col customWidth="1" min="4" max="4" width="17.43"/>
     <col customWidth="1" min="5" max="5" width="17.0"/>
@@ -21394,10 +21448,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="110" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
@@ -21411,14 +21465,14 @@
     </row>
     <row r="2" ht="75.0" customHeight="1">
       <c r="A2" s="29" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="8" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="29">
@@ -21427,25 +21481,25 @@
     </row>
     <row r="3" ht="13.5" customHeight="1"/>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="109" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" s="81" t="s">
+      <c r="B4" s="111" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="81" t="s">
+      <c r="G4" s="83" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="34" t="s">
@@ -21454,78 +21508,78 @@
       <c r="I4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="81" t="s">
+      <c r="J4" s="83" t="s">
         <v>17</v>
       </c>
       <c r="K4" s="49" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="B5" s="110"/>
+        <v>442</v>
+      </c>
+      <c r="B5" s="112"/>
       <c r="C5" s="15" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="23" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="K5" s="15"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="B6" s="110"/>
+        <v>448</v>
+      </c>
+      <c r="B6" s="112"/>
       <c r="C6" s="15" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="23" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="K6" s="15"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="B7" s="110" t="s">
-        <v>448</v>
+        <v>454</v>
+      </c>
+      <c r="B7" s="112" t="s">
+        <v>455</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15">
@@ -21533,29 +21587,29 @@
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="23" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
       <c r="K7" s="15"/>
-      <c r="L7" s="111" t="s">
-        <v>454</v>
+      <c r="L7" s="113" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>455</v>
-      </c>
-      <c r="B8" s="110"/>
+        <v>462</v>
+      </c>
+      <c r="B8" s="112"/>
       <c r="C8" s="15" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15">
@@ -21563,26 +21617,26 @@
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="23" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="K8" s="15"/>
     </row>
     <row r="9" ht="199.5" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>461</v>
-      </c>
-      <c r="B9" s="110"/>
+        <v>468</v>
+      </c>
+      <c r="B9" s="112"/>
       <c r="C9" s="15" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15">
@@ -21590,78 +21644,78 @@
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="23" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>466</v>
-      </c>
-      <c r="B10" s="110" t="s">
-        <v>467</v>
+        <v>473</v>
+      </c>
+      <c r="B10" s="112" t="s">
+        <v>474</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>470</v>
-      </c>
-      <c r="F10" s="90"/>
+        <v>477</v>
+      </c>
+      <c r="F10" s="92"/>
       <c r="G10" s="15">
         <v>1.0</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="23" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="B11" s="110"/>
+        <v>479</v>
+      </c>
+      <c r="B11" s="112"/>
       <c r="C11" s="15" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="23" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="K11" s="15"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="B12" s="110" t="s">
-        <v>479</v>
+        <v>485</v>
+      </c>
+      <c r="B12" s="112" t="s">
+        <v>486</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15">
@@ -21669,149 +21723,149 @@
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="23" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>484</v>
-      </c>
-      <c r="B13" s="110"/>
+        <v>491</v>
+      </c>
+      <c r="B13" s="112"/>
       <c r="C13" s="15" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="23" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="B14" s="110"/>
+        <v>496</v>
+      </c>
+      <c r="B14" s="112"/>
       <c r="C14" s="15" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>494</v>
-      </c>
-      <c r="B15" s="110"/>
+        <v>501</v>
+      </c>
+      <c r="B15" s="112"/>
       <c r="C15" s="15" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="F15" s="87" t="s">
-        <v>498</v>
+        <v>504</v>
+      </c>
+      <c r="F15" s="89" t="s">
+        <v>505</v>
       </c>
       <c r="G15" s="15">
         <v>1.0</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="23" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="K15" s="15"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="B16" s="110"/>
+        <v>508</v>
+      </c>
+      <c r="B16" s="112"/>
       <c r="C16" s="15" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="23" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>505</v>
+        <v>512</v>
       </c>
       <c r="K16" s="15"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="B17" s="110"/>
+        <v>513</v>
+      </c>
+      <c r="B17" s="112"/>
       <c r="C17" s="15" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="23" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="K17" s="15"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>512</v>
-      </c>
-      <c r="B18" s="110"/>
+        <v>519</v>
+      </c>
+      <c r="B18" s="112"/>
       <c r="C18" s="15" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15">
@@ -21819,7 +21873,7 @@
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="23" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>

--- a/Estimates 22 BDG [Final].xlsx
+++ b/Estimates 22 BDG [Final].xlsx
@@ -18,7 +18,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataSignature="AMtx7mjiNpm5AzZuJU2TnI9xV+4aLknm9A=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataSignature="AMtx7mhXm71E5VMdC1qXIcBprYdxJCNlxg=="/>
     </ext>
   </extLst>
 </workbook>
@@ -77,7 +77,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mj819Io1FNxZ4HoiNPoz9tksp3vbA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjRTiHm/bb3hoFY4mbh/FCIGzfI2Q=="/>
     </ext>
   </extLst>
 </comments>
@@ -89,7 +89,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="E9">
+    <comment authorId="0" ref="E8">
       <text>
         <t xml:space="preserve">======
 ID#AAAASYjj5eY
@@ -99,7 +99,7 @@
 	-Jonathan Berry</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E12">
+    <comment authorId="0" ref="E11">
       <text>
         <t xml:space="preserve">======
 ID#AAAASYjj5d8
@@ -109,7 +109,7 @@
 	-Jonathan Berry</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E11">
+    <comment authorId="0" ref="E10">
       <text>
         <t xml:space="preserve">======
 ID#AAAASYjj5d0
@@ -119,7 +119,7 @@
 	-Jonathan Berry</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E10">
+    <comment authorId="0" ref="E9">
       <text>
         <t xml:space="preserve">======
 ID#AAAASYjj5dw
@@ -158,7 +158,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgHlTMUvHUTre4T4ahVahmEueX3vg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgYos0niKmTsh4KflH2MPzKEKqG+w=="/>
     </ext>
   </extLst>
 </comments>
@@ -240,7 +240,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="596">
   <si>
     <t>Milestone Title (Visible to User):</t>
   </si>
@@ -686,27 +686,6 @@
     <t>ADR-01-10</t>
   </si>
   <si>
-    <t>Associate your ADR account with an organization as an editor</t>
-  </si>
-  <si>
-    <t>Is user a member of an organization (country) with an "editor" role on ADR?</t>
-  </si>
-  <si>
-    <t>In order to take advantage of the features available to users on the AIDS Data Repository, you must register an account. It is a quick and simple process. There is an instructional video available on Youtube which will demonstrate how to register and join an organization. Typically, the organization is your country. In order to upload and edit data, you must be an "editor" or "admin". Request the one most appropriate for your estimates role when you are requesting access to the organization.</t>
-  </si>
-  <si>
-    <t>Registering and Joining an Organisation - The AIDS Data Repository https://www.youtube.com/watch?v=O34wTKvn1xI</t>
-  </si>
-  <si>
-    <t>MM Would recomend linking to training manuals instead of youtube</t>
-  </si>
-  <si>
-    <t>check_manual_confirmation('EST-ADR-01-10-A')</t>
-  </si>
-  <si>
-    <t>ADR-01-11</t>
-  </si>
-  <si>
     <t>Check that the required data has been preloaded into your ADR dataset</t>
   </si>
   <si>
@@ -728,7 +707,7 @@
     <t>check_resource_key(['inputs-unaids-geographic', 'inputs-unaids-survey', 'inputs-unaids-population', 'inputs-unaids-spectrum'], 'url', '.*')</t>
   </si>
   <si>
-    <t>ADR-01-12</t>
+    <t>ADR-01-11</t>
   </si>
   <si>
     <t>Upload data inputs to the ADR using the required templates</t>
@@ -750,7 +729,7 @@
 - Click "Upload Files"</t>
   </si>
   <si>
-    <t>check_manual_confirmation('EST-ADR-01-12-A')</t>
+    <t>check_manual_confirmation('EST-ADR-01-11-A')</t>
   </si>
   <si>
     <t>ADR-02-01</t>
@@ -3018,7 +2997,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="114">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3131,20 +3110,14 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -10215,7 +10188,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
@@ -10232,44 +10205,44 @@
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" s="29" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="30" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="30">
         <v>0.2</v>
       </c>
-      <c r="G2" s="114"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
+      <c r="G2" s="112"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
     </row>
     <row r="3" ht="12.0" customHeight="1"/>
     <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="111" t="s">
-        <v>527</v>
-      </c>
-      <c r="C4" s="83" t="s">
+      <c r="B4" s="109" t="s">
+        <v>520</v>
+      </c>
+      <c r="C4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="83" t="s">
+      <c r="G4" s="81" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="34" t="s">
@@ -10278,26 +10251,26 @@
       <c r="I4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="83" t="s">
+      <c r="J4" s="81" t="s">
         <v>17</v>
       </c>
       <c r="K4" s="49" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>528</v>
-      </c>
-      <c r="B5" s="112"/>
+        <v>521</v>
+      </c>
+      <c r="B5" s="110"/>
       <c r="C5" s="15" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15">
@@ -10305,26 +10278,26 @@
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="23" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>533</v>
-      </c>
-      <c r="B6" s="112" t="s">
-        <v>534</v>
+        <v>526</v>
+      </c>
+      <c r="B6" s="110" t="s">
+        <v>527</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15">
@@ -10332,186 +10305,186 @@
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="23" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
       <c r="K6" s="15"/>
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>540</v>
-      </c>
-      <c r="B7" s="112"/>
+        <v>533</v>
+      </c>
+      <c r="B7" s="110"/>
       <c r="C7" s="15" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="23" t="s">
-        <v>542</v>
-      </c>
-      <c r="J7" s="92"/>
+        <v>535</v>
+      </c>
+      <c r="J7" s="90"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>543</v>
-      </c>
-      <c r="B8" s="112"/>
+        <v>536</v>
+      </c>
+      <c r="B8" s="110"/>
       <c r="C8" s="15" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="23" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>545</v>
-      </c>
-      <c r="B9" s="112" t="s">
-        <v>546</v>
+        <v>538</v>
+      </c>
+      <c r="B9" s="110" t="s">
+        <v>539</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="23" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>549</v>
-      </c>
-      <c r="B10" s="112" t="s">
-        <v>550</v>
+        <v>542</v>
+      </c>
+      <c r="B10" s="110" t="s">
+        <v>543</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>553</v>
-      </c>
-      <c r="F10" s="99" t="s">
-        <v>274</v>
+        <v>546</v>
+      </c>
+      <c r="F10" s="97" t="s">
+        <v>267</v>
       </c>
       <c r="G10" s="15">
         <v>1.0</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="23" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
     </row>
     <row r="11" ht="12.0" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="B11" s="112"/>
+        <v>548</v>
+      </c>
+      <c r="B11" s="110"/>
       <c r="C11" s="15" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>558</v>
-      </c>
-      <c r="F11" s="99" t="s">
-        <v>559</v>
+        <v>551</v>
+      </c>
+      <c r="F11" s="97" t="s">
+        <v>552</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="23" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" ht="49.5" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>561</v>
-      </c>
-      <c r="B12" s="112" t="s">
-        <v>562</v>
+        <v>554</v>
+      </c>
+      <c r="B12" s="110" t="s">
+        <v>555</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>564</v>
-      </c>
-      <c r="E12" s="89" t="s">
-        <v>565</v>
+        <v>557</v>
+      </c>
+      <c r="E12" s="87" t="s">
+        <v>558</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="G12" s="15">
         <v>1.0</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="23" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="K12" s="15"/>
     </row>
     <row r="13" ht="12.0" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>569</v>
-      </c>
-      <c r="B13" s="112" t="s">
-        <v>570</v>
+        <v>562</v>
+      </c>
+      <c r="B13" s="110" t="s">
+        <v>563</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15">
@@ -10519,53 +10492,53 @@
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="23" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>575</v>
-      </c>
-      <c r="B14" s="112" t="s">
-        <v>576</v>
+        <v>568</v>
+      </c>
+      <c r="B14" s="110" t="s">
+        <v>569</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="G14" s="15">
         <v>1.0</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="23" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>582</v>
-      </c>
-      <c r="B15" s="112"/>
+        <v>575</v>
+      </c>
+      <c r="B15" s="110"/>
       <c r="C15" s="15" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15">
@@ -10573,47 +10546,47 @@
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="23" t="s">
-        <v>586</v>
-      </c>
-      <c r="J15" s="92"/>
+        <v>579</v>
+      </c>
+      <c r="J15" s="90"/>
       <c r="K15" s="15"/>
     </row>
     <row r="16" ht="12.0" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>587</v>
-      </c>
-      <c r="B16" s="112"/>
+        <v>580</v>
+      </c>
+      <c r="B16" s="110"/>
       <c r="C16" s="15" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="23" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>592</v>
-      </c>
-      <c r="B17" s="112"/>
+        <v>585</v>
+      </c>
+      <c r="B17" s="110"/>
       <c r="C17" s="15" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15">
@@ -10621,34 +10594,34 @@
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="23" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>597</v>
-      </c>
-      <c r="B18" s="112"/>
+        <v>590</v>
+      </c>
+      <c r="B18" s="110"/>
       <c r="C18" s="15" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="G18" s="15">
         <v>1.0</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="23" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
@@ -13291,7 +13264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="92.25" customHeight="1">
+    <row r="5" ht="12.0" customHeight="1">
       <c r="A5" s="50" t="s">
         <v>116</v>
       </c>
@@ -13304,134 +13277,148 @@
       <c r="D5" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="37"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="F5" s="52">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="53" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="51" t="s">
+    </row>
+    <row r="6" ht="168.0" customHeight="1">
+      <c r="A6" s="50" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="6" ht="12.0" customHeight="1">
-      <c r="A6" s="54" t="s">
+      <c r="B6" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="C6" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="D6" s="53" t="s">
         <v>125</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>126</v>
       </c>
       <c r="E6" s="37"/>
       <c r="F6" s="39"/>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="54"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="56"/>
+    </row>
+    <row r="7" ht="12.0" customHeight="1">
+      <c r="A7" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="17" t="s">
+      <c r="B7" s="37" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="7" ht="69.0" customHeight="1">
-      <c r="A7" s="54" t="s">
+      <c r="C7" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="D7" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="E7" s="37"/>
+      <c r="F7" s="39">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="54"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+    </row>
+    <row r="8" ht="26.25" customHeight="1">
+      <c r="A8" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="57" t="s">
+      <c r="B8" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-    </row>
-    <row r="8" ht="12.0" customHeight="1">
-      <c r="A8" s="59" t="s">
+      <c r="C8" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="D8" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="E8" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" s="37"/>
       <c r="F8" s="39">
         <v>1.0</v>
       </c>
-      <c r="G8" s="56"/>
+      <c r="G8" s="37"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+    </row>
+    <row r="9" ht="99.75" customHeight="1">
+      <c r="A9" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="58"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-    </row>
-    <row r="9" ht="26.25" customHeight="1">
-      <c r="A9" s="59" t="s">
+      <c r="B9" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="C9" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="D9" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="E9" s="42" t="s">
         <v>142</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>143</v>
       </c>
       <c r="F9" s="39">
         <v>1.0</v>
@@ -13439,7 +13426,7 @@
       <c r="G9" s="37"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -13458,29 +13445,29 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
     </row>
-    <row r="10" ht="99.75" customHeight="1">
-      <c r="A10" s="59" t="s">
+    <row r="10" ht="12.0" customHeight="1">
+      <c r="A10" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="C10" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="D10" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="E10" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="F10" s="61">
+        <v>1.0</v>
+      </c>
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64" t="s">
         <v>149</v>
-      </c>
-      <c r="F10" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18" t="s">
-        <v>150</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -13500,86 +13487,46 @@
       <c r="Y10" s="6"/>
     </row>
     <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="C11" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="D11" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="E11" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="F11" s="37">
+        <v>1.0</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="63">
-        <v>1.0</v>
-      </c>
-      <c r="G11" s="64"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-    </row>
-    <row r="12" ht="12.0" customHeight="1">
-      <c r="A12" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="F12" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="67"/>
-      <c r="X12" s="67"/>
-    </row>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="65"/>
+    </row>
+    <row r="12" ht="12.0" customHeight="1"/>
     <row r="13" ht="12.0" customHeight="1"/>
     <row r="14" ht="12.0" customHeight="1"/>
     <row r="15" ht="12.0" customHeight="1"/>
@@ -14564,7 +14511,6 @@
     <row r="994" ht="12.0" customHeight="1"/>
     <row r="995" ht="12.0" customHeight="1"/>
     <row r="996" ht="12.0" customHeight="1"/>
-    <row r="997" ht="12.0" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
@@ -14572,10 +14518,10 @@
     <mergeCell ref="D2:E2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="E9"/>
-    <hyperlink r:id="rId3" ref="E10"/>
-    <hyperlink r:id="rId4" ref="E11"/>
-    <hyperlink r:id="rId5" ref="E12"/>
+    <hyperlink r:id="rId2" ref="E8"/>
+    <hyperlink r:id="rId3" ref="E9"/>
+    <hyperlink r:id="rId4" ref="E10"/>
+    <hyperlink r:id="rId5" ref="E11"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -14608,7 +14554,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
@@ -14625,14 +14571,14 @@
     </row>
     <row r="2" ht="48.0" customHeight="1">
       <c r="A2" s="29" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="30" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="29">
@@ -14678,143 +14624,143 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="69" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="70" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="71">
+      <c r="A5" s="67" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="69">
         <v>1.0</v>
       </c>
-      <c r="G5" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="74" t="s">
-        <v>169</v>
+      <c r="G5" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" s="71"/>
+      <c r="I5" s="72" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="37" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="F6" s="75">
+        <v>167</v>
+      </c>
+      <c r="F6" s="73">
         <v>1.0</v>
       </c>
-      <c r="G6" s="76"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="15"/>
       <c r="I6" s="23" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="37" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E7" s="15"/>
-      <c r="F7" s="75">
+      <c r="F7" s="73">
         <v>1.0</v>
       </c>
-      <c r="G7" s="76"/>
+      <c r="G7" s="74"/>
       <c r="H7" s="15"/>
       <c r="I7" s="23" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="37" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E8" s="18"/>
-      <c r="F8" s="75">
+      <c r="F8" s="73">
         <v>1.0</v>
       </c>
-      <c r="G8" s="76"/>
+      <c r="G8" s="74"/>
       <c r="H8" s="15"/>
       <c r="I8" s="23" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="37" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E9" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="75">
+      <c r="F9" s="73">
         <v>1.0</v>
       </c>
-      <c r="G9" s="76"/>
+      <c r="G9" s="74"/>
       <c r="H9" s="15"/>
       <c r="I9" s="23" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="37" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E10" s="37"/>
-      <c r="F10" s="76">
+      <c r="F10" s="74">
         <v>1.0</v>
       </c>
-      <c r="G10" s="77"/>
+      <c r="G10" s="75"/>
       <c r="H10" s="21"/>
       <c r="I10" s="23" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -15915,7 +15861,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
@@ -15931,15 +15877,15 @@
       </c>
     </row>
     <row r="2" ht="48.0" customHeight="1">
-      <c r="A2" s="78" t="s">
-        <v>196</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>197</v>
+      <c r="A2" s="76" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>190</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="79" t="s">
-        <v>165</v>
+      <c r="D2" s="77" t="s">
+        <v>158</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="29">
@@ -15956,8 +15902,8 @@
       <c r="G3" s="32"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="80" t="s">
-        <v>198</v>
+      <c r="A4" s="78" t="s">
+        <v>191</v>
       </c>
       <c r="B4" s="33" t="s">
         <v>9</v>
@@ -15989,166 +15935,166 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="37" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="75">
+      <c r="G5" s="73">
         <v>1.0</v>
       </c>
-      <c r="H5" s="77"/>
+      <c r="H5" s="75"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="81" t="s">
-        <v>204</v>
+      <c r="J5" s="79" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="37" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D6" s="37" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="G6" s="75">
+        <v>202</v>
+      </c>
+      <c r="G6" s="73">
         <v>1.0</v>
       </c>
-      <c r="H6" s="76"/>
+      <c r="H6" s="74"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="69" t="s">
-        <v>211</v>
-      </c>
-      <c r="B7" s="69" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69" t="s">
-        <v>213</v>
-      </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="71">
+      <c r="A7" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="69">
         <v>1.0</v>
       </c>
-      <c r="H7" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73" t="s">
-        <v>204</v>
+      <c r="H7" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="37" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B8" s="37" t="s">
+        <v>174</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="C8" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>188</v>
-      </c>
       <c r="E8" s="37" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="G8" s="75">
+        <v>209</v>
+      </c>
+      <c r="G8" s="73">
         <v>1.0</v>
       </c>
-      <c r="H8" s="76"/>
+      <c r="H8" s="74"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="37" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="G9" s="76">
+        <v>209</v>
+      </c>
+      <c r="G9" s="74">
         <v>1.0</v>
       </c>
-      <c r="H9" s="82" t="s">
-        <v>222</v>
+      <c r="H9" s="80" t="s">
+        <v>215</v>
       </c>
       <c r="I9" s="21"/>
       <c r="J9" s="15" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="37" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F10" s="37"/>
-      <c r="G10" s="75">
+      <c r="G10" s="73">
         <v>1.0</v>
       </c>
       <c r="H10" s="37"/>
       <c r="I10" s="19"/>
       <c r="J10" s="15" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -17253,7 +17199,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
@@ -17270,14 +17216,14 @@
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" s="29" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="30" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="29">
@@ -17286,31 +17232,31 @@
     </row>
     <row r="3" ht="12.0" customHeight="1"/>
     <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="84" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" s="83" t="s">
+      <c r="B4" s="82" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="85" t="s">
+      <c r="E4" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="83" t="s">
+      <c r="G4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="83" t="s">
+      <c r="H4" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="86" t="s">
+      <c r="I4" s="84" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="34" t="s">
@@ -17319,46 +17265,46 @@
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B5" s="87"/>
+        <v>226</v>
+      </c>
+      <c r="B5" s="85"/>
       <c r="C5" s="15" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="E5" s="88" t="s">
-        <v>236</v>
-      </c>
-      <c r="F5" s="89" t="s">
-        <v>237</v>
+        <v>228</v>
+      </c>
+      <c r="E5" s="86" t="s">
+        <v>229</v>
+      </c>
+      <c r="F5" s="87" t="s">
+        <v>230</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="23" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="B6" s="87"/>
+        <v>233</v>
+      </c>
+      <c r="B6" s="85"/>
       <c r="C6" s="15" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E6" s="88" t="s">
-        <v>243</v>
+        <v>235</v>
+      </c>
+      <c r="E6" s="86" t="s">
+        <v>236</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="G6" s="15">
         <v>1.0</v>
@@ -17366,22 +17312,22 @@
       <c r="H6" s="19"/>
       <c r="I6" s="15"/>
       <c r="J6" s="23" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="B7" s="90"/>
+        <v>239</v>
+      </c>
+      <c r="B7" s="88"/>
       <c r="C7" s="15" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="E7" s="88" t="s">
-        <v>249</v>
+        <v>241</v>
+      </c>
+      <c r="E7" s="86" t="s">
+        <v>242</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15">
@@ -17390,381 +17336,381 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="23" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="B8" s="87"/>
+        <v>244</v>
+      </c>
+      <c r="B8" s="85"/>
       <c r="C8" s="15" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="E8" s="88" t="s">
-        <v>254</v>
+        <v>246</v>
+      </c>
+      <c r="E8" s="86" t="s">
+        <v>247</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="23" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B9" s="90" t="s">
-        <v>258</v>
+        <v>250</v>
+      </c>
+      <c r="B9" s="88" t="s">
+        <v>251</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="E9" s="88" t="s">
-        <v>261</v>
-      </c>
-      <c r="F9" s="89" t="s">
-        <v>262</v>
+        <v>253</v>
+      </c>
+      <c r="E9" s="86" t="s">
+        <v>254</v>
+      </c>
+      <c r="F9" s="87" t="s">
+        <v>255</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="23" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="B10" s="90"/>
+        <v>257</v>
+      </c>
+      <c r="B10" s="88"/>
       <c r="C10" s="15" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E10" s="88" t="s">
-        <v>267</v>
-      </c>
-      <c r="F10" s="91"/>
+        <v>259</v>
+      </c>
+      <c r="E10" s="86" t="s">
+        <v>260</v>
+      </c>
+      <c r="F10" s="89"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="59" t="s">
-        <v>268</v>
+      <c r="H10" s="57" t="s">
+        <v>261</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="23" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" ht="57.0" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="B11" s="90"/>
+        <v>263</v>
+      </c>
+      <c r="B11" s="88"/>
       <c r="C11" s="15" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="E11" s="88" t="s">
-        <v>273</v>
+        <v>265</v>
+      </c>
+      <c r="E11" s="86" t="s">
+        <v>266</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G11" s="15"/>
-      <c r="H11" s="92"/>
+      <c r="H11" s="90"/>
       <c r="I11" s="19"/>
       <c r="J11" s="23" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" ht="12.0" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="B12" s="87" t="s">
-        <v>277</v>
+        <v>269</v>
+      </c>
+      <c r="B12" s="85" t="s">
+        <v>270</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="E12" s="88" t="s">
-        <v>280</v>
+        <v>272</v>
+      </c>
+      <c r="E12" s="86" t="s">
+        <v>273</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G12" s="15"/>
-      <c r="H12" s="59"/>
+      <c r="H12" s="57"/>
       <c r="I12" s="15"/>
       <c r="J12" s="23" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" ht="12.0" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="B13" s="93"/>
+        <v>275</v>
+      </c>
+      <c r="B13" s="91"/>
       <c r="C13" s="15" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="E13" s="88" t="s">
-        <v>285</v>
+        <v>277</v>
+      </c>
+      <c r="E13" s="86" t="s">
+        <v>278</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="59" t="s">
-        <v>286</v>
+      <c r="H13" s="57" t="s">
+        <v>279</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="23" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="B14" s="90" t="s">
-        <v>289</v>
+        <v>281</v>
+      </c>
+      <c r="B14" s="88" t="s">
+        <v>282</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="E14" s="88" t="s">
-        <v>292</v>
+        <v>284</v>
+      </c>
+      <c r="E14" s="86" t="s">
+        <v>285</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G14" s="15"/>
-      <c r="H14" s="59"/>
+      <c r="H14" s="57"/>
       <c r="I14" s="15"/>
       <c r="J14" s="23" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="B15" s="90" t="s">
-        <v>295</v>
+        <v>287</v>
+      </c>
+      <c r="B15" s="88" t="s">
+        <v>288</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="E15" s="88" t="s">
-        <v>298</v>
+        <v>290</v>
+      </c>
+      <c r="E15" s="86" t="s">
+        <v>291</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="23" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
     </row>
     <row r="16" ht="12.0" customHeight="1">
-      <c r="A16" s="73" t="s">
-        <v>301</v>
-      </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73" t="s">
-        <v>302</v>
-      </c>
-      <c r="E16" s="94"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73">
+      <c r="A16" s="71" t="s">
+        <v>294</v>
+      </c>
+      <c r="B16" s="88"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71" t="s">
+        <v>295</v>
+      </c>
+      <c r="E16" s="92"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71">
         <v>1.0</v>
       </c>
-      <c r="H16" s="95" t="s">
-        <v>303</v>
+      <c r="H16" s="93" t="s">
+        <v>296</v>
       </c>
       <c r="I16" s="21"/>
-      <c r="J16" s="74" t="s">
-        <v>304</v>
+      <c r="J16" s="72" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="B17" s="90" t="s">
-        <v>306</v>
-      </c>
-      <c r="C17" s="81" t="s">
-        <v>307</v>
-      </c>
-      <c r="D17" s="81" t="s">
-        <v>308</v>
-      </c>
-      <c r="E17" s="96" t="s">
-        <v>309</v>
-      </c>
-      <c r="F17" s="97" t="s">
-        <v>310</v>
-      </c>
-      <c r="G17" s="81"/>
-      <c r="H17" s="98"/>
+        <v>298</v>
+      </c>
+      <c r="B17" s="88" t="s">
+        <v>299</v>
+      </c>
+      <c r="C17" s="79" t="s">
+        <v>300</v>
+      </c>
+      <c r="D17" s="79" t="s">
+        <v>301</v>
+      </c>
+      <c r="E17" s="94" t="s">
+        <v>302</v>
+      </c>
+      <c r="F17" s="95" t="s">
+        <v>303</v>
+      </c>
+      <c r="G17" s="79"/>
+      <c r="H17" s="96"/>
       <c r="I17" s="15"/>
       <c r="J17" s="23" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="B18" s="90" t="s">
-        <v>313</v>
-      </c>
-      <c r="C18" s="81" t="s">
-        <v>314</v>
-      </c>
-      <c r="D18" s="81" t="s">
-        <v>315</v>
-      </c>
-      <c r="E18" s="96" t="s">
-        <v>316</v>
-      </c>
-      <c r="F18" s="97" t="s">
-        <v>310</v>
-      </c>
-      <c r="G18" s="81"/>
-      <c r="H18" s="98"/>
+        <v>305</v>
+      </c>
+      <c r="B18" s="88" t="s">
+        <v>306</v>
+      </c>
+      <c r="C18" s="79" t="s">
+        <v>307</v>
+      </c>
+      <c r="D18" s="79" t="s">
+        <v>308</v>
+      </c>
+      <c r="E18" s="94" t="s">
+        <v>309</v>
+      </c>
+      <c r="F18" s="95" t="s">
+        <v>303</v>
+      </c>
+      <c r="G18" s="79"/>
+      <c r="H18" s="96"/>
       <c r="I18" s="15"/>
       <c r="J18" s="23" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
     </row>
     <row r="19" ht="12.0" customHeight="1">
       <c r="A19" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="B19" s="90" t="s">
-        <v>319</v>
+        <v>311</v>
+      </c>
+      <c r="B19" s="88" t="s">
+        <v>312</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="E19" s="88" t="s">
-        <v>322</v>
-      </c>
-      <c r="F19" s="99" t="s">
-        <v>310</v>
+        <v>314</v>
+      </c>
+      <c r="E19" s="86" t="s">
+        <v>315</v>
+      </c>
+      <c r="F19" s="97" t="s">
+        <v>303</v>
       </c>
       <c r="G19" s="15"/>
-      <c r="H19" s="92"/>
+      <c r="H19" s="90"/>
       <c r="I19" s="15"/>
       <c r="J19" s="23" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" ht="12.0" customHeight="1">
       <c r="A20" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="B20" s="90" t="s">
-        <v>325</v>
+        <v>317</v>
+      </c>
+      <c r="B20" s="88" t="s">
+        <v>318</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="E20" s="88" t="s">
-        <v>328</v>
-      </c>
-      <c r="F20" s="99" t="s">
-        <v>329</v>
+        <v>320</v>
+      </c>
+      <c r="E20" s="86" t="s">
+        <v>321</v>
+      </c>
+      <c r="F20" s="97" t="s">
+        <v>322</v>
       </c>
       <c r="G20" s="15"/>
-      <c r="H20" s="92"/>
+      <c r="H20" s="90"/>
       <c r="I20" s="15"/>
       <c r="J20" s="23" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" ht="12.0" customHeight="1">
       <c r="A21" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="B21" s="90" t="s">
-        <v>332</v>
+        <v>324</v>
+      </c>
+      <c r="B21" s="88" t="s">
+        <v>325</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="E21" s="88" t="s">
-        <v>335</v>
-      </c>
-      <c r="F21" s="99" t="s">
-        <v>310</v>
+        <v>327</v>
+      </c>
+      <c r="E21" s="86" t="s">
+        <v>328</v>
+      </c>
+      <c r="F21" s="97" t="s">
+        <v>303</v>
       </c>
       <c r="G21" s="15"/>
-      <c r="H21" s="92"/>
+      <c r="H21" s="90"/>
       <c r="I21" s="21"/>
       <c r="J21" s="23" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="22" ht="12.0" customHeight="1">
-      <c r="A22" s="73" t="s">
-        <v>337</v>
-      </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73" t="s">
-        <v>338</v>
-      </c>
-      <c r="E22" s="94"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="102">
+      <c r="A22" s="71" t="s">
+        <v>330</v>
+      </c>
+      <c r="B22" s="98"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71" t="s">
+        <v>331</v>
+      </c>
+      <c r="E22" s="92"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="100">
         <v>1.0</v>
       </c>
-      <c r="H22" s="95" t="s">
-        <v>339</v>
+      <c r="H22" s="93" t="s">
+        <v>332</v>
       </c>
       <c r="I22" s="15"/>
-      <c r="J22" s="74" t="s">
-        <v>340</v>
+      <c r="J22" s="72" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="23" ht="12.0" customHeight="1">
@@ -18835,7 +18781,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
@@ -18851,15 +18797,15 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="78" t="s">
-        <v>341</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>342</v>
+      <c r="A2" s="76" t="s">
+        <v>334</v>
+      </c>
+      <c r="B2" s="77" t="s">
+        <v>335</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="79" t="s">
-        <v>343</v>
+      <c r="D2" s="77" t="s">
+        <v>336</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="29">
@@ -18868,29 +18814,29 @@
     </row>
     <row r="3" ht="14.25" customHeight="1"/>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="83" t="s">
-        <v>344</v>
+      <c r="G4" s="81" t="s">
+        <v>337</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="I4" s="34" t="s">
         <v>16</v>
@@ -18901,138 +18847,138 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="59"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="57"/>
       <c r="I5" s="15"/>
       <c r="J5" s="23" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="88" t="s">
-        <v>355</v>
+      <c r="G6" s="86" t="s">
+        <v>348</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="23" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="88" t="s">
-        <v>355</v>
+      <c r="G7" s="86" t="s">
+        <v>348</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="23" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15">
         <v>1.0</v>
       </c>
-      <c r="G8" s="88"/>
+      <c r="G8" s="86"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="23" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="E9" s="103" t="s">
-        <v>371</v>
+        <v>363</v>
+      </c>
+      <c r="E9" s="101" t="s">
+        <v>364</v>
       </c>
       <c r="F9" s="15">
         <v>1.0</v>
       </c>
-      <c r="G9" s="88" t="s">
-        <v>372</v>
+      <c r="G9" s="86" t="s">
+        <v>365</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="21"/>
       <c r="J9" s="23" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15">
@@ -19042,24 +18988,24 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="23" t="s">
-        <v>378</v>
-      </c>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="67"/>
-      <c r="X10" s="67"/>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="67"/>
+        <v>371</v>
+      </c>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
     </row>
     <row r="11" ht="14.25" customHeight="1"/>
     <row r="12" ht="14.25" customHeight="1"/>
@@ -20090,7 +20036,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
@@ -20107,14 +20053,14 @@
     </row>
     <row r="2" ht="82.5" customHeight="1">
       <c r="A2" s="29" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="30" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="29">
@@ -20122,25 +20068,25 @@
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="J3" s="104"/>
+      <c r="J3" s="102"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="81" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="34" t="s">
@@ -20149,93 +20095,93 @@
       <c r="H4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="83" t="s">
-        <v>344</v>
+      <c r="I4" s="81" t="s">
+        <v>337</v>
       </c>
       <c r="J4" s="49" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>384</v>
-      </c>
-      <c r="D5" s="59" t="s">
-        <v>385</v>
-      </c>
-      <c r="E5" s="92"/>
+        <v>376</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>377</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>378</v>
+      </c>
+      <c r="E5" s="90"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="23" t="s">
-        <v>386</v>
-      </c>
-      <c r="I5" s="105"/>
-      <c r="J5" s="59"/>
+        <v>379</v>
+      </c>
+      <c r="I5" s="103"/>
+      <c r="J5" s="57"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="F6" s="15">
         <v>1.0</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="I6" s="88"/>
+        <v>385</v>
+      </c>
+      <c r="I6" s="86"/>
       <c r="J6" s="15"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="106" t="s">
-        <v>393</v>
-      </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106" t="s">
-        <v>394</v>
-      </c>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="74" t="s">
-        <v>395</v>
-      </c>
-      <c r="I7" s="107" t="s">
-        <v>396</v>
-      </c>
-      <c r="J7" s="108"/>
+      <c r="A7" s="104" t="s">
+        <v>386</v>
+      </c>
+      <c r="B7" s="104"/>
+      <c r="C7" s="104" t="s">
+        <v>387</v>
+      </c>
+      <c r="D7" s="104"/>
+      <c r="E7" s="104"/>
+      <c r="F7" s="104"/>
+      <c r="G7" s="104"/>
+      <c r="H7" s="72" t="s">
+        <v>388</v>
+      </c>
+      <c r="I7" s="105" t="s">
+        <v>389</v>
+      </c>
+      <c r="J7" s="106"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15">
@@ -20243,45 +20189,45 @@
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="I8" s="88"/>
-      <c r="J8" s="109"/>
+        <v>394</v>
+      </c>
+      <c r="I8" s="86"/>
+      <c r="J8" s="107"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="23" t="s">
-        <v>406</v>
-      </c>
-      <c r="I9" s="88"/>
-      <c r="J9" s="109"/>
+        <v>399</v>
+      </c>
+      <c r="I9" s="86"/>
+      <c r="J9" s="107"/>
     </row>
     <row r="10" ht="115.5" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15">
@@ -20289,47 +20235,47 @@
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="23" t="s">
-        <v>411</v>
-      </c>
-      <c r="I10" s="88" t="s">
-        <v>412</v>
-      </c>
-      <c r="J10" s="109"/>
+        <v>404</v>
+      </c>
+      <c r="I10" s="86" t="s">
+        <v>405</v>
+      </c>
+      <c r="J10" s="107"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="23" t="s">
-        <v>417</v>
-      </c>
-      <c r="I11" s="88"/>
-      <c r="J11" s="109"/>
+        <v>410</v>
+      </c>
+      <c r="I11" s="86"/>
+      <c r="J11" s="107"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15">
@@ -20337,47 +20283,47 @@
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="23" t="s">
-        <v>422</v>
-      </c>
-      <c r="I12" s="88" t="s">
-        <v>423</v>
-      </c>
-      <c r="J12" s="109"/>
+        <v>415</v>
+      </c>
+      <c r="I12" s="86" t="s">
+        <v>416</v>
+      </c>
+      <c r="J12" s="107"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="I13" s="88"/>
-      <c r="J13" s="109"/>
+        <v>421</v>
+      </c>
+      <c r="I13" s="86"/>
+      <c r="J13" s="107"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15">
@@ -20385,32 +20331,32 @@
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="I14" s="88"/>
-      <c r="J14" s="109"/>
+        <v>426</v>
+      </c>
+      <c r="I14" s="86"/>
+      <c r="J14" s="107"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="23" t="s">
-        <v>438</v>
-      </c>
-      <c r="I15" s="88"/>
-      <c r="J15" s="109"/>
+        <v>431</v>
+      </c>
+      <c r="I15" s="86"/>
+      <c r="J15" s="107"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="C16" s="26"/>
@@ -21448,10 +21394,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="108" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
@@ -21465,14 +21411,14 @@
     </row>
     <row r="2" ht="75.0" customHeight="1">
       <c r="A2" s="29" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="8" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="29">
@@ -21481,25 +21427,25 @@
     </row>
     <row r="3" ht="13.5" customHeight="1"/>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="111" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" s="83" t="s">
+      <c r="B4" s="109" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="83" t="s">
+      <c r="G4" s="81" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="34" t="s">
@@ -21508,78 +21454,78 @@
       <c r="I4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="83" t="s">
+      <c r="J4" s="81" t="s">
         <v>17</v>
       </c>
       <c r="K4" s="49" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="B5" s="112"/>
+        <v>435</v>
+      </c>
+      <c r="B5" s="110"/>
       <c r="C5" s="15" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="23" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="K5" s="15"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="B6" s="112"/>
+        <v>441</v>
+      </c>
+      <c r="B6" s="110"/>
       <c r="C6" s="15" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="23" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="K6" s="15"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>454</v>
-      </c>
-      <c r="B7" s="112" t="s">
-        <v>455</v>
+        <v>447</v>
+      </c>
+      <c r="B7" s="110" t="s">
+        <v>448</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15">
@@ -21587,29 +21533,29 @@
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="23" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="K7" s="15"/>
-      <c r="L7" s="113" t="s">
-        <v>461</v>
+      <c r="L7" s="111" t="s">
+        <v>454</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="B8" s="112"/>
+        <v>455</v>
+      </c>
+      <c r="B8" s="110"/>
       <c r="C8" s="15" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15">
@@ -21617,26 +21563,26 @@
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="23" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="K8" s="15"/>
     </row>
     <row r="9" ht="199.5" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="B9" s="112"/>
+        <v>461</v>
+      </c>
+      <c r="B9" s="110"/>
       <c r="C9" s="15" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15">
@@ -21644,78 +21590,78 @@
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="23" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="B10" s="112" t="s">
-        <v>474</v>
+        <v>466</v>
+      </c>
+      <c r="B10" s="110" t="s">
+        <v>467</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="F10" s="92"/>
+        <v>470</v>
+      </c>
+      <c r="F10" s="90"/>
       <c r="G10" s="15">
         <v>1.0</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="23" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>479</v>
-      </c>
-      <c r="B11" s="112"/>
+        <v>472</v>
+      </c>
+      <c r="B11" s="110"/>
       <c r="C11" s="15" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="23" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="K11" s="15"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>485</v>
-      </c>
-      <c r="B12" s="112" t="s">
-        <v>486</v>
+        <v>478</v>
+      </c>
+      <c r="B12" s="110" t="s">
+        <v>479</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15">
@@ -21723,149 +21669,149 @@
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="23" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="B13" s="112"/>
+        <v>484</v>
+      </c>
+      <c r="B13" s="110"/>
       <c r="C13" s="15" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="23" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>496</v>
-      </c>
-      <c r="B14" s="112"/>
+        <v>489</v>
+      </c>
+      <c r="B14" s="110"/>
       <c r="C14" s="15" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="B15" s="112"/>
+        <v>494</v>
+      </c>
+      <c r="B15" s="110"/>
       <c r="C15" s="15" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="F15" s="89" t="s">
-        <v>505</v>
+        <v>497</v>
+      </c>
+      <c r="F15" s="87" t="s">
+        <v>498</v>
       </c>
       <c r="G15" s="15">
         <v>1.0</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="23" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="K15" s="15"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="B16" s="112"/>
+        <v>501</v>
+      </c>
+      <c r="B16" s="110"/>
       <c r="C16" s="15" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="23" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="K16" s="15"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="B17" s="112"/>
+        <v>506</v>
+      </c>
+      <c r="B17" s="110"/>
       <c r="C17" s="15" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="23" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="K17" s="15"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="B18" s="112"/>
+        <v>512</v>
+      </c>
+      <c r="B18" s="110"/>
       <c r="C18" s="15" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15">
@@ -21873,7 +21819,7 @@
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="23" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>

--- a/Estimates 22 BDG [Final].xlsx
+++ b/Estimates 22 BDG [Final].xlsx
@@ -7,18 +7,17 @@
     <sheet state="visible" name="01-GenEstsDataHMIS" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="02-UploadDataADR" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="03-ValidateDataNaomi" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Old 03 (ValidateDataShinyRob)" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="04-InputDatatoSpectrum" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="05-GenIncidenceEstswithEPP" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="06-GenKOSShiny90" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="07-FinalizeNatlEstsSpectrum" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="08-GenSubNatlEstsNaomi" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="04-InputDatatoSpectrum" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="05-GenIncidenceEstswithEPP" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="06-GenKOSShiny90" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="07-FinalizeNatlEstsSpectrum" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="08-GenSubNatlEstsNaomi" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataSignature="AMtx7mhXm71E5VMdC1qXIcBprYdxJCNlxg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataSignature="AMtx7mgEhANcLrUpyZbCn7chYtIRKNp4gA=="/>
     </ext>
   </extLst>
 </workbook>
@@ -144,32 +143,6 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="F5">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAASYjj5do
-tc={0E7CF5E8-FF7D-474B-B45E-AA44DCCE8190}    (2021-11-25 18:28:02)
-[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    @Fjelltopp - please link directly to user's organization and package for this year.</t>
-      </text>
-    </comment>
-  </commentList>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgYos0niKmTsh4KflH2MPzKEKqG+w=="/>
-    </ext>
-  </extLst>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
     <comment authorId="0" ref="A15">
       <text>
         <t xml:space="preserve">======
@@ -189,7 +162,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -214,7 +187,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -240,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="596">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="563">
   <si>
     <t>Milestone Title (Visible to User):</t>
   </si>
@@ -980,13 +953,13 @@
     <t>ROB-01-CK</t>
   </si>
   <si>
-    <t>ADR-03-01, ADR-04-01 complete?</t>
+    <t>ADR-01-10, ADR-01-11, ADR-03-01, ADR-04-01 complete?</t>
   </si>
   <si>
     <t>not a user-facing task check; required to import data from ADR</t>
   </si>
   <si>
-    <t>check_not_skipped(['EST-ADR-03-01-A', 'EST-ADR-04-01-A'])</t>
+    <t>check_not_skipped(['EST-ADR-01-10-A', 'EST-ADR-01-11-A', 'EST-ADR-03-01-A', 'EST-ADR-04-01-A'])</t>
   </si>
   <si>
     <t>ROB-02-01</t>
@@ -1066,154 +1039,6 @@
   </si>
   <si>
     <t>check_manual_confirmation('EST-ROB-06-01-A')</t>
-  </si>
-  <si>
-    <t>Review quality of programme data inputs using ShinyRob</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t xml:space="preserve">The quality of data inputs is one of the most influential determinants of your HIV estimates.  ShinyRob was developed to assist countries to identify and resolve data quality issues within programme data inputs </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="8.0"/>
-        <u/>
-      </rPr>
-      <t>before</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t xml:space="preserve"> they are used by estimates models. UNAIDS strongly recommends country teams review and validate their programme data inputs using ShinyRob prior to beginning work in the models.</t>
-    </r>
-  </si>
-  <si>
-    <t>Ref.Old</t>
-  </si>
-  <si>
-    <t>ROB-01</t>
-  </si>
-  <si>
-    <t>ROB-01-10</t>
-  </si>
-  <si>
-    <t>Confirm all Inputs Package data files have a green valid badge in ADR</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t>Are input files (ANC, ART, area boundary files) in ADR and marked with a green valid badge (i.e., is</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t xml:space="preserve"> ADR-06-01</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t xml:space="preserve"> true)?</t>
-    </r>
-  </si>
-  <si>
-    <t>In order to use ShinyRob, you must upload three data files to your estimates Inputs Package for this year. To upload your files, access your organization on ADR and find this year's Inputs Package. Upload each of the required files for this year's estimates process in the required format. *UNAIDS strongly recommends you use your final data files from last year and simply update them with this data from the current reporting period.* Be sure to confirm the green "Valid" badge next to each file. If any files are missing the green "valid" badge, review the data issues identified by ADR and correct them. If any changes are made to the data in the data files, ensure changes are cascaded to the source systems (e.g., DHIS2) as needed. Once data are uploaded and valid in ADR, you may proceed to ShinyRob to conduct thorough data quality reviews.</t>
-  </si>
-  <si>
-    <t>check_not_skipped(['EST-ADR-04-A', 'EST-ADR-04A-A', 'EST-ADR-04B-A', 'EST-ADR-04C-A', 'EST-ADR-04D-A', 'EST-ADR-04E-A', 'EST-ADR-06-A'])</t>
-  </si>
-  <si>
-    <t>ROB-02</t>
-  </si>
-  <si>
-    <t>Submit your ADR key to ShinyRob</t>
-  </si>
-  <si>
-    <t>Has user submitted ADR key to ShinyRob?</t>
-  </si>
-  <si>
-    <t>ShinyRob was developed by UNAIDS to assist country teams to review the quality of their programme data prior to using the data in the estimates models. ShinyRob accesses country programme data directly from your estimates Inputs Package on ADR. To allow ShinyRob to access your Inputs Package, enter your ADR key. Your ADR key can be found in the left side of your profile page on ADR. Once you're logged into ADR, simply click your name at the top of any page and look for your ADR key in the bottom left of the page. Copy the key and paste it into ShinyRob to select this year's Inputs Package for review.</t>
-  </si>
-  <si>
-    <t>ShinyRob https://shinyrob.unaids.org/
-AIDS Data Repository https://adr.unaids.org/me</t>
-  </si>
-  <si>
-    <t>check_manual_confirmation('EST-ROB-02-A')</t>
-  </si>
-  <si>
-    <t>ROB-CK-02</t>
-  </si>
-  <si>
-    <t>ROB-03-01-CK</t>
-  </si>
-  <si>
-    <t>ADR-03-01,ADR-04-01 complete?</t>
-  </si>
-  <si>
-    <t>ROB-03</t>
-  </si>
-  <si>
-    <t>In order to utilize the powerful data quality analyses provided by ShinyRob, you must select the relevant Inputs Package for this year, including geographic data package (named area boundary file in ADR), ART data package, and ANC data package.</t>
-  </si>
-  <si>
-    <t>ShinyRob https://shinyrob.unaids.org/
-AIDS Data Repository https://adr.unaids.org/</t>
-  </si>
-  <si>
-    <t>check_manual_confirmation('EST-ROB-03-A')</t>
-  </si>
-  <si>
-    <t>ROB-04</t>
-  </si>
-  <si>
-    <t>Ensure ShinyRob has validated your geographic (area boundary), ART, and ANC data files</t>
-  </si>
-  <si>
-    <t>Has ShinyRob validated the three packages (geographic, ART, ANC)?</t>
-  </si>
-  <si>
-    <t>Once selected, ShinyRob will conduct a cursory formatting review on the files and note each one as "valid". If they fail the validity test, you must return to ADR and the source files in the Inputs Package to correct the errors before ShinyRob can visualize the data.</t>
-  </si>
-  <si>
-    <t>@Fjelltopp - can we link directly to their organization Inputs Package?</t>
-  </si>
-  <si>
-    <t>check_manual_confirmation('EST-ROB-04-A')</t>
-  </si>
-  <si>
-    <t>ROB-05</t>
-  </si>
-  <si>
-    <t>Verify and/or correct any data anomoloies</t>
-  </si>
-  <si>
-    <t>Has user reviewed all programme data and corrected or verified any anomolies for use in HIV estimates?</t>
-  </si>
-  <si>
-    <t>Once your Inputs Packages are validated, you may review all data at the district level by clicking the "Visualize Data" link in the upper left of the screen. You may scroll through the different analyses in the tabs. ShinyRob will highlight any anomolies in your data with red lines (e.g., rapid quarter-to-quarter changes in values or ratios) to help you identify data quality issues. It's important to document any anomolies with your team to investigate further. Engage your district counterparts to investigate and resolve anomolies. Remember, data quality issues can have a major impact on your estimates. **Your estimates outputs are only as good as the quality of your Inputs Package. UNAIDS strongly recommends correcting any erroneous data in the source system and inputs templates prior to proceeding with your estimates process.** Once your data files have been corrected, you may upload them to ADR in lieu of the previous versions with errors. Once you are fully satisfied with the quality of all data files, you may proceed with the estimates process, starting with Milestone 4 - Enter Data into Spectrum.</t>
-  </si>
-  <si>
-    <t>check_manual_confirmation('EST-ROB-05-A')</t>
   </si>
   <si>
     <t>Enter Data Into Spectrum</t>
@@ -2997,7 +2822,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="112">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3180,19 +3005,6 @@
     <xf borderId="5" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf quotePrefix="1" borderId="5" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="6" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -3222,6 +3034,9 @@
     <xf borderId="1" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="10" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -3240,6 +3055,12 @@
     </xf>
     <xf borderId="11" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -3279,10 +3100,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -10160,1468 +9977,6 @@
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="13.57"/>
-    <col customWidth="1" min="2" max="2" width="11.43"/>
-    <col customWidth="1" min="3" max="3" width="12.29"/>
-    <col customWidth="1" min="4" max="4" width="19.43"/>
-    <col customWidth="1" min="5" max="5" width="13.29"/>
-    <col customWidth="1" min="6" max="6" width="52.86"/>
-    <col customWidth="1" min="7" max="7" width="11.29"/>
-    <col customWidth="1" min="8" max="8" width="20.57"/>
-    <col customWidth="1" min="9" max="9" width="11.29"/>
-    <col customWidth="1" min="10" max="10" width="45.14"/>
-    <col customWidth="1" hidden="1" min="11" max="11" width="8.71"/>
-    <col customWidth="1" min="12" max="12" width="8.71"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="29" t="s">
-        <v>517</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>518</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="30" t="s">
-        <v>519</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="30">
-        <v>0.2</v>
-      </c>
-      <c r="G2" s="112"/>
-      <c r="H2" s="113"/>
-      <c r="I2" s="113"/>
-    </row>
-    <row r="3" ht="12.0" customHeight="1"/>
-    <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="81" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="109" t="s">
-        <v>520</v>
-      </c>
-      <c r="C4" s="81" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="81" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="81" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="81" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="81" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="49" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="5" ht="12.0" customHeight="1">
-      <c r="A5" s="15" t="s">
-        <v>521</v>
-      </c>
-      <c r="B5" s="110"/>
-      <c r="C5" s="15" t="s">
-        <v>522</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>523</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>524</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="23" t="s">
-        <v>525</v>
-      </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" ht="12.0" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>526</v>
-      </c>
-      <c r="B6" s="110" t="s">
-        <v>527</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>528</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>529</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>530</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="23" t="s">
-        <v>531</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>532</v>
-      </c>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" ht="12.0" customHeight="1">
-      <c r="A7" s="15" t="s">
-        <v>533</v>
-      </c>
-      <c r="B7" s="110"/>
-      <c r="C7" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>534</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>167</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="23" t="s">
-        <v>535</v>
-      </c>
-      <c r="J7" s="90"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" ht="12.0" customHeight="1">
-      <c r="A8" s="15" t="s">
-        <v>536</v>
-      </c>
-      <c r="B8" s="110"/>
-      <c r="C8" s="15" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="23" t="s">
-        <v>537</v>
-      </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-    </row>
-    <row r="9" ht="12.0" customHeight="1">
-      <c r="A9" s="15" t="s">
-        <v>538</v>
-      </c>
-      <c r="B9" s="110" t="s">
-        <v>539</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>540</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="23" t="s">
-        <v>541</v>
-      </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" s="15" t="s">
-        <v>542</v>
-      </c>
-      <c r="B10" s="110" t="s">
-        <v>543</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>544</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>545</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>546</v>
-      </c>
-      <c r="F10" s="97" t="s">
-        <v>267</v>
-      </c>
-      <c r="G10" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="23" t="s">
-        <v>547</v>
-      </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="15" t="s">
-        <v>548</v>
-      </c>
-      <c r="B11" s="110"/>
-      <c r="C11" s="15" t="s">
-        <v>549</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>550</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="F11" s="97" t="s">
-        <v>552</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="23" t="s">
-        <v>553</v>
-      </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" ht="49.5" customHeight="1">
-      <c r="A12" s="15" t="s">
-        <v>554</v>
-      </c>
-      <c r="B12" s="110" t="s">
-        <v>555</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>556</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>557</v>
-      </c>
-      <c r="E12" s="87" t="s">
-        <v>558</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>559</v>
-      </c>
-      <c r="G12" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="23" t="s">
-        <v>560</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>561</v>
-      </c>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" ht="12.0" customHeight="1">
-      <c r="A13" s="15" t="s">
-        <v>562</v>
-      </c>
-      <c r="B13" s="110" t="s">
-        <v>563</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>564</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>565</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>566</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="23" t="s">
-        <v>567</v>
-      </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" ht="12.0" customHeight="1">
-      <c r="A14" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="B14" s="110" t="s">
-        <v>569</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>570</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>572</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="G14" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="23" t="s">
-        <v>574</v>
-      </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-    </row>
-    <row r="15" ht="12.0" customHeight="1">
-      <c r="A15" s="15" t="s">
-        <v>575</v>
-      </c>
-      <c r="B15" s="110"/>
-      <c r="C15" s="15" t="s">
-        <v>576</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>577</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>578</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="23" t="s">
-        <v>579</v>
-      </c>
-      <c r="J15" s="90"/>
-      <c r="K15" s="15"/>
-    </row>
-    <row r="16" ht="12.0" customHeight="1">
-      <c r="A16" s="15" t="s">
-        <v>580</v>
-      </c>
-      <c r="B16" s="110"/>
-      <c r="C16" s="15" t="s">
-        <v>581</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>582</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>583</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="23" t="s">
-        <v>584</v>
-      </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-    </row>
-    <row r="17" ht="12.0" customHeight="1">
-      <c r="A17" s="15" t="s">
-        <v>585</v>
-      </c>
-      <c r="B17" s="110"/>
-      <c r="C17" s="15" t="s">
-        <v>586</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>587</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>588</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="23" t="s">
-        <v>589</v>
-      </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-    </row>
-    <row r="18" ht="12.0" customHeight="1">
-      <c r="A18" s="15" t="s">
-        <v>590</v>
-      </c>
-      <c r="B18" s="110"/>
-      <c r="C18" s="15" t="s">
-        <v>591</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>592</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>593</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>594</v>
-      </c>
-      <c r="G18" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="23" t="s">
-        <v>595</v>
-      </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-    </row>
-    <row r="19" ht="12.0" customHeight="1"/>
-    <row r="20" ht="12.0" customHeight="1"/>
-    <row r="21" ht="12.0" customHeight="1"/>
-    <row r="22" ht="12.0" customHeight="1"/>
-    <row r="23" ht="12.0" customHeight="1"/>
-    <row r="24" ht="12.0" customHeight="1"/>
-    <row r="25" ht="12.0" customHeight="1"/>
-    <row r="26" ht="12.0" customHeight="1"/>
-    <row r="27" ht="12.0" customHeight="1"/>
-    <row r="28" ht="12.0" customHeight="1"/>
-    <row r="29" ht="12.0" customHeight="1"/>
-    <row r="30" ht="12.0" customHeight="1"/>
-    <row r="31" ht="12.0" customHeight="1"/>
-    <row r="32" ht="12.0" customHeight="1"/>
-    <row r="33" ht="12.0" customHeight="1"/>
-    <row r="34" ht="12.0" customHeight="1"/>
-    <row r="35" ht="12.0" customHeight="1"/>
-    <row r="36" ht="12.0" customHeight="1"/>
-    <row r="37" ht="12.0" customHeight="1"/>
-    <row r="38" ht="12.0" customHeight="1"/>
-    <row r="39" ht="12.0" customHeight="1"/>
-    <row r="40" ht="12.0" customHeight="1"/>
-    <row r="41" ht="12.0" customHeight="1"/>
-    <row r="42" ht="12.0" customHeight="1"/>
-    <row r="43" ht="12.0" customHeight="1"/>
-    <row r="44" ht="12.0" customHeight="1"/>
-    <row r="45" ht="12.0" customHeight="1"/>
-    <row r="46" ht="12.0" customHeight="1"/>
-    <row r="47" ht="12.0" customHeight="1"/>
-    <row r="48" ht="12.0" customHeight="1"/>
-    <row r="49" ht="12.0" customHeight="1"/>
-    <row r="50" ht="12.0" customHeight="1"/>
-    <row r="51" ht="12.0" customHeight="1"/>
-    <row r="52" ht="12.0" customHeight="1"/>
-    <row r="53" ht="12.0" customHeight="1"/>
-    <row r="54" ht="12.0" customHeight="1"/>
-    <row r="55" ht="12.0" customHeight="1"/>
-    <row r="56" ht="12.0" customHeight="1"/>
-    <row r="57" ht="12.0" customHeight="1"/>
-    <row r="58" ht="12.0" customHeight="1"/>
-    <row r="59" ht="12.0" customHeight="1"/>
-    <row r="60" ht="12.0" customHeight="1"/>
-    <row r="61" ht="12.0" customHeight="1"/>
-    <row r="62" ht="12.0" customHeight="1"/>
-    <row r="63" ht="12.0" customHeight="1"/>
-    <row r="64" ht="12.0" customHeight="1"/>
-    <row r="65" ht="12.0" customHeight="1"/>
-    <row r="66" ht="12.0" customHeight="1"/>
-    <row r="67" ht="12.0" customHeight="1"/>
-    <row r="68" ht="12.0" customHeight="1"/>
-    <row r="69" ht="12.0" customHeight="1"/>
-    <row r="70" ht="12.0" customHeight="1"/>
-    <row r="71" ht="12.0" customHeight="1"/>
-    <row r="72" ht="12.0" customHeight="1"/>
-    <row r="73" ht="12.0" customHeight="1"/>
-    <row r="74" ht="12.0" customHeight="1"/>
-    <row r="75" ht="12.0" customHeight="1"/>
-    <row r="76" ht="12.0" customHeight="1"/>
-    <row r="77" ht="12.0" customHeight="1"/>
-    <row r="78" ht="12.0" customHeight="1"/>
-    <row r="79" ht="12.0" customHeight="1"/>
-    <row r="80" ht="12.0" customHeight="1"/>
-    <row r="81" ht="12.0" customHeight="1"/>
-    <row r="82" ht="12.0" customHeight="1"/>
-    <row r="83" ht="12.0" customHeight="1"/>
-    <row r="84" ht="12.0" customHeight="1"/>
-    <row r="85" ht="12.0" customHeight="1"/>
-    <row r="86" ht="12.0" customHeight="1"/>
-    <row r="87" ht="12.0" customHeight="1"/>
-    <row r="88" ht="12.0" customHeight="1"/>
-    <row r="89" ht="12.0" customHeight="1"/>
-    <row r="90" ht="12.0" customHeight="1"/>
-    <row r="91" ht="12.0" customHeight="1"/>
-    <row r="92" ht="12.0" customHeight="1"/>
-    <row r="93" ht="12.0" customHeight="1"/>
-    <row r="94" ht="12.0" customHeight="1"/>
-    <row r="95" ht="12.0" customHeight="1"/>
-    <row r="96" ht="12.0" customHeight="1"/>
-    <row r="97" ht="12.0" customHeight="1"/>
-    <row r="98" ht="12.0" customHeight="1"/>
-    <row r="99" ht="12.0" customHeight="1"/>
-    <row r="100" ht="12.0" customHeight="1"/>
-    <row r="101" ht="12.0" customHeight="1"/>
-    <row r="102" ht="12.0" customHeight="1"/>
-    <row r="103" ht="12.0" customHeight="1"/>
-    <row r="104" ht="12.0" customHeight="1"/>
-    <row r="105" ht="12.0" customHeight="1"/>
-    <row r="106" ht="12.0" customHeight="1"/>
-    <row r="107" ht="12.0" customHeight="1"/>
-    <row r="108" ht="12.0" customHeight="1"/>
-    <row r="109" ht="12.0" customHeight="1"/>
-    <row r="110" ht="12.0" customHeight="1"/>
-    <row r="111" ht="12.0" customHeight="1"/>
-    <row r="112" ht="12.0" customHeight="1"/>
-    <row r="113" ht="12.0" customHeight="1"/>
-    <row r="114" ht="12.0" customHeight="1"/>
-    <row r="115" ht="12.0" customHeight="1"/>
-    <row r="116" ht="12.0" customHeight="1"/>
-    <row r="117" ht="12.0" customHeight="1"/>
-    <row r="118" ht="12.0" customHeight="1"/>
-    <row r="119" ht="12.0" customHeight="1"/>
-    <row r="120" ht="12.0" customHeight="1"/>
-    <row r="121" ht="12.0" customHeight="1"/>
-    <row r="122" ht="12.0" customHeight="1"/>
-    <row r="123" ht="12.0" customHeight="1"/>
-    <row r="124" ht="12.0" customHeight="1"/>
-    <row r="125" ht="12.0" customHeight="1"/>
-    <row r="126" ht="12.0" customHeight="1"/>
-    <row r="127" ht="12.0" customHeight="1"/>
-    <row r="128" ht="12.0" customHeight="1"/>
-    <row r="129" ht="12.0" customHeight="1"/>
-    <row r="130" ht="12.0" customHeight="1"/>
-    <row r="131" ht="12.0" customHeight="1"/>
-    <row r="132" ht="12.0" customHeight="1"/>
-    <row r="133" ht="12.0" customHeight="1"/>
-    <row r="134" ht="12.0" customHeight="1"/>
-    <row r="135" ht="12.0" customHeight="1"/>
-    <row r="136" ht="12.0" customHeight="1"/>
-    <row r="137" ht="12.0" customHeight="1"/>
-    <row r="138" ht="12.0" customHeight="1"/>
-    <row r="139" ht="12.0" customHeight="1"/>
-    <row r="140" ht="12.0" customHeight="1"/>
-    <row r="141" ht="12.0" customHeight="1"/>
-    <row r="142" ht="12.0" customHeight="1"/>
-    <row r="143" ht="12.0" customHeight="1"/>
-    <row r="144" ht="12.0" customHeight="1"/>
-    <row r="145" ht="12.0" customHeight="1"/>
-    <row r="146" ht="12.0" customHeight="1"/>
-    <row r="147" ht="12.0" customHeight="1"/>
-    <row r="148" ht="12.0" customHeight="1"/>
-    <row r="149" ht="12.0" customHeight="1"/>
-    <row r="150" ht="12.0" customHeight="1"/>
-    <row r="151" ht="12.0" customHeight="1"/>
-    <row r="152" ht="12.0" customHeight="1"/>
-    <row r="153" ht="12.0" customHeight="1"/>
-    <row r="154" ht="12.0" customHeight="1"/>
-    <row r="155" ht="12.0" customHeight="1"/>
-    <row r="156" ht="12.0" customHeight="1"/>
-    <row r="157" ht="12.0" customHeight="1"/>
-    <row r="158" ht="12.0" customHeight="1"/>
-    <row r="159" ht="12.0" customHeight="1"/>
-    <row r="160" ht="12.0" customHeight="1"/>
-    <row r="161" ht="12.0" customHeight="1"/>
-    <row r="162" ht="12.0" customHeight="1"/>
-    <row r="163" ht="12.0" customHeight="1"/>
-    <row r="164" ht="12.0" customHeight="1"/>
-    <row r="165" ht="12.0" customHeight="1"/>
-    <row r="166" ht="12.0" customHeight="1"/>
-    <row r="167" ht="12.0" customHeight="1"/>
-    <row r="168" ht="12.0" customHeight="1"/>
-    <row r="169" ht="12.0" customHeight="1"/>
-    <row r="170" ht="12.0" customHeight="1"/>
-    <row r="171" ht="12.0" customHeight="1"/>
-    <row r="172" ht="12.0" customHeight="1"/>
-    <row r="173" ht="12.0" customHeight="1"/>
-    <row r="174" ht="12.0" customHeight="1"/>
-    <row r="175" ht="12.0" customHeight="1"/>
-    <row r="176" ht="12.0" customHeight="1"/>
-    <row r="177" ht="12.0" customHeight="1"/>
-    <row r="178" ht="12.0" customHeight="1"/>
-    <row r="179" ht="12.0" customHeight="1"/>
-    <row r="180" ht="12.0" customHeight="1"/>
-    <row r="181" ht="12.0" customHeight="1"/>
-    <row r="182" ht="12.0" customHeight="1"/>
-    <row r="183" ht="12.0" customHeight="1"/>
-    <row r="184" ht="12.0" customHeight="1"/>
-    <row r="185" ht="12.0" customHeight="1"/>
-    <row r="186" ht="12.0" customHeight="1"/>
-    <row r="187" ht="12.0" customHeight="1"/>
-    <row r="188" ht="12.0" customHeight="1"/>
-    <row r="189" ht="12.0" customHeight="1"/>
-    <row r="190" ht="12.0" customHeight="1"/>
-    <row r="191" ht="12.0" customHeight="1"/>
-    <row r="192" ht="12.0" customHeight="1"/>
-    <row r="193" ht="12.0" customHeight="1"/>
-    <row r="194" ht="12.0" customHeight="1"/>
-    <row r="195" ht="12.0" customHeight="1"/>
-    <row r="196" ht="12.0" customHeight="1"/>
-    <row r="197" ht="12.0" customHeight="1"/>
-    <row r="198" ht="12.0" customHeight="1"/>
-    <row r="199" ht="12.0" customHeight="1"/>
-    <row r="200" ht="12.0" customHeight="1"/>
-    <row r="201" ht="12.0" customHeight="1"/>
-    <row r="202" ht="12.0" customHeight="1"/>
-    <row r="203" ht="12.0" customHeight="1"/>
-    <row r="204" ht="12.0" customHeight="1"/>
-    <row r="205" ht="12.0" customHeight="1"/>
-    <row r="206" ht="12.0" customHeight="1"/>
-    <row r="207" ht="12.0" customHeight="1"/>
-    <row r="208" ht="12.0" customHeight="1"/>
-    <row r="209" ht="12.0" customHeight="1"/>
-    <row r="210" ht="12.0" customHeight="1"/>
-    <row r="211" ht="12.0" customHeight="1"/>
-    <row r="212" ht="12.0" customHeight="1"/>
-    <row r="213" ht="12.0" customHeight="1"/>
-    <row r="214" ht="12.0" customHeight="1"/>
-    <row r="215" ht="12.0" customHeight="1"/>
-    <row r="216" ht="12.0" customHeight="1"/>
-    <row r="217" ht="12.0" customHeight="1"/>
-    <row r="218" ht="12.0" customHeight="1"/>
-    <row r="219" ht="12.0" customHeight="1"/>
-    <row r="220" ht="12.0" customHeight="1"/>
-    <row r="221" ht="12.0" customHeight="1"/>
-    <row r="222" ht="12.0" customHeight="1"/>
-    <row r="223" ht="12.0" customHeight="1"/>
-    <row r="224" ht="12.0" customHeight="1"/>
-    <row r="225" ht="12.0" customHeight="1"/>
-    <row r="226" ht="12.0" customHeight="1"/>
-    <row r="227" ht="12.0" customHeight="1"/>
-    <row r="228" ht="12.0" customHeight="1"/>
-    <row r="229" ht="12.0" customHeight="1"/>
-    <row r="230" ht="12.0" customHeight="1"/>
-    <row r="231" ht="12.0" customHeight="1"/>
-    <row r="232" ht="12.0" customHeight="1"/>
-    <row r="233" ht="12.0" customHeight="1"/>
-    <row r="234" ht="12.0" customHeight="1"/>
-    <row r="235" ht="12.0" customHeight="1"/>
-    <row r="236" ht="12.0" customHeight="1"/>
-    <row r="237" ht="12.0" customHeight="1"/>
-    <row r="238" ht="12.0" customHeight="1"/>
-    <row r="239" ht="12.0" customHeight="1"/>
-    <row r="240" ht="12.0" customHeight="1"/>
-    <row r="241" ht="12.0" customHeight="1"/>
-    <row r="242" ht="12.0" customHeight="1"/>
-    <row r="243" ht="12.0" customHeight="1"/>
-    <row r="244" ht="12.0" customHeight="1"/>
-    <row r="245" ht="12.0" customHeight="1"/>
-    <row r="246" ht="12.0" customHeight="1"/>
-    <row r="247" ht="12.0" customHeight="1"/>
-    <row r="248" ht="12.0" customHeight="1"/>
-    <row r="249" ht="12.0" customHeight="1"/>
-    <row r="250" ht="12.0" customHeight="1"/>
-    <row r="251" ht="12.0" customHeight="1"/>
-    <row r="252" ht="12.0" customHeight="1"/>
-    <row r="253" ht="12.0" customHeight="1"/>
-    <row r="254" ht="12.0" customHeight="1"/>
-    <row r="255" ht="12.0" customHeight="1"/>
-    <row r="256" ht="12.0" customHeight="1"/>
-    <row r="257" ht="12.0" customHeight="1"/>
-    <row r="258" ht="12.0" customHeight="1"/>
-    <row r="259" ht="12.0" customHeight="1"/>
-    <row r="260" ht="12.0" customHeight="1"/>
-    <row r="261" ht="12.0" customHeight="1"/>
-    <row r="262" ht="12.0" customHeight="1"/>
-    <row r="263" ht="12.0" customHeight="1"/>
-    <row r="264" ht="12.0" customHeight="1"/>
-    <row r="265" ht="12.0" customHeight="1"/>
-    <row r="266" ht="12.0" customHeight="1"/>
-    <row r="267" ht="12.0" customHeight="1"/>
-    <row r="268" ht="12.0" customHeight="1"/>
-    <row r="269" ht="12.0" customHeight="1"/>
-    <row r="270" ht="12.0" customHeight="1"/>
-    <row r="271" ht="12.0" customHeight="1"/>
-    <row r="272" ht="12.0" customHeight="1"/>
-    <row r="273" ht="12.0" customHeight="1"/>
-    <row r="274" ht="12.0" customHeight="1"/>
-    <row r="275" ht="12.0" customHeight="1"/>
-    <row r="276" ht="12.0" customHeight="1"/>
-    <row r="277" ht="12.0" customHeight="1"/>
-    <row r="278" ht="12.0" customHeight="1"/>
-    <row r="279" ht="12.0" customHeight="1"/>
-    <row r="280" ht="12.0" customHeight="1"/>
-    <row r="281" ht="12.0" customHeight="1"/>
-    <row r="282" ht="12.0" customHeight="1"/>
-    <row r="283" ht="12.0" customHeight="1"/>
-    <row r="284" ht="12.0" customHeight="1"/>
-    <row r="285" ht="12.0" customHeight="1"/>
-    <row r="286" ht="12.0" customHeight="1"/>
-    <row r="287" ht="12.0" customHeight="1"/>
-    <row r="288" ht="12.0" customHeight="1"/>
-    <row r="289" ht="12.0" customHeight="1"/>
-    <row r="290" ht="12.0" customHeight="1"/>
-    <row r="291" ht="12.0" customHeight="1"/>
-    <row r="292" ht="12.0" customHeight="1"/>
-    <row r="293" ht="12.0" customHeight="1"/>
-    <row r="294" ht="12.0" customHeight="1"/>
-    <row r="295" ht="12.0" customHeight="1"/>
-    <row r="296" ht="12.0" customHeight="1"/>
-    <row r="297" ht="12.0" customHeight="1"/>
-    <row r="298" ht="12.0" customHeight="1"/>
-    <row r="299" ht="12.0" customHeight="1"/>
-    <row r="300" ht="12.0" customHeight="1"/>
-    <row r="301" ht="12.0" customHeight="1"/>
-    <row r="302" ht="12.0" customHeight="1"/>
-    <row r="303" ht="12.0" customHeight="1"/>
-    <row r="304" ht="12.0" customHeight="1"/>
-    <row r="305" ht="12.0" customHeight="1"/>
-    <row r="306" ht="12.0" customHeight="1"/>
-    <row r="307" ht="12.0" customHeight="1"/>
-    <row r="308" ht="12.0" customHeight="1"/>
-    <row r="309" ht="12.0" customHeight="1"/>
-    <row r="310" ht="12.0" customHeight="1"/>
-    <row r="311" ht="12.0" customHeight="1"/>
-    <row r="312" ht="12.0" customHeight="1"/>
-    <row r="313" ht="12.0" customHeight="1"/>
-    <row r="314" ht="12.0" customHeight="1"/>
-    <row r="315" ht="12.0" customHeight="1"/>
-    <row r="316" ht="12.0" customHeight="1"/>
-    <row r="317" ht="12.0" customHeight="1"/>
-    <row r="318" ht="12.0" customHeight="1"/>
-    <row r="319" ht="12.0" customHeight="1"/>
-    <row r="320" ht="12.0" customHeight="1"/>
-    <row r="321" ht="12.0" customHeight="1"/>
-    <row r="322" ht="12.0" customHeight="1"/>
-    <row r="323" ht="12.0" customHeight="1"/>
-    <row r="324" ht="12.0" customHeight="1"/>
-    <row r="325" ht="12.0" customHeight="1"/>
-    <row r="326" ht="12.0" customHeight="1"/>
-    <row r="327" ht="12.0" customHeight="1"/>
-    <row r="328" ht="12.0" customHeight="1"/>
-    <row r="329" ht="12.0" customHeight="1"/>
-    <row r="330" ht="12.0" customHeight="1"/>
-    <row r="331" ht="12.0" customHeight="1"/>
-    <row r="332" ht="12.0" customHeight="1"/>
-    <row r="333" ht="12.0" customHeight="1"/>
-    <row r="334" ht="12.0" customHeight="1"/>
-    <row r="335" ht="12.0" customHeight="1"/>
-    <row r="336" ht="12.0" customHeight="1"/>
-    <row r="337" ht="12.0" customHeight="1"/>
-    <row r="338" ht="12.0" customHeight="1"/>
-    <row r="339" ht="12.0" customHeight="1"/>
-    <row r="340" ht="12.0" customHeight="1"/>
-    <row r="341" ht="12.0" customHeight="1"/>
-    <row r="342" ht="12.0" customHeight="1"/>
-    <row r="343" ht="12.0" customHeight="1"/>
-    <row r="344" ht="12.0" customHeight="1"/>
-    <row r="345" ht="12.0" customHeight="1"/>
-    <row r="346" ht="12.0" customHeight="1"/>
-    <row r="347" ht="12.0" customHeight="1"/>
-    <row r="348" ht="12.0" customHeight="1"/>
-    <row r="349" ht="12.0" customHeight="1"/>
-    <row r="350" ht="12.0" customHeight="1"/>
-    <row r="351" ht="12.0" customHeight="1"/>
-    <row r="352" ht="12.0" customHeight="1"/>
-    <row r="353" ht="12.0" customHeight="1"/>
-    <row r="354" ht="12.0" customHeight="1"/>
-    <row r="355" ht="12.0" customHeight="1"/>
-    <row r="356" ht="12.0" customHeight="1"/>
-    <row r="357" ht="12.0" customHeight="1"/>
-    <row r="358" ht="12.0" customHeight="1"/>
-    <row r="359" ht="12.0" customHeight="1"/>
-    <row r="360" ht="12.0" customHeight="1"/>
-    <row r="361" ht="12.0" customHeight="1"/>
-    <row r="362" ht="12.0" customHeight="1"/>
-    <row r="363" ht="12.0" customHeight="1"/>
-    <row r="364" ht="12.0" customHeight="1"/>
-    <row r="365" ht="12.0" customHeight="1"/>
-    <row r="366" ht="12.0" customHeight="1"/>
-    <row r="367" ht="12.0" customHeight="1"/>
-    <row r="368" ht="12.0" customHeight="1"/>
-    <row r="369" ht="12.0" customHeight="1"/>
-    <row r="370" ht="12.0" customHeight="1"/>
-    <row r="371" ht="12.0" customHeight="1"/>
-    <row r="372" ht="12.0" customHeight="1"/>
-    <row r="373" ht="12.0" customHeight="1"/>
-    <row r="374" ht="12.0" customHeight="1"/>
-    <row r="375" ht="12.0" customHeight="1"/>
-    <row r="376" ht="12.0" customHeight="1"/>
-    <row r="377" ht="12.0" customHeight="1"/>
-    <row r="378" ht="12.0" customHeight="1"/>
-    <row r="379" ht="12.0" customHeight="1"/>
-    <row r="380" ht="12.0" customHeight="1"/>
-    <row r="381" ht="12.0" customHeight="1"/>
-    <row r="382" ht="12.0" customHeight="1"/>
-    <row r="383" ht="12.0" customHeight="1"/>
-    <row r="384" ht="12.0" customHeight="1"/>
-    <row r="385" ht="12.0" customHeight="1"/>
-    <row r="386" ht="12.0" customHeight="1"/>
-    <row r="387" ht="12.0" customHeight="1"/>
-    <row r="388" ht="12.0" customHeight="1"/>
-    <row r="389" ht="12.0" customHeight="1"/>
-    <row r="390" ht="12.0" customHeight="1"/>
-    <row r="391" ht="12.0" customHeight="1"/>
-    <row r="392" ht="12.0" customHeight="1"/>
-    <row r="393" ht="12.0" customHeight="1"/>
-    <row r="394" ht="12.0" customHeight="1"/>
-    <row r="395" ht="12.0" customHeight="1"/>
-    <row r="396" ht="12.0" customHeight="1"/>
-    <row r="397" ht="12.0" customHeight="1"/>
-    <row r="398" ht="12.0" customHeight="1"/>
-    <row r="399" ht="12.0" customHeight="1"/>
-    <row r="400" ht="12.0" customHeight="1"/>
-    <row r="401" ht="12.0" customHeight="1"/>
-    <row r="402" ht="12.0" customHeight="1"/>
-    <row r="403" ht="12.0" customHeight="1"/>
-    <row r="404" ht="12.0" customHeight="1"/>
-    <row r="405" ht="12.0" customHeight="1"/>
-    <row r="406" ht="12.0" customHeight="1"/>
-    <row r="407" ht="12.0" customHeight="1"/>
-    <row r="408" ht="12.0" customHeight="1"/>
-    <row r="409" ht="12.0" customHeight="1"/>
-    <row r="410" ht="12.0" customHeight="1"/>
-    <row r="411" ht="12.0" customHeight="1"/>
-    <row r="412" ht="12.0" customHeight="1"/>
-    <row r="413" ht="12.0" customHeight="1"/>
-    <row r="414" ht="12.0" customHeight="1"/>
-    <row r="415" ht="12.0" customHeight="1"/>
-    <row r="416" ht="12.0" customHeight="1"/>
-    <row r="417" ht="12.0" customHeight="1"/>
-    <row r="418" ht="12.0" customHeight="1"/>
-    <row r="419" ht="12.0" customHeight="1"/>
-    <row r="420" ht="12.0" customHeight="1"/>
-    <row r="421" ht="12.0" customHeight="1"/>
-    <row r="422" ht="12.0" customHeight="1"/>
-    <row r="423" ht="12.0" customHeight="1"/>
-    <row r="424" ht="12.0" customHeight="1"/>
-    <row r="425" ht="12.0" customHeight="1"/>
-    <row r="426" ht="12.0" customHeight="1"/>
-    <row r="427" ht="12.0" customHeight="1"/>
-    <row r="428" ht="12.0" customHeight="1"/>
-    <row r="429" ht="12.0" customHeight="1"/>
-    <row r="430" ht="12.0" customHeight="1"/>
-    <row r="431" ht="12.0" customHeight="1"/>
-    <row r="432" ht="12.0" customHeight="1"/>
-    <row r="433" ht="12.0" customHeight="1"/>
-    <row r="434" ht="12.0" customHeight="1"/>
-    <row r="435" ht="12.0" customHeight="1"/>
-    <row r="436" ht="12.0" customHeight="1"/>
-    <row r="437" ht="12.0" customHeight="1"/>
-    <row r="438" ht="12.0" customHeight="1"/>
-    <row r="439" ht="12.0" customHeight="1"/>
-    <row r="440" ht="12.0" customHeight="1"/>
-    <row r="441" ht="12.0" customHeight="1"/>
-    <row r="442" ht="12.0" customHeight="1"/>
-    <row r="443" ht="12.0" customHeight="1"/>
-    <row r="444" ht="12.0" customHeight="1"/>
-    <row r="445" ht="12.0" customHeight="1"/>
-    <row r="446" ht="12.0" customHeight="1"/>
-    <row r="447" ht="12.0" customHeight="1"/>
-    <row r="448" ht="12.0" customHeight="1"/>
-    <row r="449" ht="12.0" customHeight="1"/>
-    <row r="450" ht="12.0" customHeight="1"/>
-    <row r="451" ht="12.0" customHeight="1"/>
-    <row r="452" ht="12.0" customHeight="1"/>
-    <row r="453" ht="12.0" customHeight="1"/>
-    <row r="454" ht="12.0" customHeight="1"/>
-    <row r="455" ht="12.0" customHeight="1"/>
-    <row r="456" ht="12.0" customHeight="1"/>
-    <row r="457" ht="12.0" customHeight="1"/>
-    <row r="458" ht="12.0" customHeight="1"/>
-    <row r="459" ht="12.0" customHeight="1"/>
-    <row r="460" ht="12.0" customHeight="1"/>
-    <row r="461" ht="12.0" customHeight="1"/>
-    <row r="462" ht="12.0" customHeight="1"/>
-    <row r="463" ht="12.0" customHeight="1"/>
-    <row r="464" ht="12.0" customHeight="1"/>
-    <row r="465" ht="12.0" customHeight="1"/>
-    <row r="466" ht="12.0" customHeight="1"/>
-    <row r="467" ht="12.0" customHeight="1"/>
-    <row r="468" ht="12.0" customHeight="1"/>
-    <row r="469" ht="12.0" customHeight="1"/>
-    <row r="470" ht="12.0" customHeight="1"/>
-    <row r="471" ht="12.0" customHeight="1"/>
-    <row r="472" ht="12.0" customHeight="1"/>
-    <row r="473" ht="12.0" customHeight="1"/>
-    <row r="474" ht="12.0" customHeight="1"/>
-    <row r="475" ht="12.0" customHeight="1"/>
-    <row r="476" ht="12.0" customHeight="1"/>
-    <row r="477" ht="12.0" customHeight="1"/>
-    <row r="478" ht="12.0" customHeight="1"/>
-    <row r="479" ht="12.0" customHeight="1"/>
-    <row r="480" ht="12.0" customHeight="1"/>
-    <row r="481" ht="12.0" customHeight="1"/>
-    <row r="482" ht="12.0" customHeight="1"/>
-    <row r="483" ht="12.0" customHeight="1"/>
-    <row r="484" ht="12.0" customHeight="1"/>
-    <row r="485" ht="12.0" customHeight="1"/>
-    <row r="486" ht="12.0" customHeight="1"/>
-    <row r="487" ht="12.0" customHeight="1"/>
-    <row r="488" ht="12.0" customHeight="1"/>
-    <row r="489" ht="12.0" customHeight="1"/>
-    <row r="490" ht="12.0" customHeight="1"/>
-    <row r="491" ht="12.0" customHeight="1"/>
-    <row r="492" ht="12.0" customHeight="1"/>
-    <row r="493" ht="12.0" customHeight="1"/>
-    <row r="494" ht="12.0" customHeight="1"/>
-    <row r="495" ht="12.0" customHeight="1"/>
-    <row r="496" ht="12.0" customHeight="1"/>
-    <row r="497" ht="12.0" customHeight="1"/>
-    <row r="498" ht="12.0" customHeight="1"/>
-    <row r="499" ht="12.0" customHeight="1"/>
-    <row r="500" ht="12.0" customHeight="1"/>
-    <row r="501" ht="12.0" customHeight="1"/>
-    <row r="502" ht="12.0" customHeight="1"/>
-    <row r="503" ht="12.0" customHeight="1"/>
-    <row r="504" ht="12.0" customHeight="1"/>
-    <row r="505" ht="12.0" customHeight="1"/>
-    <row r="506" ht="12.0" customHeight="1"/>
-    <row r="507" ht="12.0" customHeight="1"/>
-    <row r="508" ht="12.0" customHeight="1"/>
-    <row r="509" ht="12.0" customHeight="1"/>
-    <row r="510" ht="12.0" customHeight="1"/>
-    <row r="511" ht="12.0" customHeight="1"/>
-    <row r="512" ht="12.0" customHeight="1"/>
-    <row r="513" ht="12.0" customHeight="1"/>
-    <row r="514" ht="12.0" customHeight="1"/>
-    <row r="515" ht="12.0" customHeight="1"/>
-    <row r="516" ht="12.0" customHeight="1"/>
-    <row r="517" ht="12.0" customHeight="1"/>
-    <row r="518" ht="12.0" customHeight="1"/>
-    <row r="519" ht="12.0" customHeight="1"/>
-    <row r="520" ht="12.0" customHeight="1"/>
-    <row r="521" ht="12.0" customHeight="1"/>
-    <row r="522" ht="12.0" customHeight="1"/>
-    <row r="523" ht="12.0" customHeight="1"/>
-    <row r="524" ht="12.0" customHeight="1"/>
-    <row r="525" ht="12.0" customHeight="1"/>
-    <row r="526" ht="12.0" customHeight="1"/>
-    <row r="527" ht="12.0" customHeight="1"/>
-    <row r="528" ht="12.0" customHeight="1"/>
-    <row r="529" ht="12.0" customHeight="1"/>
-    <row r="530" ht="12.0" customHeight="1"/>
-    <row r="531" ht="12.0" customHeight="1"/>
-    <row r="532" ht="12.0" customHeight="1"/>
-    <row r="533" ht="12.0" customHeight="1"/>
-    <row r="534" ht="12.0" customHeight="1"/>
-    <row r="535" ht="12.0" customHeight="1"/>
-    <row r="536" ht="12.0" customHeight="1"/>
-    <row r="537" ht="12.0" customHeight="1"/>
-    <row r="538" ht="12.0" customHeight="1"/>
-    <row r="539" ht="12.0" customHeight="1"/>
-    <row r="540" ht="12.0" customHeight="1"/>
-    <row r="541" ht="12.0" customHeight="1"/>
-    <row r="542" ht="12.0" customHeight="1"/>
-    <row r="543" ht="12.0" customHeight="1"/>
-    <row r="544" ht="12.0" customHeight="1"/>
-    <row r="545" ht="12.0" customHeight="1"/>
-    <row r="546" ht="12.0" customHeight="1"/>
-    <row r="547" ht="12.0" customHeight="1"/>
-    <row r="548" ht="12.0" customHeight="1"/>
-    <row r="549" ht="12.0" customHeight="1"/>
-    <row r="550" ht="12.0" customHeight="1"/>
-    <row r="551" ht="12.0" customHeight="1"/>
-    <row r="552" ht="12.0" customHeight="1"/>
-    <row r="553" ht="12.0" customHeight="1"/>
-    <row r="554" ht="12.0" customHeight="1"/>
-    <row r="555" ht="12.0" customHeight="1"/>
-    <row r="556" ht="12.0" customHeight="1"/>
-    <row r="557" ht="12.0" customHeight="1"/>
-    <row r="558" ht="12.0" customHeight="1"/>
-    <row r="559" ht="12.0" customHeight="1"/>
-    <row r="560" ht="12.0" customHeight="1"/>
-    <row r="561" ht="12.0" customHeight="1"/>
-    <row r="562" ht="12.0" customHeight="1"/>
-    <row r="563" ht="12.0" customHeight="1"/>
-    <row r="564" ht="12.0" customHeight="1"/>
-    <row r="565" ht="12.0" customHeight="1"/>
-    <row r="566" ht="12.0" customHeight="1"/>
-    <row r="567" ht="12.0" customHeight="1"/>
-    <row r="568" ht="12.0" customHeight="1"/>
-    <row r="569" ht="12.0" customHeight="1"/>
-    <row r="570" ht="12.0" customHeight="1"/>
-    <row r="571" ht="12.0" customHeight="1"/>
-    <row r="572" ht="12.0" customHeight="1"/>
-    <row r="573" ht="12.0" customHeight="1"/>
-    <row r="574" ht="12.0" customHeight="1"/>
-    <row r="575" ht="12.0" customHeight="1"/>
-    <row r="576" ht="12.0" customHeight="1"/>
-    <row r="577" ht="12.0" customHeight="1"/>
-    <row r="578" ht="12.0" customHeight="1"/>
-    <row r="579" ht="12.0" customHeight="1"/>
-    <row r="580" ht="12.0" customHeight="1"/>
-    <row r="581" ht="12.0" customHeight="1"/>
-    <row r="582" ht="12.0" customHeight="1"/>
-    <row r="583" ht="12.0" customHeight="1"/>
-    <row r="584" ht="12.0" customHeight="1"/>
-    <row r="585" ht="12.0" customHeight="1"/>
-    <row r="586" ht="12.0" customHeight="1"/>
-    <row r="587" ht="12.0" customHeight="1"/>
-    <row r="588" ht="12.0" customHeight="1"/>
-    <row r="589" ht="12.0" customHeight="1"/>
-    <row r="590" ht="12.0" customHeight="1"/>
-    <row r="591" ht="12.0" customHeight="1"/>
-    <row r="592" ht="12.0" customHeight="1"/>
-    <row r="593" ht="12.0" customHeight="1"/>
-    <row r="594" ht="12.0" customHeight="1"/>
-    <row r="595" ht="12.0" customHeight="1"/>
-    <row r="596" ht="12.0" customHeight="1"/>
-    <row r="597" ht="12.0" customHeight="1"/>
-    <row r="598" ht="12.0" customHeight="1"/>
-    <row r="599" ht="12.0" customHeight="1"/>
-    <row r="600" ht="12.0" customHeight="1"/>
-    <row r="601" ht="12.0" customHeight="1"/>
-    <row r="602" ht="12.0" customHeight="1"/>
-    <row r="603" ht="12.0" customHeight="1"/>
-    <row r="604" ht="12.0" customHeight="1"/>
-    <row r="605" ht="12.0" customHeight="1"/>
-    <row r="606" ht="12.0" customHeight="1"/>
-    <row r="607" ht="12.0" customHeight="1"/>
-    <row r="608" ht="12.0" customHeight="1"/>
-    <row r="609" ht="12.0" customHeight="1"/>
-    <row r="610" ht="12.0" customHeight="1"/>
-    <row r="611" ht="12.0" customHeight="1"/>
-    <row r="612" ht="12.0" customHeight="1"/>
-    <row r="613" ht="12.0" customHeight="1"/>
-    <row r="614" ht="12.0" customHeight="1"/>
-    <row r="615" ht="12.0" customHeight="1"/>
-    <row r="616" ht="12.0" customHeight="1"/>
-    <row r="617" ht="12.0" customHeight="1"/>
-    <row r="618" ht="12.0" customHeight="1"/>
-    <row r="619" ht="12.0" customHeight="1"/>
-    <row r="620" ht="12.0" customHeight="1"/>
-    <row r="621" ht="12.0" customHeight="1"/>
-    <row r="622" ht="12.0" customHeight="1"/>
-    <row r="623" ht="12.0" customHeight="1"/>
-    <row r="624" ht="12.0" customHeight="1"/>
-    <row r="625" ht="12.0" customHeight="1"/>
-    <row r="626" ht="12.0" customHeight="1"/>
-    <row r="627" ht="12.0" customHeight="1"/>
-    <row r="628" ht="12.0" customHeight="1"/>
-    <row r="629" ht="12.0" customHeight="1"/>
-    <row r="630" ht="12.0" customHeight="1"/>
-    <row r="631" ht="12.0" customHeight="1"/>
-    <row r="632" ht="12.0" customHeight="1"/>
-    <row r="633" ht="12.0" customHeight="1"/>
-    <row r="634" ht="12.0" customHeight="1"/>
-    <row r="635" ht="12.0" customHeight="1"/>
-    <row r="636" ht="12.0" customHeight="1"/>
-    <row r="637" ht="12.0" customHeight="1"/>
-    <row r="638" ht="12.0" customHeight="1"/>
-    <row r="639" ht="12.0" customHeight="1"/>
-    <row r="640" ht="12.0" customHeight="1"/>
-    <row r="641" ht="12.0" customHeight="1"/>
-    <row r="642" ht="12.0" customHeight="1"/>
-    <row r="643" ht="12.0" customHeight="1"/>
-    <row r="644" ht="12.0" customHeight="1"/>
-    <row r="645" ht="12.0" customHeight="1"/>
-    <row r="646" ht="12.0" customHeight="1"/>
-    <row r="647" ht="12.0" customHeight="1"/>
-    <row r="648" ht="12.0" customHeight="1"/>
-    <row r="649" ht="12.0" customHeight="1"/>
-    <row r="650" ht="12.0" customHeight="1"/>
-    <row r="651" ht="12.0" customHeight="1"/>
-    <row r="652" ht="12.0" customHeight="1"/>
-    <row r="653" ht="12.0" customHeight="1"/>
-    <row r="654" ht="12.0" customHeight="1"/>
-    <row r="655" ht="12.0" customHeight="1"/>
-    <row r="656" ht="12.0" customHeight="1"/>
-    <row r="657" ht="12.0" customHeight="1"/>
-    <row r="658" ht="12.0" customHeight="1"/>
-    <row r="659" ht="12.0" customHeight="1"/>
-    <row r="660" ht="12.0" customHeight="1"/>
-    <row r="661" ht="12.0" customHeight="1"/>
-    <row r="662" ht="12.0" customHeight="1"/>
-    <row r="663" ht="12.0" customHeight="1"/>
-    <row r="664" ht="12.0" customHeight="1"/>
-    <row r="665" ht="12.0" customHeight="1"/>
-    <row r="666" ht="12.0" customHeight="1"/>
-    <row r="667" ht="12.0" customHeight="1"/>
-    <row r="668" ht="12.0" customHeight="1"/>
-    <row r="669" ht="12.0" customHeight="1"/>
-    <row r="670" ht="12.0" customHeight="1"/>
-    <row r="671" ht="12.0" customHeight="1"/>
-    <row r="672" ht="12.0" customHeight="1"/>
-    <row r="673" ht="12.0" customHeight="1"/>
-    <row r="674" ht="12.0" customHeight="1"/>
-    <row r="675" ht="12.0" customHeight="1"/>
-    <row r="676" ht="12.0" customHeight="1"/>
-    <row r="677" ht="12.0" customHeight="1"/>
-    <row r="678" ht="12.0" customHeight="1"/>
-    <row r="679" ht="12.0" customHeight="1"/>
-    <row r="680" ht="12.0" customHeight="1"/>
-    <row r="681" ht="12.0" customHeight="1"/>
-    <row r="682" ht="12.0" customHeight="1"/>
-    <row r="683" ht="12.0" customHeight="1"/>
-    <row r="684" ht="12.0" customHeight="1"/>
-    <row r="685" ht="12.0" customHeight="1"/>
-    <row r="686" ht="12.0" customHeight="1"/>
-    <row r="687" ht="12.0" customHeight="1"/>
-    <row r="688" ht="12.0" customHeight="1"/>
-    <row r="689" ht="12.0" customHeight="1"/>
-    <row r="690" ht="12.0" customHeight="1"/>
-    <row r="691" ht="12.0" customHeight="1"/>
-    <row r="692" ht="12.0" customHeight="1"/>
-    <row r="693" ht="12.0" customHeight="1"/>
-    <row r="694" ht="12.0" customHeight="1"/>
-    <row r="695" ht="12.0" customHeight="1"/>
-    <row r="696" ht="12.0" customHeight="1"/>
-    <row r="697" ht="12.0" customHeight="1"/>
-    <row r="698" ht="12.0" customHeight="1"/>
-    <row r="699" ht="12.0" customHeight="1"/>
-    <row r="700" ht="12.0" customHeight="1"/>
-    <row r="701" ht="12.0" customHeight="1"/>
-    <row r="702" ht="12.0" customHeight="1"/>
-    <row r="703" ht="12.0" customHeight="1"/>
-    <row r="704" ht="12.0" customHeight="1"/>
-    <row r="705" ht="12.0" customHeight="1"/>
-    <row r="706" ht="12.0" customHeight="1"/>
-    <row r="707" ht="12.0" customHeight="1"/>
-    <row r="708" ht="12.0" customHeight="1"/>
-    <row r="709" ht="12.0" customHeight="1"/>
-    <row r="710" ht="12.0" customHeight="1"/>
-    <row r="711" ht="12.0" customHeight="1"/>
-    <row r="712" ht="12.0" customHeight="1"/>
-    <row r="713" ht="12.0" customHeight="1"/>
-    <row r="714" ht="12.0" customHeight="1"/>
-    <row r="715" ht="12.0" customHeight="1"/>
-    <row r="716" ht="12.0" customHeight="1"/>
-    <row r="717" ht="12.0" customHeight="1"/>
-    <row r="718" ht="12.0" customHeight="1"/>
-    <row r="719" ht="12.0" customHeight="1"/>
-    <row r="720" ht="12.0" customHeight="1"/>
-    <row r="721" ht="12.0" customHeight="1"/>
-    <row r="722" ht="12.0" customHeight="1"/>
-    <row r="723" ht="12.0" customHeight="1"/>
-    <row r="724" ht="12.0" customHeight="1"/>
-    <row r="725" ht="12.0" customHeight="1"/>
-    <row r="726" ht="12.0" customHeight="1"/>
-    <row r="727" ht="12.0" customHeight="1"/>
-    <row r="728" ht="12.0" customHeight="1"/>
-    <row r="729" ht="12.0" customHeight="1"/>
-    <row r="730" ht="12.0" customHeight="1"/>
-    <row r="731" ht="12.0" customHeight="1"/>
-    <row r="732" ht="12.0" customHeight="1"/>
-    <row r="733" ht="12.0" customHeight="1"/>
-    <row r="734" ht="12.0" customHeight="1"/>
-    <row r="735" ht="12.0" customHeight="1"/>
-    <row r="736" ht="12.0" customHeight="1"/>
-    <row r="737" ht="12.0" customHeight="1"/>
-    <row r="738" ht="12.0" customHeight="1"/>
-    <row r="739" ht="12.0" customHeight="1"/>
-    <row r="740" ht="12.0" customHeight="1"/>
-    <row r="741" ht="12.0" customHeight="1"/>
-    <row r="742" ht="12.0" customHeight="1"/>
-    <row r="743" ht="12.0" customHeight="1"/>
-    <row r="744" ht="12.0" customHeight="1"/>
-    <row r="745" ht="12.0" customHeight="1"/>
-    <row r="746" ht="12.0" customHeight="1"/>
-    <row r="747" ht="12.0" customHeight="1"/>
-    <row r="748" ht="12.0" customHeight="1"/>
-    <row r="749" ht="12.0" customHeight="1"/>
-    <row r="750" ht="12.0" customHeight="1"/>
-    <row r="751" ht="12.0" customHeight="1"/>
-    <row r="752" ht="12.0" customHeight="1"/>
-    <row r="753" ht="12.0" customHeight="1"/>
-    <row r="754" ht="12.0" customHeight="1"/>
-    <row r="755" ht="12.0" customHeight="1"/>
-    <row r="756" ht="12.0" customHeight="1"/>
-    <row r="757" ht="12.0" customHeight="1"/>
-    <row r="758" ht="12.0" customHeight="1"/>
-    <row r="759" ht="12.0" customHeight="1"/>
-    <row r="760" ht="12.0" customHeight="1"/>
-    <row r="761" ht="12.0" customHeight="1"/>
-    <row r="762" ht="12.0" customHeight="1"/>
-    <row r="763" ht="12.0" customHeight="1"/>
-    <row r="764" ht="12.0" customHeight="1"/>
-    <row r="765" ht="12.0" customHeight="1"/>
-    <row r="766" ht="12.0" customHeight="1"/>
-    <row r="767" ht="12.0" customHeight="1"/>
-    <row r="768" ht="12.0" customHeight="1"/>
-    <row r="769" ht="12.0" customHeight="1"/>
-    <row r="770" ht="12.0" customHeight="1"/>
-    <row r="771" ht="12.0" customHeight="1"/>
-    <row r="772" ht="12.0" customHeight="1"/>
-    <row r="773" ht="12.0" customHeight="1"/>
-    <row r="774" ht="12.0" customHeight="1"/>
-    <row r="775" ht="12.0" customHeight="1"/>
-    <row r="776" ht="12.0" customHeight="1"/>
-    <row r="777" ht="12.0" customHeight="1"/>
-    <row r="778" ht="12.0" customHeight="1"/>
-    <row r="779" ht="12.0" customHeight="1"/>
-    <row r="780" ht="12.0" customHeight="1"/>
-    <row r="781" ht="12.0" customHeight="1"/>
-    <row r="782" ht="12.0" customHeight="1"/>
-    <row r="783" ht="12.0" customHeight="1"/>
-    <row r="784" ht="12.0" customHeight="1"/>
-    <row r="785" ht="12.0" customHeight="1"/>
-    <row r="786" ht="12.0" customHeight="1"/>
-    <row r="787" ht="12.0" customHeight="1"/>
-    <row r="788" ht="12.0" customHeight="1"/>
-    <row r="789" ht="12.0" customHeight="1"/>
-    <row r="790" ht="12.0" customHeight="1"/>
-    <row r="791" ht="12.0" customHeight="1"/>
-    <row r="792" ht="12.0" customHeight="1"/>
-    <row r="793" ht="12.0" customHeight="1"/>
-    <row r="794" ht="12.0" customHeight="1"/>
-    <row r="795" ht="12.0" customHeight="1"/>
-    <row r="796" ht="12.0" customHeight="1"/>
-    <row r="797" ht="12.0" customHeight="1"/>
-    <row r="798" ht="12.0" customHeight="1"/>
-    <row r="799" ht="12.0" customHeight="1"/>
-    <row r="800" ht="12.0" customHeight="1"/>
-    <row r="801" ht="12.0" customHeight="1"/>
-    <row r="802" ht="12.0" customHeight="1"/>
-    <row r="803" ht="12.0" customHeight="1"/>
-    <row r="804" ht="12.0" customHeight="1"/>
-    <row r="805" ht="12.0" customHeight="1"/>
-    <row r="806" ht="12.0" customHeight="1"/>
-    <row r="807" ht="12.0" customHeight="1"/>
-    <row r="808" ht="12.0" customHeight="1"/>
-    <row r="809" ht="12.0" customHeight="1"/>
-    <row r="810" ht="12.0" customHeight="1"/>
-    <row r="811" ht="12.0" customHeight="1"/>
-    <row r="812" ht="12.0" customHeight="1"/>
-    <row r="813" ht="12.0" customHeight="1"/>
-    <row r="814" ht="12.0" customHeight="1"/>
-    <row r="815" ht="12.0" customHeight="1"/>
-    <row r="816" ht="12.0" customHeight="1"/>
-    <row r="817" ht="12.0" customHeight="1"/>
-    <row r="818" ht="12.0" customHeight="1"/>
-    <row r="819" ht="12.0" customHeight="1"/>
-    <row r="820" ht="12.0" customHeight="1"/>
-    <row r="821" ht="12.0" customHeight="1"/>
-    <row r="822" ht="12.0" customHeight="1"/>
-    <row r="823" ht="12.0" customHeight="1"/>
-    <row r="824" ht="12.0" customHeight="1"/>
-    <row r="825" ht="12.0" customHeight="1"/>
-    <row r="826" ht="12.0" customHeight="1"/>
-    <row r="827" ht="12.0" customHeight="1"/>
-    <row r="828" ht="12.0" customHeight="1"/>
-    <row r="829" ht="12.0" customHeight="1"/>
-    <row r="830" ht="12.0" customHeight="1"/>
-    <row r="831" ht="12.0" customHeight="1"/>
-    <row r="832" ht="12.0" customHeight="1"/>
-    <row r="833" ht="12.0" customHeight="1"/>
-    <row r="834" ht="12.0" customHeight="1"/>
-    <row r="835" ht="12.0" customHeight="1"/>
-    <row r="836" ht="12.0" customHeight="1"/>
-    <row r="837" ht="12.0" customHeight="1"/>
-    <row r="838" ht="12.0" customHeight="1"/>
-    <row r="839" ht="12.0" customHeight="1"/>
-    <row r="840" ht="12.0" customHeight="1"/>
-    <row r="841" ht="12.0" customHeight="1"/>
-    <row r="842" ht="12.0" customHeight="1"/>
-    <row r="843" ht="12.0" customHeight="1"/>
-    <row r="844" ht="12.0" customHeight="1"/>
-    <row r="845" ht="12.0" customHeight="1"/>
-    <row r="846" ht="12.0" customHeight="1"/>
-    <row r="847" ht="12.0" customHeight="1"/>
-    <row r="848" ht="12.0" customHeight="1"/>
-    <row r="849" ht="12.0" customHeight="1"/>
-    <row r="850" ht="12.0" customHeight="1"/>
-    <row r="851" ht="12.0" customHeight="1"/>
-    <row r="852" ht="12.0" customHeight="1"/>
-    <row r="853" ht="12.0" customHeight="1"/>
-    <row r="854" ht="12.0" customHeight="1"/>
-    <row r="855" ht="12.0" customHeight="1"/>
-    <row r="856" ht="12.0" customHeight="1"/>
-    <row r="857" ht="12.0" customHeight="1"/>
-    <row r="858" ht="12.0" customHeight="1"/>
-    <row r="859" ht="12.0" customHeight="1"/>
-    <row r="860" ht="12.0" customHeight="1"/>
-    <row r="861" ht="12.0" customHeight="1"/>
-    <row r="862" ht="12.0" customHeight="1"/>
-    <row r="863" ht="12.0" customHeight="1"/>
-    <row r="864" ht="12.0" customHeight="1"/>
-    <row r="865" ht="12.0" customHeight="1"/>
-    <row r="866" ht="12.0" customHeight="1"/>
-    <row r="867" ht="12.0" customHeight="1"/>
-    <row r="868" ht="12.0" customHeight="1"/>
-    <row r="869" ht="12.0" customHeight="1"/>
-    <row r="870" ht="12.0" customHeight="1"/>
-    <row r="871" ht="12.0" customHeight="1"/>
-    <row r="872" ht="12.0" customHeight="1"/>
-    <row r="873" ht="12.0" customHeight="1"/>
-    <row r="874" ht="12.0" customHeight="1"/>
-    <row r="875" ht="12.0" customHeight="1"/>
-    <row r="876" ht="12.0" customHeight="1"/>
-    <row r="877" ht="12.0" customHeight="1"/>
-    <row r="878" ht="12.0" customHeight="1"/>
-    <row r="879" ht="12.0" customHeight="1"/>
-    <row r="880" ht="12.0" customHeight="1"/>
-    <row r="881" ht="12.0" customHeight="1"/>
-    <row r="882" ht="12.0" customHeight="1"/>
-    <row r="883" ht="12.0" customHeight="1"/>
-    <row r="884" ht="12.0" customHeight="1"/>
-    <row r="885" ht="12.0" customHeight="1"/>
-    <row r="886" ht="12.0" customHeight="1"/>
-    <row r="887" ht="12.0" customHeight="1"/>
-    <row r="888" ht="12.0" customHeight="1"/>
-    <row r="889" ht="12.0" customHeight="1"/>
-    <row r="890" ht="12.0" customHeight="1"/>
-    <row r="891" ht="12.0" customHeight="1"/>
-    <row r="892" ht="12.0" customHeight="1"/>
-    <row r="893" ht="12.0" customHeight="1"/>
-    <row r="894" ht="12.0" customHeight="1"/>
-    <row r="895" ht="12.0" customHeight="1"/>
-    <row r="896" ht="12.0" customHeight="1"/>
-    <row r="897" ht="12.0" customHeight="1"/>
-    <row r="898" ht="12.0" customHeight="1"/>
-    <row r="899" ht="12.0" customHeight="1"/>
-    <row r="900" ht="12.0" customHeight="1"/>
-    <row r="901" ht="12.0" customHeight="1"/>
-    <row r="902" ht="12.0" customHeight="1"/>
-    <row r="903" ht="12.0" customHeight="1"/>
-    <row r="904" ht="12.0" customHeight="1"/>
-    <row r="905" ht="12.0" customHeight="1"/>
-    <row r="906" ht="12.0" customHeight="1"/>
-    <row r="907" ht="12.0" customHeight="1"/>
-    <row r="908" ht="12.0" customHeight="1"/>
-    <row r="909" ht="12.0" customHeight="1"/>
-    <row r="910" ht="12.0" customHeight="1"/>
-    <row r="911" ht="12.0" customHeight="1"/>
-    <row r="912" ht="12.0" customHeight="1"/>
-    <row r="913" ht="12.0" customHeight="1"/>
-    <row r="914" ht="12.0" customHeight="1"/>
-    <row r="915" ht="12.0" customHeight="1"/>
-    <row r="916" ht="12.0" customHeight="1"/>
-    <row r="917" ht="12.0" customHeight="1"/>
-    <row r="918" ht="12.0" customHeight="1"/>
-    <row r="919" ht="12.0" customHeight="1"/>
-    <row r="920" ht="12.0" customHeight="1"/>
-    <row r="921" ht="12.0" customHeight="1"/>
-    <row r="922" ht="12.0" customHeight="1"/>
-    <row r="923" ht="12.0" customHeight="1"/>
-    <row r="924" ht="12.0" customHeight="1"/>
-    <row r="925" ht="12.0" customHeight="1"/>
-    <row r="926" ht="12.0" customHeight="1"/>
-    <row r="927" ht="12.0" customHeight="1"/>
-    <row r="928" ht="12.0" customHeight="1"/>
-    <row r="929" ht="12.0" customHeight="1"/>
-    <row r="930" ht="12.0" customHeight="1"/>
-    <row r="931" ht="12.0" customHeight="1"/>
-    <row r="932" ht="12.0" customHeight="1"/>
-    <row r="933" ht="12.0" customHeight="1"/>
-    <row r="934" ht="12.0" customHeight="1"/>
-    <row r="935" ht="12.0" customHeight="1"/>
-    <row r="936" ht="12.0" customHeight="1"/>
-    <row r="937" ht="12.0" customHeight="1"/>
-    <row r="938" ht="12.0" customHeight="1"/>
-    <row r="939" ht="12.0" customHeight="1"/>
-    <row r="940" ht="12.0" customHeight="1"/>
-    <row r="941" ht="12.0" customHeight="1"/>
-    <row r="942" ht="12.0" customHeight="1"/>
-    <row r="943" ht="12.0" customHeight="1"/>
-    <row r="944" ht="12.0" customHeight="1"/>
-    <row r="945" ht="12.0" customHeight="1"/>
-    <row r="946" ht="12.0" customHeight="1"/>
-    <row r="947" ht="12.0" customHeight="1"/>
-    <row r="948" ht="12.0" customHeight="1"/>
-    <row r="949" ht="12.0" customHeight="1"/>
-    <row r="950" ht="12.0" customHeight="1"/>
-    <row r="951" ht="12.0" customHeight="1"/>
-    <row r="952" ht="12.0" customHeight="1"/>
-    <row r="953" ht="12.0" customHeight="1"/>
-    <row r="954" ht="12.0" customHeight="1"/>
-    <row r="955" ht="12.0" customHeight="1"/>
-    <row r="956" ht="12.0" customHeight="1"/>
-    <row r="957" ht="12.0" customHeight="1"/>
-    <row r="958" ht="12.0" customHeight="1"/>
-    <row r="959" ht="12.0" customHeight="1"/>
-    <row r="960" ht="12.0" customHeight="1"/>
-    <row r="961" ht="12.0" customHeight="1"/>
-    <row r="962" ht="12.0" customHeight="1"/>
-    <row r="963" ht="12.0" customHeight="1"/>
-    <row r="964" ht="12.0" customHeight="1"/>
-    <row r="965" ht="12.0" customHeight="1"/>
-    <row r="966" ht="12.0" customHeight="1"/>
-    <row r="967" ht="12.0" customHeight="1"/>
-    <row r="968" ht="12.0" customHeight="1"/>
-    <row r="969" ht="12.0" customHeight="1"/>
-    <row r="970" ht="12.0" customHeight="1"/>
-    <row r="971" ht="12.0" customHeight="1"/>
-    <row r="972" ht="12.0" customHeight="1"/>
-    <row r="973" ht="12.0" customHeight="1"/>
-    <row r="974" ht="12.0" customHeight="1"/>
-    <row r="975" ht="12.0" customHeight="1"/>
-    <row r="976" ht="12.0" customHeight="1"/>
-    <row r="977" ht="12.0" customHeight="1"/>
-    <row r="978" ht="12.0" customHeight="1"/>
-    <row r="979" ht="12.0" customHeight="1"/>
-    <row r="980" ht="12.0" customHeight="1"/>
-    <row r="981" ht="12.0" customHeight="1"/>
-    <row r="982" ht="12.0" customHeight="1"/>
-    <row r="983" ht="12.0" customHeight="1"/>
-    <row r="984" ht="12.0" customHeight="1"/>
-    <row r="985" ht="12.0" customHeight="1"/>
-    <row r="986" ht="12.0" customHeight="1"/>
-    <row r="987" ht="12.0" customHeight="1"/>
-    <row r="988" ht="12.0" customHeight="1"/>
-    <row r="989" ht="12.0" customHeight="1"/>
-    <row r="990" ht="12.0" customHeight="1"/>
-    <row r="991" ht="12.0" customHeight="1"/>
-    <row r="992" ht="12.0" customHeight="1"/>
-    <row r="993" ht="12.0" customHeight="1"/>
-    <row r="994" ht="12.0" customHeight="1"/>
-    <row r="995" ht="12.0" customHeight="1"/>
-    <row r="996" ht="12.0" customHeight="1"/>
-    <row r="997" ht="12.0" customHeight="1"/>
-    <row r="998" ht="12.0" customHeight="1"/>
-    <row r="999" ht="12.0" customHeight="1"/>
-    <row r="1000" ht="12.0" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink r:id="rId2" ref="E12"/>
-  </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -13363,7 +11718,7 @@
       <c r="X7" s="56"/>
       <c r="Y7" s="56"/>
     </row>
-    <row r="8" ht="26.25" customHeight="1">
+    <row r="8" ht="128.25" customHeight="1">
       <c r="A8" s="57" t="s">
         <v>132</v>
       </c>
@@ -14549,7 +12904,7 @@
     <col customWidth="1" min="6" max="6" width="13.43"/>
     <col customWidth="1" min="7" max="7" width="7.29"/>
     <col customWidth="1" min="8" max="8" width="12.57"/>
-    <col customWidth="1" min="9" max="9" width="15.57"/>
+    <col customWidth="1" min="9" max="9" width="21.86"/>
     <col customWidth="1" min="10" max="10" width="17.43"/>
   </cols>
   <sheetData>
@@ -15844,1341 +14199,6 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="12.57"/>
-    <col customWidth="1" min="2" max="2" width="9.0"/>
-    <col customWidth="1" min="3" max="3" width="14.43"/>
-    <col customWidth="1" min="4" max="4" width="17.57"/>
-    <col customWidth="1" min="5" max="5" width="35.43"/>
-    <col customWidth="1" min="6" max="6" width="13.43"/>
-    <col customWidth="1" min="7" max="7" width="7.29"/>
-    <col customWidth="1" min="8" max="8" width="8.71"/>
-    <col customWidth="1" min="9" max="9" width="39.14"/>
-    <col customWidth="1" min="10" max="10" width="17.43"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="66" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" ht="48.0" customHeight="1">
-      <c r="A2" s="76" t="s">
-        <v>189</v>
-      </c>
-      <c r="B2" s="77" t="s">
-        <v>190</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="77" t="s">
-        <v>158</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="29">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="78" t="s">
-        <v>191</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="73">
-        <v>1.0</v>
-      </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="79" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>163</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="G6" s="73">
-        <v>1.0</v>
-      </c>
-      <c r="H6" s="74"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="67" t="s">
-        <v>204</v>
-      </c>
-      <c r="B7" s="67" t="s">
-        <v>205</v>
-      </c>
-      <c r="C7" s="67"/>
-      <c r="D7" s="67" t="s">
-        <v>206</v>
-      </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="69">
-        <v>1.0</v>
-      </c>
-      <c r="H7" s="70" t="s">
-        <v>161</v>
-      </c>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>180</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="G8" s="73">
-        <v>1.0</v>
-      </c>
-      <c r="H8" s="74"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="37" t="s">
-        <v>211</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>212</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="G9" s="74">
-        <v>1.0</v>
-      </c>
-      <c r="H9" s="80" t="s">
-        <v>215</v>
-      </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="15" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="37" t="s">
-        <v>217</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="73">
-        <v>1.0</v>
-      </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="15" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-  </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="4.0" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B6" sqref="B6" pane="bottomLeft"/>
@@ -17216,14 +14236,14 @@
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" s="29" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="30" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="29">
@@ -17232,31 +14252,31 @@
     </row>
     <row r="3" ht="12.0" customHeight="1"/>
     <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="82" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" s="81" t="s">
+      <c r="B4" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="81" t="s">
+      <c r="G4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="81" t="s">
+      <c r="H4" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="84" t="s">
+      <c r="I4" s="79" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="34" t="s">
@@ -17265,46 +14285,46 @@
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" s="85"/>
+        <v>193</v>
+      </c>
+      <c r="B5" s="80"/>
       <c r="C5" s="15" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>228</v>
-      </c>
-      <c r="E5" s="86" t="s">
-        <v>229</v>
-      </c>
-      <c r="F5" s="87" t="s">
-        <v>230</v>
+        <v>195</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="82" t="s">
+        <v>197</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="23" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B6" s="85"/>
+        <v>200</v>
+      </c>
+      <c r="B6" s="80"/>
       <c r="C6" s="15" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="E6" s="86" t="s">
-        <v>236</v>
+        <v>202</v>
+      </c>
+      <c r="E6" s="81" t="s">
+        <v>203</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="G6" s="15">
         <v>1.0</v>
@@ -17312,22 +14332,22 @@
       <c r="H6" s="19"/>
       <c r="I6" s="15"/>
       <c r="J6" s="23" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="B7" s="88"/>
+        <v>206</v>
+      </c>
+      <c r="B7" s="83"/>
       <c r="C7" s="15" t="s">
-        <v>240</v>
+        <v>207</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="E7" s="86" t="s">
-        <v>242</v>
+        <v>208</v>
+      </c>
+      <c r="E7" s="81" t="s">
+        <v>209</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15">
@@ -17336,381 +14356,381 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="23" t="s">
-        <v>243</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="B8" s="85"/>
+        <v>211</v>
+      </c>
+      <c r="B8" s="80"/>
       <c r="C8" s="15" t="s">
-        <v>245</v>
+        <v>212</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="E8" s="86" t="s">
-        <v>247</v>
+        <v>213</v>
+      </c>
+      <c r="E8" s="81" t="s">
+        <v>214</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15" t="s">
-        <v>248</v>
+        <v>215</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="23" t="s">
-        <v>249</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="B9" s="88" t="s">
-        <v>251</v>
+        <v>217</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>218</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>252</v>
+        <v>219</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="E9" s="86" t="s">
-        <v>254</v>
-      </c>
-      <c r="F9" s="87" t="s">
-        <v>255</v>
+        <v>220</v>
+      </c>
+      <c r="E9" s="81" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" s="82" t="s">
+        <v>222</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="23" t="s">
-        <v>256</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B10" s="88"/>
+        <v>224</v>
+      </c>
+      <c r="B10" s="83"/>
       <c r="C10" s="15" t="s">
-        <v>258</v>
+        <v>225</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="E10" s="86" t="s">
-        <v>260</v>
-      </c>
-      <c r="F10" s="89"/>
+        <v>226</v>
+      </c>
+      <c r="E10" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="84"/>
       <c r="G10" s="15"/>
       <c r="H10" s="57" t="s">
-        <v>261</v>
+        <v>228</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="23" t="s">
-        <v>262</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" ht="57.0" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>263</v>
-      </c>
-      <c r="B11" s="88"/>
+        <v>230</v>
+      </c>
+      <c r="B11" s="83"/>
       <c r="C11" s="15" t="s">
-        <v>264</v>
+        <v>231</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="E11" s="86" t="s">
-        <v>266</v>
+        <v>232</v>
+      </c>
+      <c r="E11" s="81" t="s">
+        <v>233</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="G11" s="15"/>
-      <c r="H11" s="90"/>
+      <c r="H11" s="85"/>
       <c r="I11" s="19"/>
       <c r="J11" s="23" t="s">
-        <v>268</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" ht="12.0" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>269</v>
-      </c>
-      <c r="B12" s="85" t="s">
-        <v>270</v>
+        <v>236</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>237</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="E12" s="86" t="s">
-        <v>273</v>
+        <v>239</v>
+      </c>
+      <c r="E12" s="81" t="s">
+        <v>240</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="57"/>
       <c r="I12" s="15"/>
       <c r="J12" s="23" t="s">
-        <v>274</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" ht="12.0" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>275</v>
-      </c>
-      <c r="B13" s="91"/>
+        <v>242</v>
+      </c>
+      <c r="B13" s="86"/>
       <c r="C13" s="15" t="s">
-        <v>276</v>
+        <v>243</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="E13" s="86" t="s">
-        <v>278</v>
+        <v>244</v>
+      </c>
+      <c r="E13" s="81" t="s">
+        <v>245</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="57" t="s">
-        <v>279</v>
+        <v>246</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="23" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="B14" s="88" t="s">
-        <v>282</v>
+        <v>248</v>
+      </c>
+      <c r="B14" s="83" t="s">
+        <v>249</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>283</v>
+        <v>250</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="E14" s="86" t="s">
-        <v>285</v>
+        <v>251</v>
+      </c>
+      <c r="E14" s="81" t="s">
+        <v>252</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="57"/>
       <c r="I14" s="15"/>
       <c r="J14" s="23" t="s">
-        <v>286</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>287</v>
-      </c>
-      <c r="B15" s="88" t="s">
-        <v>288</v>
+        <v>254</v>
+      </c>
+      <c r="B15" s="83" t="s">
+        <v>255</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>290</v>
-      </c>
-      <c r="E15" s="86" t="s">
-        <v>291</v>
+        <v>257</v>
+      </c>
+      <c r="E15" s="81" t="s">
+        <v>258</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="23" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" ht="12.0" customHeight="1">
       <c r="A16" s="71" t="s">
-        <v>294</v>
-      </c>
-      <c r="B16" s="88"/>
+        <v>261</v>
+      </c>
+      <c r="B16" s="83"/>
       <c r="C16" s="71"/>
       <c r="D16" s="71" t="s">
-        <v>295</v>
-      </c>
-      <c r="E16" s="92"/>
+        <v>262</v>
+      </c>
+      <c r="E16" s="87"/>
       <c r="F16" s="71"/>
       <c r="G16" s="71">
         <v>1.0</v>
       </c>
-      <c r="H16" s="93" t="s">
-        <v>296</v>
+      <c r="H16" s="88" t="s">
+        <v>263</v>
       </c>
       <c r="I16" s="21"/>
       <c r="J16" s="72" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="B17" s="88" t="s">
-        <v>299</v>
-      </c>
-      <c r="C17" s="79" t="s">
-        <v>300</v>
-      </c>
-      <c r="D17" s="79" t="s">
-        <v>301</v>
-      </c>
-      <c r="E17" s="94" t="s">
-        <v>302</v>
-      </c>
-      <c r="F17" s="95" t="s">
-        <v>303</v>
-      </c>
-      <c r="G17" s="79"/>
-      <c r="H17" s="96"/>
+        <v>265</v>
+      </c>
+      <c r="B17" s="83" t="s">
+        <v>266</v>
+      </c>
+      <c r="C17" s="89" t="s">
+        <v>267</v>
+      </c>
+      <c r="D17" s="89" t="s">
+        <v>268</v>
+      </c>
+      <c r="E17" s="90" t="s">
+        <v>269</v>
+      </c>
+      <c r="F17" s="91" t="s">
+        <v>270</v>
+      </c>
+      <c r="G17" s="89"/>
+      <c r="H17" s="92"/>
       <c r="I17" s="15"/>
       <c r="J17" s="23" t="s">
-        <v>304</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="B18" s="88" t="s">
-        <v>306</v>
-      </c>
-      <c r="C18" s="79" t="s">
-        <v>307</v>
-      </c>
-      <c r="D18" s="79" t="s">
-        <v>308</v>
-      </c>
-      <c r="E18" s="94" t="s">
-        <v>309</v>
-      </c>
-      <c r="F18" s="95" t="s">
-        <v>303</v>
-      </c>
-      <c r="G18" s="79"/>
-      <c r="H18" s="96"/>
+        <v>272</v>
+      </c>
+      <c r="B18" s="83" t="s">
+        <v>273</v>
+      </c>
+      <c r="C18" s="89" t="s">
+        <v>274</v>
+      </c>
+      <c r="D18" s="89" t="s">
+        <v>275</v>
+      </c>
+      <c r="E18" s="90" t="s">
+        <v>276</v>
+      </c>
+      <c r="F18" s="91" t="s">
+        <v>270</v>
+      </c>
+      <c r="G18" s="89"/>
+      <c r="H18" s="92"/>
       <c r="I18" s="15"/>
       <c r="J18" s="23" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" ht="12.0" customHeight="1">
       <c r="A19" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="B19" s="88" t="s">
-        <v>312</v>
+        <v>278</v>
+      </c>
+      <c r="B19" s="83" t="s">
+        <v>279</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="E19" s="86" t="s">
-        <v>315</v>
-      </c>
-      <c r="F19" s="97" t="s">
-        <v>303</v>
+        <v>281</v>
+      </c>
+      <c r="E19" s="81" t="s">
+        <v>282</v>
+      </c>
+      <c r="F19" s="93" t="s">
+        <v>270</v>
       </c>
       <c r="G19" s="15"/>
-      <c r="H19" s="90"/>
+      <c r="H19" s="85"/>
       <c r="I19" s="15"/>
       <c r="J19" s="23" t="s">
-        <v>316</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" ht="12.0" customHeight="1">
       <c r="A20" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="B20" s="88" t="s">
-        <v>318</v>
+        <v>284</v>
+      </c>
+      <c r="B20" s="83" t="s">
+        <v>285</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>319</v>
+        <v>286</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="E20" s="86" t="s">
-        <v>321</v>
-      </c>
-      <c r="F20" s="97" t="s">
-        <v>322</v>
+        <v>287</v>
+      </c>
+      <c r="E20" s="81" t="s">
+        <v>288</v>
+      </c>
+      <c r="F20" s="93" t="s">
+        <v>289</v>
       </c>
       <c r="G20" s="15"/>
-      <c r="H20" s="90"/>
+      <c r="H20" s="85"/>
       <c r="I20" s="15"/>
       <c r="J20" s="23" t="s">
-        <v>323</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" ht="12.0" customHeight="1">
       <c r="A21" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="B21" s="88" t="s">
-        <v>325</v>
+        <v>291</v>
+      </c>
+      <c r="B21" s="83" t="s">
+        <v>292</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>326</v>
+        <v>293</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="E21" s="86" t="s">
-        <v>328</v>
-      </c>
-      <c r="F21" s="97" t="s">
-        <v>303</v>
+        <v>294</v>
+      </c>
+      <c r="E21" s="81" t="s">
+        <v>295</v>
+      </c>
+      <c r="F21" s="93" t="s">
+        <v>270</v>
       </c>
       <c r="G21" s="15"/>
-      <c r="H21" s="90"/>
+      <c r="H21" s="85"/>
       <c r="I21" s="21"/>
       <c r="J21" s="23" t="s">
-        <v>329</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" ht="12.0" customHeight="1">
       <c r="A22" s="71" t="s">
-        <v>330</v>
-      </c>
-      <c r="B22" s="98"/>
+        <v>297</v>
+      </c>
+      <c r="B22" s="94"/>
       <c r="C22" s="71"/>
       <c r="D22" s="71" t="s">
-        <v>331</v>
-      </c>
-      <c r="E22" s="92"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="100">
+        <v>298</v>
+      </c>
+      <c r="E22" s="87"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="96">
         <v>1.0</v>
       </c>
-      <c r="H22" s="93" t="s">
-        <v>332</v>
+      <c r="H22" s="88" t="s">
+        <v>299</v>
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="72" t="s">
-        <v>333</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" ht="12.0" customHeight="1">
@@ -18756,7 +15776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr/>
@@ -18797,15 +15817,15 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="76" t="s">
-        <v>334</v>
-      </c>
-      <c r="B2" s="77" t="s">
-        <v>335</v>
+      <c r="A2" s="97" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="98" t="s">
+        <v>302</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="77" t="s">
-        <v>336</v>
+      <c r="D2" s="98" t="s">
+        <v>303</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="29">
@@ -18814,29 +15834,29 @@
     </row>
     <row r="3" ht="14.25" customHeight="1"/>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="81" t="s">
-        <v>337</v>
+      <c r="G4" s="76" t="s">
+        <v>304</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
       <c r="I4" s="34" t="s">
         <v>16</v>
@@ -18847,138 +15867,138 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>339</v>
+        <v>306</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>340</v>
+        <v>307</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>341</v>
+        <v>308</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>342</v>
+        <v>309</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="86"/>
+      <c r="G5" s="81"/>
       <c r="H5" s="57"/>
       <c r="I5" s="15"/>
       <c r="J5" s="23" t="s">
-        <v>343</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>344</v>
+        <v>311</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>345</v>
+        <v>312</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>346</v>
+        <v>313</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="86" t="s">
-        <v>348</v>
+      <c r="G6" s="81" t="s">
+        <v>315</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="23" t="s">
-        <v>349</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>350</v>
+        <v>317</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>351</v>
+        <v>318</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>353</v>
+        <v>320</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="86" t="s">
-        <v>348</v>
+      <c r="G7" s="81" t="s">
+        <v>315</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="23" t="s">
-        <v>354</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>355</v>
+        <v>322</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>356</v>
+        <v>323</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>358</v>
+        <v>325</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15">
         <v>1.0</v>
       </c>
-      <c r="G8" s="86"/>
+      <c r="G8" s="81"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="23" t="s">
-        <v>359</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>360</v>
+        <v>327</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>361</v>
+        <v>328</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>362</v>
+        <v>329</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>363</v>
-      </c>
-      <c r="E9" s="101" t="s">
-        <v>364</v>
+        <v>330</v>
+      </c>
+      <c r="E9" s="99" t="s">
+        <v>331</v>
       </c>
       <c r="F9" s="15">
         <v>1.0</v>
       </c>
-      <c r="G9" s="86" t="s">
-        <v>365</v>
+      <c r="G9" s="81" t="s">
+        <v>332</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="21"/>
       <c r="J9" s="23" t="s">
-        <v>366</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>367</v>
+        <v>334</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>368</v>
+        <v>335</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>369</v>
+        <v>336</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>370</v>
+        <v>337</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15">
@@ -18988,7 +16008,7 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="23" t="s">
-        <v>371</v>
+        <v>338</v>
       </c>
       <c r="K10" s="65"/>
       <c r="L10" s="65"/>
@@ -20012,7 +17032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr/>
@@ -20053,14 +17073,14 @@
     </row>
     <row r="2" ht="82.5" customHeight="1">
       <c r="A2" s="29" t="s">
-        <v>372</v>
+        <v>339</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>373</v>
+        <v>340</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="30" t="s">
-        <v>374</v>
+        <v>341</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="29">
@@ -20068,25 +17088,25 @@
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="J3" s="102"/>
+      <c r="J3" s="100"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="76" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="34" t="s">
@@ -20095,93 +17115,93 @@
       <c r="H4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="81" t="s">
-        <v>337</v>
+      <c r="I4" s="76" t="s">
+        <v>304</v>
       </c>
       <c r="J4" s="49" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>375</v>
+        <v>342</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="C5" s="57" t="s">
-        <v>377</v>
+        <v>344</v>
       </c>
       <c r="D5" s="57" t="s">
-        <v>378</v>
-      </c>
-      <c r="E5" s="90"/>
+        <v>345</v>
+      </c>
+      <c r="E5" s="85"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="23" t="s">
-        <v>379</v>
-      </c>
-      <c r="I5" s="103"/>
+        <v>346</v>
+      </c>
+      <c r="I5" s="101"/>
       <c r="J5" s="57"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>380</v>
+        <v>347</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>381</v>
+        <v>348</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>383</v>
+        <v>350</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>384</v>
+        <v>351</v>
       </c>
       <c r="F6" s="15">
         <v>1.0</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="23" t="s">
-        <v>385</v>
-      </c>
-      <c r="I6" s="86"/>
+        <v>352</v>
+      </c>
+      <c r="I6" s="81"/>
       <c r="J6" s="15"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="104" t="s">
-        <v>386</v>
-      </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="104" t="s">
-        <v>387</v>
-      </c>
-      <c r="D7" s="104"/>
-      <c r="E7" s="104"/>
-      <c r="F7" s="104"/>
-      <c r="G7" s="104"/>
+      <c r="A7" s="102" t="s">
+        <v>353</v>
+      </c>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102" t="s">
+        <v>354</v>
+      </c>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
       <c r="H7" s="72" t="s">
-        <v>388</v>
-      </c>
-      <c r="I7" s="105" t="s">
-        <v>389</v>
-      </c>
-      <c r="J7" s="106"/>
+        <v>355</v>
+      </c>
+      <c r="I7" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="J7" s="104"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>390</v>
+        <v>357</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>391</v>
+        <v>358</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>392</v>
+        <v>359</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>393</v>
+        <v>360</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15">
@@ -20189,45 +17209,45 @@
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="23" t="s">
-        <v>394</v>
-      </c>
-      <c r="I8" s="86"/>
-      <c r="J8" s="107"/>
+        <v>361</v>
+      </c>
+      <c r="I8" s="81"/>
+      <c r="J8" s="105"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>395</v>
+        <v>362</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>396</v>
+        <v>363</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>397</v>
+        <v>364</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>398</v>
+        <v>365</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="23" t="s">
-        <v>399</v>
-      </c>
-      <c r="I9" s="86"/>
-      <c r="J9" s="107"/>
+        <v>366</v>
+      </c>
+      <c r="I9" s="81"/>
+      <c r="J9" s="105"/>
     </row>
     <row r="10" ht="115.5" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>400</v>
+        <v>367</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>401</v>
+        <v>368</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>402</v>
+        <v>369</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>403</v>
+        <v>370</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15">
@@ -20235,47 +17255,47 @@
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="23" t="s">
-        <v>404</v>
-      </c>
-      <c r="I10" s="86" t="s">
-        <v>405</v>
-      </c>
-      <c r="J10" s="107"/>
+        <v>371</v>
+      </c>
+      <c r="I10" s="81" t="s">
+        <v>372</v>
+      </c>
+      <c r="J10" s="105"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>408</v>
+        <v>375</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>409</v>
+        <v>376</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="23" t="s">
-        <v>410</v>
-      </c>
-      <c r="I11" s="86"/>
-      <c r="J11" s="107"/>
+        <v>377</v>
+      </c>
+      <c r="I11" s="81"/>
+      <c r="J11" s="105"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>411</v>
+        <v>378</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>412</v>
+        <v>379</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>413</v>
+        <v>380</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>414</v>
+        <v>381</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15">
@@ -20283,47 +17303,47 @@
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="23" t="s">
-        <v>415</v>
-      </c>
-      <c r="I12" s="86" t="s">
-        <v>416</v>
-      </c>
-      <c r="J12" s="107"/>
+        <v>382</v>
+      </c>
+      <c r="I12" s="81" t="s">
+        <v>383</v>
+      </c>
+      <c r="J12" s="105"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>417</v>
+        <v>384</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>418</v>
+        <v>385</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>419</v>
+        <v>386</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>420</v>
+        <v>387</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="23" t="s">
-        <v>421</v>
-      </c>
-      <c r="I13" s="86"/>
-      <c r="J13" s="107"/>
+        <v>388</v>
+      </c>
+      <c r="I13" s="81"/>
+      <c r="J13" s="105"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>422</v>
+        <v>389</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>423</v>
+        <v>390</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>424</v>
+        <v>391</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>425</v>
+        <v>392</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15">
@@ -20331,32 +17351,32 @@
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="23" t="s">
-        <v>426</v>
-      </c>
-      <c r="I14" s="86"/>
-      <c r="J14" s="107"/>
+        <v>393</v>
+      </c>
+      <c r="I14" s="81"/>
+      <c r="J14" s="105"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>427</v>
+        <v>394</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>428</v>
+        <v>395</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>429</v>
+        <v>396</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>430</v>
+        <v>397</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="23" t="s">
-        <v>431</v>
-      </c>
-      <c r="I15" s="86"/>
-      <c r="J15" s="107"/>
+        <v>398</v>
+      </c>
+      <c r="I15" s="81"/>
+      <c r="J15" s="105"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="C16" s="26"/>
@@ -21369,7 +18389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr/>
@@ -21397,7 +18417,7 @@
       <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="106" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
@@ -21411,14 +18431,14 @@
     </row>
     <row r="2" ht="75.0" customHeight="1">
       <c r="A2" s="29" t="s">
-        <v>432</v>
+        <v>399</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>433</v>
+        <v>400</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="8" t="s">
-        <v>434</v>
+        <v>401</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="29">
@@ -21427,25 +18447,25 @@
     </row>
     <row r="3" ht="13.5" customHeight="1"/>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="109" t="s">
-        <v>225</v>
-      </c>
-      <c r="C4" s="81" t="s">
+      <c r="B4" s="107" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="81" t="s">
+      <c r="F4" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="81" t="s">
+      <c r="G4" s="76" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="34" t="s">
@@ -21454,78 +18474,78 @@
       <c r="I4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="81" t="s">
+      <c r="J4" s="76" t="s">
         <v>17</v>
       </c>
       <c r="K4" s="49" t="s">
-        <v>338</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>435</v>
-      </c>
-      <c r="B5" s="110"/>
+        <v>402</v>
+      </c>
+      <c r="B5" s="108"/>
       <c r="C5" s="15" t="s">
-        <v>436</v>
+        <v>403</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>437</v>
+        <v>404</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>438</v>
+        <v>405</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="23" t="s">
-        <v>439</v>
+        <v>406</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>440</v>
+        <v>407</v>
       </c>
       <c r="K5" s="15"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="B6" s="110"/>
+        <v>408</v>
+      </c>
+      <c r="B6" s="108"/>
       <c r="C6" s="15" t="s">
-        <v>442</v>
+        <v>409</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>443</v>
+        <v>410</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>444</v>
+        <v>411</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="23" t="s">
-        <v>445</v>
+        <v>412</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>446</v>
+        <v>413</v>
       </c>
       <c r="K6" s="15"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>447</v>
-      </c>
-      <c r="B7" s="110" t="s">
-        <v>448</v>
+        <v>414</v>
+      </c>
+      <c r="B7" s="108" t="s">
+        <v>415</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>449</v>
+        <v>416</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>450</v>
+        <v>417</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>451</v>
+        <v>418</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15">
@@ -21533,29 +18553,29 @@
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="23" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>453</v>
+        <v>420</v>
       </c>
       <c r="K7" s="15"/>
-      <c r="L7" s="111" t="s">
-        <v>454</v>
+      <c r="L7" s="109" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>455</v>
-      </c>
-      <c r="B8" s="110"/>
+        <v>422</v>
+      </c>
+      <c r="B8" s="108"/>
       <c r="C8" s="15" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>457</v>
+        <v>424</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>458</v>
+        <v>425</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15">
@@ -21563,26 +18583,26 @@
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="23" t="s">
-        <v>459</v>
+        <v>426</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>460</v>
+        <v>427</v>
       </c>
       <c r="K8" s="15"/>
     </row>
     <row r="9" ht="199.5" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>461</v>
-      </c>
-      <c r="B9" s="110"/>
+        <v>428</v>
+      </c>
+      <c r="B9" s="108"/>
       <c r="C9" s="15" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>463</v>
+        <v>430</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>464</v>
+        <v>431</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15">
@@ -21590,78 +18610,78 @@
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="23" t="s">
-        <v>465</v>
+        <v>432</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>466</v>
-      </c>
-      <c r="B10" s="110" t="s">
-        <v>467</v>
+        <v>433</v>
+      </c>
+      <c r="B10" s="108" t="s">
+        <v>434</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>468</v>
+        <v>435</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>469</v>
+        <v>436</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>470</v>
-      </c>
-      <c r="F10" s="90"/>
+        <v>437</v>
+      </c>
+      <c r="F10" s="85"/>
       <c r="G10" s="15">
         <v>1.0</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="23" t="s">
-        <v>471</v>
+        <v>438</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>472</v>
-      </c>
-      <c r="B11" s="110"/>
+        <v>439</v>
+      </c>
+      <c r="B11" s="108"/>
       <c r="C11" s="15" t="s">
-        <v>473</v>
+        <v>440</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>474</v>
+        <v>441</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>475</v>
+        <v>442</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="23" t="s">
-        <v>476</v>
+        <v>443</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>477</v>
+        <v>444</v>
       </c>
       <c r="K11" s="15"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="B12" s="110" t="s">
-        <v>479</v>
+        <v>445</v>
+      </c>
+      <c r="B12" s="108" t="s">
+        <v>446</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>480</v>
+        <v>447</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>481</v>
+        <v>448</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>482</v>
+        <v>449</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15">
@@ -21669,149 +18689,149 @@
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="23" t="s">
-        <v>483</v>
+        <v>450</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>484</v>
-      </c>
-      <c r="B13" s="110"/>
+        <v>451</v>
+      </c>
+      <c r="B13" s="108"/>
       <c r="C13" s="15" t="s">
-        <v>485</v>
+        <v>452</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>486</v>
+        <v>453</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>487</v>
+        <v>454</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="23" t="s">
-        <v>488</v>
+        <v>455</v>
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="B14" s="110"/>
+        <v>456</v>
+      </c>
+      <c r="B14" s="108"/>
       <c r="C14" s="15" t="s">
-        <v>490</v>
+        <v>457</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>491</v>
+        <v>458</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>492</v>
+        <v>459</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23" t="s">
-        <v>493</v>
+        <v>460</v>
       </c>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>494</v>
-      </c>
-      <c r="B15" s="110"/>
+        <v>461</v>
+      </c>
+      <c r="B15" s="108"/>
       <c r="C15" s="15" t="s">
-        <v>495</v>
+        <v>462</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>496</v>
+        <v>463</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>497</v>
-      </c>
-      <c r="F15" s="87" t="s">
-        <v>498</v>
+        <v>464</v>
+      </c>
+      <c r="F15" s="82" t="s">
+        <v>465</v>
       </c>
       <c r="G15" s="15">
         <v>1.0</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="23" t="s">
-        <v>499</v>
+        <v>466</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>500</v>
+        <v>467</v>
       </c>
       <c r="K15" s="15"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="B16" s="110"/>
+        <v>468</v>
+      </c>
+      <c r="B16" s="108"/>
       <c r="C16" s="15" t="s">
-        <v>502</v>
+        <v>469</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>437</v>
+        <v>404</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="23" t="s">
-        <v>504</v>
+        <v>471</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>505</v>
+        <v>472</v>
       </c>
       <c r="K16" s="15"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>506</v>
-      </c>
-      <c r="B17" s="110"/>
+        <v>473</v>
+      </c>
+      <c r="B17" s="108"/>
       <c r="C17" s="15" t="s">
-        <v>507</v>
+        <v>474</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>508</v>
+        <v>475</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>509</v>
+        <v>476</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="23" t="s">
-        <v>510</v>
+        <v>477</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>511</v>
+        <v>478</v>
       </c>
       <c r="K17" s="15"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>512</v>
-      </c>
-      <c r="B18" s="110"/>
+        <v>479</v>
+      </c>
+      <c r="B18" s="108"/>
       <c r="C18" s="15" t="s">
-        <v>513</v>
+        <v>480</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>514</v>
+        <v>481</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>515</v>
+        <v>482</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15">
@@ -21819,7 +18839,7 @@
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="23" t="s">
-        <v>516</v>
+        <v>483</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
@@ -22820,4 +19840,1466 @@
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="13.57"/>
+    <col customWidth="1" min="2" max="2" width="11.43"/>
+    <col customWidth="1" min="3" max="3" width="12.29"/>
+    <col customWidth="1" min="4" max="4" width="19.43"/>
+    <col customWidth="1" min="5" max="5" width="13.29"/>
+    <col customWidth="1" min="6" max="6" width="52.86"/>
+    <col customWidth="1" min="7" max="7" width="11.29"/>
+    <col customWidth="1" min="8" max="8" width="20.57"/>
+    <col customWidth="1" min="9" max="9" width="11.29"/>
+    <col customWidth="1" min="10" max="10" width="45.14"/>
+    <col customWidth="1" hidden="1" min="11" max="11" width="8.71"/>
+    <col customWidth="1" min="12" max="12" width="8.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="12.0" customHeight="1">
+      <c r="A1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="46"/>
+      <c r="F1" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="12.0" customHeight="1">
+      <c r="A2" s="29" t="s">
+        <v>484</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>485</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="30" t="s">
+        <v>486</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="G2" s="110"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+    </row>
+    <row r="3" ht="12.0" customHeight="1"/>
+    <row r="4" ht="12.0" customHeight="1">
+      <c r="A4" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="107" t="s">
+        <v>487</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" ht="12.0" customHeight="1">
+      <c r="A5" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="B5" s="108"/>
+      <c r="C5" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" ht="12.0" customHeight="1">
+      <c r="A6" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="B6" s="108" t="s">
+        <v>494</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" ht="12.0" customHeight="1">
+      <c r="A7" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="B7" s="108"/>
+      <c r="C7" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="J7" s="85"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" ht="12.0" customHeight="1">
+      <c r="A8" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="B8" s="108"/>
+      <c r="C8" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" ht="12.0" customHeight="1">
+      <c r="A9" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="B9" s="108" t="s">
+        <v>506</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" ht="12.0" customHeight="1">
+      <c r="A10" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="B10" s="108" t="s">
+        <v>510</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="F10" s="93" t="s">
+        <v>234</v>
+      </c>
+      <c r="G10" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" ht="12.0" customHeight="1">
+      <c r="A11" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="B11" s="108"/>
+      <c r="C11" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="F11" s="93" t="s">
+        <v>519</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" ht="49.5" customHeight="1">
+      <c r="A12" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="B12" s="108" t="s">
+        <v>522</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="E12" s="82" t="s">
+        <v>525</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="G12" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" ht="12.0" customHeight="1">
+      <c r="A13" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="B13" s="108" t="s">
+        <v>530</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" ht="12.0" customHeight="1">
+      <c r="A14" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="B14" s="108" t="s">
+        <v>536</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="G14" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="23" t="s">
+        <v>541</v>
+      </c>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" ht="12.0" customHeight="1">
+      <c r="A15" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="B15" s="108"/>
+      <c r="C15" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="23" t="s">
+        <v>546</v>
+      </c>
+      <c r="J15" s="85"/>
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" ht="12.0" customHeight="1">
+      <c r="A16" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="B16" s="108"/>
+      <c r="C16" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" ht="12.0" customHeight="1">
+      <c r="A17" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="B17" s="108"/>
+      <c r="C17" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="23" t="s">
+        <v>556</v>
+      </c>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" ht="12.0" customHeight="1">
+      <c r="A18" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="B18" s="108"/>
+      <c r="C18" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="G18" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="23" t="s">
+        <v>562</v>
+      </c>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" ht="12.0" customHeight="1"/>
+    <row r="20" ht="12.0" customHeight="1"/>
+    <row r="21" ht="12.0" customHeight="1"/>
+    <row r="22" ht="12.0" customHeight="1"/>
+    <row r="23" ht="12.0" customHeight="1"/>
+    <row r="24" ht="12.0" customHeight="1"/>
+    <row r="25" ht="12.0" customHeight="1"/>
+    <row r="26" ht="12.0" customHeight="1"/>
+    <row r="27" ht="12.0" customHeight="1"/>
+    <row r="28" ht="12.0" customHeight="1"/>
+    <row r="29" ht="12.0" customHeight="1"/>
+    <row r="30" ht="12.0" customHeight="1"/>
+    <row r="31" ht="12.0" customHeight="1"/>
+    <row r="32" ht="12.0" customHeight="1"/>
+    <row r="33" ht="12.0" customHeight="1"/>
+    <row r="34" ht="12.0" customHeight="1"/>
+    <row r="35" ht="12.0" customHeight="1"/>
+    <row r="36" ht="12.0" customHeight="1"/>
+    <row r="37" ht="12.0" customHeight="1"/>
+    <row r="38" ht="12.0" customHeight="1"/>
+    <row r="39" ht="12.0" customHeight="1"/>
+    <row r="40" ht="12.0" customHeight="1"/>
+    <row r="41" ht="12.0" customHeight="1"/>
+    <row r="42" ht="12.0" customHeight="1"/>
+    <row r="43" ht="12.0" customHeight="1"/>
+    <row r="44" ht="12.0" customHeight="1"/>
+    <row r="45" ht="12.0" customHeight="1"/>
+    <row r="46" ht="12.0" customHeight="1"/>
+    <row r="47" ht="12.0" customHeight="1"/>
+    <row r="48" ht="12.0" customHeight="1"/>
+    <row r="49" ht="12.0" customHeight="1"/>
+    <row r="50" ht="12.0" customHeight="1"/>
+    <row r="51" ht="12.0" customHeight="1"/>
+    <row r="52" ht="12.0" customHeight="1"/>
+    <row r="53" ht="12.0" customHeight="1"/>
+    <row r="54" ht="12.0" customHeight="1"/>
+    <row r="55" ht="12.0" customHeight="1"/>
+    <row r="56" ht="12.0" customHeight="1"/>
+    <row r="57" ht="12.0" customHeight="1"/>
+    <row r="58" ht="12.0" customHeight="1"/>
+    <row r="59" ht="12.0" customHeight="1"/>
+    <row r="60" ht="12.0" customHeight="1"/>
+    <row r="61" ht="12.0" customHeight="1"/>
+    <row r="62" ht="12.0" customHeight="1"/>
+    <row r="63" ht="12.0" customHeight="1"/>
+    <row r="64" ht="12.0" customHeight="1"/>
+    <row r="65" ht="12.0" customHeight="1"/>
+    <row r="66" ht="12.0" customHeight="1"/>
+    <row r="67" ht="12.0" customHeight="1"/>
+    <row r="68" ht="12.0" customHeight="1"/>
+    <row r="69" ht="12.0" customHeight="1"/>
+    <row r="70" ht="12.0" customHeight="1"/>
+    <row r="71" ht="12.0" customHeight="1"/>
+    <row r="72" ht="12.0" customHeight="1"/>
+    <row r="73" ht="12.0" customHeight="1"/>
+    <row r="74" ht="12.0" customHeight="1"/>
+    <row r="75" ht="12.0" customHeight="1"/>
+    <row r="76" ht="12.0" customHeight="1"/>
+    <row r="77" ht="12.0" customHeight="1"/>
+    <row r="78" ht="12.0" customHeight="1"/>
+    <row r="79" ht="12.0" customHeight="1"/>
+    <row r="80" ht="12.0" customHeight="1"/>
+    <row r="81" ht="12.0" customHeight="1"/>
+    <row r="82" ht="12.0" customHeight="1"/>
+    <row r="83" ht="12.0" customHeight="1"/>
+    <row r="84" ht="12.0" customHeight="1"/>
+    <row r="85" ht="12.0" customHeight="1"/>
+    <row r="86" ht="12.0" customHeight="1"/>
+    <row r="87" ht="12.0" customHeight="1"/>
+    <row r="88" ht="12.0" customHeight="1"/>
+    <row r="89" ht="12.0" customHeight="1"/>
+    <row r="90" ht="12.0" customHeight="1"/>
+    <row r="91" ht="12.0" customHeight="1"/>
+    <row r="92" ht="12.0" customHeight="1"/>
+    <row r="93" ht="12.0" customHeight="1"/>
+    <row r="94" ht="12.0" customHeight="1"/>
+    <row r="95" ht="12.0" customHeight="1"/>
+    <row r="96" ht="12.0" customHeight="1"/>
+    <row r="97" ht="12.0" customHeight="1"/>
+    <row r="98" ht="12.0" customHeight="1"/>
+    <row r="99" ht="12.0" customHeight="1"/>
+    <row r="100" ht="12.0" customHeight="1"/>
+    <row r="101" ht="12.0" customHeight="1"/>
+    <row r="102" ht="12.0" customHeight="1"/>
+    <row r="103" ht="12.0" customHeight="1"/>
+    <row r="104" ht="12.0" customHeight="1"/>
+    <row r="105" ht="12.0" customHeight="1"/>
+    <row r="106" ht="12.0" customHeight="1"/>
+    <row r="107" ht="12.0" customHeight="1"/>
+    <row r="108" ht="12.0" customHeight="1"/>
+    <row r="109" ht="12.0" customHeight="1"/>
+    <row r="110" ht="12.0" customHeight="1"/>
+    <row r="111" ht="12.0" customHeight="1"/>
+    <row r="112" ht="12.0" customHeight="1"/>
+    <row r="113" ht="12.0" customHeight="1"/>
+    <row r="114" ht="12.0" customHeight="1"/>
+    <row r="115" ht="12.0" customHeight="1"/>
+    <row r="116" ht="12.0" customHeight="1"/>
+    <row r="117" ht="12.0" customHeight="1"/>
+    <row r="118" ht="12.0" customHeight="1"/>
+    <row r="119" ht="12.0" customHeight="1"/>
+    <row r="120" ht="12.0" customHeight="1"/>
+    <row r="121" ht="12.0" customHeight="1"/>
+    <row r="122" ht="12.0" customHeight="1"/>
+    <row r="123" ht="12.0" customHeight="1"/>
+    <row r="124" ht="12.0" customHeight="1"/>
+    <row r="125" ht="12.0" customHeight="1"/>
+    <row r="126" ht="12.0" customHeight="1"/>
+    <row r="127" ht="12.0" customHeight="1"/>
+    <row r="128" ht="12.0" customHeight="1"/>
+    <row r="129" ht="12.0" customHeight="1"/>
+    <row r="130" ht="12.0" customHeight="1"/>
+    <row r="131" ht="12.0" customHeight="1"/>
+    <row r="132" ht="12.0" customHeight="1"/>
+    <row r="133" ht="12.0" customHeight="1"/>
+    <row r="134" ht="12.0" customHeight="1"/>
+    <row r="135" ht="12.0" customHeight="1"/>
+    <row r="136" ht="12.0" customHeight="1"/>
+    <row r="137" ht="12.0" customHeight="1"/>
+    <row r="138" ht="12.0" customHeight="1"/>
+    <row r="139" ht="12.0" customHeight="1"/>
+    <row r="140" ht="12.0" customHeight="1"/>
+    <row r="141" ht="12.0" customHeight="1"/>
+    <row r="142" ht="12.0" customHeight="1"/>
+    <row r="143" ht="12.0" customHeight="1"/>
+    <row r="144" ht="12.0" customHeight="1"/>
+    <row r="145" ht="12.0" customHeight="1"/>
+    <row r="146" ht="12.0" customHeight="1"/>
+    <row r="147" ht="12.0" customHeight="1"/>
+    <row r="148" ht="12.0" customHeight="1"/>
+    <row r="149" ht="12.0" customHeight="1"/>
+    <row r="150" ht="12.0" customHeight="1"/>
+    <row r="151" ht="12.0" customHeight="1"/>
+    <row r="152" ht="12.0" customHeight="1"/>
+    <row r="153" ht="12.0" customHeight="1"/>
+    <row r="154" ht="12.0" customHeight="1"/>
+    <row r="155" ht="12.0" customHeight="1"/>
+    <row r="156" ht="12.0" customHeight="1"/>
+    <row r="157" ht="12.0" customHeight="1"/>
+    <row r="158" ht="12.0" customHeight="1"/>
+    <row r="159" ht="12.0" customHeight="1"/>
+    <row r="160" ht="12.0" customHeight="1"/>
+    <row r="161" ht="12.0" customHeight="1"/>
+    <row r="162" ht="12.0" customHeight="1"/>
+    <row r="163" ht="12.0" customHeight="1"/>
+    <row r="164" ht="12.0" customHeight="1"/>
+    <row r="165" ht="12.0" customHeight="1"/>
+    <row r="166" ht="12.0" customHeight="1"/>
+    <row r="167" ht="12.0" customHeight="1"/>
+    <row r="168" ht="12.0" customHeight="1"/>
+    <row r="169" ht="12.0" customHeight="1"/>
+    <row r="170" ht="12.0" customHeight="1"/>
+    <row r="171" ht="12.0" customHeight="1"/>
+    <row r="172" ht="12.0" customHeight="1"/>
+    <row r="173" ht="12.0" customHeight="1"/>
+    <row r="174" ht="12.0" customHeight="1"/>
+    <row r="175" ht="12.0" customHeight="1"/>
+    <row r="176" ht="12.0" customHeight="1"/>
+    <row r="177" ht="12.0" customHeight="1"/>
+    <row r="178" ht="12.0" customHeight="1"/>
+    <row r="179" ht="12.0" customHeight="1"/>
+    <row r="180" ht="12.0" customHeight="1"/>
+    <row r="181" ht="12.0" customHeight="1"/>
+    <row r="182" ht="12.0" customHeight="1"/>
+    <row r="183" ht="12.0" customHeight="1"/>
+    <row r="184" ht="12.0" customHeight="1"/>
+    <row r="185" ht="12.0" customHeight="1"/>
+    <row r="186" ht="12.0" customHeight="1"/>
+    <row r="187" ht="12.0" customHeight="1"/>
+    <row r="188" ht="12.0" customHeight="1"/>
+    <row r="189" ht="12.0" customHeight="1"/>
+    <row r="190" ht="12.0" customHeight="1"/>
+    <row r="191" ht="12.0" customHeight="1"/>
+    <row r="192" ht="12.0" customHeight="1"/>
+    <row r="193" ht="12.0" customHeight="1"/>
+    <row r="194" ht="12.0" customHeight="1"/>
+    <row r="195" ht="12.0" customHeight="1"/>
+    <row r="196" ht="12.0" customHeight="1"/>
+    <row r="197" ht="12.0" customHeight="1"/>
+    <row r="198" ht="12.0" customHeight="1"/>
+    <row r="199" ht="12.0" customHeight="1"/>
+    <row r="200" ht="12.0" customHeight="1"/>
+    <row r="201" ht="12.0" customHeight="1"/>
+    <row r="202" ht="12.0" customHeight="1"/>
+    <row r="203" ht="12.0" customHeight="1"/>
+    <row r="204" ht="12.0" customHeight="1"/>
+    <row r="205" ht="12.0" customHeight="1"/>
+    <row r="206" ht="12.0" customHeight="1"/>
+    <row r="207" ht="12.0" customHeight="1"/>
+    <row r="208" ht="12.0" customHeight="1"/>
+    <row r="209" ht="12.0" customHeight="1"/>
+    <row r="210" ht="12.0" customHeight="1"/>
+    <row r="211" ht="12.0" customHeight="1"/>
+    <row r="212" ht="12.0" customHeight="1"/>
+    <row r="213" ht="12.0" customHeight="1"/>
+    <row r="214" ht="12.0" customHeight="1"/>
+    <row r="215" ht="12.0" customHeight="1"/>
+    <row r="216" ht="12.0" customHeight="1"/>
+    <row r="217" ht="12.0" customHeight="1"/>
+    <row r="218" ht="12.0" customHeight="1"/>
+    <row r="219" ht="12.0" customHeight="1"/>
+    <row r="220" ht="12.0" customHeight="1"/>
+    <row r="221" ht="12.0" customHeight="1"/>
+    <row r="222" ht="12.0" customHeight="1"/>
+    <row r="223" ht="12.0" customHeight="1"/>
+    <row r="224" ht="12.0" customHeight="1"/>
+    <row r="225" ht="12.0" customHeight="1"/>
+    <row r="226" ht="12.0" customHeight="1"/>
+    <row r="227" ht="12.0" customHeight="1"/>
+    <row r="228" ht="12.0" customHeight="1"/>
+    <row r="229" ht="12.0" customHeight="1"/>
+    <row r="230" ht="12.0" customHeight="1"/>
+    <row r="231" ht="12.0" customHeight="1"/>
+    <row r="232" ht="12.0" customHeight="1"/>
+    <row r="233" ht="12.0" customHeight="1"/>
+    <row r="234" ht="12.0" customHeight="1"/>
+    <row r="235" ht="12.0" customHeight="1"/>
+    <row r="236" ht="12.0" customHeight="1"/>
+    <row r="237" ht="12.0" customHeight="1"/>
+    <row r="238" ht="12.0" customHeight="1"/>
+    <row r="239" ht="12.0" customHeight="1"/>
+    <row r="240" ht="12.0" customHeight="1"/>
+    <row r="241" ht="12.0" customHeight="1"/>
+    <row r="242" ht="12.0" customHeight="1"/>
+    <row r="243" ht="12.0" customHeight="1"/>
+    <row r="244" ht="12.0" customHeight="1"/>
+    <row r="245" ht="12.0" customHeight="1"/>
+    <row r="246" ht="12.0" customHeight="1"/>
+    <row r="247" ht="12.0" customHeight="1"/>
+    <row r="248" ht="12.0" customHeight="1"/>
+    <row r="249" ht="12.0" customHeight="1"/>
+    <row r="250" ht="12.0" customHeight="1"/>
+    <row r="251" ht="12.0" customHeight="1"/>
+    <row r="252" ht="12.0" customHeight="1"/>
+    <row r="253" ht="12.0" customHeight="1"/>
+    <row r="254" ht="12.0" customHeight="1"/>
+    <row r="255" ht="12.0" customHeight="1"/>
+    <row r="256" ht="12.0" customHeight="1"/>
+    <row r="257" ht="12.0" customHeight="1"/>
+    <row r="258" ht="12.0" customHeight="1"/>
+    <row r="259" ht="12.0" customHeight="1"/>
+    <row r="260" ht="12.0" customHeight="1"/>
+    <row r="261" ht="12.0" customHeight="1"/>
+    <row r="262" ht="12.0" customHeight="1"/>
+    <row r="263" ht="12.0" customHeight="1"/>
+    <row r="264" ht="12.0" customHeight="1"/>
+    <row r="265" ht="12.0" customHeight="1"/>
+    <row r="266" ht="12.0" customHeight="1"/>
+    <row r="267" ht="12.0" customHeight="1"/>
+    <row r="268" ht="12.0" customHeight="1"/>
+    <row r="269" ht="12.0" customHeight="1"/>
+    <row r="270" ht="12.0" customHeight="1"/>
+    <row r="271" ht="12.0" customHeight="1"/>
+    <row r="272" ht="12.0" customHeight="1"/>
+    <row r="273" ht="12.0" customHeight="1"/>
+    <row r="274" ht="12.0" customHeight="1"/>
+    <row r="275" ht="12.0" customHeight="1"/>
+    <row r="276" ht="12.0" customHeight="1"/>
+    <row r="277" ht="12.0" customHeight="1"/>
+    <row r="278" ht="12.0" customHeight="1"/>
+    <row r="279" ht="12.0" customHeight="1"/>
+    <row r="280" ht="12.0" customHeight="1"/>
+    <row r="281" ht="12.0" customHeight="1"/>
+    <row r="282" ht="12.0" customHeight="1"/>
+    <row r="283" ht="12.0" customHeight="1"/>
+    <row r="284" ht="12.0" customHeight="1"/>
+    <row r="285" ht="12.0" customHeight="1"/>
+    <row r="286" ht="12.0" customHeight="1"/>
+    <row r="287" ht="12.0" customHeight="1"/>
+    <row r="288" ht="12.0" customHeight="1"/>
+    <row r="289" ht="12.0" customHeight="1"/>
+    <row r="290" ht="12.0" customHeight="1"/>
+    <row r="291" ht="12.0" customHeight="1"/>
+    <row r="292" ht="12.0" customHeight="1"/>
+    <row r="293" ht="12.0" customHeight="1"/>
+    <row r="294" ht="12.0" customHeight="1"/>
+    <row r="295" ht="12.0" customHeight="1"/>
+    <row r="296" ht="12.0" customHeight="1"/>
+    <row r="297" ht="12.0" customHeight="1"/>
+    <row r="298" ht="12.0" customHeight="1"/>
+    <row r="299" ht="12.0" customHeight="1"/>
+    <row r="300" ht="12.0" customHeight="1"/>
+    <row r="301" ht="12.0" customHeight="1"/>
+    <row r="302" ht="12.0" customHeight="1"/>
+    <row r="303" ht="12.0" customHeight="1"/>
+    <row r="304" ht="12.0" customHeight="1"/>
+    <row r="305" ht="12.0" customHeight="1"/>
+    <row r="306" ht="12.0" customHeight="1"/>
+    <row r="307" ht="12.0" customHeight="1"/>
+    <row r="308" ht="12.0" customHeight="1"/>
+    <row r="309" ht="12.0" customHeight="1"/>
+    <row r="310" ht="12.0" customHeight="1"/>
+    <row r="311" ht="12.0" customHeight="1"/>
+    <row r="312" ht="12.0" customHeight="1"/>
+    <row r="313" ht="12.0" customHeight="1"/>
+    <row r="314" ht="12.0" customHeight="1"/>
+    <row r="315" ht="12.0" customHeight="1"/>
+    <row r="316" ht="12.0" customHeight="1"/>
+    <row r="317" ht="12.0" customHeight="1"/>
+    <row r="318" ht="12.0" customHeight="1"/>
+    <row r="319" ht="12.0" customHeight="1"/>
+    <row r="320" ht="12.0" customHeight="1"/>
+    <row r="321" ht="12.0" customHeight="1"/>
+    <row r="322" ht="12.0" customHeight="1"/>
+    <row r="323" ht="12.0" customHeight="1"/>
+    <row r="324" ht="12.0" customHeight="1"/>
+    <row r="325" ht="12.0" customHeight="1"/>
+    <row r="326" ht="12.0" customHeight="1"/>
+    <row r="327" ht="12.0" customHeight="1"/>
+    <row r="328" ht="12.0" customHeight="1"/>
+    <row r="329" ht="12.0" customHeight="1"/>
+    <row r="330" ht="12.0" customHeight="1"/>
+    <row r="331" ht="12.0" customHeight="1"/>
+    <row r="332" ht="12.0" customHeight="1"/>
+    <row r="333" ht="12.0" customHeight="1"/>
+    <row r="334" ht="12.0" customHeight="1"/>
+    <row r="335" ht="12.0" customHeight="1"/>
+    <row r="336" ht="12.0" customHeight="1"/>
+    <row r="337" ht="12.0" customHeight="1"/>
+    <row r="338" ht="12.0" customHeight="1"/>
+    <row r="339" ht="12.0" customHeight="1"/>
+    <row r="340" ht="12.0" customHeight="1"/>
+    <row r="341" ht="12.0" customHeight="1"/>
+    <row r="342" ht="12.0" customHeight="1"/>
+    <row r="343" ht="12.0" customHeight="1"/>
+    <row r="344" ht="12.0" customHeight="1"/>
+    <row r="345" ht="12.0" customHeight="1"/>
+    <row r="346" ht="12.0" customHeight="1"/>
+    <row r="347" ht="12.0" customHeight="1"/>
+    <row r="348" ht="12.0" customHeight="1"/>
+    <row r="349" ht="12.0" customHeight="1"/>
+    <row r="350" ht="12.0" customHeight="1"/>
+    <row r="351" ht="12.0" customHeight="1"/>
+    <row r="352" ht="12.0" customHeight="1"/>
+    <row r="353" ht="12.0" customHeight="1"/>
+    <row r="354" ht="12.0" customHeight="1"/>
+    <row r="355" ht="12.0" customHeight="1"/>
+    <row r="356" ht="12.0" customHeight="1"/>
+    <row r="357" ht="12.0" customHeight="1"/>
+    <row r="358" ht="12.0" customHeight="1"/>
+    <row r="359" ht="12.0" customHeight="1"/>
+    <row r="360" ht="12.0" customHeight="1"/>
+    <row r="361" ht="12.0" customHeight="1"/>
+    <row r="362" ht="12.0" customHeight="1"/>
+    <row r="363" ht="12.0" customHeight="1"/>
+    <row r="364" ht="12.0" customHeight="1"/>
+    <row r="365" ht="12.0" customHeight="1"/>
+    <row r="366" ht="12.0" customHeight="1"/>
+    <row r="367" ht="12.0" customHeight="1"/>
+    <row r="368" ht="12.0" customHeight="1"/>
+    <row r="369" ht="12.0" customHeight="1"/>
+    <row r="370" ht="12.0" customHeight="1"/>
+    <row r="371" ht="12.0" customHeight="1"/>
+    <row r="372" ht="12.0" customHeight="1"/>
+    <row r="373" ht="12.0" customHeight="1"/>
+    <row r="374" ht="12.0" customHeight="1"/>
+    <row r="375" ht="12.0" customHeight="1"/>
+    <row r="376" ht="12.0" customHeight="1"/>
+    <row r="377" ht="12.0" customHeight="1"/>
+    <row r="378" ht="12.0" customHeight="1"/>
+    <row r="379" ht="12.0" customHeight="1"/>
+    <row r="380" ht="12.0" customHeight="1"/>
+    <row r="381" ht="12.0" customHeight="1"/>
+    <row r="382" ht="12.0" customHeight="1"/>
+    <row r="383" ht="12.0" customHeight="1"/>
+    <row r="384" ht="12.0" customHeight="1"/>
+    <row r="385" ht="12.0" customHeight="1"/>
+    <row r="386" ht="12.0" customHeight="1"/>
+    <row r="387" ht="12.0" customHeight="1"/>
+    <row r="388" ht="12.0" customHeight="1"/>
+    <row r="389" ht="12.0" customHeight="1"/>
+    <row r="390" ht="12.0" customHeight="1"/>
+    <row r="391" ht="12.0" customHeight="1"/>
+    <row r="392" ht="12.0" customHeight="1"/>
+    <row r="393" ht="12.0" customHeight="1"/>
+    <row r="394" ht="12.0" customHeight="1"/>
+    <row r="395" ht="12.0" customHeight="1"/>
+    <row r="396" ht="12.0" customHeight="1"/>
+    <row r="397" ht="12.0" customHeight="1"/>
+    <row r="398" ht="12.0" customHeight="1"/>
+    <row r="399" ht="12.0" customHeight="1"/>
+    <row r="400" ht="12.0" customHeight="1"/>
+    <row r="401" ht="12.0" customHeight="1"/>
+    <row r="402" ht="12.0" customHeight="1"/>
+    <row r="403" ht="12.0" customHeight="1"/>
+    <row r="404" ht="12.0" customHeight="1"/>
+    <row r="405" ht="12.0" customHeight="1"/>
+    <row r="406" ht="12.0" customHeight="1"/>
+    <row r="407" ht="12.0" customHeight="1"/>
+    <row r="408" ht="12.0" customHeight="1"/>
+    <row r="409" ht="12.0" customHeight="1"/>
+    <row r="410" ht="12.0" customHeight="1"/>
+    <row r="411" ht="12.0" customHeight="1"/>
+    <row r="412" ht="12.0" customHeight="1"/>
+    <row r="413" ht="12.0" customHeight="1"/>
+    <row r="414" ht="12.0" customHeight="1"/>
+    <row r="415" ht="12.0" customHeight="1"/>
+    <row r="416" ht="12.0" customHeight="1"/>
+    <row r="417" ht="12.0" customHeight="1"/>
+    <row r="418" ht="12.0" customHeight="1"/>
+    <row r="419" ht="12.0" customHeight="1"/>
+    <row r="420" ht="12.0" customHeight="1"/>
+    <row r="421" ht="12.0" customHeight="1"/>
+    <row r="422" ht="12.0" customHeight="1"/>
+    <row r="423" ht="12.0" customHeight="1"/>
+    <row r="424" ht="12.0" customHeight="1"/>
+    <row r="425" ht="12.0" customHeight="1"/>
+    <row r="426" ht="12.0" customHeight="1"/>
+    <row r="427" ht="12.0" customHeight="1"/>
+    <row r="428" ht="12.0" customHeight="1"/>
+    <row r="429" ht="12.0" customHeight="1"/>
+    <row r="430" ht="12.0" customHeight="1"/>
+    <row r="431" ht="12.0" customHeight="1"/>
+    <row r="432" ht="12.0" customHeight="1"/>
+    <row r="433" ht="12.0" customHeight="1"/>
+    <row r="434" ht="12.0" customHeight="1"/>
+    <row r="435" ht="12.0" customHeight="1"/>
+    <row r="436" ht="12.0" customHeight="1"/>
+    <row r="437" ht="12.0" customHeight="1"/>
+    <row r="438" ht="12.0" customHeight="1"/>
+    <row r="439" ht="12.0" customHeight="1"/>
+    <row r="440" ht="12.0" customHeight="1"/>
+    <row r="441" ht="12.0" customHeight="1"/>
+    <row r="442" ht="12.0" customHeight="1"/>
+    <row r="443" ht="12.0" customHeight="1"/>
+    <row r="444" ht="12.0" customHeight="1"/>
+    <row r="445" ht="12.0" customHeight="1"/>
+    <row r="446" ht="12.0" customHeight="1"/>
+    <row r="447" ht="12.0" customHeight="1"/>
+    <row r="448" ht="12.0" customHeight="1"/>
+    <row r="449" ht="12.0" customHeight="1"/>
+    <row r="450" ht="12.0" customHeight="1"/>
+    <row r="451" ht="12.0" customHeight="1"/>
+    <row r="452" ht="12.0" customHeight="1"/>
+    <row r="453" ht="12.0" customHeight="1"/>
+    <row r="454" ht="12.0" customHeight="1"/>
+    <row r="455" ht="12.0" customHeight="1"/>
+    <row r="456" ht="12.0" customHeight="1"/>
+    <row r="457" ht="12.0" customHeight="1"/>
+    <row r="458" ht="12.0" customHeight="1"/>
+    <row r="459" ht="12.0" customHeight="1"/>
+    <row r="460" ht="12.0" customHeight="1"/>
+    <row r="461" ht="12.0" customHeight="1"/>
+    <row r="462" ht="12.0" customHeight="1"/>
+    <row r="463" ht="12.0" customHeight="1"/>
+    <row r="464" ht="12.0" customHeight="1"/>
+    <row r="465" ht="12.0" customHeight="1"/>
+    <row r="466" ht="12.0" customHeight="1"/>
+    <row r="467" ht="12.0" customHeight="1"/>
+    <row r="468" ht="12.0" customHeight="1"/>
+    <row r="469" ht="12.0" customHeight="1"/>
+    <row r="470" ht="12.0" customHeight="1"/>
+    <row r="471" ht="12.0" customHeight="1"/>
+    <row r="472" ht="12.0" customHeight="1"/>
+    <row r="473" ht="12.0" customHeight="1"/>
+    <row r="474" ht="12.0" customHeight="1"/>
+    <row r="475" ht="12.0" customHeight="1"/>
+    <row r="476" ht="12.0" customHeight="1"/>
+    <row r="477" ht="12.0" customHeight="1"/>
+    <row r="478" ht="12.0" customHeight="1"/>
+    <row r="479" ht="12.0" customHeight="1"/>
+    <row r="480" ht="12.0" customHeight="1"/>
+    <row r="481" ht="12.0" customHeight="1"/>
+    <row r="482" ht="12.0" customHeight="1"/>
+    <row r="483" ht="12.0" customHeight="1"/>
+    <row r="484" ht="12.0" customHeight="1"/>
+    <row r="485" ht="12.0" customHeight="1"/>
+    <row r="486" ht="12.0" customHeight="1"/>
+    <row r="487" ht="12.0" customHeight="1"/>
+    <row r="488" ht="12.0" customHeight="1"/>
+    <row r="489" ht="12.0" customHeight="1"/>
+    <row r="490" ht="12.0" customHeight="1"/>
+    <row r="491" ht="12.0" customHeight="1"/>
+    <row r="492" ht="12.0" customHeight="1"/>
+    <row r="493" ht="12.0" customHeight="1"/>
+    <row r="494" ht="12.0" customHeight="1"/>
+    <row r="495" ht="12.0" customHeight="1"/>
+    <row r="496" ht="12.0" customHeight="1"/>
+    <row r="497" ht="12.0" customHeight="1"/>
+    <row r="498" ht="12.0" customHeight="1"/>
+    <row r="499" ht="12.0" customHeight="1"/>
+    <row r="500" ht="12.0" customHeight="1"/>
+    <row r="501" ht="12.0" customHeight="1"/>
+    <row r="502" ht="12.0" customHeight="1"/>
+    <row r="503" ht="12.0" customHeight="1"/>
+    <row r="504" ht="12.0" customHeight="1"/>
+    <row r="505" ht="12.0" customHeight="1"/>
+    <row r="506" ht="12.0" customHeight="1"/>
+    <row r="507" ht="12.0" customHeight="1"/>
+    <row r="508" ht="12.0" customHeight="1"/>
+    <row r="509" ht="12.0" customHeight="1"/>
+    <row r="510" ht="12.0" customHeight="1"/>
+    <row r="511" ht="12.0" customHeight="1"/>
+    <row r="512" ht="12.0" customHeight="1"/>
+    <row r="513" ht="12.0" customHeight="1"/>
+    <row r="514" ht="12.0" customHeight="1"/>
+    <row r="515" ht="12.0" customHeight="1"/>
+    <row r="516" ht="12.0" customHeight="1"/>
+    <row r="517" ht="12.0" customHeight="1"/>
+    <row r="518" ht="12.0" customHeight="1"/>
+    <row r="519" ht="12.0" customHeight="1"/>
+    <row r="520" ht="12.0" customHeight="1"/>
+    <row r="521" ht="12.0" customHeight="1"/>
+    <row r="522" ht="12.0" customHeight="1"/>
+    <row r="523" ht="12.0" customHeight="1"/>
+    <row r="524" ht="12.0" customHeight="1"/>
+    <row r="525" ht="12.0" customHeight="1"/>
+    <row r="526" ht="12.0" customHeight="1"/>
+    <row r="527" ht="12.0" customHeight="1"/>
+    <row r="528" ht="12.0" customHeight="1"/>
+    <row r="529" ht="12.0" customHeight="1"/>
+    <row r="530" ht="12.0" customHeight="1"/>
+    <row r="531" ht="12.0" customHeight="1"/>
+    <row r="532" ht="12.0" customHeight="1"/>
+    <row r="533" ht="12.0" customHeight="1"/>
+    <row r="534" ht="12.0" customHeight="1"/>
+    <row r="535" ht="12.0" customHeight="1"/>
+    <row r="536" ht="12.0" customHeight="1"/>
+    <row r="537" ht="12.0" customHeight="1"/>
+    <row r="538" ht="12.0" customHeight="1"/>
+    <row r="539" ht="12.0" customHeight="1"/>
+    <row r="540" ht="12.0" customHeight="1"/>
+    <row r="541" ht="12.0" customHeight="1"/>
+    <row r="542" ht="12.0" customHeight="1"/>
+    <row r="543" ht="12.0" customHeight="1"/>
+    <row r="544" ht="12.0" customHeight="1"/>
+    <row r="545" ht="12.0" customHeight="1"/>
+    <row r="546" ht="12.0" customHeight="1"/>
+    <row r="547" ht="12.0" customHeight="1"/>
+    <row r="548" ht="12.0" customHeight="1"/>
+    <row r="549" ht="12.0" customHeight="1"/>
+    <row r="550" ht="12.0" customHeight="1"/>
+    <row r="551" ht="12.0" customHeight="1"/>
+    <row r="552" ht="12.0" customHeight="1"/>
+    <row r="553" ht="12.0" customHeight="1"/>
+    <row r="554" ht="12.0" customHeight="1"/>
+    <row r="555" ht="12.0" customHeight="1"/>
+    <row r="556" ht="12.0" customHeight="1"/>
+    <row r="557" ht="12.0" customHeight="1"/>
+    <row r="558" ht="12.0" customHeight="1"/>
+    <row r="559" ht="12.0" customHeight="1"/>
+    <row r="560" ht="12.0" customHeight="1"/>
+    <row r="561" ht="12.0" customHeight="1"/>
+    <row r="562" ht="12.0" customHeight="1"/>
+    <row r="563" ht="12.0" customHeight="1"/>
+    <row r="564" ht="12.0" customHeight="1"/>
+    <row r="565" ht="12.0" customHeight="1"/>
+    <row r="566" ht="12.0" customHeight="1"/>
+    <row r="567" ht="12.0" customHeight="1"/>
+    <row r="568" ht="12.0" customHeight="1"/>
+    <row r="569" ht="12.0" customHeight="1"/>
+    <row r="570" ht="12.0" customHeight="1"/>
+    <row r="571" ht="12.0" customHeight="1"/>
+    <row r="572" ht="12.0" customHeight="1"/>
+    <row r="573" ht="12.0" customHeight="1"/>
+    <row r="574" ht="12.0" customHeight="1"/>
+    <row r="575" ht="12.0" customHeight="1"/>
+    <row r="576" ht="12.0" customHeight="1"/>
+    <row r="577" ht="12.0" customHeight="1"/>
+    <row r="578" ht="12.0" customHeight="1"/>
+    <row r="579" ht="12.0" customHeight="1"/>
+    <row r="580" ht="12.0" customHeight="1"/>
+    <row r="581" ht="12.0" customHeight="1"/>
+    <row r="582" ht="12.0" customHeight="1"/>
+    <row r="583" ht="12.0" customHeight="1"/>
+    <row r="584" ht="12.0" customHeight="1"/>
+    <row r="585" ht="12.0" customHeight="1"/>
+    <row r="586" ht="12.0" customHeight="1"/>
+    <row r="587" ht="12.0" customHeight="1"/>
+    <row r="588" ht="12.0" customHeight="1"/>
+    <row r="589" ht="12.0" customHeight="1"/>
+    <row r="590" ht="12.0" customHeight="1"/>
+    <row r="591" ht="12.0" customHeight="1"/>
+    <row r="592" ht="12.0" customHeight="1"/>
+    <row r="593" ht="12.0" customHeight="1"/>
+    <row r="594" ht="12.0" customHeight="1"/>
+    <row r="595" ht="12.0" customHeight="1"/>
+    <row r="596" ht="12.0" customHeight="1"/>
+    <row r="597" ht="12.0" customHeight="1"/>
+    <row r="598" ht="12.0" customHeight="1"/>
+    <row r="599" ht="12.0" customHeight="1"/>
+    <row r="600" ht="12.0" customHeight="1"/>
+    <row r="601" ht="12.0" customHeight="1"/>
+    <row r="602" ht="12.0" customHeight="1"/>
+    <row r="603" ht="12.0" customHeight="1"/>
+    <row r="604" ht="12.0" customHeight="1"/>
+    <row r="605" ht="12.0" customHeight="1"/>
+    <row r="606" ht="12.0" customHeight="1"/>
+    <row r="607" ht="12.0" customHeight="1"/>
+    <row r="608" ht="12.0" customHeight="1"/>
+    <row r="609" ht="12.0" customHeight="1"/>
+    <row r="610" ht="12.0" customHeight="1"/>
+    <row r="611" ht="12.0" customHeight="1"/>
+    <row r="612" ht="12.0" customHeight="1"/>
+    <row r="613" ht="12.0" customHeight="1"/>
+    <row r="614" ht="12.0" customHeight="1"/>
+    <row r="615" ht="12.0" customHeight="1"/>
+    <row r="616" ht="12.0" customHeight="1"/>
+    <row r="617" ht="12.0" customHeight="1"/>
+    <row r="618" ht="12.0" customHeight="1"/>
+    <row r="619" ht="12.0" customHeight="1"/>
+    <row r="620" ht="12.0" customHeight="1"/>
+    <row r="621" ht="12.0" customHeight="1"/>
+    <row r="622" ht="12.0" customHeight="1"/>
+    <row r="623" ht="12.0" customHeight="1"/>
+    <row r="624" ht="12.0" customHeight="1"/>
+    <row r="625" ht="12.0" customHeight="1"/>
+    <row r="626" ht="12.0" customHeight="1"/>
+    <row r="627" ht="12.0" customHeight="1"/>
+    <row r="628" ht="12.0" customHeight="1"/>
+    <row r="629" ht="12.0" customHeight="1"/>
+    <row r="630" ht="12.0" customHeight="1"/>
+    <row r="631" ht="12.0" customHeight="1"/>
+    <row r="632" ht="12.0" customHeight="1"/>
+    <row r="633" ht="12.0" customHeight="1"/>
+    <row r="634" ht="12.0" customHeight="1"/>
+    <row r="635" ht="12.0" customHeight="1"/>
+    <row r="636" ht="12.0" customHeight="1"/>
+    <row r="637" ht="12.0" customHeight="1"/>
+    <row r="638" ht="12.0" customHeight="1"/>
+    <row r="639" ht="12.0" customHeight="1"/>
+    <row r="640" ht="12.0" customHeight="1"/>
+    <row r="641" ht="12.0" customHeight="1"/>
+    <row r="642" ht="12.0" customHeight="1"/>
+    <row r="643" ht="12.0" customHeight="1"/>
+    <row r="644" ht="12.0" customHeight="1"/>
+    <row r="645" ht="12.0" customHeight="1"/>
+    <row r="646" ht="12.0" customHeight="1"/>
+    <row r="647" ht="12.0" customHeight="1"/>
+    <row r="648" ht="12.0" customHeight="1"/>
+    <row r="649" ht="12.0" customHeight="1"/>
+    <row r="650" ht="12.0" customHeight="1"/>
+    <row r="651" ht="12.0" customHeight="1"/>
+    <row r="652" ht="12.0" customHeight="1"/>
+    <row r="653" ht="12.0" customHeight="1"/>
+    <row r="654" ht="12.0" customHeight="1"/>
+    <row r="655" ht="12.0" customHeight="1"/>
+    <row r="656" ht="12.0" customHeight="1"/>
+    <row r="657" ht="12.0" customHeight="1"/>
+    <row r="658" ht="12.0" customHeight="1"/>
+    <row r="659" ht="12.0" customHeight="1"/>
+    <row r="660" ht="12.0" customHeight="1"/>
+    <row r="661" ht="12.0" customHeight="1"/>
+    <row r="662" ht="12.0" customHeight="1"/>
+    <row r="663" ht="12.0" customHeight="1"/>
+    <row r="664" ht="12.0" customHeight="1"/>
+    <row r="665" ht="12.0" customHeight="1"/>
+    <row r="666" ht="12.0" customHeight="1"/>
+    <row r="667" ht="12.0" customHeight="1"/>
+    <row r="668" ht="12.0" customHeight="1"/>
+    <row r="669" ht="12.0" customHeight="1"/>
+    <row r="670" ht="12.0" customHeight="1"/>
+    <row r="671" ht="12.0" customHeight="1"/>
+    <row r="672" ht="12.0" customHeight="1"/>
+    <row r="673" ht="12.0" customHeight="1"/>
+    <row r="674" ht="12.0" customHeight="1"/>
+    <row r="675" ht="12.0" customHeight="1"/>
+    <row r="676" ht="12.0" customHeight="1"/>
+    <row r="677" ht="12.0" customHeight="1"/>
+    <row r="678" ht="12.0" customHeight="1"/>
+    <row r="679" ht="12.0" customHeight="1"/>
+    <row r="680" ht="12.0" customHeight="1"/>
+    <row r="681" ht="12.0" customHeight="1"/>
+    <row r="682" ht="12.0" customHeight="1"/>
+    <row r="683" ht="12.0" customHeight="1"/>
+    <row r="684" ht="12.0" customHeight="1"/>
+    <row r="685" ht="12.0" customHeight="1"/>
+    <row r="686" ht="12.0" customHeight="1"/>
+    <row r="687" ht="12.0" customHeight="1"/>
+    <row r="688" ht="12.0" customHeight="1"/>
+    <row r="689" ht="12.0" customHeight="1"/>
+    <row r="690" ht="12.0" customHeight="1"/>
+    <row r="691" ht="12.0" customHeight="1"/>
+    <row r="692" ht="12.0" customHeight="1"/>
+    <row r="693" ht="12.0" customHeight="1"/>
+    <row r="694" ht="12.0" customHeight="1"/>
+    <row r="695" ht="12.0" customHeight="1"/>
+    <row r="696" ht="12.0" customHeight="1"/>
+    <row r="697" ht="12.0" customHeight="1"/>
+    <row r="698" ht="12.0" customHeight="1"/>
+    <row r="699" ht="12.0" customHeight="1"/>
+    <row r="700" ht="12.0" customHeight="1"/>
+    <row r="701" ht="12.0" customHeight="1"/>
+    <row r="702" ht="12.0" customHeight="1"/>
+    <row r="703" ht="12.0" customHeight="1"/>
+    <row r="704" ht="12.0" customHeight="1"/>
+    <row r="705" ht="12.0" customHeight="1"/>
+    <row r="706" ht="12.0" customHeight="1"/>
+    <row r="707" ht="12.0" customHeight="1"/>
+    <row r="708" ht="12.0" customHeight="1"/>
+    <row r="709" ht="12.0" customHeight="1"/>
+    <row r="710" ht="12.0" customHeight="1"/>
+    <row r="711" ht="12.0" customHeight="1"/>
+    <row r="712" ht="12.0" customHeight="1"/>
+    <row r="713" ht="12.0" customHeight="1"/>
+    <row r="714" ht="12.0" customHeight="1"/>
+    <row r="715" ht="12.0" customHeight="1"/>
+    <row r="716" ht="12.0" customHeight="1"/>
+    <row r="717" ht="12.0" customHeight="1"/>
+    <row r="718" ht="12.0" customHeight="1"/>
+    <row r="719" ht="12.0" customHeight="1"/>
+    <row r="720" ht="12.0" customHeight="1"/>
+    <row r="721" ht="12.0" customHeight="1"/>
+    <row r="722" ht="12.0" customHeight="1"/>
+    <row r="723" ht="12.0" customHeight="1"/>
+    <row r="724" ht="12.0" customHeight="1"/>
+    <row r="725" ht="12.0" customHeight="1"/>
+    <row r="726" ht="12.0" customHeight="1"/>
+    <row r="727" ht="12.0" customHeight="1"/>
+    <row r="728" ht="12.0" customHeight="1"/>
+    <row r="729" ht="12.0" customHeight="1"/>
+    <row r="730" ht="12.0" customHeight="1"/>
+    <row r="731" ht="12.0" customHeight="1"/>
+    <row r="732" ht="12.0" customHeight="1"/>
+    <row r="733" ht="12.0" customHeight="1"/>
+    <row r="734" ht="12.0" customHeight="1"/>
+    <row r="735" ht="12.0" customHeight="1"/>
+    <row r="736" ht="12.0" customHeight="1"/>
+    <row r="737" ht="12.0" customHeight="1"/>
+    <row r="738" ht="12.0" customHeight="1"/>
+    <row r="739" ht="12.0" customHeight="1"/>
+    <row r="740" ht="12.0" customHeight="1"/>
+    <row r="741" ht="12.0" customHeight="1"/>
+    <row r="742" ht="12.0" customHeight="1"/>
+    <row r="743" ht="12.0" customHeight="1"/>
+    <row r="744" ht="12.0" customHeight="1"/>
+    <row r="745" ht="12.0" customHeight="1"/>
+    <row r="746" ht="12.0" customHeight="1"/>
+    <row r="747" ht="12.0" customHeight="1"/>
+    <row r="748" ht="12.0" customHeight="1"/>
+    <row r="749" ht="12.0" customHeight="1"/>
+    <row r="750" ht="12.0" customHeight="1"/>
+    <row r="751" ht="12.0" customHeight="1"/>
+    <row r="752" ht="12.0" customHeight="1"/>
+    <row r="753" ht="12.0" customHeight="1"/>
+    <row r="754" ht="12.0" customHeight="1"/>
+    <row r="755" ht="12.0" customHeight="1"/>
+    <row r="756" ht="12.0" customHeight="1"/>
+    <row r="757" ht="12.0" customHeight="1"/>
+    <row r="758" ht="12.0" customHeight="1"/>
+    <row r="759" ht="12.0" customHeight="1"/>
+    <row r="760" ht="12.0" customHeight="1"/>
+    <row r="761" ht="12.0" customHeight="1"/>
+    <row r="762" ht="12.0" customHeight="1"/>
+    <row r="763" ht="12.0" customHeight="1"/>
+    <row r="764" ht="12.0" customHeight="1"/>
+    <row r="765" ht="12.0" customHeight="1"/>
+    <row r="766" ht="12.0" customHeight="1"/>
+    <row r="767" ht="12.0" customHeight="1"/>
+    <row r="768" ht="12.0" customHeight="1"/>
+    <row r="769" ht="12.0" customHeight="1"/>
+    <row r="770" ht="12.0" customHeight="1"/>
+    <row r="771" ht="12.0" customHeight="1"/>
+    <row r="772" ht="12.0" customHeight="1"/>
+    <row r="773" ht="12.0" customHeight="1"/>
+    <row r="774" ht="12.0" customHeight="1"/>
+    <row r="775" ht="12.0" customHeight="1"/>
+    <row r="776" ht="12.0" customHeight="1"/>
+    <row r="777" ht="12.0" customHeight="1"/>
+    <row r="778" ht="12.0" customHeight="1"/>
+    <row r="779" ht="12.0" customHeight="1"/>
+    <row r="780" ht="12.0" customHeight="1"/>
+    <row r="781" ht="12.0" customHeight="1"/>
+    <row r="782" ht="12.0" customHeight="1"/>
+    <row r="783" ht="12.0" customHeight="1"/>
+    <row r="784" ht="12.0" customHeight="1"/>
+    <row r="785" ht="12.0" customHeight="1"/>
+    <row r="786" ht="12.0" customHeight="1"/>
+    <row r="787" ht="12.0" customHeight="1"/>
+    <row r="788" ht="12.0" customHeight="1"/>
+    <row r="789" ht="12.0" customHeight="1"/>
+    <row r="790" ht="12.0" customHeight="1"/>
+    <row r="791" ht="12.0" customHeight="1"/>
+    <row r="792" ht="12.0" customHeight="1"/>
+    <row r="793" ht="12.0" customHeight="1"/>
+    <row r="794" ht="12.0" customHeight="1"/>
+    <row r="795" ht="12.0" customHeight="1"/>
+    <row r="796" ht="12.0" customHeight="1"/>
+    <row r="797" ht="12.0" customHeight="1"/>
+    <row r="798" ht="12.0" customHeight="1"/>
+    <row r="799" ht="12.0" customHeight="1"/>
+    <row r="800" ht="12.0" customHeight="1"/>
+    <row r="801" ht="12.0" customHeight="1"/>
+    <row r="802" ht="12.0" customHeight="1"/>
+    <row r="803" ht="12.0" customHeight="1"/>
+    <row r="804" ht="12.0" customHeight="1"/>
+    <row r="805" ht="12.0" customHeight="1"/>
+    <row r="806" ht="12.0" customHeight="1"/>
+    <row r="807" ht="12.0" customHeight="1"/>
+    <row r="808" ht="12.0" customHeight="1"/>
+    <row r="809" ht="12.0" customHeight="1"/>
+    <row r="810" ht="12.0" customHeight="1"/>
+    <row r="811" ht="12.0" customHeight="1"/>
+    <row r="812" ht="12.0" customHeight="1"/>
+    <row r="813" ht="12.0" customHeight="1"/>
+    <row r="814" ht="12.0" customHeight="1"/>
+    <row r="815" ht="12.0" customHeight="1"/>
+    <row r="816" ht="12.0" customHeight="1"/>
+    <row r="817" ht="12.0" customHeight="1"/>
+    <row r="818" ht="12.0" customHeight="1"/>
+    <row r="819" ht="12.0" customHeight="1"/>
+    <row r="820" ht="12.0" customHeight="1"/>
+    <row r="821" ht="12.0" customHeight="1"/>
+    <row r="822" ht="12.0" customHeight="1"/>
+    <row r="823" ht="12.0" customHeight="1"/>
+    <row r="824" ht="12.0" customHeight="1"/>
+    <row r="825" ht="12.0" customHeight="1"/>
+    <row r="826" ht="12.0" customHeight="1"/>
+    <row r="827" ht="12.0" customHeight="1"/>
+    <row r="828" ht="12.0" customHeight="1"/>
+    <row r="829" ht="12.0" customHeight="1"/>
+    <row r="830" ht="12.0" customHeight="1"/>
+    <row r="831" ht="12.0" customHeight="1"/>
+    <row r="832" ht="12.0" customHeight="1"/>
+    <row r="833" ht="12.0" customHeight="1"/>
+    <row r="834" ht="12.0" customHeight="1"/>
+    <row r="835" ht="12.0" customHeight="1"/>
+    <row r="836" ht="12.0" customHeight="1"/>
+    <row r="837" ht="12.0" customHeight="1"/>
+    <row r="838" ht="12.0" customHeight="1"/>
+    <row r="839" ht="12.0" customHeight="1"/>
+    <row r="840" ht="12.0" customHeight="1"/>
+    <row r="841" ht="12.0" customHeight="1"/>
+    <row r="842" ht="12.0" customHeight="1"/>
+    <row r="843" ht="12.0" customHeight="1"/>
+    <row r="844" ht="12.0" customHeight="1"/>
+    <row r="845" ht="12.0" customHeight="1"/>
+    <row r="846" ht="12.0" customHeight="1"/>
+    <row r="847" ht="12.0" customHeight="1"/>
+    <row r="848" ht="12.0" customHeight="1"/>
+    <row r="849" ht="12.0" customHeight="1"/>
+    <row r="850" ht="12.0" customHeight="1"/>
+    <row r="851" ht="12.0" customHeight="1"/>
+    <row r="852" ht="12.0" customHeight="1"/>
+    <row r="853" ht="12.0" customHeight="1"/>
+    <row r="854" ht="12.0" customHeight="1"/>
+    <row r="855" ht="12.0" customHeight="1"/>
+    <row r="856" ht="12.0" customHeight="1"/>
+    <row r="857" ht="12.0" customHeight="1"/>
+    <row r="858" ht="12.0" customHeight="1"/>
+    <row r="859" ht="12.0" customHeight="1"/>
+    <row r="860" ht="12.0" customHeight="1"/>
+    <row r="861" ht="12.0" customHeight="1"/>
+    <row r="862" ht="12.0" customHeight="1"/>
+    <row r="863" ht="12.0" customHeight="1"/>
+    <row r="864" ht="12.0" customHeight="1"/>
+    <row r="865" ht="12.0" customHeight="1"/>
+    <row r="866" ht="12.0" customHeight="1"/>
+    <row r="867" ht="12.0" customHeight="1"/>
+    <row r="868" ht="12.0" customHeight="1"/>
+    <row r="869" ht="12.0" customHeight="1"/>
+    <row r="870" ht="12.0" customHeight="1"/>
+    <row r="871" ht="12.0" customHeight="1"/>
+    <row r="872" ht="12.0" customHeight="1"/>
+    <row r="873" ht="12.0" customHeight="1"/>
+    <row r="874" ht="12.0" customHeight="1"/>
+    <row r="875" ht="12.0" customHeight="1"/>
+    <row r="876" ht="12.0" customHeight="1"/>
+    <row r="877" ht="12.0" customHeight="1"/>
+    <row r="878" ht="12.0" customHeight="1"/>
+    <row r="879" ht="12.0" customHeight="1"/>
+    <row r="880" ht="12.0" customHeight="1"/>
+    <row r="881" ht="12.0" customHeight="1"/>
+    <row r="882" ht="12.0" customHeight="1"/>
+    <row r="883" ht="12.0" customHeight="1"/>
+    <row r="884" ht="12.0" customHeight="1"/>
+    <row r="885" ht="12.0" customHeight="1"/>
+    <row r="886" ht="12.0" customHeight="1"/>
+    <row r="887" ht="12.0" customHeight="1"/>
+    <row r="888" ht="12.0" customHeight="1"/>
+    <row r="889" ht="12.0" customHeight="1"/>
+    <row r="890" ht="12.0" customHeight="1"/>
+    <row r="891" ht="12.0" customHeight="1"/>
+    <row r="892" ht="12.0" customHeight="1"/>
+    <row r="893" ht="12.0" customHeight="1"/>
+    <row r="894" ht="12.0" customHeight="1"/>
+    <row r="895" ht="12.0" customHeight="1"/>
+    <row r="896" ht="12.0" customHeight="1"/>
+    <row r="897" ht="12.0" customHeight="1"/>
+    <row r="898" ht="12.0" customHeight="1"/>
+    <row r="899" ht="12.0" customHeight="1"/>
+    <row r="900" ht="12.0" customHeight="1"/>
+    <row r="901" ht="12.0" customHeight="1"/>
+    <row r="902" ht="12.0" customHeight="1"/>
+    <row r="903" ht="12.0" customHeight="1"/>
+    <row r="904" ht="12.0" customHeight="1"/>
+    <row r="905" ht="12.0" customHeight="1"/>
+    <row r="906" ht="12.0" customHeight="1"/>
+    <row r="907" ht="12.0" customHeight="1"/>
+    <row r="908" ht="12.0" customHeight="1"/>
+    <row r="909" ht="12.0" customHeight="1"/>
+    <row r="910" ht="12.0" customHeight="1"/>
+    <row r="911" ht="12.0" customHeight="1"/>
+    <row r="912" ht="12.0" customHeight="1"/>
+    <row r="913" ht="12.0" customHeight="1"/>
+    <row r="914" ht="12.0" customHeight="1"/>
+    <row r="915" ht="12.0" customHeight="1"/>
+    <row r="916" ht="12.0" customHeight="1"/>
+    <row r="917" ht="12.0" customHeight="1"/>
+    <row r="918" ht="12.0" customHeight="1"/>
+    <row r="919" ht="12.0" customHeight="1"/>
+    <row r="920" ht="12.0" customHeight="1"/>
+    <row r="921" ht="12.0" customHeight="1"/>
+    <row r="922" ht="12.0" customHeight="1"/>
+    <row r="923" ht="12.0" customHeight="1"/>
+    <row r="924" ht="12.0" customHeight="1"/>
+    <row r="925" ht="12.0" customHeight="1"/>
+    <row r="926" ht="12.0" customHeight="1"/>
+    <row r="927" ht="12.0" customHeight="1"/>
+    <row r="928" ht="12.0" customHeight="1"/>
+    <row r="929" ht="12.0" customHeight="1"/>
+    <row r="930" ht="12.0" customHeight="1"/>
+    <row r="931" ht="12.0" customHeight="1"/>
+    <row r="932" ht="12.0" customHeight="1"/>
+    <row r="933" ht="12.0" customHeight="1"/>
+    <row r="934" ht="12.0" customHeight="1"/>
+    <row r="935" ht="12.0" customHeight="1"/>
+    <row r="936" ht="12.0" customHeight="1"/>
+    <row r="937" ht="12.0" customHeight="1"/>
+    <row r="938" ht="12.0" customHeight="1"/>
+    <row r="939" ht="12.0" customHeight="1"/>
+    <row r="940" ht="12.0" customHeight="1"/>
+    <row r="941" ht="12.0" customHeight="1"/>
+    <row r="942" ht="12.0" customHeight="1"/>
+    <row r="943" ht="12.0" customHeight="1"/>
+    <row r="944" ht="12.0" customHeight="1"/>
+    <row r="945" ht="12.0" customHeight="1"/>
+    <row r="946" ht="12.0" customHeight="1"/>
+    <row r="947" ht="12.0" customHeight="1"/>
+    <row r="948" ht="12.0" customHeight="1"/>
+    <row r="949" ht="12.0" customHeight="1"/>
+    <row r="950" ht="12.0" customHeight="1"/>
+    <row r="951" ht="12.0" customHeight="1"/>
+    <row r="952" ht="12.0" customHeight="1"/>
+    <row r="953" ht="12.0" customHeight="1"/>
+    <row r="954" ht="12.0" customHeight="1"/>
+    <row r="955" ht="12.0" customHeight="1"/>
+    <row r="956" ht="12.0" customHeight="1"/>
+    <row r="957" ht="12.0" customHeight="1"/>
+    <row r="958" ht="12.0" customHeight="1"/>
+    <row r="959" ht="12.0" customHeight="1"/>
+    <row r="960" ht="12.0" customHeight="1"/>
+    <row r="961" ht="12.0" customHeight="1"/>
+    <row r="962" ht="12.0" customHeight="1"/>
+    <row r="963" ht="12.0" customHeight="1"/>
+    <row r="964" ht="12.0" customHeight="1"/>
+    <row r="965" ht="12.0" customHeight="1"/>
+    <row r="966" ht="12.0" customHeight="1"/>
+    <row r="967" ht="12.0" customHeight="1"/>
+    <row r="968" ht="12.0" customHeight="1"/>
+    <row r="969" ht="12.0" customHeight="1"/>
+    <row r="970" ht="12.0" customHeight="1"/>
+    <row r="971" ht="12.0" customHeight="1"/>
+    <row r="972" ht="12.0" customHeight="1"/>
+    <row r="973" ht="12.0" customHeight="1"/>
+    <row r="974" ht="12.0" customHeight="1"/>
+    <row r="975" ht="12.0" customHeight="1"/>
+    <row r="976" ht="12.0" customHeight="1"/>
+    <row r="977" ht="12.0" customHeight="1"/>
+    <row r="978" ht="12.0" customHeight="1"/>
+    <row r="979" ht="12.0" customHeight="1"/>
+    <row r="980" ht="12.0" customHeight="1"/>
+    <row r="981" ht="12.0" customHeight="1"/>
+    <row r="982" ht="12.0" customHeight="1"/>
+    <row r="983" ht="12.0" customHeight="1"/>
+    <row r="984" ht="12.0" customHeight="1"/>
+    <row r="985" ht="12.0" customHeight="1"/>
+    <row r="986" ht="12.0" customHeight="1"/>
+    <row r="987" ht="12.0" customHeight="1"/>
+    <row r="988" ht="12.0" customHeight="1"/>
+    <row r="989" ht="12.0" customHeight="1"/>
+    <row r="990" ht="12.0" customHeight="1"/>
+    <row r="991" ht="12.0" customHeight="1"/>
+    <row r="992" ht="12.0" customHeight="1"/>
+    <row r="993" ht="12.0" customHeight="1"/>
+    <row r="994" ht="12.0" customHeight="1"/>
+    <row r="995" ht="12.0" customHeight="1"/>
+    <row r="996" ht="12.0" customHeight="1"/>
+    <row r="997" ht="12.0" customHeight="1"/>
+    <row r="998" ht="12.0" customHeight="1"/>
+    <row r="999" ht="12.0" customHeight="1"/>
+    <row r="1000" ht="12.0" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink r:id="rId2" ref="E12"/>
+  </hyperlinks>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
+</worksheet>
 </file>
--- a/Estimates 22 BDG [Final].xlsx
+++ b/Estimates 22 BDG [Final].xlsx
@@ -7,18 +7,17 @@
     <sheet state="visible" name="01-GenEstsDataHMIS" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="02-UploadDataADR" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="03-ValidateDataNaomi" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Old 03 (ValidateDataShinyRob)" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="04-InputDatatoSpectrum" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="05-GenIncidenceEstswithEPP" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="06-GenKOSShiny90" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="07-FinalizeNatlEstsSpectrum" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="08-GenSubNatlEstsNaomi" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="04-InputDatatoSpectrum" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="05-GenIncidenceEstswithEPP" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="06-GenKOSShiny90" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="07-FinalizeNatlEstsSpectrum" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="08-GenSubNatlEstsNaomi" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataSignature="AMtx7mjiNpm5AzZuJU2TnI9xV+4aLknm9A=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataSignature="AMtx7mgEhANcLrUpyZbCn7chYtIRKNp4gA=="/>
     </ext>
   </extLst>
 </workbook>
@@ -77,7 +76,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mj819Io1FNxZ4HoiNPoz9tksp3vbA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjRTiHm/bb3hoFY4mbh/FCIGzfI2Q=="/>
     </ext>
   </extLst>
 </comments>
@@ -89,7 +88,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="E9">
+    <comment authorId="0" ref="E8">
       <text>
         <t xml:space="preserve">======
 ID#AAAASYjj5eY
@@ -99,7 +98,7 @@
 	-Jonathan Berry</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E12">
+    <comment authorId="0" ref="E11">
       <text>
         <t xml:space="preserve">======
 ID#AAAASYjj5d8
@@ -109,7 +108,7 @@
 	-Jonathan Berry</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E11">
+    <comment authorId="0" ref="E10">
       <text>
         <t xml:space="preserve">======
 ID#AAAASYjj5d0
@@ -119,7 +118,7 @@
 	-Jonathan Berry</t>
       </text>
     </comment>
-    <comment authorId="0" ref="E10">
+    <comment authorId="0" ref="E9">
       <text>
         <t xml:space="preserve">======
 ID#AAAASYjj5dw
@@ -144,32 +143,6 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="F5">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAASYjj5do
-tc={0E7CF5E8-FF7D-474B-B45E-AA44DCCE8190}    (2021-11-25 18:28:02)
-[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    @Fjelltopp - please link directly to user's organization and package for this year.</t>
-      </text>
-    </comment>
-  </commentList>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgHlTMUvHUTre4T4ahVahmEueX3vg=="/>
-    </ext>
-  </extLst>
-</comments>
-</file>
-
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
     <comment authorId="0" ref="A15">
       <text>
         <t xml:space="preserve">======
@@ -189,7 +162,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -214,7 +187,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -240,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="756" uniqueCount="603">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="563">
   <si>
     <t>Milestone Title (Visible to User):</t>
   </si>
@@ -686,27 +659,6 @@
     <t>ADR-01-10</t>
   </si>
   <si>
-    <t>Associate your ADR account with an organization as an editor</t>
-  </si>
-  <si>
-    <t>Is user a member of an organization (country) with an "editor" role on ADR?</t>
-  </si>
-  <si>
-    <t>In order to take advantage of the features available to users on the AIDS Data Repository, you must register an account. It is a quick and simple process. There is an instructional video available on Youtube which will demonstrate how to register and join an organization. Typically, the organization is your country. In order to upload and edit data, you must be an "editor" or "admin". Request the one most appropriate for your estimates role when you are requesting access to the organization.</t>
-  </si>
-  <si>
-    <t>Registering and Joining an Organisation - The AIDS Data Repository https://www.youtube.com/watch?v=O34wTKvn1xI</t>
-  </si>
-  <si>
-    <t>MM Would recomend linking to training manuals instead of youtube</t>
-  </si>
-  <si>
-    <t>check_manual_confirmation('EST-ADR-01-10-A')</t>
-  </si>
-  <si>
-    <t>ADR-01-11</t>
-  </si>
-  <si>
     <t>Check that the required data has been preloaded into your ADR dataset</t>
   </si>
   <si>
@@ -728,7 +680,7 @@
     <t>check_resource_key(['inputs-unaids-geographic', 'inputs-unaids-survey', 'inputs-unaids-population', 'inputs-unaids-spectrum'], 'url', '.*')</t>
   </si>
   <si>
-    <t>ADR-01-12</t>
+    <t>ADR-01-11</t>
   </si>
   <si>
     <t>Upload data inputs to the ADR using the required templates</t>
@@ -750,7 +702,7 @@
 - Click "Upload Files"</t>
   </si>
   <si>
-    <t>check_manual_confirmation('EST-ADR-01-12-A')</t>
+    <t>check_manual_confirmation('EST-ADR-01-11-A')</t>
   </si>
   <si>
     <t>ADR-02-01</t>
@@ -1001,13 +953,13 @@
     <t>ROB-01-CK</t>
   </si>
   <si>
-    <t>ADR-03-01, ADR-04-01 complete?</t>
+    <t>ADR-01-10, ADR-01-11, ADR-03-01, ADR-04-01 complete?</t>
   </si>
   <si>
     <t>not a user-facing task check; required to import data from ADR</t>
   </si>
   <si>
-    <t>check_not_skipped(['EST-ADR-03-01-A', 'EST-ADR-04-01-A'])</t>
+    <t>check_not_skipped(['EST-ADR-01-10-A', 'EST-ADR-01-11-A', 'EST-ADR-03-01-A', 'EST-ADR-04-01-A'])</t>
   </si>
   <si>
     <t>ROB-02-01</t>
@@ -1087,154 +1039,6 @@
   </si>
   <si>
     <t>check_manual_confirmation('EST-ROB-06-01-A')</t>
-  </si>
-  <si>
-    <t>Review quality of programme data inputs using ShinyRob</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t xml:space="preserve">The quality of data inputs is one of the most influential determinants of your HIV estimates.  ShinyRob was developed to assist countries to identify and resolve data quality issues within programme data inputs </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="8.0"/>
-        <u/>
-      </rPr>
-      <t>before</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t xml:space="preserve"> they are used by estimates models. UNAIDS strongly recommends country teams review and validate their programme data inputs using ShinyRob prior to beginning work in the models.</t>
-    </r>
-  </si>
-  <si>
-    <t>Ref.Old</t>
-  </si>
-  <si>
-    <t>ROB-01</t>
-  </si>
-  <si>
-    <t>ROB-01-10</t>
-  </si>
-  <si>
-    <t>Confirm all Inputs Package data files have a green valid badge in ADR</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t>Are input files (ANC, ART, area boundary files) in ADR and marked with a green valid badge (i.e., is</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t xml:space="preserve"> ADR-06-01</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t xml:space="preserve"> true)?</t>
-    </r>
-  </si>
-  <si>
-    <t>In order to use ShinyRob, you must upload three data files to your estimates Inputs Package for this year. To upload your files, access your organization on ADR and find this year's Inputs Package. Upload each of the required files for this year's estimates process in the required format. *UNAIDS strongly recommends you use your final data files from last year and simply update them with this data from the current reporting period.* Be sure to confirm the green "Valid" badge next to each file. If any files are missing the green "valid" badge, review the data issues identified by ADR and correct them. If any changes are made to the data in the data files, ensure changes are cascaded to the source systems (e.g., DHIS2) as needed. Once data are uploaded and valid in ADR, you may proceed to ShinyRob to conduct thorough data quality reviews.</t>
-  </si>
-  <si>
-    <t>check_not_skipped(['EST-ADR-04-A', 'EST-ADR-04A-A', 'EST-ADR-04B-A', 'EST-ADR-04C-A', 'EST-ADR-04D-A', 'EST-ADR-04E-A', 'EST-ADR-06-A'])</t>
-  </si>
-  <si>
-    <t>ROB-02</t>
-  </si>
-  <si>
-    <t>Submit your ADR key to ShinyRob</t>
-  </si>
-  <si>
-    <t>Has user submitted ADR key to ShinyRob?</t>
-  </si>
-  <si>
-    <t>ShinyRob was developed by UNAIDS to assist country teams to review the quality of their programme data prior to using the data in the estimates models. ShinyRob accesses country programme data directly from your estimates Inputs Package on ADR. To allow ShinyRob to access your Inputs Package, enter your ADR key. Your ADR key can be found in the left side of your profile page on ADR. Once you're logged into ADR, simply click your name at the top of any page and look for your ADR key in the bottom left of the page. Copy the key and paste it into ShinyRob to select this year's Inputs Package for review.</t>
-  </si>
-  <si>
-    <t>ShinyRob https://shinyrob.unaids.org/
-AIDS Data Repository https://adr.unaids.org/me</t>
-  </si>
-  <si>
-    <t>check_manual_confirmation('EST-ROB-02-A')</t>
-  </si>
-  <si>
-    <t>ROB-CK-02</t>
-  </si>
-  <si>
-    <t>ROB-03-01-CK</t>
-  </si>
-  <si>
-    <t>ADR-03-01,ADR-04-01 complete?</t>
-  </si>
-  <si>
-    <t>ROB-03</t>
-  </si>
-  <si>
-    <t>In order to utilize the powerful data quality analyses provided by ShinyRob, you must select the relevant Inputs Package for this year, including geographic data package (named area boundary file in ADR), ART data package, and ANC data package.</t>
-  </si>
-  <si>
-    <t>ShinyRob https://shinyrob.unaids.org/
-AIDS Data Repository https://adr.unaids.org/</t>
-  </si>
-  <si>
-    <t>check_manual_confirmation('EST-ROB-03-A')</t>
-  </si>
-  <si>
-    <t>ROB-04</t>
-  </si>
-  <si>
-    <t>Ensure ShinyRob has validated your geographic (area boundary), ART, and ANC data files</t>
-  </si>
-  <si>
-    <t>Has ShinyRob validated the three packages (geographic, ART, ANC)?</t>
-  </si>
-  <si>
-    <t>Once selected, ShinyRob will conduct a cursory formatting review on the files and note each one as "valid". If they fail the validity test, you must return to ADR and the source files in the Inputs Package to correct the errors before ShinyRob can visualize the data.</t>
-  </si>
-  <si>
-    <t>@Fjelltopp - can we link directly to their organization Inputs Package?</t>
-  </si>
-  <si>
-    <t>check_manual_confirmation('EST-ROB-04-A')</t>
-  </si>
-  <si>
-    <t>ROB-05</t>
-  </si>
-  <si>
-    <t>Verify and/or correct any data anomoloies</t>
-  </si>
-  <si>
-    <t>Has user reviewed all programme data and corrected or verified any anomolies for use in HIV estimates?</t>
-  </si>
-  <si>
-    <t>Once your Inputs Packages are validated, you may review all data at the district level by clicking the "Visualize Data" link in the upper left of the screen. You may scroll through the different analyses in the tabs. ShinyRob will highlight any anomolies in your data with red lines (e.g., rapid quarter-to-quarter changes in values or ratios) to help you identify data quality issues. It's important to document any anomolies with your team to investigate further. Engage your district counterparts to investigate and resolve anomolies. Remember, data quality issues can have a major impact on your estimates. **Your estimates outputs are only as good as the quality of your Inputs Package. UNAIDS strongly recommends correcting any erroneous data in the source system and inputs templates prior to proceeding with your estimates process.** Once your data files have been corrected, you may upload them to ADR in lieu of the previous versions with errors. Once you are fully satisfied with the quality of all data files, you may proceed with the estimates process, starting with Milestone 4 - Enter Data into Spectrum.</t>
-  </si>
-  <si>
-    <t>check_manual_confirmation('EST-ROB-05-A')</t>
   </si>
   <si>
     <t>Enter Data Into Spectrum</t>
@@ -3018,7 +2822,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="112">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3131,20 +2935,14 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="8" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -3207,19 +3005,6 @@
     <xf borderId="5" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf quotePrefix="1" borderId="5" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="6" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
@@ -3249,6 +3034,9 @@
     <xf borderId="1" fillId="5" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="10" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -3267,6 +3055,12 @@
     </xf>
     <xf borderId="11" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -3306,10 +3100,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -10187,1468 +9977,6 @@
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
   <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="13.57"/>
-    <col customWidth="1" min="2" max="2" width="11.43"/>
-    <col customWidth="1" min="3" max="3" width="12.29"/>
-    <col customWidth="1" min="4" max="4" width="19.43"/>
-    <col customWidth="1" min="5" max="5" width="13.29"/>
-    <col customWidth="1" min="6" max="6" width="52.86"/>
-    <col customWidth="1" min="7" max="7" width="11.29"/>
-    <col customWidth="1" min="8" max="8" width="20.57"/>
-    <col customWidth="1" min="9" max="9" width="11.29"/>
-    <col customWidth="1" min="10" max="10" width="45.14"/>
-    <col customWidth="1" hidden="1" min="11" max="11" width="8.71"/>
-    <col customWidth="1" min="12" max="12" width="8.71"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="29" t="s">
-        <v>524</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>525</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="30" t="s">
-        <v>526</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="30">
-        <v>0.2</v>
-      </c>
-      <c r="G2" s="114"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-    </row>
-    <row r="3" ht="12.0" customHeight="1"/>
-    <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="83" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="111" t="s">
-        <v>527</v>
-      </c>
-      <c r="C4" s="83" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="83" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="83" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="83" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="83" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="83" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" s="49" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="5" ht="12.0" customHeight="1">
-      <c r="A5" s="15" t="s">
-        <v>528</v>
-      </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="15" t="s">
-        <v>529</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>530</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>531</v>
-      </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="23" t="s">
-        <v>532</v>
-      </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-    </row>
-    <row r="6" ht="12.0" customHeight="1">
-      <c r="A6" s="15" t="s">
-        <v>533</v>
-      </c>
-      <c r="B6" s="112" t="s">
-        <v>534</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>535</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>536</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>537</v>
-      </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="23" t="s">
-        <v>538</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="K6" s="15"/>
-    </row>
-    <row r="7" ht="12.0" customHeight="1">
-      <c r="A7" s="15" t="s">
-        <v>540</v>
-      </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="15" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>172</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>541</v>
-      </c>
-      <c r="F7" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="23" t="s">
-        <v>542</v>
-      </c>
-      <c r="J7" s="92"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8" ht="12.0" customHeight="1">
-      <c r="A8" s="15" t="s">
-        <v>543</v>
-      </c>
-      <c r="B8" s="112"/>
-      <c r="C8" s="15" t="s">
-        <v>177</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>178</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="23" t="s">
-        <v>544</v>
-      </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-    </row>
-    <row r="9" ht="12.0" customHeight="1">
-      <c r="A9" s="15" t="s">
-        <v>545</v>
-      </c>
-      <c r="B9" s="112" t="s">
-        <v>546</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>182</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>547</v>
-      </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="23" t="s">
-        <v>548</v>
-      </c>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-    </row>
-    <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" s="15" t="s">
-        <v>549</v>
-      </c>
-      <c r="B10" s="112" t="s">
-        <v>550</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>551</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>552</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>553</v>
-      </c>
-      <c r="F10" s="99" t="s">
-        <v>274</v>
-      </c>
-      <c r="G10" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="23" t="s">
-        <v>554</v>
-      </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-    </row>
-    <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="B11" s="112"/>
-      <c r="C11" s="15" t="s">
-        <v>556</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>557</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>558</v>
-      </c>
-      <c r="F11" s="99" t="s">
-        <v>559</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="23" t="s">
-        <v>560</v>
-      </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-    </row>
-    <row r="12" ht="49.5" customHeight="1">
-      <c r="A12" s="15" t="s">
-        <v>561</v>
-      </c>
-      <c r="B12" s="112" t="s">
-        <v>562</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>563</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>564</v>
-      </c>
-      <c r="E12" s="89" t="s">
-        <v>565</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>566</v>
-      </c>
-      <c r="G12" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="23" t="s">
-        <v>567</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="K12" s="15"/>
-    </row>
-    <row r="13" ht="12.0" customHeight="1">
-      <c r="A13" s="15" t="s">
-        <v>569</v>
-      </c>
-      <c r="B13" s="112" t="s">
-        <v>570</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>572</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>573</v>
-      </c>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="23" t="s">
-        <v>574</v>
-      </c>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-    </row>
-    <row r="14" ht="12.0" customHeight="1">
-      <c r="A14" s="15" t="s">
-        <v>575</v>
-      </c>
-      <c r="B14" s="112" t="s">
-        <v>576</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>577</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>578</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>579</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>580</v>
-      </c>
-      <c r="G14" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-    </row>
-    <row r="15" ht="12.0" customHeight="1">
-      <c r="A15" s="15" t="s">
-        <v>582</v>
-      </c>
-      <c r="B15" s="112"/>
-      <c r="C15" s="15" t="s">
-        <v>583</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>584</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>585</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="23" t="s">
-        <v>586</v>
-      </c>
-      <c r="J15" s="92"/>
-      <c r="K15" s="15"/>
-    </row>
-    <row r="16" ht="12.0" customHeight="1">
-      <c r="A16" s="15" t="s">
-        <v>587</v>
-      </c>
-      <c r="B16" s="112"/>
-      <c r="C16" s="15" t="s">
-        <v>588</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>589</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>590</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="23" t="s">
-        <v>591</v>
-      </c>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-    </row>
-    <row r="17" ht="12.0" customHeight="1">
-      <c r="A17" s="15" t="s">
-        <v>592</v>
-      </c>
-      <c r="B17" s="112"/>
-      <c r="C17" s="15" t="s">
-        <v>593</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>594</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>595</v>
-      </c>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="23" t="s">
-        <v>596</v>
-      </c>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-    </row>
-    <row r="18" ht="12.0" customHeight="1">
-      <c r="A18" s="15" t="s">
-        <v>597</v>
-      </c>
-      <c r="B18" s="112"/>
-      <c r="C18" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>599</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>600</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>601</v>
-      </c>
-      <c r="G18" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="23" t="s">
-        <v>602</v>
-      </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-    </row>
-    <row r="19" ht="12.0" customHeight="1"/>
-    <row r="20" ht="12.0" customHeight="1"/>
-    <row r="21" ht="12.0" customHeight="1"/>
-    <row r="22" ht="12.0" customHeight="1"/>
-    <row r="23" ht="12.0" customHeight="1"/>
-    <row r="24" ht="12.0" customHeight="1"/>
-    <row r="25" ht="12.0" customHeight="1"/>
-    <row r="26" ht="12.0" customHeight="1"/>
-    <row r="27" ht="12.0" customHeight="1"/>
-    <row r="28" ht="12.0" customHeight="1"/>
-    <row r="29" ht="12.0" customHeight="1"/>
-    <row r="30" ht="12.0" customHeight="1"/>
-    <row r="31" ht="12.0" customHeight="1"/>
-    <row r="32" ht="12.0" customHeight="1"/>
-    <row r="33" ht="12.0" customHeight="1"/>
-    <row r="34" ht="12.0" customHeight="1"/>
-    <row r="35" ht="12.0" customHeight="1"/>
-    <row r="36" ht="12.0" customHeight="1"/>
-    <row r="37" ht="12.0" customHeight="1"/>
-    <row r="38" ht="12.0" customHeight="1"/>
-    <row r="39" ht="12.0" customHeight="1"/>
-    <row r="40" ht="12.0" customHeight="1"/>
-    <row r="41" ht="12.0" customHeight="1"/>
-    <row r="42" ht="12.0" customHeight="1"/>
-    <row r="43" ht="12.0" customHeight="1"/>
-    <row r="44" ht="12.0" customHeight="1"/>
-    <row r="45" ht="12.0" customHeight="1"/>
-    <row r="46" ht="12.0" customHeight="1"/>
-    <row r="47" ht="12.0" customHeight="1"/>
-    <row r="48" ht="12.0" customHeight="1"/>
-    <row r="49" ht="12.0" customHeight="1"/>
-    <row r="50" ht="12.0" customHeight="1"/>
-    <row r="51" ht="12.0" customHeight="1"/>
-    <row r="52" ht="12.0" customHeight="1"/>
-    <row r="53" ht="12.0" customHeight="1"/>
-    <row r="54" ht="12.0" customHeight="1"/>
-    <row r="55" ht="12.0" customHeight="1"/>
-    <row r="56" ht="12.0" customHeight="1"/>
-    <row r="57" ht="12.0" customHeight="1"/>
-    <row r="58" ht="12.0" customHeight="1"/>
-    <row r="59" ht="12.0" customHeight="1"/>
-    <row r="60" ht="12.0" customHeight="1"/>
-    <row r="61" ht="12.0" customHeight="1"/>
-    <row r="62" ht="12.0" customHeight="1"/>
-    <row r="63" ht="12.0" customHeight="1"/>
-    <row r="64" ht="12.0" customHeight="1"/>
-    <row r="65" ht="12.0" customHeight="1"/>
-    <row r="66" ht="12.0" customHeight="1"/>
-    <row r="67" ht="12.0" customHeight="1"/>
-    <row r="68" ht="12.0" customHeight="1"/>
-    <row r="69" ht="12.0" customHeight="1"/>
-    <row r="70" ht="12.0" customHeight="1"/>
-    <row r="71" ht="12.0" customHeight="1"/>
-    <row r="72" ht="12.0" customHeight="1"/>
-    <row r="73" ht="12.0" customHeight="1"/>
-    <row r="74" ht="12.0" customHeight="1"/>
-    <row r="75" ht="12.0" customHeight="1"/>
-    <row r="76" ht="12.0" customHeight="1"/>
-    <row r="77" ht="12.0" customHeight="1"/>
-    <row r="78" ht="12.0" customHeight="1"/>
-    <row r="79" ht="12.0" customHeight="1"/>
-    <row r="80" ht="12.0" customHeight="1"/>
-    <row r="81" ht="12.0" customHeight="1"/>
-    <row r="82" ht="12.0" customHeight="1"/>
-    <row r="83" ht="12.0" customHeight="1"/>
-    <row r="84" ht="12.0" customHeight="1"/>
-    <row r="85" ht="12.0" customHeight="1"/>
-    <row r="86" ht="12.0" customHeight="1"/>
-    <row r="87" ht="12.0" customHeight="1"/>
-    <row r="88" ht="12.0" customHeight="1"/>
-    <row r="89" ht="12.0" customHeight="1"/>
-    <row r="90" ht="12.0" customHeight="1"/>
-    <row r="91" ht="12.0" customHeight="1"/>
-    <row r="92" ht="12.0" customHeight="1"/>
-    <row r="93" ht="12.0" customHeight="1"/>
-    <row r="94" ht="12.0" customHeight="1"/>
-    <row r="95" ht="12.0" customHeight="1"/>
-    <row r="96" ht="12.0" customHeight="1"/>
-    <row r="97" ht="12.0" customHeight="1"/>
-    <row r="98" ht="12.0" customHeight="1"/>
-    <row r="99" ht="12.0" customHeight="1"/>
-    <row r="100" ht="12.0" customHeight="1"/>
-    <row r="101" ht="12.0" customHeight="1"/>
-    <row r="102" ht="12.0" customHeight="1"/>
-    <row r="103" ht="12.0" customHeight="1"/>
-    <row r="104" ht="12.0" customHeight="1"/>
-    <row r="105" ht="12.0" customHeight="1"/>
-    <row r="106" ht="12.0" customHeight="1"/>
-    <row r="107" ht="12.0" customHeight="1"/>
-    <row r="108" ht="12.0" customHeight="1"/>
-    <row r="109" ht="12.0" customHeight="1"/>
-    <row r="110" ht="12.0" customHeight="1"/>
-    <row r="111" ht="12.0" customHeight="1"/>
-    <row r="112" ht="12.0" customHeight="1"/>
-    <row r="113" ht="12.0" customHeight="1"/>
-    <row r="114" ht="12.0" customHeight="1"/>
-    <row r="115" ht="12.0" customHeight="1"/>
-    <row r="116" ht="12.0" customHeight="1"/>
-    <row r="117" ht="12.0" customHeight="1"/>
-    <row r="118" ht="12.0" customHeight="1"/>
-    <row r="119" ht="12.0" customHeight="1"/>
-    <row r="120" ht="12.0" customHeight="1"/>
-    <row r="121" ht="12.0" customHeight="1"/>
-    <row r="122" ht="12.0" customHeight="1"/>
-    <row r="123" ht="12.0" customHeight="1"/>
-    <row r="124" ht="12.0" customHeight="1"/>
-    <row r="125" ht="12.0" customHeight="1"/>
-    <row r="126" ht="12.0" customHeight="1"/>
-    <row r="127" ht="12.0" customHeight="1"/>
-    <row r="128" ht="12.0" customHeight="1"/>
-    <row r="129" ht="12.0" customHeight="1"/>
-    <row r="130" ht="12.0" customHeight="1"/>
-    <row r="131" ht="12.0" customHeight="1"/>
-    <row r="132" ht="12.0" customHeight="1"/>
-    <row r="133" ht="12.0" customHeight="1"/>
-    <row r="134" ht="12.0" customHeight="1"/>
-    <row r="135" ht="12.0" customHeight="1"/>
-    <row r="136" ht="12.0" customHeight="1"/>
-    <row r="137" ht="12.0" customHeight="1"/>
-    <row r="138" ht="12.0" customHeight="1"/>
-    <row r="139" ht="12.0" customHeight="1"/>
-    <row r="140" ht="12.0" customHeight="1"/>
-    <row r="141" ht="12.0" customHeight="1"/>
-    <row r="142" ht="12.0" customHeight="1"/>
-    <row r="143" ht="12.0" customHeight="1"/>
-    <row r="144" ht="12.0" customHeight="1"/>
-    <row r="145" ht="12.0" customHeight="1"/>
-    <row r="146" ht="12.0" customHeight="1"/>
-    <row r="147" ht="12.0" customHeight="1"/>
-    <row r="148" ht="12.0" customHeight="1"/>
-    <row r="149" ht="12.0" customHeight="1"/>
-    <row r="150" ht="12.0" customHeight="1"/>
-    <row r="151" ht="12.0" customHeight="1"/>
-    <row r="152" ht="12.0" customHeight="1"/>
-    <row r="153" ht="12.0" customHeight="1"/>
-    <row r="154" ht="12.0" customHeight="1"/>
-    <row r="155" ht="12.0" customHeight="1"/>
-    <row r="156" ht="12.0" customHeight="1"/>
-    <row r="157" ht="12.0" customHeight="1"/>
-    <row r="158" ht="12.0" customHeight="1"/>
-    <row r="159" ht="12.0" customHeight="1"/>
-    <row r="160" ht="12.0" customHeight="1"/>
-    <row r="161" ht="12.0" customHeight="1"/>
-    <row r="162" ht="12.0" customHeight="1"/>
-    <row r="163" ht="12.0" customHeight="1"/>
-    <row r="164" ht="12.0" customHeight="1"/>
-    <row r="165" ht="12.0" customHeight="1"/>
-    <row r="166" ht="12.0" customHeight="1"/>
-    <row r="167" ht="12.0" customHeight="1"/>
-    <row r="168" ht="12.0" customHeight="1"/>
-    <row r="169" ht="12.0" customHeight="1"/>
-    <row r="170" ht="12.0" customHeight="1"/>
-    <row r="171" ht="12.0" customHeight="1"/>
-    <row r="172" ht="12.0" customHeight="1"/>
-    <row r="173" ht="12.0" customHeight="1"/>
-    <row r="174" ht="12.0" customHeight="1"/>
-    <row r="175" ht="12.0" customHeight="1"/>
-    <row r="176" ht="12.0" customHeight="1"/>
-    <row r="177" ht="12.0" customHeight="1"/>
-    <row r="178" ht="12.0" customHeight="1"/>
-    <row r="179" ht="12.0" customHeight="1"/>
-    <row r="180" ht="12.0" customHeight="1"/>
-    <row r="181" ht="12.0" customHeight="1"/>
-    <row r="182" ht="12.0" customHeight="1"/>
-    <row r="183" ht="12.0" customHeight="1"/>
-    <row r="184" ht="12.0" customHeight="1"/>
-    <row r="185" ht="12.0" customHeight="1"/>
-    <row r="186" ht="12.0" customHeight="1"/>
-    <row r="187" ht="12.0" customHeight="1"/>
-    <row r="188" ht="12.0" customHeight="1"/>
-    <row r="189" ht="12.0" customHeight="1"/>
-    <row r="190" ht="12.0" customHeight="1"/>
-    <row r="191" ht="12.0" customHeight="1"/>
-    <row r="192" ht="12.0" customHeight="1"/>
-    <row r="193" ht="12.0" customHeight="1"/>
-    <row r="194" ht="12.0" customHeight="1"/>
-    <row r="195" ht="12.0" customHeight="1"/>
-    <row r="196" ht="12.0" customHeight="1"/>
-    <row r="197" ht="12.0" customHeight="1"/>
-    <row r="198" ht="12.0" customHeight="1"/>
-    <row r="199" ht="12.0" customHeight="1"/>
-    <row r="200" ht="12.0" customHeight="1"/>
-    <row r="201" ht="12.0" customHeight="1"/>
-    <row r="202" ht="12.0" customHeight="1"/>
-    <row r="203" ht="12.0" customHeight="1"/>
-    <row r="204" ht="12.0" customHeight="1"/>
-    <row r="205" ht="12.0" customHeight="1"/>
-    <row r="206" ht="12.0" customHeight="1"/>
-    <row r="207" ht="12.0" customHeight="1"/>
-    <row r="208" ht="12.0" customHeight="1"/>
-    <row r="209" ht="12.0" customHeight="1"/>
-    <row r="210" ht="12.0" customHeight="1"/>
-    <row r="211" ht="12.0" customHeight="1"/>
-    <row r="212" ht="12.0" customHeight="1"/>
-    <row r="213" ht="12.0" customHeight="1"/>
-    <row r="214" ht="12.0" customHeight="1"/>
-    <row r="215" ht="12.0" customHeight="1"/>
-    <row r="216" ht="12.0" customHeight="1"/>
-    <row r="217" ht="12.0" customHeight="1"/>
-    <row r="218" ht="12.0" customHeight="1"/>
-    <row r="219" ht="12.0" customHeight="1"/>
-    <row r="220" ht="12.0" customHeight="1"/>
-    <row r="221" ht="12.0" customHeight="1"/>
-    <row r="222" ht="12.0" customHeight="1"/>
-    <row r="223" ht="12.0" customHeight="1"/>
-    <row r="224" ht="12.0" customHeight="1"/>
-    <row r="225" ht="12.0" customHeight="1"/>
-    <row r="226" ht="12.0" customHeight="1"/>
-    <row r="227" ht="12.0" customHeight="1"/>
-    <row r="228" ht="12.0" customHeight="1"/>
-    <row r="229" ht="12.0" customHeight="1"/>
-    <row r="230" ht="12.0" customHeight="1"/>
-    <row r="231" ht="12.0" customHeight="1"/>
-    <row r="232" ht="12.0" customHeight="1"/>
-    <row r="233" ht="12.0" customHeight="1"/>
-    <row r="234" ht="12.0" customHeight="1"/>
-    <row r="235" ht="12.0" customHeight="1"/>
-    <row r="236" ht="12.0" customHeight="1"/>
-    <row r="237" ht="12.0" customHeight="1"/>
-    <row r="238" ht="12.0" customHeight="1"/>
-    <row r="239" ht="12.0" customHeight="1"/>
-    <row r="240" ht="12.0" customHeight="1"/>
-    <row r="241" ht="12.0" customHeight="1"/>
-    <row r="242" ht="12.0" customHeight="1"/>
-    <row r="243" ht="12.0" customHeight="1"/>
-    <row r="244" ht="12.0" customHeight="1"/>
-    <row r="245" ht="12.0" customHeight="1"/>
-    <row r="246" ht="12.0" customHeight="1"/>
-    <row r="247" ht="12.0" customHeight="1"/>
-    <row r="248" ht="12.0" customHeight="1"/>
-    <row r="249" ht="12.0" customHeight="1"/>
-    <row r="250" ht="12.0" customHeight="1"/>
-    <row r="251" ht="12.0" customHeight="1"/>
-    <row r="252" ht="12.0" customHeight="1"/>
-    <row r="253" ht="12.0" customHeight="1"/>
-    <row r="254" ht="12.0" customHeight="1"/>
-    <row r="255" ht="12.0" customHeight="1"/>
-    <row r="256" ht="12.0" customHeight="1"/>
-    <row r="257" ht="12.0" customHeight="1"/>
-    <row r="258" ht="12.0" customHeight="1"/>
-    <row r="259" ht="12.0" customHeight="1"/>
-    <row r="260" ht="12.0" customHeight="1"/>
-    <row r="261" ht="12.0" customHeight="1"/>
-    <row r="262" ht="12.0" customHeight="1"/>
-    <row r="263" ht="12.0" customHeight="1"/>
-    <row r="264" ht="12.0" customHeight="1"/>
-    <row r="265" ht="12.0" customHeight="1"/>
-    <row r="266" ht="12.0" customHeight="1"/>
-    <row r="267" ht="12.0" customHeight="1"/>
-    <row r="268" ht="12.0" customHeight="1"/>
-    <row r="269" ht="12.0" customHeight="1"/>
-    <row r="270" ht="12.0" customHeight="1"/>
-    <row r="271" ht="12.0" customHeight="1"/>
-    <row r="272" ht="12.0" customHeight="1"/>
-    <row r="273" ht="12.0" customHeight="1"/>
-    <row r="274" ht="12.0" customHeight="1"/>
-    <row r="275" ht="12.0" customHeight="1"/>
-    <row r="276" ht="12.0" customHeight="1"/>
-    <row r="277" ht="12.0" customHeight="1"/>
-    <row r="278" ht="12.0" customHeight="1"/>
-    <row r="279" ht="12.0" customHeight="1"/>
-    <row r="280" ht="12.0" customHeight="1"/>
-    <row r="281" ht="12.0" customHeight="1"/>
-    <row r="282" ht="12.0" customHeight="1"/>
-    <row r="283" ht="12.0" customHeight="1"/>
-    <row r="284" ht="12.0" customHeight="1"/>
-    <row r="285" ht="12.0" customHeight="1"/>
-    <row r="286" ht="12.0" customHeight="1"/>
-    <row r="287" ht="12.0" customHeight="1"/>
-    <row r="288" ht="12.0" customHeight="1"/>
-    <row r="289" ht="12.0" customHeight="1"/>
-    <row r="290" ht="12.0" customHeight="1"/>
-    <row r="291" ht="12.0" customHeight="1"/>
-    <row r="292" ht="12.0" customHeight="1"/>
-    <row r="293" ht="12.0" customHeight="1"/>
-    <row r="294" ht="12.0" customHeight="1"/>
-    <row r="295" ht="12.0" customHeight="1"/>
-    <row r="296" ht="12.0" customHeight="1"/>
-    <row r="297" ht="12.0" customHeight="1"/>
-    <row r="298" ht="12.0" customHeight="1"/>
-    <row r="299" ht="12.0" customHeight="1"/>
-    <row r="300" ht="12.0" customHeight="1"/>
-    <row r="301" ht="12.0" customHeight="1"/>
-    <row r="302" ht="12.0" customHeight="1"/>
-    <row r="303" ht="12.0" customHeight="1"/>
-    <row r="304" ht="12.0" customHeight="1"/>
-    <row r="305" ht="12.0" customHeight="1"/>
-    <row r="306" ht="12.0" customHeight="1"/>
-    <row r="307" ht="12.0" customHeight="1"/>
-    <row r="308" ht="12.0" customHeight="1"/>
-    <row r="309" ht="12.0" customHeight="1"/>
-    <row r="310" ht="12.0" customHeight="1"/>
-    <row r="311" ht="12.0" customHeight="1"/>
-    <row r="312" ht="12.0" customHeight="1"/>
-    <row r="313" ht="12.0" customHeight="1"/>
-    <row r="314" ht="12.0" customHeight="1"/>
-    <row r="315" ht="12.0" customHeight="1"/>
-    <row r="316" ht="12.0" customHeight="1"/>
-    <row r="317" ht="12.0" customHeight="1"/>
-    <row r="318" ht="12.0" customHeight="1"/>
-    <row r="319" ht="12.0" customHeight="1"/>
-    <row r="320" ht="12.0" customHeight="1"/>
-    <row r="321" ht="12.0" customHeight="1"/>
-    <row r="322" ht="12.0" customHeight="1"/>
-    <row r="323" ht="12.0" customHeight="1"/>
-    <row r="324" ht="12.0" customHeight="1"/>
-    <row r="325" ht="12.0" customHeight="1"/>
-    <row r="326" ht="12.0" customHeight="1"/>
-    <row r="327" ht="12.0" customHeight="1"/>
-    <row r="328" ht="12.0" customHeight="1"/>
-    <row r="329" ht="12.0" customHeight="1"/>
-    <row r="330" ht="12.0" customHeight="1"/>
-    <row r="331" ht="12.0" customHeight="1"/>
-    <row r="332" ht="12.0" customHeight="1"/>
-    <row r="333" ht="12.0" customHeight="1"/>
-    <row r="334" ht="12.0" customHeight="1"/>
-    <row r="335" ht="12.0" customHeight="1"/>
-    <row r="336" ht="12.0" customHeight="1"/>
-    <row r="337" ht="12.0" customHeight="1"/>
-    <row r="338" ht="12.0" customHeight="1"/>
-    <row r="339" ht="12.0" customHeight="1"/>
-    <row r="340" ht="12.0" customHeight="1"/>
-    <row r="341" ht="12.0" customHeight="1"/>
-    <row r="342" ht="12.0" customHeight="1"/>
-    <row r="343" ht="12.0" customHeight="1"/>
-    <row r="344" ht="12.0" customHeight="1"/>
-    <row r="345" ht="12.0" customHeight="1"/>
-    <row r="346" ht="12.0" customHeight="1"/>
-    <row r="347" ht="12.0" customHeight="1"/>
-    <row r="348" ht="12.0" customHeight="1"/>
-    <row r="349" ht="12.0" customHeight="1"/>
-    <row r="350" ht="12.0" customHeight="1"/>
-    <row r="351" ht="12.0" customHeight="1"/>
-    <row r="352" ht="12.0" customHeight="1"/>
-    <row r="353" ht="12.0" customHeight="1"/>
-    <row r="354" ht="12.0" customHeight="1"/>
-    <row r="355" ht="12.0" customHeight="1"/>
-    <row r="356" ht="12.0" customHeight="1"/>
-    <row r="357" ht="12.0" customHeight="1"/>
-    <row r="358" ht="12.0" customHeight="1"/>
-    <row r="359" ht="12.0" customHeight="1"/>
-    <row r="360" ht="12.0" customHeight="1"/>
-    <row r="361" ht="12.0" customHeight="1"/>
-    <row r="362" ht="12.0" customHeight="1"/>
-    <row r="363" ht="12.0" customHeight="1"/>
-    <row r="364" ht="12.0" customHeight="1"/>
-    <row r="365" ht="12.0" customHeight="1"/>
-    <row r="366" ht="12.0" customHeight="1"/>
-    <row r="367" ht="12.0" customHeight="1"/>
-    <row r="368" ht="12.0" customHeight="1"/>
-    <row r="369" ht="12.0" customHeight="1"/>
-    <row r="370" ht="12.0" customHeight="1"/>
-    <row r="371" ht="12.0" customHeight="1"/>
-    <row r="372" ht="12.0" customHeight="1"/>
-    <row r="373" ht="12.0" customHeight="1"/>
-    <row r="374" ht="12.0" customHeight="1"/>
-    <row r="375" ht="12.0" customHeight="1"/>
-    <row r="376" ht="12.0" customHeight="1"/>
-    <row r="377" ht="12.0" customHeight="1"/>
-    <row r="378" ht="12.0" customHeight="1"/>
-    <row r="379" ht="12.0" customHeight="1"/>
-    <row r="380" ht="12.0" customHeight="1"/>
-    <row r="381" ht="12.0" customHeight="1"/>
-    <row r="382" ht="12.0" customHeight="1"/>
-    <row r="383" ht="12.0" customHeight="1"/>
-    <row r="384" ht="12.0" customHeight="1"/>
-    <row r="385" ht="12.0" customHeight="1"/>
-    <row r="386" ht="12.0" customHeight="1"/>
-    <row r="387" ht="12.0" customHeight="1"/>
-    <row r="388" ht="12.0" customHeight="1"/>
-    <row r="389" ht="12.0" customHeight="1"/>
-    <row r="390" ht="12.0" customHeight="1"/>
-    <row r="391" ht="12.0" customHeight="1"/>
-    <row r="392" ht="12.0" customHeight="1"/>
-    <row r="393" ht="12.0" customHeight="1"/>
-    <row r="394" ht="12.0" customHeight="1"/>
-    <row r="395" ht="12.0" customHeight="1"/>
-    <row r="396" ht="12.0" customHeight="1"/>
-    <row r="397" ht="12.0" customHeight="1"/>
-    <row r="398" ht="12.0" customHeight="1"/>
-    <row r="399" ht="12.0" customHeight="1"/>
-    <row r="400" ht="12.0" customHeight="1"/>
-    <row r="401" ht="12.0" customHeight="1"/>
-    <row r="402" ht="12.0" customHeight="1"/>
-    <row r="403" ht="12.0" customHeight="1"/>
-    <row r="404" ht="12.0" customHeight="1"/>
-    <row r="405" ht="12.0" customHeight="1"/>
-    <row r="406" ht="12.0" customHeight="1"/>
-    <row r="407" ht="12.0" customHeight="1"/>
-    <row r="408" ht="12.0" customHeight="1"/>
-    <row r="409" ht="12.0" customHeight="1"/>
-    <row r="410" ht="12.0" customHeight="1"/>
-    <row r="411" ht="12.0" customHeight="1"/>
-    <row r="412" ht="12.0" customHeight="1"/>
-    <row r="413" ht="12.0" customHeight="1"/>
-    <row r="414" ht="12.0" customHeight="1"/>
-    <row r="415" ht="12.0" customHeight="1"/>
-    <row r="416" ht="12.0" customHeight="1"/>
-    <row r="417" ht="12.0" customHeight="1"/>
-    <row r="418" ht="12.0" customHeight="1"/>
-    <row r="419" ht="12.0" customHeight="1"/>
-    <row r="420" ht="12.0" customHeight="1"/>
-    <row r="421" ht="12.0" customHeight="1"/>
-    <row r="422" ht="12.0" customHeight="1"/>
-    <row r="423" ht="12.0" customHeight="1"/>
-    <row r="424" ht="12.0" customHeight="1"/>
-    <row r="425" ht="12.0" customHeight="1"/>
-    <row r="426" ht="12.0" customHeight="1"/>
-    <row r="427" ht="12.0" customHeight="1"/>
-    <row r="428" ht="12.0" customHeight="1"/>
-    <row r="429" ht="12.0" customHeight="1"/>
-    <row r="430" ht="12.0" customHeight="1"/>
-    <row r="431" ht="12.0" customHeight="1"/>
-    <row r="432" ht="12.0" customHeight="1"/>
-    <row r="433" ht="12.0" customHeight="1"/>
-    <row r="434" ht="12.0" customHeight="1"/>
-    <row r="435" ht="12.0" customHeight="1"/>
-    <row r="436" ht="12.0" customHeight="1"/>
-    <row r="437" ht="12.0" customHeight="1"/>
-    <row r="438" ht="12.0" customHeight="1"/>
-    <row r="439" ht="12.0" customHeight="1"/>
-    <row r="440" ht="12.0" customHeight="1"/>
-    <row r="441" ht="12.0" customHeight="1"/>
-    <row r="442" ht="12.0" customHeight="1"/>
-    <row r="443" ht="12.0" customHeight="1"/>
-    <row r="444" ht="12.0" customHeight="1"/>
-    <row r="445" ht="12.0" customHeight="1"/>
-    <row r="446" ht="12.0" customHeight="1"/>
-    <row r="447" ht="12.0" customHeight="1"/>
-    <row r="448" ht="12.0" customHeight="1"/>
-    <row r="449" ht="12.0" customHeight="1"/>
-    <row r="450" ht="12.0" customHeight="1"/>
-    <row r="451" ht="12.0" customHeight="1"/>
-    <row r="452" ht="12.0" customHeight="1"/>
-    <row r="453" ht="12.0" customHeight="1"/>
-    <row r="454" ht="12.0" customHeight="1"/>
-    <row r="455" ht="12.0" customHeight="1"/>
-    <row r="456" ht="12.0" customHeight="1"/>
-    <row r="457" ht="12.0" customHeight="1"/>
-    <row r="458" ht="12.0" customHeight="1"/>
-    <row r="459" ht="12.0" customHeight="1"/>
-    <row r="460" ht="12.0" customHeight="1"/>
-    <row r="461" ht="12.0" customHeight="1"/>
-    <row r="462" ht="12.0" customHeight="1"/>
-    <row r="463" ht="12.0" customHeight="1"/>
-    <row r="464" ht="12.0" customHeight="1"/>
-    <row r="465" ht="12.0" customHeight="1"/>
-    <row r="466" ht="12.0" customHeight="1"/>
-    <row r="467" ht="12.0" customHeight="1"/>
-    <row r="468" ht="12.0" customHeight="1"/>
-    <row r="469" ht="12.0" customHeight="1"/>
-    <row r="470" ht="12.0" customHeight="1"/>
-    <row r="471" ht="12.0" customHeight="1"/>
-    <row r="472" ht="12.0" customHeight="1"/>
-    <row r="473" ht="12.0" customHeight="1"/>
-    <row r="474" ht="12.0" customHeight="1"/>
-    <row r="475" ht="12.0" customHeight="1"/>
-    <row r="476" ht="12.0" customHeight="1"/>
-    <row r="477" ht="12.0" customHeight="1"/>
-    <row r="478" ht="12.0" customHeight="1"/>
-    <row r="479" ht="12.0" customHeight="1"/>
-    <row r="480" ht="12.0" customHeight="1"/>
-    <row r="481" ht="12.0" customHeight="1"/>
-    <row r="482" ht="12.0" customHeight="1"/>
-    <row r="483" ht="12.0" customHeight="1"/>
-    <row r="484" ht="12.0" customHeight="1"/>
-    <row r="485" ht="12.0" customHeight="1"/>
-    <row r="486" ht="12.0" customHeight="1"/>
-    <row r="487" ht="12.0" customHeight="1"/>
-    <row r="488" ht="12.0" customHeight="1"/>
-    <row r="489" ht="12.0" customHeight="1"/>
-    <row r="490" ht="12.0" customHeight="1"/>
-    <row r="491" ht="12.0" customHeight="1"/>
-    <row r="492" ht="12.0" customHeight="1"/>
-    <row r="493" ht="12.0" customHeight="1"/>
-    <row r="494" ht="12.0" customHeight="1"/>
-    <row r="495" ht="12.0" customHeight="1"/>
-    <row r="496" ht="12.0" customHeight="1"/>
-    <row r="497" ht="12.0" customHeight="1"/>
-    <row r="498" ht="12.0" customHeight="1"/>
-    <row r="499" ht="12.0" customHeight="1"/>
-    <row r="500" ht="12.0" customHeight="1"/>
-    <row r="501" ht="12.0" customHeight="1"/>
-    <row r="502" ht="12.0" customHeight="1"/>
-    <row r="503" ht="12.0" customHeight="1"/>
-    <row r="504" ht="12.0" customHeight="1"/>
-    <row r="505" ht="12.0" customHeight="1"/>
-    <row r="506" ht="12.0" customHeight="1"/>
-    <row r="507" ht="12.0" customHeight="1"/>
-    <row r="508" ht="12.0" customHeight="1"/>
-    <row r="509" ht="12.0" customHeight="1"/>
-    <row r="510" ht="12.0" customHeight="1"/>
-    <row r="511" ht="12.0" customHeight="1"/>
-    <row r="512" ht="12.0" customHeight="1"/>
-    <row r="513" ht="12.0" customHeight="1"/>
-    <row r="514" ht="12.0" customHeight="1"/>
-    <row r="515" ht="12.0" customHeight="1"/>
-    <row r="516" ht="12.0" customHeight="1"/>
-    <row r="517" ht="12.0" customHeight="1"/>
-    <row r="518" ht="12.0" customHeight="1"/>
-    <row r="519" ht="12.0" customHeight="1"/>
-    <row r="520" ht="12.0" customHeight="1"/>
-    <row r="521" ht="12.0" customHeight="1"/>
-    <row r="522" ht="12.0" customHeight="1"/>
-    <row r="523" ht="12.0" customHeight="1"/>
-    <row r="524" ht="12.0" customHeight="1"/>
-    <row r="525" ht="12.0" customHeight="1"/>
-    <row r="526" ht="12.0" customHeight="1"/>
-    <row r="527" ht="12.0" customHeight="1"/>
-    <row r="528" ht="12.0" customHeight="1"/>
-    <row r="529" ht="12.0" customHeight="1"/>
-    <row r="530" ht="12.0" customHeight="1"/>
-    <row r="531" ht="12.0" customHeight="1"/>
-    <row r="532" ht="12.0" customHeight="1"/>
-    <row r="533" ht="12.0" customHeight="1"/>
-    <row r="534" ht="12.0" customHeight="1"/>
-    <row r="535" ht="12.0" customHeight="1"/>
-    <row r="536" ht="12.0" customHeight="1"/>
-    <row r="537" ht="12.0" customHeight="1"/>
-    <row r="538" ht="12.0" customHeight="1"/>
-    <row r="539" ht="12.0" customHeight="1"/>
-    <row r="540" ht="12.0" customHeight="1"/>
-    <row r="541" ht="12.0" customHeight="1"/>
-    <row r="542" ht="12.0" customHeight="1"/>
-    <row r="543" ht="12.0" customHeight="1"/>
-    <row r="544" ht="12.0" customHeight="1"/>
-    <row r="545" ht="12.0" customHeight="1"/>
-    <row r="546" ht="12.0" customHeight="1"/>
-    <row r="547" ht="12.0" customHeight="1"/>
-    <row r="548" ht="12.0" customHeight="1"/>
-    <row r="549" ht="12.0" customHeight="1"/>
-    <row r="550" ht="12.0" customHeight="1"/>
-    <row r="551" ht="12.0" customHeight="1"/>
-    <row r="552" ht="12.0" customHeight="1"/>
-    <row r="553" ht="12.0" customHeight="1"/>
-    <row r="554" ht="12.0" customHeight="1"/>
-    <row r="555" ht="12.0" customHeight="1"/>
-    <row r="556" ht="12.0" customHeight="1"/>
-    <row r="557" ht="12.0" customHeight="1"/>
-    <row r="558" ht="12.0" customHeight="1"/>
-    <row r="559" ht="12.0" customHeight="1"/>
-    <row r="560" ht="12.0" customHeight="1"/>
-    <row r="561" ht="12.0" customHeight="1"/>
-    <row r="562" ht="12.0" customHeight="1"/>
-    <row r="563" ht="12.0" customHeight="1"/>
-    <row r="564" ht="12.0" customHeight="1"/>
-    <row r="565" ht="12.0" customHeight="1"/>
-    <row r="566" ht="12.0" customHeight="1"/>
-    <row r="567" ht="12.0" customHeight="1"/>
-    <row r="568" ht="12.0" customHeight="1"/>
-    <row r="569" ht="12.0" customHeight="1"/>
-    <row r="570" ht="12.0" customHeight="1"/>
-    <row r="571" ht="12.0" customHeight="1"/>
-    <row r="572" ht="12.0" customHeight="1"/>
-    <row r="573" ht="12.0" customHeight="1"/>
-    <row r="574" ht="12.0" customHeight="1"/>
-    <row r="575" ht="12.0" customHeight="1"/>
-    <row r="576" ht="12.0" customHeight="1"/>
-    <row r="577" ht="12.0" customHeight="1"/>
-    <row r="578" ht="12.0" customHeight="1"/>
-    <row r="579" ht="12.0" customHeight="1"/>
-    <row r="580" ht="12.0" customHeight="1"/>
-    <row r="581" ht="12.0" customHeight="1"/>
-    <row r="582" ht="12.0" customHeight="1"/>
-    <row r="583" ht="12.0" customHeight="1"/>
-    <row r="584" ht="12.0" customHeight="1"/>
-    <row r="585" ht="12.0" customHeight="1"/>
-    <row r="586" ht="12.0" customHeight="1"/>
-    <row r="587" ht="12.0" customHeight="1"/>
-    <row r="588" ht="12.0" customHeight="1"/>
-    <row r="589" ht="12.0" customHeight="1"/>
-    <row r="590" ht="12.0" customHeight="1"/>
-    <row r="591" ht="12.0" customHeight="1"/>
-    <row r="592" ht="12.0" customHeight="1"/>
-    <row r="593" ht="12.0" customHeight="1"/>
-    <row r="594" ht="12.0" customHeight="1"/>
-    <row r="595" ht="12.0" customHeight="1"/>
-    <row r="596" ht="12.0" customHeight="1"/>
-    <row r="597" ht="12.0" customHeight="1"/>
-    <row r="598" ht="12.0" customHeight="1"/>
-    <row r="599" ht="12.0" customHeight="1"/>
-    <row r="600" ht="12.0" customHeight="1"/>
-    <row r="601" ht="12.0" customHeight="1"/>
-    <row r="602" ht="12.0" customHeight="1"/>
-    <row r="603" ht="12.0" customHeight="1"/>
-    <row r="604" ht="12.0" customHeight="1"/>
-    <row r="605" ht="12.0" customHeight="1"/>
-    <row r="606" ht="12.0" customHeight="1"/>
-    <row r="607" ht="12.0" customHeight="1"/>
-    <row r="608" ht="12.0" customHeight="1"/>
-    <row r="609" ht="12.0" customHeight="1"/>
-    <row r="610" ht="12.0" customHeight="1"/>
-    <row r="611" ht="12.0" customHeight="1"/>
-    <row r="612" ht="12.0" customHeight="1"/>
-    <row r="613" ht="12.0" customHeight="1"/>
-    <row r="614" ht="12.0" customHeight="1"/>
-    <row r="615" ht="12.0" customHeight="1"/>
-    <row r="616" ht="12.0" customHeight="1"/>
-    <row r="617" ht="12.0" customHeight="1"/>
-    <row r="618" ht="12.0" customHeight="1"/>
-    <row r="619" ht="12.0" customHeight="1"/>
-    <row r="620" ht="12.0" customHeight="1"/>
-    <row r="621" ht="12.0" customHeight="1"/>
-    <row r="622" ht="12.0" customHeight="1"/>
-    <row r="623" ht="12.0" customHeight="1"/>
-    <row r="624" ht="12.0" customHeight="1"/>
-    <row r="625" ht="12.0" customHeight="1"/>
-    <row r="626" ht="12.0" customHeight="1"/>
-    <row r="627" ht="12.0" customHeight="1"/>
-    <row r="628" ht="12.0" customHeight="1"/>
-    <row r="629" ht="12.0" customHeight="1"/>
-    <row r="630" ht="12.0" customHeight="1"/>
-    <row r="631" ht="12.0" customHeight="1"/>
-    <row r="632" ht="12.0" customHeight="1"/>
-    <row r="633" ht="12.0" customHeight="1"/>
-    <row r="634" ht="12.0" customHeight="1"/>
-    <row r="635" ht="12.0" customHeight="1"/>
-    <row r="636" ht="12.0" customHeight="1"/>
-    <row r="637" ht="12.0" customHeight="1"/>
-    <row r="638" ht="12.0" customHeight="1"/>
-    <row r="639" ht="12.0" customHeight="1"/>
-    <row r="640" ht="12.0" customHeight="1"/>
-    <row r="641" ht="12.0" customHeight="1"/>
-    <row r="642" ht="12.0" customHeight="1"/>
-    <row r="643" ht="12.0" customHeight="1"/>
-    <row r="644" ht="12.0" customHeight="1"/>
-    <row r="645" ht="12.0" customHeight="1"/>
-    <row r="646" ht="12.0" customHeight="1"/>
-    <row r="647" ht="12.0" customHeight="1"/>
-    <row r="648" ht="12.0" customHeight="1"/>
-    <row r="649" ht="12.0" customHeight="1"/>
-    <row r="650" ht="12.0" customHeight="1"/>
-    <row r="651" ht="12.0" customHeight="1"/>
-    <row r="652" ht="12.0" customHeight="1"/>
-    <row r="653" ht="12.0" customHeight="1"/>
-    <row r="654" ht="12.0" customHeight="1"/>
-    <row r="655" ht="12.0" customHeight="1"/>
-    <row r="656" ht="12.0" customHeight="1"/>
-    <row r="657" ht="12.0" customHeight="1"/>
-    <row r="658" ht="12.0" customHeight="1"/>
-    <row r="659" ht="12.0" customHeight="1"/>
-    <row r="660" ht="12.0" customHeight="1"/>
-    <row r="661" ht="12.0" customHeight="1"/>
-    <row r="662" ht="12.0" customHeight="1"/>
-    <row r="663" ht="12.0" customHeight="1"/>
-    <row r="664" ht="12.0" customHeight="1"/>
-    <row r="665" ht="12.0" customHeight="1"/>
-    <row r="666" ht="12.0" customHeight="1"/>
-    <row r="667" ht="12.0" customHeight="1"/>
-    <row r="668" ht="12.0" customHeight="1"/>
-    <row r="669" ht="12.0" customHeight="1"/>
-    <row r="670" ht="12.0" customHeight="1"/>
-    <row r="671" ht="12.0" customHeight="1"/>
-    <row r="672" ht="12.0" customHeight="1"/>
-    <row r="673" ht="12.0" customHeight="1"/>
-    <row r="674" ht="12.0" customHeight="1"/>
-    <row r="675" ht="12.0" customHeight="1"/>
-    <row r="676" ht="12.0" customHeight="1"/>
-    <row r="677" ht="12.0" customHeight="1"/>
-    <row r="678" ht="12.0" customHeight="1"/>
-    <row r="679" ht="12.0" customHeight="1"/>
-    <row r="680" ht="12.0" customHeight="1"/>
-    <row r="681" ht="12.0" customHeight="1"/>
-    <row r="682" ht="12.0" customHeight="1"/>
-    <row r="683" ht="12.0" customHeight="1"/>
-    <row r="684" ht="12.0" customHeight="1"/>
-    <row r="685" ht="12.0" customHeight="1"/>
-    <row r="686" ht="12.0" customHeight="1"/>
-    <row r="687" ht="12.0" customHeight="1"/>
-    <row r="688" ht="12.0" customHeight="1"/>
-    <row r="689" ht="12.0" customHeight="1"/>
-    <row r="690" ht="12.0" customHeight="1"/>
-    <row r="691" ht="12.0" customHeight="1"/>
-    <row r="692" ht="12.0" customHeight="1"/>
-    <row r="693" ht="12.0" customHeight="1"/>
-    <row r="694" ht="12.0" customHeight="1"/>
-    <row r="695" ht="12.0" customHeight="1"/>
-    <row r="696" ht="12.0" customHeight="1"/>
-    <row r="697" ht="12.0" customHeight="1"/>
-    <row r="698" ht="12.0" customHeight="1"/>
-    <row r="699" ht="12.0" customHeight="1"/>
-    <row r="700" ht="12.0" customHeight="1"/>
-    <row r="701" ht="12.0" customHeight="1"/>
-    <row r="702" ht="12.0" customHeight="1"/>
-    <row r="703" ht="12.0" customHeight="1"/>
-    <row r="704" ht="12.0" customHeight="1"/>
-    <row r="705" ht="12.0" customHeight="1"/>
-    <row r="706" ht="12.0" customHeight="1"/>
-    <row r="707" ht="12.0" customHeight="1"/>
-    <row r="708" ht="12.0" customHeight="1"/>
-    <row r="709" ht="12.0" customHeight="1"/>
-    <row r="710" ht="12.0" customHeight="1"/>
-    <row r="711" ht="12.0" customHeight="1"/>
-    <row r="712" ht="12.0" customHeight="1"/>
-    <row r="713" ht="12.0" customHeight="1"/>
-    <row r="714" ht="12.0" customHeight="1"/>
-    <row r="715" ht="12.0" customHeight="1"/>
-    <row r="716" ht="12.0" customHeight="1"/>
-    <row r="717" ht="12.0" customHeight="1"/>
-    <row r="718" ht="12.0" customHeight="1"/>
-    <row r="719" ht="12.0" customHeight="1"/>
-    <row r="720" ht="12.0" customHeight="1"/>
-    <row r="721" ht="12.0" customHeight="1"/>
-    <row r="722" ht="12.0" customHeight="1"/>
-    <row r="723" ht="12.0" customHeight="1"/>
-    <row r="724" ht="12.0" customHeight="1"/>
-    <row r="725" ht="12.0" customHeight="1"/>
-    <row r="726" ht="12.0" customHeight="1"/>
-    <row r="727" ht="12.0" customHeight="1"/>
-    <row r="728" ht="12.0" customHeight="1"/>
-    <row r="729" ht="12.0" customHeight="1"/>
-    <row r="730" ht="12.0" customHeight="1"/>
-    <row r="731" ht="12.0" customHeight="1"/>
-    <row r="732" ht="12.0" customHeight="1"/>
-    <row r="733" ht="12.0" customHeight="1"/>
-    <row r="734" ht="12.0" customHeight="1"/>
-    <row r="735" ht="12.0" customHeight="1"/>
-    <row r="736" ht="12.0" customHeight="1"/>
-    <row r="737" ht="12.0" customHeight="1"/>
-    <row r="738" ht="12.0" customHeight="1"/>
-    <row r="739" ht="12.0" customHeight="1"/>
-    <row r="740" ht="12.0" customHeight="1"/>
-    <row r="741" ht="12.0" customHeight="1"/>
-    <row r="742" ht="12.0" customHeight="1"/>
-    <row r="743" ht="12.0" customHeight="1"/>
-    <row r="744" ht="12.0" customHeight="1"/>
-    <row r="745" ht="12.0" customHeight="1"/>
-    <row r="746" ht="12.0" customHeight="1"/>
-    <row r="747" ht="12.0" customHeight="1"/>
-    <row r="748" ht="12.0" customHeight="1"/>
-    <row r="749" ht="12.0" customHeight="1"/>
-    <row r="750" ht="12.0" customHeight="1"/>
-    <row r="751" ht="12.0" customHeight="1"/>
-    <row r="752" ht="12.0" customHeight="1"/>
-    <row r="753" ht="12.0" customHeight="1"/>
-    <row r="754" ht="12.0" customHeight="1"/>
-    <row r="755" ht="12.0" customHeight="1"/>
-    <row r="756" ht="12.0" customHeight="1"/>
-    <row r="757" ht="12.0" customHeight="1"/>
-    <row r="758" ht="12.0" customHeight="1"/>
-    <row r="759" ht="12.0" customHeight="1"/>
-    <row r="760" ht="12.0" customHeight="1"/>
-    <row r="761" ht="12.0" customHeight="1"/>
-    <row r="762" ht="12.0" customHeight="1"/>
-    <row r="763" ht="12.0" customHeight="1"/>
-    <row r="764" ht="12.0" customHeight="1"/>
-    <row r="765" ht="12.0" customHeight="1"/>
-    <row r="766" ht="12.0" customHeight="1"/>
-    <row r="767" ht="12.0" customHeight="1"/>
-    <row r="768" ht="12.0" customHeight="1"/>
-    <row r="769" ht="12.0" customHeight="1"/>
-    <row r="770" ht="12.0" customHeight="1"/>
-    <row r="771" ht="12.0" customHeight="1"/>
-    <row r="772" ht="12.0" customHeight="1"/>
-    <row r="773" ht="12.0" customHeight="1"/>
-    <row r="774" ht="12.0" customHeight="1"/>
-    <row r="775" ht="12.0" customHeight="1"/>
-    <row r="776" ht="12.0" customHeight="1"/>
-    <row r="777" ht="12.0" customHeight="1"/>
-    <row r="778" ht="12.0" customHeight="1"/>
-    <row r="779" ht="12.0" customHeight="1"/>
-    <row r="780" ht="12.0" customHeight="1"/>
-    <row r="781" ht="12.0" customHeight="1"/>
-    <row r="782" ht="12.0" customHeight="1"/>
-    <row r="783" ht="12.0" customHeight="1"/>
-    <row r="784" ht="12.0" customHeight="1"/>
-    <row r="785" ht="12.0" customHeight="1"/>
-    <row r="786" ht="12.0" customHeight="1"/>
-    <row r="787" ht="12.0" customHeight="1"/>
-    <row r="788" ht="12.0" customHeight="1"/>
-    <row r="789" ht="12.0" customHeight="1"/>
-    <row r="790" ht="12.0" customHeight="1"/>
-    <row r="791" ht="12.0" customHeight="1"/>
-    <row r="792" ht="12.0" customHeight="1"/>
-    <row r="793" ht="12.0" customHeight="1"/>
-    <row r="794" ht="12.0" customHeight="1"/>
-    <row r="795" ht="12.0" customHeight="1"/>
-    <row r="796" ht="12.0" customHeight="1"/>
-    <row r="797" ht="12.0" customHeight="1"/>
-    <row r="798" ht="12.0" customHeight="1"/>
-    <row r="799" ht="12.0" customHeight="1"/>
-    <row r="800" ht="12.0" customHeight="1"/>
-    <row r="801" ht="12.0" customHeight="1"/>
-    <row r="802" ht="12.0" customHeight="1"/>
-    <row r="803" ht="12.0" customHeight="1"/>
-    <row r="804" ht="12.0" customHeight="1"/>
-    <row r="805" ht="12.0" customHeight="1"/>
-    <row r="806" ht="12.0" customHeight="1"/>
-    <row r="807" ht="12.0" customHeight="1"/>
-    <row r="808" ht="12.0" customHeight="1"/>
-    <row r="809" ht="12.0" customHeight="1"/>
-    <row r="810" ht="12.0" customHeight="1"/>
-    <row r="811" ht="12.0" customHeight="1"/>
-    <row r="812" ht="12.0" customHeight="1"/>
-    <row r="813" ht="12.0" customHeight="1"/>
-    <row r="814" ht="12.0" customHeight="1"/>
-    <row r="815" ht="12.0" customHeight="1"/>
-    <row r="816" ht="12.0" customHeight="1"/>
-    <row r="817" ht="12.0" customHeight="1"/>
-    <row r="818" ht="12.0" customHeight="1"/>
-    <row r="819" ht="12.0" customHeight="1"/>
-    <row r="820" ht="12.0" customHeight="1"/>
-    <row r="821" ht="12.0" customHeight="1"/>
-    <row r="822" ht="12.0" customHeight="1"/>
-    <row r="823" ht="12.0" customHeight="1"/>
-    <row r="824" ht="12.0" customHeight="1"/>
-    <row r="825" ht="12.0" customHeight="1"/>
-    <row r="826" ht="12.0" customHeight="1"/>
-    <row r="827" ht="12.0" customHeight="1"/>
-    <row r="828" ht="12.0" customHeight="1"/>
-    <row r="829" ht="12.0" customHeight="1"/>
-    <row r="830" ht="12.0" customHeight="1"/>
-    <row r="831" ht="12.0" customHeight="1"/>
-    <row r="832" ht="12.0" customHeight="1"/>
-    <row r="833" ht="12.0" customHeight="1"/>
-    <row r="834" ht="12.0" customHeight="1"/>
-    <row r="835" ht="12.0" customHeight="1"/>
-    <row r="836" ht="12.0" customHeight="1"/>
-    <row r="837" ht="12.0" customHeight="1"/>
-    <row r="838" ht="12.0" customHeight="1"/>
-    <row r="839" ht="12.0" customHeight="1"/>
-    <row r="840" ht="12.0" customHeight="1"/>
-    <row r="841" ht="12.0" customHeight="1"/>
-    <row r="842" ht="12.0" customHeight="1"/>
-    <row r="843" ht="12.0" customHeight="1"/>
-    <row r="844" ht="12.0" customHeight="1"/>
-    <row r="845" ht="12.0" customHeight="1"/>
-    <row r="846" ht="12.0" customHeight="1"/>
-    <row r="847" ht="12.0" customHeight="1"/>
-    <row r="848" ht="12.0" customHeight="1"/>
-    <row r="849" ht="12.0" customHeight="1"/>
-    <row r="850" ht="12.0" customHeight="1"/>
-    <row r="851" ht="12.0" customHeight="1"/>
-    <row r="852" ht="12.0" customHeight="1"/>
-    <row r="853" ht="12.0" customHeight="1"/>
-    <row r="854" ht="12.0" customHeight="1"/>
-    <row r="855" ht="12.0" customHeight="1"/>
-    <row r="856" ht="12.0" customHeight="1"/>
-    <row r="857" ht="12.0" customHeight="1"/>
-    <row r="858" ht="12.0" customHeight="1"/>
-    <row r="859" ht="12.0" customHeight="1"/>
-    <row r="860" ht="12.0" customHeight="1"/>
-    <row r="861" ht="12.0" customHeight="1"/>
-    <row r="862" ht="12.0" customHeight="1"/>
-    <row r="863" ht="12.0" customHeight="1"/>
-    <row r="864" ht="12.0" customHeight="1"/>
-    <row r="865" ht="12.0" customHeight="1"/>
-    <row r="866" ht="12.0" customHeight="1"/>
-    <row r="867" ht="12.0" customHeight="1"/>
-    <row r="868" ht="12.0" customHeight="1"/>
-    <row r="869" ht="12.0" customHeight="1"/>
-    <row r="870" ht="12.0" customHeight="1"/>
-    <row r="871" ht="12.0" customHeight="1"/>
-    <row r="872" ht="12.0" customHeight="1"/>
-    <row r="873" ht="12.0" customHeight="1"/>
-    <row r="874" ht="12.0" customHeight="1"/>
-    <row r="875" ht="12.0" customHeight="1"/>
-    <row r="876" ht="12.0" customHeight="1"/>
-    <row r="877" ht="12.0" customHeight="1"/>
-    <row r="878" ht="12.0" customHeight="1"/>
-    <row r="879" ht="12.0" customHeight="1"/>
-    <row r="880" ht="12.0" customHeight="1"/>
-    <row r="881" ht="12.0" customHeight="1"/>
-    <row r="882" ht="12.0" customHeight="1"/>
-    <row r="883" ht="12.0" customHeight="1"/>
-    <row r="884" ht="12.0" customHeight="1"/>
-    <row r="885" ht="12.0" customHeight="1"/>
-    <row r="886" ht="12.0" customHeight="1"/>
-    <row r="887" ht="12.0" customHeight="1"/>
-    <row r="888" ht="12.0" customHeight="1"/>
-    <row r="889" ht="12.0" customHeight="1"/>
-    <row r="890" ht="12.0" customHeight="1"/>
-    <row r="891" ht="12.0" customHeight="1"/>
-    <row r="892" ht="12.0" customHeight="1"/>
-    <row r="893" ht="12.0" customHeight="1"/>
-    <row r="894" ht="12.0" customHeight="1"/>
-    <row r="895" ht="12.0" customHeight="1"/>
-    <row r="896" ht="12.0" customHeight="1"/>
-    <row r="897" ht="12.0" customHeight="1"/>
-    <row r="898" ht="12.0" customHeight="1"/>
-    <row r="899" ht="12.0" customHeight="1"/>
-    <row r="900" ht="12.0" customHeight="1"/>
-    <row r="901" ht="12.0" customHeight="1"/>
-    <row r="902" ht="12.0" customHeight="1"/>
-    <row r="903" ht="12.0" customHeight="1"/>
-    <row r="904" ht="12.0" customHeight="1"/>
-    <row r="905" ht="12.0" customHeight="1"/>
-    <row r="906" ht="12.0" customHeight="1"/>
-    <row r="907" ht="12.0" customHeight="1"/>
-    <row r="908" ht="12.0" customHeight="1"/>
-    <row r="909" ht="12.0" customHeight="1"/>
-    <row r="910" ht="12.0" customHeight="1"/>
-    <row r="911" ht="12.0" customHeight="1"/>
-    <row r="912" ht="12.0" customHeight="1"/>
-    <row r="913" ht="12.0" customHeight="1"/>
-    <row r="914" ht="12.0" customHeight="1"/>
-    <row r="915" ht="12.0" customHeight="1"/>
-    <row r="916" ht="12.0" customHeight="1"/>
-    <row r="917" ht="12.0" customHeight="1"/>
-    <row r="918" ht="12.0" customHeight="1"/>
-    <row r="919" ht="12.0" customHeight="1"/>
-    <row r="920" ht="12.0" customHeight="1"/>
-    <row r="921" ht="12.0" customHeight="1"/>
-    <row r="922" ht="12.0" customHeight="1"/>
-    <row r="923" ht="12.0" customHeight="1"/>
-    <row r="924" ht="12.0" customHeight="1"/>
-    <row r="925" ht="12.0" customHeight="1"/>
-    <row r="926" ht="12.0" customHeight="1"/>
-    <row r="927" ht="12.0" customHeight="1"/>
-    <row r="928" ht="12.0" customHeight="1"/>
-    <row r="929" ht="12.0" customHeight="1"/>
-    <row r="930" ht="12.0" customHeight="1"/>
-    <row r="931" ht="12.0" customHeight="1"/>
-    <row r="932" ht="12.0" customHeight="1"/>
-    <row r="933" ht="12.0" customHeight="1"/>
-    <row r="934" ht="12.0" customHeight="1"/>
-    <row r="935" ht="12.0" customHeight="1"/>
-    <row r="936" ht="12.0" customHeight="1"/>
-    <row r="937" ht="12.0" customHeight="1"/>
-    <row r="938" ht="12.0" customHeight="1"/>
-    <row r="939" ht="12.0" customHeight="1"/>
-    <row r="940" ht="12.0" customHeight="1"/>
-    <row r="941" ht="12.0" customHeight="1"/>
-    <row r="942" ht="12.0" customHeight="1"/>
-    <row r="943" ht="12.0" customHeight="1"/>
-    <row r="944" ht="12.0" customHeight="1"/>
-    <row r="945" ht="12.0" customHeight="1"/>
-    <row r="946" ht="12.0" customHeight="1"/>
-    <row r="947" ht="12.0" customHeight="1"/>
-    <row r="948" ht="12.0" customHeight="1"/>
-    <row r="949" ht="12.0" customHeight="1"/>
-    <row r="950" ht="12.0" customHeight="1"/>
-    <row r="951" ht="12.0" customHeight="1"/>
-    <row r="952" ht="12.0" customHeight="1"/>
-    <row r="953" ht="12.0" customHeight="1"/>
-    <row r="954" ht="12.0" customHeight="1"/>
-    <row r="955" ht="12.0" customHeight="1"/>
-    <row r="956" ht="12.0" customHeight="1"/>
-    <row r="957" ht="12.0" customHeight="1"/>
-    <row r="958" ht="12.0" customHeight="1"/>
-    <row r="959" ht="12.0" customHeight="1"/>
-    <row r="960" ht="12.0" customHeight="1"/>
-    <row r="961" ht="12.0" customHeight="1"/>
-    <row r="962" ht="12.0" customHeight="1"/>
-    <row r="963" ht="12.0" customHeight="1"/>
-    <row r="964" ht="12.0" customHeight="1"/>
-    <row r="965" ht="12.0" customHeight="1"/>
-    <row r="966" ht="12.0" customHeight="1"/>
-    <row r="967" ht="12.0" customHeight="1"/>
-    <row r="968" ht="12.0" customHeight="1"/>
-    <row r="969" ht="12.0" customHeight="1"/>
-    <row r="970" ht="12.0" customHeight="1"/>
-    <row r="971" ht="12.0" customHeight="1"/>
-    <row r="972" ht="12.0" customHeight="1"/>
-    <row r="973" ht="12.0" customHeight="1"/>
-    <row r="974" ht="12.0" customHeight="1"/>
-    <row r="975" ht="12.0" customHeight="1"/>
-    <row r="976" ht="12.0" customHeight="1"/>
-    <row r="977" ht="12.0" customHeight="1"/>
-    <row r="978" ht="12.0" customHeight="1"/>
-    <row r="979" ht="12.0" customHeight="1"/>
-    <row r="980" ht="12.0" customHeight="1"/>
-    <row r="981" ht="12.0" customHeight="1"/>
-    <row r="982" ht="12.0" customHeight="1"/>
-    <row r="983" ht="12.0" customHeight="1"/>
-    <row r="984" ht="12.0" customHeight="1"/>
-    <row r="985" ht="12.0" customHeight="1"/>
-    <row r="986" ht="12.0" customHeight="1"/>
-    <row r="987" ht="12.0" customHeight="1"/>
-    <row r="988" ht="12.0" customHeight="1"/>
-    <row r="989" ht="12.0" customHeight="1"/>
-    <row r="990" ht="12.0" customHeight="1"/>
-    <row r="991" ht="12.0" customHeight="1"/>
-    <row r="992" ht="12.0" customHeight="1"/>
-    <row r="993" ht="12.0" customHeight="1"/>
-    <row r="994" ht="12.0" customHeight="1"/>
-    <row r="995" ht="12.0" customHeight="1"/>
-    <row r="996" ht="12.0" customHeight="1"/>
-    <row r="997" ht="12.0" customHeight="1"/>
-    <row r="998" ht="12.0" customHeight="1"/>
-    <row r="999" ht="12.0" customHeight="1"/>
-    <row r="1000" ht="12.0" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink r:id="rId2" ref="E12"/>
-  </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -13291,7 +11619,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" ht="92.25" customHeight="1">
+    <row r="5" ht="12.0" customHeight="1">
       <c r="A5" s="50" t="s">
         <v>116</v>
       </c>
@@ -13304,134 +11632,148 @@
       <c r="D5" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="37"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="F5" s="52">
-        <v>1.0</v>
-      </c>
-      <c r="G5" s="53" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="17" t="s">
         <v>121</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="51" t="s">
+    </row>
+    <row r="6" ht="168.0" customHeight="1">
+      <c r="A6" s="50" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="6" ht="12.0" customHeight="1">
-      <c r="A6" s="54" t="s">
+      <c r="B6" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="C6" s="53" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="51" t="s">
+      <c r="D6" s="53" t="s">
         <v>125</v>
-      </c>
-      <c r="D6" s="51" t="s">
-        <v>126</v>
       </c>
       <c r="E6" s="37"/>
       <c r="F6" s="39"/>
-      <c r="G6" s="53" t="s">
+      <c r="G6" s="54"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="J6" s="56"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+      <c r="M6" s="56"/>
+      <c r="N6" s="56"/>
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="56"/>
+      <c r="Y6" s="56"/>
+    </row>
+    <row r="7" ht="12.0" customHeight="1">
+      <c r="A7" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="17" t="s">
+      <c r="B7" s="37" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="7" ht="69.0" customHeight="1">
-      <c r="A7" s="54" t="s">
+      <c r="C7" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="55" t="s">
+      <c r="D7" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="E7" s="37"/>
+      <c r="F7" s="39">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="54"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="55" t="s">
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="56"/>
+      <c r="Y7" s="56"/>
+    </row>
+    <row r="8" ht="128.25" customHeight="1">
+      <c r="A8" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="56"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="57" t="s">
+      <c r="B8" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="58"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="58"/>
-      <c r="V7" s="58"/>
-      <c r="W7" s="58"/>
-      <c r="X7" s="58"/>
-      <c r="Y7" s="58"/>
-    </row>
-    <row r="8" ht="12.0" customHeight="1">
-      <c r="A8" s="59" t="s">
+      <c r="C8" s="37" t="s">
         <v>134</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="D8" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="E8" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="51" t="s">
-        <v>137</v>
-      </c>
-      <c r="E8" s="37"/>
       <c r="F8" s="39">
         <v>1.0</v>
       </c>
-      <c r="G8" s="56"/>
+      <c r="G8" s="37"/>
       <c r="H8" s="18"/>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+      <c r="W8" s="6"/>
+      <c r="X8" s="6"/>
+      <c r="Y8" s="6"/>
+    </row>
+    <row r="9" ht="99.75" customHeight="1">
+      <c r="A9" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="58"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="58"/>
-      <c r="U8" s="58"/>
-      <c r="V8" s="58"/>
-      <c r="W8" s="58"/>
-      <c r="X8" s="58"/>
-      <c r="Y8" s="58"/>
-    </row>
-    <row r="9" ht="26.25" customHeight="1">
-      <c r="A9" s="59" t="s">
+      <c r="B9" s="37" t="s">
         <v>139</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="C9" s="37" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="D9" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="E9" s="42" t="s">
         <v>142</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>143</v>
       </c>
       <c r="F9" s="39">
         <v>1.0</v>
@@ -13439,7 +11781,7 @@
       <c r="G9" s="37"/>
       <c r="H9" s="18"/>
       <c r="I9" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="6"/>
@@ -13458,29 +11800,29 @@
       <c r="X9" s="6"/>
       <c r="Y9" s="6"/>
     </row>
-    <row r="10" ht="99.75" customHeight="1">
-      <c r="A10" s="59" t="s">
+    <row r="10" ht="12.0" customHeight="1">
+      <c r="A10" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="59" t="s">
         <v>145</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="C10" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="D10" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="E10" s="60" t="s">
         <v>148</v>
       </c>
-      <c r="E10" s="42" t="s">
+      <c r="F10" s="61">
+        <v>1.0</v>
+      </c>
+      <c r="G10" s="62"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64" t="s">
         <v>149</v>
-      </c>
-      <c r="F10" s="39">
-        <v>1.0</v>
-      </c>
-      <c r="G10" s="37"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18" t="s">
-        <v>150</v>
       </c>
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
@@ -13500,86 +11842,46 @@
       <c r="Y10" s="6"/>
     </row>
     <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="B11" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="C11" s="37" t="s">
         <v>152</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="D11" s="37" t="s">
         <v>153</v>
       </c>
-      <c r="D11" s="61" t="s">
+      <c r="E11" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="E11" s="62" t="s">
+      <c r="F11" s="37">
+        <v>1.0</v>
+      </c>
+      <c r="G11" s="37"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="F11" s="63">
-        <v>1.0</v>
-      </c>
-      <c r="G11" s="64"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="66" t="s">
-        <v>156</v>
-      </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="6"/>
-    </row>
-    <row r="12" ht="12.0" customHeight="1">
-      <c r="A12" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>158</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="F12" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="G12" s="37"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="J12" s="67"/>
-      <c r="K12" s="67"/>
-      <c r="L12" s="67"/>
-      <c r="M12" s="67"/>
-      <c r="N12" s="67"/>
-      <c r="O12" s="67"/>
-      <c r="P12" s="67"/>
-      <c r="Q12" s="67"/>
-      <c r="R12" s="67"/>
-      <c r="S12" s="67"/>
-      <c r="T12" s="67"/>
-      <c r="U12" s="67"/>
-      <c r="V12" s="67"/>
-      <c r="W12" s="67"/>
-      <c r="X12" s="67"/>
-    </row>
+      <c r="J11" s="65"/>
+      <c r="K11" s="65"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="65"/>
+      <c r="N11" s="65"/>
+      <c r="O11" s="65"/>
+      <c r="P11" s="65"/>
+      <c r="Q11" s="65"/>
+      <c r="R11" s="65"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="65"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="65"/>
+      <c r="W11" s="65"/>
+      <c r="X11" s="65"/>
+    </row>
+    <row r="12" ht="12.0" customHeight="1"/>
     <row r="13" ht="12.0" customHeight="1"/>
     <row r="14" ht="12.0" customHeight="1"/>
     <row r="15" ht="12.0" customHeight="1"/>
@@ -14564,7 +12866,6 @@
     <row r="994" ht="12.0" customHeight="1"/>
     <row r="995" ht="12.0" customHeight="1"/>
     <row r="996" ht="12.0" customHeight="1"/>
-    <row r="997" ht="12.0" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
@@ -14572,10 +12873,10 @@
     <mergeCell ref="D2:E2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="E9"/>
-    <hyperlink r:id="rId3" ref="E10"/>
-    <hyperlink r:id="rId4" ref="E11"/>
-    <hyperlink r:id="rId5" ref="E12"/>
+    <hyperlink r:id="rId2" ref="E8"/>
+    <hyperlink r:id="rId3" ref="E9"/>
+    <hyperlink r:id="rId4" ref="E10"/>
+    <hyperlink r:id="rId5" ref="E11"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -14603,12 +12904,12 @@
     <col customWidth="1" min="6" max="6" width="13.43"/>
     <col customWidth="1" min="7" max="7" width="7.29"/>
     <col customWidth="1" min="8" max="8" width="12.57"/>
-    <col customWidth="1" min="9" max="9" width="15.57"/>
+    <col customWidth="1" min="9" max="9" width="21.86"/>
     <col customWidth="1" min="10" max="10" width="17.43"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
@@ -14625,14 +12926,14 @@
     </row>
     <row r="2" ht="48.0" customHeight="1">
       <c r="A2" s="29" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="30" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="29">
@@ -14678,143 +12979,143 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="69" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="70" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="71">
+      <c r="A5" s="67" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="67"/>
+      <c r="C5" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="69">
         <v>1.0</v>
       </c>
-      <c r="G5" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="74" t="s">
-        <v>169</v>
+      <c r="G5" s="70" t="s">
+        <v>161</v>
+      </c>
+      <c r="H5" s="71"/>
+      <c r="I5" s="72" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="37" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="F6" s="75">
+        <v>167</v>
+      </c>
+      <c r="F6" s="73">
         <v>1.0</v>
       </c>
-      <c r="G6" s="76"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="15"/>
       <c r="I6" s="23" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="37" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="E7" s="15"/>
-      <c r="F7" s="75">
+      <c r="F7" s="73">
         <v>1.0</v>
       </c>
-      <c r="G7" s="76"/>
+      <c r="G7" s="74"/>
       <c r="H7" s="15"/>
       <c r="I7" s="23" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="37" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E8" s="18"/>
-      <c r="F8" s="75">
+      <c r="F8" s="73">
         <v>1.0</v>
       </c>
-      <c r="G8" s="76"/>
+      <c r="G8" s="74"/>
       <c r="H8" s="15"/>
       <c r="I8" s="23" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="37" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C9" s="37" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E9" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="75">
+      <c r="F9" s="73">
         <v>1.0</v>
       </c>
-      <c r="G9" s="76"/>
+      <c r="G9" s="74"/>
       <c r="H9" s="15"/>
       <c r="I9" s="23" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="37" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C10" s="37" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E10" s="37"/>
-      <c r="F10" s="76">
+      <c r="F10" s="74">
         <v>1.0</v>
       </c>
-      <c r="G10" s="77"/>
+      <c r="G10" s="75"/>
       <c r="H10" s="21"/>
       <c r="I10" s="23" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -15898,1341 +14199,6 @@
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="1" width="12.57"/>
-    <col customWidth="1" min="2" max="2" width="9.0"/>
-    <col customWidth="1" min="3" max="3" width="14.43"/>
-    <col customWidth="1" min="4" max="4" width="17.57"/>
-    <col customWidth="1" min="5" max="5" width="35.43"/>
-    <col customWidth="1" min="6" max="6" width="13.43"/>
-    <col customWidth="1" min="7" max="7" width="7.29"/>
-    <col customWidth="1" min="8" max="8" width="8.71"/>
-    <col customWidth="1" min="9" max="9" width="39.14"/>
-    <col customWidth="1" min="10" max="10" width="17.43"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="28" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" ht="48.0" customHeight="1">
-      <c r="A2" s="78" t="s">
-        <v>196</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>197</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="79" t="s">
-        <v>165</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="29">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="80" t="s">
-        <v>198</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="33" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="33" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="37" t="s">
-        <v>199</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>200</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>201</v>
-      </c>
-      <c r="D5" s="37" t="s">
-        <v>202</v>
-      </c>
-      <c r="E5" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="G5" s="75">
-        <v>1.0</v>
-      </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="81" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="37" t="s">
-        <v>205</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>170</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>206</v>
-      </c>
-      <c r="D6" s="37" t="s">
-        <v>207</v>
-      </c>
-      <c r="E6" s="37" t="s">
-        <v>208</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>209</v>
-      </c>
-      <c r="G6" s="75">
-        <v>1.0</v>
-      </c>
-      <c r="H6" s="76"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="69" t="s">
-        <v>211</v>
-      </c>
-      <c r="B7" s="69" t="s">
-        <v>212</v>
-      </c>
-      <c r="C7" s="69"/>
-      <c r="D7" s="69" t="s">
-        <v>213</v>
-      </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="71">
-        <v>1.0</v>
-      </c>
-      <c r="H7" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="37" t="s">
-        <v>214</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="E8" s="37" t="s">
-        <v>215</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="G8" s="75">
-        <v>1.0</v>
-      </c>
-      <c r="H8" s="76"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="37" t="s">
-        <v>218</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>219</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>220</v>
-      </c>
-      <c r="E9" s="37" t="s">
-        <v>221</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>216</v>
-      </c>
-      <c r="G9" s="76">
-        <v>1.0</v>
-      </c>
-      <c r="H9" s="82" t="s">
-        <v>222</v>
-      </c>
-      <c r="I9" s="21"/>
-      <c r="J9" s="15" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>225</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>226</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>227</v>
-      </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="75">
-        <v>1.0</v>
-      </c>
-      <c r="H10" s="37"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="15" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="11" ht="14.25" customHeight="1">
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-    </row>
-    <row r="12" ht="14.25" customHeight="1">
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-    </row>
-    <row r="13" ht="14.25" customHeight="1">
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-    </row>
-    <row r="14" ht="14.25" customHeight="1">
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-    </row>
-    <row r="15" ht="14.25" customHeight="1">
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-    </row>
-    <row r="16" ht="14.25" customHeight="1">
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-    </row>
-    <row r="17" ht="14.25" customHeight="1">
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-    </row>
-    <row r="18" ht="14.25" customHeight="1">
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-    </row>
-    <row r="19" ht="14.25" customHeight="1">
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-    </row>
-    <row r="20" ht="14.25" customHeight="1">
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-    </row>
-    <row r="21" ht="14.25" customHeight="1">
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-    </row>
-    <row r="22" ht="14.25" customHeight="1">
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-    </row>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
-    <row r="33" ht="14.25" customHeight="1"/>
-    <row r="34" ht="14.25" customHeight="1"/>
-    <row r="35" ht="14.25" customHeight="1"/>
-    <row r="36" ht="14.25" customHeight="1"/>
-    <row r="37" ht="14.25" customHeight="1"/>
-    <row r="38" ht="14.25" customHeight="1"/>
-    <row r="39" ht="14.25" customHeight="1"/>
-    <row r="40" ht="14.25" customHeight="1"/>
-    <row r="41" ht="14.25" customHeight="1"/>
-    <row r="42" ht="14.25" customHeight="1"/>
-    <row r="43" ht="14.25" customHeight="1"/>
-    <row r="44" ht="14.25" customHeight="1"/>
-    <row r="45" ht="14.25" customHeight="1"/>
-    <row r="46" ht="14.25" customHeight="1"/>
-    <row r="47" ht="14.25" customHeight="1"/>
-    <row r="48" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
-    <row r="81" ht="14.25" customHeight="1"/>
-    <row r="82" ht="14.25" customHeight="1"/>
-    <row r="83" ht="14.25" customHeight="1"/>
-    <row r="84" ht="14.25" customHeight="1"/>
-    <row r="85" ht="14.25" customHeight="1"/>
-    <row r="86" ht="14.25" customHeight="1"/>
-    <row r="87" ht="14.25" customHeight="1"/>
-    <row r="88" ht="14.25" customHeight="1"/>
-    <row r="89" ht="14.25" customHeight="1"/>
-    <row r="90" ht="14.25" customHeight="1"/>
-    <row r="91" ht="14.25" customHeight="1"/>
-    <row r="92" ht="14.25" customHeight="1"/>
-    <row r="93" ht="14.25" customHeight="1"/>
-    <row r="94" ht="14.25" customHeight="1"/>
-    <row r="95" ht="14.25" customHeight="1"/>
-    <row r="96" ht="14.25" customHeight="1"/>
-    <row r="97" ht="14.25" customHeight="1"/>
-    <row r="98" ht="14.25" customHeight="1"/>
-    <row r="99" ht="14.25" customHeight="1"/>
-    <row r="100" ht="14.25" customHeight="1"/>
-    <row r="101" ht="14.25" customHeight="1"/>
-    <row r="102" ht="14.25" customHeight="1"/>
-    <row r="103" ht="14.25" customHeight="1"/>
-    <row r="104" ht="14.25" customHeight="1"/>
-    <row r="105" ht="14.25" customHeight="1"/>
-    <row r="106" ht="14.25" customHeight="1"/>
-    <row r="107" ht="14.25" customHeight="1"/>
-    <row r="108" ht="14.25" customHeight="1"/>
-    <row r="109" ht="14.25" customHeight="1"/>
-    <row r="110" ht="14.25" customHeight="1"/>
-    <row r="111" ht="14.25" customHeight="1"/>
-    <row r="112" ht="14.25" customHeight="1"/>
-    <row r="113" ht="14.25" customHeight="1"/>
-    <row r="114" ht="14.25" customHeight="1"/>
-    <row r="115" ht="14.25" customHeight="1"/>
-    <row r="116" ht="14.25" customHeight="1"/>
-    <row r="117" ht="14.25" customHeight="1"/>
-    <row r="118" ht="14.25" customHeight="1"/>
-    <row r="119" ht="14.25" customHeight="1"/>
-    <row r="120" ht="14.25" customHeight="1"/>
-    <row r="121" ht="14.25" customHeight="1"/>
-    <row r="122" ht="14.25" customHeight="1"/>
-    <row r="123" ht="14.25" customHeight="1"/>
-    <row r="124" ht="14.25" customHeight="1"/>
-    <row r="125" ht="14.25" customHeight="1"/>
-    <row r="126" ht="14.25" customHeight="1"/>
-    <row r="127" ht="14.25" customHeight="1"/>
-    <row r="128" ht="14.25" customHeight="1"/>
-    <row r="129" ht="14.25" customHeight="1"/>
-    <row r="130" ht="14.25" customHeight="1"/>
-    <row r="131" ht="14.25" customHeight="1"/>
-    <row r="132" ht="14.25" customHeight="1"/>
-    <row r="133" ht="14.25" customHeight="1"/>
-    <row r="134" ht="14.25" customHeight="1"/>
-    <row r="135" ht="14.25" customHeight="1"/>
-    <row r="136" ht="14.25" customHeight="1"/>
-    <row r="137" ht="14.25" customHeight="1"/>
-    <row r="138" ht="14.25" customHeight="1"/>
-    <row r="139" ht="14.25" customHeight="1"/>
-    <row r="140" ht="14.25" customHeight="1"/>
-    <row r="141" ht="14.25" customHeight="1"/>
-    <row r="142" ht="14.25" customHeight="1"/>
-    <row r="143" ht="14.25" customHeight="1"/>
-    <row r="144" ht="14.25" customHeight="1"/>
-    <row r="145" ht="14.25" customHeight="1"/>
-    <row r="146" ht="14.25" customHeight="1"/>
-    <row r="147" ht="14.25" customHeight="1"/>
-    <row r="148" ht="14.25" customHeight="1"/>
-    <row r="149" ht="14.25" customHeight="1"/>
-    <row r="150" ht="14.25" customHeight="1"/>
-    <row r="151" ht="14.25" customHeight="1"/>
-    <row r="152" ht="14.25" customHeight="1"/>
-    <row r="153" ht="14.25" customHeight="1"/>
-    <row r="154" ht="14.25" customHeight="1"/>
-    <row r="155" ht="14.25" customHeight="1"/>
-    <row r="156" ht="14.25" customHeight="1"/>
-    <row r="157" ht="14.25" customHeight="1"/>
-    <row r="158" ht="14.25" customHeight="1"/>
-    <row r="159" ht="14.25" customHeight="1"/>
-    <row r="160" ht="14.25" customHeight="1"/>
-    <row r="161" ht="14.25" customHeight="1"/>
-    <row r="162" ht="14.25" customHeight="1"/>
-    <row r="163" ht="14.25" customHeight="1"/>
-    <row r="164" ht="14.25" customHeight="1"/>
-    <row r="165" ht="14.25" customHeight="1"/>
-    <row r="166" ht="14.25" customHeight="1"/>
-    <row r="167" ht="14.25" customHeight="1"/>
-    <row r="168" ht="14.25" customHeight="1"/>
-    <row r="169" ht="14.25" customHeight="1"/>
-    <row r="170" ht="14.25" customHeight="1"/>
-    <row r="171" ht="14.25" customHeight="1"/>
-    <row r="172" ht="14.25" customHeight="1"/>
-    <row r="173" ht="14.25" customHeight="1"/>
-    <row r="174" ht="14.25" customHeight="1"/>
-    <row r="175" ht="14.25" customHeight="1"/>
-    <row r="176" ht="14.25" customHeight="1"/>
-    <row r="177" ht="14.25" customHeight="1"/>
-    <row r="178" ht="14.25" customHeight="1"/>
-    <row r="179" ht="14.25" customHeight="1"/>
-    <row r="180" ht="14.25" customHeight="1"/>
-    <row r="181" ht="14.25" customHeight="1"/>
-    <row r="182" ht="14.25" customHeight="1"/>
-    <row r="183" ht="14.25" customHeight="1"/>
-    <row r="184" ht="14.25" customHeight="1"/>
-    <row r="185" ht="14.25" customHeight="1"/>
-    <row r="186" ht="14.25" customHeight="1"/>
-    <row r="187" ht="14.25" customHeight="1"/>
-    <row r="188" ht="14.25" customHeight="1"/>
-    <row r="189" ht="14.25" customHeight="1"/>
-    <row r="190" ht="14.25" customHeight="1"/>
-    <row r="191" ht="14.25" customHeight="1"/>
-    <row r="192" ht="14.25" customHeight="1"/>
-    <row r="193" ht="14.25" customHeight="1"/>
-    <row r="194" ht="14.25" customHeight="1"/>
-    <row r="195" ht="14.25" customHeight="1"/>
-    <row r="196" ht="14.25" customHeight="1"/>
-    <row r="197" ht="14.25" customHeight="1"/>
-    <row r="198" ht="14.25" customHeight="1"/>
-    <row r="199" ht="14.25" customHeight="1"/>
-    <row r="200" ht="14.25" customHeight="1"/>
-    <row r="201" ht="14.25" customHeight="1"/>
-    <row r="202" ht="14.25" customHeight="1"/>
-    <row r="203" ht="14.25" customHeight="1"/>
-    <row r="204" ht="14.25" customHeight="1"/>
-    <row r="205" ht="14.25" customHeight="1"/>
-    <row r="206" ht="14.25" customHeight="1"/>
-    <row r="207" ht="14.25" customHeight="1"/>
-    <row r="208" ht="14.25" customHeight="1"/>
-    <row r="209" ht="14.25" customHeight="1"/>
-    <row r="210" ht="14.25" customHeight="1"/>
-    <row r="211" ht="14.25" customHeight="1"/>
-    <row r="212" ht="14.25" customHeight="1"/>
-    <row r="213" ht="14.25" customHeight="1"/>
-    <row r="214" ht="14.25" customHeight="1"/>
-    <row r="215" ht="14.25" customHeight="1"/>
-    <row r="216" ht="14.25" customHeight="1"/>
-    <row r="217" ht="14.25" customHeight="1"/>
-    <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
-    <row r="220" ht="14.25" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-  </mergeCells>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="4.0" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B6" sqref="B6" pane="bottomLeft"/>
@@ -17253,7 +14219,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
@@ -17270,14 +14236,14 @@
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" s="29" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>230</v>
+        <v>190</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="30" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="29">
@@ -17286,31 +14252,31 @@
     </row>
     <row r="3" ht="12.0" customHeight="1"/>
     <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="84" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" s="83" t="s">
+      <c r="B4" s="77" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="85" t="s">
+      <c r="E4" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="83" t="s">
+      <c r="G4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="83" t="s">
+      <c r="H4" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="86" t="s">
+      <c r="I4" s="79" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="34" t="s">
@@ -17319,46 +14285,46 @@
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="B5" s="87"/>
+        <v>193</v>
+      </c>
+      <c r="B5" s="80"/>
       <c r="C5" s="15" t="s">
-        <v>234</v>
+        <v>194</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="E5" s="88" t="s">
-        <v>236</v>
-      </c>
-      <c r="F5" s="89" t="s">
-        <v>237</v>
+        <v>195</v>
+      </c>
+      <c r="E5" s="81" t="s">
+        <v>196</v>
+      </c>
+      <c r="F5" s="82" t="s">
+        <v>197</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="23" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="B6" s="87"/>
+        <v>200</v>
+      </c>
+      <c r="B6" s="80"/>
       <c r="C6" s="15" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>242</v>
-      </c>
-      <c r="E6" s="88" t="s">
-        <v>243</v>
+        <v>202</v>
+      </c>
+      <c r="E6" s="81" t="s">
+        <v>203</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="G6" s="15">
         <v>1.0</v>
@@ -17366,22 +14332,22 @@
       <c r="H6" s="19"/>
       <c r="I6" s="15"/>
       <c r="J6" s="23" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>246</v>
-      </c>
-      <c r="B7" s="90"/>
+        <v>206</v>
+      </c>
+      <c r="B7" s="83"/>
       <c r="C7" s="15" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>248</v>
-      </c>
-      <c r="E7" s="88" t="s">
-        <v>249</v>
+        <v>208</v>
+      </c>
+      <c r="E7" s="81" t="s">
+        <v>209</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15">
@@ -17390,381 +14356,381 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="23" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="B8" s="87"/>
+        <v>211</v>
+      </c>
+      <c r="B8" s="80"/>
       <c r="C8" s="15" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="E8" s="88" t="s">
-        <v>254</v>
+        <v>213</v>
+      </c>
+      <c r="E8" s="81" t="s">
+        <v>214</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15" t="s">
-        <v>255</v>
+        <v>215</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="23" t="s">
-        <v>256</v>
+        <v>216</v>
       </c>
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>257</v>
-      </c>
-      <c r="B9" s="90" t="s">
-        <v>258</v>
+        <v>217</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>218</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>259</v>
+        <v>219</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>260</v>
-      </c>
-      <c r="E9" s="88" t="s">
-        <v>261</v>
-      </c>
-      <c r="F9" s="89" t="s">
-        <v>262</v>
+        <v>220</v>
+      </c>
+      <c r="E9" s="81" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" s="82" t="s">
+        <v>222</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="23" t="s">
-        <v>263</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="B10" s="90"/>
+        <v>224</v>
+      </c>
+      <c r="B10" s="83"/>
       <c r="C10" s="15" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>266</v>
-      </c>
-      <c r="E10" s="88" t="s">
-        <v>267</v>
-      </c>
-      <c r="F10" s="91"/>
+        <v>226</v>
+      </c>
+      <c r="E10" s="81" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="84"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="59" t="s">
-        <v>268</v>
+      <c r="H10" s="57" t="s">
+        <v>228</v>
       </c>
       <c r="I10" s="21"/>
       <c r="J10" s="23" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" ht="57.0" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="B11" s="90"/>
+        <v>230</v>
+      </c>
+      <c r="B11" s="83"/>
       <c r="C11" s="15" t="s">
-        <v>271</v>
+        <v>231</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>272</v>
-      </c>
-      <c r="E11" s="88" t="s">
-        <v>273</v>
+        <v>232</v>
+      </c>
+      <c r="E11" s="81" t="s">
+        <v>233</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="G11" s="15"/>
-      <c r="H11" s="92"/>
+      <c r="H11" s="85"/>
       <c r="I11" s="19"/>
       <c r="J11" s="23" t="s">
-        <v>275</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12" ht="12.0" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>276</v>
-      </c>
-      <c r="B12" s="87" t="s">
-        <v>277</v>
+        <v>236</v>
+      </c>
+      <c r="B12" s="80" t="s">
+        <v>237</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>278</v>
+        <v>238</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>279</v>
-      </c>
-      <c r="E12" s="88" t="s">
-        <v>280</v>
+        <v>239</v>
+      </c>
+      <c r="E12" s="81" t="s">
+        <v>240</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="G12" s="15"/>
-      <c r="H12" s="59"/>
+      <c r="H12" s="57"/>
       <c r="I12" s="15"/>
       <c r="J12" s="23" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
     </row>
     <row r="13" ht="12.0" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="B13" s="93"/>
+        <v>242</v>
+      </c>
+      <c r="B13" s="86"/>
       <c r="C13" s="15" t="s">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="E13" s="88" t="s">
-        <v>285</v>
+        <v>244</v>
+      </c>
+      <c r="E13" s="81" t="s">
+        <v>245</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="59" t="s">
-        <v>286</v>
+      <c r="H13" s="57" t="s">
+        <v>246</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="23" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="B14" s="90" t="s">
-        <v>289</v>
+        <v>248</v>
+      </c>
+      <c r="B14" s="83" t="s">
+        <v>249</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="E14" s="88" t="s">
-        <v>292</v>
+        <v>251</v>
+      </c>
+      <c r="E14" s="81" t="s">
+        <v>252</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>274</v>
+        <v>234</v>
       </c>
       <c r="G14" s="15"/>
-      <c r="H14" s="59"/>
+      <c r="H14" s="57"/>
       <c r="I14" s="15"/>
       <c r="J14" s="23" t="s">
-        <v>293</v>
+        <v>253</v>
       </c>
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="B15" s="90" t="s">
-        <v>295</v>
+        <v>254</v>
+      </c>
+      <c r="B15" s="83" t="s">
+        <v>255</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="E15" s="88" t="s">
-        <v>298</v>
+        <v>257</v>
+      </c>
+      <c r="E15" s="81" t="s">
+        <v>258</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="23" t="s">
-        <v>300</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" ht="12.0" customHeight="1">
-      <c r="A16" s="73" t="s">
-        <v>301</v>
-      </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73" t="s">
-        <v>302</v>
-      </c>
-      <c r="E16" s="94"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73">
+      <c r="A16" s="71" t="s">
+        <v>261</v>
+      </c>
+      <c r="B16" s="83"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71" t="s">
+        <v>262</v>
+      </c>
+      <c r="E16" s="87"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71">
         <v>1.0</v>
       </c>
-      <c r="H16" s="95" t="s">
-        <v>303</v>
+      <c r="H16" s="88" t="s">
+        <v>263</v>
       </c>
       <c r="I16" s="21"/>
-      <c r="J16" s="74" t="s">
-        <v>304</v>
+      <c r="J16" s="72" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="B17" s="90" t="s">
-        <v>306</v>
-      </c>
-      <c r="C17" s="81" t="s">
-        <v>307</v>
-      </c>
-      <c r="D17" s="81" t="s">
-        <v>308</v>
-      </c>
-      <c r="E17" s="96" t="s">
-        <v>309</v>
-      </c>
-      <c r="F17" s="97" t="s">
-        <v>310</v>
-      </c>
-      <c r="G17" s="81"/>
-      <c r="H17" s="98"/>
+        <v>265</v>
+      </c>
+      <c r="B17" s="83" t="s">
+        <v>266</v>
+      </c>
+      <c r="C17" s="89" t="s">
+        <v>267</v>
+      </c>
+      <c r="D17" s="89" t="s">
+        <v>268</v>
+      </c>
+      <c r="E17" s="90" t="s">
+        <v>269</v>
+      </c>
+      <c r="F17" s="91" t="s">
+        <v>270</v>
+      </c>
+      <c r="G17" s="89"/>
+      <c r="H17" s="92"/>
       <c r="I17" s="15"/>
       <c r="J17" s="23" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="B18" s="90" t="s">
-        <v>313</v>
-      </c>
-      <c r="C18" s="81" t="s">
-        <v>314</v>
-      </c>
-      <c r="D18" s="81" t="s">
-        <v>315</v>
-      </c>
-      <c r="E18" s="96" t="s">
-        <v>316</v>
-      </c>
-      <c r="F18" s="97" t="s">
-        <v>310</v>
-      </c>
-      <c r="G18" s="81"/>
-      <c r="H18" s="98"/>
+        <v>272</v>
+      </c>
+      <c r="B18" s="83" t="s">
+        <v>273</v>
+      </c>
+      <c r="C18" s="89" t="s">
+        <v>274</v>
+      </c>
+      <c r="D18" s="89" t="s">
+        <v>275</v>
+      </c>
+      <c r="E18" s="90" t="s">
+        <v>276</v>
+      </c>
+      <c r="F18" s="91" t="s">
+        <v>270</v>
+      </c>
+      <c r="G18" s="89"/>
+      <c r="H18" s="92"/>
       <c r="I18" s="15"/>
       <c r="J18" s="23" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" ht="12.0" customHeight="1">
       <c r="A19" s="15" t="s">
-        <v>318</v>
-      </c>
-      <c r="B19" s="90" t="s">
-        <v>319</v>
+        <v>278</v>
+      </c>
+      <c r="B19" s="83" t="s">
+        <v>279</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="E19" s="88" t="s">
-        <v>322</v>
-      </c>
-      <c r="F19" s="99" t="s">
-        <v>310</v>
+        <v>281</v>
+      </c>
+      <c r="E19" s="81" t="s">
+        <v>282</v>
+      </c>
+      <c r="F19" s="93" t="s">
+        <v>270</v>
       </c>
       <c r="G19" s="15"/>
-      <c r="H19" s="92"/>
+      <c r="H19" s="85"/>
       <c r="I19" s="15"/>
       <c r="J19" s="23" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" ht="12.0" customHeight="1">
       <c r="A20" s="15" t="s">
-        <v>324</v>
-      </c>
-      <c r="B20" s="90" t="s">
-        <v>325</v>
+        <v>284</v>
+      </c>
+      <c r="B20" s="83" t="s">
+        <v>285</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="E20" s="88" t="s">
-        <v>328</v>
-      </c>
-      <c r="F20" s="99" t="s">
-        <v>329</v>
+        <v>287</v>
+      </c>
+      <c r="E20" s="81" t="s">
+        <v>288</v>
+      </c>
+      <c r="F20" s="93" t="s">
+        <v>289</v>
       </c>
       <c r="G20" s="15"/>
-      <c r="H20" s="92"/>
+      <c r="H20" s="85"/>
       <c r="I20" s="15"/>
       <c r="J20" s="23" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" ht="12.0" customHeight="1">
       <c r="A21" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="B21" s="90" t="s">
-        <v>332</v>
+        <v>291</v>
+      </c>
+      <c r="B21" s="83" t="s">
+        <v>292</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="E21" s="88" t="s">
-        <v>335</v>
-      </c>
-      <c r="F21" s="99" t="s">
-        <v>310</v>
+        <v>294</v>
+      </c>
+      <c r="E21" s="81" t="s">
+        <v>295</v>
+      </c>
+      <c r="F21" s="93" t="s">
+        <v>270</v>
       </c>
       <c r="G21" s="15"/>
-      <c r="H21" s="92"/>
+      <c r="H21" s="85"/>
       <c r="I21" s="21"/>
       <c r="J21" s="23" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" ht="12.0" customHeight="1">
-      <c r="A22" s="73" t="s">
-        <v>337</v>
-      </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="73"/>
-      <c r="D22" s="73" t="s">
-        <v>338</v>
-      </c>
-      <c r="E22" s="94"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="102">
+      <c r="A22" s="71" t="s">
+        <v>297</v>
+      </c>
+      <c r="B22" s="94"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71" t="s">
+        <v>298</v>
+      </c>
+      <c r="E22" s="87"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="96">
         <v>1.0</v>
       </c>
-      <c r="H22" s="95" t="s">
-        <v>339</v>
+      <c r="H22" s="88" t="s">
+        <v>299</v>
       </c>
       <c r="I22" s="15"/>
-      <c r="J22" s="74" t="s">
-        <v>340</v>
+      <c r="J22" s="72" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="23" ht="12.0" customHeight="1">
@@ -18810,7 +15776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr/>
@@ -18835,7 +15801,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
@@ -18851,15 +15817,15 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="78" t="s">
-        <v>341</v>
-      </c>
-      <c r="B2" s="79" t="s">
-        <v>342</v>
+      <c r="A2" s="97" t="s">
+        <v>301</v>
+      </c>
+      <c r="B2" s="98" t="s">
+        <v>302</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="79" t="s">
-        <v>343</v>
+      <c r="D2" s="98" t="s">
+        <v>303</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="29">
@@ -18868,29 +15834,29 @@
     </row>
     <row r="3" ht="14.25" customHeight="1"/>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="83" t="s">
-        <v>344</v>
+      <c r="G4" s="76" t="s">
+        <v>304</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="I4" s="34" t="s">
         <v>16</v>
@@ -18901,138 +15867,138 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="88"/>
-      <c r="H5" s="59"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="57"/>
       <c r="I5" s="15"/>
       <c r="J5" s="23" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="88" t="s">
-        <v>355</v>
+      <c r="G6" s="81" t="s">
+        <v>315</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="23" t="s">
-        <v>356</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>357</v>
+        <v>317</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="88" t="s">
-        <v>355</v>
+      <c r="G7" s="81" t="s">
+        <v>315</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="23" t="s">
-        <v>361</v>
+        <v>321</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>363</v>
+        <v>323</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>364</v>
+        <v>324</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>365</v>
+        <v>325</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15">
         <v>1.0</v>
       </c>
-      <c r="G8" s="88"/>
+      <c r="G8" s="81"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="23" t="s">
-        <v>366</v>
+        <v>326</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>368</v>
+        <v>328</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>370</v>
-      </c>
-      <c r="E9" s="103" t="s">
-        <v>371</v>
+        <v>330</v>
+      </c>
+      <c r="E9" s="99" t="s">
+        <v>331</v>
       </c>
       <c r="F9" s="15">
         <v>1.0</v>
       </c>
-      <c r="G9" s="88" t="s">
-        <v>372</v>
+      <c r="G9" s="81" t="s">
+        <v>332</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="21"/>
       <c r="J9" s="23" t="s">
-        <v>373</v>
+        <v>333</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>374</v>
+        <v>334</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>375</v>
+        <v>335</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>376</v>
+        <v>336</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>377</v>
+        <v>337</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15">
@@ -19042,24 +16008,24 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="23" t="s">
-        <v>378</v>
-      </c>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="67"/>
-      <c r="N10" s="67"/>
-      <c r="O10" s="67"/>
-      <c r="P10" s="67"/>
-      <c r="Q10" s="67"/>
-      <c r="R10" s="67"/>
-      <c r="S10" s="67"/>
-      <c r="T10" s="67"/>
-      <c r="U10" s="67"/>
-      <c r="V10" s="67"/>
-      <c r="W10" s="67"/>
-      <c r="X10" s="67"/>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="67"/>
+        <v>338</v>
+      </c>
+      <c r="K10" s="65"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="65"/>
+      <c r="N10" s="65"/>
+      <c r="O10" s="65"/>
+      <c r="P10" s="65"/>
+      <c r="Q10" s="65"/>
+      <c r="R10" s="65"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="65"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="65"/>
+      <c r="W10" s="65"/>
+      <c r="X10" s="65"/>
+      <c r="Y10" s="65"/>
+      <c r="Z10" s="65"/>
     </row>
     <row r="11" ht="14.25" customHeight="1"/>
     <row r="12" ht="14.25" customHeight="1"/>
@@ -20066,7 +17032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr/>
@@ -20090,7 +17056,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="27" t="s">
@@ -20107,14 +17073,14 @@
     </row>
     <row r="2" ht="82.5" customHeight="1">
       <c r="A2" s="29" t="s">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>380</v>
+        <v>340</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="30" t="s">
-        <v>381</v>
+        <v>341</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="29">
@@ -20122,25 +17088,25 @@
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="J3" s="104"/>
+      <c r="J3" s="100"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="83" t="s">
+      <c r="B4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="76" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="34" t="s">
@@ -20149,93 +17115,93 @@
       <c r="H4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="83" t="s">
-        <v>344</v>
+      <c r="I4" s="76" t="s">
+        <v>304</v>
       </c>
       <c r="J4" s="49" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>382</v>
+        <v>342</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="C5" s="59" t="s">
-        <v>384</v>
-      </c>
-      <c r="D5" s="59" t="s">
-        <v>385</v>
-      </c>
-      <c r="E5" s="92"/>
+        <v>343</v>
+      </c>
+      <c r="C5" s="57" t="s">
+        <v>344</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>345</v>
+      </c>
+      <c r="E5" s="85"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="23" t="s">
-        <v>386</v>
-      </c>
-      <c r="I5" s="105"/>
-      <c r="J5" s="59"/>
+        <v>346</v>
+      </c>
+      <c r="I5" s="101"/>
+      <c r="J5" s="57"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>391</v>
+        <v>351</v>
       </c>
       <c r="F6" s="15">
         <v>1.0</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="23" t="s">
-        <v>392</v>
-      </c>
-      <c r="I6" s="88"/>
+        <v>352</v>
+      </c>
+      <c r="I6" s="81"/>
       <c r="J6" s="15"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="106" t="s">
-        <v>393</v>
-      </c>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106" t="s">
-        <v>394</v>
-      </c>
-      <c r="D7" s="106"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="74" t="s">
-        <v>395</v>
-      </c>
-      <c r="I7" s="107" t="s">
-        <v>396</v>
-      </c>
-      <c r="J7" s="108"/>
+      <c r="A7" s="102" t="s">
+        <v>353</v>
+      </c>
+      <c r="B7" s="102"/>
+      <c r="C7" s="102" t="s">
+        <v>354</v>
+      </c>
+      <c r="D7" s="102"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="72" t="s">
+        <v>355</v>
+      </c>
+      <c r="I7" s="103" t="s">
+        <v>356</v>
+      </c>
+      <c r="J7" s="104"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>397</v>
+        <v>357</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>398</v>
+        <v>358</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>399</v>
+        <v>359</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>400</v>
+        <v>360</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15">
@@ -20243,45 +17209,45 @@
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="23" t="s">
-        <v>401</v>
-      </c>
-      <c r="I8" s="88"/>
-      <c r="J8" s="109"/>
+        <v>361</v>
+      </c>
+      <c r="I8" s="81"/>
+      <c r="J8" s="105"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>402</v>
+        <v>362</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>403</v>
+        <v>363</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>404</v>
+        <v>364</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>405</v>
+        <v>365</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="23" t="s">
-        <v>406</v>
-      </c>
-      <c r="I9" s="88"/>
-      <c r="J9" s="109"/>
+        <v>366</v>
+      </c>
+      <c r="I9" s="81"/>
+      <c r="J9" s="105"/>
     </row>
     <row r="10" ht="115.5" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>407</v>
+        <v>367</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>408</v>
+        <v>368</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>409</v>
+        <v>369</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>410</v>
+        <v>370</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15">
@@ -20289,47 +17255,47 @@
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="23" t="s">
-        <v>411</v>
-      </c>
-      <c r="I10" s="88" t="s">
-        <v>412</v>
-      </c>
-      <c r="J10" s="109"/>
+        <v>371</v>
+      </c>
+      <c r="I10" s="81" t="s">
+        <v>372</v>
+      </c>
+      <c r="J10" s="105"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>413</v>
+        <v>373</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>414</v>
+        <v>374</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>415</v>
+        <v>375</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>416</v>
+        <v>376</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="23" t="s">
-        <v>417</v>
-      </c>
-      <c r="I11" s="88"/>
-      <c r="J11" s="109"/>
+        <v>377</v>
+      </c>
+      <c r="I11" s="81"/>
+      <c r="J11" s="105"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>418</v>
+        <v>378</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>419</v>
+        <v>379</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>420</v>
+        <v>380</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15">
@@ -20337,47 +17303,47 @@
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="23" t="s">
-        <v>422</v>
-      </c>
-      <c r="I12" s="88" t="s">
-        <v>423</v>
-      </c>
-      <c r="J12" s="109"/>
+        <v>382</v>
+      </c>
+      <c r="I12" s="81" t="s">
+        <v>383</v>
+      </c>
+      <c r="J12" s="105"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>424</v>
+        <v>384</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>425</v>
+        <v>385</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>426</v>
+        <v>386</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>427</v>
+        <v>387</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="23" t="s">
-        <v>428</v>
-      </c>
-      <c r="I13" s="88"/>
-      <c r="J13" s="109"/>
+        <v>388</v>
+      </c>
+      <c r="I13" s="81"/>
+      <c r="J13" s="105"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>429</v>
+        <v>389</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>431</v>
+        <v>391</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>432</v>
+        <v>392</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15">
@@ -20385,32 +17351,32 @@
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="23" t="s">
-        <v>433</v>
-      </c>
-      <c r="I14" s="88"/>
-      <c r="J14" s="109"/>
+        <v>393</v>
+      </c>
+      <c r="I14" s="81"/>
+      <c r="J14" s="105"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>434</v>
+        <v>394</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>435</v>
+        <v>395</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>436</v>
+        <v>396</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>437</v>
+        <v>397</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="23" t="s">
-        <v>438</v>
-      </c>
-      <c r="I15" s="88"/>
-      <c r="J15" s="109"/>
+        <v>398</v>
+      </c>
+      <c r="I15" s="81"/>
+      <c r="J15" s="105"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="C16" s="26"/>
@@ -21423,7 +18389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <pageSetUpPr/>
@@ -21448,10 +18414,10 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="110" t="s">
+      <c r="B1" s="106" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
@@ -21465,14 +18431,14 @@
     </row>
     <row r="2" ht="75.0" customHeight="1">
       <c r="A2" s="29" t="s">
-        <v>439</v>
+        <v>399</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>440</v>
+        <v>400</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="8" t="s">
-        <v>441</v>
+        <v>401</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="29">
@@ -21481,25 +18447,25 @@
     </row>
     <row r="3" ht="13.5" customHeight="1"/>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="111" t="s">
-        <v>232</v>
-      </c>
-      <c r="C4" s="83" t="s">
+      <c r="B4" s="107" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="83" t="s">
+      <c r="D4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="83" t="s">
+      <c r="E4" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="83" t="s">
+      <c r="F4" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="83" t="s">
+      <c r="G4" s="76" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="34" t="s">
@@ -21508,78 +18474,78 @@
       <c r="I4" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="83" t="s">
+      <c r="J4" s="76" t="s">
         <v>17</v>
       </c>
       <c r="K4" s="49" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>442</v>
-      </c>
-      <c r="B5" s="112"/>
+        <v>402</v>
+      </c>
+      <c r="B5" s="108"/>
       <c r="C5" s="15" t="s">
-        <v>443</v>
+        <v>403</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>445</v>
+        <v>405</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="23" t="s">
-        <v>446</v>
+        <v>406</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>447</v>
+        <v>407</v>
       </c>
       <c r="K5" s="15"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>448</v>
-      </c>
-      <c r="B6" s="112"/>
+        <v>408</v>
+      </c>
+      <c r="B6" s="108"/>
       <c r="C6" s="15" t="s">
-        <v>449</v>
+        <v>409</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>450</v>
+        <v>410</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>451</v>
+        <v>411</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="23" t="s">
-        <v>452</v>
+        <v>412</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>453</v>
+        <v>413</v>
       </c>
       <c r="K6" s="15"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>454</v>
-      </c>
-      <c r="B7" s="112" t="s">
-        <v>455</v>
+        <v>414</v>
+      </c>
+      <c r="B7" s="108" t="s">
+        <v>415</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>456</v>
+        <v>416</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>457</v>
+        <v>417</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>458</v>
+        <v>418</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15">
@@ -21587,29 +18553,29 @@
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="23" t="s">
-        <v>459</v>
+        <v>419</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>460</v>
+        <v>420</v>
       </c>
       <c r="K7" s="15"/>
-      <c r="L7" s="113" t="s">
-        <v>461</v>
+      <c r="L7" s="109" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="B8" s="112"/>
+        <v>422</v>
+      </c>
+      <c r="B8" s="108"/>
       <c r="C8" s="15" t="s">
-        <v>463</v>
+        <v>423</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>465</v>
+        <v>425</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15">
@@ -21617,26 +18583,26 @@
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="23" t="s">
-        <v>466</v>
+        <v>426</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>467</v>
+        <v>427</v>
       </c>
       <c r="K8" s="15"/>
     </row>
     <row r="9" ht="199.5" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>468</v>
-      </c>
-      <c r="B9" s="112"/>
+        <v>428</v>
+      </c>
+      <c r="B9" s="108"/>
       <c r="C9" s="15" t="s">
-        <v>469</v>
+        <v>429</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>470</v>
+        <v>430</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>471</v>
+        <v>431</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15">
@@ -21644,78 +18610,78 @@
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="23" t="s">
-        <v>472</v>
+        <v>432</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>473</v>
-      </c>
-      <c r="B10" s="112" t="s">
-        <v>474</v>
+        <v>433</v>
+      </c>
+      <c r="B10" s="108" t="s">
+        <v>434</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>475</v>
+        <v>435</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>476</v>
+        <v>436</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>477</v>
-      </c>
-      <c r="F10" s="92"/>
+        <v>437</v>
+      </c>
+      <c r="F10" s="85"/>
       <c r="G10" s="15">
         <v>1.0</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="23" t="s">
-        <v>478</v>
+        <v>438</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>479</v>
-      </c>
-      <c r="B11" s="112"/>
+        <v>439</v>
+      </c>
+      <c r="B11" s="108"/>
       <c r="C11" s="15" t="s">
-        <v>480</v>
+        <v>440</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>481</v>
+        <v>441</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>482</v>
+        <v>442</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="23" t="s">
-        <v>483</v>
+        <v>443</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>484</v>
+        <v>444</v>
       </c>
       <c r="K11" s="15"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>485</v>
-      </c>
-      <c r="B12" s="112" t="s">
-        <v>486</v>
+        <v>445</v>
+      </c>
+      <c r="B12" s="108" t="s">
+        <v>446</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>487</v>
+        <v>447</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>488</v>
+        <v>448</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>489</v>
+        <v>449</v>
       </c>
       <c r="F12" s="15"/>
       <c r="G12" s="15">
@@ -21723,149 +18689,149 @@
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="23" t="s">
-        <v>490</v>
+        <v>450</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>491</v>
-      </c>
-      <c r="B13" s="112"/>
+        <v>451</v>
+      </c>
+      <c r="B13" s="108"/>
       <c r="C13" s="15" t="s">
-        <v>492</v>
+        <v>452</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>493</v>
+        <v>453</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>494</v>
+        <v>454</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="23" t="s">
-        <v>495</v>
+        <v>455</v>
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>496</v>
-      </c>
-      <c r="B14" s="112"/>
+        <v>456</v>
+      </c>
+      <c r="B14" s="108"/>
       <c r="C14" s="15" t="s">
-        <v>497</v>
+        <v>457</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>498</v>
+        <v>458</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="23" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>501</v>
-      </c>
-      <c r="B15" s="112"/>
+        <v>461</v>
+      </c>
+      <c r="B15" s="108"/>
       <c r="C15" s="15" t="s">
-        <v>502</v>
+        <v>462</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>503</v>
+        <v>463</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="F15" s="89" t="s">
-        <v>505</v>
+        <v>464</v>
+      </c>
+      <c r="F15" s="82" t="s">
+        <v>465</v>
       </c>
       <c r="G15" s="15">
         <v>1.0</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="23" t="s">
-        <v>506</v>
+        <v>466</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>507</v>
+        <v>467</v>
       </c>
       <c r="K15" s="15"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>508</v>
-      </c>
-      <c r="B16" s="112"/>
+        <v>468</v>
+      </c>
+      <c r="B16" s="108"/>
       <c r="C16" s="15" t="s">
-        <v>509</v>
+        <v>469</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>444</v>
+        <v>404</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>510</v>
+        <v>470</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="23" t="s">
-        <v>511</v>
+        <v>471</v>
       </c>
       <c r="J16" s="15" t="s">
-        <v>512</v>
+        <v>472</v>
       </c>
       <c r="K16" s="15"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="B17" s="112"/>
+        <v>473</v>
+      </c>
+      <c r="B17" s="108"/>
       <c r="C17" s="15" t="s">
-        <v>514</v>
+        <v>474</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>515</v>
+        <v>475</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>516</v>
+        <v>476</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
       <c r="I17" s="23" t="s">
-        <v>517</v>
+        <v>477</v>
       </c>
       <c r="J17" s="15" t="s">
-        <v>518</v>
+        <v>478</v>
       </c>
       <c r="K17" s="15"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="B18" s="112"/>
+        <v>479</v>
+      </c>
+      <c r="B18" s="108"/>
       <c r="C18" s="15" t="s">
-        <v>520</v>
+        <v>480</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>521</v>
+        <v>481</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>522</v>
+        <v>482</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15">
@@ -21873,7 +18839,7 @@
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="23" t="s">
-        <v>523</v>
+        <v>483</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
@@ -22874,4 +19840,1466 @@
   <drawing r:id="rId3"/>
   <legacyDrawing r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <pageSetUpPr/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="13.57"/>
+    <col customWidth="1" min="2" max="2" width="11.43"/>
+    <col customWidth="1" min="3" max="3" width="12.29"/>
+    <col customWidth="1" min="4" max="4" width="19.43"/>
+    <col customWidth="1" min="5" max="5" width="13.29"/>
+    <col customWidth="1" min="6" max="6" width="52.86"/>
+    <col customWidth="1" min="7" max="7" width="11.29"/>
+    <col customWidth="1" min="8" max="8" width="20.57"/>
+    <col customWidth="1" min="9" max="9" width="11.29"/>
+    <col customWidth="1" min="10" max="10" width="45.14"/>
+    <col customWidth="1" hidden="1" min="11" max="11" width="8.71"/>
+    <col customWidth="1" min="12" max="12" width="8.71"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="12.0" customHeight="1">
+      <c r="A1" s="66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="46"/>
+      <c r="F1" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="12.0" customHeight="1">
+      <c r="A2" s="29" t="s">
+        <v>484</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>485</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="30" t="s">
+        <v>486</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="G2" s="110"/>
+      <c r="H2" s="111"/>
+      <c r="I2" s="111"/>
+    </row>
+    <row r="3" ht="12.0" customHeight="1"/>
+    <row r="4" ht="12.0" customHeight="1">
+      <c r="A4" s="76" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="107" t="s">
+        <v>487</v>
+      </c>
+      <c r="C4" s="76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="76" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="76" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="76" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="76" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="76" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="49" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="5" ht="12.0" customHeight="1">
+      <c r="A5" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="B5" s="108"/>
+      <c r="C5" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>491</v>
+      </c>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="23" t="s">
+        <v>492</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+    </row>
+    <row r="6" ht="12.0" customHeight="1">
+      <c r="A6" s="15" t="s">
+        <v>493</v>
+      </c>
+      <c r="B6" s="108" t="s">
+        <v>494</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>495</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>496</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>497</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="23" t="s">
+        <v>498</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>499</v>
+      </c>
+      <c r="K6" s="15"/>
+    </row>
+    <row r="7" ht="12.0" customHeight="1">
+      <c r="A7" s="15" t="s">
+        <v>500</v>
+      </c>
+      <c r="B7" s="108"/>
+      <c r="C7" s="15" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>501</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="23" t="s">
+        <v>502</v>
+      </c>
+      <c r="J7" s="85"/>
+      <c r="K7" s="15"/>
+    </row>
+    <row r="8" ht="12.0" customHeight="1">
+      <c r="A8" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="B8" s="108"/>
+      <c r="C8" s="15" t="s">
+        <v>170</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>172</v>
+      </c>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="23" t="s">
+        <v>504</v>
+      </c>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+    </row>
+    <row r="9" ht="12.0" customHeight="1">
+      <c r="A9" s="15" t="s">
+        <v>505</v>
+      </c>
+      <c r="B9" s="108" t="s">
+        <v>506</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="23" t="s">
+        <v>508</v>
+      </c>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+    </row>
+    <row r="10" ht="12.0" customHeight="1">
+      <c r="A10" s="15" t="s">
+        <v>509</v>
+      </c>
+      <c r="B10" s="108" t="s">
+        <v>510</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>511</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>512</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>513</v>
+      </c>
+      <c r="F10" s="93" t="s">
+        <v>234</v>
+      </c>
+      <c r="G10" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+    </row>
+    <row r="11" ht="12.0" customHeight="1">
+      <c r="A11" s="15" t="s">
+        <v>515</v>
+      </c>
+      <c r="B11" s="108"/>
+      <c r="C11" s="15" t="s">
+        <v>516</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="F11" s="93" t="s">
+        <v>519</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="23" t="s">
+        <v>520</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" ht="49.5" customHeight="1">
+      <c r="A12" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="B12" s="108" t="s">
+        <v>522</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="E12" s="82" t="s">
+        <v>525</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>526</v>
+      </c>
+      <c r="G12" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="23" t="s">
+        <v>527</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>528</v>
+      </c>
+      <c r="K12" s="15"/>
+    </row>
+    <row r="13" ht="12.0" customHeight="1">
+      <c r="A13" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="B13" s="108" t="s">
+        <v>530</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>531</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>532</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>533</v>
+      </c>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+    </row>
+    <row r="14" ht="12.0" customHeight="1">
+      <c r="A14" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="B14" s="108" t="s">
+        <v>536</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>538</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>539</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>540</v>
+      </c>
+      <c r="G14" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="23" t="s">
+        <v>541</v>
+      </c>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+    </row>
+    <row r="15" ht="12.0" customHeight="1">
+      <c r="A15" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="B15" s="108"/>
+      <c r="C15" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>545</v>
+      </c>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="23" t="s">
+        <v>546</v>
+      </c>
+      <c r="J15" s="85"/>
+      <c r="K15" s="15"/>
+    </row>
+    <row r="16" ht="12.0" customHeight="1">
+      <c r="A16" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="B16" s="108"/>
+      <c r="C16" s="15" t="s">
+        <v>548</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>549</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>550</v>
+      </c>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="23" t="s">
+        <v>551</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="15"/>
+    </row>
+    <row r="17" ht="12.0" customHeight="1">
+      <c r="A17" s="15" t="s">
+        <v>552</v>
+      </c>
+      <c r="B17" s="108"/>
+      <c r="C17" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>554</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="H17" s="15"/>
+      <c r="I17" s="23" t="s">
+        <v>556</v>
+      </c>
+      <c r="J17" s="15"/>
+      <c r="K17" s="15"/>
+    </row>
+    <row r="18" ht="12.0" customHeight="1">
+      <c r="A18" s="15" t="s">
+        <v>557</v>
+      </c>
+      <c r="B18" s="108"/>
+      <c r="C18" s="15" t="s">
+        <v>558</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>559</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>561</v>
+      </c>
+      <c r="G18" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="H18" s="15"/>
+      <c r="I18" s="23" t="s">
+        <v>562</v>
+      </c>
+      <c r="J18" s="15"/>
+      <c r="K18" s="15"/>
+    </row>
+    <row r="19" ht="12.0" customHeight="1"/>
+    <row r="20" ht="12.0" customHeight="1"/>
+    <row r="21" ht="12.0" customHeight="1"/>
+    <row r="22" ht="12.0" customHeight="1"/>
+    <row r="23" ht="12.0" customHeight="1"/>
+    <row r="24" ht="12.0" customHeight="1"/>
+    <row r="25" ht="12.0" customHeight="1"/>
+    <row r="26" ht="12.0" customHeight="1"/>
+    <row r="27" ht="12.0" customHeight="1"/>
+    <row r="28" ht="12.0" customHeight="1"/>
+    <row r="29" ht="12.0" customHeight="1"/>
+    <row r="30" ht="12.0" customHeight="1"/>
+    <row r="31" ht="12.0" customHeight="1"/>
+    <row r="32" ht="12.0" customHeight="1"/>
+    <row r="33" ht="12.0" customHeight="1"/>
+    <row r="34" ht="12.0" customHeight="1"/>
+    <row r="35" ht="12.0" customHeight="1"/>
+    <row r="36" ht="12.0" customHeight="1"/>
+    <row r="37" ht="12.0" customHeight="1"/>
+    <row r="38" ht="12.0" customHeight="1"/>
+    <row r="39" ht="12.0" customHeight="1"/>
+    <row r="40" ht="12.0" customHeight="1"/>
+    <row r="41" ht="12.0" customHeight="1"/>
+    <row r="42" ht="12.0" customHeight="1"/>
+    <row r="43" ht="12.0" customHeight="1"/>
+    <row r="44" ht="12.0" customHeight="1"/>
+    <row r="45" ht="12.0" customHeight="1"/>
+    <row r="46" ht="12.0" customHeight="1"/>
+    <row r="47" ht="12.0" customHeight="1"/>
+    <row r="48" ht="12.0" customHeight="1"/>
+    <row r="49" ht="12.0" customHeight="1"/>
+    <row r="50" ht="12.0" customHeight="1"/>
+    <row r="51" ht="12.0" customHeight="1"/>
+    <row r="52" ht="12.0" customHeight="1"/>
+    <row r="53" ht="12.0" customHeight="1"/>
+    <row r="54" ht="12.0" customHeight="1"/>
+    <row r="55" ht="12.0" customHeight="1"/>
+    <row r="56" ht="12.0" customHeight="1"/>
+    <row r="57" ht="12.0" customHeight="1"/>
+    <row r="58" ht="12.0" customHeight="1"/>
+    <row r="59" ht="12.0" customHeight="1"/>
+    <row r="60" ht="12.0" customHeight="1"/>
+    <row r="61" ht="12.0" customHeight="1"/>
+    <row r="62" ht="12.0" customHeight="1"/>
+    <row r="63" ht="12.0" customHeight="1"/>
+    <row r="64" ht="12.0" customHeight="1"/>
+    <row r="65" ht="12.0" customHeight="1"/>
+    <row r="66" ht="12.0" customHeight="1"/>
+    <row r="67" ht="12.0" customHeight="1"/>
+    <row r="68" ht="12.0" customHeight="1"/>
+    <row r="69" ht="12.0" customHeight="1"/>
+    <row r="70" ht="12.0" customHeight="1"/>
+    <row r="71" ht="12.0" customHeight="1"/>
+    <row r="72" ht="12.0" customHeight="1"/>
+    <row r="73" ht="12.0" customHeight="1"/>
+    <row r="74" ht="12.0" customHeight="1"/>
+    <row r="75" ht="12.0" customHeight="1"/>
+    <row r="76" ht="12.0" customHeight="1"/>
+    <row r="77" ht="12.0" customHeight="1"/>
+    <row r="78" ht="12.0" customHeight="1"/>
+    <row r="79" ht="12.0" customHeight="1"/>
+    <row r="80" ht="12.0" customHeight="1"/>
+    <row r="81" ht="12.0" customHeight="1"/>
+    <row r="82" ht="12.0" customHeight="1"/>
+    <row r="83" ht="12.0" customHeight="1"/>
+    <row r="84" ht="12.0" customHeight="1"/>
+    <row r="85" ht="12.0" customHeight="1"/>
+    <row r="86" ht="12.0" customHeight="1"/>
+    <row r="87" ht="12.0" customHeight="1"/>
+    <row r="88" ht="12.0" customHeight="1"/>
+    <row r="89" ht="12.0" customHeight="1"/>
+    <row r="90" ht="12.0" customHeight="1"/>
+    <row r="91" ht="12.0" customHeight="1"/>
+    <row r="92" ht="12.0" customHeight="1"/>
+    <row r="93" ht="12.0" customHeight="1"/>
+    <row r="94" ht="12.0" customHeight="1"/>
+    <row r="95" ht="12.0" customHeight="1"/>
+    <row r="96" ht="12.0" customHeight="1"/>
+    <row r="97" ht="12.0" customHeight="1"/>
+    <row r="98" ht="12.0" customHeight="1"/>
+    <row r="99" ht="12.0" customHeight="1"/>
+    <row r="100" ht="12.0" customHeight="1"/>
+    <row r="101" ht="12.0" customHeight="1"/>
+    <row r="102" ht="12.0" customHeight="1"/>
+    <row r="103" ht="12.0" customHeight="1"/>
+    <row r="104" ht="12.0" customHeight="1"/>
+    <row r="105" ht="12.0" customHeight="1"/>
+    <row r="106" ht="12.0" customHeight="1"/>
+    <row r="107" ht="12.0" customHeight="1"/>
+    <row r="108" ht="12.0" customHeight="1"/>
+    <row r="109" ht="12.0" customHeight="1"/>
+    <row r="110" ht="12.0" customHeight="1"/>
+    <row r="111" ht="12.0" customHeight="1"/>
+    <row r="112" ht="12.0" customHeight="1"/>
+    <row r="113" ht="12.0" customHeight="1"/>
+    <row r="114" ht="12.0" customHeight="1"/>
+    <row r="115" ht="12.0" customHeight="1"/>
+    <row r="116" ht="12.0" customHeight="1"/>
+    <row r="117" ht="12.0" customHeight="1"/>
+    <row r="118" ht="12.0" customHeight="1"/>
+    <row r="119" ht="12.0" customHeight="1"/>
+    <row r="120" ht="12.0" customHeight="1"/>
+    <row r="121" ht="12.0" customHeight="1"/>
+    <row r="122" ht="12.0" customHeight="1"/>
+    <row r="123" ht="12.0" customHeight="1"/>
+    <row r="124" ht="12.0" customHeight="1"/>
+    <row r="125" ht="12.0" customHeight="1"/>
+    <row r="126" ht="12.0" customHeight="1"/>
+    <row r="127" ht="12.0" customHeight="1"/>
+    <row r="128" ht="12.0" customHeight="1"/>
+    <row r="129" ht="12.0" customHeight="1"/>
+    <row r="130" ht="12.0" customHeight="1"/>
+    <row r="131" ht="12.0" customHeight="1"/>
+    <row r="132" ht="12.0" customHeight="1"/>
+    <row r="133" ht="12.0" customHeight="1"/>
+    <row r="134" ht="12.0" customHeight="1"/>
+    <row r="135" ht="12.0" customHeight="1"/>
+    <row r="136" ht="12.0" customHeight="1"/>
+    <row r="137" ht="12.0" customHeight="1"/>
+    <row r="138" ht="12.0" customHeight="1"/>
+    <row r="139" ht="12.0" customHeight="1"/>
+    <row r="140" ht="12.0" customHeight="1"/>
+    <row r="141" ht="12.0" customHeight="1"/>
+    <row r="142" ht="12.0" customHeight="1"/>
+    <row r="143" ht="12.0" customHeight="1"/>
+    <row r="144" ht="12.0" customHeight="1"/>
+    <row r="145" ht="12.0" customHeight="1"/>
+    <row r="146" ht="12.0" customHeight="1"/>
+    <row r="147" ht="12.0" customHeight="1"/>
+    <row r="148" ht="12.0" customHeight="1"/>
+    <row r="149" ht="12.0" customHeight="1"/>
+    <row r="150" ht="12.0" customHeight="1"/>
+    <row r="151" ht="12.0" customHeight="1"/>
+    <row r="152" ht="12.0" customHeight="1"/>
+    <row r="153" ht="12.0" customHeight="1"/>
+    <row r="154" ht="12.0" customHeight="1"/>
+    <row r="155" ht="12.0" customHeight="1"/>
+    <row r="156" ht="12.0" customHeight="1"/>
+    <row r="157" ht="12.0" customHeight="1"/>
+    <row r="158" ht="12.0" customHeight="1"/>
+    <row r="159" ht="12.0" customHeight="1"/>
+    <row r="160" ht="12.0" customHeight="1"/>
+    <row r="161" ht="12.0" customHeight="1"/>
+    <row r="162" ht="12.0" customHeight="1"/>
+    <row r="163" ht="12.0" customHeight="1"/>
+    <row r="164" ht="12.0" customHeight="1"/>
+    <row r="165" ht="12.0" customHeight="1"/>
+    <row r="166" ht="12.0" customHeight="1"/>
+    <row r="167" ht="12.0" customHeight="1"/>
+    <row r="168" ht="12.0" customHeight="1"/>
+    <row r="169" ht="12.0" customHeight="1"/>
+    <row r="170" ht="12.0" customHeight="1"/>
+    <row r="171" ht="12.0" customHeight="1"/>
+    <row r="172" ht="12.0" customHeight="1"/>
+    <row r="173" ht="12.0" customHeight="1"/>
+    <row r="174" ht="12.0" customHeight="1"/>
+    <row r="175" ht="12.0" customHeight="1"/>
+    <row r="176" ht="12.0" customHeight="1"/>
+    <row r="177" ht="12.0" customHeight="1"/>
+    <row r="178" ht="12.0" customHeight="1"/>
+    <row r="179" ht="12.0" customHeight="1"/>
+    <row r="180" ht="12.0" customHeight="1"/>
+    <row r="181" ht="12.0" customHeight="1"/>
+    <row r="182" ht="12.0" customHeight="1"/>
+    <row r="183" ht="12.0" customHeight="1"/>
+    <row r="184" ht="12.0" customHeight="1"/>
+    <row r="185" ht="12.0" customHeight="1"/>
+    <row r="186" ht="12.0" customHeight="1"/>
+    <row r="187" ht="12.0" customHeight="1"/>
+    <row r="188" ht="12.0" customHeight="1"/>
+    <row r="189" ht="12.0" customHeight="1"/>
+    <row r="190" ht="12.0" customHeight="1"/>
+    <row r="191" ht="12.0" customHeight="1"/>
+    <row r="192" ht="12.0" customHeight="1"/>
+    <row r="193" ht="12.0" customHeight="1"/>
+    <row r="194" ht="12.0" customHeight="1"/>
+    <row r="195" ht="12.0" customHeight="1"/>
+    <row r="196" ht="12.0" customHeight="1"/>
+    <row r="197" ht="12.0" customHeight="1"/>
+    <row r="198" ht="12.0" customHeight="1"/>
+    <row r="199" ht="12.0" customHeight="1"/>
+    <row r="200" ht="12.0" customHeight="1"/>
+    <row r="201" ht="12.0" customHeight="1"/>
+    <row r="202" ht="12.0" customHeight="1"/>
+    <row r="203" ht="12.0" customHeight="1"/>
+    <row r="204" ht="12.0" customHeight="1"/>
+    <row r="205" ht="12.0" customHeight="1"/>
+    <row r="206" ht="12.0" customHeight="1"/>
+    <row r="207" ht="12.0" customHeight="1"/>
+    <row r="208" ht="12.0" customHeight="1"/>
+    <row r="209" ht="12.0" customHeight="1"/>
+    <row r="210" ht="12.0" customHeight="1"/>
+    <row r="211" ht="12.0" customHeight="1"/>
+    <row r="212" ht="12.0" customHeight="1"/>
+    <row r="213" ht="12.0" customHeight="1"/>
+    <row r="214" ht="12.0" customHeight="1"/>
+    <row r="215" ht="12.0" customHeight="1"/>
+    <row r="216" ht="12.0" customHeight="1"/>
+    <row r="217" ht="12.0" customHeight="1"/>
+    <row r="218" ht="12.0" customHeight="1"/>
+    <row r="219" ht="12.0" customHeight="1"/>
+    <row r="220" ht="12.0" customHeight="1"/>
+    <row r="221" ht="12.0" customHeight="1"/>
+    <row r="222" ht="12.0" customHeight="1"/>
+    <row r="223" ht="12.0" customHeight="1"/>
+    <row r="224" ht="12.0" customHeight="1"/>
+    <row r="225" ht="12.0" customHeight="1"/>
+    <row r="226" ht="12.0" customHeight="1"/>
+    <row r="227" ht="12.0" customHeight="1"/>
+    <row r="228" ht="12.0" customHeight="1"/>
+    <row r="229" ht="12.0" customHeight="1"/>
+    <row r="230" ht="12.0" customHeight="1"/>
+    <row r="231" ht="12.0" customHeight="1"/>
+    <row r="232" ht="12.0" customHeight="1"/>
+    <row r="233" ht="12.0" customHeight="1"/>
+    <row r="234" ht="12.0" customHeight="1"/>
+    <row r="235" ht="12.0" customHeight="1"/>
+    <row r="236" ht="12.0" customHeight="1"/>
+    <row r="237" ht="12.0" customHeight="1"/>
+    <row r="238" ht="12.0" customHeight="1"/>
+    <row r="239" ht="12.0" customHeight="1"/>
+    <row r="240" ht="12.0" customHeight="1"/>
+    <row r="241" ht="12.0" customHeight="1"/>
+    <row r="242" ht="12.0" customHeight="1"/>
+    <row r="243" ht="12.0" customHeight="1"/>
+    <row r="244" ht="12.0" customHeight="1"/>
+    <row r="245" ht="12.0" customHeight="1"/>
+    <row r="246" ht="12.0" customHeight="1"/>
+    <row r="247" ht="12.0" customHeight="1"/>
+    <row r="248" ht="12.0" customHeight="1"/>
+    <row r="249" ht="12.0" customHeight="1"/>
+    <row r="250" ht="12.0" customHeight="1"/>
+    <row r="251" ht="12.0" customHeight="1"/>
+    <row r="252" ht="12.0" customHeight="1"/>
+    <row r="253" ht="12.0" customHeight="1"/>
+    <row r="254" ht="12.0" customHeight="1"/>
+    <row r="255" ht="12.0" customHeight="1"/>
+    <row r="256" ht="12.0" customHeight="1"/>
+    <row r="257" ht="12.0" customHeight="1"/>
+    <row r="258" ht="12.0" customHeight="1"/>
+    <row r="259" ht="12.0" customHeight="1"/>
+    <row r="260" ht="12.0" customHeight="1"/>
+    <row r="261" ht="12.0" customHeight="1"/>
+    <row r="262" ht="12.0" customHeight="1"/>
+    <row r="263" ht="12.0" customHeight="1"/>
+    <row r="264" ht="12.0" customHeight="1"/>
+    <row r="265" ht="12.0" customHeight="1"/>
+    <row r="266" ht="12.0" customHeight="1"/>
+    <row r="267" ht="12.0" customHeight="1"/>
+    <row r="268" ht="12.0" customHeight="1"/>
+    <row r="269" ht="12.0" customHeight="1"/>
+    <row r="270" ht="12.0" customHeight="1"/>
+    <row r="271" ht="12.0" customHeight="1"/>
+    <row r="272" ht="12.0" customHeight="1"/>
+    <row r="273" ht="12.0" customHeight="1"/>
+    <row r="274" ht="12.0" customHeight="1"/>
+    <row r="275" ht="12.0" customHeight="1"/>
+    <row r="276" ht="12.0" customHeight="1"/>
+    <row r="277" ht="12.0" customHeight="1"/>
+    <row r="278" ht="12.0" customHeight="1"/>
+    <row r="279" ht="12.0" customHeight="1"/>
+    <row r="280" ht="12.0" customHeight="1"/>
+    <row r="281" ht="12.0" customHeight="1"/>
+    <row r="282" ht="12.0" customHeight="1"/>
+    <row r="283" ht="12.0" customHeight="1"/>
+    <row r="284" ht="12.0" customHeight="1"/>
+    <row r="285" ht="12.0" customHeight="1"/>
+    <row r="286" ht="12.0" customHeight="1"/>
+    <row r="287" ht="12.0" customHeight="1"/>
+    <row r="288" ht="12.0" customHeight="1"/>
+    <row r="289" ht="12.0" customHeight="1"/>
+    <row r="290" ht="12.0" customHeight="1"/>
+    <row r="291" ht="12.0" customHeight="1"/>
+    <row r="292" ht="12.0" customHeight="1"/>
+    <row r="293" ht="12.0" customHeight="1"/>
+    <row r="294" ht="12.0" customHeight="1"/>
+    <row r="295" ht="12.0" customHeight="1"/>
+    <row r="296" ht="12.0" customHeight="1"/>
+    <row r="297" ht="12.0" customHeight="1"/>
+    <row r="298" ht="12.0" customHeight="1"/>
+    <row r="299" ht="12.0" customHeight="1"/>
+    <row r="300" ht="12.0" customHeight="1"/>
+    <row r="301" ht="12.0" customHeight="1"/>
+    <row r="302" ht="12.0" customHeight="1"/>
+    <row r="303" ht="12.0" customHeight="1"/>
+    <row r="304" ht="12.0" customHeight="1"/>
+    <row r="305" ht="12.0" customHeight="1"/>
+    <row r="306" ht="12.0" customHeight="1"/>
+    <row r="307" ht="12.0" customHeight="1"/>
+    <row r="308" ht="12.0" customHeight="1"/>
+    <row r="309" ht="12.0" customHeight="1"/>
+    <row r="310" ht="12.0" customHeight="1"/>
+    <row r="311" ht="12.0" customHeight="1"/>
+    <row r="312" ht="12.0" customHeight="1"/>
+    <row r="313" ht="12.0" customHeight="1"/>
+    <row r="314" ht="12.0" customHeight="1"/>
+    <row r="315" ht="12.0" customHeight="1"/>
+    <row r="316" ht="12.0" customHeight="1"/>
+    <row r="317" ht="12.0" customHeight="1"/>
+    <row r="318" ht="12.0" customHeight="1"/>
+    <row r="319" ht="12.0" customHeight="1"/>
+    <row r="320" ht="12.0" customHeight="1"/>
+    <row r="321" ht="12.0" customHeight="1"/>
+    <row r="322" ht="12.0" customHeight="1"/>
+    <row r="323" ht="12.0" customHeight="1"/>
+    <row r="324" ht="12.0" customHeight="1"/>
+    <row r="325" ht="12.0" customHeight="1"/>
+    <row r="326" ht="12.0" customHeight="1"/>
+    <row r="327" ht="12.0" customHeight="1"/>
+    <row r="328" ht="12.0" customHeight="1"/>
+    <row r="329" ht="12.0" customHeight="1"/>
+    <row r="330" ht="12.0" customHeight="1"/>
+    <row r="331" ht="12.0" customHeight="1"/>
+    <row r="332" ht="12.0" customHeight="1"/>
+    <row r="333" ht="12.0" customHeight="1"/>
+    <row r="334" ht="12.0" customHeight="1"/>
+    <row r="335" ht="12.0" customHeight="1"/>
+    <row r="336" ht="12.0" customHeight="1"/>
+    <row r="337" ht="12.0" customHeight="1"/>
+    <row r="338" ht="12.0" customHeight="1"/>
+    <row r="339" ht="12.0" customHeight="1"/>
+    <row r="340" ht="12.0" customHeight="1"/>
+    <row r="341" ht="12.0" customHeight="1"/>
+    <row r="342" ht="12.0" customHeight="1"/>
+    <row r="343" ht="12.0" customHeight="1"/>
+    <row r="344" ht="12.0" customHeight="1"/>
+    <row r="345" ht="12.0" customHeight="1"/>
+    <row r="346" ht="12.0" customHeight="1"/>
+    <row r="347" ht="12.0" customHeight="1"/>
+    <row r="348" ht="12.0" customHeight="1"/>
+    <row r="349" ht="12.0" customHeight="1"/>
+    <row r="350" ht="12.0" customHeight="1"/>
+    <row r="351" ht="12.0" customHeight="1"/>
+    <row r="352" ht="12.0" customHeight="1"/>
+    <row r="353" ht="12.0" customHeight="1"/>
+    <row r="354" ht="12.0" customHeight="1"/>
+    <row r="355" ht="12.0" customHeight="1"/>
+    <row r="356" ht="12.0" customHeight="1"/>
+    <row r="357" ht="12.0" customHeight="1"/>
+    <row r="358" ht="12.0" customHeight="1"/>
+    <row r="359" ht="12.0" customHeight="1"/>
+    <row r="360" ht="12.0" customHeight="1"/>
+    <row r="361" ht="12.0" customHeight="1"/>
+    <row r="362" ht="12.0" customHeight="1"/>
+    <row r="363" ht="12.0" customHeight="1"/>
+    <row r="364" ht="12.0" customHeight="1"/>
+    <row r="365" ht="12.0" customHeight="1"/>
+    <row r="366" ht="12.0" customHeight="1"/>
+    <row r="367" ht="12.0" customHeight="1"/>
+    <row r="368" ht="12.0" customHeight="1"/>
+    <row r="369" ht="12.0" customHeight="1"/>
+    <row r="370" ht="12.0" customHeight="1"/>
+    <row r="371" ht="12.0" customHeight="1"/>
+    <row r="372" ht="12.0" customHeight="1"/>
+    <row r="373" ht="12.0" customHeight="1"/>
+    <row r="374" ht="12.0" customHeight="1"/>
+    <row r="375" ht="12.0" customHeight="1"/>
+    <row r="376" ht="12.0" customHeight="1"/>
+    <row r="377" ht="12.0" customHeight="1"/>
+    <row r="378" ht="12.0" customHeight="1"/>
+    <row r="379" ht="12.0" customHeight="1"/>
+    <row r="380" ht="12.0" customHeight="1"/>
+    <row r="381" ht="12.0" customHeight="1"/>
+    <row r="382" ht="12.0" customHeight="1"/>
+    <row r="383" ht="12.0" customHeight="1"/>
+    <row r="384" ht="12.0" customHeight="1"/>
+    <row r="385" ht="12.0" customHeight="1"/>
+    <row r="386" ht="12.0" customHeight="1"/>
+    <row r="387" ht="12.0" customHeight="1"/>
+    <row r="388" ht="12.0" customHeight="1"/>
+    <row r="389" ht="12.0" customHeight="1"/>
+    <row r="390" ht="12.0" customHeight="1"/>
+    <row r="391" ht="12.0" customHeight="1"/>
+    <row r="392" ht="12.0" customHeight="1"/>
+    <row r="393" ht="12.0" customHeight="1"/>
+    <row r="394" ht="12.0" customHeight="1"/>
+    <row r="395" ht="12.0" customHeight="1"/>
+    <row r="396" ht="12.0" customHeight="1"/>
+    <row r="397" ht="12.0" customHeight="1"/>
+    <row r="398" ht="12.0" customHeight="1"/>
+    <row r="399" ht="12.0" customHeight="1"/>
+    <row r="400" ht="12.0" customHeight="1"/>
+    <row r="401" ht="12.0" customHeight="1"/>
+    <row r="402" ht="12.0" customHeight="1"/>
+    <row r="403" ht="12.0" customHeight="1"/>
+    <row r="404" ht="12.0" customHeight="1"/>
+    <row r="405" ht="12.0" customHeight="1"/>
+    <row r="406" ht="12.0" customHeight="1"/>
+    <row r="407" ht="12.0" customHeight="1"/>
+    <row r="408" ht="12.0" customHeight="1"/>
+    <row r="409" ht="12.0" customHeight="1"/>
+    <row r="410" ht="12.0" customHeight="1"/>
+    <row r="411" ht="12.0" customHeight="1"/>
+    <row r="412" ht="12.0" customHeight="1"/>
+    <row r="413" ht="12.0" customHeight="1"/>
+    <row r="414" ht="12.0" customHeight="1"/>
+    <row r="415" ht="12.0" customHeight="1"/>
+    <row r="416" ht="12.0" customHeight="1"/>
+    <row r="417" ht="12.0" customHeight="1"/>
+    <row r="418" ht="12.0" customHeight="1"/>
+    <row r="419" ht="12.0" customHeight="1"/>
+    <row r="420" ht="12.0" customHeight="1"/>
+    <row r="421" ht="12.0" customHeight="1"/>
+    <row r="422" ht="12.0" customHeight="1"/>
+    <row r="423" ht="12.0" customHeight="1"/>
+    <row r="424" ht="12.0" customHeight="1"/>
+    <row r="425" ht="12.0" customHeight="1"/>
+    <row r="426" ht="12.0" customHeight="1"/>
+    <row r="427" ht="12.0" customHeight="1"/>
+    <row r="428" ht="12.0" customHeight="1"/>
+    <row r="429" ht="12.0" customHeight="1"/>
+    <row r="430" ht="12.0" customHeight="1"/>
+    <row r="431" ht="12.0" customHeight="1"/>
+    <row r="432" ht="12.0" customHeight="1"/>
+    <row r="433" ht="12.0" customHeight="1"/>
+    <row r="434" ht="12.0" customHeight="1"/>
+    <row r="435" ht="12.0" customHeight="1"/>
+    <row r="436" ht="12.0" customHeight="1"/>
+    <row r="437" ht="12.0" customHeight="1"/>
+    <row r="438" ht="12.0" customHeight="1"/>
+    <row r="439" ht="12.0" customHeight="1"/>
+    <row r="440" ht="12.0" customHeight="1"/>
+    <row r="441" ht="12.0" customHeight="1"/>
+    <row r="442" ht="12.0" customHeight="1"/>
+    <row r="443" ht="12.0" customHeight="1"/>
+    <row r="444" ht="12.0" customHeight="1"/>
+    <row r="445" ht="12.0" customHeight="1"/>
+    <row r="446" ht="12.0" customHeight="1"/>
+    <row r="447" ht="12.0" customHeight="1"/>
+    <row r="448" ht="12.0" customHeight="1"/>
+    <row r="449" ht="12.0" customHeight="1"/>
+    <row r="450" ht="12.0" customHeight="1"/>
+    <row r="451" ht="12.0" customHeight="1"/>
+    <row r="452" ht="12.0" customHeight="1"/>
+    <row r="453" ht="12.0" customHeight="1"/>
+    <row r="454" ht="12.0" customHeight="1"/>
+    <row r="455" ht="12.0" customHeight="1"/>
+    <row r="456" ht="12.0" customHeight="1"/>
+    <row r="457" ht="12.0" customHeight="1"/>
+    <row r="458" ht="12.0" customHeight="1"/>
+    <row r="459" ht="12.0" customHeight="1"/>
+    <row r="460" ht="12.0" customHeight="1"/>
+    <row r="461" ht="12.0" customHeight="1"/>
+    <row r="462" ht="12.0" customHeight="1"/>
+    <row r="463" ht="12.0" customHeight="1"/>
+    <row r="464" ht="12.0" customHeight="1"/>
+    <row r="465" ht="12.0" customHeight="1"/>
+    <row r="466" ht="12.0" customHeight="1"/>
+    <row r="467" ht="12.0" customHeight="1"/>
+    <row r="468" ht="12.0" customHeight="1"/>
+    <row r="469" ht="12.0" customHeight="1"/>
+    <row r="470" ht="12.0" customHeight="1"/>
+    <row r="471" ht="12.0" customHeight="1"/>
+    <row r="472" ht="12.0" customHeight="1"/>
+    <row r="473" ht="12.0" customHeight="1"/>
+    <row r="474" ht="12.0" customHeight="1"/>
+    <row r="475" ht="12.0" customHeight="1"/>
+    <row r="476" ht="12.0" customHeight="1"/>
+    <row r="477" ht="12.0" customHeight="1"/>
+    <row r="478" ht="12.0" customHeight="1"/>
+    <row r="479" ht="12.0" customHeight="1"/>
+    <row r="480" ht="12.0" customHeight="1"/>
+    <row r="481" ht="12.0" customHeight="1"/>
+    <row r="482" ht="12.0" customHeight="1"/>
+    <row r="483" ht="12.0" customHeight="1"/>
+    <row r="484" ht="12.0" customHeight="1"/>
+    <row r="485" ht="12.0" customHeight="1"/>
+    <row r="486" ht="12.0" customHeight="1"/>
+    <row r="487" ht="12.0" customHeight="1"/>
+    <row r="488" ht="12.0" customHeight="1"/>
+    <row r="489" ht="12.0" customHeight="1"/>
+    <row r="490" ht="12.0" customHeight="1"/>
+    <row r="491" ht="12.0" customHeight="1"/>
+    <row r="492" ht="12.0" customHeight="1"/>
+    <row r="493" ht="12.0" customHeight="1"/>
+    <row r="494" ht="12.0" customHeight="1"/>
+    <row r="495" ht="12.0" customHeight="1"/>
+    <row r="496" ht="12.0" customHeight="1"/>
+    <row r="497" ht="12.0" customHeight="1"/>
+    <row r="498" ht="12.0" customHeight="1"/>
+    <row r="499" ht="12.0" customHeight="1"/>
+    <row r="500" ht="12.0" customHeight="1"/>
+    <row r="501" ht="12.0" customHeight="1"/>
+    <row r="502" ht="12.0" customHeight="1"/>
+    <row r="503" ht="12.0" customHeight="1"/>
+    <row r="504" ht="12.0" customHeight="1"/>
+    <row r="505" ht="12.0" customHeight="1"/>
+    <row r="506" ht="12.0" customHeight="1"/>
+    <row r="507" ht="12.0" customHeight="1"/>
+    <row r="508" ht="12.0" customHeight="1"/>
+    <row r="509" ht="12.0" customHeight="1"/>
+    <row r="510" ht="12.0" customHeight="1"/>
+    <row r="511" ht="12.0" customHeight="1"/>
+    <row r="512" ht="12.0" customHeight="1"/>
+    <row r="513" ht="12.0" customHeight="1"/>
+    <row r="514" ht="12.0" customHeight="1"/>
+    <row r="515" ht="12.0" customHeight="1"/>
+    <row r="516" ht="12.0" customHeight="1"/>
+    <row r="517" ht="12.0" customHeight="1"/>
+    <row r="518" ht="12.0" customHeight="1"/>
+    <row r="519" ht="12.0" customHeight="1"/>
+    <row r="520" ht="12.0" customHeight="1"/>
+    <row r="521" ht="12.0" customHeight="1"/>
+    <row r="522" ht="12.0" customHeight="1"/>
+    <row r="523" ht="12.0" customHeight="1"/>
+    <row r="524" ht="12.0" customHeight="1"/>
+    <row r="525" ht="12.0" customHeight="1"/>
+    <row r="526" ht="12.0" customHeight="1"/>
+    <row r="527" ht="12.0" customHeight="1"/>
+    <row r="528" ht="12.0" customHeight="1"/>
+    <row r="529" ht="12.0" customHeight="1"/>
+    <row r="530" ht="12.0" customHeight="1"/>
+    <row r="531" ht="12.0" customHeight="1"/>
+    <row r="532" ht="12.0" customHeight="1"/>
+    <row r="533" ht="12.0" customHeight="1"/>
+    <row r="534" ht="12.0" customHeight="1"/>
+    <row r="535" ht="12.0" customHeight="1"/>
+    <row r="536" ht="12.0" customHeight="1"/>
+    <row r="537" ht="12.0" customHeight="1"/>
+    <row r="538" ht="12.0" customHeight="1"/>
+    <row r="539" ht="12.0" customHeight="1"/>
+    <row r="540" ht="12.0" customHeight="1"/>
+    <row r="541" ht="12.0" customHeight="1"/>
+    <row r="542" ht="12.0" customHeight="1"/>
+    <row r="543" ht="12.0" customHeight="1"/>
+    <row r="544" ht="12.0" customHeight="1"/>
+    <row r="545" ht="12.0" customHeight="1"/>
+    <row r="546" ht="12.0" customHeight="1"/>
+    <row r="547" ht="12.0" customHeight="1"/>
+    <row r="548" ht="12.0" customHeight="1"/>
+    <row r="549" ht="12.0" customHeight="1"/>
+    <row r="550" ht="12.0" customHeight="1"/>
+    <row r="551" ht="12.0" customHeight="1"/>
+    <row r="552" ht="12.0" customHeight="1"/>
+    <row r="553" ht="12.0" customHeight="1"/>
+    <row r="554" ht="12.0" customHeight="1"/>
+    <row r="555" ht="12.0" customHeight="1"/>
+    <row r="556" ht="12.0" customHeight="1"/>
+    <row r="557" ht="12.0" customHeight="1"/>
+    <row r="558" ht="12.0" customHeight="1"/>
+    <row r="559" ht="12.0" customHeight="1"/>
+    <row r="560" ht="12.0" customHeight="1"/>
+    <row r="561" ht="12.0" customHeight="1"/>
+    <row r="562" ht="12.0" customHeight="1"/>
+    <row r="563" ht="12.0" customHeight="1"/>
+    <row r="564" ht="12.0" customHeight="1"/>
+    <row r="565" ht="12.0" customHeight="1"/>
+    <row r="566" ht="12.0" customHeight="1"/>
+    <row r="567" ht="12.0" customHeight="1"/>
+    <row r="568" ht="12.0" customHeight="1"/>
+    <row r="569" ht="12.0" customHeight="1"/>
+    <row r="570" ht="12.0" customHeight="1"/>
+    <row r="571" ht="12.0" customHeight="1"/>
+    <row r="572" ht="12.0" customHeight="1"/>
+    <row r="573" ht="12.0" customHeight="1"/>
+    <row r="574" ht="12.0" customHeight="1"/>
+    <row r="575" ht="12.0" customHeight="1"/>
+    <row r="576" ht="12.0" customHeight="1"/>
+    <row r="577" ht="12.0" customHeight="1"/>
+    <row r="578" ht="12.0" customHeight="1"/>
+    <row r="579" ht="12.0" customHeight="1"/>
+    <row r="580" ht="12.0" customHeight="1"/>
+    <row r="581" ht="12.0" customHeight="1"/>
+    <row r="582" ht="12.0" customHeight="1"/>
+    <row r="583" ht="12.0" customHeight="1"/>
+    <row r="584" ht="12.0" customHeight="1"/>
+    <row r="585" ht="12.0" customHeight="1"/>
+    <row r="586" ht="12.0" customHeight="1"/>
+    <row r="587" ht="12.0" customHeight="1"/>
+    <row r="588" ht="12.0" customHeight="1"/>
+    <row r="589" ht="12.0" customHeight="1"/>
+    <row r="590" ht="12.0" customHeight="1"/>
+    <row r="591" ht="12.0" customHeight="1"/>
+    <row r="592" ht="12.0" customHeight="1"/>
+    <row r="593" ht="12.0" customHeight="1"/>
+    <row r="594" ht="12.0" customHeight="1"/>
+    <row r="595" ht="12.0" customHeight="1"/>
+    <row r="596" ht="12.0" customHeight="1"/>
+    <row r="597" ht="12.0" customHeight="1"/>
+    <row r="598" ht="12.0" customHeight="1"/>
+    <row r="599" ht="12.0" customHeight="1"/>
+    <row r="600" ht="12.0" customHeight="1"/>
+    <row r="601" ht="12.0" customHeight="1"/>
+    <row r="602" ht="12.0" customHeight="1"/>
+    <row r="603" ht="12.0" customHeight="1"/>
+    <row r="604" ht="12.0" customHeight="1"/>
+    <row r="605" ht="12.0" customHeight="1"/>
+    <row r="606" ht="12.0" customHeight="1"/>
+    <row r="607" ht="12.0" customHeight="1"/>
+    <row r="608" ht="12.0" customHeight="1"/>
+    <row r="609" ht="12.0" customHeight="1"/>
+    <row r="610" ht="12.0" customHeight="1"/>
+    <row r="611" ht="12.0" customHeight="1"/>
+    <row r="612" ht="12.0" customHeight="1"/>
+    <row r="613" ht="12.0" customHeight="1"/>
+    <row r="614" ht="12.0" customHeight="1"/>
+    <row r="615" ht="12.0" customHeight="1"/>
+    <row r="616" ht="12.0" customHeight="1"/>
+    <row r="617" ht="12.0" customHeight="1"/>
+    <row r="618" ht="12.0" customHeight="1"/>
+    <row r="619" ht="12.0" customHeight="1"/>
+    <row r="620" ht="12.0" customHeight="1"/>
+    <row r="621" ht="12.0" customHeight="1"/>
+    <row r="622" ht="12.0" customHeight="1"/>
+    <row r="623" ht="12.0" customHeight="1"/>
+    <row r="624" ht="12.0" customHeight="1"/>
+    <row r="625" ht="12.0" customHeight="1"/>
+    <row r="626" ht="12.0" customHeight="1"/>
+    <row r="627" ht="12.0" customHeight="1"/>
+    <row r="628" ht="12.0" customHeight="1"/>
+    <row r="629" ht="12.0" customHeight="1"/>
+    <row r="630" ht="12.0" customHeight="1"/>
+    <row r="631" ht="12.0" customHeight="1"/>
+    <row r="632" ht="12.0" customHeight="1"/>
+    <row r="633" ht="12.0" customHeight="1"/>
+    <row r="634" ht="12.0" customHeight="1"/>
+    <row r="635" ht="12.0" customHeight="1"/>
+    <row r="636" ht="12.0" customHeight="1"/>
+    <row r="637" ht="12.0" customHeight="1"/>
+    <row r="638" ht="12.0" customHeight="1"/>
+    <row r="639" ht="12.0" customHeight="1"/>
+    <row r="640" ht="12.0" customHeight="1"/>
+    <row r="641" ht="12.0" customHeight="1"/>
+    <row r="642" ht="12.0" customHeight="1"/>
+    <row r="643" ht="12.0" customHeight="1"/>
+    <row r="644" ht="12.0" customHeight="1"/>
+    <row r="645" ht="12.0" customHeight="1"/>
+    <row r="646" ht="12.0" customHeight="1"/>
+    <row r="647" ht="12.0" customHeight="1"/>
+    <row r="648" ht="12.0" customHeight="1"/>
+    <row r="649" ht="12.0" customHeight="1"/>
+    <row r="650" ht="12.0" customHeight="1"/>
+    <row r="651" ht="12.0" customHeight="1"/>
+    <row r="652" ht="12.0" customHeight="1"/>
+    <row r="653" ht="12.0" customHeight="1"/>
+    <row r="654" ht="12.0" customHeight="1"/>
+    <row r="655" ht="12.0" customHeight="1"/>
+    <row r="656" ht="12.0" customHeight="1"/>
+    <row r="657" ht="12.0" customHeight="1"/>
+    <row r="658" ht="12.0" customHeight="1"/>
+    <row r="659" ht="12.0" customHeight="1"/>
+    <row r="660" ht="12.0" customHeight="1"/>
+    <row r="661" ht="12.0" customHeight="1"/>
+    <row r="662" ht="12.0" customHeight="1"/>
+    <row r="663" ht="12.0" customHeight="1"/>
+    <row r="664" ht="12.0" customHeight="1"/>
+    <row r="665" ht="12.0" customHeight="1"/>
+    <row r="666" ht="12.0" customHeight="1"/>
+    <row r="667" ht="12.0" customHeight="1"/>
+    <row r="668" ht="12.0" customHeight="1"/>
+    <row r="669" ht="12.0" customHeight="1"/>
+    <row r="670" ht="12.0" customHeight="1"/>
+    <row r="671" ht="12.0" customHeight="1"/>
+    <row r="672" ht="12.0" customHeight="1"/>
+    <row r="673" ht="12.0" customHeight="1"/>
+    <row r="674" ht="12.0" customHeight="1"/>
+    <row r="675" ht="12.0" customHeight="1"/>
+    <row r="676" ht="12.0" customHeight="1"/>
+    <row r="677" ht="12.0" customHeight="1"/>
+    <row r="678" ht="12.0" customHeight="1"/>
+    <row r="679" ht="12.0" customHeight="1"/>
+    <row r="680" ht="12.0" customHeight="1"/>
+    <row r="681" ht="12.0" customHeight="1"/>
+    <row r="682" ht="12.0" customHeight="1"/>
+    <row r="683" ht="12.0" customHeight="1"/>
+    <row r="684" ht="12.0" customHeight="1"/>
+    <row r="685" ht="12.0" customHeight="1"/>
+    <row r="686" ht="12.0" customHeight="1"/>
+    <row r="687" ht="12.0" customHeight="1"/>
+    <row r="688" ht="12.0" customHeight="1"/>
+    <row r="689" ht="12.0" customHeight="1"/>
+    <row r="690" ht="12.0" customHeight="1"/>
+    <row r="691" ht="12.0" customHeight="1"/>
+    <row r="692" ht="12.0" customHeight="1"/>
+    <row r="693" ht="12.0" customHeight="1"/>
+    <row r="694" ht="12.0" customHeight="1"/>
+    <row r="695" ht="12.0" customHeight="1"/>
+    <row r="696" ht="12.0" customHeight="1"/>
+    <row r="697" ht="12.0" customHeight="1"/>
+    <row r="698" ht="12.0" customHeight="1"/>
+    <row r="699" ht="12.0" customHeight="1"/>
+    <row r="700" ht="12.0" customHeight="1"/>
+    <row r="701" ht="12.0" customHeight="1"/>
+    <row r="702" ht="12.0" customHeight="1"/>
+    <row r="703" ht="12.0" customHeight="1"/>
+    <row r="704" ht="12.0" customHeight="1"/>
+    <row r="705" ht="12.0" customHeight="1"/>
+    <row r="706" ht="12.0" customHeight="1"/>
+    <row r="707" ht="12.0" customHeight="1"/>
+    <row r="708" ht="12.0" customHeight="1"/>
+    <row r="709" ht="12.0" customHeight="1"/>
+    <row r="710" ht="12.0" customHeight="1"/>
+    <row r="711" ht="12.0" customHeight="1"/>
+    <row r="712" ht="12.0" customHeight="1"/>
+    <row r="713" ht="12.0" customHeight="1"/>
+    <row r="714" ht="12.0" customHeight="1"/>
+    <row r="715" ht="12.0" customHeight="1"/>
+    <row r="716" ht="12.0" customHeight="1"/>
+    <row r="717" ht="12.0" customHeight="1"/>
+    <row r="718" ht="12.0" customHeight="1"/>
+    <row r="719" ht="12.0" customHeight="1"/>
+    <row r="720" ht="12.0" customHeight="1"/>
+    <row r="721" ht="12.0" customHeight="1"/>
+    <row r="722" ht="12.0" customHeight="1"/>
+    <row r="723" ht="12.0" customHeight="1"/>
+    <row r="724" ht="12.0" customHeight="1"/>
+    <row r="725" ht="12.0" customHeight="1"/>
+    <row r="726" ht="12.0" customHeight="1"/>
+    <row r="727" ht="12.0" customHeight="1"/>
+    <row r="728" ht="12.0" customHeight="1"/>
+    <row r="729" ht="12.0" customHeight="1"/>
+    <row r="730" ht="12.0" customHeight="1"/>
+    <row r="731" ht="12.0" customHeight="1"/>
+    <row r="732" ht="12.0" customHeight="1"/>
+    <row r="733" ht="12.0" customHeight="1"/>
+    <row r="734" ht="12.0" customHeight="1"/>
+    <row r="735" ht="12.0" customHeight="1"/>
+    <row r="736" ht="12.0" customHeight="1"/>
+    <row r="737" ht="12.0" customHeight="1"/>
+    <row r="738" ht="12.0" customHeight="1"/>
+    <row r="739" ht="12.0" customHeight="1"/>
+    <row r="740" ht="12.0" customHeight="1"/>
+    <row r="741" ht="12.0" customHeight="1"/>
+    <row r="742" ht="12.0" customHeight="1"/>
+    <row r="743" ht="12.0" customHeight="1"/>
+    <row r="744" ht="12.0" customHeight="1"/>
+    <row r="745" ht="12.0" customHeight="1"/>
+    <row r="746" ht="12.0" customHeight="1"/>
+    <row r="747" ht="12.0" customHeight="1"/>
+    <row r="748" ht="12.0" customHeight="1"/>
+    <row r="749" ht="12.0" customHeight="1"/>
+    <row r="750" ht="12.0" customHeight="1"/>
+    <row r="751" ht="12.0" customHeight="1"/>
+    <row r="752" ht="12.0" customHeight="1"/>
+    <row r="753" ht="12.0" customHeight="1"/>
+    <row r="754" ht="12.0" customHeight="1"/>
+    <row r="755" ht="12.0" customHeight="1"/>
+    <row r="756" ht="12.0" customHeight="1"/>
+    <row r="757" ht="12.0" customHeight="1"/>
+    <row r="758" ht="12.0" customHeight="1"/>
+    <row r="759" ht="12.0" customHeight="1"/>
+    <row r="760" ht="12.0" customHeight="1"/>
+    <row r="761" ht="12.0" customHeight="1"/>
+    <row r="762" ht="12.0" customHeight="1"/>
+    <row r="763" ht="12.0" customHeight="1"/>
+    <row r="764" ht="12.0" customHeight="1"/>
+    <row r="765" ht="12.0" customHeight="1"/>
+    <row r="766" ht="12.0" customHeight="1"/>
+    <row r="767" ht="12.0" customHeight="1"/>
+    <row r="768" ht="12.0" customHeight="1"/>
+    <row r="769" ht="12.0" customHeight="1"/>
+    <row r="770" ht="12.0" customHeight="1"/>
+    <row r="771" ht="12.0" customHeight="1"/>
+    <row r="772" ht="12.0" customHeight="1"/>
+    <row r="773" ht="12.0" customHeight="1"/>
+    <row r="774" ht="12.0" customHeight="1"/>
+    <row r="775" ht="12.0" customHeight="1"/>
+    <row r="776" ht="12.0" customHeight="1"/>
+    <row r="777" ht="12.0" customHeight="1"/>
+    <row r="778" ht="12.0" customHeight="1"/>
+    <row r="779" ht="12.0" customHeight="1"/>
+    <row r="780" ht="12.0" customHeight="1"/>
+    <row r="781" ht="12.0" customHeight="1"/>
+    <row r="782" ht="12.0" customHeight="1"/>
+    <row r="783" ht="12.0" customHeight="1"/>
+    <row r="784" ht="12.0" customHeight="1"/>
+    <row r="785" ht="12.0" customHeight="1"/>
+    <row r="786" ht="12.0" customHeight="1"/>
+    <row r="787" ht="12.0" customHeight="1"/>
+    <row r="788" ht="12.0" customHeight="1"/>
+    <row r="789" ht="12.0" customHeight="1"/>
+    <row r="790" ht="12.0" customHeight="1"/>
+    <row r="791" ht="12.0" customHeight="1"/>
+    <row r="792" ht="12.0" customHeight="1"/>
+    <row r="793" ht="12.0" customHeight="1"/>
+    <row r="794" ht="12.0" customHeight="1"/>
+    <row r="795" ht="12.0" customHeight="1"/>
+    <row r="796" ht="12.0" customHeight="1"/>
+    <row r="797" ht="12.0" customHeight="1"/>
+    <row r="798" ht="12.0" customHeight="1"/>
+    <row r="799" ht="12.0" customHeight="1"/>
+    <row r="800" ht="12.0" customHeight="1"/>
+    <row r="801" ht="12.0" customHeight="1"/>
+    <row r="802" ht="12.0" customHeight="1"/>
+    <row r="803" ht="12.0" customHeight="1"/>
+    <row r="804" ht="12.0" customHeight="1"/>
+    <row r="805" ht="12.0" customHeight="1"/>
+    <row r="806" ht="12.0" customHeight="1"/>
+    <row r="807" ht="12.0" customHeight="1"/>
+    <row r="808" ht="12.0" customHeight="1"/>
+    <row r="809" ht="12.0" customHeight="1"/>
+    <row r="810" ht="12.0" customHeight="1"/>
+    <row r="811" ht="12.0" customHeight="1"/>
+    <row r="812" ht="12.0" customHeight="1"/>
+    <row r="813" ht="12.0" customHeight="1"/>
+    <row r="814" ht="12.0" customHeight="1"/>
+    <row r="815" ht="12.0" customHeight="1"/>
+    <row r="816" ht="12.0" customHeight="1"/>
+    <row r="817" ht="12.0" customHeight="1"/>
+    <row r="818" ht="12.0" customHeight="1"/>
+    <row r="819" ht="12.0" customHeight="1"/>
+    <row r="820" ht="12.0" customHeight="1"/>
+    <row r="821" ht="12.0" customHeight="1"/>
+    <row r="822" ht="12.0" customHeight="1"/>
+    <row r="823" ht="12.0" customHeight="1"/>
+    <row r="824" ht="12.0" customHeight="1"/>
+    <row r="825" ht="12.0" customHeight="1"/>
+    <row r="826" ht="12.0" customHeight="1"/>
+    <row r="827" ht="12.0" customHeight="1"/>
+    <row r="828" ht="12.0" customHeight="1"/>
+    <row r="829" ht="12.0" customHeight="1"/>
+    <row r="830" ht="12.0" customHeight="1"/>
+    <row r="831" ht="12.0" customHeight="1"/>
+    <row r="832" ht="12.0" customHeight="1"/>
+    <row r="833" ht="12.0" customHeight="1"/>
+    <row r="834" ht="12.0" customHeight="1"/>
+    <row r="835" ht="12.0" customHeight="1"/>
+    <row r="836" ht="12.0" customHeight="1"/>
+    <row r="837" ht="12.0" customHeight="1"/>
+    <row r="838" ht="12.0" customHeight="1"/>
+    <row r="839" ht="12.0" customHeight="1"/>
+    <row r="840" ht="12.0" customHeight="1"/>
+    <row r="841" ht="12.0" customHeight="1"/>
+    <row r="842" ht="12.0" customHeight="1"/>
+    <row r="843" ht="12.0" customHeight="1"/>
+    <row r="844" ht="12.0" customHeight="1"/>
+    <row r="845" ht="12.0" customHeight="1"/>
+    <row r="846" ht="12.0" customHeight="1"/>
+    <row r="847" ht="12.0" customHeight="1"/>
+    <row r="848" ht="12.0" customHeight="1"/>
+    <row r="849" ht="12.0" customHeight="1"/>
+    <row r="850" ht="12.0" customHeight="1"/>
+    <row r="851" ht="12.0" customHeight="1"/>
+    <row r="852" ht="12.0" customHeight="1"/>
+    <row r="853" ht="12.0" customHeight="1"/>
+    <row r="854" ht="12.0" customHeight="1"/>
+    <row r="855" ht="12.0" customHeight="1"/>
+    <row r="856" ht="12.0" customHeight="1"/>
+    <row r="857" ht="12.0" customHeight="1"/>
+    <row r="858" ht="12.0" customHeight="1"/>
+    <row r="859" ht="12.0" customHeight="1"/>
+    <row r="860" ht="12.0" customHeight="1"/>
+    <row r="861" ht="12.0" customHeight="1"/>
+    <row r="862" ht="12.0" customHeight="1"/>
+    <row r="863" ht="12.0" customHeight="1"/>
+    <row r="864" ht="12.0" customHeight="1"/>
+    <row r="865" ht="12.0" customHeight="1"/>
+    <row r="866" ht="12.0" customHeight="1"/>
+    <row r="867" ht="12.0" customHeight="1"/>
+    <row r="868" ht="12.0" customHeight="1"/>
+    <row r="869" ht="12.0" customHeight="1"/>
+    <row r="870" ht="12.0" customHeight="1"/>
+    <row r="871" ht="12.0" customHeight="1"/>
+    <row r="872" ht="12.0" customHeight="1"/>
+    <row r="873" ht="12.0" customHeight="1"/>
+    <row r="874" ht="12.0" customHeight="1"/>
+    <row r="875" ht="12.0" customHeight="1"/>
+    <row r="876" ht="12.0" customHeight="1"/>
+    <row r="877" ht="12.0" customHeight="1"/>
+    <row r="878" ht="12.0" customHeight="1"/>
+    <row r="879" ht="12.0" customHeight="1"/>
+    <row r="880" ht="12.0" customHeight="1"/>
+    <row r="881" ht="12.0" customHeight="1"/>
+    <row r="882" ht="12.0" customHeight="1"/>
+    <row r="883" ht="12.0" customHeight="1"/>
+    <row r="884" ht="12.0" customHeight="1"/>
+    <row r="885" ht="12.0" customHeight="1"/>
+    <row r="886" ht="12.0" customHeight="1"/>
+    <row r="887" ht="12.0" customHeight="1"/>
+    <row r="888" ht="12.0" customHeight="1"/>
+    <row r="889" ht="12.0" customHeight="1"/>
+    <row r="890" ht="12.0" customHeight="1"/>
+    <row r="891" ht="12.0" customHeight="1"/>
+    <row r="892" ht="12.0" customHeight="1"/>
+    <row r="893" ht="12.0" customHeight="1"/>
+    <row r="894" ht="12.0" customHeight="1"/>
+    <row r="895" ht="12.0" customHeight="1"/>
+    <row r="896" ht="12.0" customHeight="1"/>
+    <row r="897" ht="12.0" customHeight="1"/>
+    <row r="898" ht="12.0" customHeight="1"/>
+    <row r="899" ht="12.0" customHeight="1"/>
+    <row r="900" ht="12.0" customHeight="1"/>
+    <row r="901" ht="12.0" customHeight="1"/>
+    <row r="902" ht="12.0" customHeight="1"/>
+    <row r="903" ht="12.0" customHeight="1"/>
+    <row r="904" ht="12.0" customHeight="1"/>
+    <row r="905" ht="12.0" customHeight="1"/>
+    <row r="906" ht="12.0" customHeight="1"/>
+    <row r="907" ht="12.0" customHeight="1"/>
+    <row r="908" ht="12.0" customHeight="1"/>
+    <row r="909" ht="12.0" customHeight="1"/>
+    <row r="910" ht="12.0" customHeight="1"/>
+    <row r="911" ht="12.0" customHeight="1"/>
+    <row r="912" ht="12.0" customHeight="1"/>
+    <row r="913" ht="12.0" customHeight="1"/>
+    <row r="914" ht="12.0" customHeight="1"/>
+    <row r="915" ht="12.0" customHeight="1"/>
+    <row r="916" ht="12.0" customHeight="1"/>
+    <row r="917" ht="12.0" customHeight="1"/>
+    <row r="918" ht="12.0" customHeight="1"/>
+    <row r="919" ht="12.0" customHeight="1"/>
+    <row r="920" ht="12.0" customHeight="1"/>
+    <row r="921" ht="12.0" customHeight="1"/>
+    <row r="922" ht="12.0" customHeight="1"/>
+    <row r="923" ht="12.0" customHeight="1"/>
+    <row r="924" ht="12.0" customHeight="1"/>
+    <row r="925" ht="12.0" customHeight="1"/>
+    <row r="926" ht="12.0" customHeight="1"/>
+    <row r="927" ht="12.0" customHeight="1"/>
+    <row r="928" ht="12.0" customHeight="1"/>
+    <row r="929" ht="12.0" customHeight="1"/>
+    <row r="930" ht="12.0" customHeight="1"/>
+    <row r="931" ht="12.0" customHeight="1"/>
+    <row r="932" ht="12.0" customHeight="1"/>
+    <row r="933" ht="12.0" customHeight="1"/>
+    <row r="934" ht="12.0" customHeight="1"/>
+    <row r="935" ht="12.0" customHeight="1"/>
+    <row r="936" ht="12.0" customHeight="1"/>
+    <row r="937" ht="12.0" customHeight="1"/>
+    <row r="938" ht="12.0" customHeight="1"/>
+    <row r="939" ht="12.0" customHeight="1"/>
+    <row r="940" ht="12.0" customHeight="1"/>
+    <row r="941" ht="12.0" customHeight="1"/>
+    <row r="942" ht="12.0" customHeight="1"/>
+    <row r="943" ht="12.0" customHeight="1"/>
+    <row r="944" ht="12.0" customHeight="1"/>
+    <row r="945" ht="12.0" customHeight="1"/>
+    <row r="946" ht="12.0" customHeight="1"/>
+    <row r="947" ht="12.0" customHeight="1"/>
+    <row r="948" ht="12.0" customHeight="1"/>
+    <row r="949" ht="12.0" customHeight="1"/>
+    <row r="950" ht="12.0" customHeight="1"/>
+    <row r="951" ht="12.0" customHeight="1"/>
+    <row r="952" ht="12.0" customHeight="1"/>
+    <row r="953" ht="12.0" customHeight="1"/>
+    <row r="954" ht="12.0" customHeight="1"/>
+    <row r="955" ht="12.0" customHeight="1"/>
+    <row r="956" ht="12.0" customHeight="1"/>
+    <row r="957" ht="12.0" customHeight="1"/>
+    <row r="958" ht="12.0" customHeight="1"/>
+    <row r="959" ht="12.0" customHeight="1"/>
+    <row r="960" ht="12.0" customHeight="1"/>
+    <row r="961" ht="12.0" customHeight="1"/>
+    <row r="962" ht="12.0" customHeight="1"/>
+    <row r="963" ht="12.0" customHeight="1"/>
+    <row r="964" ht="12.0" customHeight="1"/>
+    <row r="965" ht="12.0" customHeight="1"/>
+    <row r="966" ht="12.0" customHeight="1"/>
+    <row r="967" ht="12.0" customHeight="1"/>
+    <row r="968" ht="12.0" customHeight="1"/>
+    <row r="969" ht="12.0" customHeight="1"/>
+    <row r="970" ht="12.0" customHeight="1"/>
+    <row r="971" ht="12.0" customHeight="1"/>
+    <row r="972" ht="12.0" customHeight="1"/>
+    <row r="973" ht="12.0" customHeight="1"/>
+    <row r="974" ht="12.0" customHeight="1"/>
+    <row r="975" ht="12.0" customHeight="1"/>
+    <row r="976" ht="12.0" customHeight="1"/>
+    <row r="977" ht="12.0" customHeight="1"/>
+    <row r="978" ht="12.0" customHeight="1"/>
+    <row r="979" ht="12.0" customHeight="1"/>
+    <row r="980" ht="12.0" customHeight="1"/>
+    <row r="981" ht="12.0" customHeight="1"/>
+    <row r="982" ht="12.0" customHeight="1"/>
+    <row r="983" ht="12.0" customHeight="1"/>
+    <row r="984" ht="12.0" customHeight="1"/>
+    <row r="985" ht="12.0" customHeight="1"/>
+    <row r="986" ht="12.0" customHeight="1"/>
+    <row r="987" ht="12.0" customHeight="1"/>
+    <row r="988" ht="12.0" customHeight="1"/>
+    <row r="989" ht="12.0" customHeight="1"/>
+    <row r="990" ht="12.0" customHeight="1"/>
+    <row r="991" ht="12.0" customHeight="1"/>
+    <row r="992" ht="12.0" customHeight="1"/>
+    <row r="993" ht="12.0" customHeight="1"/>
+    <row r="994" ht="12.0" customHeight="1"/>
+    <row r="995" ht="12.0" customHeight="1"/>
+    <row r="996" ht="12.0" customHeight="1"/>
+    <row r="997" ht="12.0" customHeight="1"/>
+    <row r="998" ht="12.0" customHeight="1"/>
+    <row r="999" ht="12.0" customHeight="1"/>
+    <row r="1000" ht="12.0" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink r:id="rId2" ref="E12"/>
+  </hyperlinks>
+  <printOptions/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="landscape"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
+</worksheet>
 </file>
--- a/Estimates 22 BDG [Final].xlsx
+++ b/Estimates 22 BDG [Final].xlsx
@@ -17,7 +17,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataSignature="AMtx7mgEhANcLrUpyZbCn7chYtIRKNp4gA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataSignature="AMtx7mivM8sG1k7DW4Sc/ZFrJn+y6qp9XQ=="/>
     </ext>
   </extLst>
 </workbook>
@@ -29,6 +29,24 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="D7">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAASRXWHKM
+Jonathan Berry    (2021-11-29 13:56:32)
+@jonathan@strategy4ward.com Is "Upload your inputs package to the ADR" a bit misleading here... maybe "Before you upload your input data to the ADR"
+_Assigned to Jonathan Pearson_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D6">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAASRXWHKE
+Jonathan Berry    (2021-11-29 13:54:06)
+@jonathan@strategy4ward.com Should we be removing all references to ShinyRob?
+_Assigned to Jonathan Pearson_</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="E12">
       <text>
         <t xml:space="preserve">======
@@ -76,7 +94,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjRTiHm/bb3hoFY4mbh/FCIGzfI2Q=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgV2/fB1ZeWyrbYgf80fCN/yrLt0Q=="/>
     </ext>
   </extLst>
 </comments>
@@ -88,6 +106,15 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="A2">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAASRXWHKQ
+Jonathan Berry    (2021-11-29 14:00:29)
+@jonathan@strategy4ward.com I would suggest a slightly different milestone title "Upload Estimates Input Data to the ADR" I'd suggest being careful how we use the word "package".
+_Assigned to Jonathan Pearson_</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="E8">
       <text>
         <t xml:space="preserve">======
@@ -131,13 +158,38 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miWk+6zpVG89196YJLo8CF9SnorYQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjnnOISAjCwMQqK7fkn9NXYxGUPyQ=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A2">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAASQZYp8Y
+Jonathan Berry    (2021-11-29 16:13:01)
+@jonathan@strategy4ward.com Unfortunately Markdown can only be used in the task content, not the milestone titles.  I would suggest shortening this milestone name, maybe: "Review 
+quality of data inputs in Naomi" Also we need to be consistent in our capitalisation of milestones.
+_Assigned to Jonathan Pearson_</t>
+      </text>
+    </comment>
+  </commentList>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjQLChH7kssFiYviT8L8Yx8jDWCvw=="/>
+    </ext>
+  </extLst>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -162,7 +214,31 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="B15">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAASQZYp8s
+Jonathan Berry    (2021-11-29 16:19:26)
+@jonathan@strategy4ward.com Unfortunately we are only supporting markdown in the task content, not the task title.
+_Assigned to Jonathan Pearson_</t>
+      </text>
+    </comment>
+  </commentList>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miach7Q1bggrDq+3B9RkyZJqWtEJg=="/>
+    </ext>
+  </extLst>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -187,12 +263,21 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="C15">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAASQZYp80
+Jonathan Berry    (2021-11-29 16:27:24)
+@jonathan@strategy4ward.com  Unfortunately we don't support markdown in task titles, only in task content.
+_Assigned to Jonathan Pearson_</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="F18">
       <text>
         <t xml:space="preserve">======
@@ -206,7 +291,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgJslj5uvmHEvEMtEDbwbds5MVx3A=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mi5EQmflitcDFgvxHNOZnt5sdaLkg=="/>
     </ext>
   </extLst>
 </comments>
@@ -677,7 +762,7 @@
 Can easily remove.</t>
   </si>
   <si>
-    <t>check_resource_key(['inputs-unaids-geographic', 'inputs-unaids-survey', 'inputs-unaids-population', 'inputs-unaids-spectrum'], 'url', '.*')</t>
+    <t>check_resource_key(['inputs-unaids-geographic', 'inputs-unaids-survey', 'inputs-unaids-population', 'inputs-unaids-spectrum-file'], 'url', '.*')</t>
   </si>
   <si>
     <t>ADR-01-11</t>
@@ -3342,14 +3427,14 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.71"/>
-    <col customWidth="1" min="2" max="2" width="19.29"/>
+    <col customWidth="1" min="1" max="1" width="14.0"/>
+    <col customWidth="1" min="2" max="2" width="49.0"/>
     <col customWidth="1" min="3" max="3" width="21.86"/>
     <col customWidth="1" min="4" max="4" width="43.71"/>
-    <col customWidth="1" min="5" max="5" width="39.14"/>
+    <col customWidth="1" min="5" max="5" width="18.29"/>
     <col customWidth="1" min="6" max="6" width="11.57"/>
     <col customWidth="1" min="7" max="7" width="31.86"/>
-    <col customWidth="1" min="8" max="8" width="36.86"/>
+    <col customWidth="1" min="8" max="8" width="14.14"/>
     <col customWidth="1" min="9" max="9" width="26.86"/>
     <col customWidth="1" min="10" max="10" width="31.86"/>
     <col customWidth="1" min="11" max="24" width="8.71"/>
@@ -14189,7 +14274,8 @@
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -18385,7 +18471,8 @@
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -19856,7 +19943,7 @@
     <col customWidth="1" min="2" max="2" width="11.43"/>
     <col customWidth="1" min="3" max="3" width="12.29"/>
     <col customWidth="1" min="4" max="4" width="19.43"/>
-    <col customWidth="1" min="5" max="5" width="13.29"/>
+    <col customWidth="1" min="5" max="5" width="63.0"/>
     <col customWidth="1" min="6" max="6" width="52.86"/>
     <col customWidth="1" min="7" max="7" width="11.29"/>
     <col customWidth="1" min="8" max="8" width="20.57"/>

--- a/Estimates 22 BDG [Final].xlsx
+++ b/Estimates 22 BDG [Final].xlsx
@@ -17,7 +17,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataSignature="AMtx7mivM8sG1k7DW4Sc/ZFrJn+y6qp9XQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataSignature="AMtx7miX2XuPsNkDJFOFABayQPsqpCpfhw=="/>
     </ext>
   </extLst>
 </workbook>
@@ -29,72 +29,23 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="D7">
+    <comment authorId="0" ref="D5">
       <text>
         <t xml:space="preserve">======
-ID#AAAASRXWHKM
-Jonathan Berry    (2021-11-29 13:56:32)
-@jonathan@strategy4ward.com Is "Upload your inputs package to the ADR" a bit misleading here... maybe "Before you upload your input data to the ADR"
-_Assigned to Jonathan Pearson_</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D6">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAASRXWHKE
-Jonathan Berry    (2021-11-29 13:54:06)
-@jonathan@strategy4ward.com Should we be removing all references to ShinyRob?
-_Assigned to Jonathan Pearson_</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E12">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAASYjj5eE
-tc={69C0F8D5-BDA3-48CA-8475-D76775529B3F}    (2021-11-25 18:28:02)
-[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    @Fjelltopp - Link to user's organization page?</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E14">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAASYjj5eA
-tc={B4F14ED7-4D5B-4B68-9AA9-FEA37D3C2A24}    (2021-11-25 18:28:02)
-[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    @Fjelltopp - Link to user's organization page?</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E13">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAASYjj5d4
-tc={00E57C65-4EFD-4CAD-8517-02CA531AAD92}    (2021-11-25 18:28:02)
-[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    @Fjelltopp - Link to user's organization page?</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E11">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAASYjj5ds
-tc={74C073BF-C656-4D83-9D12-2E2B3D86DBC1}    (2021-11-25 18:28:02)
-[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    @Fjelltopp - Link to user's organization page?</t>
+ID#AAAASQchb8E
+Jonathan Berry    (2021-11-30 13:03:07)
+@jonathan@strategy4ward.com Added a final line in bold in the hope that it is clearer how to proceed to your next task.  I quite like the fact that users are forced to read and understand the general concept of always "Marking a task as complete then clicking what's next" in order to proceed. What do you think?
+_Assigned to Jonathan Pearson_
+------
+ID#AAAASQchb8I
+Jonathan Berry    (2021-11-30 13:03:53)
+I also think it could be really neat to include a little 3-4 step Navigator tutorial here at the beginning, introducing people to how the navigator works?</t>
       </text>
     </comment>
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgV2/fB1ZeWyrbYgf80fCN/yrLt0Q=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miHvWu4EiKCYAZv8v/wgW4DaYUDcQ=="/>
     </ext>
   </extLst>
 </comments>
@@ -106,13 +57,109 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="E12">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAASYjj5eE
+tc={69C0F8D5-BDA3-48CA-8475-D76775529B3F}    (2021-11-25 18:28:02)
+[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    @Fjelltopp - Link to user's organization page?
+------
+ID#AAAARMmfkVY
+Jonathan Pearson    (2021-11-30 09:23:08)
+@jonathan@fjelltopp.org</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E14">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAASYjj5eA
+tc={B4F14ED7-4D5B-4B68-9AA9-FEA37D3C2A24}    (2021-11-25 18:28:02)
+[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    @Fjelltopp - Link to user's organization page?
+------
+ID#AAAARMmfkVg
+Jonathan Pearson    (2021-11-30 09:23:40)
+@jonathan@fjelltopp.org</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E13">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAASYjj5d4
+tc={00E57C65-4EFD-4CAD-8517-02CA531AAD92}    (2021-11-25 18:28:02)
+[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    @Fjelltopp - Link to user's organization page?
+------
+ID#AAAARMmfkVc
+Jonathan Pearson    (2021-11-30 09:23:23)
+@jonathan@fjelltopp.org</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E11">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAASYjj5ds
+tc={74C073BF-C656-4D83-9D12-2E2B3D86DBC1}    (2021-11-25 18:28:02)
+[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    @Fjelltopp - Link to user's organization page?
+------
+ID#AAAARMmfkVU
+Jonathan Pearson    (2021-11-30 09:22:51)
+@jonathan@fjelltopp.org</t>
+      </text>
+    </comment>
+  </commentList>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhRppvY1pIdJW/C7OYCjL/6aemR1Q=="/>
+    </ext>
+  </extLst>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A6">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAASQchb74
+Jonathan Pearson    (2021-11-30 12:58:00)
+@jonathan@fjelltopp.org - isn't this task redundant given those below it? Can we delete?
+_Assigned to Jonathan Berry_
+------
+ID#AAAASQchb94
+Jonathan Berry    (2021-11-30 16:29:55)
+@jonathan@fjelltopp.org This is my proposed solution for not having an easy way to determine if the user has uploaded 2021 data: We first get the user to manually confirm they have uploaded 2021 data.</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="A2">
       <text>
         <t xml:space="preserve">======
 ID#AAAASRXWHKQ
 Jonathan Berry    (2021-11-29 14:00:29)
 @jonathan@strategy4ward.com I would suggest a slightly different milestone title "Upload Estimates Input Data to the ADR" I'd suggest being careful how we use the word "package".
-_Assigned to Jonathan Pearson_</t>
+_Assigned to Jonathan Pearson_
+------
+ID#AAAARMmfkVk
+Jonathan Pearson    (2021-11-30 09:25:11)
+Mary wanted to 'brand' the Inputs Package this year using proper nouns, capitalization, etc. I believe in this step they're now uploading and reviewing data files so I've edited to reflect. Let me know if you prefer something else.
+------
+ID#AAAASQchb-A
+Jonathan Berry    (2021-11-30 16:37:57)
+We actually spent quite a while removing all references to the word "Package" from the ADR UI, and also changed the title of the dataset to reflect the fact it contains inputs and outputs.  I might raise this for query in the HIVTools call tomorrow?  My personal preference would be to do a find and replace on the phrase "Inputs Package" and replace with "Estimates Dataset".</t>
       </text>
     </comment>
     <comment authorId="0" ref="E8">
@@ -158,32 +205,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjnnOISAjCwMQqK7fkn9NXYxGUPyQ=="/>
-    </ext>
-  </extLst>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment authorId="0" ref="A2">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAASQZYp8Y
-Jonathan Berry    (2021-11-29 16:13:01)
-@jonathan@strategy4ward.com Unfortunately Markdown can only be used in the task content, not the milestone titles.  I would suggest shortening this milestone name, maybe: "Review 
-quality of data inputs in Naomi" Also we need to be consistent in our capitalisation of milestones.
-_Assigned to Jonathan Pearson_</t>
-      </text>
-    </comment>
-  </commentList>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjQLChH7kssFiYviT8L8Yx8jDWCvw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mg2ZsKBAa5POLwFEGNQBfKwWFeZFQ=="/>
     </ext>
   </extLst>
 </comments>
@@ -220,30 +242,6 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="B15">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAASQZYp8s
-Jonathan Berry    (2021-11-29 16:19:26)
-@jonathan@strategy4ward.com Unfortunately we are only supporting markdown in the task content, not the task title.
-_Assigned to Jonathan Pearson_</t>
-      </text>
-    </comment>
-  </commentList>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miach7Q1bggrDq+3B9RkyZJqWtEJg=="/>
-    </ext>
-  </extLst>
-</comments>
-</file>
-
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
     <comment authorId="0" ref="F15">
       <text>
         <t xml:space="preserve">======
@@ -263,21 +261,12 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="C15">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAASQZYp80
-Jonathan Berry    (2021-11-29 16:27:24)
-@jonathan@strategy4ward.com  Unfortunately we don't support markdown in task titles, only in task content.
-_Assigned to Jonathan Pearson_</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="F18">
       <text>
         <t xml:space="preserve">======
@@ -291,14 +280,14 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mi5EQmflitcDFgvxHNOZnt5sdaLkg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgJslj5uvmHEvEMtEDbwbds5MVx3A=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="563">
   <si>
     <t>Milestone Title (Visible to User):</t>
   </si>
@@ -363,9 +352,10 @@
     <t>Has the user clicked What's Next?</t>
   </si>
   <si>
-    <t xml:space="preserve">Welcome to the HIV Estimates Navigator. This tool will guide you step by step through the process of creating your country's HIV Estimates.  
+    <t>Welcome to the HIV Estimates Navigator. This tool will guide you step by step through the process of creating your country's HIV Estimates.  
 At each step of the way you will be presented with a task to complete. We ask that you read the instructions carefully and use the extra resources and links provided if necessary to complete the task. 
-When you believe you have completed the task, toggle the task complete/incomplete button in the bottom right by clicking on it, and then click "What's next" to see your next task.  </t>
+When you believe you have completed the task, toggle the task complete/incomplete button in the bottom right by clicking on it, and then click "What's next" to see your next task. 
+**Do this now to proceed to your next task.**</t>
   </si>
   <si>
     <t>check_manual_confirmation('EST-OVV-01-10-A')</t>
@@ -380,11 +370,10 @@
     <t>Has the entry criteria for 01-GenEstsDataHMIS been met?</t>
   </si>
   <si>
-    <t>In order to proceed to use the Navigator your country must have: 
- - Collected data from all sites for the time period used in the models;
- - Compiled and validated the data;
- - Authorized you to prepare the estimates on behalf of the country. 
-If you are satisfied that the above requirements are met, mark this task and complete and click "What's next?"</t>
+    <t>In order to proceed to use the Navigator your country must: 
+ - Have data from all sites for the time period used in the models;
+ - Be authorized you to prepare the estimates on behalf of the country. 
+If you are satisfied that the above requirements are met, mark this task  complete and click "What's next?"</t>
   </si>
   <si>
     <t>check_manual_confirmation('EST-OVV-02-01-A')</t>
@@ -411,7 +400,7 @@
     <t>OVV-05-01</t>
   </si>
   <si>
-    <t>Milestone: Review quality of programme data inputs in ShinyRob</t>
+    <t>Milestone: Review quality of programme data inputs using the Review Inputs function in Naomi</t>
   </si>
   <si>
     <t>03-ValidateDataNaomi</t>
@@ -462,7 +451,7 @@
     <t>08-GenSubNatlEstsNaomi</t>
   </si>
   <si>
-    <t>Preparing Input Data for HIV Estimates</t>
+    <t>Prepare Input Data for HIV Estimates</t>
   </si>
   <si>
     <r>
@@ -545,7 +534,7 @@
     <t>Has the country team conducted data quality procedures on each of the required data inputs using Guide 6, Data Quality Standards of Practice?</t>
   </si>
   <si>
-    <t>The greatest impediment to a successful estimates process is poor quality programme data. The most important thing you can do before you begin is review the quality of your programme data. There are specific analyses recommended to assess the quality of your program data. These analyses are available in Guide 6, Data Quality Standards of Practice. Table 2 provides specific analyses for the different programme inputs to ensure you start the estimates process with high quality inputs. ShinyRob is another tool available to users for assessing data quality. This step will be completed after data are uploaded to ADR.</t>
+    <t>The greatest impediment to a successful estimates process is poor quality programme data. The most important thing you can do before you begin is review the quality of your programme data. There are specific analyses recommended to assess the quality of your program data. These analyses are available in Guide 6, Data Quality Standards of Practice. Table 2 provides specific analyses for the different programme inputs to ensure you start the estimates process with high quality inputs. Naomi's Review Inputs function is another tool available to users for assessing data quality. This step will be completed after data are uploaded to ADR.</t>
   </si>
   <si>
     <r>
@@ -582,7 +571,7 @@
     <t>Has user updated ANC data file?</t>
   </si>
   <si>
-    <t xml:space="preserve">Before you upload your Inputs Package to ADR, ensure you have updated the data files for the current reporting period.  **Update** your programme data files for ANC. UNAIDS recommends beginning with last year's final Inputs Package and only updating the files for the current reporting period. You can learn more about the data elements required in Guide 8 Data Quality, Indicator Elements Matrix. </t>
+    <t xml:space="preserve">Before you upload data files to your Inputs Package to ADR, ensure you have updated them for the current reporting period.  **Update** your programme data files for ANC. UNAIDS has placed last year's final ANC file in this year's Inputs Package for your convenience. UNAIDS recommends beginning with last year's final Inputs Package and only updating the files for the current reporting period. You can learn more about the data elements required in Guide 8 Data Quality, Indicator Elements Matrix. </t>
   </si>
   <si>
     <t>AIDS Data Repository https://adr.unaids.org/
@@ -604,7 +593,7 @@
     <t>Has user updated ART data file?</t>
   </si>
   <si>
-    <t xml:space="preserve">Before you upload your Inputs Package to ADR, ensure you have updated the data files for the current reporting period.  **Update** your programme data files for ART. UNAIDS recommends beginning with last year's final Inputs Package and only updating the files for the current reporting period. You can learn more about the data elements required in Guide 8 Data Quality, Indicator Elements Matrix. </t>
+    <t xml:space="preserve">Before you upload data files to your Inputs Package to ADR, ensure you have updated the data files for the current reporting period.  **Update** your programme data files for ART. UNAIDS has placed last year's final ART file in this year's Inputs Package for your convenience. UNAIDS recommends beginning with last year's final Inputs Package and only updating the files for the current reporting period. You can learn more about the data elements required in Guide 8 Data Quality, Indicator Elements Matrix. </t>
   </si>
   <si>
     <t>check_manual_confirmation('EST-GEN-04-01-A')</t>
@@ -619,7 +608,7 @@
     <t>Has user updated VMMC data file?</t>
   </si>
   <si>
-    <t xml:space="preserve">Before you upload your Inputs Package to ADR, ensure you have updated the data files for the current reporting period.  **Update** your programme data files for VMMC (if relevant). UNAIDS recommends beginning with last year's final Inputs Package and only updating the files for the current reporting period. If you are not using VMMC data for your estimates, you can market this task as complete. You can learn more about the data elements required in Guide 8 Data Quality, Indicator Elements Matrix. </t>
+    <t xml:space="preserve">*This task is only for VMMC priority countries. If you are not from one of the priority VMMC countries, mark this task complete and click "What's Next".* Before you upload data files to your Inputs Package to ADR, ensure you have updated the data files for the current reporting period.  **Update** your programme data files for VMMC (if relevant). If you produced a VMMC data file last year, UNAIDS has placed that final file in this year's Inputs Package for your convenience. UNAIDS recommends beginning with last year's final Inputs Package and only updating the files for the current reporting period. If you are not using VMMC data for your estimates, you can market this task as complete. You can learn more about the data elements required in Guide 8 Data Quality, Indicator Elements Matrix. </t>
   </si>
   <si>
     <t>check_manual_confirmation('EST-GEN-05-01-A')</t>
@@ -634,7 +623,7 @@
     <t>Has user updated Shiny 90 HIV Testing data file?</t>
   </si>
   <si>
-    <t xml:space="preserve">Before you upload your Inputs Package to ADR, ensure you have updated the data files for the current reporting period.  **Update** your programme data files for HIV Testing in the Shiny 90 data file. UNAIDS recommends beginning with last year's final Inputs Package and only updating the files for the current reporting period.You can learn more about the data elements required in Guide 8 Data Quality, Indicator Elements Matrix. If you are not planning to use Shiny 90 to estimate your Knowledge of Status figures, mark this task complete in Navigator. </t>
+    <t xml:space="preserve">Before you upload your Inputs Package to ADR, ensure you have updated the data files for the current reporting period.  **Update** your programme data files for HIV Testing in the Shiny 90 data file. UNAIDS has placed last year's final Shiny 90 HIV Testing file in this year's Inputs Package for your convenience. UNAIDS recommends beginning with last year's final Inputs Package and only updating the files for the current reporting period.You can learn more about the data elements required in Guide 8 Data Quality, Indicator Elements Matrix. If you are not planning to use Shiny 90 to estimate your Knowledge of Status figures, mark this task complete in Navigator. </t>
   </si>
   <si>
     <t>AIDS Data Repository https://adr.unaids.org/
@@ -653,7 +642,7 @@
     <t>Has user reviewed their Shiny 90 survey data file?</t>
   </si>
   <si>
-    <t xml:space="preserve">UNAIDS has placed a *Shiny 90 survey* file in your Inputs Package in the AIDS Data Repository (ADR). Before we begin the estimates process, please review this file. If you are satisfied with the data in this file, mark this task complete. If you see problems with this file, contact UNAIDS or one of its partners to have it corrected. If you are not planning to use Shiny 90 to estimate your Knowledge of Status figures, mark this task complete in Navigator. </t>
+    <t xml:space="preserve">UNAIDS has placed a *Shiny 90 survey* file in your Inputs Package in the AIDS Data Repository (ADR). Before we begin the estimates process, please review this file. If you are satisfied with the data in this file, mark this task complete. If you see problems with this file, contact UNAIDS or one of its partners to have it corrected. If you are not planning to use Shiny 90 to estimate your Knowledge of Status figures, mark this task complete in Navigator and click "What's Next?". </t>
   </si>
   <si>
     <t>AIDS Data Repository https://adr.unaids.org/</t>
@@ -671,7 +660,7 @@
     <t>Has user reviewed their Naomi survey data file?</t>
   </si>
   <si>
-    <t xml:space="preserve">UNAIDS has placed a *Naomi survey* file in your Inputs Package in the AIDS Data Repository (ADR). Before we begin the estimates process, please review this file. If you are satisfied with the data in this file, mark this task complete.  If you see problems with this file, contact UNAIDS or one of its partners to have it corrected.If you are not planning to use Naomi to produce district-level HIV estimates, mark this task complete in Navigator. </t>
+    <t xml:space="preserve">UNAIDS has placed a *Naomi survey* file in your Inputs Package in the AIDS Data Repository (ADR). Before we begin the estimates process, please review this file. If you are satisfied with the data in this file, mark this task complete.  If you see problems with this file, contact UNAIDS or one of its partners to have it corrected.If you are not planning to use Naomi to produce district-level HIV estimates, mark this task complete in Navigator and click "What's Next?" below.  </t>
   </si>
   <si>
     <t>check_manual_confirmation('EST-GEN-08-01-A')</t>
@@ -686,7 +675,7 @@
     <t>Has user reviewed their area boundary data file?</t>
   </si>
   <si>
-    <t>UNAIDS has placed an *Area Boundary* data file in your Inputs Package in the AIDS Data Repository (ADR). Before we begin the estimates process, please review this file. If you are satisfied with the data in this file, mark this task complete.  If you see problems with this file, contact UNAIDS or one of its partners to have it corrected.</t>
+    <t>UNAIDS has placed an *Area Boundary* data file (aka "Geographic Data")  in your Inputs Package in the AIDS Data Repository (ADR). Before we begin the estimates process, please review this file. If you are satisfied with the data in this file, mark this task complete.  If you see problems with this file, contact UNAIDS or one of its partners to have it corrected.</t>
   </si>
   <si>
     <t>check_manual_confirmation('EST-GEN-09-01-A')</t>
@@ -707,33 +696,10 @@
     <t>check_manual_confirmation('EST-GEN-10-01-A')</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t>Upload Estimates Inputs Pack</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t xml:space="preserve">age Data Files </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color rgb="FF000000"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t>to ADR</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Once you have prepared your Inputs Package data file, you can upload the files to your organization/country on the AIDS Data Repository (ADR). There are many advantages to using ADR, including integration with key estimates models such as ShinyRob and Naomi. Before you begin this step, you should be sure you have updated all required programme data files for the current reporting period (e.g., ANC, ART, Shiny 90 HIV testing, and VMMC where relevant). You can also review your other data files (e.g., surveys, population, area boundary). You will need to have an ADR user account and be associated with an organization (country) with an editor role. </t>
+    <t>Upload and Review Data Files in Your Inputs Package on ADR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For your convenience, UNAIDS has placed last year's data files into this year's Inputs Package in your organization/country data sets ADR. Programme data files (e.g., ART, ANC, VMMC, Shiny 90 HIV Testing) will need to be updated with the current year's data. Other data files (e.g., area boundary, population, surveys) will only need to be reviewed and confirmed. Once you have updated your Inputs Package programme data files, you can upload the files to your organization/country on the AIDS Data Repository (ADR). There are many advantages to using ADR, including integration with key estimates models such as Naomi. Before you begin this step, you should be sure you have updated all required programme data files for the current reporting period (e.g., ANC, ART, Shiny 90 HIV testing, and VMMC where relevant). You can also review your other data files (e.g., surveys, population, area boundary). You will need to have an ADR user account and be associated with an organization (country) with an editor role. </t>
   </si>
   <si>
     <t xml:space="preserve"> Data input files are available
@@ -744,18 +710,19 @@
     <t>ADR-01-10</t>
   </si>
   <si>
-    <t>Check that the required data has been preloaded into your ADR dataset</t>
+    <t>Check that the required data has been preloaded into your ADR Inputs Package</t>
   </si>
   <si>
     <t xml:space="preserve">Does the user have geojson, survey data,  population data, shiny90 survey data, spectrum file in their dataset? </t>
   </si>
   <si>
     <t xml:space="preserve">Your estimates dataset in the ADR should already have the following data preloaded into it:
-- Spectrum file
-- Geograph data (subnational area boundaries)
-- Survey data
-- Population data
-If any of this data is missing or incorrect, please speak to a facilitator to help you compile this missing data and upload it to the ADR.  </t>
+- Spectrum file from the previous year
+- Geograph data file (subnational area boundaries)
+- Survey data file for Naomi
+- Survey data file for Shiny 90 (if relevant)
+- Population data file
+If any of these data are missing or incorrect, please speak to UNAIDS or a facilitator to help you compile these missing data and upload it to the ADR.  </t>
   </si>
   <si>
     <t>JB: This is an automatic check, so will only be shown to the user if they are missing expected data. It's just a proposal
@@ -774,11 +741,12 @@
     <t>Are the required inputs uploaded to the ADR?</t>
   </si>
   <si>
-    <t>UNAIDS strongly recommends the use of the AIDS Data Repository (ADR) to store your estimates data, both inputs and outputs. Using ADR provides a number of advantages and efficiencies for your estimates process, including a secure location to store your data files as well as automated validation function to ensure your data meet formatting and minimum data quality requirements before beginning the data. Access your organization on ADR and find this year's inputs package. Upload each of the required files for this year's estimates process in the required format.
-You should ensure you have uploaded new data for the following inputs:
+    <t>UNAIDS strongly recommends the use of the AIDS Data Repository (ADR) to store your estimates data, both inputs and outputs. Using ADR provides a number of advantages and efficiencies for your estimates process, including a secure location to store your data files as well as automated validation function to ensure your data meet formatting and minimum data quality requirements before beginning the data. Access your organization on ADR and find this year's inputs package. Upload each of the required files for this year's estimates process in the required format. For your convenience, UNAIDS has imported the final data files from last year. You only need to update the files with data from the current year. 
+You should ensure you have included data from the current year in the following data files:
 - Shiny90 HIV Testing Data
 - ART Data
 - ANC Data
+- VMMC Data (if relevent)
 **To upload a new input to the ADR:**
 - Open your estimates 2022 Inputs Package in the ADR
 - Drag and drop your data input file into the centre of the ADR web page.
@@ -831,7 +799,7 @@
   </si>
   <si>
     <t>Your ADR dataset should include a *Shiny 90 HIV Testing Data* resource. 
-UNAIDS strongly recommends the use of the AIDS Data Repository (ADR) to store your estimates data, both inputs and outputs. Using ADR provides a number of advantages and efficiencies for your estimates process, including a secure location to store your data files as well as automated validation function to ensure your data meet formatting and minimum data quality requirements before beginning the estimates process. Access your organization on ADR and find this year's Inputs Package. Upload the *updated Shiny 90 HIV testing data file* in the required format.
+UNAIDS strongly recommends the use of the AIDS Data Repository (ADR) to store your estimates data, both inputs and outputs. Using ADR provides a number of advantages and efficiencies for your estimates process, including a secure location to store your data files as well as automated validation function to ensure your data meet formatting and minimum data quality requirements before beginning the estimates process. Access your organization on ADR and find this year's Inputs Package. Upload the *updated Shiny 90 HIV testing data file* in the required format. UNAIDS has imported the final data files from last year. You only need to update the files with data from the current year. 
 **To upload your Shiny 90 HIV Testing data file to the ADR:**
 - Open your estimates 2022 Inputs Package in the ADR
 - Under *Missing Resources* find "Shiny 90 Testing Data" and click *Add Data*
@@ -975,7 +943,8 @@
     <t>Are all uploaded data files for Shiny 90, Naomi, and VMMC (if applicable) valid in ADR?</t>
   </si>
   <si>
-    <t>ADR provides a cursory data quality check on all files in the Inputs Package. Be sure to confirm the green "Valid" badge next to each file. If any files are missing the green "valid" badge, be sure to review the data issues identified by ADR and correct them. If any changes are made to the data in the estimates data files, ensure changes are cascaded to the source systems (e.g., DHIS2) as needed. Once data files are uploaded and valid in ADR, you may proceed to ShinyRob to conduct more thorough data quality reviews.</t>
+    <t xml:space="preserve">ADR provides a cursory data quality check on all files in the Inputs Package. Be sure to confirm the green "Valid" badge next to each file. If any files are missing the green "valid" badge, be sure to review the data issues identified by ADR and correct them. If any changes are made to the data in the estimates data files, ensure changes are cascaded to the source systems (e.g., DHIS2) as needed. Once data files are uploaded and valid in ADR, you may proceed to ShinyRob to conduct more thorough data quality reviews.
+To resolve a red validation badge next to a resource in your Inputs Package, click on the "Error Report" link just under the badge.  The error report will list the problems it has found with your data.  You should address these problems one by one in the order they are presented to you, since resolving the first problem may in turn resolve later problems. </t>
   </si>
   <si>
     <r>
@@ -1000,7 +969,7 @@
     <t>check_dataset_valid()</t>
   </si>
   <si>
-    <t>Review quality of programme data inputs using the *Review Inputs* function in Naomi</t>
+    <t>Review quality of programme data inputs using the Review Inputs function in Naomi</t>
   </si>
   <si>
     <r>
@@ -1009,7 +978,7 @@
         <color rgb="FF000000"/>
         <sz val="8.0"/>
       </rPr>
-      <t xml:space="preserve">The quality of data inputs is one of the most influential determinants of your HIV estimates.  The Data Review function in Naomi was developed to assist countries to identify and resolve data quality issues within programme data inputs </t>
+      <t xml:space="preserve">The quality of data inputs is one of the most influential determinants of your HIV estimates.  The Review Inputs function in Naomi was developed to assist countries to identify and resolve data quality issues within programme data inputs </t>
     </r>
     <r>
       <rPr>
@@ -1026,7 +995,7 @@
         <color rgb="FF000000"/>
         <sz val="8.0"/>
       </rPr>
-      <t xml:space="preserve"> they are used by estimates models. UNAIDS strongly recommends country teams review and validate their programme data inputs using ShinyRob prior to beginning work in the models.</t>
+      <t xml:space="preserve"> they are used by estimates models. UNAIDS strongly recommends country teams review and validate their programme data inputs using the Review Inputs function in Naomi prior to beginning work in the models.</t>
     </r>
   </si>
   <si>
@@ -1056,7 +1025,7 @@
     <t>Does the user already have a Naomi account?</t>
   </si>
   <si>
-    <t xml:space="preserve">In order to use the Naomi Inputs Review Function, UNAIDS recommends you create a Naomi user account. A Naomi user account has multiple advantages, including integration with ADR and direct access to your Inputs Package, project saving, and sharing of draft and final project results. If you do not already have an account, you may request one by completing the brief Naomi user account request form. Responses should be immediate, especially during the time of estimates workshops. If you prefer, you may use Naomi as a guest, but it is not recommended. </t>
+    <t xml:space="preserve">Congratulations, you've completed the previous estimates milestone. Now you're ready to review the quality of your data in Naomi (formerly ShinyRob). In order to use the Naomi Inputs Review Function, UNAIDS recommends you create a Naomi user account. A Naomi user account has multiple advantages, including integration with ADR and direct access to your Inputs Package, project saving, and sharing of draft and final project results. If you do not already have an account, you may request one by completing the brief Naomi user account request form. Responses should be immediate, especially during the time of estimates workshops. If you prefer, you may use Naomi as a guest, but it is not recommended. </t>
   </si>
   <si>
     <t>Naomi user account request form https://forms.office.com/r/7S9EMigGr4</t>
@@ -1104,7 +1073,8 @@
     <t>Has user selected geographic data package, ART data package, and ANC data package?</t>
   </si>
   <si>
-    <t>In order to utilize the powerful data quality analyses provided by Naomi's Inputs Review function, you must select the relevant Inputs Package for this year, including geographic data package (named area boundary file in ADR), ART data package, and ANC data package.</t>
+    <t>In order to utilize the powerful data quality analyses provided by Naomi's Inputs Review function, you must select the relevant Inputs Package for this year, including geographic data package (named area boundary file in ADR), ART data package, and ANC data package. Although not recommended by UNAIDS, you may also upload the files individually to Naomi. 
+**You may use last year's Spectrum file for the data review process. The Spectrum file is only required to create a new project and will not be used in this process.**</t>
   </si>
   <si>
     <t>check_manual_confirmation('EST-ROB-05-01-A')</t>
@@ -1120,7 +1090,8 @@
   </si>
   <si>
     <t>The Naomi Inputs Review function provides a number of powerful visualizations to help country teams identify data quality problems. UNAIDS recommends country teams view each of the plot options available for ART and ANC. Selecting these different options will present you with each district's data trends for the years included in your data file. Potential data anomolies will be highlighted by red lines. 
-It's important to document any anomolies with your team to investigate further. Engage your district counterparts to investigate and resolve anomolies. Remember, data quality issues can have a major impact on your estimates. **Your estimates outputs are only as good as the quality of your Inputs Package. UNAIDS strongly recommends correcting any erroneous data in the source system and inputs templates prior to proceeding with your estimates process.** Once your data files have been corrected, you may upload them to ADR in lieu of the previous versions with errors. Once you are fully satisfied with the quality of all data files, you may proceed with the estimates process, starting with Milestone 4 - Enter Data into Spectrum.</t>
+It's important to document any anomolies with your team to investigate further. Engage your district counterparts to investigate and resolve anomolies. Remember, data quality issues can have a major impact on your estimates. **Your estimates outputs are only as good as the quality of your Inputs Package. UNAIDS strongly recommends correcting any erroneous data in the source system and inputs templates prior to proceeding with your estimates process.** Once your data files have been corrected, you may upload them to ADR in lieu of the previous versions with errors. Once you are fully satisfied with the quality of all data files, you may proceed with the estimates process, starting with Milestone 4 - Enter Data into Spectrum.
+**NOTE YOU SHOULD ONLY BE USING THE INPUTS REVIEW FUNCTION AT THIS POINT. DO NOT PROCEED WITH THE OTHER FUNCTIONS OF NAOMI. YOU WILL COMPLETE THE SPECTRUM MILESTONE BEFORE RETURNING TO NAOMI. ONCE YOU HAVE COMPLETED YOUR DATA QUALITY REVIEW AND CORRECTIONS, YOU MAY LEAVE NAOMI AND RETURN TO NAVIGATOR TO PROCEED TO THE SPECTRUM MILESTONE.***</t>
   </si>
   <si>
     <t>check_manual_confirmation('EST-ROB-06-01-A')</t>
@@ -1153,15 +1124,16 @@
         <color theme="1"/>
         <sz val="8.0"/>
       </rPr>
-      <t xml:space="preserve">Spectrum has two versions available for countries - i) Spectrum AIM client software available for download and installation on a team member's computer or ii) Spectrum Web, a browser and cloud version of the software. </t>
+      <t>Congratulations for completing the first three estimates milestones. Now it's time to begin the first Spectrum milestone. 
+Spectrum has two versions available for countries - i) Spectrum AIM client software available for download and installation on a team member's computer or ii) Spectrum Web, a browser and cloud version of the software. *</t>
     </r>
     <r>
       <rPr>
         <rFont val="Calibri"/>
-        <color theme="5"/>
+        <color rgb="FFEA4335"/>
         <sz val="8.0"/>
       </rPr>
-      <t>If you are planning to use the client software, you may proceed to the next task</t>
+      <t>If you are planning to use the client software, you may proceed to the next task by marking this task complete and clicking "What's Next?"</t>
     </r>
     <r>
       <rPr>
@@ -1169,15 +1141,7 @@
         <color theme="1"/>
         <sz val="8.0"/>
       </rPr>
-      <t xml:space="preserve">. To use Spectrum Web, you must first create user account. If you do not have an existing user account, you can create one on Spectrum Web. </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t xml:space="preserve">Once you have selected, you may mark this task complete in Navigator. </t>
+      <t xml:space="preserve">.* To use Spectrum Web, you must first create user account. If you do not have an existing user account, you can create one on Spectrum Web. Once you have selected, you may mark this task complete in Navigator. </t>
     </r>
   </si>
   <si>
@@ -1242,22 +1206,7 @@
     <t>Does user have a Spectrum file for this year's estimates?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t xml:space="preserve">After you've logged in (or opened your Spectrum AIM program on your computer), you must upload your existing Spectrum projection file. If your country will only use one </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t xml:space="preserve">Spectrum file for the national level, you only need to do this once. If you will use separate Spectrum files for different geographic areas (optional), you will update a Spectrum file for each area. </t>
-    </r>
+    <t xml:space="preserve">After you've logged in (or opened your Spectrum AIM program on your computer), you must upload your existing Spectrum projection file (e.g., from last year). You can find last year's Spectrum file in your organization's Inputs Package for this year as UNAIDS has placed all prior year Spectrum files in their respective Inputs Package for your convenience. If your country will only use one Spectrum file for the national level, you only need to do this once. If you will use separate Spectrum files for different geographic areas (optional), you will update a Spectrum file for each area. </t>
   </si>
   <si>
     <t>check_manual_confirmation('EST-SPE-03-01-A')</t>
@@ -1272,22 +1221,7 @@
     <t>Do Spectrum file population estimates match official estimates in your Spectrum file?</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t>By default Spectrum uses the UN World Population Projection population estimates. You can either use these default data or use official country population census data. You can select and edit population data in the Projection Manager by selecting the "Default Da</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <color theme="1"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t>ta" option. For countries with sub-national Spectrum estimates (optional), this step applies to each file.</t>
-    </r>
+    <t xml:space="preserve">By default Spectrum uses the UN World Population Projection population estimates. You can either use these default data or use official country population census data. Select the AIM button and then the Manager button. You can select and edit population data in the Projection Manager by scrolling towards the bottom and selecting the "Default Data" option. For countries with sub-national Spectrum estimates (optional), this step applies to each file.Once you have downloaded the data, click the OK button to return to AIM. </t>
   </si>
   <si>
     <t>JS: The user has to do this. There is not way for Spectrum to know.</t>
@@ -1308,7 +1242,7 @@
     <t>Does the user's Spectrum file have current estimates year data for PMTCT [required / optional data elements available in Indicator Element Matrix]?</t>
   </si>
   <si>
-    <t>Spectrum requires up-to-date PMTCT programme data for the reporting period. These data are required for each Spectrum file. You can find all required data elements in the Guide 8, Data quality, Indicator Element Matrix. It is highly recommended you finalize your programme data before beginning the Spectrum process. If edits to PMTCT programme data are required later in the process, you will have to return to this step. For countries with sub-national Spectrum estimates (optional), this step applies to each file.</t>
+    <t>Spectrum requires up-to-date PMTCT programme data for the reporting period. These data are required for each Spectrum file. You can find all required data elements in the Guide 8, Data quality, Indicator Element Matrix. *It is highly recommended you finalize your programme data before beginning the Spectrum process.* If edits to PMTCT programme data are required later in the process, you will have to return to this step. For countries with sub-national Spectrum estimates (optional), this step applies to each file.</t>
   </si>
   <si>
     <r>
@@ -1915,7 +1849,7 @@
     <t>S90-11-01</t>
   </si>
   <si>
-    <t>Confirm PMTCT, ANC, pediatric ART, adult ART programme data inputs **have not changed**</t>
+    <t>Confirm PMTCT, ANC, pediatric ART, adult ART programme data inputs have not changed</t>
   </si>
   <si>
     <r>
@@ -2541,7 +2475,7 @@
     <t>NAO-11-01</t>
   </si>
   <si>
-    <t>Confirm **no** data files in your Inputs Package on ADR required for district estimates have changed since you began Naomi</t>
+    <t>Confirm no data files in your Inputs Package on ADR required for district estimates have changed since you began Naomi</t>
   </si>
   <si>
     <t>No updates have been made to any Naomi data files or underlying data to be used by Naomi before using those files in models which project subnational est?</t>
@@ -2608,7 +2542,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -2689,6 +2623,10 @@
       <sz val="11.0"/>
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <u/>
@@ -2907,7 +2845,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="117">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2941,6 +2879,9 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2955,7 +2896,7 @@
     <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -2970,9 +2911,12 @@
     <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
@@ -3000,6 +2944,9 @@
     <xf borderId="6" fillId="0" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="5" fillId="0" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -3013,6 +2960,9 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -3024,12 +2974,12 @@
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3048,13 +2998,13 @@
     <xf borderId="5" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3063,7 +3013,7 @@
     <xf borderId="5" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -3087,12 +3037,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="6" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="6" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -3100,19 +3050,22 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="6" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="6" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -3147,11 +3100,11 @@
     <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -3160,16 +3113,16 @@
     <xf borderId="10" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="7" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="8" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -3587,18 +3540,18 @@
       <c r="C5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>21</v>
       </c>
       <c r="E5" s="15"/>
-      <c r="F5" s="16">
+      <c r="F5" s="17">
         <v>1.0</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -3624,18 +3577,18 @@
       <c r="C6" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="16">
+      <c r="E6" s="20"/>
+      <c r="F6" s="17">
         <v>1.0</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
@@ -3661,14 +3614,14 @@
       <c r="C7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="16">
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="17">
         <v>1.0</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -3694,14 +3647,14 @@
       <c r="C8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="16">
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="17">
         <v>1.0</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -3721,20 +3674,20 @@
       <c r="A9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="16">
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="17">
         <v>0.0</v>
       </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -3760,14 +3713,14 @@
       <c r="C10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="16">
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="17">
         <v>1.0</v>
       </c>
-      <c r="G10" s="21"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -3793,14 +3746,14 @@
       <c r="C11" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="16">
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="17">
         <v>1.0</v>
       </c>
-      <c r="G11" s="21"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -3823,16 +3776,16 @@
       <c r="B12" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="16">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="17">
         <v>1.0</v>
       </c>
-      <c r="G12" s="21"/>
-      <c r="H12" s="24"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="25"/>
       <c r="I12" s="7"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -3859,13 +3812,13 @@
       <c r="C13" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="16">
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="17">
         <v>1.0</v>
       </c>
-      <c r="G13" s="21"/>
-      <c r="H13" s="25"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="26"/>
       <c r="I13" s="7"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -3892,9 +3845,9 @@
       <c r="C14" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="16">
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="17">
         <v>1.0</v>
       </c>
       <c r="G14" s="15"/>
@@ -3924,8 +3877,8 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="26"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -3950,8 +3903,8 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -3976,8 +3929,8 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="26"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -4002,8 +3955,8 @@
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="26"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -4028,8 +3981,8 @@
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="27"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -4054,8 +4007,8 @@
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="26"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
@@ -4080,8 +4033,8 @@
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="26"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
@@ -4106,8 +4059,8 @@
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
@@ -4132,8 +4085,8 @@
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="26"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
@@ -4158,8 +4111,8 @@
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="26"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
@@ -4184,8 +4137,8 @@
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
       <c r="H25" s="6"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="26"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
@@ -4210,8 +4163,8 @@
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="26"/>
+      <c r="I26" s="27"/>
+      <c r="J26" s="27"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
@@ -4236,8 +4189,8 @@
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="26"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
@@ -4262,8 +4215,8 @@
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
-      <c r="I28" s="26"/>
-      <c r="J28" s="26"/>
+      <c r="I28" s="27"/>
+      <c r="J28" s="27"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
@@ -4288,8 +4241,8 @@
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="26"/>
+      <c r="I29" s="27"/>
+      <c r="J29" s="27"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
@@ -4314,8 +4267,8 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="26"/>
-      <c r="J30" s="26"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
@@ -4340,8 +4293,8 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
@@ -4366,8 +4319,8 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
       <c r="H32" s="6"/>
-      <c r="I32" s="26"/>
-      <c r="J32" s="26"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
@@ -4392,8 +4345,8 @@
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
-      <c r="I33" s="26"/>
-      <c r="J33" s="26"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
@@ -4418,8 +4371,8 @@
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="26"/>
+      <c r="I34" s="27"/>
+      <c r="J34" s="27"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
@@ -4444,8 +4397,8 @@
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
-      <c r="I35" s="26"/>
-      <c r="J35" s="26"/>
+      <c r="I35" s="27"/>
+      <c r="J35" s="27"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
@@ -4470,8 +4423,8 @@
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="26"/>
+      <c r="I36" s="27"/>
+      <c r="J36" s="27"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
@@ -4496,8 +4449,8 @@
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
-      <c r="I37" s="26"/>
-      <c r="J37" s="26"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
@@ -4522,8 +4475,8 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
-      <c r="I38" s="26"/>
-      <c r="J38" s="26"/>
+      <c r="I38" s="27"/>
+      <c r="J38" s="27"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
@@ -4548,8 +4501,8 @@
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
-      <c r="I39" s="26"/>
-      <c r="J39" s="26"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="27"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
@@ -4574,8 +4527,8 @@
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
-      <c r="I40" s="26"/>
-      <c r="J40" s="26"/>
+      <c r="I40" s="27"/>
+      <c r="J40" s="27"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
@@ -4600,8 +4553,8 @@
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
+      <c r="I41" s="27"/>
+      <c r="J41" s="27"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
@@ -4626,8 +4579,8 @@
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="26"/>
+      <c r="I42" s="27"/>
+      <c r="J42" s="27"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
@@ -4652,8 +4605,8 @@
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="26"/>
+      <c r="I43" s="27"/>
+      <c r="J43" s="27"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
@@ -4678,8 +4631,8 @@
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
+      <c r="I44" s="27"/>
+      <c r="J44" s="27"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
@@ -4704,8 +4657,8 @@
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
@@ -4730,8 +4683,8 @@
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="26"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
@@ -4756,8 +4709,8 @@
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
+      <c r="I47" s="27"/>
+      <c r="J47" s="27"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
@@ -4782,8 +4735,8 @@
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
+      <c r="I48" s="27"/>
+      <c r="J48" s="27"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
@@ -4808,8 +4761,8 @@
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
@@ -4834,8 +4787,8 @@
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
@@ -4860,8 +4813,8 @@
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
@@ -4886,8 +4839,8 @@
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
+      <c r="I52" s="27"/>
+      <c r="J52" s="27"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
@@ -4912,8 +4865,8 @@
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
@@ -4938,8 +4891,8 @@
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
-      <c r="I54" s="26"/>
-      <c r="J54" s="26"/>
+      <c r="I54" s="27"/>
+      <c r="J54" s="27"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
@@ -4964,8 +4917,8 @@
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
-      <c r="I55" s="26"/>
-      <c r="J55" s="26"/>
+      <c r="I55" s="27"/>
+      <c r="J55" s="27"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
@@ -4990,8 +4943,8 @@
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
-      <c r="I56" s="26"/>
-      <c r="J56" s="26"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="27"/>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
@@ -5016,8 +4969,8 @@
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
+      <c r="I57" s="27"/>
+      <c r="J57" s="27"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
@@ -5042,8 +4995,8 @@
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
-      <c r="I58" s="26"/>
-      <c r="J58" s="26"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
@@ -5068,8 +5021,8 @@
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
-      <c r="I59" s="26"/>
-      <c r="J59" s="26"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
@@ -5094,8 +5047,8 @@
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
@@ -5120,8 +5073,8 @@
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="27"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
@@ -5146,8 +5099,8 @@
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="26"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="27"/>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
@@ -5172,8 +5125,8 @@
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
-      <c r="I63" s="26"/>
-      <c r="J63" s="26"/>
+      <c r="I63" s="27"/>
+      <c r="J63" s="27"/>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
@@ -5198,8 +5151,8 @@
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
-      <c r="I64" s="26"/>
-      <c r="J64" s="26"/>
+      <c r="I64" s="27"/>
+      <c r="J64" s="27"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
@@ -5224,8 +5177,8 @@
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
-      <c r="I65" s="26"/>
-      <c r="J65" s="26"/>
+      <c r="I65" s="27"/>
+      <c r="J65" s="27"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
@@ -5250,8 +5203,8 @@
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
-      <c r="I66" s="26"/>
-      <c r="J66" s="26"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="27"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
@@ -5276,8 +5229,8 @@
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
-      <c r="I67" s="26"/>
-      <c r="J67" s="26"/>
+      <c r="I67" s="27"/>
+      <c r="J67" s="27"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
@@ -5302,8 +5255,8 @@
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
-      <c r="I68" s="26"/>
-      <c r="J68" s="26"/>
+      <c r="I68" s="27"/>
+      <c r="J68" s="27"/>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
@@ -5328,8 +5281,8 @@
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
-      <c r="I69" s="26"/>
-      <c r="J69" s="26"/>
+      <c r="I69" s="27"/>
+      <c r="J69" s="27"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
@@ -5354,8 +5307,8 @@
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
-      <c r="I70" s="26"/>
-      <c r="J70" s="26"/>
+      <c r="I70" s="27"/>
+      <c r="J70" s="27"/>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
@@ -5380,8 +5333,8 @@
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
-      <c r="I71" s="26"/>
-      <c r="J71" s="26"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
@@ -5406,8 +5359,8 @@
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
-      <c r="I72" s="26"/>
-      <c r="J72" s="26"/>
+      <c r="I72" s="27"/>
+      <c r="J72" s="27"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
@@ -5432,8 +5385,8 @@
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
-      <c r="I73" s="26"/>
-      <c r="J73" s="26"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
@@ -5458,8 +5411,8 @@
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
-      <c r="I74" s="26"/>
-      <c r="J74" s="26"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
@@ -5484,8 +5437,8 @@
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
-      <c r="I75" s="26"/>
-      <c r="J75" s="26"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
@@ -5510,8 +5463,8 @@
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="26"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
@@ -5536,8 +5489,8 @@
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
-      <c r="I77" s="26"/>
-      <c r="J77" s="26"/>
+      <c r="I77" s="27"/>
+      <c r="J77" s="27"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
@@ -5562,8 +5515,8 @@
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="26"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="27"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
@@ -5588,8 +5541,8 @@
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
-      <c r="I79" s="26"/>
-      <c r="J79" s="26"/>
+      <c r="I79" s="27"/>
+      <c r="J79" s="27"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
@@ -5614,8 +5567,8 @@
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
-      <c r="I80" s="26"/>
-      <c r="J80" s="26"/>
+      <c r="I80" s="27"/>
+      <c r="J80" s="27"/>
       <c r="K80" s="6"/>
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
@@ -5640,8 +5593,8 @@
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
-      <c r="I81" s="26"/>
-      <c r="J81" s="26"/>
+      <c r="I81" s="27"/>
+      <c r="J81" s="27"/>
       <c r="K81" s="6"/>
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
@@ -5666,8 +5619,8 @@
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
-      <c r="I82" s="26"/>
-      <c r="J82" s="26"/>
+      <c r="I82" s="27"/>
+      <c r="J82" s="27"/>
       <c r="K82" s="6"/>
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
@@ -5692,8 +5645,8 @@
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
-      <c r="I83" s="26"/>
-      <c r="J83" s="26"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="27"/>
       <c r="K83" s="6"/>
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
@@ -5718,8 +5671,8 @@
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
-      <c r="I84" s="26"/>
-      <c r="J84" s="26"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="27"/>
       <c r="K84" s="6"/>
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
@@ -5744,8 +5697,8 @@
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
-      <c r="I85" s="26"/>
-      <c r="J85" s="26"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="27"/>
       <c r="K85" s="6"/>
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
@@ -5770,8 +5723,8 @@
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
-      <c r="I86" s="26"/>
-      <c r="J86" s="26"/>
+      <c r="I86" s="27"/>
+      <c r="J86" s="27"/>
       <c r="K86" s="6"/>
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
@@ -5796,8 +5749,8 @@
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
-      <c r="I87" s="26"/>
-      <c r="J87" s="26"/>
+      <c r="I87" s="27"/>
+      <c r="J87" s="27"/>
       <c r="K87" s="6"/>
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
@@ -5822,8 +5775,8 @@
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
-      <c r="I88" s="26"/>
-      <c r="J88" s="26"/>
+      <c r="I88" s="27"/>
+      <c r="J88" s="27"/>
       <c r="K88" s="6"/>
       <c r="L88" s="6"/>
       <c r="M88" s="6"/>
@@ -5848,8 +5801,8 @@
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
-      <c r="I89" s="26"/>
-      <c r="J89" s="26"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="27"/>
       <c r="K89" s="6"/>
       <c r="L89" s="6"/>
       <c r="M89" s="6"/>
@@ -5874,8 +5827,8 @@
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
-      <c r="I90" s="26"/>
-      <c r="J90" s="26"/>
+      <c r="I90" s="27"/>
+      <c r="J90" s="27"/>
       <c r="K90" s="6"/>
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
@@ -5900,8 +5853,8 @@
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
-      <c r="I91" s="26"/>
-      <c r="J91" s="26"/>
+      <c r="I91" s="27"/>
+      <c r="J91" s="27"/>
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
       <c r="M91" s="6"/>
@@ -5926,8 +5879,8 @@
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
-      <c r="I92" s="26"/>
-      <c r="J92" s="26"/>
+      <c r="I92" s="27"/>
+      <c r="J92" s="27"/>
       <c r="K92" s="6"/>
       <c r="L92" s="6"/>
       <c r="M92" s="6"/>
@@ -5952,8 +5905,8 @@
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
-      <c r="I93" s="26"/>
-      <c r="J93" s="26"/>
+      <c r="I93" s="27"/>
+      <c r="J93" s="27"/>
       <c r="K93" s="6"/>
       <c r="L93" s="6"/>
       <c r="M93" s="6"/>
@@ -5978,8 +5931,8 @@
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
-      <c r="I94" s="26"/>
-      <c r="J94" s="26"/>
+      <c r="I94" s="27"/>
+      <c r="J94" s="27"/>
       <c r="K94" s="6"/>
       <c r="L94" s="6"/>
       <c r="M94" s="6"/>
@@ -6004,8 +5957,8 @@
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
-      <c r="I95" s="26"/>
-      <c r="J95" s="26"/>
+      <c r="I95" s="27"/>
+      <c r="J95" s="27"/>
       <c r="K95" s="6"/>
       <c r="L95" s="6"/>
       <c r="M95" s="6"/>
@@ -6030,8 +5983,8 @@
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
-      <c r="I96" s="26"/>
-      <c r="J96" s="26"/>
+      <c r="I96" s="27"/>
+      <c r="J96" s="27"/>
       <c r="K96" s="6"/>
       <c r="L96" s="6"/>
       <c r="M96" s="6"/>
@@ -6056,8 +6009,8 @@
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
-      <c r="I97" s="26"/>
-      <c r="J97" s="26"/>
+      <c r="I97" s="27"/>
+      <c r="J97" s="27"/>
       <c r="K97" s="6"/>
       <c r="L97" s="6"/>
       <c r="M97" s="6"/>
@@ -6082,8 +6035,8 @@
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
-      <c r="I98" s="26"/>
-      <c r="J98" s="26"/>
+      <c r="I98" s="27"/>
+      <c r="J98" s="27"/>
       <c r="K98" s="6"/>
       <c r="L98" s="6"/>
       <c r="M98" s="6"/>
@@ -6108,8 +6061,8 @@
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
-      <c r="I99" s="26"/>
-      <c r="J99" s="26"/>
+      <c r="I99" s="27"/>
+      <c r="J99" s="27"/>
       <c r="K99" s="6"/>
       <c r="L99" s="6"/>
       <c r="M99" s="6"/>
@@ -6134,8 +6087,8 @@
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
-      <c r="I100" s="26"/>
-      <c r="J100" s="26"/>
+      <c r="I100" s="27"/>
+      <c r="J100" s="27"/>
       <c r="K100" s="6"/>
       <c r="L100" s="6"/>
       <c r="M100" s="6"/>
@@ -6160,8 +6113,8 @@
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
-      <c r="I101" s="26"/>
-      <c r="J101" s="26"/>
+      <c r="I101" s="27"/>
+      <c r="J101" s="27"/>
       <c r="K101" s="6"/>
       <c r="L101" s="6"/>
       <c r="M101" s="6"/>
@@ -6186,8 +6139,8 @@
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
-      <c r="I102" s="26"/>
-      <c r="J102" s="26"/>
+      <c r="I102" s="27"/>
+      <c r="J102" s="27"/>
       <c r="K102" s="6"/>
       <c r="L102" s="6"/>
       <c r="M102" s="6"/>
@@ -6212,8 +6165,8 @@
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
-      <c r="I103" s="26"/>
-      <c r="J103" s="26"/>
+      <c r="I103" s="27"/>
+      <c r="J103" s="27"/>
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
       <c r="M103" s="6"/>
@@ -6238,8 +6191,8 @@
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
-      <c r="I104" s="26"/>
-      <c r="J104" s="26"/>
+      <c r="I104" s="27"/>
+      <c r="J104" s="27"/>
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
       <c r="M104" s="6"/>
@@ -6264,8 +6217,8 @@
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
-      <c r="I105" s="26"/>
-      <c r="J105" s="26"/>
+      <c r="I105" s="27"/>
+      <c r="J105" s="27"/>
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
       <c r="M105" s="6"/>
@@ -6290,8 +6243,8 @@
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
-      <c r="I106" s="26"/>
-      <c r="J106" s="26"/>
+      <c r="I106" s="27"/>
+      <c r="J106" s="27"/>
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
       <c r="M106" s="6"/>
@@ -6316,8 +6269,8 @@
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
-      <c r="I107" s="26"/>
-      <c r="J107" s="26"/>
+      <c r="I107" s="27"/>
+      <c r="J107" s="27"/>
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
       <c r="M107" s="6"/>
@@ -6342,8 +6295,8 @@
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
-      <c r="I108" s="26"/>
-      <c r="J108" s="26"/>
+      <c r="I108" s="27"/>
+      <c r="J108" s="27"/>
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
       <c r="M108" s="6"/>
@@ -6368,8 +6321,8 @@
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
-      <c r="I109" s="26"/>
-      <c r="J109" s="26"/>
+      <c r="I109" s="27"/>
+      <c r="J109" s="27"/>
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
       <c r="M109" s="6"/>
@@ -6394,8 +6347,8 @@
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
-      <c r="I110" s="26"/>
-      <c r="J110" s="26"/>
+      <c r="I110" s="27"/>
+      <c r="J110" s="27"/>
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
       <c r="M110" s="6"/>
@@ -6420,8 +6373,8 @@
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
-      <c r="I111" s="26"/>
-      <c r="J111" s="26"/>
+      <c r="I111" s="27"/>
+      <c r="J111" s="27"/>
       <c r="K111" s="6"/>
       <c r="L111" s="6"/>
       <c r="M111" s="6"/>
@@ -6446,8 +6399,8 @@
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
-      <c r="I112" s="26"/>
-      <c r="J112" s="26"/>
+      <c r="I112" s="27"/>
+      <c r="J112" s="27"/>
       <c r="K112" s="6"/>
       <c r="L112" s="6"/>
       <c r="M112" s="6"/>
@@ -6472,8 +6425,8 @@
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
-      <c r="I113" s="26"/>
-      <c r="J113" s="26"/>
+      <c r="I113" s="27"/>
+      <c r="J113" s="27"/>
       <c r="K113" s="6"/>
       <c r="L113" s="6"/>
       <c r="M113" s="6"/>
@@ -6498,8 +6451,8 @@
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
-      <c r="I114" s="26"/>
-      <c r="J114" s="26"/>
+      <c r="I114" s="27"/>
+      <c r="J114" s="27"/>
       <c r="K114" s="6"/>
       <c r="L114" s="6"/>
       <c r="M114" s="6"/>
@@ -6524,8 +6477,8 @@
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
-      <c r="I115" s="26"/>
-      <c r="J115" s="26"/>
+      <c r="I115" s="27"/>
+      <c r="J115" s="27"/>
       <c r="K115" s="6"/>
       <c r="L115" s="6"/>
       <c r="M115" s="6"/>
@@ -6550,8 +6503,8 @@
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
-      <c r="I116" s="26"/>
-      <c r="J116" s="26"/>
+      <c r="I116" s="27"/>
+      <c r="J116" s="27"/>
       <c r="K116" s="6"/>
       <c r="L116" s="6"/>
       <c r="M116" s="6"/>
@@ -6576,8 +6529,8 @@
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
-      <c r="I117" s="26"/>
-      <c r="J117" s="26"/>
+      <c r="I117" s="27"/>
+      <c r="J117" s="27"/>
       <c r="K117" s="6"/>
       <c r="L117" s="6"/>
       <c r="M117" s="6"/>
@@ -6602,8 +6555,8 @@
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
-      <c r="I118" s="26"/>
-      <c r="J118" s="26"/>
+      <c r="I118" s="27"/>
+      <c r="J118" s="27"/>
       <c r="K118" s="6"/>
       <c r="L118" s="6"/>
       <c r="M118" s="6"/>
@@ -6628,8 +6581,8 @@
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
-      <c r="I119" s="26"/>
-      <c r="J119" s="26"/>
+      <c r="I119" s="27"/>
+      <c r="J119" s="27"/>
       <c r="K119" s="6"/>
       <c r="L119" s="6"/>
       <c r="M119" s="6"/>
@@ -6654,8 +6607,8 @@
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
-      <c r="I120" s="26"/>
-      <c r="J120" s="26"/>
+      <c r="I120" s="27"/>
+      <c r="J120" s="27"/>
       <c r="K120" s="6"/>
       <c r="L120" s="6"/>
       <c r="M120" s="6"/>
@@ -6680,8 +6633,8 @@
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
-      <c r="I121" s="26"/>
-      <c r="J121" s="26"/>
+      <c r="I121" s="27"/>
+      <c r="J121" s="27"/>
       <c r="K121" s="6"/>
       <c r="L121" s="6"/>
       <c r="M121" s="6"/>
@@ -6706,8 +6659,8 @@
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
-      <c r="I122" s="26"/>
-      <c r="J122" s="26"/>
+      <c r="I122" s="27"/>
+      <c r="J122" s="27"/>
       <c r="K122" s="6"/>
       <c r="L122" s="6"/>
       <c r="M122" s="6"/>
@@ -6732,8 +6685,8 @@
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
-      <c r="I123" s="26"/>
-      <c r="J123" s="26"/>
+      <c r="I123" s="27"/>
+      <c r="J123" s="27"/>
       <c r="K123" s="6"/>
       <c r="L123" s="6"/>
       <c r="M123" s="6"/>
@@ -6758,8 +6711,8 @@
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
-      <c r="I124" s="26"/>
-      <c r="J124" s="26"/>
+      <c r="I124" s="27"/>
+      <c r="J124" s="27"/>
       <c r="K124" s="6"/>
       <c r="L124" s="6"/>
       <c r="M124" s="6"/>
@@ -6784,8 +6737,8 @@
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
-      <c r="I125" s="26"/>
-      <c r="J125" s="26"/>
+      <c r="I125" s="27"/>
+      <c r="J125" s="27"/>
       <c r="K125" s="6"/>
       <c r="L125" s="6"/>
       <c r="M125" s="6"/>
@@ -6810,8 +6763,8 @@
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
-      <c r="I126" s="26"/>
-      <c r="J126" s="26"/>
+      <c r="I126" s="27"/>
+      <c r="J126" s="27"/>
       <c r="K126" s="6"/>
       <c r="L126" s="6"/>
       <c r="M126" s="6"/>
@@ -6836,8 +6789,8 @@
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
-      <c r="I127" s="26"/>
-      <c r="J127" s="26"/>
+      <c r="I127" s="27"/>
+      <c r="J127" s="27"/>
       <c r="K127" s="6"/>
       <c r="L127" s="6"/>
       <c r="M127" s="6"/>
@@ -6862,8 +6815,8 @@
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
-      <c r="I128" s="26"/>
-      <c r="J128" s="26"/>
+      <c r="I128" s="27"/>
+      <c r="J128" s="27"/>
       <c r="K128" s="6"/>
       <c r="L128" s="6"/>
       <c r="M128" s="6"/>
@@ -6888,8 +6841,8 @@
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
-      <c r="I129" s="26"/>
-      <c r="J129" s="26"/>
+      <c r="I129" s="27"/>
+      <c r="J129" s="27"/>
       <c r="K129" s="6"/>
       <c r="L129" s="6"/>
       <c r="M129" s="6"/>
@@ -6914,8 +6867,8 @@
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
-      <c r="I130" s="26"/>
-      <c r="J130" s="26"/>
+      <c r="I130" s="27"/>
+      <c r="J130" s="27"/>
       <c r="K130" s="6"/>
       <c r="L130" s="6"/>
       <c r="M130" s="6"/>
@@ -6940,8 +6893,8 @@
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
-      <c r="I131" s="26"/>
-      <c r="J131" s="26"/>
+      <c r="I131" s="27"/>
+      <c r="J131" s="27"/>
       <c r="K131" s="6"/>
       <c r="L131" s="6"/>
       <c r="M131" s="6"/>
@@ -6966,8 +6919,8 @@
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
-      <c r="I132" s="26"/>
-      <c r="J132" s="26"/>
+      <c r="I132" s="27"/>
+      <c r="J132" s="27"/>
       <c r="K132" s="6"/>
       <c r="L132" s="6"/>
       <c r="M132" s="6"/>
@@ -6992,8 +6945,8 @@
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
-      <c r="I133" s="26"/>
-      <c r="J133" s="26"/>
+      <c r="I133" s="27"/>
+      <c r="J133" s="27"/>
       <c r="K133" s="6"/>
       <c r="L133" s="6"/>
       <c r="M133" s="6"/>
@@ -7018,8 +6971,8 @@
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
-      <c r="I134" s="26"/>
-      <c r="J134" s="26"/>
+      <c r="I134" s="27"/>
+      <c r="J134" s="27"/>
       <c r="K134" s="6"/>
       <c r="L134" s="6"/>
       <c r="M134" s="6"/>
@@ -7044,8 +6997,8 @@
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
-      <c r="I135" s="26"/>
-      <c r="J135" s="26"/>
+      <c r="I135" s="27"/>
+      <c r="J135" s="27"/>
       <c r="K135" s="6"/>
       <c r="L135" s="6"/>
       <c r="M135" s="6"/>
@@ -7070,8 +7023,8 @@
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
-      <c r="I136" s="26"/>
-      <c r="J136" s="26"/>
+      <c r="I136" s="27"/>
+      <c r="J136" s="27"/>
       <c r="K136" s="6"/>
       <c r="L136" s="6"/>
       <c r="M136" s="6"/>
@@ -7096,8 +7049,8 @@
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
-      <c r="I137" s="26"/>
-      <c r="J137" s="26"/>
+      <c r="I137" s="27"/>
+      <c r="J137" s="27"/>
       <c r="K137" s="6"/>
       <c r="L137" s="6"/>
       <c r="M137" s="6"/>
@@ -7122,8 +7075,8 @@
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
-      <c r="I138" s="26"/>
-      <c r="J138" s="26"/>
+      <c r="I138" s="27"/>
+      <c r="J138" s="27"/>
       <c r="K138" s="6"/>
       <c r="L138" s="6"/>
       <c r="M138" s="6"/>
@@ -10061,7 +10014,8 @@
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -10098,521 +10052,521 @@
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="3"/>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="29" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="11"/>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>54</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="29">
+      <c r="F2" s="32">
         <v>0.2</v>
       </c>
       <c r="G2" s="11"/>
     </row>
     <row r="3" ht="7.5" customHeight="1">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="35" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="35" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="36" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" ht="12.0" customHeight="1">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="38" t="s">
+      <c r="E5" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="37" t="s">
+      <c r="F5" s="41"/>
+      <c r="G5" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="17" t="s">
+      <c r="H5" s="19"/>
+      <c r="I5" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40"/>
-      <c r="M5" s="40"/>
-      <c r="N5" s="40"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="40"/>
-      <c r="Q5" s="40"/>
-      <c r="R5" s="40"/>
-      <c r="S5" s="40"/>
-      <c r="T5" s="40"/>
-      <c r="U5" s="40"/>
-      <c r="V5" s="40"/>
-      <c r="W5" s="40"/>
-      <c r="X5" s="40"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="40"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
     </row>
     <row r="6" ht="12.0" customHeight="1">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="B6" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="42" t="s">
+      <c r="E6" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37" t="s">
+      <c r="F6" s="39"/>
+      <c r="G6" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="17" t="s">
+      <c r="H6" s="19"/>
+      <c r="I6" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
-      <c r="O6" s="40"/>
-      <c r="P6" s="40"/>
-      <c r="Q6" s="40"/>
-      <c r="R6" s="40"/>
-      <c r="S6" s="40"/>
-      <c r="T6" s="40"/>
-      <c r="U6" s="40"/>
-      <c r="V6" s="40"/>
-      <c r="W6" s="40"/>
-      <c r="X6" s="40"/>
-      <c r="Y6" s="40"/>
-      <c r="Z6" s="40"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
     </row>
     <row r="7" ht="12.0" customHeight="1">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="39" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F7" s="43"/>
-      <c r="G7" s="44" t="s">
+      <c r="F7" s="46"/>
+      <c r="G7" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="18"/>
-      <c r="I7" s="17" t="s">
+      <c r="H7" s="19"/>
+      <c r="I7" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="40"/>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="40"/>
-      <c r="U7" s="40"/>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
     </row>
     <row r="8" ht="12.0" customHeight="1">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="37" t="s">
+      <c r="E8" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="43"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="17" t="s">
+      <c r="F8" s="46"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="40"/>
-      <c r="N8" s="40"/>
-      <c r="O8" s="40"/>
-      <c r="P8" s="40"/>
-      <c r="Q8" s="40"/>
-      <c r="R8" s="40"/>
-      <c r="S8" s="40"/>
-      <c r="T8" s="40"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="40"/>
-      <c r="W8" s="40"/>
-      <c r="X8" s="40"/>
-      <c r="Y8" s="40"/>
-      <c r="Z8" s="40"/>
+      <c r="K8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
     </row>
     <row r="9" ht="12.0" customHeight="1">
-      <c r="A9" s="36" t="s">
+      <c r="A9" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="39" t="s">
         <v>73</v>
       </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="29"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="32"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="40"/>
-      <c r="N9" s="40"/>
-      <c r="O9" s="40"/>
-      <c r="P9" s="40"/>
-      <c r="Q9" s="40"/>
-      <c r="R9" s="40"/>
-      <c r="S9" s="40"/>
-      <c r="T9" s="40"/>
-      <c r="U9" s="40"/>
-      <c r="V9" s="40"/>
-      <c r="W9" s="40"/>
-      <c r="X9" s="40"/>
-      <c r="Y9" s="40"/>
-      <c r="Z9" s="40"/>
+      <c r="K9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
     </row>
     <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="38" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="43"/>
-      <c r="G10" s="29"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="32"/>
       <c r="H10" s="15"/>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="40"/>
-      <c r="Q10" s="40"/>
-      <c r="R10" s="40"/>
-      <c r="S10" s="40"/>
-      <c r="T10" s="40"/>
-      <c r="U10" s="40"/>
-      <c r="V10" s="40"/>
-      <c r="W10" s="40"/>
-      <c r="X10" s="40"/>
-      <c r="Y10" s="40"/>
-      <c r="Z10" s="40"/>
+      <c r="K10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
     </row>
     <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="36" t="s">
+      <c r="A11" s="38" t="s">
         <v>92</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="37" t="s">
+      <c r="E11" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F11" s="43"/>
-      <c r="G11" s="29"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="32"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
     </row>
     <row r="12" ht="12.0" customHeight="1">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="44" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="37" t="s">
+      <c r="E12" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="43"/>
-      <c r="G12" s="29"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="32"/>
       <c r="H12" s="15"/>
-      <c r="I12" s="17" t="s">
+      <c r="I12" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40"/>
-      <c r="M12" s="40"/>
-      <c r="N12" s="40"/>
-      <c r="O12" s="40"/>
-      <c r="P12" s="40"/>
-      <c r="Q12" s="40"/>
-      <c r="R12" s="40"/>
-      <c r="S12" s="40"/>
-      <c r="T12" s="40"/>
-      <c r="U12" s="40"/>
-      <c r="V12" s="40"/>
-      <c r="W12" s="40"/>
-      <c r="X12" s="40"/>
-      <c r="Y12" s="40"/>
-      <c r="Z12" s="40"/>
+      <c r="K12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
     </row>
     <row r="13" ht="12.0" customHeight="1">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="29"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="K13" s="40"/>
-      <c r="L13" s="40"/>
-      <c r="M13" s="40"/>
-      <c r="N13" s="40"/>
-      <c r="O13" s="40"/>
-      <c r="P13" s="40"/>
-      <c r="Q13" s="40"/>
-      <c r="R13" s="40"/>
-      <c r="S13" s="40"/>
-      <c r="T13" s="40"/>
-      <c r="U13" s="40"/>
-      <c r="V13" s="40"/>
-      <c r="W13" s="40"/>
-      <c r="X13" s="40"/>
-      <c r="Y13" s="40"/>
-      <c r="Z13" s="40"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
     </row>
     <row r="14" ht="12.0" customHeight="1">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="38" t="s">
         <v>108</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="38" t="s">
         <v>109</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="E14" s="37" t="s">
+      <c r="E14" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="29"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="32"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="17" t="s">
+      <c r="I14" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40"/>
-      <c r="M14" s="40"/>
-      <c r="N14" s="40"/>
-      <c r="O14" s="40"/>
-      <c r="P14" s="40"/>
-      <c r="Q14" s="40"/>
-      <c r="R14" s="40"/>
-      <c r="S14" s="40"/>
-      <c r="T14" s="40"/>
-      <c r="U14" s="40"/>
-      <c r="V14" s="40"/>
-      <c r="W14" s="40"/>
-      <c r="X14" s="40"/>
-      <c r="Y14" s="40"/>
-      <c r="Z14" s="40"/>
+      <c r="K14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
     </row>
     <row r="15" ht="12.0" customHeight="1">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="40"/>
-      <c r="L15" s="40"/>
-      <c r="M15" s="40"/>
-      <c r="N15" s="40"/>
-      <c r="O15" s="40"/>
-      <c r="P15" s="40"/>
-      <c r="Q15" s="40"/>
-      <c r="R15" s="40"/>
-      <c r="S15" s="40"/>
-      <c r="T15" s="40"/>
-      <c r="U15" s="40"/>
-      <c r="V15" s="40"/>
-      <c r="W15" s="40"/>
-      <c r="X15" s="40"/>
-      <c r="Y15" s="40"/>
-      <c r="Z15" s="40"/>
+      <c r="A15" s="42"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+      <c r="K15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
     </row>
     <row r="16" ht="12.0" customHeight="1">
-      <c r="A16" s="40"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
     </row>
     <row r="17" ht="12.0" customHeight="1"/>
     <row r="18" ht="12.0" customHeight="1"/>
@@ -11638,193 +11592,193 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="50" t="s">
         <v>114</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>115</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="29">
+      <c r="F2" s="32">
         <v>0.2</v>
       </c>
     </row>
     <row r="3" ht="12.0" customHeight="1">
-      <c r="A3" s="47"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" ht="11.25" customHeight="1">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="35" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="36" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" ht="12.0" customHeight="1">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="54" t="s">
         <v>116</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="C5" s="51" t="s">
+      <c r="C5" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="51" t="s">
+      <c r="D5" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="E5" s="37"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="52" t="s">
+      <c r="E5" s="39"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="17" t="s">
+      <c r="H5" s="19"/>
+      <c r="I5" s="18" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="6" ht="168.0" customHeight="1">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="55" t="s">
+      <c r="E6" s="39"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="59" t="s">
         <v>126</v>
       </c>
-      <c r="J6" s="56"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-      <c r="M6" s="56"/>
-      <c r="N6" s="56"/>
-      <c r="O6" s="56"/>
-      <c r="P6" s="56"/>
-      <c r="Q6" s="56"/>
-      <c r="R6" s="56"/>
-      <c r="S6" s="56"/>
-      <c r="T6" s="56"/>
-      <c r="U6" s="56"/>
-      <c r="V6" s="56"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="56"/>
-      <c r="Y6" s="56"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
+      <c r="Q6" s="60"/>
+      <c r="R6" s="60"/>
+      <c r="S6" s="60"/>
+      <c r="T6" s="60"/>
+      <c r="U6" s="60"/>
+      <c r="V6" s="60"/>
+      <c r="W6" s="60"/>
+      <c r="X6" s="60"/>
+      <c r="Y6" s="60"/>
     </row>
     <row r="7" ht="12.0" customHeight="1">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="D7" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="E7" s="37"/>
-      <c r="F7" s="39">
+      <c r="E7" s="39"/>
+      <c r="F7" s="41">
         <v>1.0</v>
       </c>
-      <c r="G7" s="54"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="17" t="s">
+      <c r="G7" s="58"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J7" s="56"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-      <c r="S7" s="56"/>
-      <c r="T7" s="56"/>
-      <c r="U7" s="56"/>
-      <c r="V7" s="56"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="56"/>
-      <c r="Y7" s="56"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
+      <c r="O7" s="60"/>
+      <c r="P7" s="60"/>
+      <c r="Q7" s="60"/>
+      <c r="R7" s="60"/>
+      <c r="S7" s="60"/>
+      <c r="T7" s="60"/>
+      <c r="U7" s="60"/>
+      <c r="V7" s="60"/>
+      <c r="W7" s="60"/>
+      <c r="X7" s="60"/>
+      <c r="Y7" s="60"/>
     </row>
     <row r="8" ht="128.25" customHeight="1">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="D8" s="51" t="s">
+      <c r="D8" s="44" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="42" t="s">
+      <c r="E8" s="45" t="s">
         <v>136</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="41">
         <v>1.0</v>
       </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18" t="s">
+      <c r="G8" s="39"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19" t="s">
         <v>137</v>
       </c>
       <c r="J8" s="6"/>
@@ -11845,27 +11799,27 @@
       <c r="Y8" s="6"/>
     </row>
     <row r="9" ht="99.75" customHeight="1">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="61" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="39" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="44" t="s">
         <v>141</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="41">
         <v>1.0</v>
       </c>
-      <c r="G9" s="37"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18" t="s">
+      <c r="G9" s="39"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19" t="s">
         <v>143</v>
       </c>
       <c r="J9" s="6"/>
@@ -11886,27 +11840,25 @@
       <c r="Y9" s="6"/>
     </row>
     <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="63" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="63" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="63" t="s">
         <v>147</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="F10" s="61">
-        <v>1.0</v>
-      </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="64" t="s">
+      <c r="F10" s="65"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="68" t="s">
         <v>149</v>
       </c>
       <c r="J10" s="6"/>
@@ -11927,44 +11879,44 @@
       <c r="Y10" s="6"/>
     </row>
     <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="39" t="s">
         <v>152</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="D11" s="44" t="s">
         <v>153</v>
       </c>
-      <c r="E11" s="42" t="s">
+      <c r="E11" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="F11" s="37">
+      <c r="F11" s="39">
         <v>1.0</v>
       </c>
-      <c r="G11" s="37"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18" t="s">
+      <c r="G11" s="39"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-      <c r="L11" s="65"/>
-      <c r="M11" s="65"/>
-      <c r="N11" s="65"/>
-      <c r="O11" s="65"/>
-      <c r="P11" s="65"/>
-      <c r="Q11" s="65"/>
-      <c r="R11" s="65"/>
-      <c r="S11" s="65"/>
-      <c r="T11" s="65"/>
-      <c r="U11" s="65"/>
-      <c r="V11" s="65"/>
-      <c r="W11" s="65"/>
-      <c r="X11" s="65"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="69"/>
+      <c r="W11" s="69"/>
+      <c r="X11" s="69"/>
     </row>
     <row r="12" ht="12.0" customHeight="1"/>
     <row r="13" ht="12.0" customHeight="1"/>
@@ -12994,98 +12946,98 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="48.0" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="50" t="s">
         <v>157</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>158</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="29">
+      <c r="F2" s="32">
         <v>0.2</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="31"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="D4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="36" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68" t="s">
+      <c r="B5" s="71"/>
+      <c r="C5" s="72" t="s">
         <v>160</v>
       </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="69">
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="73">
         <v>1.0</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="74" t="s">
         <v>161</v>
       </c>
-      <c r="H5" s="71"/>
-      <c r="I5" s="72" t="s">
+      <c r="H5" s="75"/>
+      <c r="I5" s="76" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="39" t="s">
         <v>163</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -13094,23 +13046,23 @@
       <c r="C6" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>166</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="73">
+      <c r="F6" s="77">
         <v>1.0</v>
       </c>
-      <c r="G6" s="74"/>
+      <c r="G6" s="78"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="16" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="39" t="s">
         <v>169</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -13123,17 +13075,17 @@
         <v>172</v>
       </c>
       <c r="E7" s="15"/>
-      <c r="F7" s="73">
+      <c r="F7" s="77">
         <v>1.0</v>
       </c>
-      <c r="G7" s="74"/>
+      <c r="G7" s="78"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="16" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="39" t="s">
         <v>174</v>
       </c>
       <c r="B8" s="15" t="s">
@@ -13145,147 +13097,145 @@
       <c r="D8" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="73">
+      <c r="E8" s="19"/>
+      <c r="F8" s="77">
         <v>1.0</v>
       </c>
-      <c r="G8" s="74"/>
+      <c r="G8" s="78"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="16" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="39" t="s">
         <v>181</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="44" t="s">
         <v>182</v>
       </c>
-      <c r="E9" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="73">
+      <c r="E9" s="39"/>
+      <c r="F9" s="77">
         <v>1.0</v>
       </c>
-      <c r="G9" s="74"/>
+      <c r="G9" s="78"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="16" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="39" t="s">
         <v>185</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="44" t="s">
         <v>187</v>
       </c>
-      <c r="E10" s="37"/>
-      <c r="F10" s="74">
+      <c r="E10" s="39"/>
+      <c r="F10" s="78">
         <v>1.0</v>
       </c>
-      <c r="G10" s="75"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="23" t="s">
+      <c r="G10" s="79"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="16" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
     </row>
     <row r="23" ht="14.25" customHeight="1"/>
     <row r="24" ht="14.25" customHeight="1"/>
@@ -14274,8 +14224,7 @@
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14305,67 +14254,67 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="32" t="s">
         <v>189</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>190</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>191</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="29">
+      <c r="F2" s="32">
         <v>0.2</v>
       </c>
     </row>
     <row r="3" ht="12.0" customHeight="1"/>
     <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="81" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="78" t="s">
+      <c r="E4" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="76" t="s">
+      <c r="H4" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="79" t="s">
+      <c r="I4" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="36" t="s">
         <v>15</v>
       </c>
     </row>
@@ -14373,17 +14322,17 @@
       <c r="A5" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="80"/>
+      <c r="B5" s="84"/>
       <c r="C5" s="15" t="s">
         <v>194</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="85" t="s">
         <v>196</v>
       </c>
-      <c r="F5" s="82" t="s">
+      <c r="F5" s="86" t="s">
         <v>197</v>
       </c>
       <c r="G5" s="15"/>
@@ -14391,7 +14340,7 @@
         <v>198</v>
       </c>
       <c r="I5" s="15"/>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="16" t="s">
         <v>199</v>
       </c>
     </row>
@@ -14399,14 +14348,14 @@
       <c r="A6" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="B6" s="80"/>
+      <c r="B6" s="84"/>
       <c r="C6" s="15" t="s">
         <v>201</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="E6" s="81" t="s">
+      <c r="E6" s="87" t="s">
         <v>203</v>
       </c>
       <c r="F6" s="15" t="s">
@@ -14415,9 +14364,9 @@
       <c r="G6" s="15">
         <v>1.0</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="20"/>
       <c r="I6" s="15"/>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="16" t="s">
         <v>205</v>
       </c>
     </row>
@@ -14425,14 +14374,14 @@
       <c r="A7" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="B7" s="83"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="15" t="s">
         <v>207</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="E7" s="81" t="s">
+      <c r="E7" s="85" t="s">
         <v>209</v>
       </c>
       <c r="F7" s="15"/>
@@ -14441,7 +14390,7 @@
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="16" t="s">
         <v>210</v>
       </c>
     </row>
@@ -14449,14 +14398,14 @@
       <c r="A8" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="B8" s="80"/>
+      <c r="B8" s="84"/>
       <c r="C8" s="15" t="s">
         <v>212</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="85" t="s">
         <v>214</v>
       </c>
       <c r="F8" s="15"/>
@@ -14465,7 +14414,7 @@
         <v>215</v>
       </c>
       <c r="I8" s="15"/>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="16" t="s">
         <v>216</v>
       </c>
     </row>
@@ -14473,7 +14422,7 @@
       <c r="A9" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="B9" s="83" t="s">
+      <c r="B9" s="88" t="s">
         <v>218</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -14482,16 +14431,16 @@
       <c r="D9" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="85" t="s">
         <v>221</v>
       </c>
-      <c r="F9" s="82" t="s">
+      <c r="F9" s="86" t="s">
         <v>222</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="16" t="s">
         <v>223</v>
       </c>
     </row>
@@ -14499,23 +14448,23 @@
       <c r="A10" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="B10" s="83"/>
+      <c r="B10" s="88"/>
       <c r="C10" s="15" t="s">
         <v>225</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="87" t="s">
         <v>227</v>
       </c>
-      <c r="F10" s="84"/>
+      <c r="F10" s="89"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="57" t="s">
+      <c r="H10" s="61" t="s">
         <v>228</v>
       </c>
-      <c r="I10" s="21"/>
-      <c r="J10" s="23" t="s">
+      <c r="I10" s="22"/>
+      <c r="J10" s="16" t="s">
         <v>229</v>
       </c>
     </row>
@@ -14523,23 +14472,23 @@
       <c r="A11" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="B11" s="83"/>
+      <c r="B11" s="88"/>
       <c r="C11" s="15" t="s">
         <v>231</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="E11" s="81" t="s">
+      <c r="E11" s="87" t="s">
         <v>233</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>234</v>
       </c>
       <c r="G11" s="15"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="23" t="s">
+      <c r="H11" s="90"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="16" t="s">
         <v>235</v>
       </c>
     </row>
@@ -14547,7 +14496,7 @@
       <c r="A12" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="B12" s="80" t="s">
+      <c r="B12" s="84" t="s">
         <v>237</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -14556,16 +14505,16 @@
       <c r="D12" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="E12" s="81" t="s">
+      <c r="E12" s="87" t="s">
         <v>240</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>234</v>
       </c>
       <c r="G12" s="15"/>
-      <c r="H12" s="57"/>
+      <c r="H12" s="61"/>
       <c r="I12" s="15"/>
-      <c r="J12" s="23" t="s">
+      <c r="J12" s="16" t="s">
         <v>241</v>
       </c>
     </row>
@@ -14573,23 +14522,23 @@
       <c r="A13" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="B13" s="86"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="15" t="s">
         <v>243</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="E13" s="81" t="s">
+      <c r="E13" s="87" t="s">
         <v>245</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="57" t="s">
+      <c r="H13" s="61" t="s">
         <v>246</v>
       </c>
       <c r="I13" s="15"/>
-      <c r="J13" s="23" t="s">
+      <c r="J13" s="16" t="s">
         <v>247</v>
       </c>
     </row>
@@ -14597,7 +14546,7 @@
       <c r="A14" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="B14" s="83" t="s">
+      <c r="B14" s="88" t="s">
         <v>249</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -14606,16 +14555,16 @@
       <c r="D14" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="E14" s="81" t="s">
+      <c r="E14" s="87" t="s">
         <v>252</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>234</v>
       </c>
       <c r="G14" s="15"/>
-      <c r="H14" s="57"/>
+      <c r="H14" s="61"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="23" t="s">
+      <c r="J14" s="16" t="s">
         <v>253</v>
       </c>
     </row>
@@ -14623,7 +14572,7 @@
       <c r="A15" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="88" t="s">
         <v>255</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -14632,7 +14581,7 @@
       <c r="D15" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="E15" s="81" t="s">
+      <c r="E15" s="87" t="s">
         <v>258</v>
       </c>
       <c r="F15" s="15"/>
@@ -14641,29 +14590,29 @@
         <v>259</v>
       </c>
       <c r="I15" s="15"/>
-      <c r="J15" s="23" t="s">
+      <c r="J15" s="16" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="16" ht="12.0" customHeight="1">
-      <c r="A16" s="71" t="s">
+      <c r="A16" s="75" t="s">
         <v>261</v>
       </c>
-      <c r="B16" s="83"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71" t="s">
+      <c r="B16" s="88"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75" t="s">
         <v>262</v>
       </c>
-      <c r="E16" s="87"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71">
+      <c r="E16" s="92"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75">
         <v>1.0</v>
       </c>
-      <c r="H16" s="88" t="s">
+      <c r="H16" s="93" t="s">
         <v>263</v>
       </c>
-      <c r="I16" s="21"/>
-      <c r="J16" s="72" t="s">
+      <c r="I16" s="22"/>
+      <c r="J16" s="76" t="s">
         <v>264</v>
       </c>
     </row>
@@ -14671,25 +14620,25 @@
       <c r="A17" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="88" t="s">
         <v>266</v>
       </c>
-      <c r="C17" s="89" t="s">
+      <c r="C17" s="94" t="s">
         <v>267</v>
       </c>
-      <c r="D17" s="89" t="s">
+      <c r="D17" s="94" t="s">
         <v>268</v>
       </c>
-      <c r="E17" s="90" t="s">
+      <c r="E17" s="95" t="s">
         <v>269</v>
       </c>
-      <c r="F17" s="91" t="s">
+      <c r="F17" s="96" t="s">
         <v>270</v>
       </c>
-      <c r="G17" s="89"/>
-      <c r="H17" s="92"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="97"/>
       <c r="I17" s="15"/>
-      <c r="J17" s="23" t="s">
+      <c r="J17" s="16" t="s">
         <v>271</v>
       </c>
     </row>
@@ -14697,25 +14646,25 @@
       <c r="A18" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="B18" s="83" t="s">
+      <c r="B18" s="88" t="s">
         <v>273</v>
       </c>
-      <c r="C18" s="89" t="s">
+      <c r="C18" s="94" t="s">
         <v>274</v>
       </c>
-      <c r="D18" s="89" t="s">
+      <c r="D18" s="94" t="s">
         <v>275</v>
       </c>
-      <c r="E18" s="90" t="s">
+      <c r="E18" s="95" t="s">
         <v>276</v>
       </c>
-      <c r="F18" s="91" t="s">
+      <c r="F18" s="96" t="s">
         <v>270</v>
       </c>
-      <c r="G18" s="89"/>
-      <c r="H18" s="92"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="97"/>
       <c r="I18" s="15"/>
-      <c r="J18" s="23" t="s">
+      <c r="J18" s="16" t="s">
         <v>277</v>
       </c>
     </row>
@@ -14723,7 +14672,7 @@
       <c r="A19" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="88" t="s">
         <v>279</v>
       </c>
       <c r="C19" s="15" t="s">
@@ -14732,16 +14681,16 @@
       <c r="D19" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="E19" s="81" t="s">
+      <c r="E19" s="87" t="s">
         <v>282</v>
       </c>
-      <c r="F19" s="93" t="s">
+      <c r="F19" s="98" t="s">
         <v>270</v>
       </c>
       <c r="G19" s="15"/>
-      <c r="H19" s="85"/>
+      <c r="H19" s="90"/>
       <c r="I19" s="15"/>
-      <c r="J19" s="23" t="s">
+      <c r="J19" s="16" t="s">
         <v>283</v>
       </c>
     </row>
@@ -14749,7 +14698,7 @@
       <c r="A20" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="88" t="s">
         <v>285</v>
       </c>
       <c r="C20" s="15" t="s">
@@ -14758,16 +14707,16 @@
       <c r="D20" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="E20" s="81" t="s">
+      <c r="E20" s="87" t="s">
         <v>288</v>
       </c>
-      <c r="F20" s="93" t="s">
+      <c r="F20" s="98" t="s">
         <v>289</v>
       </c>
       <c r="G20" s="15"/>
-      <c r="H20" s="85"/>
+      <c r="H20" s="90"/>
       <c r="I20" s="15"/>
-      <c r="J20" s="23" t="s">
+      <c r="J20" s="16" t="s">
         <v>290</v>
       </c>
     </row>
@@ -14775,7 +14724,7 @@
       <c r="A21" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="88" t="s">
         <v>292</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -14784,96 +14733,96 @@
       <c r="D21" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="E21" s="81" t="s">
+      <c r="E21" s="87" t="s">
         <v>295</v>
       </c>
-      <c r="F21" s="93" t="s">
+      <c r="F21" s="98" t="s">
         <v>270</v>
       </c>
       <c r="G21" s="15"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="23" t="s">
+      <c r="H21" s="90"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="16" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="22" ht="12.0" customHeight="1">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="75" t="s">
         <v>297</v>
       </c>
-      <c r="B22" s="94"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71" t="s">
+      <c r="B22" s="99"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="75" t="s">
         <v>298</v>
       </c>
-      <c r="E22" s="87"/>
-      <c r="F22" s="95"/>
-      <c r="G22" s="96">
+      <c r="E22" s="92"/>
+      <c r="F22" s="100"/>
+      <c r="G22" s="101">
         <v>1.0</v>
       </c>
-      <c r="H22" s="88" t="s">
+      <c r="H22" s="93" t="s">
         <v>299</v>
       </c>
       <c r="I22" s="15"/>
-      <c r="J22" s="72" t="s">
+      <c r="J22" s="76" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="23" ht="12.0" customHeight="1">
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
     </row>
     <row r="24" ht="12.0" customHeight="1">
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
     </row>
     <row r="25" ht="12.0" customHeight="1">
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
     </row>
     <row r="26" ht="12.0" customHeight="1">
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
     </row>
     <row r="27" ht="12.0" customHeight="1">
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
     </row>
     <row r="28" ht="12.0" customHeight="1">
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
     </row>
     <row r="29" ht="12.0" customHeight="1">
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
     </row>
     <row r="30" ht="12.0" customHeight="1">
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
     </row>
     <row r="31" ht="12.0" customHeight="1"/>
     <row r="32" ht="12.0" customHeight="1"/>
@@ -15887,67 +15836,67 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="102" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="103" t="s">
         <v>302</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="98" t="s">
+      <c r="D2" s="103" t="s">
         <v>303</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="29">
+      <c r="F2" s="32">
         <v>0.2</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1"/>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="80" t="s">
         <v>304</v>
       </c>
-      <c r="H4" s="49" t="s">
+      <c r="H4" s="53" t="s">
         <v>305</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="36" t="s">
         <v>15</v>
       </c>
     </row>
@@ -15966,10 +15915,10 @@
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="57"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="61"/>
       <c r="I5" s="15"/>
-      <c r="J5" s="23" t="s">
+      <c r="J5" s="16" t="s">
         <v>310</v>
       </c>
     </row>
@@ -15988,12 +15937,12 @@
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="81" t="s">
+      <c r="G6" s="87" t="s">
         <v>315</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="16" t="s">
         <v>316</v>
       </c>
     </row>
@@ -16012,12 +15961,12 @@
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="81" t="s">
+      <c r="G7" s="87" t="s">
         <v>315</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
-      <c r="J7" s="23" t="s">
+      <c r="J7" s="16" t="s">
         <v>321</v>
       </c>
     </row>
@@ -16038,10 +15987,10 @@
       <c r="F8" s="15">
         <v>1.0</v>
       </c>
-      <c r="G8" s="81"/>
+      <c r="G8" s="87"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
-      <c r="J8" s="23" t="s">
+      <c r="J8" s="16" t="s">
         <v>326</v>
       </c>
     </row>
@@ -16058,18 +16007,18 @@
       <c r="D9" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="104" t="s">
         <v>331</v>
       </c>
       <c r="F9" s="15">
         <v>1.0</v>
       </c>
-      <c r="G9" s="81" t="s">
+      <c r="G9" s="87" t="s">
         <v>332</v>
       </c>
       <c r="H9" s="15"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="23" t="s">
+      <c r="I9" s="22"/>
+      <c r="J9" s="16" t="s">
         <v>333</v>
       </c>
     </row>
@@ -16093,25 +16042,25 @@
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
-      <c r="J10" s="23" t="s">
+      <c r="J10" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="K10" s="65"/>
-      <c r="L10" s="65"/>
-      <c r="M10" s="65"/>
-      <c r="N10" s="65"/>
-      <c r="O10" s="65"/>
-      <c r="P10" s="65"/>
-      <c r="Q10" s="65"/>
-      <c r="R10" s="65"/>
-      <c r="S10" s="65"/>
-      <c r="T10" s="65"/>
-      <c r="U10" s="65"/>
-      <c r="V10" s="65"/>
-      <c r="W10" s="65"/>
-      <c r="X10" s="65"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="65"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="69"/>
     </row>
     <row r="11" ht="14.25" customHeight="1"/>
     <row r="12" ht="14.25" customHeight="1"/>
@@ -17142,69 +17091,69 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="82.5" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="32" t="s">
         <v>339</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>340</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>341</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="29">
+      <c r="F2" s="32">
         <v>0.2</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="J3" s="100"/>
+      <c r="J3" s="105"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="34" t="s">
+      <c r="G4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="76" t="s">
+      <c r="I4" s="80" t="s">
         <v>304</v>
       </c>
-      <c r="J4" s="49" t="s">
+      <c r="J4" s="53" t="s">
         <v>305</v>
       </c>
     </row>
@@ -17215,20 +17164,20 @@
       <c r="B5" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="61" t="s">
         <v>344</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="61" t="s">
         <v>345</v>
       </c>
-      <c r="E5" s="85"/>
+      <c r="E5" s="90"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
-      <c r="H5" s="23" t="s">
+      <c r="H5" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="I5" s="101"/>
-      <c r="J5" s="57"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="61"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="15" t="s">
@@ -17250,31 +17199,31 @@
         <v>1.0</v>
       </c>
       <c r="G6" s="15"/>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="I6" s="81"/>
+      <c r="I6" s="87"/>
       <c r="J6" s="15"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="102" t="s">
+      <c r="A7" s="107" t="s">
         <v>353</v>
       </c>
-      <c r="B7" s="102"/>
-      <c r="C7" s="102" t="s">
+      <c r="B7" s="107"/>
+      <c r="C7" s="107" t="s">
         <v>354</v>
       </c>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102"/>
-      <c r="G7" s="102"/>
-      <c r="H7" s="72" t="s">
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="107"/>
+      <c r="H7" s="76" t="s">
         <v>355</v>
       </c>
-      <c r="I7" s="103" t="s">
+      <c r="I7" s="108" t="s">
         <v>356</v>
       </c>
-      <c r="J7" s="104"/>
+      <c r="J7" s="109"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="15" t="s">
@@ -17294,11 +17243,11 @@
         <v>1.0</v>
       </c>
       <c r="G8" s="15"/>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="I8" s="81"/>
-      <c r="J8" s="105"/>
+      <c r="I8" s="87"/>
+      <c r="J8" s="110"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="15" t="s">
@@ -17316,11 +17265,11 @@
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="I9" s="81"/>
-      <c r="J9" s="105"/>
+      <c r="I9" s="87"/>
+      <c r="J9" s="110"/>
     </row>
     <row r="10" ht="115.5" customHeight="1">
       <c r="A10" s="15" t="s">
@@ -17340,13 +17289,13 @@
         <v>1.0</v>
       </c>
       <c r="G10" s="15"/>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="I10" s="81" t="s">
+      <c r="I10" s="87" t="s">
         <v>372</v>
       </c>
-      <c r="J10" s="105"/>
+      <c r="J10" s="110"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="15" t="s">
@@ -17364,11 +17313,11 @@
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="I11" s="81"/>
-      <c r="J11" s="105"/>
+      <c r="I11" s="87"/>
+      <c r="J11" s="110"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="15" t="s">
@@ -17388,13 +17337,13 @@
         <v>1.0</v>
       </c>
       <c r="G12" s="15"/>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="I12" s="81" t="s">
+      <c r="I12" s="87" t="s">
         <v>383</v>
       </c>
-      <c r="J12" s="105"/>
+      <c r="J12" s="110"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="15" t="s">
@@ -17412,11 +17361,11 @@
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="I13" s="81"/>
-      <c r="J13" s="105"/>
+      <c r="I13" s="87"/>
+      <c r="J13" s="110"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="15" t="s">
@@ -17436,17 +17385,17 @@
         <v>1.0</v>
       </c>
       <c r="G14" s="15"/>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="I14" s="81"/>
-      <c r="J14" s="105"/>
+      <c r="I14" s="87"/>
+      <c r="J14" s="110"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="15" t="s">
         <v>394</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>395</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -17458,29 +17407,29 @@
       <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
-      <c r="H15" s="23" t="s">
+      <c r="H15" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="I15" s="81"/>
-      <c r="J15" s="105"/>
+      <c r="I15" s="87"/>
+      <c r="J15" s="110"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
     </row>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -18471,8 +18420,7 @@
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18501,23 +18449,23 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="106" t="s">
+      <c r="B1" s="111" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="75.0" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="32" t="s">
         <v>399</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -18528,43 +18476,43 @@
         <v>401</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="29">
+      <c r="F2" s="32">
         <v>0.2</v>
       </c>
     </row>
     <row r="3" ht="13.5" customHeight="1"/>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="112" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="76" t="s">
+      <c r="J4" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="49" t="s">
+      <c r="K4" s="53" t="s">
         <v>305</v>
       </c>
     </row>
@@ -18572,7 +18520,7 @@
       <c r="A5" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="B5" s="108"/>
+      <c r="B5" s="113"/>
       <c r="C5" s="15" t="s">
         <v>403</v>
       </c>
@@ -18585,7 +18533,7 @@
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="16" t="s">
         <v>406</v>
       </c>
       <c r="J5" s="15" t="s">
@@ -18597,7 +18545,7 @@
       <c r="A6" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="B6" s="108"/>
+      <c r="B6" s="113"/>
       <c r="C6" s="15" t="s">
         <v>409</v>
       </c>
@@ -18610,7 +18558,7 @@
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="16" t="s">
         <v>412</v>
       </c>
       <c r="J6" s="15" t="s">
@@ -18622,7 +18570,7 @@
       <c r="A7" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="B7" s="108" t="s">
+      <c r="B7" s="113" t="s">
         <v>415</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -18639,14 +18587,14 @@
         <v>1.0</v>
       </c>
       <c r="H7" s="15"/>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="16" t="s">
         <v>419</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>420</v>
       </c>
       <c r="K7" s="15"/>
-      <c r="L7" s="109" t="s">
+      <c r="L7" s="114" t="s">
         <v>421</v>
       </c>
     </row>
@@ -18654,7 +18602,7 @@
       <c r="A8" s="15" t="s">
         <v>422</v>
       </c>
-      <c r="B8" s="108"/>
+      <c r="B8" s="113"/>
       <c r="C8" s="15" t="s">
         <v>423</v>
       </c>
@@ -18669,7 +18617,7 @@
         <v>1.0</v>
       </c>
       <c r="H8" s="15"/>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="16" t="s">
         <v>426</v>
       </c>
       <c r="J8" s="15" t="s">
@@ -18681,7 +18629,7 @@
       <c r="A9" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="B9" s="108"/>
+      <c r="B9" s="113"/>
       <c r="C9" s="15" t="s">
         <v>429</v>
       </c>
@@ -18696,7 +18644,7 @@
         <v>1.0</v>
       </c>
       <c r="H9" s="15"/>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="16" t="s">
         <v>432</v>
       </c>
       <c r="J9" s="15"/>
@@ -18706,7 +18654,7 @@
       <c r="A10" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="113" t="s">
         <v>434</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -18718,12 +18666,12 @@
       <c r="E10" s="15" t="s">
         <v>437</v>
       </c>
-      <c r="F10" s="85"/>
+      <c r="F10" s="90"/>
       <c r="G10" s="15">
         <v>1.0</v>
       </c>
       <c r="H10" s="15"/>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="16" t="s">
         <v>438</v>
       </c>
       <c r="J10" s="15"/>
@@ -18733,7 +18681,7 @@
       <c r="A11" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="B11" s="108"/>
+      <c r="B11" s="113"/>
       <c r="C11" s="15" t="s">
         <v>440</v>
       </c>
@@ -18746,7 +18694,7 @@
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="16" t="s">
         <v>443</v>
       </c>
       <c r="J11" s="15" t="s">
@@ -18758,7 +18706,7 @@
       <c r="A12" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="113" t="s">
         <v>446</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -18775,7 +18723,7 @@
         <v>1.0</v>
       </c>
       <c r="H12" s="15"/>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="16" t="s">
         <v>450</v>
       </c>
       <c r="J12" s="15"/>
@@ -18785,7 +18733,7 @@
       <c r="A13" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="B13" s="108"/>
+      <c r="B13" s="113"/>
       <c r="C13" s="15" t="s">
         <v>452</v>
       </c>
@@ -18798,7 +18746,7 @@
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="16" t="s">
         <v>455</v>
       </c>
       <c r="J13" s="15"/>
@@ -18808,7 +18756,7 @@
       <c r="A14" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="B14" s="108"/>
+      <c r="B14" s="113"/>
       <c r="C14" s="15" t="s">
         <v>457</v>
       </c>
@@ -18821,7 +18769,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="16" t="s">
         <v>460</v>
       </c>
       <c r="J14" s="15"/>
@@ -18831,7 +18779,7 @@
       <c r="A15" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="B15" s="108"/>
+      <c r="B15" s="113"/>
       <c r="C15" s="15" t="s">
         <v>462</v>
       </c>
@@ -18841,14 +18789,14 @@
       <c r="E15" s="15" t="s">
         <v>464</v>
       </c>
-      <c r="F15" s="82" t="s">
+      <c r="F15" s="86" t="s">
         <v>465</v>
       </c>
       <c r="G15" s="15">
         <v>1.0</v>
       </c>
       <c r="H15" s="15"/>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="16" t="s">
         <v>466</v>
       </c>
       <c r="J15" s="15" t="s">
@@ -18860,7 +18808,7 @@
       <c r="A16" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="B16" s="108"/>
+      <c r="B16" s="113"/>
       <c r="C16" s="15" t="s">
         <v>469</v>
       </c>
@@ -18873,7 +18821,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="16" t="s">
         <v>471</v>
       </c>
       <c r="J16" s="15" t="s">
@@ -18885,7 +18833,7 @@
       <c r="A17" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="B17" s="108"/>
+      <c r="B17" s="113"/>
       <c r="C17" s="15" t="s">
         <v>474</v>
       </c>
@@ -18898,7 +18846,7 @@
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="16" t="s">
         <v>477</v>
       </c>
       <c r="J17" s="15" t="s">
@@ -18910,7 +18858,7 @@
       <c r="A18" s="15" t="s">
         <v>479</v>
       </c>
-      <c r="B18" s="108"/>
+      <c r="B18" s="113"/>
       <c r="C18" s="15" t="s">
         <v>480</v>
       </c>
@@ -18925,7 +18873,7 @@
         <v>1.0</v>
       </c>
       <c r="H18" s="15"/>
-      <c r="I18" s="23" t="s">
+      <c r="I18" s="16" t="s">
         <v>483</v>
       </c>
       <c r="J18" s="15"/>
@@ -19954,73 +19902,73 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="28" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3"/>
-      <c r="D1" s="27" t="s">
+      <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="46"/>
-      <c r="F1" s="28" t="s">
+      <c r="E1" s="49"/>
+      <c r="F1" s="29" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="32" t="s">
         <v>484</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>485</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="31" t="s">
         <v>486</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="30">
+      <c r="F2" s="31">
         <v>0.2</v>
       </c>
-      <c r="G2" s="110"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
     </row>
     <row r="3" ht="12.0" customHeight="1"/>
     <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="112" t="s">
         <v>487</v>
       </c>
-      <c r="C4" s="76" t="s">
+      <c r="C4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="76" t="s">
+      <c r="D4" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="76" t="s">
+      <c r="E4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="80" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="76" t="s">
+      <c r="G4" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="34" t="s">
+      <c r="H4" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="34" t="s">
+      <c r="I4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="76" t="s">
+      <c r="J4" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="49" t="s">
+      <c r="K4" s="53" t="s">
         <v>305</v>
       </c>
     </row>
@@ -20028,7 +19976,7 @@
       <c r="A5" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="B5" s="108"/>
+      <c r="B5" s="113"/>
       <c r="C5" s="15" t="s">
         <v>489</v>
       </c>
@@ -20043,7 +19991,7 @@
         <v>1.0</v>
       </c>
       <c r="H5" s="15"/>
-      <c r="I5" s="23" t="s">
+      <c r="I5" s="16" t="s">
         <v>492</v>
       </c>
       <c r="J5" s="15"/>
@@ -20053,7 +20001,7 @@
       <c r="A6" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="B6" s="108" t="s">
+      <c r="B6" s="113" t="s">
         <v>494</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -20070,7 +20018,7 @@
         <v>1.0</v>
       </c>
       <c r="H6" s="15"/>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="16" t="s">
         <v>498</v>
       </c>
       <c r="J6" s="15" t="s">
@@ -20082,7 +20030,7 @@
       <c r="A7" s="15" t="s">
         <v>500</v>
       </c>
-      <c r="B7" s="108"/>
+      <c r="B7" s="113"/>
       <c r="C7" s="15" t="s">
         <v>164</v>
       </c>
@@ -20097,17 +20045,17 @@
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
-      <c r="I7" s="23" t="s">
+      <c r="I7" s="16" t="s">
         <v>502</v>
       </c>
-      <c r="J7" s="85"/>
+      <c r="J7" s="90"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" s="15" t="s">
         <v>503</v>
       </c>
-      <c r="B8" s="108"/>
+      <c r="B8" s="113"/>
       <c r="C8" s="15" t="s">
         <v>170</v>
       </c>
@@ -20120,7 +20068,7 @@
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
-      <c r="I8" s="23" t="s">
+      <c r="I8" s="16" t="s">
         <v>504</v>
       </c>
       <c r="J8" s="15"/>
@@ -20130,7 +20078,7 @@
       <c r="A9" s="15" t="s">
         <v>505</v>
       </c>
-      <c r="B9" s="108" t="s">
+      <c r="B9" s="113" t="s">
         <v>506</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -20145,7 +20093,7 @@
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
-      <c r="I9" s="23" t="s">
+      <c r="I9" s="16" t="s">
         <v>508</v>
       </c>
       <c r="J9" s="15"/>
@@ -20155,7 +20103,7 @@
       <c r="A10" s="15" t="s">
         <v>509</v>
       </c>
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="113" t="s">
         <v>510</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -20167,14 +20115,14 @@
       <c r="E10" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="F10" s="93" t="s">
+      <c r="F10" s="98" t="s">
         <v>234</v>
       </c>
       <c r="G10" s="15">
         <v>1.0</v>
       </c>
       <c r="H10" s="15"/>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="16" t="s">
         <v>514</v>
       </c>
       <c r="J10" s="15"/>
@@ -20184,7 +20132,7 @@
       <c r="A11" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="B11" s="108"/>
+      <c r="B11" s="113"/>
       <c r="C11" s="15" t="s">
         <v>516</v>
       </c>
@@ -20194,12 +20142,12 @@
       <c r="E11" s="15" t="s">
         <v>518</v>
       </c>
-      <c r="F11" s="93" t="s">
+      <c r="F11" s="98" t="s">
         <v>519</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
-      <c r="I11" s="23" t="s">
+      <c r="I11" s="16" t="s">
         <v>520</v>
       </c>
       <c r="J11" s="15"/>
@@ -20209,7 +20157,7 @@
       <c r="A12" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="B12" s="108" t="s">
+      <c r="B12" s="113" t="s">
         <v>522</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -20218,7 +20166,7 @@
       <c r="D12" s="15" t="s">
         <v>524</v>
       </c>
-      <c r="E12" s="82" t="s">
+      <c r="E12" s="86" t="s">
         <v>525</v>
       </c>
       <c r="F12" s="15" t="s">
@@ -20228,7 +20176,7 @@
         <v>1.0</v>
       </c>
       <c r="H12" s="15"/>
-      <c r="I12" s="23" t="s">
+      <c r="I12" s="16" t="s">
         <v>527</v>
       </c>
       <c r="J12" s="15" t="s">
@@ -20240,7 +20188,7 @@
       <c r="A13" s="15" t="s">
         <v>529</v>
       </c>
-      <c r="B13" s="108" t="s">
+      <c r="B13" s="113" t="s">
         <v>530</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -20257,7 +20205,7 @@
         <v>1.0</v>
       </c>
       <c r="H13" s="15"/>
-      <c r="I13" s="23" t="s">
+      <c r="I13" s="16" t="s">
         <v>534</v>
       </c>
       <c r="J13" s="15"/>
@@ -20267,7 +20215,7 @@
       <c r="A14" s="15" t="s">
         <v>535</v>
       </c>
-      <c r="B14" s="108" t="s">
+      <c r="B14" s="113" t="s">
         <v>536</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -20286,7 +20234,7 @@
         <v>1.0</v>
       </c>
       <c r="H14" s="15"/>
-      <c r="I14" s="23" t="s">
+      <c r="I14" s="16" t="s">
         <v>541</v>
       </c>
       <c r="J14" s="15"/>
@@ -20296,8 +20244,8 @@
       <c r="A15" s="15" t="s">
         <v>542</v>
       </c>
-      <c r="B15" s="108"/>
-      <c r="C15" s="15" t="s">
+      <c r="B15" s="113"/>
+      <c r="C15" s="16" t="s">
         <v>543</v>
       </c>
       <c r="D15" s="15" t="s">
@@ -20311,17 +20259,17 @@
         <v>1.0</v>
       </c>
       <c r="H15" s="15"/>
-      <c r="I15" s="23" t="s">
+      <c r="I15" s="16" t="s">
         <v>546</v>
       </c>
-      <c r="J15" s="85"/>
+      <c r="J15" s="90"/>
       <c r="K15" s="15"/>
     </row>
     <row r="16" ht="12.0" customHeight="1">
       <c r="A16" s="15" t="s">
         <v>547</v>
       </c>
-      <c r="B16" s="108"/>
+      <c r="B16" s="113"/>
       <c r="C16" s="15" t="s">
         <v>548</v>
       </c>
@@ -20334,7 +20282,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
-      <c r="I16" s="23" t="s">
+      <c r="I16" s="16" t="s">
         <v>551</v>
       </c>
       <c r="J16" s="15"/>
@@ -20344,7 +20292,7 @@
       <c r="A17" s="15" t="s">
         <v>552</v>
       </c>
-      <c r="B17" s="108"/>
+      <c r="B17" s="113"/>
       <c r="C17" s="15" t="s">
         <v>553</v>
       </c>
@@ -20359,7 +20307,7 @@
         <v>1.0</v>
       </c>
       <c r="H17" s="15"/>
-      <c r="I17" s="23" t="s">
+      <c r="I17" s="16" t="s">
         <v>556</v>
       </c>
       <c r="J17" s="15"/>
@@ -20369,7 +20317,7 @@
       <c r="A18" s="15" t="s">
         <v>557</v>
       </c>
-      <c r="B18" s="108"/>
+      <c r="B18" s="113"/>
       <c r="C18" s="15" t="s">
         <v>558</v>
       </c>
@@ -20386,7 +20334,7 @@
         <v>1.0</v>
       </c>
       <c r="H18" s="15"/>
-      <c r="I18" s="23" t="s">
+      <c r="I18" s="16" t="s">
         <v>562</v>
       </c>
       <c r="J18" s="15"/>

--- a/Estimates 22 BDG [Final].xlsx
+++ b/Estimates 22 BDG [Final].xlsx
@@ -17,7 +17,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataSignature="AMtx7miX2XuPsNkDJFOFABayQPsqpCpfhw=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataSignature="AMtx7mgYV1QAD2qNIaKP44PkekKUioFRrg=="/>
     </ext>
   </extLst>
 </workbook>
@@ -120,7 +120,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhRppvY1pIdJW/C7OYCjL/6aemR1Q=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhsn0GGYM2iKIz9eLDRSDUsLjqliA=="/>
     </ext>
   </extLst>
 </comments>
@@ -205,7 +205,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mg2ZsKBAa5POLwFEGNQBfKwWFeZFQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhGvcz+0PUJ0F3v2zrvL+JokMzJ5A=="/>
     </ext>
   </extLst>
 </comments>
@@ -242,7 +242,16 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="F15">
+    <comment authorId="0" ref="K18">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAASQchb-M
+Jonathan Berry    (2021-11-30 17:22:56)
+@jonathan@strategy4ward.com Where multiple validation checks are required, are all checks required to pass? Or only one check? i.e. Is it an AND thing or an OR?
+_Assigned to Jonathan Pearson_</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E15">
       <text>
         <t xml:space="preserve">======
 ID#AAAASYjj5eU
@@ -255,7 +264,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miHJN8azd6A/bc8LxZfa1YHfKwj3w=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miByJhmzgEBl81JZEBBclzR2Xk33A=="/>
     </ext>
   </extLst>
 </comments>
@@ -287,7 +296,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="774" uniqueCount="606">
   <si>
     <t>Milestone Title (Visible to User):</t>
   </si>
@@ -346,7 +355,7 @@
     <t>OVV-01-10</t>
   </si>
   <si>
-    <t>Welcome to the Navigator</t>
+    <t>Welcome to the UNAIDS HIV Estimates Navigator</t>
   </si>
   <si>
     <t>Has the user clicked What's Next?</t>
@@ -391,7 +400,7 @@
     <t>OVV-04-01</t>
   </si>
   <si>
-    <t>Milestone: Upload Estimates Inputs Data to ADR</t>
+    <t>Milestone: Upload and Review Data Files in Your Inputs Package on ADR</t>
   </si>
   <si>
     <t>02-UploadDataADR</t>
@@ -1242,7 +1251,7 @@
     <t>Does the user's Spectrum file have current estimates year data for PMTCT [required / optional data elements available in Indicator Element Matrix]?</t>
   </si>
   <si>
-    <t>Spectrum requires up-to-date PMTCT programme data for the reporting period. These data are required for each Spectrum file. You can find all required data elements in the Guide 8, Data quality, Indicator Element Matrix. *It is highly recommended you finalize your programme data before beginning the Spectrum process.* If edits to PMTCT programme data are required later in the process, you will have to return to this step. For countries with sub-national Spectrum estimates (optional), this step applies to each file.</t>
+    <t>Spectrum requires up-to-date PMTCT programme data for the reporting period. These data are required for each Spectrum file. You can find all required data elements in the Guide 8, Data quality, Indicator Element Matrix. Spectrum also provides specific guidance for each regimen in the PMTCT data entry page. *It is highly recommended you finalize your programme data before beginning the Spectrum process.* If edits to PMTCT programme data are required later in the process, you will have to return to this step. For countries with sub-national Spectrum estimates (optional), this step applies to each file.</t>
   </si>
   <si>
     <r>
@@ -1276,7 +1285,7 @@
     <t>Has user updated Breastfeeding Pattern in their Spectrum file?</t>
   </si>
   <si>
-    <t>The duration of breastfeeding is important for understanding how long a child is exposed to possible vertical transmission.  Spectrum has prepopulated data that reflect data from surveys in your country on breastfeeding patterns. These data are updated periodically to reflect new surveys.  On the PMTCT tab, please click on Breastfeeding then Read survey data button to update the breastfeeding patterns among women not receiving ARVs.  A pop up button will ask if you want to update these data for women Receiving ARVs at the same time. If you select Yes it will update both ‘Not receiving ARVs’ and ‘Receiving ARVs’.  Alternatively, if you have data from your PMTCT programme on breastfeeding duration you could enter that for the women Receiving ARVs.</t>
+    <t>The duration of breastfeeding is important for understanding how long a child is exposed to possible vertical transmission.  Spectrum has prepopulated data that reflect data from surveys in your country on breastfeeding patterns. These data are updated periodically to reflect new surveys.  On the Program Statistics\PMTCT tab, please click on Breastfeeding then Read survey data button to update the breastfeeding patterns among women not receiving ARVs.  A pop up button will ask if you want to update these data for women Receiving ARVs at the same time. If you select Yes it will update both ‘Not receiving ARVs’ and ‘Receiving ARVs’.  Alternatively, if you have data from your PMTCT programme on breastfeeding duration you could enter that for the women Receiving ARVs.</t>
   </si>
   <si>
     <t>05/Nov - updated with MM's text</t>
@@ -1294,7 +1303,7 @@
     <t>Has user updated ANC testing data in their Spectrum file for current reporting period [required / optional data elements available in Indicator Element Matrix]?</t>
   </si>
   <si>
-    <t xml:space="preserve">Although not mandatory becasue it does not impact the model, UNAIDS suggests user provide up-to-date ANC Testing programme data for the reporting period to check the quality of the ANC data. This information helps to identify issues with prevalence data for your estimates. You can find all required data elements in the Guide 8, Data quality, Indicator Element Matrix. It is highly recommended you review these programme data before beginning the incidence curve fitting process. </t>
+    <t xml:space="preserve">Although not mandatory becasue it does not impact the model, UNAIDS suggests user provide up-to-date ANC Testing programme data for the reporting period to check the quality of the ANC data. This information helps to identify issues with prevalence data for your estimates. You can find all required data elements in the Guide 8, Data quality, Indicator Element Matrix. It is highly recommended you review these programme data before beginning the incidence curve fitting process. Enter the ANC data under the Program Statistics\ANC Testing tab. </t>
   </si>
   <si>
     <t>Guide 8, Data quality, Indicator Element Matrix https://hivtools.unaids.org/hiv-estimates-training-material-en/</t>
@@ -1316,7 +1325,7 @@
     <t>Has user updated adult ART data in their Spectrum file for current reporting period [required / optional data elements available in Indicator Element Matrix]?</t>
   </si>
   <si>
-    <t xml:space="preserve">Spectrum requires up-to-date Adult ART programme data for the reporting period for estimating treatment coverage and for estimating incidence. You should update the ART data before running your incidence curve. Data on the number newly initiated on ART and lost to follow up can improve the precision of some of the outputs from Spectrum. If those data are available be sure to include them. You can find all required data elements in the Guide 8, Data quality, Indicator Element Matrix. If edits to the ART programme data are required later in the process, you will have to rerun your incidence curve fitting. </t>
+    <t xml:space="preserve">Spectrum requires up-to-date Adult ART programme data for the reporting period for estimating treatment coverage and for estimating incidence. You should update the ART data before running your incidence curve. Data on the number newly initiated on ART and lost to follow up can improve the precision of some of the outputs from Spectrum. If those data are available be sure to include them. You can find all required data elements in the Guide 8, Data quality, Indicator Element Matrix. *If edits to the ART programme data are required later in the process, you will have to rerun your incidence curve fitting.* </t>
   </si>
   <si>
     <t>check_manual_confirmation('EST-SPE-08-01-A')</t>
@@ -1420,7 +1429,7 @@
     <t>Has the user confirmed that the default values for adult parameters under Advanced Options are updated?</t>
   </si>
   <si>
-    <t>To produce accurate estimates, Spectrum relies on a number of assumptions that are summarized under Advanced Options. These parameters are updated every year as new research and evidence is available on those parameters. For Spectrum on the Desktop update the parameters by selecting Advanced Options &gt; Adult Parameters &gt; Restore defaults. For Spectrum on the web: enter Advanced Options and confirm the default selections for adult parameters. If you see values in red font, the parameters have not been updated. To learn more about the Advanced Options, see the Spectrum training materials.</t>
+    <t>To produce accurate estimates, Spectrum relies on a number of assumptions that are summarized under Advanced Options. These parameters are updated every year as new research and evidence is available on those parameters. For Spectrum on the Desktop update the parameters by selecting Advanced Options &gt; Adult Transition Parameters &gt; Restore all transition default values and exit. For Spectrum on the web: enter Advanced Options and confirm the default selections for adult parameters. If you see values in red font, the parameters have not been updated. To learn more about the Advanced Options, see the Spectrum training materials.</t>
   </si>
   <si>
     <t>Spectrum training materials https://hivtools.unaids.org/hiv-estimates-training-material-en/</t>
@@ -1441,7 +1450,7 @@
     <t>Has the user confirmed that the default values for pediatric parameters under Advanced Options are correct?</t>
   </si>
   <si>
-    <t>To produce accurate estimates, Spectrum relies on a number of assumptions that are summarized under Advanced Options. These parameters are updated every year as new research and evidence is available on those parameters. For Spectrum on the Desktop update the parameters by selecting Advanced Options &gt; Pediatric Parameters &gt; Restore defaults. For Spectrum on the web: enter Advanced Options and confirm the default selections for pediatric parameters. If you see values in red font, the parameters have not been updated. To learn more about the Advanced Options, see the Spectrum training materials.</t>
+    <t>To produce accurate estimates, Spectrum relies on a number of assumptions that are summarized under Advanced Options. These parameters are updated every year as new research and evidence is available on those parameters. For Spectrum on the Desktop update the parameters by selecting Advanced Options &gt; Pediatric Parameters &gt; Restore all transition default values and exit. For Spectrum on the web: enter Advanced Options and confirm the default selections for pediatric parameters. If you see values in red font, the parameters have not been updated. To learn more about the Advanced Options, see the Spectrum training materials.</t>
   </si>
   <si>
     <t>check_manual_confirmation('EST-SPE-13-01-A')</t>
@@ -1534,7 +1543,7 @@
     <t>EPP-01-10</t>
   </si>
   <si>
-    <t>Ensure pediatric and adult ART programme data inputs **have not** changed since you completed the first Spectrum milestone</t>
+    <t>Ensure pediatric and adult ART programme data inputs have not changed since you completed the first Spectrum milestone</t>
   </si>
   <si>
     <r>
@@ -1564,7 +1573,9 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">You should be sure that Spectrum has your best, most up-to-date ART data. *If any underlying ART programme data have changed in your source files since you completed the first portion of Spectrum, you must return to the task in Spectrum where you enter your adult and pediatric ART data and then return to EPP.* </t>
+    <t xml:space="preserve">Congratulations on finishing the first of two Spectrum milestones. Now you will begin the process of estimating HIV incidence using EPP. 
+Before you begin, you should be sure that Spectrum has your best, most up-to-date ART data. 
+*If any underlying ART programme data have changed in your source files since you completed the first portion of Spectrum, you must return to the task in Spectrum where you enter your adult and pediatric ART data and then return to EPP.* </t>
   </si>
   <si>
     <t>check_manual_confirmation('EST-EPP-01-10-A')</t>
@@ -1579,7 +1590,7 @@
     <t>Has the user defined and reviewed the epidemic structure in EPP?</t>
   </si>
   <si>
-    <t xml:space="preserve">EPP requires the country to have a defined epidemic structure. You can see the previoulsy used epidemic structure for your country in Spectrum (Modules&gt;AIM&gt;Incidence&gt;Configuration (EPP)) 
+    <t xml:space="preserve">EPP requires the country to have a defined epidemic structure. You can see the previously used epidemic structure for your country in Spectrum (Modules&gt;AIM&gt;Incidence&gt;Configuration (EPP)). You may have to choose EPP as the preferred option under Incidence &gt; Incidence Options. 
 If all the information is valid, you can choose "Save and continue", which will take you to EPP's "Define Pops" page. If the epidemic structure is not correct, you can set it up according to data availability for your country. Once completed, choose "Save and continue" to proceed to the next step. </t>
   </si>
   <si>
@@ -1933,19 +1944,19 @@
     <t>SPF-03-01</t>
   </si>
   <si>
+    <t>Upload a completed Shiny 90 file to Spectrum or enter KOS estimates in another format</t>
+  </si>
+  <si>
+    <t>User's Spectrum file has updated knowledge of status data in Spectrum for current estimates year [required / optional data elements available in Indicator Element Matrix] by uploading a completed Shiny 90 file?</t>
+  </si>
+  <si>
+    <t>Each of your Spectrum files requires updated knowledge of status data elements for current estimates year using one of available options - Direct Entry of Case Reports, Shiny 90, CSAVR, ECDC, Manual Entry. Most countries will use Shiny 90. If you have used Shiny 90, you must upload your Shiny 90 model outputs (AIM &gt; Program Statistics &gt; Knowledge of Status &gt; Data Source = Shiny 90 &gt; Load Data).</t>
+  </si>
+  <si>
+    <t>check_manual_confirmation('EST-SPF-03-01-A')</t>
+  </si>
+  <si>
     <t>Shiny90Valid,PedKOS_current,MaleKOS_current,FemaleKOS_current</t>
-  </si>
-  <si>
-    <t>Upload a completed Shiny 90 file to Spectrum or enter KOS estimates in another format</t>
-  </si>
-  <si>
-    <t>User's Spectrum file has updated knowledge of status data in Spectrum for current estimates year [required / optional data elements available in Indicator Element Matrix] by uploading a completed Shiny 90 file?</t>
-  </si>
-  <si>
-    <t>Each of your Spectrum files requires updated knowledge of status data elements for current estimates year using one of available options - Direct Entry of Case Reports, Shiny 90, CSAVR, ECDC, Manual Entry. Most countries will use Shiny 90. If you have used Shiny 90, you must upload your Shiny 90 model outputs (AIM &gt; Program Statistics &gt; Knowledge of Status &gt; Data Source = Shiny 90 &gt; Load Data).</t>
-  </si>
-  <si>
-    <t>check_manual_confirmation('EST-SPF-03-01-A')</t>
   </si>
   <si>
     <r>
@@ -2008,9 +2019,6 @@
   </si>
   <si>
     <t>SPF-06-01</t>
-  </si>
-  <si>
-    <t>AdultARTcovLT100,PedARTcovLT100,PMTCTcovLT100</t>
   </si>
   <si>
     <t>Confirm your ART and PMTCT coverage does not exceed 100%</t>
@@ -2049,6 +2057,9 @@
     <t>check_manual_confirmation('EST-SPF-06-01-A')</t>
   </si>
   <si>
+    <t>AdultARTcovLT100,PedARTcovLT100,PMTCTcovLT100</t>
+  </si>
+  <si>
     <t>SPF-07-01</t>
   </si>
   <si>
@@ -2072,9 +2083,6 @@
     <t>SPF-08-01</t>
   </si>
   <si>
-    <t>UAvalid</t>
-  </si>
-  <si>
     <t>Run Uncertainty Analysis</t>
   </si>
   <si>
@@ -2086,6 +2094,9 @@
   </si>
   <si>
     <t>check_manual_confirmation('EST-SPF-08-01-A')</t>
+  </si>
+  <si>
+    <t>UAvalid</t>
   </si>
   <si>
     <t>SPF-09-01</t>
@@ -2216,6 +2227,216 @@
     <t>SPF-13-01</t>
   </si>
   <si>
+    <t xml:space="preserve">Navigator has detected that there is a problem with your Spectrum file. 
+Spectrum requires up-to-date PMTCT programme data for the reporting period. These data are required for each Spectrum file. You can find all required data elements in the Guide 8, Data quality, Indicator Element Matrix. Spectrum also provides specific guidance for each regimen in the PMTCT data entry page. *It is highly recommended you finalize your programme data before beginning the Spectrum process.* If edits to PMTCT programme data are required later in the process, you will have to return to this step. For countries with sub-national Spectrum estimates (optional), this step applies to each file. 
+Please ensure you correct this in your Spectrum file **and then reupload the file to the ADR** in order to complete this task. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t xml:space="preserve">Guide 8, Data quality, Indicator Element Matrix </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF1155CC"/>
+        <sz val="8.0"/>
+        <u/>
+      </rPr>
+      <t>https://hivtools.unaids.org/hiv-estimates-training-material-en/</t>
+    </r>
+  </si>
+  <si>
+    <t>check_spectrum_file(['PMTCT_current'])</t>
+  </si>
+  <si>
+    <t>SPF-14-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigator has detected that there is a problem with your Spectrum file. 
+Spectrum requires up-to-date Adult ART programme data for the reporting period for estimating treatment coverage and for estimating incidence. You should update the ART data before running your incidence curve. Data on the number newly initiated on ART and lost to follow up can improve the precision of some of the outputs from Spectrum. If those data are available be sure to include them. You can find all required data elements in the Guide 8, Data quality, Indicator Element Matrix. If edits to the ART programme data are required later in the process, you will have to rerun your incidence curve fitting. 
+Please ensure you correct this in your Spectrum file **and then reupload the file to the ADR** in order to complete this task. </t>
+  </si>
+  <si>
+    <t>check_spectrum_file(['MaleART_current', 'FemaleART_current'])</t>
+  </si>
+  <si>
+    <t>check_spectrum_file(['MaleART_current', 
+'FemaleART_current'])</t>
+  </si>
+  <si>
+    <t>SPF-15-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigator has detected that there is a problem with your Spectrum file. 
+Spectrum requires up-to-date Pediatric ART programme data for the reporting period. You can find all required data elements in the Guide 8, Data quality, Indicator Element Matrix. It is highly recommended you finalize your programme data before beginning the Spectrum process. If edits to ART programme data are required later in the process, you will have to return to this step. 
+Please ensure you correct this in your Spectrum file **and then reupload the file to the ADR** in order to complete this task. </t>
+  </si>
+  <si>
+    <t>check_spectrum_file(['PedART_current'])</t>
+  </si>
+  <si>
+    <t>SPF-16-01</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t>Spectrum file has</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t xml:space="preserve"> updated viral suppression data in Spectrum for current reporting period [required / optional data elements available in Indicator Element Matrix]?</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigator has detected that there is a problem with your Spectrum file. 
+Spectrum requires up-to-date adult and pediatric viral load suppression programme data for the reporting period. You can find all required data elements in the Guide 8, Data quality, Indicator Element Matrix. It is highly recommended you finalize your programme data before beginning the Spectrum process. Enter the best, most up-to-date viral load suppression data you have for adult female, adult male, and pediatric populations. 
+Please ensure you correct this in your Spectrum file **and then reupload the file to the ADR** in order to complete this task. </t>
+  </si>
+  <si>
+    <t>check_spectrum_file(['PedVS_current', 'MaleVS_current', 'FemaleVS_current'])</t>
+  </si>
+  <si>
+    <t>SPF-17-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigator has detected that there is a problem with your Spectrum file. 
+To produce accurate estimates, Spectrum relies on a number of assumptions that are summarized under Advanced Options. These parameters are updated every year as new research and evidence is available on those parameters. For Spectrum on the Desktop update the parameters by selecting Advanced Options &gt; Adult Parameters &gt; Restore defaults. For Spectrum on the web: enter Advanced Options and confirm the default selections for adult parameters. If you see values in red font, the parameters have not been updated. To learn more about the Advanced Options, see the Spectrum training materials.
+Please ensure you correct this in your Spectrum file **and then reupload the file to the ADR** in order to complete this task. </t>
+  </si>
+  <si>
+    <t>check_spectrum_file(['AdultProgression_default', 'AdultDistNI_default', 'ARTMortNoART_default', 'ARTMortART_default'])</t>
+  </si>
+  <si>
+    <t>SPF-18-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigator has detected that there is a problem with your Spectrum file. 
+To produce accurate estimates, Spectrum relies on a number of assumptions that are summarized under Advanced Options. These parameters are updated every year as new research and evidence is available on those parameters. For Spectrum on the Desktop update the parameters by selecting Advanced Options &gt; Pediatric Parameters &gt; Restore defaults. For Spectrum on the web: enter Advanced Options and confirm the default selections for pediatric parameters. If you see values in red font, the parameters have not been updated. To learn more about the Advanced Options, see the Spectrum training materials.
+Please ensure you correct this in your Spectrum file **and then reupload the file to the ADR** in order to complete this task. </t>
+  </si>
+  <si>
+    <t>check_spectrum_file(['ChildProgression_default', 'ChildDistNI_default', 'ChildMortNoART_default', 'ChildMortART_default'])</t>
+  </si>
+  <si>
+    <t>SPF-19-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigator has detected that there is a problem with your Spectrum file. 
+To produce accurate estimates, Spectrum requires the correct options are selected under Advanced Options. Enter Advanced Options in Spectrum Web and confirm the default selections for the "HIV-related fertility reductions" are correct for your country. They must be confirmed for CD4, on ART, and off ART. To learn more about the Advanced Options, see the Spectrum training materials.
+Please ensure you correct this in your Spectrum file **and then reupload the file to the ADR** in order to complete this task. </t>
+  </si>
+  <si>
+    <t>check_spectrum_file(['FRRCD4_default', 'FRRageNoART_default', 'FRRageART_default'])</t>
+  </si>
+  <si>
+    <t>SPF-20-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigator has detected that there is a problem with your Spectrum file. 
+To produce accurate estimates, Spectrum requires the correct options are selected under Advanced Options. Enter Advanced Options in Spectrum Web and confirm the default selections for the "MTCT Transmission Probabilities" are correct for your country. To learn more about the Advanced Options, see the Spectrum training materials.
+Please ensure you correct this in your Spectrum file **and then reupload the file to the ADR** in order to complete this task. </t>
+  </si>
+  <si>
+    <t>check_spectrum_file(['MTCTtrans_default'])</t>
+  </si>
+  <si>
+    <t>SPF-21-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigator has detected that there is a problem with your Spectrum file. 
+To produce accurate estimates, Spectrum requires the correct options are selected under Advanced Options. Enter Advanced Options in Spectrum Web and confirm the default selection for the "allocation method for new ART patients" is correct for your country. To learn more about the Advanced Options, see the Spectrum training materials. 
+Please ensure you correct this in your Spectrum file **and then reupload the file to the ADR** in order to complete this task. </t>
+  </si>
+  <si>
+    <t>check_spectrum_file(['ARTallocation_default'])</t>
+  </si>
+  <si>
+    <t>SPF-22-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigator has detected that there is a problem with your Spectrum file. 
+Each of your Spectrum files requires updated knowledge of status data elements for current estimates year using one of available options - Direct Entry of Case Reports, Shiny 90, CSAVR, ECDC, Manual Entry. Most countries will use Shiny 90. If you have used Shiny 90, you must upload your Shiny 90 model outputs (AIM &gt; Program Statistics &gt; Knowledge of Status &gt; Data Source = Shiny 90 &gt; Load Data).
+Please ensure you correct this in your Spectrum file **and then reupload the file to the ADR** in order to complete this task. </t>
+  </si>
+  <si>
+    <t>check_spectrum_file(['Shiny90Valid', 'PedKOS_current', 'MaleKOS_current', 'FemaleKOS_current'])</t>
+  </si>
+  <si>
+    <t>SPF-23-01</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t xml:space="preserve">Coverages for adult and pediatric ART and PMTCT do </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="8.0"/>
+        <u/>
+      </rPr>
+      <t>not</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t xml:space="preserve"> exceed 100%? </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigator has detected that there is a problem with your Spectrum file. 
+Occasionally, Spectrum will produce coverage of over 100% for ART or PMTCT services. There are multiple causes for coverage results over 100%. UNAIDS recommends consulting your estimates facilitator and/or UNAIDS to determine how to address coverage issues in your model results. 
+Please ensure you correct this in your Spectrum file **and then reupload the file to the ADR** in order to complete this task. </t>
+  </si>
+  <si>
+    <t>check_spectrum_file(['AdultARTcovLT100', 'PedARTcovLT100', 'PMTCTcovLT100'])</t>
+  </si>
+  <si>
+    <t>SPF-24-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navigator has detected that there is a problem with your Spectrum file. 
+The uncertainty associated with each result can be estimated using the Uncertainty Analysis tool. Access this tool by choosing ‘Tools’ from the top horizontal menu, then ‘More Tools’, then ‘Uncertainty analysis’. 
+Set the ‘Aggregate data capture year’ to the final year of data and the ‘Number of iterations’ to 300, then click the ‘Process’ button. The model will run 300 simulations by choosing values for the epidemiological parameters from within their confidence intervals. This analysis may take 10-30 minutes. When it is complete, click the ‘Save’ button. After running this analysis you will see uncertainty intervals on all the outputs (as long as you only have one projection open in Spectrum). 
+Please ensure you correct this in your Spectrum file **and then reupload the file to the ADR** in order to complete this task. </t>
+  </si>
+  <si>
+    <t>check_spectrum_file(['UAvalid'])</t>
+  </si>
+  <si>
+    <t>SPF-25-CK</t>
+  </si>
+  <si>
+    <t>Are SPF-13-01, SPF-14-01, SPF-15-01, SPF-16-01, SPF-17-01, SPF-18-01, SPF-19-01, SPF-20-01, SPF-21-01, SPF-22-01, SPF-23-01, SPF-24-01 complete?</t>
+  </si>
+  <si>
+    <t>check_not_skipped(['EST-SPF-13-01-A', 'EST-SPF-14-01-A', 'EST-SPF-15-01-A', 'EST-SPF-16-01-A', 'EST-SPF-17-01-A', 'EST-SPF-18-01-A', 'EST-SPF-19-01-A', 'EST-SPF-20-01-A', 'EST-SPF-21-01-A', 'EST-SPF-22-01-A', 'EST-SPF-23-01-A', 'EST-SPF-24-01-A' ])</t>
+  </si>
+  <si>
+    <t>SPF-26-01</t>
+  </si>
+  <si>
     <t>Alert UNAIDS that your Spectrum file is ready for review</t>
   </si>
   <si>
@@ -2225,14 +2446,14 @@
     <t>Congratulations on reaching this point in the estimates process! Please alert your UNAIDS focal point that the file is ready for review and is availble on ADR.</t>
   </si>
   <si>
-    <t>check_manual_confirmation('EST-SPF-13-01-A')</t>
+    <t>check_manual_confirmation('EST-SPF-26-01-A')</t>
   </si>
   <si>
     <t>S4: Are results shared with UNAIDS now or after Naomi in case of sub-national estimates?
 MM: Should be before but often a fluid process.</t>
   </si>
   <si>
-    <t>SPF-14-01</t>
+    <t>SPF-27-01</t>
   </si>
   <si>
     <t>Determine if you will produce district-level estimates</t>
@@ -2244,7 +2465,7 @@
     <t xml:space="preserve">If you are not producing district-level estimates, congratulations, you have completed the estimates process. You may now use your results for other needs such as the PEPFAR data pack, DMPPT, national reporting, or other needs. </t>
   </si>
   <si>
-    <t>check_manual_confirmation('EST-SPF-14-01-A')</t>
+    <t>check_manual_confirmation('EST-SPF-27-01-A')</t>
   </si>
   <si>
     <t>Generate District HIV Estimates Using Naomi</t>
@@ -2625,10 +2846,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="8.0"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <u/>
       <sz val="8.0"/>
       <color rgb="FF000000"/>
@@ -2676,6 +2893,10 @@
     <font>
       <sz val="10.0"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -2729,7 +2950,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -2841,11 +3062,19 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="121">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2873,7 +3102,7 @@
     <xf borderId="3" fillId="0" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -2890,14 +3119,14 @@
     <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
@@ -2979,9 +3208,6 @@
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
     <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -2998,13 +3224,13 @@
     <xf borderId="5" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="right" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="4" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3013,7 +3239,7 @@
     <xf borderId="5" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -3037,12 +3263,12 @@
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="6" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="6" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -3052,20 +3278,20 @@
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="6" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="6" fontId="17" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -3076,7 +3302,7 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="10" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
@@ -3100,11 +3326,11 @@
     <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -3113,22 +3339,35 @@
     <xf borderId="10" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="7" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="8" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="12" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="8" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="1" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="6" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="8" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -3571,7 +3810,7 @@
       <c r="A6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="20" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -3580,7 +3819,7 @@
       <c r="D6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="20"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="17">
         <v>1.0</v>
       </c>
@@ -3608,20 +3847,20 @@
       <c r="A7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
       <c r="F7" s="17">
         <v>1.0</v>
       </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -3647,14 +3886,14 @@
       <c r="C8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
       <c r="F8" s="17">
         <v>1.0</v>
       </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -3674,20 +3913,20 @@
       <c r="A9" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="24" t="s">
+      <c r="B9" s="14" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
       <c r="F9" s="17">
         <v>0.0</v>
       </c>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -3707,20 +3946,20 @@
       <c r="A10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
       <c r="F10" s="17">
         <v>1.0</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -3740,20 +3979,20 @@
       <c r="A11" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="17">
         <v>1.0</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -3773,18 +4012,18 @@
       <c r="A12" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="17">
         <v>1.0</v>
       </c>
-      <c r="G12" s="22"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="25"/>
       <c r="I12" s="7"/>
       <c r="K12" s="6"/>
@@ -3806,18 +4045,18 @@
       <c r="A13" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="20" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="17">
         <v>1.0</v>
       </c>
-      <c r="G13" s="22"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="26"/>
       <c r="I13" s="7"/>
       <c r="K13" s="6"/>
@@ -3839,14 +4078,14 @@
       <c r="A14" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="20" t="s">
         <v>50</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="17">
         <v>1.0</v>
       </c>
@@ -11691,35 +11930,35 @@
       <c r="C6" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="56" t="s">
         <v>125</v>
       </c>
       <c r="E6" s="39"/>
       <c r="F6" s="41"/>
-      <c r="G6" s="58"/>
+      <c r="G6" s="57"/>
       <c r="H6" s="19"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="60"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="60"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="59"/>
+      <c r="N6" s="59"/>
+      <c r="O6" s="59"/>
+      <c r="P6" s="59"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
+      <c r="V6" s="59"/>
+      <c r="W6" s="59"/>
+      <c r="X6" s="59"/>
+      <c r="Y6" s="59"/>
     </row>
     <row r="7" ht="12.0" customHeight="1">
-      <c r="A7" s="61" t="s">
+      <c r="A7" s="60" t="s">
         <v>127</v>
       </c>
       <c r="B7" s="39" t="s">
@@ -11735,30 +11974,30 @@
       <c r="F7" s="41">
         <v>1.0</v>
       </c>
-      <c r="G7" s="58"/>
+      <c r="G7" s="57"/>
       <c r="H7" s="19"/>
       <c r="I7" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="60"/>
-      <c r="P7" s="60"/>
-      <c r="Q7" s="60"/>
-      <c r="R7" s="60"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="60"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="60"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="59"/>
+      <c r="N7" s="59"/>
+      <c r="O7" s="59"/>
+      <c r="P7" s="59"/>
+      <c r="Q7" s="59"/>
+      <c r="R7" s="59"/>
+      <c r="S7" s="59"/>
+      <c r="T7" s="59"/>
+      <c r="U7" s="59"/>
+      <c r="V7" s="59"/>
+      <c r="W7" s="59"/>
+      <c r="X7" s="59"/>
+      <c r="Y7" s="59"/>
     </row>
     <row r="8" ht="128.25" customHeight="1">
-      <c r="A8" s="61" t="s">
+      <c r="A8" s="60" t="s">
         <v>132</v>
       </c>
       <c r="B8" s="39" t="s">
@@ -11799,7 +12038,7 @@
       <c r="Y8" s="6"/>
     </row>
     <row r="9" ht="99.75" customHeight="1">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="60" t="s">
         <v>138</v>
       </c>
       <c r="B9" s="39" t="s">
@@ -11840,25 +12079,25 @@
       <c r="Y9" s="6"/>
     </row>
     <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" s="62" t="s">
+      <c r="A10" s="61" t="s">
         <v>144</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="62" t="s">
         <v>145</v>
       </c>
-      <c r="C10" s="63" t="s">
+      <c r="C10" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="63" t="s">
+      <c r="D10" s="62" t="s">
         <v>147</v>
       </c>
-      <c r="E10" s="64" t="s">
+      <c r="E10" s="63" t="s">
         <v>148</v>
       </c>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="68" t="s">
+      <c r="F10" s="64"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="67" t="s">
         <v>149</v>
       </c>
       <c r="J10" s="6"/>
@@ -11879,7 +12118,7 @@
       <c r="Y10" s="6"/>
     </row>
     <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="60" t="s">
         <v>150</v>
       </c>
       <c r="B11" s="39" t="s">
@@ -11902,21 +12141,21 @@
       <c r="I11" s="19" t="s">
         <v>155</v>
       </c>
-      <c r="J11" s="69"/>
-      <c r="K11" s="69"/>
-      <c r="L11" s="69"/>
-      <c r="M11" s="69"/>
-      <c r="N11" s="69"/>
-      <c r="O11" s="69"/>
-      <c r="P11" s="69"/>
-      <c r="Q11" s="69"/>
-      <c r="R11" s="69"/>
-      <c r="S11" s="69"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="69"/>
-      <c r="V11" s="69"/>
-      <c r="W11" s="69"/>
-      <c r="X11" s="69"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+      <c r="L11" s="68"/>
+      <c r="M11" s="68"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="68"/>
+      <c r="P11" s="68"/>
+      <c r="Q11" s="68"/>
+      <c r="R11" s="68"/>
+      <c r="S11" s="68"/>
+      <c r="T11" s="68"/>
+      <c r="U11" s="68"/>
+      <c r="V11" s="68"/>
+      <c r="W11" s="68"/>
+      <c r="X11" s="68"/>
     </row>
     <row r="12" ht="12.0" customHeight="1"/>
     <row r="13" ht="12.0" customHeight="1"/>
@@ -12946,7 +13185,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
@@ -13016,23 +13255,23 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="70" t="s">
         <v>159</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="72" t="s">
+      <c r="B5" s="70"/>
+      <c r="C5" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
-      <c r="F5" s="73">
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="72">
         <v>1.0</v>
       </c>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="H5" s="75"/>
-      <c r="I5" s="76" t="s">
+      <c r="H5" s="74"/>
+      <c r="I5" s="75" t="s">
         <v>162</v>
       </c>
     </row>
@@ -13052,10 +13291,10 @@
       <c r="E6" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="F6" s="77">
+      <c r="F6" s="76">
         <v>1.0</v>
       </c>
-      <c r="G6" s="78"/>
+      <c r="G6" s="77"/>
       <c r="H6" s="15"/>
       <c r="I6" s="16" t="s">
         <v>168</v>
@@ -13075,10 +13314,10 @@
         <v>172</v>
       </c>
       <c r="E7" s="15"/>
-      <c r="F7" s="77">
+      <c r="F7" s="76">
         <v>1.0</v>
       </c>
-      <c r="G7" s="78"/>
+      <c r="G7" s="77"/>
       <c r="H7" s="15"/>
       <c r="I7" s="16" t="s">
         <v>173</v>
@@ -13098,10 +13337,10 @@
         <v>177</v>
       </c>
       <c r="E8" s="19"/>
-      <c r="F8" s="77">
+      <c r="F8" s="76">
         <v>1.0</v>
       </c>
-      <c r="G8" s="78"/>
+      <c r="G8" s="77"/>
       <c r="H8" s="15"/>
       <c r="I8" s="16" t="s">
         <v>178</v>
@@ -13121,10 +13360,10 @@
         <v>182</v>
       </c>
       <c r="E9" s="39"/>
-      <c r="F9" s="77">
+      <c r="F9" s="76">
         <v>1.0</v>
       </c>
-      <c r="G9" s="78"/>
+      <c r="G9" s="77"/>
       <c r="H9" s="15"/>
       <c r="I9" s="16" t="s">
         <v>183</v>
@@ -13144,11 +13383,11 @@
         <v>187</v>
       </c>
       <c r="E10" s="39"/>
-      <c r="F10" s="78">
+      <c r="F10" s="77">
         <v>1.0</v>
       </c>
-      <c r="G10" s="79"/>
-      <c r="H10" s="22"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="23"/>
       <c r="I10" s="16" t="s">
         <v>188</v>
       </c>
@@ -14254,7 +14493,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
@@ -14287,31 +14526,31 @@
     </row>
     <row r="3" ht="12.0" customHeight="1"/>
     <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="81" t="s">
+      <c r="B4" s="80" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="80" t="s">
+      <c r="F4" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="80" t="s">
+      <c r="G4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="80" t="s">
+      <c r="H4" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="83" t="s">
+      <c r="I4" s="82" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="36" t="s">
@@ -14322,17 +14561,17 @@
       <c r="A5" s="15" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="84"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="15" t="s">
         <v>194</v>
       </c>
       <c r="D5" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="E5" s="85" t="s">
+      <c r="E5" s="84" t="s">
         <v>196</v>
       </c>
-      <c r="F5" s="86" t="s">
+      <c r="F5" s="85" t="s">
         <v>197</v>
       </c>
       <c r="G5" s="15"/>
@@ -14348,14 +14587,14 @@
       <c r="A6" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="B6" s="84"/>
+      <c r="B6" s="83"/>
       <c r="C6" s="15" t="s">
         <v>201</v>
       </c>
       <c r="D6" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="E6" s="87" t="s">
+      <c r="E6" s="86" t="s">
         <v>203</v>
       </c>
       <c r="F6" s="15" t="s">
@@ -14364,7 +14603,7 @@
       <c r="G6" s="15">
         <v>1.0</v>
       </c>
-      <c r="H6" s="20"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="15"/>
       <c r="J6" s="16" t="s">
         <v>205</v>
@@ -14374,14 +14613,14 @@
       <c r="A7" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="B7" s="88"/>
+      <c r="B7" s="87"/>
       <c r="C7" s="15" t="s">
         <v>207</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="E7" s="85" t="s">
+      <c r="E7" s="84" t="s">
         <v>209</v>
       </c>
       <c r="F7" s="15"/>
@@ -14398,14 +14637,14 @@
       <c r="A8" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="B8" s="84"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="15" t="s">
         <v>212</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="E8" s="85" t="s">
+      <c r="E8" s="84" t="s">
         <v>214</v>
       </c>
       <c r="F8" s="15"/>
@@ -14422,7 +14661,7 @@
       <c r="A9" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="87" t="s">
         <v>218</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -14431,10 +14670,10 @@
       <c r="D9" s="15" t="s">
         <v>220</v>
       </c>
-      <c r="E9" s="85" t="s">
+      <c r="E9" s="84" t="s">
         <v>221</v>
       </c>
-      <c r="F9" s="86" t="s">
+      <c r="F9" s="85" t="s">
         <v>222</v>
       </c>
       <c r="G9" s="15"/>
@@ -14448,22 +14687,22 @@
       <c r="A10" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="B10" s="88"/>
+      <c r="B10" s="87"/>
       <c r="C10" s="15" t="s">
         <v>225</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="E10" s="87" t="s">
+      <c r="E10" s="84" t="s">
         <v>227</v>
       </c>
-      <c r="F10" s="89"/>
+      <c r="F10" s="88"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="61" t="s">
+      <c r="H10" s="60" t="s">
         <v>228</v>
       </c>
-      <c r="I10" s="22"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="16" t="s">
         <v>229</v>
       </c>
@@ -14472,22 +14711,22 @@
       <c r="A11" s="15" t="s">
         <v>230</v>
       </c>
-      <c r="B11" s="88"/>
+      <c r="B11" s="87"/>
       <c r="C11" s="15" t="s">
         <v>231</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="E11" s="87" t="s">
+      <c r="E11" s="84" t="s">
         <v>233</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>234</v>
       </c>
       <c r="G11" s="15"/>
-      <c r="H11" s="90"/>
-      <c r="I11" s="20"/>
+      <c r="H11" s="89"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="16" t="s">
         <v>235</v>
       </c>
@@ -14496,7 +14735,7 @@
       <c r="A12" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="83" t="s">
         <v>237</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -14505,14 +14744,14 @@
       <c r="D12" s="15" t="s">
         <v>239</v>
       </c>
-      <c r="E12" s="87" t="s">
+      <c r="E12" s="84" t="s">
         <v>240</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>234</v>
       </c>
       <c r="G12" s="15"/>
-      <c r="H12" s="61"/>
+      <c r="H12" s="60"/>
       <c r="I12" s="15"/>
       <c r="J12" s="16" t="s">
         <v>241</v>
@@ -14522,19 +14761,19 @@
       <c r="A13" s="15" t="s">
         <v>242</v>
       </c>
-      <c r="B13" s="91"/>
+      <c r="B13" s="90"/>
       <c r="C13" s="15" t="s">
         <v>243</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>244</v>
       </c>
-      <c r="E13" s="87" t="s">
+      <c r="E13" s="86" t="s">
         <v>245</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="61" t="s">
+      <c r="H13" s="60" t="s">
         <v>246</v>
       </c>
       <c r="I13" s="15"/>
@@ -14546,7 +14785,7 @@
       <c r="A14" s="15" t="s">
         <v>248</v>
       </c>
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="87" t="s">
         <v>249</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -14555,14 +14794,14 @@
       <c r="D14" s="15" t="s">
         <v>251</v>
       </c>
-      <c r="E14" s="87" t="s">
+      <c r="E14" s="86" t="s">
         <v>252</v>
       </c>
       <c r="F14" s="15" t="s">
         <v>234</v>
       </c>
       <c r="G14" s="15"/>
-      <c r="H14" s="61"/>
+      <c r="H14" s="60"/>
       <c r="I14" s="15"/>
       <c r="J14" s="16" t="s">
         <v>253</v>
@@ -14572,7 +14811,7 @@
       <c r="A15" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="87" t="s">
         <v>255</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -14581,7 +14820,7 @@
       <c r="D15" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="E15" s="87" t="s">
+      <c r="E15" s="86" t="s">
         <v>258</v>
       </c>
       <c r="F15" s="15"/>
@@ -14595,24 +14834,24 @@
       </c>
     </row>
     <row r="16" ht="12.0" customHeight="1">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="74" t="s">
         <v>261</v>
       </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75" t="s">
+      <c r="B16" s="87"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="74" t="s">
         <v>262</v>
       </c>
-      <c r="E16" s="92"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75">
+      <c r="E16" s="91"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="74">
         <v>1.0</v>
       </c>
-      <c r="H16" s="93" t="s">
+      <c r="H16" s="92" t="s">
         <v>263</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="76" t="s">
+      <c r="I16" s="23"/>
+      <c r="J16" s="75" t="s">
         <v>264</v>
       </c>
     </row>
@@ -14620,23 +14859,23 @@
       <c r="A17" s="15" t="s">
         <v>265</v>
       </c>
-      <c r="B17" s="88" t="s">
+      <c r="B17" s="87" t="s">
         <v>266</v>
       </c>
-      <c r="C17" s="94" t="s">
+      <c r="C17" s="93" t="s">
         <v>267</v>
       </c>
-      <c r="D17" s="94" t="s">
+      <c r="D17" s="93" t="s">
         <v>268</v>
       </c>
-      <c r="E17" s="95" t="s">
+      <c r="E17" s="94" t="s">
         <v>269</v>
       </c>
-      <c r="F17" s="96" t="s">
+      <c r="F17" s="95" t="s">
         <v>270</v>
       </c>
-      <c r="G17" s="94"/>
-      <c r="H17" s="97"/>
+      <c r="G17" s="93"/>
+      <c r="H17" s="96"/>
       <c r="I17" s="15"/>
       <c r="J17" s="16" t="s">
         <v>271</v>
@@ -14646,23 +14885,23 @@
       <c r="A18" s="15" t="s">
         <v>272</v>
       </c>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="87" t="s">
         <v>273</v>
       </c>
-      <c r="C18" s="94" t="s">
+      <c r="C18" s="93" t="s">
         <v>274</v>
       </c>
-      <c r="D18" s="94" t="s">
+      <c r="D18" s="93" t="s">
         <v>275</v>
       </c>
-      <c r="E18" s="95" t="s">
+      <c r="E18" s="94" t="s">
         <v>276</v>
       </c>
-      <c r="F18" s="96" t="s">
+      <c r="F18" s="95" t="s">
         <v>270</v>
       </c>
-      <c r="G18" s="94"/>
-      <c r="H18" s="97"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="96"/>
       <c r="I18" s="15"/>
       <c r="J18" s="16" t="s">
         <v>277</v>
@@ -14672,7 +14911,7 @@
       <c r="A19" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="87" t="s">
         <v>279</v>
       </c>
       <c r="C19" s="15" t="s">
@@ -14681,14 +14920,14 @@
       <c r="D19" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="E19" s="87" t="s">
+      <c r="E19" s="86" t="s">
         <v>282</v>
       </c>
-      <c r="F19" s="98" t="s">
+      <c r="F19" s="97" t="s">
         <v>270</v>
       </c>
       <c r="G19" s="15"/>
-      <c r="H19" s="90"/>
+      <c r="H19" s="89"/>
       <c r="I19" s="15"/>
       <c r="J19" s="16" t="s">
         <v>283</v>
@@ -14698,7 +14937,7 @@
       <c r="A20" s="15" t="s">
         <v>284</v>
       </c>
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="87" t="s">
         <v>285</v>
       </c>
       <c r="C20" s="15" t="s">
@@ -14707,14 +14946,14 @@
       <c r="D20" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="E20" s="87" t="s">
+      <c r="E20" s="86" t="s">
         <v>288</v>
       </c>
-      <c r="F20" s="98" t="s">
+      <c r="F20" s="97" t="s">
         <v>289</v>
       </c>
       <c r="G20" s="15"/>
-      <c r="H20" s="90"/>
+      <c r="H20" s="89"/>
       <c r="I20" s="15"/>
       <c r="J20" s="16" t="s">
         <v>290</v>
@@ -14724,7 +14963,7 @@
       <c r="A21" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="87" t="s">
         <v>292</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -14733,38 +14972,38 @@
       <c r="D21" s="15" t="s">
         <v>294</v>
       </c>
-      <c r="E21" s="87" t="s">
+      <c r="E21" s="86" t="s">
         <v>295</v>
       </c>
-      <c r="F21" s="98" t="s">
+      <c r="F21" s="97" t="s">
         <v>270</v>
       </c>
       <c r="G21" s="15"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="22"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="16" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="22" ht="12.0" customHeight="1">
-      <c r="A22" s="75" t="s">
+      <c r="A22" s="74" t="s">
         <v>297</v>
       </c>
-      <c r="B22" s="99"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75" t="s">
+      <c r="B22" s="98"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74" t="s">
         <v>298</v>
       </c>
-      <c r="E22" s="92"/>
-      <c r="F22" s="100"/>
-      <c r="G22" s="101">
+      <c r="E22" s="91"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="100">
         <v>1.0</v>
       </c>
-      <c r="H22" s="93" t="s">
+      <c r="H22" s="92" t="s">
         <v>299</v>
       </c>
       <c r="I22" s="15"/>
-      <c r="J22" s="76" t="s">
+      <c r="J22" s="75" t="s">
         <v>300</v>
       </c>
     </row>
@@ -15836,7 +16075,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
@@ -15852,14 +16091,14 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="101" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="102" t="s">
         <v>302</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="103" t="s">
+      <c r="D2" s="102" t="s">
         <v>303</v>
       </c>
       <c r="E2" s="3"/>
@@ -15869,25 +16108,25 @@
     </row>
     <row r="3" ht="14.25" customHeight="1"/>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="80" t="s">
+      <c r="E4" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="80" t="s">
+      <c r="F4" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="80" t="s">
+      <c r="G4" s="79" t="s">
         <v>304</v>
       </c>
       <c r="H4" s="53" t="s">
@@ -15904,19 +16143,19 @@
       <c r="A5" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>307</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>309</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="61"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="60"/>
       <c r="I5" s="15"/>
       <c r="J5" s="16" t="s">
         <v>310</v>
@@ -15932,12 +16171,12 @@
       <c r="C6" s="15" t="s">
         <v>313</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="16" t="s">
         <v>314</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="87" t="s">
+      <c r="G6" s="86" t="s">
         <v>315</v>
       </c>
       <c r="H6" s="15"/>
@@ -15961,7 +16200,7 @@
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="87" t="s">
+      <c r="G7" s="86" t="s">
         <v>315</v>
       </c>
       <c r="H7" s="15"/>
@@ -15987,7 +16226,7 @@
       <c r="F8" s="15">
         <v>1.0</v>
       </c>
-      <c r="G8" s="87"/>
+      <c r="G8" s="86"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="16" t="s">
@@ -16007,17 +16246,17 @@
       <c r="D9" s="15" t="s">
         <v>330</v>
       </c>
-      <c r="E9" s="104" t="s">
+      <c r="E9" s="103" t="s">
         <v>331</v>
       </c>
       <c r="F9" s="15">
         <v>1.0</v>
       </c>
-      <c r="G9" s="87" t="s">
+      <c r="G9" s="86" t="s">
         <v>332</v>
       </c>
       <c r="H9" s="15"/>
-      <c r="I9" s="22"/>
+      <c r="I9" s="23"/>
       <c r="J9" s="16" t="s">
         <v>333</v>
       </c>
@@ -16045,22 +16284,22 @@
       <c r="J10" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
-      <c r="O10" s="69"/>
-      <c r="P10" s="69"/>
-      <c r="Q10" s="69"/>
-      <c r="R10" s="69"/>
-      <c r="S10" s="69"/>
-      <c r="T10" s="69"/>
-      <c r="U10" s="69"/>
-      <c r="V10" s="69"/>
-      <c r="W10" s="69"/>
-      <c r="X10" s="69"/>
-      <c r="Y10" s="69"/>
-      <c r="Z10" s="69"/>
+      <c r="K10" s="68"/>
+      <c r="L10" s="68"/>
+      <c r="M10" s="68"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="68"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="68"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="68"/>
+      <c r="V10" s="68"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="68"/>
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="68"/>
     </row>
     <row r="11" ht="14.25" customHeight="1"/>
     <row r="12" ht="14.25" customHeight="1"/>
@@ -17091,7 +17330,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
@@ -17123,25 +17362,25 @@
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="J3" s="105"/>
+      <c r="J3" s="104"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="80" t="s">
+      <c r="E4" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="80" t="s">
+      <c r="F4" s="79" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="36" t="s">
@@ -17150,7 +17389,7 @@
       <c r="H4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="80" t="s">
+      <c r="I4" s="79" t="s">
         <v>304</v>
       </c>
       <c r="J4" s="53" t="s">
@@ -17164,20 +17403,20 @@
       <c r="B5" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C5" s="60" t="s">
         <v>344</v>
       </c>
-      <c r="D5" s="61" t="s">
+      <c r="D5" s="60" t="s">
         <v>345</v>
       </c>
-      <c r="E5" s="90"/>
+      <c r="E5" s="89"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="I5" s="106"/>
-      <c r="J5" s="61"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="60"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="15" t="s">
@@ -17202,28 +17441,28 @@
       <c r="H6" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="I6" s="87"/>
+      <c r="I6" s="86"/>
       <c r="J6" s="15"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="107" t="s">
+      <c r="A7" s="106" t="s">
         <v>353</v>
       </c>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107" t="s">
+      <c r="B7" s="106"/>
+      <c r="C7" s="106" t="s">
         <v>354</v>
       </c>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="107"/>
-      <c r="H7" s="76" t="s">
+      <c r="D7" s="106"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="75" t="s">
         <v>355</v>
       </c>
-      <c r="I7" s="108" t="s">
+      <c r="I7" s="107" t="s">
         <v>356</v>
       </c>
-      <c r="J7" s="109"/>
+      <c r="J7" s="108"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="15" t="s">
@@ -17246,8 +17485,8 @@
       <c r="H8" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="I8" s="87"/>
-      <c r="J8" s="110"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="109"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="15" t="s">
@@ -17268,8 +17507,8 @@
       <c r="H9" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="I9" s="87"/>
-      <c r="J9" s="110"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="109"/>
     </row>
     <row r="10" ht="115.5" customHeight="1">
       <c r="A10" s="15" t="s">
@@ -17292,10 +17531,10 @@
       <c r="H10" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="I10" s="87" t="s">
+      <c r="I10" s="86" t="s">
         <v>372</v>
       </c>
-      <c r="J10" s="110"/>
+      <c r="J10" s="109"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="15" t="s">
@@ -17316,8 +17555,8 @@
       <c r="H11" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="I11" s="87"/>
-      <c r="J11" s="110"/>
+      <c r="I11" s="86"/>
+      <c r="J11" s="109"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="15" t="s">
@@ -17340,10 +17579,10 @@
       <c r="H12" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="I12" s="87" t="s">
+      <c r="I12" s="86" t="s">
         <v>383</v>
       </c>
-      <c r="J12" s="110"/>
+      <c r="J12" s="109"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="15" t="s">
@@ -17364,8 +17603,8 @@
       <c r="H13" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="I13" s="87"/>
-      <c r="J13" s="110"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="109"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="15" t="s">
@@ -17388,8 +17627,8 @@
       <c r="H14" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="I14" s="87"/>
-      <c r="J14" s="110"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="109"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="15" t="s">
@@ -17410,8 +17649,8 @@
       <c r="H15" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="I15" s="87"/>
-      <c r="J15" s="110"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="109"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="C16" s="27"/>
@@ -18435,34 +18674,34 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="19.43"/>
-    <col customWidth="1" min="2" max="2" width="28.86"/>
-    <col customWidth="1" min="3" max="3" width="10.86"/>
-    <col customWidth="1" min="4" max="4" width="17.43"/>
-    <col customWidth="1" min="5" max="5" width="17.0"/>
-    <col customWidth="1" min="6" max="6" width="46.86"/>
-    <col customWidth="1" min="7" max="8" width="11.29"/>
-    <col customWidth="1" min="9" max="9" width="21.43"/>
+    <col customWidth="1" min="2" max="2" width="28.29"/>
+    <col customWidth="1" min="3" max="3" width="29.43"/>
+    <col customWidth="1" min="4" max="4" width="50.71"/>
+    <col customWidth="1" min="5" max="5" width="46.86"/>
+    <col customWidth="1" min="6" max="7" width="11.29"/>
+    <col customWidth="1" min="8" max="8" width="21.43"/>
+    <col customWidth="1" min="9" max="9" width="28.86"/>
     <col customWidth="1" min="10" max="10" width="27.43"/>
-    <col customWidth="1" min="11" max="11" width="23.71"/>
+    <col customWidth="1" min="11" max="11" width="37.29"/>
     <col customWidth="1" min="12" max="12" width="11.43"/>
     <col customWidth="1" min="13" max="13" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="110" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="111"/>
       <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="49"/>
-      <c r="F1" s="29" t="s">
+      <c r="E1" s="29" t="s">
         <v>3</v>
       </c>
+      <c r="I1" s="42"/>
     </row>
     <row r="2" ht="75.0" customHeight="1">
       <c r="A2" s="32" t="s">
@@ -18471,45 +18710,47 @@
       <c r="B2" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="111"/>
       <c r="D2" s="8" t="s">
         <v>401</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="32">
+      <c r="E2" s="32">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1"/>
+      <c r="I2" s="42"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1">
+      <c r="I3" s="42"/>
+    </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="79" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="79" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="79" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="79" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="112" t="s">
         <v>192</v>
       </c>
-      <c r="C4" s="80" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="80" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="80" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="80" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="80" t="s">
+      <c r="J4" s="79" t="s">
         <v>17</v>
       </c>
       <c r="K4" s="53" t="s">
@@ -18520,22 +18761,22 @@
       <c r="A5" s="15" t="s">
         <v>402</v>
       </c>
-      <c r="B5" s="113"/>
+      <c r="B5" s="15" t="s">
+        <v>403</v>
+      </c>
       <c r="C5" s="15" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="E5" s="15" t="s">
         <v>405</v>
       </c>
+      <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="16" t="s">
+      <c r="H5" s="16" t="s">
         <v>406</v>
       </c>
+      <c r="I5" s="113"/>
       <c r="J5" s="15" t="s">
         <v>407</v>
       </c>
@@ -18545,22 +18786,22 @@
       <c r="A6" s="15" t="s">
         <v>408</v>
       </c>
-      <c r="B6" s="113"/>
+      <c r="B6" s="15" t="s">
+        <v>409</v>
+      </c>
       <c r="C6" s="15" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="E6" s="15" t="s">
         <v>411</v>
       </c>
+      <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="16" t="s">
+      <c r="H6" s="16" t="s">
         <v>412</v>
       </c>
+      <c r="I6" s="113"/>
       <c r="J6" s="15" t="s">
         <v>413</v>
       </c>
@@ -18570,7 +18811,7 @@
       <c r="A7" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="B7" s="113" t="s">
+      <c r="B7" s="15" t="s">
         <v>415</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -18579,15 +18820,15 @@
       <c r="D7" s="15" t="s">
         <v>417</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="15"/>
+      <c r="F7" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16" t="s">
         <v>418</v>
       </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="113" t="s">
         <v>419</v>
       </c>
       <c r="J7" s="15" t="s">
@@ -18602,24 +18843,24 @@
       <c r="A8" s="15" t="s">
         <v>422</v>
       </c>
-      <c r="B8" s="113"/>
+      <c r="B8" s="15" t="s">
+        <v>423</v>
+      </c>
       <c r="C8" s="15" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="E8" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15">
+      <c r="E8" s="15"/>
+      <c r="F8" s="15">
         <v>1.0</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="16" t="s">
+      <c r="G8" s="15"/>
+      <c r="H8" s="16" t="s">
         <v>426</v>
       </c>
+      <c r="I8" s="113"/>
       <c r="J8" s="15" t="s">
         <v>427</v>
       </c>
@@ -18629,24 +18870,24 @@
       <c r="A9" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="B9" s="113"/>
+      <c r="B9" s="15" t="s">
+        <v>429</v>
+      </c>
       <c r="C9" s="15" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>430</v>
-      </c>
-      <c r="E9" s="15" t="s">
         <v>431</v>
       </c>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15">
+      <c r="E9" s="15"/>
+      <c r="F9" s="15">
         <v>1.0</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="16" t="s">
+      <c r="G9" s="15"/>
+      <c r="H9" s="16" t="s">
         <v>432</v>
       </c>
+      <c r="I9" s="113"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
     </row>
@@ -18654,7 +18895,7 @@
       <c r="A10" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="B10" s="113" t="s">
+      <c r="B10" s="15" t="s">
         <v>434</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -18663,15 +18904,15 @@
       <c r="D10" s="15" t="s">
         <v>436</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="89"/>
+      <c r="F10" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="16" t="s">
         <v>437</v>
       </c>
-      <c r="F10" s="90"/>
-      <c r="G10" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="16" t="s">
+      <c r="I10" s="113" t="s">
         <v>438</v>
       </c>
       <c r="J10" s="15"/>
@@ -18681,22 +18922,22 @@
       <c r="A11" s="15" t="s">
         <v>439</v>
       </c>
-      <c r="B11" s="113"/>
+      <c r="B11" s="15" t="s">
+        <v>440</v>
+      </c>
       <c r="C11" s="15" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="E11" s="15" t="s">
         <v>442</v>
       </c>
+      <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="16" t="s">
+      <c r="H11" s="16" t="s">
         <v>443</v>
       </c>
+      <c r="I11" s="113"/>
       <c r="J11" s="15" t="s">
         <v>444</v>
       </c>
@@ -18706,7 +18947,7 @@
       <c r="A12" s="15" t="s">
         <v>445</v>
       </c>
-      <c r="B12" s="113" t="s">
+      <c r="B12" s="15" t="s">
         <v>446</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -18715,15 +18956,15 @@
       <c r="D12" s="15" t="s">
         <v>448</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="15"/>
+      <c r="F12" s="15">
+        <v>1.0</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="16" t="s">
+      <c r="I12" s="113" t="s">
         <v>450</v>
       </c>
       <c r="J12" s="15"/>
@@ -18733,22 +18974,22 @@
       <c r="A13" s="15" t="s">
         <v>451</v>
       </c>
-      <c r="B13" s="113"/>
+      <c r="B13" s="15" t="s">
+        <v>452</v>
+      </c>
       <c r="C13" s="15" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>453</v>
-      </c>
-      <c r="E13" s="15" t="s">
         <v>454</v>
       </c>
+      <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="16" t="s">
+      <c r="H13" s="16" t="s">
         <v>455</v>
       </c>
+      <c r="I13" s="113"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
     </row>
@@ -18756,22 +18997,22 @@
       <c r="A14" s="15" t="s">
         <v>456</v>
       </c>
-      <c r="B14" s="113"/>
+      <c r="B14" s="15" t="s">
+        <v>457</v>
+      </c>
       <c r="C14" s="15" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>458</v>
-      </c>
-      <c r="E14" s="15" t="s">
         <v>459</v>
       </c>
+      <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="16" t="s">
+      <c r="H14" s="16" t="s">
         <v>460</v>
       </c>
+      <c r="I14" s="113"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
     </row>
@@ -18779,26 +19020,26 @@
       <c r="A15" s="15" t="s">
         <v>461</v>
       </c>
-      <c r="B15" s="113"/>
+      <c r="B15" s="15" t="s">
+        <v>462</v>
+      </c>
       <c r="C15" s="15" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>463</v>
-      </c>
-      <c r="E15" s="15" t="s">
         <v>464</v>
       </c>
-      <c r="F15" s="86" t="s">
+      <c r="E15" s="85" t="s">
         <v>465</v>
       </c>
-      <c r="G15" s="15">
+      <c r="F15" s="15">
         <v>1.0</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16" t="s">
+      <c r="G15" s="15"/>
+      <c r="H15" s="16" t="s">
         <v>466</v>
       </c>
+      <c r="I15" s="113"/>
       <c r="J15" s="15" t="s">
         <v>467</v>
       </c>
@@ -18808,1072 +19049,3369 @@
       <c r="A16" s="15" t="s">
         <v>468</v>
       </c>
-      <c r="B16" s="113"/>
+      <c r="B16" s="15" t="s">
+        <v>469</v>
+      </c>
       <c r="C16" s="15" t="s">
-        <v>469</v>
+        <v>404</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="E16" s="15" t="s">
         <v>470</v>
       </c>
+      <c r="E16" s="15"/>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="16" t="s">
+      <c r="H16" s="16" t="s">
         <v>471</v>
       </c>
+      <c r="I16" s="113"/>
       <c r="J16" s="15" t="s">
         <v>472</v>
       </c>
       <c r="K16" s="15"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="B17" s="113"/>
+      <c r="B17" s="15" t="s">
+        <v>219</v>
+      </c>
       <c r="C17" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D17" s="84" t="s">
         <v>474</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="E17" s="85" t="s">
         <v>475</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>476</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="16" t="s">
+      <c r="H17" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="I17" s="115" t="s">
+        <v>218</v>
+      </c>
+      <c r="J17" s="15"/>
+      <c r="K17" s="16" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="J17" s="15" t="s">
+      <c r="B18" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="D18" s="84" t="s">
         <v>478</v>
       </c>
-      <c r="K17" s="15"/>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="15" t="s">
+      <c r="E18" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="116" t="s">
         <v>479</v>
       </c>
-      <c r="B18" s="113"/>
-      <c r="C18" s="15" t="s">
+      <c r="I18" s="115" t="s">
+        <v>237</v>
+      </c>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="D18" s="15" t="s">
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="16" t="s">
         <v>481</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="B19" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D19" s="84" t="s">
         <v>482</v>
       </c>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15">
+      <c r="E19" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="116" t="s">
+        <v>483</v>
+      </c>
+      <c r="I19" s="115" t="s">
+        <v>249</v>
+      </c>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="D20" s="84" t="s">
+        <v>486</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="116" t="s">
+        <v>487</v>
+      </c>
+      <c r="I20" s="115" t="s">
+        <v>255</v>
+      </c>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="16" t="s">
+        <v>488</v>
+      </c>
+      <c r="B21" s="93" t="s">
+        <v>267</v>
+      </c>
+      <c r="C21" s="93" t="s">
+        <v>268</v>
+      </c>
+      <c r="D21" s="94" t="s">
+        <v>489</v>
+      </c>
+      <c r="E21" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="116" t="s">
+        <v>490</v>
+      </c>
+      <c r="I21" s="115" t="s">
+        <v>266</v>
+      </c>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="16" t="s">
+        <v>491</v>
+      </c>
+      <c r="B22" s="93" t="s">
+        <v>274</v>
+      </c>
+      <c r="C22" s="93" t="s">
+        <v>275</v>
+      </c>
+      <c r="D22" s="94" t="s">
+        <v>492</v>
+      </c>
+      <c r="E22" s="95" t="s">
+        <v>270</v>
+      </c>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="116" t="s">
+        <v>493</v>
+      </c>
+      <c r="I22" s="115" t="s">
+        <v>273</v>
+      </c>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="16" t="s">
+        <v>494</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D23" s="84" t="s">
+        <v>495</v>
+      </c>
+      <c r="E23" s="97" t="s">
+        <v>270</v>
+      </c>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="116" t="s">
+        <v>496</v>
+      </c>
+      <c r="I23" s="83"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="D24" s="84" t="s">
+        <v>498</v>
+      </c>
+      <c r="E24" s="97" t="s">
+        <v>289</v>
+      </c>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="116" t="s">
+        <v>499</v>
+      </c>
+      <c r="I24" s="83"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="16" t="s">
+        <v>500</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="D25" s="84" t="s">
+        <v>501</v>
+      </c>
+      <c r="E25" s="97" t="s">
+        <v>270</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="116" t="s">
+        <v>502</v>
+      </c>
+      <c r="I25" s="83" t="s">
+        <v>292</v>
+      </c>
+      <c r="J25" s="15"/>
+      <c r="K25" s="15"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="16" t="s">
+        <v>503</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>504</v>
+      </c>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="116" t="s">
+        <v>505</v>
+      </c>
+      <c r="I26" s="113" t="s">
+        <v>419</v>
+      </c>
+      <c r="J26" s="15"/>
+      <c r="K26" s="15"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="16" t="s">
+        <v>506</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>507</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>508</v>
+      </c>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="16" t="s">
+        <v>509</v>
+      </c>
+      <c r="I27" s="113" t="s">
+        <v>438</v>
+      </c>
+      <c r="J27" s="15"/>
+      <c r="K27" s="15"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="16" t="s">
+        <v>510</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>446</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>447</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>511</v>
+      </c>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="116" t="s">
+        <v>512</v>
+      </c>
+      <c r="I28" s="113" t="s">
+        <v>450</v>
+      </c>
+      <c r="J28" s="15"/>
+      <c r="K28" s="15"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="16" t="s">
+        <v>513</v>
+      </c>
+      <c r="B29" s="15"/>
+      <c r="C29" s="117" t="s">
+        <v>514</v>
+      </c>
+      <c r="D29" s="106"/>
+      <c r="E29" s="106"/>
+      <c r="F29" s="106"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="75" t="s">
+        <v>515</v>
+      </c>
+      <c r="I29" s="113"/>
+      <c r="J29" s="15"/>
+      <c r="K29" s="15"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="16" t="s">
+        <v>516</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>517</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>518</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>519</v>
+      </c>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="I30" s="113"/>
+      <c r="J30" s="15" t="s">
+        <v>521</v>
+      </c>
+      <c r="K30" s="15"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>523</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>524</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15">
         <v>1.0</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="16" t="s">
-        <v>483</v>
-      </c>
-      <c r="J18" s="15"/>
-      <c r="K18" s="15"/>
-    </row>
-    <row r="19" ht="13.5" customHeight="1"/>
-    <row r="20" ht="13.5" customHeight="1"/>
-    <row r="21" ht="13.5" customHeight="1"/>
-    <row r="22" ht="13.5" customHeight="1"/>
-    <row r="23" ht="13.5" customHeight="1"/>
-    <row r="24" ht="13.5" customHeight="1"/>
-    <row r="25" ht="13.5" customHeight="1"/>
-    <row r="26" ht="13.5" customHeight="1"/>
-    <row r="27" ht="13.5" customHeight="1"/>
-    <row r="28" ht="13.5" customHeight="1"/>
-    <row r="29" ht="13.5" customHeight="1"/>
-    <row r="30" ht="13.5" customHeight="1"/>
-    <row r="31" ht="13.5" customHeight="1"/>
-    <row r="32" ht="13.5" customHeight="1"/>
-    <row r="33" ht="13.5" customHeight="1"/>
-    <row r="34" ht="13.5" customHeight="1"/>
-    <row r="35" ht="13.5" customHeight="1"/>
-    <row r="36" ht="13.5" customHeight="1"/>
-    <row r="37" ht="13.5" customHeight="1"/>
-    <row r="38" ht="13.5" customHeight="1"/>
-    <row r="39" ht="13.5" customHeight="1"/>
-    <row r="40" ht="13.5" customHeight="1"/>
-    <row r="41" ht="13.5" customHeight="1"/>
-    <row r="42" ht="13.5" customHeight="1"/>
-    <row r="43" ht="13.5" customHeight="1"/>
-    <row r="44" ht="13.5" customHeight="1"/>
-    <row r="45" ht="13.5" customHeight="1"/>
-    <row r="46" ht="13.5" customHeight="1"/>
-    <row r="47" ht="13.5" customHeight="1"/>
-    <row r="48" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="I31" s="113"/>
+      <c r="J31" s="15"/>
+      <c r="K31" s="15"/>
+    </row>
+    <row r="32" ht="13.5" customHeight="1">
+      <c r="I32" s="42"/>
+    </row>
+    <row r="33" ht="13.5" customHeight="1">
+      <c r="I33" s="42"/>
+    </row>
+    <row r="34" ht="13.5" customHeight="1">
+      <c r="I34" s="42"/>
+    </row>
+    <row r="35" ht="13.5" customHeight="1">
+      <c r="I35" s="42"/>
+    </row>
+    <row r="36" ht="13.5" customHeight="1">
+      <c r="I36" s="42"/>
+    </row>
+    <row r="37" ht="13.5" customHeight="1">
+      <c r="I37" s="42"/>
+    </row>
+    <row r="38" ht="13.5" customHeight="1">
+      <c r="I38" s="42"/>
+    </row>
+    <row r="39" ht="13.5" customHeight="1">
+      <c r="I39" s="42"/>
+    </row>
+    <row r="40" ht="13.5" customHeight="1">
+      <c r="I40" s="42"/>
+    </row>
+    <row r="41" ht="13.5" customHeight="1">
+      <c r="I41" s="42"/>
+    </row>
+    <row r="42" ht="13.5" customHeight="1">
+      <c r="I42" s="42"/>
+    </row>
+    <row r="43" ht="13.5" customHeight="1">
+      <c r="I43" s="42"/>
+    </row>
+    <row r="44" ht="13.5" customHeight="1">
+      <c r="I44" s="42"/>
+    </row>
+    <row r="45" ht="13.5" customHeight="1">
+      <c r="I45" s="42"/>
+    </row>
+    <row r="46" ht="13.5" customHeight="1">
+      <c r="I46" s="42"/>
+    </row>
+    <row r="47" ht="13.5" customHeight="1">
+      <c r="I47" s="42"/>
+    </row>
+    <row r="48" ht="13.5" customHeight="1">
+      <c r="I48" s="42"/>
+    </row>
+    <row r="49" ht="13.5" customHeight="1">
+      <c r="I49" s="42"/>
+    </row>
+    <row r="50" ht="13.5" customHeight="1">
+      <c r="I50" s="42"/>
+    </row>
+    <row r="51" ht="13.5" customHeight="1">
+      <c r="I51" s="42"/>
+    </row>
+    <row r="52" ht="13.5" customHeight="1">
+      <c r="I52" s="42"/>
+    </row>
+    <row r="53" ht="13.5" customHeight="1">
+      <c r="I53" s="42"/>
+    </row>
+    <row r="54" ht="13.5" customHeight="1">
+      <c r="I54" s="42"/>
+    </row>
+    <row r="55" ht="13.5" customHeight="1">
+      <c r="I55" s="42"/>
+    </row>
+    <row r="56" ht="13.5" customHeight="1">
+      <c r="I56" s="42"/>
+    </row>
+    <row r="57" ht="13.5" customHeight="1">
+      <c r="I57" s="42"/>
+    </row>
+    <row r="58" ht="13.5" customHeight="1">
+      <c r="I58" s="42"/>
+    </row>
+    <row r="59" ht="13.5" customHeight="1">
+      <c r="I59" s="42"/>
+    </row>
+    <row r="60" ht="13.5" customHeight="1">
+      <c r="I60" s="42"/>
+    </row>
+    <row r="61" ht="13.5" customHeight="1">
+      <c r="I61" s="42"/>
+    </row>
+    <row r="62" ht="13.5" customHeight="1">
+      <c r="I62" s="42"/>
+    </row>
+    <row r="63" ht="13.5" customHeight="1">
+      <c r="I63" s="42"/>
+    </row>
+    <row r="64" ht="13.5" customHeight="1">
+      <c r="I64" s="42"/>
+    </row>
+    <row r="65" ht="13.5" customHeight="1">
+      <c r="I65" s="42"/>
+    </row>
+    <row r="66" ht="13.5" customHeight="1">
+      <c r="I66" s="42"/>
+    </row>
+    <row r="67" ht="13.5" customHeight="1">
+      <c r="I67" s="42"/>
+    </row>
+    <row r="68" ht="13.5" customHeight="1">
+      <c r="I68" s="42"/>
+    </row>
+    <row r="69" ht="13.5" customHeight="1">
+      <c r="I69" s="42"/>
+    </row>
+    <row r="70" ht="13.5" customHeight="1">
+      <c r="I70" s="42"/>
+    </row>
+    <row r="71" ht="13.5" customHeight="1">
+      <c r="I71" s="42"/>
+    </row>
+    <row r="72" ht="13.5" customHeight="1">
+      <c r="I72" s="42"/>
+    </row>
+    <row r="73" ht="13.5" customHeight="1">
+      <c r="I73" s="42"/>
+    </row>
+    <row r="74" ht="13.5" customHeight="1">
+      <c r="I74" s="42"/>
+    </row>
+    <row r="75" ht="13.5" customHeight="1">
+      <c r="I75" s="42"/>
+    </row>
+    <row r="76" ht="13.5" customHeight="1">
+      <c r="I76" s="42"/>
+    </row>
+    <row r="77" ht="13.5" customHeight="1">
+      <c r="I77" s="42"/>
+    </row>
+    <row r="78" ht="13.5" customHeight="1">
+      <c r="I78" s="42"/>
+    </row>
+    <row r="79" ht="13.5" customHeight="1">
+      <c r="I79" s="42"/>
+    </row>
+    <row r="80" ht="13.5" customHeight="1">
+      <c r="I80" s="42"/>
+    </row>
+    <row r="81" ht="13.5" customHeight="1">
+      <c r="I81" s="42"/>
+    </row>
+    <row r="82" ht="13.5" customHeight="1">
+      <c r="I82" s="42"/>
+    </row>
+    <row r="83" ht="13.5" customHeight="1">
+      <c r="I83" s="42"/>
+    </row>
+    <row r="84" ht="13.5" customHeight="1">
+      <c r="I84" s="42"/>
+    </row>
+    <row r="85" ht="13.5" customHeight="1">
+      <c r="I85" s="42"/>
+    </row>
+    <row r="86" ht="13.5" customHeight="1">
+      <c r="I86" s="42"/>
+    </row>
+    <row r="87" ht="13.5" customHeight="1">
+      <c r="I87" s="42"/>
+    </row>
+    <row r="88" ht="13.5" customHeight="1">
+      <c r="I88" s="42"/>
+    </row>
+    <row r="89" ht="13.5" customHeight="1">
+      <c r="I89" s="42"/>
+    </row>
+    <row r="90" ht="13.5" customHeight="1">
+      <c r="I90" s="42"/>
+    </row>
+    <row r="91" ht="13.5" customHeight="1">
+      <c r="I91" s="42"/>
+    </row>
+    <row r="92" ht="13.5" customHeight="1">
+      <c r="I92" s="42"/>
+    </row>
+    <row r="93" ht="13.5" customHeight="1">
+      <c r="I93" s="42"/>
+    </row>
+    <row r="94" ht="13.5" customHeight="1">
+      <c r="I94" s="42"/>
+    </row>
+    <row r="95" ht="13.5" customHeight="1">
+      <c r="I95" s="42"/>
+    </row>
+    <row r="96" ht="13.5" customHeight="1">
+      <c r="I96" s="42"/>
+    </row>
+    <row r="97" ht="13.5" customHeight="1">
+      <c r="I97" s="42"/>
+    </row>
+    <row r="98" ht="13.5" customHeight="1">
+      <c r="I98" s="42"/>
+    </row>
+    <row r="99" ht="13.5" customHeight="1">
+      <c r="I99" s="42"/>
+    </row>
+    <row r="100" ht="13.5" customHeight="1">
+      <c r="I100" s="42"/>
+    </row>
+    <row r="101" ht="13.5" customHeight="1">
+      <c r="I101" s="42"/>
+    </row>
+    <row r="102" ht="13.5" customHeight="1">
+      <c r="I102" s="42"/>
+    </row>
+    <row r="103" ht="13.5" customHeight="1">
+      <c r="I103" s="42"/>
+    </row>
+    <row r="104" ht="13.5" customHeight="1">
+      <c r="I104" s="42"/>
+    </row>
+    <row r="105" ht="13.5" customHeight="1">
+      <c r="I105" s="42"/>
+    </row>
+    <row r="106" ht="13.5" customHeight="1">
+      <c r="I106" s="42"/>
+    </row>
+    <row r="107" ht="13.5" customHeight="1">
+      <c r="I107" s="42"/>
+    </row>
+    <row r="108" ht="13.5" customHeight="1">
+      <c r="I108" s="42"/>
+    </row>
+    <row r="109" ht="13.5" customHeight="1">
+      <c r="I109" s="42"/>
+    </row>
+    <row r="110" ht="13.5" customHeight="1">
+      <c r="I110" s="42"/>
+    </row>
+    <row r="111" ht="13.5" customHeight="1">
+      <c r="I111" s="42"/>
+    </row>
+    <row r="112" ht="13.5" customHeight="1">
+      <c r="I112" s="42"/>
+    </row>
+    <row r="113" ht="13.5" customHeight="1">
+      <c r="I113" s="42"/>
+    </row>
+    <row r="114" ht="13.5" customHeight="1">
+      <c r="I114" s="42"/>
+    </row>
+    <row r="115" ht="13.5" customHeight="1">
+      <c r="I115" s="42"/>
+    </row>
+    <row r="116" ht="13.5" customHeight="1">
+      <c r="I116" s="42"/>
+    </row>
+    <row r="117" ht="13.5" customHeight="1">
+      <c r="I117" s="42"/>
+    </row>
+    <row r="118" ht="13.5" customHeight="1">
+      <c r="I118" s="42"/>
+    </row>
+    <row r="119" ht="13.5" customHeight="1">
+      <c r="I119" s="42"/>
+    </row>
+    <row r="120" ht="13.5" customHeight="1">
+      <c r="I120" s="42"/>
+    </row>
+    <row r="121" ht="13.5" customHeight="1">
+      <c r="I121" s="42"/>
+    </row>
+    <row r="122" ht="13.5" customHeight="1">
+      <c r="I122" s="42"/>
+    </row>
+    <row r="123" ht="13.5" customHeight="1">
+      <c r="I123" s="42"/>
+    </row>
+    <row r="124" ht="13.5" customHeight="1">
+      <c r="I124" s="42"/>
+    </row>
+    <row r="125" ht="13.5" customHeight="1">
+      <c r="I125" s="42"/>
+    </row>
+    <row r="126" ht="13.5" customHeight="1">
+      <c r="I126" s="42"/>
+    </row>
+    <row r="127" ht="13.5" customHeight="1">
+      <c r="I127" s="42"/>
+    </row>
+    <row r="128" ht="13.5" customHeight="1">
+      <c r="I128" s="42"/>
+    </row>
+    <row r="129" ht="13.5" customHeight="1">
+      <c r="I129" s="42"/>
+    </row>
+    <row r="130" ht="13.5" customHeight="1">
+      <c r="I130" s="42"/>
+    </row>
+    <row r="131" ht="13.5" customHeight="1">
+      <c r="I131" s="42"/>
+    </row>
+    <row r="132" ht="13.5" customHeight="1">
+      <c r="I132" s="42"/>
+    </row>
+    <row r="133" ht="13.5" customHeight="1">
+      <c r="I133" s="42"/>
+    </row>
+    <row r="134" ht="13.5" customHeight="1">
+      <c r="I134" s="42"/>
+    </row>
+    <row r="135" ht="13.5" customHeight="1">
+      <c r="I135" s="42"/>
+    </row>
+    <row r="136" ht="13.5" customHeight="1">
+      <c r="I136" s="42"/>
+    </row>
+    <row r="137" ht="13.5" customHeight="1">
+      <c r="I137" s="42"/>
+    </row>
+    <row r="138" ht="13.5" customHeight="1">
+      <c r="I138" s="42"/>
+    </row>
+    <row r="139" ht="13.5" customHeight="1">
+      <c r="I139" s="42"/>
+    </row>
+    <row r="140" ht="13.5" customHeight="1">
+      <c r="I140" s="42"/>
+    </row>
+    <row r="141" ht="13.5" customHeight="1">
+      <c r="I141" s="42"/>
+    </row>
+    <row r="142" ht="13.5" customHeight="1">
+      <c r="I142" s="42"/>
+    </row>
+    <row r="143" ht="13.5" customHeight="1">
+      <c r="I143" s="42"/>
+    </row>
+    <row r="144" ht="13.5" customHeight="1">
+      <c r="I144" s="42"/>
+    </row>
+    <row r="145" ht="13.5" customHeight="1">
+      <c r="I145" s="42"/>
+    </row>
+    <row r="146" ht="13.5" customHeight="1">
+      <c r="I146" s="42"/>
+    </row>
+    <row r="147" ht="13.5" customHeight="1">
+      <c r="I147" s="42"/>
+    </row>
+    <row r="148" ht="13.5" customHeight="1">
+      <c r="I148" s="42"/>
+    </row>
+    <row r="149" ht="13.5" customHeight="1">
+      <c r="I149" s="42"/>
+    </row>
+    <row r="150" ht="13.5" customHeight="1">
+      <c r="I150" s="42"/>
+    </row>
+    <row r="151" ht="13.5" customHeight="1">
+      <c r="I151" s="42"/>
+    </row>
+    <row r="152" ht="13.5" customHeight="1">
+      <c r="I152" s="42"/>
+    </row>
+    <row r="153" ht="13.5" customHeight="1">
+      <c r="I153" s="42"/>
+    </row>
+    <row r="154" ht="13.5" customHeight="1">
+      <c r="I154" s="42"/>
+    </row>
+    <row r="155" ht="13.5" customHeight="1">
+      <c r="I155" s="42"/>
+    </row>
+    <row r="156" ht="13.5" customHeight="1">
+      <c r="I156" s="42"/>
+    </row>
+    <row r="157" ht="13.5" customHeight="1">
+      <c r="I157" s="42"/>
+    </row>
+    <row r="158" ht="13.5" customHeight="1">
+      <c r="I158" s="42"/>
+    </row>
+    <row r="159" ht="13.5" customHeight="1">
+      <c r="I159" s="42"/>
+    </row>
+    <row r="160" ht="13.5" customHeight="1">
+      <c r="I160" s="42"/>
+    </row>
+    <row r="161" ht="13.5" customHeight="1">
+      <c r="I161" s="42"/>
+    </row>
+    <row r="162" ht="13.5" customHeight="1">
+      <c r="I162" s="42"/>
+    </row>
+    <row r="163" ht="13.5" customHeight="1">
+      <c r="I163" s="42"/>
+    </row>
+    <row r="164" ht="13.5" customHeight="1">
+      <c r="I164" s="42"/>
+    </row>
+    <row r="165" ht="13.5" customHeight="1">
+      <c r="I165" s="42"/>
+    </row>
+    <row r="166" ht="13.5" customHeight="1">
+      <c r="I166" s="42"/>
+    </row>
+    <row r="167" ht="13.5" customHeight="1">
+      <c r="I167" s="42"/>
+    </row>
+    <row r="168" ht="13.5" customHeight="1">
+      <c r="I168" s="42"/>
+    </row>
+    <row r="169" ht="13.5" customHeight="1">
+      <c r="I169" s="42"/>
+    </row>
+    <row r="170" ht="13.5" customHeight="1">
+      <c r="I170" s="42"/>
+    </row>
+    <row r="171" ht="13.5" customHeight="1">
+      <c r="I171" s="42"/>
+    </row>
+    <row r="172" ht="13.5" customHeight="1">
+      <c r="I172" s="42"/>
+    </row>
+    <row r="173" ht="13.5" customHeight="1">
+      <c r="I173" s="42"/>
+    </row>
+    <row r="174" ht="13.5" customHeight="1">
+      <c r="I174" s="42"/>
+    </row>
+    <row r="175" ht="13.5" customHeight="1">
+      <c r="I175" s="42"/>
+    </row>
+    <row r="176" ht="13.5" customHeight="1">
+      <c r="I176" s="42"/>
+    </row>
+    <row r="177" ht="13.5" customHeight="1">
+      <c r="I177" s="42"/>
+    </row>
+    <row r="178" ht="13.5" customHeight="1">
+      <c r="I178" s="42"/>
+    </row>
+    <row r="179" ht="13.5" customHeight="1">
+      <c r="I179" s="42"/>
+    </row>
+    <row r="180" ht="13.5" customHeight="1">
+      <c r="I180" s="42"/>
+    </row>
+    <row r="181" ht="13.5" customHeight="1">
+      <c r="I181" s="42"/>
+    </row>
+    <row r="182" ht="13.5" customHeight="1">
+      <c r="I182" s="42"/>
+    </row>
+    <row r="183" ht="13.5" customHeight="1">
+      <c r="I183" s="42"/>
+    </row>
+    <row r="184" ht="13.5" customHeight="1">
+      <c r="I184" s="42"/>
+    </row>
+    <row r="185" ht="13.5" customHeight="1">
+      <c r="I185" s="42"/>
+    </row>
+    <row r="186" ht="13.5" customHeight="1">
+      <c r="I186" s="42"/>
+    </row>
+    <row r="187" ht="13.5" customHeight="1">
+      <c r="I187" s="42"/>
+    </row>
+    <row r="188" ht="13.5" customHeight="1">
+      <c r="I188" s="42"/>
+    </row>
+    <row r="189" ht="13.5" customHeight="1">
+      <c r="I189" s="42"/>
+    </row>
+    <row r="190" ht="13.5" customHeight="1">
+      <c r="I190" s="42"/>
+    </row>
+    <row r="191" ht="13.5" customHeight="1">
+      <c r="I191" s="42"/>
+    </row>
+    <row r="192" ht="13.5" customHeight="1">
+      <c r="I192" s="42"/>
+    </row>
+    <row r="193" ht="13.5" customHeight="1">
+      <c r="I193" s="42"/>
+    </row>
+    <row r="194" ht="13.5" customHeight="1">
+      <c r="I194" s="42"/>
+    </row>
+    <row r="195" ht="13.5" customHeight="1">
+      <c r="I195" s="42"/>
+    </row>
+    <row r="196" ht="13.5" customHeight="1">
+      <c r="I196" s="42"/>
+    </row>
+    <row r="197" ht="13.5" customHeight="1">
+      <c r="I197" s="42"/>
+    </row>
+    <row r="198" ht="13.5" customHeight="1">
+      <c r="I198" s="42"/>
+    </row>
+    <row r="199" ht="13.5" customHeight="1">
+      <c r="I199" s="42"/>
+    </row>
+    <row r="200" ht="13.5" customHeight="1">
+      <c r="I200" s="42"/>
+    </row>
+    <row r="201" ht="13.5" customHeight="1">
+      <c r="I201" s="42"/>
+    </row>
+    <row r="202" ht="13.5" customHeight="1">
+      <c r="I202" s="42"/>
+    </row>
+    <row r="203" ht="13.5" customHeight="1">
+      <c r="I203" s="42"/>
+    </row>
+    <row r="204" ht="13.5" customHeight="1">
+      <c r="I204" s="42"/>
+    </row>
+    <row r="205" ht="13.5" customHeight="1">
+      <c r="I205" s="42"/>
+    </row>
+    <row r="206" ht="13.5" customHeight="1">
+      <c r="I206" s="42"/>
+    </row>
+    <row r="207" ht="13.5" customHeight="1">
+      <c r="I207" s="42"/>
+    </row>
+    <row r="208" ht="13.5" customHeight="1">
+      <c r="I208" s="42"/>
+    </row>
+    <row r="209" ht="13.5" customHeight="1">
+      <c r="I209" s="42"/>
+    </row>
+    <row r="210" ht="13.5" customHeight="1">
+      <c r="I210" s="42"/>
+    </row>
+    <row r="211" ht="13.5" customHeight="1">
+      <c r="I211" s="42"/>
+    </row>
+    <row r="212" ht="13.5" customHeight="1">
+      <c r="I212" s="42"/>
+    </row>
+    <row r="213" ht="13.5" customHeight="1">
+      <c r="I213" s="42"/>
+    </row>
+    <row r="214" ht="13.5" customHeight="1">
+      <c r="I214" s="42"/>
+    </row>
+    <row r="215" ht="13.5" customHeight="1">
+      <c r="I215" s="42"/>
+    </row>
+    <row r="216" ht="13.5" customHeight="1">
+      <c r="I216" s="42"/>
+    </row>
+    <row r="217" ht="13.5" customHeight="1">
+      <c r="I217" s="42"/>
+    </row>
+    <row r="218" ht="13.5" customHeight="1">
+      <c r="I218" s="42"/>
+    </row>
+    <row r="219" ht="13.5" customHeight="1">
+      <c r="I219" s="42"/>
+    </row>
+    <row r="220" ht="13.5" customHeight="1">
+      <c r="I220" s="42"/>
+    </row>
+    <row r="221" ht="13.5" customHeight="1">
+      <c r="I221" s="42"/>
+    </row>
+    <row r="222" ht="13.5" customHeight="1">
+      <c r="I222" s="42"/>
+    </row>
+    <row r="223" ht="13.5" customHeight="1">
+      <c r="I223" s="42"/>
+    </row>
+    <row r="224" ht="13.5" customHeight="1">
+      <c r="I224" s="42"/>
+    </row>
+    <row r="225" ht="13.5" customHeight="1">
+      <c r="I225" s="42"/>
+    </row>
+    <row r="226" ht="13.5" customHeight="1">
+      <c r="I226" s="42"/>
+    </row>
+    <row r="227" ht="13.5" customHeight="1">
+      <c r="I227" s="42"/>
+    </row>
+    <row r="228" ht="13.5" customHeight="1">
+      <c r="I228" s="42"/>
+    </row>
+    <row r="229" ht="13.5" customHeight="1">
+      <c r="I229" s="42"/>
+    </row>
+    <row r="230" ht="13.5" customHeight="1">
+      <c r="I230" s="42"/>
+    </row>
+    <row r="231" ht="13.5" customHeight="1">
+      <c r="I231" s="42"/>
+    </row>
+    <row r="232" ht="13.5" customHeight="1">
+      <c r="I232" s="42"/>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="I233" s="42"/>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="I234" s="42"/>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="I235" s="42"/>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="I236" s="42"/>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="I237" s="42"/>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="I238" s="42"/>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="I239" s="42"/>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="I240" s="42"/>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="I241" s="42"/>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="I242" s="42"/>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="I243" s="42"/>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="I244" s="42"/>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="I245" s="42"/>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="I246" s="42"/>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="I247" s="42"/>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="I248" s="42"/>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="I249" s="42"/>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="I250" s="42"/>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="I251" s="42"/>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
+      <c r="I252" s="42"/>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="I253" s="42"/>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
+      <c r="I254" s="42"/>
+    </row>
+    <row r="255" ht="15.75" customHeight="1">
+      <c r="I255" s="42"/>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="I256" s="42"/>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="I257" s="42"/>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
+      <c r="I258" s="42"/>
+    </row>
+    <row r="259" ht="15.75" customHeight="1">
+      <c r="I259" s="42"/>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
+      <c r="I260" s="42"/>
+    </row>
+    <row r="261" ht="15.75" customHeight="1">
+      <c r="I261" s="42"/>
+    </row>
+    <row r="262" ht="15.75" customHeight="1">
+      <c r="I262" s="42"/>
+    </row>
+    <row r="263" ht="15.75" customHeight="1">
+      <c r="I263" s="42"/>
+    </row>
+    <row r="264" ht="15.75" customHeight="1">
+      <c r="I264" s="42"/>
+    </row>
+    <row r="265" ht="15.75" customHeight="1">
+      <c r="I265" s="42"/>
+    </row>
+    <row r="266" ht="15.75" customHeight="1">
+      <c r="I266" s="42"/>
+    </row>
+    <row r="267" ht="15.75" customHeight="1">
+      <c r="I267" s="42"/>
+    </row>
+    <row r="268" ht="15.75" customHeight="1">
+      <c r="I268" s="42"/>
+    </row>
+    <row r="269" ht="15.75" customHeight="1">
+      <c r="I269" s="42"/>
+    </row>
+    <row r="270" ht="15.75" customHeight="1">
+      <c r="I270" s="42"/>
+    </row>
+    <row r="271" ht="15.75" customHeight="1">
+      <c r="I271" s="42"/>
+    </row>
+    <row r="272" ht="15.75" customHeight="1">
+      <c r="I272" s="42"/>
+    </row>
+    <row r="273" ht="15.75" customHeight="1">
+      <c r="I273" s="42"/>
+    </row>
+    <row r="274" ht="15.75" customHeight="1">
+      <c r="I274" s="42"/>
+    </row>
+    <row r="275" ht="15.75" customHeight="1">
+      <c r="I275" s="42"/>
+    </row>
+    <row r="276" ht="15.75" customHeight="1">
+      <c r="I276" s="42"/>
+    </row>
+    <row r="277" ht="15.75" customHeight="1">
+      <c r="I277" s="42"/>
+    </row>
+    <row r="278" ht="15.75" customHeight="1">
+      <c r="I278" s="42"/>
+    </row>
+    <row r="279" ht="15.75" customHeight="1">
+      <c r="I279" s="42"/>
+    </row>
+    <row r="280" ht="15.75" customHeight="1">
+      <c r="I280" s="42"/>
+    </row>
+    <row r="281" ht="15.75" customHeight="1">
+      <c r="I281" s="42"/>
+    </row>
+    <row r="282" ht="15.75" customHeight="1">
+      <c r="I282" s="42"/>
+    </row>
+    <row r="283" ht="15.75" customHeight="1">
+      <c r="I283" s="42"/>
+    </row>
+    <row r="284" ht="15.75" customHeight="1">
+      <c r="I284" s="42"/>
+    </row>
+    <row r="285" ht="15.75" customHeight="1">
+      <c r="I285" s="42"/>
+    </row>
+    <row r="286" ht="15.75" customHeight="1">
+      <c r="I286" s="42"/>
+    </row>
+    <row r="287" ht="15.75" customHeight="1">
+      <c r="I287" s="42"/>
+    </row>
+    <row r="288" ht="15.75" customHeight="1">
+      <c r="I288" s="42"/>
+    </row>
+    <row r="289" ht="15.75" customHeight="1">
+      <c r="I289" s="42"/>
+    </row>
+    <row r="290" ht="15.75" customHeight="1">
+      <c r="I290" s="42"/>
+    </row>
+    <row r="291" ht="15.75" customHeight="1">
+      <c r="I291" s="42"/>
+    </row>
+    <row r="292" ht="15.75" customHeight="1">
+      <c r="I292" s="42"/>
+    </row>
+    <row r="293" ht="15.75" customHeight="1">
+      <c r="I293" s="42"/>
+    </row>
+    <row r="294" ht="15.75" customHeight="1">
+      <c r="I294" s="42"/>
+    </row>
+    <row r="295" ht="15.75" customHeight="1">
+      <c r="I295" s="42"/>
+    </row>
+    <row r="296" ht="15.75" customHeight="1">
+      <c r="I296" s="42"/>
+    </row>
+    <row r="297" ht="15.75" customHeight="1">
+      <c r="I297" s="42"/>
+    </row>
+    <row r="298" ht="15.75" customHeight="1">
+      <c r="I298" s="42"/>
+    </row>
+    <row r="299" ht="15.75" customHeight="1">
+      <c r="I299" s="42"/>
+    </row>
+    <row r="300" ht="15.75" customHeight="1">
+      <c r="I300" s="42"/>
+    </row>
+    <row r="301" ht="15.75" customHeight="1">
+      <c r="I301" s="42"/>
+    </row>
+    <row r="302" ht="15.75" customHeight="1">
+      <c r="I302" s="42"/>
+    </row>
+    <row r="303" ht="15.75" customHeight="1">
+      <c r="I303" s="42"/>
+    </row>
+    <row r="304" ht="15.75" customHeight="1">
+      <c r="I304" s="42"/>
+    </row>
+    <row r="305" ht="15.75" customHeight="1">
+      <c r="I305" s="42"/>
+    </row>
+    <row r="306" ht="15.75" customHeight="1">
+      <c r="I306" s="42"/>
+    </row>
+    <row r="307" ht="15.75" customHeight="1">
+      <c r="I307" s="42"/>
+    </row>
+    <row r="308" ht="15.75" customHeight="1">
+      <c r="I308" s="42"/>
+    </row>
+    <row r="309" ht="15.75" customHeight="1">
+      <c r="I309" s="42"/>
+    </row>
+    <row r="310" ht="15.75" customHeight="1">
+      <c r="I310" s="42"/>
+    </row>
+    <row r="311" ht="15.75" customHeight="1">
+      <c r="I311" s="42"/>
+    </row>
+    <row r="312" ht="15.75" customHeight="1">
+      <c r="I312" s="42"/>
+    </row>
+    <row r="313" ht="15.75" customHeight="1">
+      <c r="I313" s="42"/>
+    </row>
+    <row r="314" ht="15.75" customHeight="1">
+      <c r="I314" s="42"/>
+    </row>
+    <row r="315" ht="15.75" customHeight="1">
+      <c r="I315" s="42"/>
+    </row>
+    <row r="316" ht="15.75" customHeight="1">
+      <c r="I316" s="42"/>
+    </row>
+    <row r="317" ht="15.75" customHeight="1">
+      <c r="I317" s="42"/>
+    </row>
+    <row r="318" ht="15.75" customHeight="1">
+      <c r="I318" s="42"/>
+    </row>
+    <row r="319" ht="15.75" customHeight="1">
+      <c r="I319" s="42"/>
+    </row>
+    <row r="320" ht="15.75" customHeight="1">
+      <c r="I320" s="42"/>
+    </row>
+    <row r="321" ht="15.75" customHeight="1">
+      <c r="I321" s="42"/>
+    </row>
+    <row r="322" ht="15.75" customHeight="1">
+      <c r="I322" s="42"/>
+    </row>
+    <row r="323" ht="15.75" customHeight="1">
+      <c r="I323" s="42"/>
+    </row>
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="I324" s="42"/>
+    </row>
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="I325" s="42"/>
+    </row>
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="I326" s="42"/>
+    </row>
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="I327" s="42"/>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="I328" s="42"/>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="I329" s="42"/>
+    </row>
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="I330" s="42"/>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="I331" s="42"/>
+    </row>
+    <row r="332" ht="15.75" customHeight="1">
+      <c r="I332" s="42"/>
+    </row>
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="I333" s="42"/>
+    </row>
+    <row r="334" ht="15.75" customHeight="1">
+      <c r="I334" s="42"/>
+    </row>
+    <row r="335" ht="15.75" customHeight="1">
+      <c r="I335" s="42"/>
+    </row>
+    <row r="336" ht="15.75" customHeight="1">
+      <c r="I336" s="42"/>
+    </row>
+    <row r="337" ht="15.75" customHeight="1">
+      <c r="I337" s="42"/>
+    </row>
+    <row r="338" ht="15.75" customHeight="1">
+      <c r="I338" s="42"/>
+    </row>
+    <row r="339" ht="15.75" customHeight="1">
+      <c r="I339" s="42"/>
+    </row>
+    <row r="340" ht="15.75" customHeight="1">
+      <c r="I340" s="42"/>
+    </row>
+    <row r="341" ht="15.75" customHeight="1">
+      <c r="I341" s="42"/>
+    </row>
+    <row r="342" ht="15.75" customHeight="1">
+      <c r="I342" s="42"/>
+    </row>
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="I343" s="42"/>
+    </row>
+    <row r="344" ht="15.75" customHeight="1">
+      <c r="I344" s="42"/>
+    </row>
+    <row r="345" ht="15.75" customHeight="1">
+      <c r="I345" s="42"/>
+    </row>
+    <row r="346" ht="15.75" customHeight="1">
+      <c r="I346" s="42"/>
+    </row>
+    <row r="347" ht="15.75" customHeight="1">
+      <c r="I347" s="42"/>
+    </row>
+    <row r="348" ht="15.75" customHeight="1">
+      <c r="I348" s="42"/>
+    </row>
+    <row r="349" ht="15.75" customHeight="1">
+      <c r="I349" s="42"/>
+    </row>
+    <row r="350" ht="15.75" customHeight="1">
+      <c r="I350" s="42"/>
+    </row>
+    <row r="351" ht="15.75" customHeight="1">
+      <c r="I351" s="42"/>
+    </row>
+    <row r="352" ht="15.75" customHeight="1">
+      <c r="I352" s="42"/>
+    </row>
+    <row r="353" ht="15.75" customHeight="1">
+      <c r="I353" s="42"/>
+    </row>
+    <row r="354" ht="15.75" customHeight="1">
+      <c r="I354" s="42"/>
+    </row>
+    <row r="355" ht="15.75" customHeight="1">
+      <c r="I355" s="42"/>
+    </row>
+    <row r="356" ht="15.75" customHeight="1">
+      <c r="I356" s="42"/>
+    </row>
+    <row r="357" ht="15.75" customHeight="1">
+      <c r="I357" s="42"/>
+    </row>
+    <row r="358" ht="15.75" customHeight="1">
+      <c r="I358" s="42"/>
+    </row>
+    <row r="359" ht="15.75" customHeight="1">
+      <c r="I359" s="42"/>
+    </row>
+    <row r="360" ht="15.75" customHeight="1">
+      <c r="I360" s="42"/>
+    </row>
+    <row r="361" ht="15.75" customHeight="1">
+      <c r="I361" s="42"/>
+    </row>
+    <row r="362" ht="15.75" customHeight="1">
+      <c r="I362" s="42"/>
+    </row>
+    <row r="363" ht="15.75" customHeight="1">
+      <c r="I363" s="42"/>
+    </row>
+    <row r="364" ht="15.75" customHeight="1">
+      <c r="I364" s="42"/>
+    </row>
+    <row r="365" ht="15.75" customHeight="1">
+      <c r="I365" s="42"/>
+    </row>
+    <row r="366" ht="15.75" customHeight="1">
+      <c r="I366" s="42"/>
+    </row>
+    <row r="367" ht="15.75" customHeight="1">
+      <c r="I367" s="42"/>
+    </row>
+    <row r="368" ht="15.75" customHeight="1">
+      <c r="I368" s="42"/>
+    </row>
+    <row r="369" ht="15.75" customHeight="1">
+      <c r="I369" s="42"/>
+    </row>
+    <row r="370" ht="15.75" customHeight="1">
+      <c r="I370" s="42"/>
+    </row>
+    <row r="371" ht="15.75" customHeight="1">
+      <c r="I371" s="42"/>
+    </row>
+    <row r="372" ht="15.75" customHeight="1">
+      <c r="I372" s="42"/>
+    </row>
+    <row r="373" ht="15.75" customHeight="1">
+      <c r="I373" s="42"/>
+    </row>
+    <row r="374" ht="15.75" customHeight="1">
+      <c r="I374" s="42"/>
+    </row>
+    <row r="375" ht="15.75" customHeight="1">
+      <c r="I375" s="42"/>
+    </row>
+    <row r="376" ht="15.75" customHeight="1">
+      <c r="I376" s="42"/>
+    </row>
+    <row r="377" ht="15.75" customHeight="1">
+      <c r="I377" s="42"/>
+    </row>
+    <row r="378" ht="15.75" customHeight="1">
+      <c r="I378" s="42"/>
+    </row>
+    <row r="379" ht="15.75" customHeight="1">
+      <c r="I379" s="42"/>
+    </row>
+    <row r="380" ht="15.75" customHeight="1">
+      <c r="I380" s="42"/>
+    </row>
+    <row r="381" ht="15.75" customHeight="1">
+      <c r="I381" s="42"/>
+    </row>
+    <row r="382" ht="15.75" customHeight="1">
+      <c r="I382" s="42"/>
+    </row>
+    <row r="383" ht="15.75" customHeight="1">
+      <c r="I383" s="42"/>
+    </row>
+    <row r="384" ht="15.75" customHeight="1">
+      <c r="I384" s="42"/>
+    </row>
+    <row r="385" ht="15.75" customHeight="1">
+      <c r="I385" s="42"/>
+    </row>
+    <row r="386" ht="15.75" customHeight="1">
+      <c r="I386" s="42"/>
+    </row>
+    <row r="387" ht="15.75" customHeight="1">
+      <c r="I387" s="42"/>
+    </row>
+    <row r="388" ht="15.75" customHeight="1">
+      <c r="I388" s="42"/>
+    </row>
+    <row r="389" ht="15.75" customHeight="1">
+      <c r="I389" s="42"/>
+    </row>
+    <row r="390" ht="15.75" customHeight="1">
+      <c r="I390" s="42"/>
+    </row>
+    <row r="391" ht="15.75" customHeight="1">
+      <c r="I391" s="42"/>
+    </row>
+    <row r="392" ht="15.75" customHeight="1">
+      <c r="I392" s="42"/>
+    </row>
+    <row r="393" ht="15.75" customHeight="1">
+      <c r="I393" s="42"/>
+    </row>
+    <row r="394" ht="15.75" customHeight="1">
+      <c r="I394" s="42"/>
+    </row>
+    <row r="395" ht="15.75" customHeight="1">
+      <c r="I395" s="42"/>
+    </row>
+    <row r="396" ht="15.75" customHeight="1">
+      <c r="I396" s="42"/>
+    </row>
+    <row r="397" ht="15.75" customHeight="1">
+      <c r="I397" s="42"/>
+    </row>
+    <row r="398" ht="15.75" customHeight="1">
+      <c r="I398" s="42"/>
+    </row>
+    <row r="399" ht="15.75" customHeight="1">
+      <c r="I399" s="42"/>
+    </row>
+    <row r="400" ht="15.75" customHeight="1">
+      <c r="I400" s="42"/>
+    </row>
+    <row r="401" ht="15.75" customHeight="1">
+      <c r="I401" s="42"/>
+    </row>
+    <row r="402" ht="15.75" customHeight="1">
+      <c r="I402" s="42"/>
+    </row>
+    <row r="403" ht="15.75" customHeight="1">
+      <c r="I403" s="42"/>
+    </row>
+    <row r="404" ht="15.75" customHeight="1">
+      <c r="I404" s="42"/>
+    </row>
+    <row r="405" ht="15.75" customHeight="1">
+      <c r="I405" s="42"/>
+    </row>
+    <row r="406" ht="15.75" customHeight="1">
+      <c r="I406" s="42"/>
+    </row>
+    <row r="407" ht="15.75" customHeight="1">
+      <c r="I407" s="42"/>
+    </row>
+    <row r="408" ht="15.75" customHeight="1">
+      <c r="I408" s="42"/>
+    </row>
+    <row r="409" ht="15.75" customHeight="1">
+      <c r="I409" s="42"/>
+    </row>
+    <row r="410" ht="15.75" customHeight="1">
+      <c r="I410" s="42"/>
+    </row>
+    <row r="411" ht="15.75" customHeight="1">
+      <c r="I411" s="42"/>
+    </row>
+    <row r="412" ht="15.75" customHeight="1">
+      <c r="I412" s="42"/>
+    </row>
+    <row r="413" ht="15.75" customHeight="1">
+      <c r="I413" s="42"/>
+    </row>
+    <row r="414" ht="15.75" customHeight="1">
+      <c r="I414" s="42"/>
+    </row>
+    <row r="415" ht="15.75" customHeight="1">
+      <c r="I415" s="42"/>
+    </row>
+    <row r="416" ht="15.75" customHeight="1">
+      <c r="I416" s="42"/>
+    </row>
+    <row r="417" ht="15.75" customHeight="1">
+      <c r="I417" s="42"/>
+    </row>
+    <row r="418" ht="15.75" customHeight="1">
+      <c r="I418" s="42"/>
+    </row>
+    <row r="419" ht="15.75" customHeight="1">
+      <c r="I419" s="42"/>
+    </row>
+    <row r="420" ht="15.75" customHeight="1">
+      <c r="I420" s="42"/>
+    </row>
+    <row r="421" ht="15.75" customHeight="1">
+      <c r="I421" s="42"/>
+    </row>
+    <row r="422" ht="15.75" customHeight="1">
+      <c r="I422" s="42"/>
+    </row>
+    <row r="423" ht="15.75" customHeight="1">
+      <c r="I423" s="42"/>
+    </row>
+    <row r="424" ht="15.75" customHeight="1">
+      <c r="I424" s="42"/>
+    </row>
+    <row r="425" ht="15.75" customHeight="1">
+      <c r="I425" s="42"/>
+    </row>
+    <row r="426" ht="15.75" customHeight="1">
+      <c r="I426" s="42"/>
+    </row>
+    <row r="427" ht="15.75" customHeight="1">
+      <c r="I427" s="42"/>
+    </row>
+    <row r="428" ht="15.75" customHeight="1">
+      <c r="I428" s="42"/>
+    </row>
+    <row r="429" ht="15.75" customHeight="1">
+      <c r="I429" s="42"/>
+    </row>
+    <row r="430" ht="15.75" customHeight="1">
+      <c r="I430" s="42"/>
+    </row>
+    <row r="431" ht="15.75" customHeight="1">
+      <c r="I431" s="42"/>
+    </row>
+    <row r="432" ht="15.75" customHeight="1">
+      <c r="I432" s="42"/>
+    </row>
+    <row r="433" ht="15.75" customHeight="1">
+      <c r="I433" s="42"/>
+    </row>
+    <row r="434" ht="15.75" customHeight="1">
+      <c r="I434" s="42"/>
+    </row>
+    <row r="435" ht="15.75" customHeight="1">
+      <c r="I435" s="42"/>
+    </row>
+    <row r="436" ht="15.75" customHeight="1">
+      <c r="I436" s="42"/>
+    </row>
+    <row r="437" ht="15.75" customHeight="1">
+      <c r="I437" s="42"/>
+    </row>
+    <row r="438" ht="15.75" customHeight="1">
+      <c r="I438" s="42"/>
+    </row>
+    <row r="439" ht="15.75" customHeight="1">
+      <c r="I439" s="42"/>
+    </row>
+    <row r="440" ht="15.75" customHeight="1">
+      <c r="I440" s="42"/>
+    </row>
+    <row r="441" ht="15.75" customHeight="1">
+      <c r="I441" s="42"/>
+    </row>
+    <row r="442" ht="15.75" customHeight="1">
+      <c r="I442" s="42"/>
+    </row>
+    <row r="443" ht="15.75" customHeight="1">
+      <c r="I443" s="42"/>
+    </row>
+    <row r="444" ht="15.75" customHeight="1">
+      <c r="I444" s="42"/>
+    </row>
+    <row r="445" ht="15.75" customHeight="1">
+      <c r="I445" s="42"/>
+    </row>
+    <row r="446" ht="15.75" customHeight="1">
+      <c r="I446" s="42"/>
+    </row>
+    <row r="447" ht="15.75" customHeight="1">
+      <c r="I447" s="42"/>
+    </row>
+    <row r="448" ht="15.75" customHeight="1">
+      <c r="I448" s="42"/>
+    </row>
+    <row r="449" ht="15.75" customHeight="1">
+      <c r="I449" s="42"/>
+    </row>
+    <row r="450" ht="15.75" customHeight="1">
+      <c r="I450" s="42"/>
+    </row>
+    <row r="451" ht="15.75" customHeight="1">
+      <c r="I451" s="42"/>
+    </row>
+    <row r="452" ht="15.75" customHeight="1">
+      <c r="I452" s="42"/>
+    </row>
+    <row r="453" ht="15.75" customHeight="1">
+      <c r="I453" s="42"/>
+    </row>
+    <row r="454" ht="15.75" customHeight="1">
+      <c r="I454" s="42"/>
+    </row>
+    <row r="455" ht="15.75" customHeight="1">
+      <c r="I455" s="42"/>
+    </row>
+    <row r="456" ht="15.75" customHeight="1">
+      <c r="I456" s="42"/>
+    </row>
+    <row r="457" ht="15.75" customHeight="1">
+      <c r="I457" s="42"/>
+    </row>
+    <row r="458" ht="15.75" customHeight="1">
+      <c r="I458" s="42"/>
+    </row>
+    <row r="459" ht="15.75" customHeight="1">
+      <c r="I459" s="42"/>
+    </row>
+    <row r="460" ht="15.75" customHeight="1">
+      <c r="I460" s="42"/>
+    </row>
+    <row r="461" ht="15.75" customHeight="1">
+      <c r="I461" s="42"/>
+    </row>
+    <row r="462" ht="15.75" customHeight="1">
+      <c r="I462" s="42"/>
+    </row>
+    <row r="463" ht="15.75" customHeight="1">
+      <c r="I463" s="42"/>
+    </row>
+    <row r="464" ht="15.75" customHeight="1">
+      <c r="I464" s="42"/>
+    </row>
+    <row r="465" ht="15.75" customHeight="1">
+      <c r="I465" s="42"/>
+    </row>
+    <row r="466" ht="15.75" customHeight="1">
+      <c r="I466" s="42"/>
+    </row>
+    <row r="467" ht="15.75" customHeight="1">
+      <c r="I467" s="42"/>
+    </row>
+    <row r="468" ht="15.75" customHeight="1">
+      <c r="I468" s="42"/>
+    </row>
+    <row r="469" ht="15.75" customHeight="1">
+      <c r="I469" s="42"/>
+    </row>
+    <row r="470" ht="15.75" customHeight="1">
+      <c r="I470" s="42"/>
+    </row>
+    <row r="471" ht="15.75" customHeight="1">
+      <c r="I471" s="42"/>
+    </row>
+    <row r="472" ht="15.75" customHeight="1">
+      <c r="I472" s="42"/>
+    </row>
+    <row r="473" ht="15.75" customHeight="1">
+      <c r="I473" s="42"/>
+    </row>
+    <row r="474" ht="15.75" customHeight="1">
+      <c r="I474" s="42"/>
+    </row>
+    <row r="475" ht="15.75" customHeight="1">
+      <c r="I475" s="42"/>
+    </row>
+    <row r="476" ht="15.75" customHeight="1">
+      <c r="I476" s="42"/>
+    </row>
+    <row r="477" ht="15.75" customHeight="1">
+      <c r="I477" s="42"/>
+    </row>
+    <row r="478" ht="15.75" customHeight="1">
+      <c r="I478" s="42"/>
+    </row>
+    <row r="479" ht="15.75" customHeight="1">
+      <c r="I479" s="42"/>
+    </row>
+    <row r="480" ht="15.75" customHeight="1">
+      <c r="I480" s="42"/>
+    </row>
+    <row r="481" ht="15.75" customHeight="1">
+      <c r="I481" s="42"/>
+    </row>
+    <row r="482" ht="15.75" customHeight="1">
+      <c r="I482" s="42"/>
+    </row>
+    <row r="483" ht="15.75" customHeight="1">
+      <c r="I483" s="42"/>
+    </row>
+    <row r="484" ht="15.75" customHeight="1">
+      <c r="I484" s="42"/>
+    </row>
+    <row r="485" ht="15.75" customHeight="1">
+      <c r="I485" s="42"/>
+    </row>
+    <row r="486" ht="15.75" customHeight="1">
+      <c r="I486" s="42"/>
+    </row>
+    <row r="487" ht="15.75" customHeight="1">
+      <c r="I487" s="42"/>
+    </row>
+    <row r="488" ht="15.75" customHeight="1">
+      <c r="I488" s="42"/>
+    </row>
+    <row r="489" ht="15.75" customHeight="1">
+      <c r="I489" s="42"/>
+    </row>
+    <row r="490" ht="15.75" customHeight="1">
+      <c r="I490" s="42"/>
+    </row>
+    <row r="491" ht="15.75" customHeight="1">
+      <c r="I491" s="42"/>
+    </row>
+    <row r="492" ht="15.75" customHeight="1">
+      <c r="I492" s="42"/>
+    </row>
+    <row r="493" ht="15.75" customHeight="1">
+      <c r="I493" s="42"/>
+    </row>
+    <row r="494" ht="15.75" customHeight="1">
+      <c r="I494" s="42"/>
+    </row>
+    <row r="495" ht="15.75" customHeight="1">
+      <c r="I495" s="42"/>
+    </row>
+    <row r="496" ht="15.75" customHeight="1">
+      <c r="I496" s="42"/>
+    </row>
+    <row r="497" ht="15.75" customHeight="1">
+      <c r="I497" s="42"/>
+    </row>
+    <row r="498" ht="15.75" customHeight="1">
+      <c r="I498" s="42"/>
+    </row>
+    <row r="499" ht="15.75" customHeight="1">
+      <c r="I499" s="42"/>
+    </row>
+    <row r="500" ht="15.75" customHeight="1">
+      <c r="I500" s="42"/>
+    </row>
+    <row r="501" ht="15.75" customHeight="1">
+      <c r="I501" s="42"/>
+    </row>
+    <row r="502" ht="15.75" customHeight="1">
+      <c r="I502" s="42"/>
+    </row>
+    <row r="503" ht="15.75" customHeight="1">
+      <c r="I503" s="42"/>
+    </row>
+    <row r="504" ht="15.75" customHeight="1">
+      <c r="I504" s="42"/>
+    </row>
+    <row r="505" ht="15.75" customHeight="1">
+      <c r="I505" s="42"/>
+    </row>
+    <row r="506" ht="15.75" customHeight="1">
+      <c r="I506" s="42"/>
+    </row>
+    <row r="507" ht="15.75" customHeight="1">
+      <c r="I507" s="42"/>
+    </row>
+    <row r="508" ht="15.75" customHeight="1">
+      <c r="I508" s="42"/>
+    </row>
+    <row r="509" ht="15.75" customHeight="1">
+      <c r="I509" s="42"/>
+    </row>
+    <row r="510" ht="15.75" customHeight="1">
+      <c r="I510" s="42"/>
+    </row>
+    <row r="511" ht="15.75" customHeight="1">
+      <c r="I511" s="42"/>
+    </row>
+    <row r="512" ht="15.75" customHeight="1">
+      <c r="I512" s="42"/>
+    </row>
+    <row r="513" ht="15.75" customHeight="1">
+      <c r="I513" s="42"/>
+    </row>
+    <row r="514" ht="15.75" customHeight="1">
+      <c r="I514" s="42"/>
+    </row>
+    <row r="515" ht="15.75" customHeight="1">
+      <c r="I515" s="42"/>
+    </row>
+    <row r="516" ht="15.75" customHeight="1">
+      <c r="I516" s="42"/>
+    </row>
+    <row r="517" ht="15.75" customHeight="1">
+      <c r="I517" s="42"/>
+    </row>
+    <row r="518" ht="15.75" customHeight="1">
+      <c r="I518" s="42"/>
+    </row>
+    <row r="519" ht="15.75" customHeight="1">
+      <c r="I519" s="42"/>
+    </row>
+    <row r="520" ht="15.75" customHeight="1">
+      <c r="I520" s="42"/>
+    </row>
+    <row r="521" ht="15.75" customHeight="1">
+      <c r="I521" s="42"/>
+    </row>
+    <row r="522" ht="15.75" customHeight="1">
+      <c r="I522" s="42"/>
+    </row>
+    <row r="523" ht="15.75" customHeight="1">
+      <c r="I523" s="42"/>
+    </row>
+    <row r="524" ht="15.75" customHeight="1">
+      <c r="I524" s="42"/>
+    </row>
+    <row r="525" ht="15.75" customHeight="1">
+      <c r="I525" s="42"/>
+    </row>
+    <row r="526" ht="15.75" customHeight="1">
+      <c r="I526" s="42"/>
+    </row>
+    <row r="527" ht="15.75" customHeight="1">
+      <c r="I527" s="42"/>
+    </row>
+    <row r="528" ht="15.75" customHeight="1">
+      <c r="I528" s="42"/>
+    </row>
+    <row r="529" ht="15.75" customHeight="1">
+      <c r="I529" s="42"/>
+    </row>
+    <row r="530" ht="15.75" customHeight="1">
+      <c r="I530" s="42"/>
+    </row>
+    <row r="531" ht="15.75" customHeight="1">
+      <c r="I531" s="42"/>
+    </row>
+    <row r="532" ht="15.75" customHeight="1">
+      <c r="I532" s="42"/>
+    </row>
+    <row r="533" ht="15.75" customHeight="1">
+      <c r="I533" s="42"/>
+    </row>
+    <row r="534" ht="15.75" customHeight="1">
+      <c r="I534" s="42"/>
+    </row>
+    <row r="535" ht="15.75" customHeight="1">
+      <c r="I535" s="42"/>
+    </row>
+    <row r="536" ht="15.75" customHeight="1">
+      <c r="I536" s="42"/>
+    </row>
+    <row r="537" ht="15.75" customHeight="1">
+      <c r="I537" s="42"/>
+    </row>
+    <row r="538" ht="15.75" customHeight="1">
+      <c r="I538" s="42"/>
+    </row>
+    <row r="539" ht="15.75" customHeight="1">
+      <c r="I539" s="42"/>
+    </row>
+    <row r="540" ht="15.75" customHeight="1">
+      <c r="I540" s="42"/>
+    </row>
+    <row r="541" ht="15.75" customHeight="1">
+      <c r="I541" s="42"/>
+    </row>
+    <row r="542" ht="15.75" customHeight="1">
+      <c r="I542" s="42"/>
+    </row>
+    <row r="543" ht="15.75" customHeight="1">
+      <c r="I543" s="42"/>
+    </row>
+    <row r="544" ht="15.75" customHeight="1">
+      <c r="I544" s="42"/>
+    </row>
+    <row r="545" ht="15.75" customHeight="1">
+      <c r="I545" s="42"/>
+    </row>
+    <row r="546" ht="15.75" customHeight="1">
+      <c r="I546" s="42"/>
+    </row>
+    <row r="547" ht="15.75" customHeight="1">
+      <c r="I547" s="42"/>
+    </row>
+    <row r="548" ht="15.75" customHeight="1">
+      <c r="I548" s="42"/>
+    </row>
+    <row r="549" ht="15.75" customHeight="1">
+      <c r="I549" s="42"/>
+    </row>
+    <row r="550" ht="15.75" customHeight="1">
+      <c r="I550" s="42"/>
+    </row>
+    <row r="551" ht="15.75" customHeight="1">
+      <c r="I551" s="42"/>
+    </row>
+    <row r="552" ht="15.75" customHeight="1">
+      <c r="I552" s="42"/>
+    </row>
+    <row r="553" ht="15.75" customHeight="1">
+      <c r="I553" s="42"/>
+    </row>
+    <row r="554" ht="15.75" customHeight="1">
+      <c r="I554" s="42"/>
+    </row>
+    <row r="555" ht="15.75" customHeight="1">
+      <c r="I555" s="42"/>
+    </row>
+    <row r="556" ht="15.75" customHeight="1">
+      <c r="I556" s="42"/>
+    </row>
+    <row r="557" ht="15.75" customHeight="1">
+      <c r="I557" s="42"/>
+    </row>
+    <row r="558" ht="15.75" customHeight="1">
+      <c r="I558" s="42"/>
+    </row>
+    <row r="559" ht="15.75" customHeight="1">
+      <c r="I559" s="42"/>
+    </row>
+    <row r="560" ht="15.75" customHeight="1">
+      <c r="I560" s="42"/>
+    </row>
+    <row r="561" ht="15.75" customHeight="1">
+      <c r="I561" s="42"/>
+    </row>
+    <row r="562" ht="15.75" customHeight="1">
+      <c r="I562" s="42"/>
+    </row>
+    <row r="563" ht="15.75" customHeight="1">
+      <c r="I563" s="42"/>
+    </row>
+    <row r="564" ht="15.75" customHeight="1">
+      <c r="I564" s="42"/>
+    </row>
+    <row r="565" ht="15.75" customHeight="1">
+      <c r="I565" s="42"/>
+    </row>
+    <row r="566" ht="15.75" customHeight="1">
+      <c r="I566" s="42"/>
+    </row>
+    <row r="567" ht="15.75" customHeight="1">
+      <c r="I567" s="42"/>
+    </row>
+    <row r="568" ht="15.75" customHeight="1">
+      <c r="I568" s="42"/>
+    </row>
+    <row r="569" ht="15.75" customHeight="1">
+      <c r="I569" s="42"/>
+    </row>
+    <row r="570" ht="15.75" customHeight="1">
+      <c r="I570" s="42"/>
+    </row>
+    <row r="571" ht="15.75" customHeight="1">
+      <c r="I571" s="42"/>
+    </row>
+    <row r="572" ht="15.75" customHeight="1">
+      <c r="I572" s="42"/>
+    </row>
+    <row r="573" ht="15.75" customHeight="1">
+      <c r="I573" s="42"/>
+    </row>
+    <row r="574" ht="15.75" customHeight="1">
+      <c r="I574" s="42"/>
+    </row>
+    <row r="575" ht="15.75" customHeight="1">
+      <c r="I575" s="42"/>
+    </row>
+    <row r="576" ht="15.75" customHeight="1">
+      <c r="I576" s="42"/>
+    </row>
+    <row r="577" ht="15.75" customHeight="1">
+      <c r="I577" s="42"/>
+    </row>
+    <row r="578" ht="15.75" customHeight="1">
+      <c r="I578" s="42"/>
+    </row>
+    <row r="579" ht="15.75" customHeight="1">
+      <c r="I579" s="42"/>
+    </row>
+    <row r="580" ht="15.75" customHeight="1">
+      <c r="I580" s="42"/>
+    </row>
+    <row r="581" ht="15.75" customHeight="1">
+      <c r="I581" s="42"/>
+    </row>
+    <row r="582" ht="15.75" customHeight="1">
+      <c r="I582" s="42"/>
+    </row>
+    <row r="583" ht="15.75" customHeight="1">
+      <c r="I583" s="42"/>
+    </row>
+    <row r="584" ht="15.75" customHeight="1">
+      <c r="I584" s="42"/>
+    </row>
+    <row r="585" ht="15.75" customHeight="1">
+      <c r="I585" s="42"/>
+    </row>
+    <row r="586" ht="15.75" customHeight="1">
+      <c r="I586" s="42"/>
+    </row>
+    <row r="587" ht="15.75" customHeight="1">
+      <c r="I587" s="42"/>
+    </row>
+    <row r="588" ht="15.75" customHeight="1">
+      <c r="I588" s="42"/>
+    </row>
+    <row r="589" ht="15.75" customHeight="1">
+      <c r="I589" s="42"/>
+    </row>
+    <row r="590" ht="15.75" customHeight="1">
+      <c r="I590" s="42"/>
+    </row>
+    <row r="591" ht="15.75" customHeight="1">
+      <c r="I591" s="42"/>
+    </row>
+    <row r="592" ht="15.75" customHeight="1">
+      <c r="I592" s="42"/>
+    </row>
+    <row r="593" ht="15.75" customHeight="1">
+      <c r="I593" s="42"/>
+    </row>
+    <row r="594" ht="15.75" customHeight="1">
+      <c r="I594" s="42"/>
+    </row>
+    <row r="595" ht="15.75" customHeight="1">
+      <c r="I595" s="42"/>
+    </row>
+    <row r="596" ht="15.75" customHeight="1">
+      <c r="I596" s="42"/>
+    </row>
+    <row r="597" ht="15.75" customHeight="1">
+      <c r="I597" s="42"/>
+    </row>
+    <row r="598" ht="15.75" customHeight="1">
+      <c r="I598" s="42"/>
+    </row>
+    <row r="599" ht="15.75" customHeight="1">
+      <c r="I599" s="42"/>
+    </row>
+    <row r="600" ht="15.75" customHeight="1">
+      <c r="I600" s="42"/>
+    </row>
+    <row r="601" ht="15.75" customHeight="1">
+      <c r="I601" s="42"/>
+    </row>
+    <row r="602" ht="15.75" customHeight="1">
+      <c r="I602" s="42"/>
+    </row>
+    <row r="603" ht="15.75" customHeight="1">
+      <c r="I603" s="42"/>
+    </row>
+    <row r="604" ht="15.75" customHeight="1">
+      <c r="I604" s="42"/>
+    </row>
+    <row r="605" ht="15.75" customHeight="1">
+      <c r="I605" s="42"/>
+    </row>
+    <row r="606" ht="15.75" customHeight="1">
+      <c r="I606" s="42"/>
+    </row>
+    <row r="607" ht="15.75" customHeight="1">
+      <c r="I607" s="42"/>
+    </row>
+    <row r="608" ht="15.75" customHeight="1">
+      <c r="I608" s="42"/>
+    </row>
+    <row r="609" ht="15.75" customHeight="1">
+      <c r="I609" s="42"/>
+    </row>
+    <row r="610" ht="15.75" customHeight="1">
+      <c r="I610" s="42"/>
+    </row>
+    <row r="611" ht="15.75" customHeight="1">
+      <c r="I611" s="42"/>
+    </row>
+    <row r="612" ht="15.75" customHeight="1">
+      <c r="I612" s="42"/>
+    </row>
+    <row r="613" ht="15.75" customHeight="1">
+      <c r="I613" s="42"/>
+    </row>
+    <row r="614" ht="15.75" customHeight="1">
+      <c r="I614" s="42"/>
+    </row>
+    <row r="615" ht="15.75" customHeight="1">
+      <c r="I615" s="42"/>
+    </row>
+    <row r="616" ht="15.75" customHeight="1">
+      <c r="I616" s="42"/>
+    </row>
+    <row r="617" ht="15.75" customHeight="1">
+      <c r="I617" s="42"/>
+    </row>
+    <row r="618" ht="15.75" customHeight="1">
+      <c r="I618" s="42"/>
+    </row>
+    <row r="619" ht="15.75" customHeight="1">
+      <c r="I619" s="42"/>
+    </row>
+    <row r="620" ht="15.75" customHeight="1">
+      <c r="I620" s="42"/>
+    </row>
+    <row r="621" ht="15.75" customHeight="1">
+      <c r="I621" s="42"/>
+    </row>
+    <row r="622" ht="15.75" customHeight="1">
+      <c r="I622" s="42"/>
+    </row>
+    <row r="623" ht="15.75" customHeight="1">
+      <c r="I623" s="42"/>
+    </row>
+    <row r="624" ht="15.75" customHeight="1">
+      <c r="I624" s="42"/>
+    </row>
+    <row r="625" ht="15.75" customHeight="1">
+      <c r="I625" s="42"/>
+    </row>
+    <row r="626" ht="15.75" customHeight="1">
+      <c r="I626" s="42"/>
+    </row>
+    <row r="627" ht="15.75" customHeight="1">
+      <c r="I627" s="42"/>
+    </row>
+    <row r="628" ht="15.75" customHeight="1">
+      <c r="I628" s="42"/>
+    </row>
+    <row r="629" ht="15.75" customHeight="1">
+      <c r="I629" s="42"/>
+    </row>
+    <row r="630" ht="15.75" customHeight="1">
+      <c r="I630" s="42"/>
+    </row>
+    <row r="631" ht="15.75" customHeight="1">
+      <c r="I631" s="42"/>
+    </row>
+    <row r="632" ht="15.75" customHeight="1">
+      <c r="I632" s="42"/>
+    </row>
+    <row r="633" ht="15.75" customHeight="1">
+      <c r="I633" s="42"/>
+    </row>
+    <row r="634" ht="15.75" customHeight="1">
+      <c r="I634" s="42"/>
+    </row>
+    <row r="635" ht="15.75" customHeight="1">
+      <c r="I635" s="42"/>
+    </row>
+    <row r="636" ht="15.75" customHeight="1">
+      <c r="I636" s="42"/>
+    </row>
+    <row r="637" ht="15.75" customHeight="1">
+      <c r="I637" s="42"/>
+    </row>
+    <row r="638" ht="15.75" customHeight="1">
+      <c r="I638" s="42"/>
+    </row>
+    <row r="639" ht="15.75" customHeight="1">
+      <c r="I639" s="42"/>
+    </row>
+    <row r="640" ht="15.75" customHeight="1">
+      <c r="I640" s="42"/>
+    </row>
+    <row r="641" ht="15.75" customHeight="1">
+      <c r="I641" s="42"/>
+    </row>
+    <row r="642" ht="15.75" customHeight="1">
+      <c r="I642" s="42"/>
+    </row>
+    <row r="643" ht="15.75" customHeight="1">
+      <c r="I643" s="42"/>
+    </row>
+    <row r="644" ht="15.75" customHeight="1">
+      <c r="I644" s="42"/>
+    </row>
+    <row r="645" ht="15.75" customHeight="1">
+      <c r="I645" s="42"/>
+    </row>
+    <row r="646" ht="15.75" customHeight="1">
+      <c r="I646" s="42"/>
+    </row>
+    <row r="647" ht="15.75" customHeight="1">
+      <c r="I647" s="42"/>
+    </row>
+    <row r="648" ht="15.75" customHeight="1">
+      <c r="I648" s="42"/>
+    </row>
+    <row r="649" ht="15.75" customHeight="1">
+      <c r="I649" s="42"/>
+    </row>
+    <row r="650" ht="15.75" customHeight="1">
+      <c r="I650" s="42"/>
+    </row>
+    <row r="651" ht="15.75" customHeight="1">
+      <c r="I651" s="42"/>
+    </row>
+    <row r="652" ht="15.75" customHeight="1">
+      <c r="I652" s="42"/>
+    </row>
+    <row r="653" ht="15.75" customHeight="1">
+      <c r="I653" s="42"/>
+    </row>
+    <row r="654" ht="15.75" customHeight="1">
+      <c r="I654" s="42"/>
+    </row>
+    <row r="655" ht="15.75" customHeight="1">
+      <c r="I655" s="42"/>
+    </row>
+    <row r="656" ht="15.75" customHeight="1">
+      <c r="I656" s="42"/>
+    </row>
+    <row r="657" ht="15.75" customHeight="1">
+      <c r="I657" s="42"/>
+    </row>
+    <row r="658" ht="15.75" customHeight="1">
+      <c r="I658" s="42"/>
+    </row>
+    <row r="659" ht="15.75" customHeight="1">
+      <c r="I659" s="42"/>
+    </row>
+    <row r="660" ht="15.75" customHeight="1">
+      <c r="I660" s="42"/>
+    </row>
+    <row r="661" ht="15.75" customHeight="1">
+      <c r="I661" s="42"/>
+    </row>
+    <row r="662" ht="15.75" customHeight="1">
+      <c r="I662" s="42"/>
+    </row>
+    <row r="663" ht="15.75" customHeight="1">
+      <c r="I663" s="42"/>
+    </row>
+    <row r="664" ht="15.75" customHeight="1">
+      <c r="I664" s="42"/>
+    </row>
+    <row r="665" ht="15.75" customHeight="1">
+      <c r="I665" s="42"/>
+    </row>
+    <row r="666" ht="15.75" customHeight="1">
+      <c r="I666" s="42"/>
+    </row>
+    <row r="667" ht="15.75" customHeight="1">
+      <c r="I667" s="42"/>
+    </row>
+    <row r="668" ht="15.75" customHeight="1">
+      <c r="I668" s="42"/>
+    </row>
+    <row r="669" ht="15.75" customHeight="1">
+      <c r="I669" s="42"/>
+    </row>
+    <row r="670" ht="15.75" customHeight="1">
+      <c r="I670" s="42"/>
+    </row>
+    <row r="671" ht="15.75" customHeight="1">
+      <c r="I671" s="42"/>
+    </row>
+    <row r="672" ht="15.75" customHeight="1">
+      <c r="I672" s="42"/>
+    </row>
+    <row r="673" ht="15.75" customHeight="1">
+      <c r="I673" s="42"/>
+    </row>
+    <row r="674" ht="15.75" customHeight="1">
+      <c r="I674" s="42"/>
+    </row>
+    <row r="675" ht="15.75" customHeight="1">
+      <c r="I675" s="42"/>
+    </row>
+    <row r="676" ht="15.75" customHeight="1">
+      <c r="I676" s="42"/>
+    </row>
+    <row r="677" ht="15.75" customHeight="1">
+      <c r="I677" s="42"/>
+    </row>
+    <row r="678" ht="15.75" customHeight="1">
+      <c r="I678" s="42"/>
+    </row>
+    <row r="679" ht="15.75" customHeight="1">
+      <c r="I679" s="42"/>
+    </row>
+    <row r="680" ht="15.75" customHeight="1">
+      <c r="I680" s="42"/>
+    </row>
+    <row r="681" ht="15.75" customHeight="1">
+      <c r="I681" s="42"/>
+    </row>
+    <row r="682" ht="15.75" customHeight="1">
+      <c r="I682" s="42"/>
+    </row>
+    <row r="683" ht="15.75" customHeight="1">
+      <c r="I683" s="42"/>
+    </row>
+    <row r="684" ht="15.75" customHeight="1">
+      <c r="I684" s="42"/>
+    </row>
+    <row r="685" ht="15.75" customHeight="1">
+      <c r="I685" s="42"/>
+    </row>
+    <row r="686" ht="15.75" customHeight="1">
+      <c r="I686" s="42"/>
+    </row>
+    <row r="687" ht="15.75" customHeight="1">
+      <c r="I687" s="42"/>
+    </row>
+    <row r="688" ht="15.75" customHeight="1">
+      <c r="I688" s="42"/>
+    </row>
+    <row r="689" ht="15.75" customHeight="1">
+      <c r="I689" s="42"/>
+    </row>
+    <row r="690" ht="15.75" customHeight="1">
+      <c r="I690" s="42"/>
+    </row>
+    <row r="691" ht="15.75" customHeight="1">
+      <c r="I691" s="42"/>
+    </row>
+    <row r="692" ht="15.75" customHeight="1">
+      <c r="I692" s="42"/>
+    </row>
+    <row r="693" ht="15.75" customHeight="1">
+      <c r="I693" s="42"/>
+    </row>
+    <row r="694" ht="15.75" customHeight="1">
+      <c r="I694" s="42"/>
+    </row>
+    <row r="695" ht="15.75" customHeight="1">
+      <c r="I695" s="42"/>
+    </row>
+    <row r="696" ht="15.75" customHeight="1">
+      <c r="I696" s="42"/>
+    </row>
+    <row r="697" ht="15.75" customHeight="1">
+      <c r="I697" s="42"/>
+    </row>
+    <row r="698" ht="15.75" customHeight="1">
+      <c r="I698" s="42"/>
+    </row>
+    <row r="699" ht="15.75" customHeight="1">
+      <c r="I699" s="42"/>
+    </row>
+    <row r="700" ht="15.75" customHeight="1">
+      <c r="I700" s="42"/>
+    </row>
+    <row r="701" ht="15.75" customHeight="1">
+      <c r="I701" s="42"/>
+    </row>
+    <row r="702" ht="15.75" customHeight="1">
+      <c r="I702" s="42"/>
+    </row>
+    <row r="703" ht="15.75" customHeight="1">
+      <c r="I703" s="42"/>
+    </row>
+    <row r="704" ht="15.75" customHeight="1">
+      <c r="I704" s="42"/>
+    </row>
+    <row r="705" ht="15.75" customHeight="1">
+      <c r="I705" s="42"/>
+    </row>
+    <row r="706" ht="15.75" customHeight="1">
+      <c r="I706" s="42"/>
+    </row>
+    <row r="707" ht="15.75" customHeight="1">
+      <c r="I707" s="42"/>
+    </row>
+    <row r="708" ht="15.75" customHeight="1">
+      <c r="I708" s="42"/>
+    </row>
+    <row r="709" ht="15.75" customHeight="1">
+      <c r="I709" s="42"/>
+    </row>
+    <row r="710" ht="15.75" customHeight="1">
+      <c r="I710" s="42"/>
+    </row>
+    <row r="711" ht="15.75" customHeight="1">
+      <c r="I711" s="42"/>
+    </row>
+    <row r="712" ht="15.75" customHeight="1">
+      <c r="I712" s="42"/>
+    </row>
+    <row r="713" ht="15.75" customHeight="1">
+      <c r="I713" s="42"/>
+    </row>
+    <row r="714" ht="15.75" customHeight="1">
+      <c r="I714" s="42"/>
+    </row>
+    <row r="715" ht="15.75" customHeight="1">
+      <c r="I715" s="42"/>
+    </row>
+    <row r="716" ht="15.75" customHeight="1">
+      <c r="I716" s="42"/>
+    </row>
+    <row r="717" ht="15.75" customHeight="1">
+      <c r="I717" s="42"/>
+    </row>
+    <row r="718" ht="15.75" customHeight="1">
+      <c r="I718" s="42"/>
+    </row>
+    <row r="719" ht="15.75" customHeight="1">
+      <c r="I719" s="42"/>
+    </row>
+    <row r="720" ht="15.75" customHeight="1">
+      <c r="I720" s="42"/>
+    </row>
+    <row r="721" ht="15.75" customHeight="1">
+      <c r="I721" s="42"/>
+    </row>
+    <row r="722" ht="15.75" customHeight="1">
+      <c r="I722" s="42"/>
+    </row>
+    <row r="723" ht="15.75" customHeight="1">
+      <c r="I723" s="42"/>
+    </row>
+    <row r="724" ht="15.75" customHeight="1">
+      <c r="I724" s="42"/>
+    </row>
+    <row r="725" ht="15.75" customHeight="1">
+      <c r="I725" s="42"/>
+    </row>
+    <row r="726" ht="15.75" customHeight="1">
+      <c r="I726" s="42"/>
+    </row>
+    <row r="727" ht="15.75" customHeight="1">
+      <c r="I727" s="42"/>
+    </row>
+    <row r="728" ht="15.75" customHeight="1">
+      <c r="I728" s="42"/>
+    </row>
+    <row r="729" ht="15.75" customHeight="1">
+      <c r="I729" s="42"/>
+    </row>
+    <row r="730" ht="15.75" customHeight="1">
+      <c r="I730" s="42"/>
+    </row>
+    <row r="731" ht="15.75" customHeight="1">
+      <c r="I731" s="42"/>
+    </row>
+    <row r="732" ht="15.75" customHeight="1">
+      <c r="I732" s="42"/>
+    </row>
+    <row r="733" ht="15.75" customHeight="1">
+      <c r="I733" s="42"/>
+    </row>
+    <row r="734" ht="15.75" customHeight="1">
+      <c r="I734" s="42"/>
+    </row>
+    <row r="735" ht="15.75" customHeight="1">
+      <c r="I735" s="42"/>
+    </row>
+    <row r="736" ht="15.75" customHeight="1">
+      <c r="I736" s="42"/>
+    </row>
+    <row r="737" ht="15.75" customHeight="1">
+      <c r="I737" s="42"/>
+    </row>
+    <row r="738" ht="15.75" customHeight="1">
+      <c r="I738" s="42"/>
+    </row>
+    <row r="739" ht="15.75" customHeight="1">
+      <c r="I739" s="42"/>
+    </row>
+    <row r="740" ht="15.75" customHeight="1">
+      <c r="I740" s="42"/>
+    </row>
+    <row r="741" ht="15.75" customHeight="1">
+      <c r="I741" s="42"/>
+    </row>
+    <row r="742" ht="15.75" customHeight="1">
+      <c r="I742" s="42"/>
+    </row>
+    <row r="743" ht="15.75" customHeight="1">
+      <c r="I743" s="42"/>
+    </row>
+    <row r="744" ht="15.75" customHeight="1">
+      <c r="I744" s="42"/>
+    </row>
+    <row r="745" ht="15.75" customHeight="1">
+      <c r="I745" s="42"/>
+    </row>
+    <row r="746" ht="15.75" customHeight="1">
+      <c r="I746" s="42"/>
+    </row>
+    <row r="747" ht="15.75" customHeight="1">
+      <c r="I747" s="42"/>
+    </row>
+    <row r="748" ht="15.75" customHeight="1">
+      <c r="I748" s="42"/>
+    </row>
+    <row r="749" ht="15.75" customHeight="1">
+      <c r="I749" s="42"/>
+    </row>
+    <row r="750" ht="15.75" customHeight="1">
+      <c r="I750" s="42"/>
+    </row>
+    <row r="751" ht="15.75" customHeight="1">
+      <c r="I751" s="42"/>
+    </row>
+    <row r="752" ht="15.75" customHeight="1">
+      <c r="I752" s="42"/>
+    </row>
+    <row r="753" ht="15.75" customHeight="1">
+      <c r="I753" s="42"/>
+    </row>
+    <row r="754" ht="15.75" customHeight="1">
+      <c r="I754" s="42"/>
+    </row>
+    <row r="755" ht="15.75" customHeight="1">
+      <c r="I755" s="42"/>
+    </row>
+    <row r="756" ht="15.75" customHeight="1">
+      <c r="I756" s="42"/>
+    </row>
+    <row r="757" ht="15.75" customHeight="1">
+      <c r="I757" s="42"/>
+    </row>
+    <row r="758" ht="15.75" customHeight="1">
+      <c r="I758" s="42"/>
+    </row>
+    <row r="759" ht="15.75" customHeight="1">
+      <c r="I759" s="42"/>
+    </row>
+    <row r="760" ht="15.75" customHeight="1">
+      <c r="I760" s="42"/>
+    </row>
+    <row r="761" ht="15.75" customHeight="1">
+      <c r="I761" s="42"/>
+    </row>
+    <row r="762" ht="15.75" customHeight="1">
+      <c r="I762" s="42"/>
+    </row>
+    <row r="763" ht="15.75" customHeight="1">
+      <c r="I763" s="42"/>
+    </row>
+    <row r="764" ht="15.75" customHeight="1">
+      <c r="I764" s="42"/>
+    </row>
+    <row r="765" ht="15.75" customHeight="1">
+      <c r="I765" s="42"/>
+    </row>
+    <row r="766" ht="15.75" customHeight="1">
+      <c r="I766" s="42"/>
+    </row>
+    <row r="767" ht="15.75" customHeight="1">
+      <c r="I767" s="42"/>
+    </row>
+    <row r="768" ht="15.75" customHeight="1">
+      <c r="I768" s="42"/>
+    </row>
+    <row r="769" ht="15.75" customHeight="1">
+      <c r="I769" s="42"/>
+    </row>
+    <row r="770" ht="15.75" customHeight="1">
+      <c r="I770" s="42"/>
+    </row>
+    <row r="771" ht="15.75" customHeight="1">
+      <c r="I771" s="42"/>
+    </row>
+    <row r="772" ht="15.75" customHeight="1">
+      <c r="I772" s="42"/>
+    </row>
+    <row r="773" ht="15.75" customHeight="1">
+      <c r="I773" s="42"/>
+    </row>
+    <row r="774" ht="15.75" customHeight="1">
+      <c r="I774" s="42"/>
+    </row>
+    <row r="775" ht="15.75" customHeight="1">
+      <c r="I775" s="42"/>
+    </row>
+    <row r="776" ht="15.75" customHeight="1">
+      <c r="I776" s="42"/>
+    </row>
+    <row r="777" ht="15.75" customHeight="1">
+      <c r="I777" s="42"/>
+    </row>
+    <row r="778" ht="15.75" customHeight="1">
+      <c r="I778" s="42"/>
+    </row>
+    <row r="779" ht="15.75" customHeight="1">
+      <c r="I779" s="42"/>
+    </row>
+    <row r="780" ht="15.75" customHeight="1">
+      <c r="I780" s="42"/>
+    </row>
+    <row r="781" ht="15.75" customHeight="1">
+      <c r="I781" s="42"/>
+    </row>
+    <row r="782" ht="15.75" customHeight="1">
+      <c r="I782" s="42"/>
+    </row>
+    <row r="783" ht="15.75" customHeight="1">
+      <c r="I783" s="42"/>
+    </row>
+    <row r="784" ht="15.75" customHeight="1">
+      <c r="I784" s="42"/>
+    </row>
+    <row r="785" ht="15.75" customHeight="1">
+      <c r="I785" s="42"/>
+    </row>
+    <row r="786" ht="15.75" customHeight="1">
+      <c r="I786" s="42"/>
+    </row>
+    <row r="787" ht="15.75" customHeight="1">
+      <c r="I787" s="42"/>
+    </row>
+    <row r="788" ht="15.75" customHeight="1">
+      <c r="I788" s="42"/>
+    </row>
+    <row r="789" ht="15.75" customHeight="1">
+      <c r="I789" s="42"/>
+    </row>
+    <row r="790" ht="15.75" customHeight="1">
+      <c r="I790" s="42"/>
+    </row>
+    <row r="791" ht="15.75" customHeight="1">
+      <c r="I791" s="42"/>
+    </row>
+    <row r="792" ht="15.75" customHeight="1">
+      <c r="I792" s="42"/>
+    </row>
+    <row r="793" ht="15.75" customHeight="1">
+      <c r="I793" s="42"/>
+    </row>
+    <row r="794" ht="15.75" customHeight="1">
+      <c r="I794" s="42"/>
+    </row>
+    <row r="795" ht="15.75" customHeight="1">
+      <c r="I795" s="42"/>
+    </row>
+    <row r="796" ht="15.75" customHeight="1">
+      <c r="I796" s="42"/>
+    </row>
+    <row r="797" ht="15.75" customHeight="1">
+      <c r="I797" s="42"/>
+    </row>
+    <row r="798" ht="15.75" customHeight="1">
+      <c r="I798" s="42"/>
+    </row>
+    <row r="799" ht="15.75" customHeight="1">
+      <c r="I799" s="42"/>
+    </row>
+    <row r="800" ht="15.75" customHeight="1">
+      <c r="I800" s="42"/>
+    </row>
+    <row r="801" ht="15.75" customHeight="1">
+      <c r="I801" s="42"/>
+    </row>
+    <row r="802" ht="15.75" customHeight="1">
+      <c r="I802" s="42"/>
+    </row>
+    <row r="803" ht="15.75" customHeight="1">
+      <c r="I803" s="42"/>
+    </row>
+    <row r="804" ht="15.75" customHeight="1">
+      <c r="I804" s="42"/>
+    </row>
+    <row r="805" ht="15.75" customHeight="1">
+      <c r="I805" s="42"/>
+    </row>
+    <row r="806" ht="15.75" customHeight="1">
+      <c r="I806" s="42"/>
+    </row>
+    <row r="807" ht="15.75" customHeight="1">
+      <c r="I807" s="42"/>
+    </row>
+    <row r="808" ht="15.75" customHeight="1">
+      <c r="I808" s="42"/>
+    </row>
+    <row r="809" ht="15.75" customHeight="1">
+      <c r="I809" s="42"/>
+    </row>
+    <row r="810" ht="15.75" customHeight="1">
+      <c r="I810" s="42"/>
+    </row>
+    <row r="811" ht="15.75" customHeight="1">
+      <c r="I811" s="42"/>
+    </row>
+    <row r="812" ht="15.75" customHeight="1">
+      <c r="I812" s="42"/>
+    </row>
+    <row r="813" ht="15.75" customHeight="1">
+      <c r="I813" s="42"/>
+    </row>
+    <row r="814" ht="15.75" customHeight="1">
+      <c r="I814" s="42"/>
+    </row>
+    <row r="815" ht="15.75" customHeight="1">
+      <c r="I815" s="42"/>
+    </row>
+    <row r="816" ht="15.75" customHeight="1">
+      <c r="I816" s="42"/>
+    </row>
+    <row r="817" ht="15.75" customHeight="1">
+      <c r="I817" s="42"/>
+    </row>
+    <row r="818" ht="15.75" customHeight="1">
+      <c r="I818" s="42"/>
+    </row>
+    <row r="819" ht="15.75" customHeight="1">
+      <c r="I819" s="42"/>
+    </row>
+    <row r="820" ht="15.75" customHeight="1">
+      <c r="I820" s="42"/>
+    </row>
+    <row r="821" ht="15.75" customHeight="1">
+      <c r="I821" s="42"/>
+    </row>
+    <row r="822" ht="15.75" customHeight="1">
+      <c r="I822" s="42"/>
+    </row>
+    <row r="823" ht="15.75" customHeight="1">
+      <c r="I823" s="42"/>
+    </row>
+    <row r="824" ht="15.75" customHeight="1">
+      <c r="I824" s="42"/>
+    </row>
+    <row r="825" ht="15.75" customHeight="1">
+      <c r="I825" s="42"/>
+    </row>
+    <row r="826" ht="15.75" customHeight="1">
+      <c r="I826" s="42"/>
+    </row>
+    <row r="827" ht="15.75" customHeight="1">
+      <c r="I827" s="42"/>
+    </row>
+    <row r="828" ht="15.75" customHeight="1">
+      <c r="I828" s="42"/>
+    </row>
+    <row r="829" ht="15.75" customHeight="1">
+      <c r="I829" s="42"/>
+    </row>
+    <row r="830" ht="15.75" customHeight="1">
+      <c r="I830" s="42"/>
+    </row>
+    <row r="831" ht="15.75" customHeight="1">
+      <c r="I831" s="42"/>
+    </row>
+    <row r="832" ht="15.75" customHeight="1">
+      <c r="I832" s="42"/>
+    </row>
+    <row r="833" ht="15.75" customHeight="1">
+      <c r="I833" s="42"/>
+    </row>
+    <row r="834" ht="15.75" customHeight="1">
+      <c r="I834" s="42"/>
+    </row>
+    <row r="835" ht="15.75" customHeight="1">
+      <c r="I835" s="42"/>
+    </row>
+    <row r="836" ht="15.75" customHeight="1">
+      <c r="I836" s="42"/>
+    </row>
+    <row r="837" ht="15.75" customHeight="1">
+      <c r="I837" s="42"/>
+    </row>
+    <row r="838" ht="15.75" customHeight="1">
+      <c r="I838" s="42"/>
+    </row>
+    <row r="839" ht="15.75" customHeight="1">
+      <c r="I839" s="42"/>
+    </row>
+    <row r="840" ht="15.75" customHeight="1">
+      <c r="I840" s="42"/>
+    </row>
+    <row r="841" ht="15.75" customHeight="1">
+      <c r="I841" s="42"/>
+    </row>
+    <row r="842" ht="15.75" customHeight="1">
+      <c r="I842" s="42"/>
+    </row>
+    <row r="843" ht="15.75" customHeight="1">
+      <c r="I843" s="42"/>
+    </row>
+    <row r="844" ht="15.75" customHeight="1">
+      <c r="I844" s="42"/>
+    </row>
+    <row r="845" ht="15.75" customHeight="1">
+      <c r="I845" s="42"/>
+    </row>
+    <row r="846" ht="15.75" customHeight="1">
+      <c r="I846" s="42"/>
+    </row>
+    <row r="847" ht="15.75" customHeight="1">
+      <c r="I847" s="42"/>
+    </row>
+    <row r="848" ht="15.75" customHeight="1">
+      <c r="I848" s="42"/>
+    </row>
+    <row r="849" ht="15.75" customHeight="1">
+      <c r="I849" s="42"/>
+    </row>
+    <row r="850" ht="15.75" customHeight="1">
+      <c r="I850" s="42"/>
+    </row>
+    <row r="851" ht="15.75" customHeight="1">
+      <c r="I851" s="42"/>
+    </row>
+    <row r="852" ht="15.75" customHeight="1">
+      <c r="I852" s="42"/>
+    </row>
+    <row r="853" ht="15.75" customHeight="1">
+      <c r="I853" s="42"/>
+    </row>
+    <row r="854" ht="15.75" customHeight="1">
+      <c r="I854" s="42"/>
+    </row>
+    <row r="855" ht="15.75" customHeight="1">
+      <c r="I855" s="42"/>
+    </row>
+    <row r="856" ht="15.75" customHeight="1">
+      <c r="I856" s="42"/>
+    </row>
+    <row r="857" ht="15.75" customHeight="1">
+      <c r="I857" s="42"/>
+    </row>
+    <row r="858" ht="15.75" customHeight="1">
+      <c r="I858" s="42"/>
+    </row>
+    <row r="859" ht="15.75" customHeight="1">
+      <c r="I859" s="42"/>
+    </row>
+    <row r="860" ht="15.75" customHeight="1">
+      <c r="I860" s="42"/>
+    </row>
+    <row r="861" ht="15.75" customHeight="1">
+      <c r="I861" s="42"/>
+    </row>
+    <row r="862" ht="15.75" customHeight="1">
+      <c r="I862" s="42"/>
+    </row>
+    <row r="863" ht="15.75" customHeight="1">
+      <c r="I863" s="42"/>
+    </row>
+    <row r="864" ht="15.75" customHeight="1">
+      <c r="I864" s="42"/>
+    </row>
+    <row r="865" ht="15.75" customHeight="1">
+      <c r="I865" s="42"/>
+    </row>
+    <row r="866" ht="15.75" customHeight="1">
+      <c r="I866" s="42"/>
+    </row>
+    <row r="867" ht="15.75" customHeight="1">
+      <c r="I867" s="42"/>
+    </row>
+    <row r="868" ht="15.75" customHeight="1">
+      <c r="I868" s="42"/>
+    </row>
+    <row r="869" ht="15.75" customHeight="1">
+      <c r="I869" s="42"/>
+    </row>
+    <row r="870" ht="15.75" customHeight="1">
+      <c r="I870" s="42"/>
+    </row>
+    <row r="871" ht="15.75" customHeight="1">
+      <c r="I871" s="42"/>
+    </row>
+    <row r="872" ht="15.75" customHeight="1">
+      <c r="I872" s="42"/>
+    </row>
+    <row r="873" ht="15.75" customHeight="1">
+      <c r="I873" s="42"/>
+    </row>
+    <row r="874" ht="15.75" customHeight="1">
+      <c r="I874" s="42"/>
+    </row>
+    <row r="875" ht="15.75" customHeight="1">
+      <c r="I875" s="42"/>
+    </row>
+    <row r="876" ht="15.75" customHeight="1">
+      <c r="I876" s="42"/>
+    </row>
+    <row r="877" ht="15.75" customHeight="1">
+      <c r="I877" s="42"/>
+    </row>
+    <row r="878" ht="15.75" customHeight="1">
+      <c r="I878" s="42"/>
+    </row>
+    <row r="879" ht="15.75" customHeight="1">
+      <c r="I879" s="42"/>
+    </row>
+    <row r="880" ht="15.75" customHeight="1">
+      <c r="I880" s="42"/>
+    </row>
+    <row r="881" ht="15.75" customHeight="1">
+      <c r="I881" s="42"/>
+    </row>
+    <row r="882" ht="15.75" customHeight="1">
+      <c r="I882" s="42"/>
+    </row>
+    <row r="883" ht="15.75" customHeight="1">
+      <c r="I883" s="42"/>
+    </row>
+    <row r="884" ht="15.75" customHeight="1">
+      <c r="I884" s="42"/>
+    </row>
+    <row r="885" ht="15.75" customHeight="1">
+      <c r="I885" s="42"/>
+    </row>
+    <row r="886" ht="15.75" customHeight="1">
+      <c r="I886" s="42"/>
+    </row>
+    <row r="887" ht="15.75" customHeight="1">
+      <c r="I887" s="42"/>
+    </row>
+    <row r="888" ht="15.75" customHeight="1">
+      <c r="I888" s="42"/>
+    </row>
+    <row r="889" ht="15.75" customHeight="1">
+      <c r="I889" s="42"/>
+    </row>
+    <row r="890" ht="15.75" customHeight="1">
+      <c r="I890" s="42"/>
+    </row>
+    <row r="891" ht="15.75" customHeight="1">
+      <c r="I891" s="42"/>
+    </row>
+    <row r="892" ht="15.75" customHeight="1">
+      <c r="I892" s="42"/>
+    </row>
+    <row r="893" ht="15.75" customHeight="1">
+      <c r="I893" s="42"/>
+    </row>
+    <row r="894" ht="15.75" customHeight="1">
+      <c r="I894" s="42"/>
+    </row>
+    <row r="895" ht="15.75" customHeight="1">
+      <c r="I895" s="42"/>
+    </row>
+    <row r="896" ht="15.75" customHeight="1">
+      <c r="I896" s="42"/>
+    </row>
+    <row r="897" ht="15.75" customHeight="1">
+      <c r="I897" s="42"/>
+    </row>
+    <row r="898" ht="15.75" customHeight="1">
+      <c r="I898" s="42"/>
+    </row>
+    <row r="899" ht="15.75" customHeight="1">
+      <c r="I899" s="42"/>
+    </row>
+    <row r="900" ht="15.75" customHeight="1">
+      <c r="I900" s="42"/>
+    </row>
+    <row r="901" ht="15.75" customHeight="1">
+      <c r="I901" s="42"/>
+    </row>
+    <row r="902" ht="15.75" customHeight="1">
+      <c r="I902" s="42"/>
+    </row>
+    <row r="903" ht="15.75" customHeight="1">
+      <c r="I903" s="42"/>
+    </row>
+    <row r="904" ht="15.75" customHeight="1">
+      <c r="I904" s="42"/>
+    </row>
+    <row r="905" ht="15.75" customHeight="1">
+      <c r="I905" s="42"/>
+    </row>
+    <row r="906" ht="15.75" customHeight="1">
+      <c r="I906" s="42"/>
+    </row>
+    <row r="907" ht="15.75" customHeight="1">
+      <c r="I907" s="42"/>
+    </row>
+    <row r="908" ht="15.75" customHeight="1">
+      <c r="I908" s="42"/>
+    </row>
+    <row r="909" ht="15.75" customHeight="1">
+      <c r="I909" s="42"/>
+    </row>
+    <row r="910" ht="15.75" customHeight="1">
+      <c r="I910" s="42"/>
+    </row>
+    <row r="911" ht="15.75" customHeight="1">
+      <c r="I911" s="42"/>
+    </row>
+    <row r="912" ht="15.75" customHeight="1">
+      <c r="I912" s="42"/>
+    </row>
+    <row r="913" ht="15.75" customHeight="1">
+      <c r="I913" s="42"/>
+    </row>
+    <row r="914" ht="15.75" customHeight="1">
+      <c r="I914" s="42"/>
+    </row>
+    <row r="915" ht="15.75" customHeight="1">
+      <c r="I915" s="42"/>
+    </row>
+    <row r="916" ht="15.75" customHeight="1">
+      <c r="I916" s="42"/>
+    </row>
+    <row r="917" ht="15.75" customHeight="1">
+      <c r="I917" s="42"/>
+    </row>
+    <row r="918" ht="15.75" customHeight="1">
+      <c r="I918" s="42"/>
+    </row>
+    <row r="919" ht="15.75" customHeight="1">
+      <c r="I919" s="42"/>
+    </row>
+    <row r="920" ht="15.75" customHeight="1">
+      <c r="I920" s="42"/>
+    </row>
+    <row r="921" ht="15.75" customHeight="1">
+      <c r="I921" s="42"/>
+    </row>
+    <row r="922" ht="15.75" customHeight="1">
+      <c r="I922" s="42"/>
+    </row>
+    <row r="923" ht="15.75" customHeight="1">
+      <c r="I923" s="42"/>
+    </row>
+    <row r="924" ht="15.75" customHeight="1">
+      <c r="I924" s="42"/>
+    </row>
+    <row r="925" ht="15.75" customHeight="1">
+      <c r="I925" s="42"/>
+    </row>
+    <row r="926" ht="15.75" customHeight="1">
+      <c r="I926" s="42"/>
+    </row>
+    <row r="927" ht="15.75" customHeight="1">
+      <c r="I927" s="42"/>
+    </row>
+    <row r="928" ht="15.75" customHeight="1">
+      <c r="I928" s="42"/>
+    </row>
+    <row r="929" ht="15.75" customHeight="1">
+      <c r="I929" s="42"/>
+    </row>
+    <row r="930" ht="15.75" customHeight="1">
+      <c r="I930" s="42"/>
+    </row>
+    <row r="931" ht="15.75" customHeight="1">
+      <c r="I931" s="42"/>
+    </row>
+    <row r="932" ht="15.75" customHeight="1">
+      <c r="I932" s="42"/>
+    </row>
+    <row r="933" ht="15.75" customHeight="1">
+      <c r="I933" s="42"/>
+    </row>
+    <row r="934" ht="15.75" customHeight="1">
+      <c r="I934" s="42"/>
+    </row>
+    <row r="935" ht="15.75" customHeight="1">
+      <c r="I935" s="42"/>
+    </row>
+    <row r="936" ht="15.75" customHeight="1">
+      <c r="I936" s="42"/>
+    </row>
+    <row r="937" ht="15.75" customHeight="1">
+      <c r="I937" s="42"/>
+    </row>
+    <row r="938" ht="15.75" customHeight="1">
+      <c r="I938" s="42"/>
+    </row>
+    <row r="939" ht="15.75" customHeight="1">
+      <c r="I939" s="42"/>
+    </row>
+    <row r="940" ht="15.75" customHeight="1">
+      <c r="I940" s="42"/>
+    </row>
+    <row r="941" ht="15.75" customHeight="1">
+      <c r="I941" s="42"/>
+    </row>
+    <row r="942" ht="15.75" customHeight="1">
+      <c r="I942" s="42"/>
+    </row>
+    <row r="943" ht="15.75" customHeight="1">
+      <c r="I943" s="42"/>
+    </row>
+    <row r="944" ht="15.75" customHeight="1">
+      <c r="I944" s="42"/>
+    </row>
+    <row r="945" ht="15.75" customHeight="1">
+      <c r="I945" s="42"/>
+    </row>
+    <row r="946" ht="15.75" customHeight="1">
+      <c r="I946" s="42"/>
+    </row>
+    <row r="947" ht="15.75" customHeight="1">
+      <c r="I947" s="42"/>
+    </row>
+    <row r="948" ht="15.75" customHeight="1">
+      <c r="I948" s="42"/>
+    </row>
+    <row r="949" ht="15.75" customHeight="1">
+      <c r="I949" s="42"/>
+    </row>
+    <row r="950" ht="15.75" customHeight="1">
+      <c r="I950" s="42"/>
+    </row>
+    <row r="951" ht="15.75" customHeight="1">
+      <c r="I951" s="42"/>
+    </row>
+    <row r="952" ht="15.75" customHeight="1">
+      <c r="I952" s="42"/>
+    </row>
+    <row r="953" ht="15.75" customHeight="1">
+      <c r="I953" s="42"/>
+    </row>
+    <row r="954" ht="15.75" customHeight="1">
+      <c r="I954" s="42"/>
+    </row>
+    <row r="955" ht="15.75" customHeight="1">
+      <c r="I955" s="42"/>
+    </row>
+    <row r="956" ht="15.75" customHeight="1">
+      <c r="I956" s="42"/>
+    </row>
+    <row r="957" ht="15.75" customHeight="1">
+      <c r="I957" s="42"/>
+    </row>
+    <row r="958" ht="15.75" customHeight="1">
+      <c r="I958" s="42"/>
+    </row>
+    <row r="959" ht="15.75" customHeight="1">
+      <c r="I959" s="42"/>
+    </row>
+    <row r="960" ht="15.75" customHeight="1">
+      <c r="I960" s="42"/>
+    </row>
+    <row r="961" ht="15.75" customHeight="1">
+      <c r="I961" s="42"/>
+    </row>
+    <row r="962" ht="15.75" customHeight="1">
+      <c r="I962" s="42"/>
+    </row>
+    <row r="963" ht="15.75" customHeight="1">
+      <c r="I963" s="42"/>
+    </row>
+    <row r="964" ht="15.75" customHeight="1">
+      <c r="I964" s="42"/>
+    </row>
+    <row r="965" ht="15.75" customHeight="1">
+      <c r="I965" s="42"/>
+    </row>
+    <row r="966" ht="15.75" customHeight="1">
+      <c r="I966" s="42"/>
+    </row>
+    <row r="967" ht="15.75" customHeight="1">
+      <c r="I967" s="42"/>
+    </row>
+    <row r="968" ht="15.75" customHeight="1">
+      <c r="I968" s="42"/>
+    </row>
+    <row r="969" ht="15.75" customHeight="1">
+      <c r="I969" s="42"/>
+    </row>
+    <row r="970" ht="15.75" customHeight="1">
+      <c r="I970" s="42"/>
+    </row>
+    <row r="971" ht="15.75" customHeight="1">
+      <c r="I971" s="42"/>
+    </row>
+    <row r="972" ht="15.75" customHeight="1">
+      <c r="I972" s="42"/>
+    </row>
+    <row r="973" ht="15.75" customHeight="1">
+      <c r="I973" s="42"/>
+    </row>
+    <row r="974" ht="15.75" customHeight="1">
+      <c r="I974" s="42"/>
+    </row>
+    <row r="975" ht="15.75" customHeight="1">
+      <c r="I975" s="42"/>
+    </row>
+    <row r="976" ht="15.75" customHeight="1">
+      <c r="I976" s="42"/>
+    </row>
+    <row r="977" ht="15.75" customHeight="1">
+      <c r="I977" s="42"/>
+    </row>
+    <row r="978" ht="15.75" customHeight="1">
+      <c r="I978" s="42"/>
+    </row>
+    <row r="979" ht="15.75" customHeight="1">
+      <c r="I979" s="42"/>
+    </row>
+    <row r="980" ht="15.75" customHeight="1">
+      <c r="I980" s="42"/>
+    </row>
+    <row r="981" ht="15.75" customHeight="1">
+      <c r="I981" s="42"/>
+    </row>
+    <row r="982" ht="15.75" customHeight="1">
+      <c r="I982" s="42"/>
+    </row>
+    <row r="983" ht="15.75" customHeight="1">
+      <c r="I983" s="42"/>
+    </row>
+    <row r="984" ht="15.75" customHeight="1">
+      <c r="I984" s="42"/>
+    </row>
+    <row r="985" ht="15.75" customHeight="1">
+      <c r="I985" s="42"/>
+    </row>
+    <row r="986" ht="15.75" customHeight="1">
+      <c r="I986" s="42"/>
+    </row>
+    <row r="987" ht="15.75" customHeight="1">
+      <c r="I987" s="42"/>
+    </row>
+    <row r="988" ht="15.75" customHeight="1">
+      <c r="I988" s="42"/>
+    </row>
+    <row r="989" ht="15.75" customHeight="1">
+      <c r="I989" s="42"/>
+    </row>
+    <row r="990" ht="15.75" customHeight="1">
+      <c r="I990" s="42"/>
+    </row>
+    <row r="991" ht="15.75" customHeight="1">
+      <c r="I991" s="42"/>
+    </row>
+    <row r="992" ht="15.75" customHeight="1">
+      <c r="I992" s="42"/>
+    </row>
+    <row r="993" ht="15.75" customHeight="1">
+      <c r="I993" s="42"/>
+    </row>
+    <row r="994" ht="15.75" customHeight="1">
+      <c r="I994" s="42"/>
+    </row>
+    <row r="995" ht="15.75" customHeight="1">
+      <c r="I995" s="42"/>
+    </row>
+    <row r="996" ht="15.75" customHeight="1">
+      <c r="I996" s="42"/>
+    </row>
+    <row r="997" ht="15.75" customHeight="1">
+      <c r="I997" s="42"/>
+    </row>
+    <row r="998" ht="15.75" customHeight="1">
+      <c r="I998" s="42"/>
+    </row>
+    <row r="999" ht="15.75" customHeight="1">
+      <c r="I999" s="42"/>
+    </row>
+    <row r="1000" ht="15.75" customHeight="1">
+      <c r="I1000" s="42"/>
+    </row>
+    <row r="1001" ht="15.75" customHeight="1">
+      <c r="I1001" s="42"/>
+    </row>
+    <row r="1002" ht="15.75" customHeight="1">
+      <c r="I1002" s="42"/>
+    </row>
+    <row r="1003" ht="15.75" customHeight="1">
+      <c r="I1003" s="42"/>
+    </row>
+    <row r="1004" ht="15.75" customHeight="1">
+      <c r="I1004" s="42"/>
+    </row>
+    <row r="1005" ht="15.75" customHeight="1">
+      <c r="I1005" s="42"/>
+    </row>
+    <row r="1006" ht="15.75" customHeight="1">
+      <c r="I1006" s="42"/>
+    </row>
+    <row r="1007" ht="15.75" customHeight="1">
+      <c r="I1007" s="42"/>
+    </row>
+    <row r="1008" ht="15.75" customHeight="1">
+      <c r="I1008" s="42"/>
+    </row>
+    <row r="1009" ht="15.75" customHeight="1">
+      <c r="I1009" s="42"/>
+    </row>
+    <row r="1010" ht="15.75" customHeight="1">
+      <c r="I1010" s="42"/>
+    </row>
+    <row r="1011" ht="15.75" customHeight="1">
+      <c r="I1011" s="42"/>
+    </row>
+    <row r="1012" ht="15.75" customHeight="1">
+      <c r="I1012" s="42"/>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="F15"/>
+    <hyperlink r:id="rId2" ref="E15"/>
+    <hyperlink r:id="rId3" ref="E17"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -19902,7 +22440,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="69" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="28" t="s">
@@ -19919,44 +22457,44 @@
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" s="32" t="s">
-        <v>484</v>
+        <v>527</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>485</v>
+        <v>528</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="31" t="s">
-        <v>486</v>
+        <v>529</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="31">
         <v>0.2</v>
       </c>
-      <c r="G2" s="115"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
     </row>
     <row r="3" ht="12.0" customHeight="1"/>
     <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="112" t="s">
-        <v>487</v>
-      </c>
-      <c r="C4" s="80" t="s">
+      <c r="B4" s="120" t="s">
+        <v>530</v>
+      </c>
+      <c r="C4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="80" t="s">
+      <c r="D4" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="80" t="s">
+      <c r="E4" s="79" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="80" t="s">
+      <c r="F4" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="80" t="s">
+      <c r="G4" s="79" t="s">
         <v>14</v>
       </c>
       <c r="H4" s="36" t="s">
@@ -19965,7 +22503,7 @@
       <c r="I4" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="80" t="s">
+      <c r="J4" s="79" t="s">
         <v>17</v>
       </c>
       <c r="K4" s="53" t="s">
@@ -19974,17 +22512,17 @@
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>488</v>
+        <v>531</v>
       </c>
       <c r="B5" s="113"/>
       <c r="C5" s="15" t="s">
-        <v>489</v>
+        <v>532</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>490</v>
+        <v>533</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>491</v>
+        <v>534</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15">
@@ -19992,26 +22530,26 @@
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="16" t="s">
-        <v>492</v>
+        <v>535</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>493</v>
+        <v>536</v>
       </c>
       <c r="B6" s="113" t="s">
-        <v>494</v>
+        <v>537</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>495</v>
+        <v>538</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>496</v>
+        <v>539</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>497</v>
+        <v>540</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15">
@@ -20019,16 +22557,16 @@
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="16" t="s">
-        <v>498</v>
+        <v>541</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>499</v>
+        <v>542</v>
       </c>
       <c r="K6" s="15"/>
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>500</v>
+        <v>543</v>
       </c>
       <c r="B7" s="113"/>
       <c r="C7" s="15" t="s">
@@ -20038,7 +22576,7 @@
         <v>165</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>501</v>
+        <v>544</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>167</v>
@@ -20046,14 +22584,14 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="16" t="s">
-        <v>502</v>
-      </c>
-      <c r="J7" s="90"/>
+        <v>545</v>
+      </c>
+      <c r="J7" s="89"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>503</v>
+        <v>546</v>
       </c>
       <c r="B8" s="113"/>
       <c r="C8" s="15" t="s">
@@ -20069,17 +22607,17 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="16" t="s">
-        <v>504</v>
+        <v>547</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>505</v>
+        <v>548</v>
       </c>
       <c r="B9" s="113" t="s">
-        <v>506</v>
+        <v>549</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>175</v>
@@ -20088,34 +22626,34 @@
         <v>176</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>507</v>
+        <v>550</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="16" t="s">
-        <v>508</v>
+        <v>551</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>509</v>
+        <v>552</v>
       </c>
       <c r="B10" s="113" t="s">
-        <v>510</v>
+        <v>553</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>511</v>
+        <v>554</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>512</v>
+        <v>555</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="F10" s="98" t="s">
+        <v>556</v>
+      </c>
+      <c r="F10" s="97" t="s">
         <v>234</v>
       </c>
       <c r="G10" s="15">
@@ -20123,82 +22661,82 @@
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="16" t="s">
-        <v>514</v>
+        <v>557</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
     </row>
     <row r="11" ht="12.0" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>515</v>
+        <v>558</v>
       </c>
       <c r="B11" s="113"/>
       <c r="C11" s="15" t="s">
-        <v>516</v>
+        <v>559</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>517</v>
+        <v>560</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>518</v>
-      </c>
-      <c r="F11" s="98" t="s">
-        <v>519</v>
+        <v>561</v>
+      </c>
+      <c r="F11" s="97" t="s">
+        <v>562</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="16" t="s">
-        <v>520</v>
+        <v>563</v>
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" ht="49.5" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>521</v>
+        <v>564</v>
       </c>
       <c r="B12" s="113" t="s">
-        <v>522</v>
+        <v>565</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>523</v>
+        <v>566</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>524</v>
-      </c>
-      <c r="E12" s="86" t="s">
-        <v>525</v>
+        <v>567</v>
+      </c>
+      <c r="E12" s="85" t="s">
+        <v>568</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>526</v>
+        <v>569</v>
       </c>
       <c r="G12" s="15">
         <v>1.0</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="16" t="s">
-        <v>527</v>
+        <v>570</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>528</v>
+        <v>571</v>
       </c>
       <c r="K12" s="15"/>
     </row>
     <row r="13" ht="12.0" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>529</v>
+        <v>572</v>
       </c>
       <c r="B13" s="113" t="s">
-        <v>530</v>
+        <v>573</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>531</v>
+        <v>574</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>532</v>
+        <v>575</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>533</v>
+        <v>576</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15">
@@ -20206,53 +22744,53 @@
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="16" t="s">
-        <v>534</v>
+        <v>577</v>
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>535</v>
+        <v>578</v>
       </c>
       <c r="B14" s="113" t="s">
-        <v>536</v>
+        <v>579</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>537</v>
+        <v>580</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>538</v>
+        <v>581</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>539</v>
+        <v>582</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>540</v>
+        <v>583</v>
       </c>
       <c r="G14" s="15">
         <v>1.0</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="16" t="s">
-        <v>541</v>
+        <v>584</v>
       </c>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>542</v>
+        <v>585</v>
       </c>
       <c r="B15" s="113"/>
       <c r="C15" s="16" t="s">
-        <v>543</v>
+        <v>586</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>544</v>
+        <v>587</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>545</v>
+        <v>588</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15">
@@ -20260,47 +22798,47 @@
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="16" t="s">
-        <v>546</v>
-      </c>
-      <c r="J15" s="90"/>
+        <v>589</v>
+      </c>
+      <c r="J15" s="89"/>
       <c r="K15" s="15"/>
     </row>
     <row r="16" ht="12.0" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>547</v>
+        <v>590</v>
       </c>
       <c r="B16" s="113"/>
       <c r="C16" s="15" t="s">
-        <v>548</v>
+        <v>591</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>549</v>
+        <v>592</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>550</v>
+        <v>593</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="16" t="s">
-        <v>551</v>
+        <v>594</v>
       </c>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>552</v>
+        <v>595</v>
       </c>
       <c r="B17" s="113"/>
       <c r="C17" s="15" t="s">
-        <v>553</v>
+        <v>596</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>554</v>
+        <v>597</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>555</v>
+        <v>598</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15">
@@ -20308,34 +22846,34 @@
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="16" t="s">
-        <v>556</v>
+        <v>599</v>
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>557</v>
+        <v>600</v>
       </c>
       <c r="B18" s="113"/>
       <c r="C18" s="15" t="s">
-        <v>558</v>
+        <v>601</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>559</v>
+        <v>602</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>560</v>
+        <v>603</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>561</v>
+        <v>604</v>
       </c>
       <c r="G18" s="15">
         <v>1.0</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="16" t="s">
-        <v>562</v>
+        <v>605</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>

--- a/Estimates 22 BDG [Final].xlsx
+++ b/Estimates 22 BDG [Final].xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="00-Oveview" sheetId="1" state="visible" r:id="rId2"/>
@@ -3233,13 +3233,13 @@
   </sheetPr>
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49"/>
@@ -10012,7 +10012,7 @@
       <selection pane="bottomLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.86"/>
@@ -11557,11 +11557,11 @@
   </sheetPr>
   <dimension ref="A1:Y996"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.29"/>
@@ -11720,9 +11720,7 @@
         <v>143</v>
       </c>
       <c r="E7" s="15"/>
-      <c r="F7" s="29" t="n">
-        <v>1</v>
-      </c>
+      <c r="F7" s="29"/>
       <c r="G7" s="21"/>
       <c r="H7" s="15"/>
       <c r="I7" s="15" t="s">
@@ -11761,9 +11759,7 @@
       <c r="E8" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="29" t="n">
-        <v>1</v>
-      </c>
+      <c r="F8" s="29"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15" t="s">
@@ -11802,9 +11798,7 @@
       <c r="E9" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="F9" s="29" t="n">
-        <v>1</v>
-      </c>
+      <c r="F9" s="29"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15" t="s">
@@ -11882,9 +11876,7 @@
       <c r="E11" s="28" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="15" t="n">
-        <v>1</v>
-      </c>
+      <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15" t="s">
@@ -12925,7 +12917,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9"/>
@@ -14237,7 +14229,7 @@
       <selection pane="bottomLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.57"/>
@@ -15823,7 +15815,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.01"/>
@@ -17085,7 +17077,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.41"/>
@@ -18448,7 +18440,7 @@
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.3"/>
@@ -21883,7 +21875,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.43"/>

--- a/Estimates 22 BDG [Final].xlsx
+++ b/Estimates 22 BDG [Final].xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="00-Oveview" sheetId="1" state="visible" r:id="rId2"/>
@@ -387,7 +387,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="572">
   <si>
     <t xml:space="preserve">Milestone Title (Visible to User):</t>
   </si>
@@ -1881,6 +1881,9 @@
     <t xml:space="preserve">check_manual_confirmation('EST-S90-11-01-A')</t>
   </si>
   <si>
+    <t xml:space="preserve">Data Loader:</t>
+  </si>
+  <si>
     <t xml:space="preserve">Finalize National HIV Estimates in Spectrum</t>
   </si>
   <si>
@@ -1888,6 +1891,9 @@
   </si>
   <si>
     <t xml:space="preserve">Milestones, 1, 2, 3, 4, 5 and 6 are completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">load_csv_from_zipped_resource('inputs-unaids-spectrum-file', '.*_check.CSV', 'spectrum-validation-file ')</t>
   </si>
   <si>
     <t xml:space="preserve">SPF-01-10</t>
@@ -3239,7 +3245,7 @@
       <selection pane="bottomLeft" activeCell="D22" activeCellId="0" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49"/>
@@ -10012,7 +10018,7 @@
       <selection pane="bottomLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.86"/>
@@ -11557,11 +11563,11 @@
   </sheetPr>
   <dimension ref="A1:Y996"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.29"/>
@@ -12917,7 +12923,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9"/>
@@ -14229,7 +14235,7 @@
       <selection pane="bottomLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.57"/>
@@ -15815,7 +15821,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.01"/>
@@ -17077,7 +17083,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.41"/>
@@ -18436,18 +18442,19 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="50.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="46.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="11.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="32.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="28.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="27.43"/>
@@ -18470,21 +18477,27 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="2" t="s">
+        <v>407</v>
+      </c>
       <c r="I1" s="30"/>
     </row>
     <row r="2" customFormat="false" ht="75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="E2" s="6" t="n">
         <v>0.2</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>411</v>
       </c>
       <c r="I2" s="30"/>
     </row>
@@ -18528,66 +18541,66 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="13" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="K5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="I6" s="80"/>
       <c r="J6" s="13" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13" t="n">
@@ -18595,31 +18608,31 @@
       </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="I7" s="80" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="J7" s="13" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="K7" s="13"/>
       <c r="L7" s="81" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13" t="n">
@@ -18627,26 +18640,26 @@
       </c>
       <c r="G8" s="13"/>
       <c r="H8" s="13" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="I8" s="80"/>
       <c r="J8" s="13" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="199.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13" t="n">
@@ -18654,7 +18667,7 @@
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="I9" s="80"/>
       <c r="J9" s="13"/>
@@ -18662,16 +18675,16 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E10" s="61"/>
       <c r="F10" s="13" t="n">
@@ -18679,51 +18692,51 @@
       </c>
       <c r="G10" s="13"/>
       <c r="H10" s="13" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="I10" s="80" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
       <c r="H11" s="13" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="I11" s="80"/>
       <c r="J11" s="13" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="K11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13" t="n">
@@ -18731,32 +18744,32 @@
       </c>
       <c r="G12" s="13"/>
       <c r="H12" s="13" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="I12" s="80" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="J12" s="13"/>
       <c r="K12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="13" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="I13" s="80"/>
       <c r="J13" s="13"/>
@@ -18764,22 +18777,22 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="13"/>
       <c r="G14" s="13"/>
       <c r="H14" s="13" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="I14" s="80"/>
       <c r="J14" s="13"/>
@@ -18787,95 +18800,95 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E15" s="58" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F15" s="13" t="n">
         <v>1</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="I15" s="80"/>
       <c r="J15" s="13" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="K15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="I16" s="80"/>
       <c r="J16" s="13" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="K16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
       <c r="H17" s="13" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="I17" s="80"/>
       <c r="J17" s="13" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="K17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13" t="n">
@@ -18883,7 +18896,7 @@
       </c>
       <c r="G18" s="13"/>
       <c r="H18" s="13" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="I18" s="80"/>
       <c r="J18" s="13"/>
@@ -21875,7 +21888,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.48046875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.43"/>
@@ -21909,14 +21922,14 @@
     </row>
     <row r="2" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="7" t="n">
@@ -21932,7 +21945,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="83" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C4" s="52" t="s">
         <v>10</v>
@@ -21964,17 +21977,17 @@
     </row>
     <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B5" s="80"/>
       <c r="C5" s="13" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F5" s="13"/>
       <c r="G5" s="13" t="n">
@@ -21982,26 +21995,26 @@
       </c>
       <c r="H5" s="13"/>
       <c r="I5" s="13" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="13" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B6" s="80" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13" t="n">
@@ -22009,16 +22022,16 @@
       </c>
       <c r="H6" s="13"/>
       <c r="I6" s="13" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="K6" s="13"/>
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="13" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B7" s="80"/>
       <c r="C7" s="13" t="s">
@@ -22028,7 +22041,7 @@
         <v>174</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F7" s="13" t="s">
         <v>176</v>
@@ -22036,14 +22049,14 @@
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="J7" s="61"/>
       <c r="K7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="13" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B8" s="80"/>
       <c r="C8" s="13" t="s">
@@ -22059,17 +22072,17 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="13" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B9" s="80" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C9" s="13" t="s">
         <v>184</v>
@@ -22078,32 +22091,32 @@
         <v>185</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
       <c r="H9" s="13"/>
       <c r="I9" s="13" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
     </row>
     <row r="10" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="13" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B10" s="80" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F10" s="66" t="s">
         <v>231</v>
@@ -22113,82 +22126,82 @@
       </c>
       <c r="H10" s="13"/>
       <c r="I10" s="13" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="J10" s="13"/>
       <c r="K10" s="13"/>
     </row>
     <row r="11" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="13" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B11" s="80"/>
       <c r="C11" s="13" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="F11" s="66" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="13"/>
       <c r="I11" s="13" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
     </row>
     <row r="12" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="13" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B12" s="80" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E12" s="58" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="G12" s="13" t="n">
         <v>1</v>
       </c>
       <c r="H12" s="13"/>
       <c r="I12" s="13" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="J12" s="13" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="K12" s="13"/>
     </row>
     <row r="13" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="13" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B13" s="80" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="F13" s="13"/>
       <c r="G13" s="13" t="n">
@@ -22196,53 +22209,53 @@
       </c>
       <c r="H13" s="13"/>
       <c r="I13" s="13" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="J13" s="13"/>
       <c r="K13" s="13"/>
     </row>
     <row r="14" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="13" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B14" s="80" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="G14" s="13" t="n">
         <v>1</v>
       </c>
       <c r="H14" s="13"/>
       <c r="I14" s="13" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="13"/>
     </row>
     <row r="15" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="13" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B15" s="80"/>
       <c r="C15" s="13" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="13" t="n">
@@ -22250,47 +22263,47 @@
       </c>
       <c r="H15" s="13"/>
       <c r="I15" s="13" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="J15" s="61"/>
       <c r="K15" s="13"/>
     </row>
     <row r="16" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="13" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B16" s="80"/>
       <c r="C16" s="13" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
     </row>
     <row r="17" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="13" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B17" s="80"/>
       <c r="C17" s="13" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F17" s="13"/>
       <c r="G17" s="13" t="n">
@@ -22298,34 +22311,34 @@
       </c>
       <c r="H17" s="13"/>
       <c r="I17" s="13" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
     </row>
     <row r="18" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="13" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B18" s="80"/>
       <c r="C18" s="13" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="G18" s="13" t="n">
         <v>1</v>
       </c>
       <c r="H18" s="13"/>
       <c r="I18" s="13" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>

--- a/Estimates 22 BDG [Final].xlsx
+++ b/Estimates 22 BDG [Final].xlsx
@@ -17,7 +17,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataSignature="AMtx7mhAJuQuCrSUcWDHjvnrU0Nyiot4Pg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataSignature="AMtx7mgY3G13jMtTAPFPPdMwQciM5i5Isg=="/>
     </ext>
   </extLst>
 </workbook>
@@ -120,7 +120,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhNGibSaD8hG1aPYAybAzeJZKxv6g=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhQRdaztJoEiZyPRyiaOIY4w4Iw+w=="/>
     </ext>
   </extLst>
 </comments>
@@ -242,6 +242,15 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="D17">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAASdCRYWw
+Jonathan Berry    (2021-12-03 12:11:21)
+@jonathan@strategy4ward.com To check the wording of these automatic spectrum check tasks when he can.
+_Assigned to Jonathan Pearson_</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="K18">
       <text>
         <t xml:space="preserve">======
@@ -264,7 +273,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miByJhmzgEBl81JZEBBclzR2Xk33A=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miIk/v7InulN46/q1ENwBPYMeYRLw=="/>
     </ext>
   </extLst>
 </comments>
@@ -276,6 +285,14 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="E19">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAASdCRYWg
+Jonathan Berry    (2021-12-03 12:04:13)
+@jonathan@strategy4ward.com to review the wording of these tasks for  Naomi automatic checks when he can.</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="F18">
       <text>
         <t xml:space="preserve">======
@@ -289,14 +306,14 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgJslj5uvmHEvEMtEDbwbds5MVx3A=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgkJMrpR5qGHcJ916e/YHH+qqje6A=="/>
     </ext>
   </extLst>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="645">
   <si>
     <t>Milestone Title (Visible to User):</t>
   </si>
@@ -667,7 +684,7 @@
     <t>Has user updated VMMC data file?</t>
   </si>
   <si>
-    <t xml:space="preserve">*This task is only for VMMC priority countries. If you are not from one of the priority VMMC countries, mark this task complete and click "What's Next".* Before you upload data files to your Inputs Package to ADR, ensure you have updated the data files for the current reporting period.  **Update** your programme data files for VMMC (if relevant). If you produced a VMMC data file last year, UNAIDS has placed that final file in this year's Inputs Package for your convenience. UNAIDS recommends beginning with last year's final Inputs Package and only updating the files for the current reporting period. If you are not using VMMC data for your estimates, you can market this task as complete. You can learn more about the data elements required in Guide 8 Data Quality, Indicator Elements Matrix. </t>
+    <t xml:space="preserve">*This task is only for VMMC priority countries. If you are not from one of the priority VMMC countries, mark this task complete and click "What's Next".* Before you upload data files to your Inputs Package to ADR, ensure you have updated the data files for the current reporting period.  **Update** your programme data files for VMMC (if relevant). UNAIDS recommends beginning with last year's data and only updating as necessary for the current reporting period. If you are not using VMMC data for your estimates, you can market this task as complete. You can learn more about the data elements required in Guide 8 Data Quality, Indicator Elements Matrix. </t>
   </si>
   <si>
     <t>check_manual_confirmation('EST-GEN-05-01-A')</t>
@@ -2283,7 +2300,10 @@
     <t>SPF-13-01</t>
   </si>
   <si>
-    <t xml:space="preserve">Navigator has detected that there is a problem with your Spectrum file. 
+    <t>Spectrum Validation: Enter PMTCT data for the current reporting year into Spectrum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Navigator has detected that there is a problem with your Spectrum file. **
 Spectrum requires up-to-date PMTCT programme data for the reporting period. These data are required for each Spectrum file. You can find all required data elements in the Guide 8, Data quality, Indicator Element Matrix. Spectrum also provides specific guidance for each regimen in the PMTCT data entry page. *It is highly recommended you finalize your programme data before beginning the Spectrum process.* If edits to PMTCT programme data are required later in the process, you will have to return to this step. For countries with sub-national Spectrum estimates (optional), this step applies to each file. 
 Please ensure you correct this in your Spectrum file **and then reupload the file to the ADR** in order to complete this task. </t>
   </si>
@@ -2313,7 +2333,10 @@
     <t>SPF-14-01</t>
   </si>
   <si>
-    <t xml:space="preserve">Navigator has detected that there is a problem with your Spectrum file. 
+    <t>Spectrum Validation: Update Adult ART data in Spectrum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Navigator has detected that there is a problem with your Spectrum file. **
 Spectrum requires up-to-date Adult ART programme data for the reporting period for estimating treatment coverage and for estimating incidence. You should update the ART data before running your incidence curve. Data on the number newly initiated on ART and lost to follow up can improve the precision of some of the outputs from Spectrum. If those data are available be sure to include them. You can find all required data elements in the Guide 8, Data quality, Indicator Element Matrix. If edits to the ART programme data are required later in the process, you will have to rerun your incidence curve fitting. 
 Please ensure you correct this in your Spectrum file **and then reupload the file to the ADR** in order to complete this task. </t>
   </si>
@@ -2328,7 +2351,10 @@
     <t>SPF-15-01</t>
   </si>
   <si>
-    <t xml:space="preserve">Navigator has detected that there is a problem with your Spectrum file. 
+    <t>Spectrum Validation: Update Pediatric ART data in Spectrum for the current reporting period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Navigator has detected that there is a problem with your Spectrum file. **
 Spectrum requires up-to-date Pediatric ART programme data for the reporting period. You can find all required data elements in the Guide 8, Data quality, Indicator Element Matrix. It is highly recommended you finalize your programme data before beginning the Spectrum process. If edits to ART programme data are required later in the process, you will have to return to this step. 
 Please ensure you correct this in your Spectrum file **and then reupload the file to the ADR** in order to complete this task. </t>
   </si>
@@ -2337,6 +2363,9 @@
   </si>
   <si>
     <t>SPF-16-01</t>
+  </si>
+  <si>
+    <t>Spectrum Validation: Update viral load suppression data in Spectrum for the current reporting period for adult females and males and pediatric populations</t>
   </si>
   <si>
     <r>
@@ -2357,7 +2386,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Navigator has detected that there is a problem with your Spectrum file. 
+    <t xml:space="preserve">**Navigator has detected that there is a problem with your Spectrum file. **
 Spectrum requires up-to-date adult and pediatric viral load suppression programme data for the reporting period. You can find all required data elements in the Guide 8, Data quality, Indicator Element Matrix. It is highly recommended you finalize your programme data before beginning the Spectrum process. Enter the best, most up-to-date viral load suppression data you have for adult female, adult male, and pediatric populations. 
 Please ensure you correct this in your Spectrum file **and then reupload the file to the ADR** in order to complete this task. </t>
   </si>
@@ -2368,7 +2397,10 @@
     <t>SPF-17-01</t>
   </si>
   <si>
-    <t xml:space="preserve">Navigator has detected that there is a problem with your Spectrum file. 
+    <t>Spectrum Validation: Confirm default values for adult parameters under Advanced Options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Navigator has detected that there is a problem with your Spectrum file. **
 To produce accurate estimates, Spectrum relies on a number of assumptions that are summarized under Advanced Options. These parameters are updated every year as new research and evidence is available on those parameters. For Spectrum on the Desktop update the parameters by selecting Advanced Options &gt; Adult Parameters &gt; Restore defaults. For Spectrum on the web: enter Advanced Options and confirm the default selections for adult parameters. If you see values in red font, the parameters have not been updated. To learn more about the Advanced Options, see the Spectrum training materials.
 Please ensure you correct this in your Spectrum file **and then reupload the file to the ADR** in order to complete this task. </t>
   </si>
@@ -2379,7 +2411,10 @@
     <t>SPF-18-01</t>
   </si>
   <si>
-    <t xml:space="preserve">Navigator has detected that there is a problem with your Spectrum file. 
+    <t>Spectrum Validation: Confirm default values for pediatric parameters under Advanced Options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Navigator has detected that there is a problem with your Spectrum file. **
 To produce accurate estimates, Spectrum relies on a number of assumptions that are summarized under Advanced Options. These parameters are updated every year as new research and evidence is available on those parameters. For Spectrum on the Desktop update the parameters by selecting Advanced Options &gt; Pediatric Parameters &gt; Restore defaults. For Spectrum on the web: enter Advanced Options and confirm the default selections for pediatric parameters. If you see values in red font, the parameters have not been updated. To learn more about the Advanced Options, see the Spectrum training materials.
 Please ensure you correct this in your Spectrum file **and then reupload the file to the ADR** in order to complete this task. </t>
   </si>
@@ -2390,7 +2425,10 @@
     <t>SPF-19-01</t>
   </si>
   <si>
-    <t xml:space="preserve">Navigator has detected that there is a problem with your Spectrum file. 
+    <t>Spectrum Validation: Confirm default values for Fertility Rate Ratios under Advanced Options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Navigator has detected that there is a problem with your Spectrum file. **
 To produce accurate estimates, Spectrum requires the correct options are selected under Advanced Options. Enter Advanced Options in Spectrum Web and confirm the default selections for the "HIV-related fertility reductions" are correct for your country. They must be confirmed for CD4, on ART, and off ART. To learn more about the Advanced Options, see the Spectrum training materials.
 Please ensure you correct this in your Spectrum file **and then reupload the file to the ADR** in order to complete this task. </t>
   </si>
@@ -2401,7 +2439,10 @@
     <t>SPF-20-01</t>
   </si>
   <si>
-    <t xml:space="preserve">Navigator has detected that there is a problem with your Spectrum file. 
+    <t>Spectrum Validation: Confirm default values for MTCT probabilities under Advanced Options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Navigator has detected that there is a problem with your Spectrum file. **
 To produce accurate estimates, Spectrum requires the correct options are selected under Advanced Options. Enter Advanced Options in Spectrum Web and confirm the default selections for the "MTCT Transmission Probabilities" are correct for your country. To learn more about the Advanced Options, see the Spectrum training materials.
 Please ensure you correct this in your Spectrum file **and then reupload the file to the ADR** in order to complete this task. </t>
   </si>
@@ -2412,7 +2453,10 @@
     <t>SPF-21-01</t>
   </si>
   <si>
-    <t xml:space="preserve">Navigator has detected that there is a problem with your Spectrum file. 
+    <t>Spectrum Validation: Confirm default values for new ART allocation method under Advanced Options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Navigator has detected that there is a problem with your Spectrum file. **
 To produce accurate estimates, Spectrum requires the correct options are selected under Advanced Options. Enter Advanced Options in Spectrum Web and confirm the default selection for the "allocation method for new ART patients" is correct for your country. To learn more about the Advanced Options, see the Spectrum training materials. 
 Please ensure you correct this in your Spectrum file **and then reupload the file to the ADR** in order to complete this task. </t>
   </si>
@@ -2423,7 +2467,10 @@
     <t>SPF-22-01</t>
   </si>
   <si>
-    <t xml:space="preserve">Navigator has detected that there is a problem with your Spectrum file. 
+    <t>Spectrum Validation: Upload a completed Shiny 90 file to Spectrum or enter KOS estimates in another format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Navigator has detected that there is a problem with your Spectrum file. **
 Each of your Spectrum files requires updated knowledge of status data elements for current estimates year using one of available options - Direct Entry of Case Reports, Shiny 90, CSAVR, ECDC, Manual Entry. Most countries will use Shiny 90. If you have used Shiny 90, you must upload your Shiny 90 model outputs (AIM &gt; Program Statistics &gt; Knowledge of Status &gt; Data Source = Shiny 90 &gt; Load Data).
 Please ensure you correct this in your Spectrum file **and then reupload the file to the ADR** in order to complete this task. </t>
   </si>
@@ -2432,6 +2479,9 @@
   </si>
   <si>
     <t>SPF-23-01</t>
+  </si>
+  <si>
+    <t>Spectrum Validation: Confirm your ART and PMTCT coverage does not exceed 100%</t>
   </si>
   <si>
     <r>
@@ -2461,7 +2511,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Navigator has detected that there is a problem with your Spectrum file. 
+    <t xml:space="preserve">**Navigator has detected that there is a problem with your Spectrum file. **
 Occasionally, Spectrum will produce coverage of over 100% for ART or PMTCT services. There are multiple causes for coverage results over 100%. UNAIDS recommends consulting your estimates facilitator and/or UNAIDS to determine how to address coverage issues in your model results. 
 Please ensure you correct this in your Spectrum file **and then reupload the file to the ADR** in order to complete this task. </t>
   </si>
@@ -2472,7 +2522,10 @@
     <t>SPF-24-01</t>
   </si>
   <si>
-    <t xml:space="preserve">Navigator has detected that there is a problem with your Spectrum file. 
+    <t>Spectrum Validation: Run Uncertainty Analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">**Navigator has detected that there is a problem with your Spectrum file. **
 The uncertainty associated with each result can be estimated using the Uncertainty Analysis tool. Access this tool by choosing ‘Tools’ from the top horizontal menu, then ‘More Tools’, then ‘Uncertainty analysis’. 
 Set the ‘Aggregate data capture year’ to the final year of data and the ‘Number of iterations’ to 300, then click the ‘Process’ button. The model will run 300 simulations by choosing values for the epidemiological parameters from within their confidence intervals. This analysis may take 10-30 minutes. When it is complete, click the ‘Save’ button. After running this analysis you will see uncertainty intervals on all the outputs (as long as you only have one projection open in Spectrum). 
 Please ensure you correct this in your Spectrum file **and then reupload the file to the ADR** in order to complete this task. </t>
@@ -2481,15 +2534,6 @@
     <t>check_spectrum_file(['UAvalid'])</t>
   </si>
   <si>
-    <t>SPF-25-CK</t>
-  </si>
-  <si>
-    <t>Are SPF-13-01, SPF-14-01, SPF-15-01, SPF-16-01, SPF-17-01, SPF-18-01, SPF-19-01, SPF-20-01, SPF-21-01, SPF-22-01, SPF-23-01, SPF-24-01 complete?</t>
-  </si>
-  <si>
-    <t>check_not_skipped(['EST-SPF-13-01-A', 'EST-SPF-14-01-A', 'EST-SPF-15-01-A', 'EST-SPF-16-01-A', 'EST-SPF-17-01-A', 'EST-SPF-18-01-A', 'EST-SPF-19-01-A', 'EST-SPF-20-01-A', 'EST-SPF-21-01-A', 'EST-SPF-22-01-A', 'EST-SPF-23-01-A', 'EST-SPF-24-01-A' ])</t>
-  </si>
-  <si>
     <t>SPF-26-01</t>
   </si>
   <si>
@@ -2533,6 +2577,9 @@
     <t>User has a validated, final Spectrum file
 No underlying Spectrum data (e.g., surveillance, survey, or programme data) have changed since the Spectrum file was produced. 
 User has uploaded validated programme data and survey data files to ADR in the required formats</t>
+  </si>
+  <si>
+    <t>load_csv_from_zipped_resource('inputs-unaids-naomi-output-zip', '.*unaids_navigator_checklist.csv', 'naomi-validation-file')</t>
   </si>
   <si>
     <t>Naomi Check File Ref</t>
@@ -2813,6 +2860,109 @@
   </si>
   <si>
     <t>check_manual_confirmation('EST-NAO-14-01-A')</t>
+  </si>
+  <si>
+    <t>NAO-15-01</t>
+  </si>
+  <si>
+    <t>Naomi Validation: Match data inputs for Spectrum and Naomi</t>
+  </si>
+  <si>
+    <t>**Navigator has detected a problem with your Naomi Outputs zip.**
+Some data inputs used by Naomi are disaggregated versions of data inputs for other models such as Spectrum. For example, ART and ANC data used by Naomi are also used by Spectrum. You can learn more about the requirements for each of the models from 'Guide 8' in the UNAIDS training materials (attached below). It is critical that data inputs used by Naomi match the inputs used by Spectrum. Although in some cases disaggregation levels may differ, the sum of the disaggregations must equal those used by Spectrum. If the Naomi data inputs do not match those used in your Spectrum model process, modify them to match. If you have changed inputs used by Spectrum, you must return to Spectrum and begin the process again. If you have altered your Naomi inputs to match those used by Spectrum, you may continue with Naomi. 
+**Please ensure you address this in your Naomi model run and then reupload your Naomi Outputs zip to the ADR in order to complete this task.**</t>
+  </si>
+  <si>
+    <t>check_naomi_file(['ART_is_Spectrum', 'ANC_is_Spectrum'])</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t xml:space="preserve">Ian: run a formal validation to compare the values in the spectrum file and the naomi input files
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FFFF0000"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t>@Fjelltopp - can ADR compare the Spectrum file's numbers and compare them to the Naomi Input Files?</t>
+    </r>
+  </si>
+  <si>
+    <t>NAO-16-01</t>
+  </si>
+  <si>
+    <t>Naomi Validation: Select or confirm default settings in Naomi model options</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF000000"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t>**Navigator has detected a problem with your Naomi Outputs zip.**
+Naomi is a flexible model which allows countries to customize their subnational outputs. Review the multitude of model options available to users. You can learn more about these options in 'Guide 5, Naomi Quick Start' in UNAIDS estimates training materials</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color rgb="FF1155CC"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t>**Please ensure you address this in your Naomi model run and then reupload your Naomi Outputs zip to the ADR in order to complete this task.**</t>
+    </r>
+  </si>
+  <si>
+    <t>check_naomi_file(['Opt_recent_qtr', 'Opt_future_proj_qtr' , 'Opt_area_ID_selected', 'Opt_calendar_survey_match', 'Opt_recent_survey_only', 'Opt_ART_coverage', 'Opt_ANC_data', 'Opt_ART_data', 'Opt_ART_attendance_yes'])</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t xml:space="preserve">Ian: Can we run a formal check on the naomi file that is uploaded to the ADR to verify if the standandirsed options a country has used match what is expecetd. This means we need a prepoulated database that contains a list of expected parameters for each country that uses naomi
+</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FFFF0000"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t>@Fjelltopp - possible this year?</t>
+    </r>
+  </si>
+  <si>
+    <t>NAO-17-01</t>
+  </si>
+  <si>
+    <t>Naomi Validation:  Calibrate the model in Naomi</t>
+  </si>
+  <si>
+    <t>**Navigator has detected a problem with your Naomi Outputs zip.**
+You should calibrate your model for the following four indicators (PLHIV, ART, aware of HIV status and new infections). This is to ensure that the mean aggregate estimates from Spectrum and Naomi are consistent. All these should be adjusted to match your Spectrum file either the national or sub-national Spectrum files with the following age sex stratification: (sex and age &lt;15 /15+ years). Calibration method: use the default which is logistic and which scales the prevalence, ART coverage, proportion unaware, and incidence on the logit scale within each district / sex / age stratum in order to match to Spectrum. This ensures that ART coverage does not go above 100% in any district / sex / age stratification. Further information is available in Guide 5, Naomi Quick Start. 
+**Please ensure you address this in your Naomi model run and then reupload your Naomi Outputs zip to the ADR in order to complete this task.**</t>
+  </si>
+  <si>
+    <t>check_naomi_file(['Cal_PLHIV', 'Cal_ART', 'Cal_KOS', 'Cal_new_infections', 'Cal_method'])</t>
   </si>
 </sst>
 </file>
@@ -3430,16 +3580,16 @@
     <xf borderId="1" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="7" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="8" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -19252,43 +19402,43 @@
       <c r="A17" s="16" t="s">
         <v>488</v>
       </c>
-      <c r="B17" s="15" t="s">
-        <v>232</v>
+      <c r="B17" s="16" t="s">
+        <v>489</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>233</v>
       </c>
       <c r="D17" s="90" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E17" s="91" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
       <c r="H17" s="16" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="I17" s="89" t="s">
         <v>231</v>
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="16" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="16" t="s">
-        <v>492</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>251</v>
+        <v>493</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>494</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>252</v>
       </c>
       <c r="D18" s="90" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>247</v>
@@ -19296,28 +19446,28 @@
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
       <c r="H18" s="121" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="I18" s="89" t="s">
         <v>250</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="16" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="16" t="s">
-        <v>496</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>263</v>
+        <v>498</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>499</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>264</v>
       </c>
       <c r="D19" s="90" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>247</v>
@@ -19325,7 +19475,7 @@
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="121" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="I19" s="89" t="s">
         <v>262</v>
@@ -19335,22 +19485,22 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>269</v>
+        <v>502</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>503</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="D20" s="90" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="121" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="I20" s="89" t="s">
         <v>268</v>
@@ -19360,16 +19510,16 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="16" t="s">
-        <v>503</v>
-      </c>
-      <c r="B21" s="99" t="s">
-        <v>280</v>
+        <v>507</v>
+      </c>
+      <c r="B21" s="122" t="s">
+        <v>508</v>
       </c>
       <c r="C21" s="99" t="s">
         <v>281</v>
       </c>
       <c r="D21" s="100" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="E21" s="101" t="s">
         <v>283</v>
@@ -19377,7 +19527,7 @@
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="121" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="I21" s="89" t="s">
         <v>279</v>
@@ -19387,16 +19537,16 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="16" t="s">
-        <v>506</v>
-      </c>
-      <c r="B22" s="99" t="s">
-        <v>287</v>
+        <v>511</v>
+      </c>
+      <c r="B22" s="122" t="s">
+        <v>512</v>
       </c>
       <c r="C22" s="99" t="s">
         <v>288</v>
       </c>
       <c r="D22" s="100" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="E22" s="101" t="s">
         <v>283</v>
@@ -19404,7 +19554,7 @@
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="121" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="I22" s="89" t="s">
         <v>286</v>
@@ -19414,16 +19564,16 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="16" t="s">
-        <v>509</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>293</v>
+        <v>515</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>516</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>294</v>
       </c>
       <c r="D23" s="90" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="E23" s="103" t="s">
         <v>283</v>
@@ -19431,7 +19581,7 @@
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
       <c r="H23" s="121" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="I23" s="89"/>
       <c r="J23" s="15"/>
@@ -19439,16 +19589,16 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="16" t="s">
-        <v>512</v>
-      </c>
-      <c r="B24" s="15" t="s">
-        <v>299</v>
+        <v>519</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>520</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>300</v>
       </c>
       <c r="D24" s="90" t="s">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="E24" s="103" t="s">
         <v>302</v>
@@ -19456,7 +19606,7 @@
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
       <c r="H24" s="121" t="s">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="I24" s="89"/>
       <c r="J24" s="15"/>
@@ -19464,16 +19614,16 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="16" t="s">
-        <v>515</v>
-      </c>
-      <c r="B25" s="15" t="s">
-        <v>306</v>
+        <v>523</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>524</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>307</v>
       </c>
       <c r="D25" s="90" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="E25" s="103" t="s">
         <v>283</v>
@@ -19481,7 +19631,7 @@
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
       <c r="H25" s="121" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="I25" s="89" t="s">
         <v>305</v>
@@ -19491,22 +19641,22 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="16" t="s">
-        <v>518</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>430</v>
+        <v>527</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>528</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>431</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>519</v>
+        <v>529</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
       <c r="H26" s="121" t="s">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="I26" s="119" t="s">
         <v>434</v>
@@ -19516,22 +19666,22 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="16" t="s">
-        <v>521</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>449</v>
+        <v>531</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>532</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>522</v>
+        <v>533</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>523</v>
+        <v>534</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
       <c r="H27" s="16" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="I27" s="119" t="s">
         <v>453</v>
@@ -19541,22 +19691,22 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="16" t="s">
-        <v>525</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>461</v>
+        <v>536</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>537</v>
       </c>
       <c r="C28" s="15" t="s">
         <v>462</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
       <c r="H28" s="121" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="I28" s="119" t="s">
         <v>465</v>
@@ -19566,72 +19716,56 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="16" t="s">
-        <v>528</v>
-      </c>
-      <c r="B29" s="15"/>
-      <c r="C29" s="122" t="s">
-        <v>529</v>
-      </c>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="112"/>
-      <c r="G29" s="112"/>
-      <c r="H29" s="81" t="s">
-        <v>530</v>
+        <v>540</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>542</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>543</v>
+      </c>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="16" t="s">
+        <v>544</v>
       </c>
       <c r="I29" s="119"/>
-      <c r="J29" s="15"/>
+      <c r="J29" s="15" t="s">
+        <v>545</v>
+      </c>
       <c r="K29" s="15"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="16" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
+      <c r="F30" s="15">
+        <v>1.0</v>
+      </c>
       <c r="G30" s="15"/>
       <c r="H30" s="16" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
       <c r="I30" s="119"/>
-      <c r="J30" s="15" t="s">
-        <v>536</v>
-      </c>
+      <c r="J30" s="15"/>
       <c r="K30" s="15"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="16" t="s">
-        <v>537</v>
-      </c>
-      <c r="B31" s="15" t="s">
-        <v>538</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>539</v>
-      </c>
-      <c r="D31" s="15" t="s">
-        <v>540</v>
-      </c>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="G31" s="15"/>
-      <c r="H31" s="16" t="s">
-        <v>541</v>
-      </c>
-      <c r="I31" s="119"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="15"/>
+    <row r="31" ht="13.5" customHeight="1">
+      <c r="I31" s="48"/>
     </row>
     <row r="32" ht="13.5" customHeight="1">
       <c r="I32" s="48"/>
@@ -20233,7 +20367,7 @@
     <row r="231" ht="13.5" customHeight="1">
       <c r="I231" s="48"/>
     </row>
-    <row r="232" ht="13.5" customHeight="1">
+    <row r="232" ht="15.75" customHeight="1">
       <c r="I232" s="48"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
@@ -22572,9 +22706,6 @@
     </row>
     <row r="1011" ht="15.75" customHeight="1">
       <c r="I1011" s="48"/>
-    </row>
-    <row r="1012" ht="15.75" customHeight="1">
-      <c r="I1012" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -22604,14 +22735,14 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="13.57"/>
-    <col customWidth="1" min="2" max="2" width="11.43"/>
+    <col customWidth="1" min="2" max="2" width="16.14"/>
     <col customWidth="1" min="3" max="3" width="12.29"/>
     <col customWidth="1" min="4" max="4" width="19.43"/>
     <col customWidth="1" min="5" max="5" width="63.0"/>
     <col customWidth="1" min="6" max="6" width="52.86"/>
-    <col customWidth="1" min="7" max="7" width="11.29"/>
+    <col customWidth="1" min="7" max="7" width="16.29"/>
     <col customWidth="1" min="8" max="8" width="20.57"/>
-    <col customWidth="1" min="9" max="9" width="11.29"/>
+    <col customWidth="1" min="9" max="9" width="42.14"/>
     <col customWidth="1" min="10" max="10" width="45.14"/>
     <col customWidth="1" hidden="1" min="11" max="11" width="8.71"/>
     <col customWidth="1" min="12" max="12" width="8.71"/>
@@ -22632,33 +22763,38 @@
       <c r="F1" s="35" t="s">
         <v>3</v>
       </c>
+      <c r="G1" s="35" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" s="38" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="37" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="37">
         <v>0.2</v>
       </c>
-      <c r="G2" s="123"/>
-      <c r="H2" s="124"/>
-      <c r="I2" s="124"/>
+      <c r="G2" s="36" t="s">
+        <v>554</v>
+      </c>
+      <c r="H2" s="123"/>
+      <c r="I2" s="123"/>
     </row>
     <row r="3" ht="12.0" customHeight="1"/>
     <row r="4" ht="12.0" customHeight="1">
       <c r="A4" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="125" t="s">
-        <v>545</v>
+      <c r="B4" s="124" t="s">
+        <v>555</v>
       </c>
       <c r="C4" s="85" t="s">
         <v>10</v>
@@ -22690,17 +22826,17 @@
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="B5" s="119"/>
       <c r="C5" s="15" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15">
@@ -22708,26 +22844,26 @@
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="16" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="B6" s="119" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15">
@@ -22735,16 +22871,16 @@
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="16" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="K6" s="15"/>
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="B7" s="119"/>
       <c r="C7" s="15" t="s">
@@ -22754,7 +22890,7 @@
         <v>178</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>180</v>
@@ -22762,14 +22898,14 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="16" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="J7" s="95"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="B8" s="119"/>
       <c r="C8" s="15" t="s">
@@ -22785,17 +22921,17 @@
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="16" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
       <c r="B9" s="119" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>188</v>
@@ -22804,32 +22940,32 @@
         <v>189</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="16" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
       <c r="B10" s="119" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
       <c r="F10" s="103" t="s">
         <v>247</v>
@@ -22839,82 +22975,82 @@
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="16" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
     </row>
     <row r="11" ht="12.0" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
       <c r="B11" s="119"/>
       <c r="C11" s="15" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
       <c r="F11" s="103" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="16" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" ht="49.5" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="B12" s="119" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
       <c r="E12" s="91" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="G12" s="15">
         <v>1.0</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="16" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="K12" s="15"/>
     </row>
     <row r="13" ht="12.0" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
       <c r="B13" s="119" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15">
@@ -22922,53 +23058,53 @@
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="16" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
       <c r="B14" s="119" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="G14" s="15">
         <v>1.0</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="16" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="B15" s="119"/>
       <c r="C15" s="16" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15">
@@ -22976,47 +23112,47 @@
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="16" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="J15" s="95"/>
       <c r="K15" s="15"/>
     </row>
     <row r="16" ht="12.0" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="B16" s="119"/>
       <c r="C16" s="15" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="16" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="B17" s="119"/>
       <c r="C17" s="15" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15">
@@ -23024,41 +23160,123 @@
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="16" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="B18" s="119"/>
       <c r="C18" s="15" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="G18" s="15">
         <v>1.0</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="16" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
     </row>
-    <row r="19" ht="12.0" customHeight="1"/>
-    <row r="20" ht="12.0" customHeight="1"/>
-    <row r="21" ht="12.0" customHeight="1"/>
+    <row r="19" ht="12.0" customHeight="1">
+      <c r="A19" s="16" t="s">
+        <v>631</v>
+      </c>
+      <c r="B19" s="119" t="s">
+        <v>562</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>632</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>564</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>633</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="16" t="s">
+        <v>634</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>635</v>
+      </c>
+      <c r="K19" s="15"/>
+    </row>
+    <row r="20" ht="49.5" customHeight="1">
+      <c r="A20" s="16" t="s">
+        <v>636</v>
+      </c>
+      <c r="B20" s="119" t="s">
+        <v>590</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>637</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>592</v>
+      </c>
+      <c r="E20" s="125" t="s">
+        <v>638</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>594</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>640</v>
+      </c>
+      <c r="K20" s="15"/>
+    </row>
+    <row r="21" ht="12.0" customHeight="1">
+      <c r="A21" s="16" t="s">
+        <v>641</v>
+      </c>
+      <c r="B21" s="119" t="s">
+        <v>604</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>642</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>606</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>643</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="16" t="s">
+        <v>644</v>
+      </c>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+    </row>
     <row r="22" ht="12.0" customHeight="1"/>
     <row r="23" ht="12.0" customHeight="1"/>
     <row r="24" ht="12.0" customHeight="1"/>
@@ -24034,10 +24252,6 @@
     <row r="994" ht="12.0" customHeight="1"/>
     <row r="995" ht="12.0" customHeight="1"/>
     <row r="996" ht="12.0" customHeight="1"/>
-    <row r="997" ht="12.0" customHeight="1"/>
-    <row r="998" ht="12.0" customHeight="1"/>
-    <row r="999" ht="12.0" customHeight="1"/>
-    <row r="1000" ht="12.0" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
@@ -24046,11 +24260,12 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId2" ref="E12"/>
+    <hyperlink r:id="rId3" ref="E20"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <drawing r:id="rId4"/>
+  <legacyDrawing r:id="rId5"/>
 </worksheet>
 </file>
--- a/Estimates 22 BDG [Final].xlsx
+++ b/Estimates 22 BDG [Final].xlsx
@@ -33,7 +33,7 @@
     <author> </author>
   </authors>
   <commentList>
-    <comment ref="D5" authorId="0">
+    <comment ref="D6" authorId="0">
       <text>
         <r>
           <rPr>
@@ -496,6 +496,53 @@
     <t xml:space="preserve">Comments</t>
   </si>
   <si>
+    <t xml:space="preserve">OVV-00-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Under development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Always Fail</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Navigator is still under development. 
+It is expected that you will be able to begin using the Navigator by 9am GMT on the 7</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">th</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> December 2021. 
+Please check back at this time.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">return_false()</t>
+  </si>
+  <si>
     <t xml:space="preserve">OVV-01-10</t>
   </si>
   <si>
@@ -634,23 +681,6 @@
   </si>
   <si>
     <t xml:space="preserve">06-GenKOSShiny90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OVV-08-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Under development</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Always Fail</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Navigator is still under development. 
-It is expected that the final milestones will become available by  Friday 10th December 2021 at 9am UTC.
-Please check back at this time.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">return_false()</t>
   </si>
   <si>
     <t xml:space="preserve">OVV-09-01</t>
@@ -2829,7 +2859,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2885,15 +2915,23 @@
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -3058,14 +3096,14 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left/>
+      <left style="thin"/>
       <right style="thin"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
+      <left/>
       <right style="thin"/>
       <top/>
       <bottom style="thin"/>
@@ -3160,12 +3198,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -3173,6 +3215,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3188,12 +3238,8 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -3204,16 +3250,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -3224,7 +3262,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3232,23 +3270,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3256,7 +3294,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3264,7 +3302,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3276,7 +3314,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3284,35 +3322,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3320,27 +3358,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3356,7 +3394,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3364,15 +3402,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3396,11 +3434,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3408,15 +3446,15 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3428,11 +3466,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3440,7 +3478,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3448,7 +3486,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3456,7 +3494,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -3537,15 +3575,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X1004"/>
+  <dimension ref="A1:X1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F37" activeCellId="0" sqref="F37"/>
+      <selection pane="bottomLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49"/>
@@ -3697,28 +3735,28 @@
       <c r="W4" s="5"/>
       <c r="X4" s="5"/>
     </row>
-    <row r="5" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="51.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="11" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14" t="n">
+      <c r="E5" s="14"/>
+      <c r="F5" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="6"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
@@ -3735,25 +3773,27 @@
       <c r="X5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="17" t="s">
         <v>24</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="13"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="F6" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -3770,25 +3810,25 @@
       <c r="X6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="19" t="s">
         <v>28</v>
       </c>
+      <c r="B7" s="17" t="s">
+        <v>29</v>
+      </c>
       <c r="C7" s="13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="13"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -3805,27 +3845,25 @@
       <c r="X7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
-        <v>31</v>
+      <c r="A8" s="19" t="s">
+        <v>32</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="C8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
@@ -3842,27 +3880,27 @@
       <c r="X8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="14" t="n">
+      <c r="E9" s="22"/>
+      <c r="F9" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
@@ -3882,20 +3920,24 @@
       <c r="A10" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="14" t="n">
+      <c r="D10" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="23"/>
+      <c r="G10" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -3913,22 +3955,22 @@
     </row>
     <row r="11" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="14" t="n">
+      <c r="B11" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="25"/>
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
@@ -3944,24 +3986,24 @@
       <c r="W11" s="5"/>
       <c r="X11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
+        <v>51</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
@@ -3977,24 +4019,24 @@
       <c r="W12" s="5"/>
       <c r="X12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="14" t="n">
-        <v>1</v>
-      </c>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
+      <c r="B13" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -4012,22 +4054,22 @@
     </row>
     <row r="14" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="14" t="n">
+      <c r="B14" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
@@ -4045,22 +4087,22 @@
     </row>
     <row r="15" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="14" t="n">
+      <c r="B15" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="G15" s="22"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="6"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
@@ -4076,27 +4118,23 @@
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="42.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="B16" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="14" t="n">
+      <c r="C16" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="G16" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="16"/>
       <c r="I16" s="6"/>
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
@@ -4117,18 +4155,18 @@
       <c r="A17" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="17" t="s">
         <v>65</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="14" t="n">
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="15" t="n">
         <v>1</v>
       </c>
-      <c r="G17" s="22"/>
+      <c r="G17" s="24"/>
       <c r="H17" s="26"/>
       <c r="I17" s="6"/>
       <c r="K17" s="5"/>
@@ -4150,15 +4188,15 @@
       <c r="A18" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="17" t="s">
         <v>68</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="14" t="n">
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="15" t="n">
         <v>1</v>
       </c>
       <c r="G18" s="13"/>
@@ -10315,6 +10353,7 @@
     <row r="1002" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1003" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1004" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B1:C1"/>
@@ -10346,17 +10385,17 @@
       <selection pane="bottomLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="34.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="66.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="45.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="37.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="37.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="32.87"/>
   </cols>
   <sheetData>
@@ -10439,21 +10478,21 @@
       <c r="B5" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="18" t="s">
         <v>76</v>
       </c>
       <c r="E5" s="31" t="s">
         <v>77</v>
       </c>
       <c r="F5" s="32"/>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="18" t="s">
         <v>79</v>
       </c>
       <c r="K5" s="33"/>
@@ -10480,21 +10519,21 @@
       <c r="B6" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="18" t="s">
         <v>83</v>
       </c>
       <c r="E6" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15" t="s">
+      <c r="F6" s="18"/>
+      <c r="G6" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15" t="s">
+      <c r="H6" s="18"/>
+      <c r="I6" s="18" t="s">
         <v>86</v>
       </c>
       <c r="K6" s="33"/>
@@ -10521,21 +10560,21 @@
       <c r="B7" s="30" t="s">
         <v>88</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="18" t="s">
         <v>91</v>
       </c>
       <c r="F7" s="35"/>
       <c r="G7" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15" t="s">
+      <c r="H7" s="18"/>
+      <c r="I7" s="18" t="s">
         <v>93</v>
       </c>
       <c r="K7" s="33"/>
@@ -10562,19 +10601,19 @@
       <c r="B8" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="18" t="s">
         <v>91</v>
       </c>
       <c r="F8" s="35"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15" t="s">
+      <c r="H8" s="18"/>
+      <c r="I8" s="18" t="s">
         <v>98</v>
       </c>
       <c r="K8" s="33"/>
@@ -10601,19 +10640,19 @@
       <c r="B9" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="18" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="18" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="18" t="s">
         <v>91</v>
       </c>
       <c r="F9" s="35"/>
       <c r="G9" s="6"/>
       <c r="H9" s="13"/>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="18" t="s">
         <v>103</v>
       </c>
       <c r="K9" s="33"/>
@@ -10640,19 +10679,19 @@
       <c r="B10" s="30" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="18" t="s">
         <v>108</v>
       </c>
       <c r="F10" s="35"/>
       <c r="G10" s="6"/>
       <c r="H10" s="13"/>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="18" t="s">
         <v>109</v>
       </c>
       <c r="K10" s="33"/>
@@ -10679,19 +10718,19 @@
       <c r="B11" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F11" s="35"/>
       <c r="G11" s="6"/>
       <c r="H11" s="13"/>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="18" t="s">
         <v>115</v>
       </c>
       <c r="K11" s="33"/>
@@ -10718,19 +10757,19 @@
       <c r="B12" s="30" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F12" s="35"/>
       <c r="G12" s="6"/>
       <c r="H12" s="13"/>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="18" t="s">
         <v>120</v>
       </c>
       <c r="K12" s="33"/>
@@ -10757,19 +10796,19 @@
       <c r="B13" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F13" s="35"/>
       <c r="G13" s="6"/>
       <c r="H13" s="13"/>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="18" t="s">
         <v>125</v>
       </c>
       <c r="K13" s="33"/>
@@ -10796,19 +10835,19 @@
       <c r="B14" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="18" t="s">
         <v>114</v>
       </c>
       <c r="F14" s="35"/>
       <c r="G14" s="6"/>
       <c r="H14" s="13"/>
-      <c r="I14" s="15" t="s">
+      <c r="I14" s="18" t="s">
         <v>130</v>
       </c>
       <c r="K14" s="33"/>
@@ -11895,11 +11934,11 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="56.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="45.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="22.01"/>
@@ -11984,22 +12023,22 @@
       <c r="A5" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="18" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="15"/>
+      <c r="E5" s="18"/>
       <c r="F5" s="32"/>
-      <c r="G5" s="23" t="s">
+      <c r="G5" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15" t="s">
+      <c r="H5" s="18"/>
+      <c r="I5" s="18" t="s">
         <v>139</v>
       </c>
     </row>
@@ -12016,10 +12055,10 @@
       <c r="D6" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="E6" s="15"/>
+      <c r="E6" s="18"/>
       <c r="F6" s="32"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="15"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="18"/>
       <c r="I6" s="41" t="s">
         <v>144</v>
       </c>
@@ -12044,20 +12083,20 @@
       <c r="A7" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="18" t="s">
         <v>147</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="E7" s="15"/>
+      <c r="E7" s="18"/>
       <c r="F7" s="32"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15" t="s">
+      <c r="G7" s="25"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18" t="s">
         <v>149</v>
       </c>
       <c r="J7" s="5"/>
@@ -12081,22 +12120,22 @@
       <c r="A8" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="18" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="18" t="s">
         <v>153</v>
       </c>
       <c r="E8" s="31" t="s">
         <v>114</v>
       </c>
       <c r="F8" s="32"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15" t="s">
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18" t="s">
         <v>154</v>
       </c>
       <c r="J8" s="5"/>
@@ -12120,22 +12159,22 @@
       <c r="A9" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="18" t="s">
         <v>158</v>
       </c>
       <c r="E9" s="31" t="s">
         <v>114</v>
       </c>
       <c r="F9" s="32"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15" t="s">
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18" t="s">
         <v>159</v>
       </c>
       <c r="J9" s="5"/>
@@ -12198,22 +12237,22 @@
       <c r="A11" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="18" t="s">
         <v>168</v>
       </c>
       <c r="E11" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15" t="s">
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18" t="s">
         <v>169</v>
       </c>
       <c r="J11" s="47"/>
@@ -13251,7 +13290,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9"/>
@@ -13356,7 +13395,7 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="18" t="s">
         <v>177</v>
       </c>
       <c r="B6" s="13" t="s">
@@ -13381,7 +13420,7 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="18" t="s">
         <v>183</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -13404,7 +13443,7 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="18" t="s">
         <v>188</v>
       </c>
       <c r="B8" s="13" t="s">
@@ -13416,7 +13455,7 @@
       <c r="D8" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="E8" s="15"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="52" t="n">
         <v>1</v>
       </c>
@@ -13427,19 +13466,19 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="18" t="s">
         <v>193</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="E9" s="15"/>
+      <c r="E9" s="18"/>
       <c r="F9" s="52" t="n">
         <v>1</v>
       </c>
@@ -13450,24 +13489,24 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="18" t="s">
         <v>198</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="18" t="s">
         <v>199</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="E10" s="15"/>
+      <c r="E10" s="18"/>
       <c r="F10" s="53" t="n">
         <v>1</v>
       </c>
       <c r="G10" s="54"/>
-      <c r="H10" s="22"/>
+      <c r="H10" s="24"/>
       <c r="I10" s="13" t="s">
         <v>202</v>
       </c>
@@ -14563,7 +14602,7 @@
       <selection pane="bottomLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.57"/>
@@ -14573,7 +14612,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="46.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="7" style="0" width="13.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="35.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="35.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="31.01"/>
   </cols>
   <sheetData>
@@ -14688,7 +14727,7 @@
       <c r="G6" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="H6" s="20"/>
+      <c r="H6" s="14"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13" t="s">
         <v>219</v>
@@ -14787,7 +14826,7 @@
       <c r="H10" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="I10" s="22"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="13" t="s">
         <v>243</v>
       </c>
@@ -14811,7 +14850,7 @@
       </c>
       <c r="G11" s="13"/>
       <c r="H11" s="64"/>
-      <c r="I11" s="20"/>
+      <c r="I11" s="14"/>
       <c r="J11" s="13" t="s">
         <v>248</v>
       </c>
@@ -14935,7 +14974,7 @@
       <c r="H16" s="51" t="s">
         <v>276</v>
       </c>
-      <c r="I16" s="22"/>
+      <c r="I16" s="24"/>
       <c r="J16" s="51" t="s">
         <v>277</v>
       </c>
@@ -15065,7 +15104,7 @@
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="64"/>
-      <c r="I21" s="22"/>
+      <c r="I21" s="24"/>
       <c r="J21" s="13" t="s">
         <v>309</v>
       </c>
@@ -16149,7 +16188,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.01"/>
@@ -16157,9 +16196,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="24.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="23.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="32.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="12" style="0" width="8.71"/>
@@ -16347,7 +16386,7 @@
         <v>345</v>
       </c>
       <c r="H9" s="13"/>
-      <c r="I9" s="22"/>
+      <c r="I9" s="24"/>
       <c r="J9" s="13" t="s">
         <v>346</v>
       </c>
@@ -17411,10 +17450,10 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="24.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="32.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="60.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.43"/>
@@ -18774,7 +18813,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.3"/>
@@ -22520,13 +22559,13 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="62.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="62.98"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="52.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="16.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.57"/>

--- a/Estimates 22 BDG [Final].xlsx
+++ b/Estimates 22 BDG [Final].xlsx
@@ -17,7 +17,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataSignature="AMtx7mgY3G13jMtTAPFPPdMwQciM5i5Isg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId13" roundtripDataSignature="AMtx7miCWTMLBn2v864cvBowcjQzoNFTtA=="/>
     </ext>
   </extLst>
 </workbook>
@@ -120,7 +120,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhQRdaztJoEiZyPRyiaOIY4w4Iw+w=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mioeK8lAfevYQhg58sSyS1GuPkF1g=="/>
     </ext>
   </extLst>
 </comments>
@@ -242,7 +242,7 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="D17">
+    <comment authorId="0" ref="D16">
       <text>
         <t xml:space="preserve">======
 ID#AAAASdCRYWw
@@ -251,7 +251,7 @@
 _Assigned to Jonathan Pearson_</t>
       </text>
     </comment>
-    <comment authorId="0" ref="K18">
+    <comment authorId="0" ref="K17">
       <text>
         <t xml:space="preserve">======
 ID#AAAASQchb-M
@@ -313,7 +313,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="644">
   <si>
     <t>Milestone Title (Visible to User):</t>
   </si>
@@ -448,8 +448,7 @@
     <t>Congratulations! You have completed the HIV Estimates Navigator tutorial. 
 In order to proceed to use the Navigator your country must: 
  - Have data from all sites for the time period used in the models;
- - Be authorized to prepare the estimates on behalf of the country. 
-If you are satisfied that the above requirements are met, mark this task  complete and click "What's next?"</t>
+If you are satisfied that the above requirement is met, mark this task  complete and click "What's next?"</t>
   </si>
   <si>
     <t>check_manual_confirmation('EST-OVV-02-01-A')</t>
@@ -467,7 +466,7 @@
     <t>OVV-04-01</t>
   </si>
   <si>
-    <t>Milestone: Upload and Review Data Files in Your Inputs Package on ADR</t>
+    <t>Milestone: Upload and Review Data Files in Your Dataset on ADR</t>
   </si>
   <si>
     <t>02-UploadDataADR</t>
@@ -553,7 +552,7 @@
         <color rgb="FF000000"/>
         <sz val="8.0"/>
       </rPr>
-      <t xml:space="preserve">and place the required input data in the Inputs Package needed to generate HIV estimates. You should use the best, highest quality, and most complete input data you have available to you for the estimates process. </t>
+      <t xml:space="preserve">and place the required input data in the Dataset needed to generate HIV estimates. You should use the best, highest quality, and most complete input data you have available to you for the estimates process. </t>
     </r>
   </si>
   <si>
@@ -647,7 +646,7 @@
     <t>Has user updated ANC data file?</t>
   </si>
   <si>
-    <t xml:space="preserve">Before you upload data files to your Inputs Package to ADR, ensure you have updated them for the current reporting period.  **Update** your programme data files for ANC. UNAIDS has placed last year's final ANC file in this year's Inputs Package for your convenience. UNAIDS recommends beginning with last year's final Inputs Package and only updating the files for the current reporting period. You can learn more about the data elements required in Guide 8 Data Quality, Indicator Elements Matrix. </t>
+    <t xml:space="preserve">Before you upload data files to your Dataset to ADR, ensure you have updated them for the current reporting period.  **Update** your programme data files for ANC. UNAIDS has placed last year's final ANC file in this year's Dataset for your convenience. UNAIDS recommends beginning with last year's final Dataset and only updating the files for the current reporting period. You can learn more about the data elements required in Guide 8 Data Quality, Indicator Elements Matrix. </t>
   </si>
   <si>
     <t>AIDS Data Repository https://adr.unaids.org/
@@ -669,7 +668,7 @@
     <t>Has user updated ART data file?</t>
   </si>
   <si>
-    <t xml:space="preserve">Before you upload data files to your Inputs Package to ADR, ensure you have updated the data files for the current reporting period.  **Update** your programme data files for ART. UNAIDS has placed last year's final ART file in this year's Inputs Package for your convenience. UNAIDS recommends beginning with last year's final Inputs Package and only updating the files for the current reporting period. You can learn more about the data elements required in Guide 8 Data Quality, Indicator Elements Matrix. </t>
+    <t xml:space="preserve">Before you upload data files to your Dataset to ADR, ensure you have updated the data files for the current reporting period.  **Update** your programme data files for ART. UNAIDS has placed last year's final ART file in this year's Dataset for your convenience. UNAIDS recommends beginning with last year's final Dataset and only updating the files for the current reporting period. You can learn more about the data elements required in Guide 8 Data Quality, Indicator Elements Matrix. </t>
   </si>
   <si>
     <t>check_manual_confirmation('EST-GEN-04-01-A')</t>
@@ -684,7 +683,7 @@
     <t>Has user updated VMMC data file?</t>
   </si>
   <si>
-    <t xml:space="preserve">*This task is only for VMMC priority countries. If you are not from one of the priority VMMC countries, mark this task complete and click "What's Next".* Before you upload data files to your Inputs Package to ADR, ensure you have updated the data files for the current reporting period.  **Update** your programme data files for VMMC (if relevant). UNAIDS recommends beginning with last year's data and only updating as necessary for the current reporting period. If you are not using VMMC data for your estimates, you can market this task as complete. You can learn more about the data elements required in Guide 8 Data Quality, Indicator Elements Matrix. </t>
+    <t xml:space="preserve">*This task is only for VMMC priority countries. If you are not from one of the priority VMMC countries, mark this task complete and click "What's Next".* Before you upload data files to your Dataset to ADR, ensure you have updated the data files for the current reporting period.  **Update** your programme data files for VMMC (if relevant). UNAIDS recommends beginning with last year's data and only updating as necessary for the current reporting period. If you are not using VMMC data for your estimates, you can market this task as complete and click the What's Next? button.. You can learn more about the data elements required in Guide 8 Data Quality, Indicator Elements Matrix. </t>
   </si>
   <si>
     <t>check_manual_confirmation('EST-GEN-05-01-A')</t>
@@ -699,7 +698,7 @@
     <t>Has user updated Shiny 90 HIV Testing data file?</t>
   </si>
   <si>
-    <t xml:space="preserve">Before you upload your Inputs Package to ADR, ensure you have updated the data files for the current reporting period.  **Update** your programme data files for HIV Testing in the Shiny 90 data file. UNAIDS has placed last year's final Shiny 90 HIV Testing file in this year's Inputs Package for your convenience. UNAIDS recommends beginning with last year's final Inputs Package and only updating the files for the current reporting period.You can learn more about the data elements required in Guide 8 Data Quality, Indicator Elements Matrix. If you are not planning to use Shiny 90 to estimate your Knowledge of Status figures, mark this task complete in Navigator. </t>
+    <t xml:space="preserve">Before you upload your Dataset to ADR, ensure you have updated the data files for the current reporting period.  **Update** your programme data files for HIV Testing in the Shiny 90 data file. UNAIDS has placed last year's final Shiny 90 HIV Testing file in this year's Dataset for your convenience. UNAIDS recommends beginning with last year's final Dataset and only updating the files for the current reporting period.You can learn more about the data elements required in Guide 8 Data Quality, Indicator Elements Matrix. If you are not planning to use Shiny 90 to estimate your Knowledge of Status figures, mark this task complete in Navigator. </t>
   </si>
   <si>
     <t>AIDS Data Repository https://adr.unaids.org/
@@ -712,13 +711,13 @@
     <t>GEN-07-01</t>
   </si>
   <si>
-    <t>Review your Shiny 90 Survey data file in your Inputs Package</t>
+    <t>Review your Shiny 90 Survey data file in your Dataset</t>
   </si>
   <si>
     <t>Has user reviewed their Shiny 90 survey data file?</t>
   </si>
   <si>
-    <t xml:space="preserve">UNAIDS has placed a *Shiny 90 survey* file in your Inputs Package in the AIDS Data Repository (ADR). Before we begin the estimates process, please review this file. If you are satisfied with the data in this file, mark this task complete. If you see problems with this file, contact UNAIDS or one of its partners to have it corrected. If you are not planning to use Shiny 90 to estimate your Knowledge of Status figures, mark this task complete in Navigator and click "What's Next?". </t>
+    <t xml:space="preserve">UNAIDS has placed a *Shiny 90 survey* file in your Dataset in the AIDS Data Repository (ADR). Before we begin the estimates process, please review this file. If you are satisfied with the data in this file, mark this task complete. If you see problems with this file, contact UNAIDS or one of its partners to have it corrected. If you are not planning to use Shiny 90 to estimate your Knowledge of Status figures, mark this task complete in Navigator and click "What's Next?". </t>
   </si>
   <si>
     <t>AIDS Data Repository https://adr.unaids.org/</t>
@@ -730,13 +729,13 @@
     <t>GEN-08-01</t>
   </si>
   <si>
-    <t>Review your Naomi Survey data file in your Inputs Package</t>
+    <t>Review your Naomi Survey data file in your Dataset</t>
   </si>
   <si>
     <t>Has user reviewed their Naomi survey data file?</t>
   </si>
   <si>
-    <t xml:space="preserve">UNAIDS has placed a *Naomi survey* file in your Inputs Package in the AIDS Data Repository (ADR). Before we begin the estimates process, please review this file. If you are satisfied with the data in this file, mark this task complete.  If you see problems with this file, contact UNAIDS or one of its partners to have it corrected.If you are not planning to use Naomi to produce district-level HIV estimates, mark this task complete in Navigator and click "What's Next?" below.  </t>
+    <t xml:space="preserve">UNAIDS has placed a *Naomi survey* file in your Dataset in the AIDS Data Repository (ADR). Before we begin the estimates process, please review this file. If you are satisfied with the data in this file, mark this task complete.  If you see problems with this file, contact UNAIDS or one of its partners to have it corrected.If you are not planning to use Naomi to produce district-level HIV estimates, mark this task complete in Navigator and click "What's Next?" below.  </t>
   </si>
   <si>
     <t>check_manual_confirmation('EST-GEN-08-01-A')</t>
@@ -745,13 +744,13 @@
     <t>GEN-09-01</t>
   </si>
   <si>
-    <t>Review your area boundary file in your Inputs Package</t>
+    <t>Review your area boundary file in your Dataset</t>
   </si>
   <si>
     <t>Has user reviewed their area boundary data file?</t>
   </si>
   <si>
-    <t>UNAIDS has placed an *Area Boundary* data file (aka "Geographic Data")  in your Inputs Package in the AIDS Data Repository (ADR). Before we begin the estimates process, please review this file. If you are satisfied with the data in this file, mark this task complete.  If you see problems with this file, contact UNAIDS or one of its partners to have it corrected.</t>
+    <t>UNAIDS has placed an *Area Boundary* data file (aka "Geographic Data")  in your Dataset in the AIDS Data Repository (ADR). Before we begin the estimates process, please review this file. If you are satisfied with the data in this file, mark this task complete.  If you see problems with this file, contact UNAIDS or one of its partners to have it corrected.</t>
   </si>
   <si>
     <t>check_manual_confirmation('EST-GEN-09-01-A')</t>
@@ -760,22 +759,22 @@
     <t>GEN-10-01</t>
   </si>
   <si>
-    <t>Review your Population file in your Inputs Package</t>
+    <t>Review your Population file in your Dataset</t>
   </si>
   <si>
     <t>Has user reviewed their population data file?</t>
   </si>
   <si>
-    <t>UNAIDS has placed a *Population* data file in your Inputs Package in the AIDS Data Repository (ADR). Before we begin the estimates process, please review this file. If you are satisfied with the data in this file, mark this task complete.  If you see problems with this file, contact UNAIDS or one of its partners to have it corrected.</t>
+    <t>UNAIDS has placed a *Population* data file in your Dataset in the AIDS Data Repository (ADR). Before we begin the estimates process, please review this file. If you are satisfied with the data in this file, mark this task complete.  If you see problems with this file, contact UNAIDS or one of its partners to have it corrected.</t>
   </si>
   <si>
     <t>check_manual_confirmation('EST-GEN-10-01-A')</t>
   </si>
   <si>
-    <t>Upload and Review Data Files in Your Inputs Package on ADR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For your convenience, UNAIDS has placed last year's data files into this year's Inputs Package in your organization/country data sets ADR. Programme data files (e.g., ART, ANC, VMMC, Shiny 90 HIV Testing) will need to be updated with the current year's data. Other data files (e.g., area boundary, population, surveys) will only need to be reviewed and confirmed. Once you have updated your Inputs Package programme data files, you can upload the files to your organization/country on the AIDS Data Repository (ADR). There are many advantages to using ADR, including integration with key estimates models such as Naomi. Before you begin this step, you should be sure you have updated all required programme data files for the current reporting period (e.g., ANC, ART, Shiny 90 HIV testing, and VMMC where relevant). You can also review your other data files (e.g., surveys, population, area boundary). You will need to have an ADR user account and be associated with an organization (country) with an editor role. </t>
+    <t>Upload and Review Data Files in Your Dataset on ADR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For your convenience, UNAIDS has placed last year's data files into this year's Dataset in your organization/country data sets ADR. Programme data files (e.g., ART, ANC, VMMC, Shiny 90 HIV Testing) will need to be updated with the current year's data. Other data files (e.g., area boundary, population, surveys) will only need to be reviewed and confirmed. Once you have updated your Dataset programme data files, you can upload the files to your organization/country on the AIDS Data Repository (ADR). There are many advantages to using ADR, including integration with key estimates models such as Naomi. Before you begin this step, you should be sure you have updated all required programme data files for the current reporting period (e.g., ANC, ART, Shiny 90 HIV testing, and VMMC where relevant). You can also review your other data files (e.g., surveys, population, area boundary). You will need to have an ADR user account and be associated with an organization (country) with an editor role. </t>
   </si>
   <si>
     <t xml:space="preserve"> Data input files are available
@@ -786,7 +785,7 @@
     <t>ADR-01-10</t>
   </si>
   <si>
-    <t>Check that the required data has been preloaded into your ADR Inputs Package</t>
+    <t>Check that the required data has been preloaded into your ADR Dataset</t>
   </si>
   <si>
     <t xml:space="preserve">Does the user have geojson, survey data,  population data, shiny90 survey data, spectrum file in their dataset? </t>
@@ -817,15 +816,18 @@
     <t>Are the required inputs uploaded to the ADR?</t>
   </si>
   <si>
-    <t>UNAIDS strongly recommends the use of the AIDS Data Repository (ADR) to store your estimates data, both inputs and outputs. Using ADR provides a number of advantages and efficiencies for your estimates process, including a secure location to store your data files as well as automated validation function to ensure your data meet formatting and minimum data quality requirements before beginning the data. Access your organization on ADR and find this year's inputs package. Upload each of the required files for this year's estimates process in the required format. For your convenience, UNAIDS has imported the final data files from last year. You only need to update the files with data from the current year. 
+    <t>UNAIDS strongly recommends the use of the AIDS Data Repository (ADR) to store your estimates data, both inputs and outputs. Using ADR provides a number of advantages and efficiencies for your estimates process, including a secure location to store your data files as well as automated validation function to ensure your data meet formatting and minimum data quality requirements before beginning the data. Access your organization on ADR and find this year's Dataset. Upload each of the required files for this year's estimates process in the required format. For your convenience, UNAIDS has imported the final data files from last year. You only need to update the files with data from the current year. 
 You should ensure you have included data from the current year in the following data files:
 - Shiny90 HIV Testing Data
 - ART Data
 - ANC Data
 - VMMC Data (if relevent)
-**To upload a new input to the ADR:**
-- Open your estimates 2022 Inputs Package in the ADR
-- Drag and drop your data input file into the centre of the ADR web page.
+**To update a data file to your Dataset in the ADR:**
+- Open your estimates 2022 Dataset in the ADR
+- Find the file you wish to update and click the red Explore button and choose Download
+- Open the file on your computer and add data from the current year
+- Return to ADR and open your estimates 2022 Dataset
+- Drag and drop your updated data file into the centre of the ADR web page.
 - A pop up will open with the name of your file in it.
 - In the dropdown next to the filename , select which data input you are uploading.
 - Click "Upload Files"</t>
@@ -875,9 +877,9 @@
   </si>
   <si>
     <t>Your ADR dataset should include a *Shiny 90 HIV Testing Data* resource. 
-UNAIDS strongly recommends the use of the AIDS Data Repository (ADR) to store your estimates data, both inputs and outputs. Using ADR provides a number of advantages and efficiencies for your estimates process, including a secure location to store your data files as well as automated validation function to ensure your data meet formatting and minimum data quality requirements before beginning the estimates process. Access your organization on ADR and find this year's Inputs Package. Upload the *updated Shiny 90 HIV testing data file* in the required format. UNAIDS has imported the final data files from last year. You only need to update the files with data from the current year. 
+UNAIDS strongly recommends the use of the AIDS Data Repository (ADR) to store your estimates data, both inputs and outputs. Using ADR provides a number of advantages and efficiencies for your estimates process, including a secure location to store your data files as well as automated validation function to ensure your data meet formatting and minimum data quality requirements before beginning the estimates process. Access your organization on ADR and find this year's Dataset. Upload the *updated Shiny 90 HIV testing data file* in the required format. UNAIDS has imported the final data files from last year. You only need to update the files with data from the current year. 
 **To upload your Shiny 90 HIV Testing data file to the ADR:**
-- Open your estimates 2022 Inputs Package in the ADR
+- Open your estimates 2022 Dataset in the ADR
 - Under *Missing Resources* find "Shiny 90 Testing Data" and click *Add Data*
 - Drag your data file into the file upload zone
 - Add any useful notes about the file under *Description* 
@@ -892,16 +894,16 @@
     <t>ADR-03-01</t>
   </si>
   <si>
-    <t>Upload your ART programme data file to your Inputs Package on the ADR</t>
+    <t>Upload your ART programme data file to your Dataset on the ADR</t>
   </si>
   <si>
     <t>Has the user uploaded an ART data file?</t>
   </si>
   <si>
     <t>Your ADR dataset should include an *ART Data* resource. 
-UNAIDS strongly recommends the use of the AIDS Data Repository (ADR) to store your estimates data, both inputs and outputs. Using ADR provides a number of advantages and efficiencies for your estimates process, including a secure location to store your data files as well as automated validation function to ensure your data meet formatting and minimum data quality requirements before beginning the estimates process. Access your organization on ADR and find this year's Inputs Package. Upload the *updated ART data file* in the required format.
+UNAIDS strongly recommends the use of the AIDS Data Repository (ADR) to store your estimates data, both inputs and outputs. Using ADR provides a number of advantages and efficiencies for your estimates process, including a secure location to store your data files as well as automated validation function to ensure your data meet formatting and minimum data quality requirements before beginning the estimates process. Access your organization on ADR and find this year's Dataset. Upload the *updated ART data file* in the required format.
 **To upload your  ART data to the ADR:**
-- Open your estimates 2022 Inputs Package in the ADR
+- Open your estimates 2022 Dataset in the ADR
 - Under *Missing Resources* find "ART Data" and click *Add Data*
 - Drag your ART template file into the file upload zone
 - Add any useful notes about the file under *Description* 
@@ -935,16 +937,16 @@
     <t>ADR-04-01</t>
   </si>
   <si>
-    <t>Upload your ANC data file to your Inputs Package on the ADR</t>
+    <t>Upload your ANC data file to your Dataset on the ADR</t>
   </si>
   <si>
     <t>Has the user uploaded an  ANC data file?</t>
   </si>
   <si>
     <t>Your ADR dataset should include an *ANC Data* resource. 
-UNAIDS strongly recommends the use of the AIDS Data Repository (ADR) to store your estimates data, both inputs and outputs. Using ADR provides a number of advantages and efficiencies for your estimates process, including a secure location to store your data files as well as automated validation function to ensure your data meet formatting and minimum data quality requirements before beginning the estimates process. Access your organization on ADR and find this year's Inputs Package. Upload the *updated ANC data file* in the required format.
+UNAIDS strongly recommends the use of the AIDS Data Repository (ADR) to store your estimates data, both inputs and outputs. Using ADR provides a number of advantages and efficiencies for your estimates process, including a secure location to store your data files as well as automated validation function to ensure your data meet formatting and minimum data quality requirements before beginning the estimates process. Access your organization on ADR and find this year's Dataset. Upload the *updated ANC data file* in the required format.
 **To upload your ANC data file to the ADR:**
-- Open your estimates 2022 Inputs Package in the ADR
+- Open your estimates 2022 Dataset in the ADR
 - Under *Missing Resources* find "ANC Data" and click *Add Data*
 - Drag your ANC template file into the file upload zone
 - Add any useful notes about the file under *Description* 
@@ -978,13 +980,13 @@
     <t>ADR-05-01</t>
   </si>
   <si>
-    <t>Upload the VMMC data file to your Inputs Package on the ADR</t>
+    <t>Upload the VMMC data file to your Dataset on the ADR</t>
   </si>
   <si>
     <t>Is the VMMC data file uploaded to ADR in the required format?</t>
   </si>
   <si>
-    <t xml:space="preserve">This requirement only applies to the 15 countries that are prioritized for VMMC. The data will be used to create district level coverage estimates of VMMC in your country. UNAIDS strongly recommends the use of the AIDS Data Repository (ADR) to store your estimates data, both inputs and outputs. Using ADR provides a number of advantages and efficiencies for your estimates process, including a secure location to store your data files as well as automated validation function to ensure your data meet formatting and minimum data quality requirements before beginning the estimates process. Access your organization on ADR and find this year's Inputs Package. Upload each of the required files for this year's estimates process in the required format. 
+    <t xml:space="preserve">This requirement only applies to the 15 countries that are prioritized for VMMC. The data will be used to create district level coverage estimates of VMMC in your country. UNAIDS strongly recommends the use of the AIDS Data Repository (ADR) to store your estimates data, both inputs and outputs. Using ADR provides a number of advantages and efficiencies for your estimates process, including a secure location to store your data files as well as automated validation function to ensure your data meet formatting and minimum data quality requirements before beginning the estimates process. Access your organization on ADR and find this year's Dataset. Upload each of the required files for this year's estimates process in the required format. 
 If you are *not* from one of the 15 countries who are prioritizing VMMC, you can mark this task complete to skip it. </t>
   </si>
   <si>
@@ -1013,14 +1015,14 @@
     <t>ADR-06-01</t>
   </si>
   <si>
-    <t>Ensure ADR has validated each of the data files in your Inputs Package</t>
+    <t>Ensure ADR has validated each of the data files in your Dataset</t>
   </si>
   <si>
     <t>Are all uploaded data files for Shiny 90, Naomi, and VMMC (if applicable) valid in ADR?</t>
   </si>
   <si>
-    <t xml:space="preserve">ADR provides a cursory data quality check on all files in the Inputs Package. Be sure to confirm the green "Valid" badge next to each file. If any files are missing the green "valid" badge, be sure to review the data issues identified by ADR and correct them. If any changes are made to the data in the estimates data files, ensure changes are cascaded to the source systems (e.g., DHIS2) as needed. Once data files are uploaded and valid in ADR, you may proceed to ShinyRob to conduct more thorough data quality reviews.
-To resolve a red validation badge next to a resource in your Inputs Package, click on the "Error Report" link just under the badge.  The error report will list the problems it has found with your data.  You should address these problems one by one in the order they are presented to you, since resolving the first problem may in turn resolve later problems. </t>
+    <t xml:space="preserve">ADR provides a cursory data quality check on all files in the Dataset. Be sure to confirm the green "Valid" badge next to each file. If any files are missing the green "valid" badge, be sure to review the data issues identified by ADR and correct them. If any changes are made to the data in the estimates data files, ensure changes are cascaded to the source systems (e.g., DHIS2) as needed. Once data files are uploaded and valid in ADR, you may proceed to ShinyRob to conduct more thorough data quality reviews.
+To resolve a red validation badge next to a resource in your Dataset, click on the "Error Report" link just under the badge.  The error report will list the problems it has found with your data.  You should address these problems one by one in the order they are presented to you, since resolving the first problem may in turn resolve later problems. </t>
   </si>
   <si>
     <r>
@@ -1077,7 +1079,7 @@
   <si>
     <t>User has ADR account and ADR key and Naomi account
 User is associated with a country organization in ADR
-Country’s Inputs Package files for ANC and ART, including area hierarchy dataset, have been uploaded and have an ADR validation</t>
+Country’s Dataset files for ANC and ART, including area hierarchy dataset, have been uploaded and have an ADR validation</t>
   </si>
   <si>
     <t>ROB-01-CK</t>
@@ -1101,7 +1103,7 @@
     <t>Does the user already have a Naomi account?</t>
   </si>
   <si>
-    <t xml:space="preserve">Congratulations, you've completed the previous estimates milestone. Now you're ready to review the quality of your data in Naomi (formerly ShinyRob). In order to use the Naomi Inputs Review Function, UNAIDS recommends you create a Naomi user account. A Naomi user account has multiple advantages, including integration with ADR and direct access to your Inputs Package, project saving, and sharing of draft and final project results. If you do not already have an account, you may request one by completing the brief Naomi user account request form. Responses should be immediate, especially during the time of estimates workshops. If you prefer, you may use Naomi as a guest, but it is not recommended. </t>
+    <t xml:space="preserve">Congratulations, you've completed the previous estimates milestone. Now you're ready to review the quality of your data in Naomi (formerly ShinyRob). In order to use the Naomi Inputs Review Function, UNAIDS recommends you create a Naomi user account. A Naomi user account has multiple advantages, including integration with ADR and direct access to your Dataset, project saving, and sharing of draft and final project results. If you do not already have an account, you may request one by completing the brief Naomi user account request form. Responses should be immediate, especially during the time of estimates workshops. If you prefer, you may use Naomi as a guest, but it is not recommended. </t>
   </si>
   <si>
     <t>Naomi user account request form https://forms.office.com/r/7S9EMigGr4</t>
@@ -1119,7 +1121,25 @@
     <t xml:space="preserve">Is the user logged in to Naomi? </t>
   </si>
   <si>
-    <t xml:space="preserve">In order to take full advantage of Naomi's functionality, UNAIDS recommends you log into the system with your user account. There are many advantages to logging into Naomi such as integration with ADR and direct access to your estimates Inputs Package, project saving, and sharing of draft and final project results.. If you do not log in, you will not be able to pull your data from ADR nor save projects and versions. To log into Naomi, go to naomi.unaids.org. Click the 'Log in' button in the upper right corner of the home page to enter your login details. </t>
+    <t xml:space="preserve">In order to take full advantage of Naomi's functionality, UNAIDS recommends you log into the system with your user account. There are many advantages to logging into Naomi such as integration with ADR and direct access to your estimates Dataset, project saving, and sharing of draft and final project results.. If you do not log in, you will not be able to pull your data from ADR nor save projects and versions. To log into Naomi, go to naomi.unaids.org. Click the 'Log in' button in the upper right corner of the home page to enter your login details. </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t xml:space="preserve">Naomi </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t>https://naomi.unaids.org/login</t>
+    </r>
   </si>
   <si>
     <t>check_manual_confirmation('EST-ROB-03-01-A')</t>
@@ -1137,22 +1157,58 @@
     <t xml:space="preserve">The first step to using Naomi, even for the Inputs Review function, is to create a project. Each Naomi project will have its own data and settings. If you are logged in, you can save multiple projects and test different data and model options for comparison. To create a project, simply enter a name for the project and click the 'Create Project' button. </t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t xml:space="preserve">Naomi </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t>https://naomi.unaids.org/</t>
+    </r>
+  </si>
+  <si>
     <t>check_manual_confirmation('EST-ROB-04-01-A')</t>
   </si>
   <si>
     <t>ROB-05-01</t>
   </si>
   <si>
-    <t>Select the Inputs Packages you would like to review</t>
+    <t>Select the Datasets you would like to review</t>
   </si>
   <si>
     <t>Has user selected geographic data package, ART data package, and ANC data package?</t>
   </si>
   <si>
-    <t>In order to utilize the powerful data quality analyses provided by Naomi's Inputs Review function, you must select the relevant Inputs Package for this year, including geographic data package (named area boundary file in ADR), ART data package, and ANC data package. Although not recommended by UNAIDS, you may also upload the files individually to Naomi. 
+    <t>In order to utilize the powerful data quality analyses provided by Naomi's Inputs Review function, you must select the relevant Dataset for this year, including geographic data package (named area boundary file in ADR), ART data package, and ANC data package. Although not recommended by UNAIDS, you may also upload the files individually to Naomi. 
 **You may use last year's Spectrum file for the data review process. The Spectrum file is only required to create a new project and will not be used in this process.**</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t xml:space="preserve">Naomi </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t>https://naomi.unaids.org/</t>
+    </r>
+  </si>
+  <si>
     <t>check_manual_confirmation('EST-ROB-05-01-A')</t>
   </si>
   <si>
@@ -1166,8 +1222,26 @@
   </si>
   <si>
     <t>The Naomi Inputs Review function provides a number of powerful visualizations to help country teams identify data quality problems. UNAIDS recommends country teams view each of the plot options available for ART and ANC. Selecting these different options will present you with each district's data trends for the years included in your data file. Potential data anomolies will be highlighted by red lines. 
-It's important to document any anomolies with your team to investigate further. Engage your district counterparts to investigate and resolve anomolies. Remember, data quality issues can have a major impact on your estimates. **Your estimates outputs are only as good as the quality of your Inputs Package. UNAIDS strongly recommends correcting any erroneous data in the source system and inputs templates prior to proceeding with your estimates process.** Once your data files have been corrected, you may upload them to ADR in lieu of the previous versions with errors. Once you are fully satisfied with the quality of all data files, you may proceed with the estimates process, starting with Milestone 4 - Enter Data into Spectrum.
+It's important to document any anomolies with your team to investigate further. Engage your district counterparts to investigate and resolve anomolies. Remember, data quality issues can have a major impact on your estimates. **Your estimates outputs are only as good as the quality of your Dataset. UNAIDS strongly recommends correcting any erroneous data in the source system and inputs templates prior to proceeding with your estimates process.** Once your data files have been corrected, you may upload them to ADR in lieu of the previous versions with errors. Once you are fully satisfied with the quality of all data files, you may proceed with the estimates process, starting with Milestone 4 - Enter Data into Spectrum.
 **NOTE YOU SHOULD ONLY BE USING THE INPUTS REVIEW FUNCTION AT THIS POINT. DO NOT PROCEED WITH THE OTHER FUNCTIONS OF NAOMI. YOU WILL COMPLETE THE SPECTRUM MILESTONE BEFORE RETURNING TO NAOMI. ONCE YOU HAVE COMPLETED YOUR DATA QUALITY REVIEW AND CORRECTIONS, YOU MAY LEAVE NAOMI AND RETURN TO NAVIGATOR TO PROCEED TO THE SPECTRUM MILESTONE.***</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color theme="1"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t xml:space="preserve">Naomi </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FF000000"/>
+        <sz val="8.0"/>
+      </rPr>
+      <t>https://naomi.unaids.org/</t>
+    </r>
   </si>
   <si>
     <t>check_manual_confirmation('EST-ROB-06-01-A')</t>
@@ -1282,7 +1356,7 @@
     <t>Does user have a Spectrum file for this year's estimates?</t>
   </si>
   <si>
-    <t xml:space="preserve">After you've logged in (or opened your Spectrum AIM program on your computer), you must upload your existing Spectrum projection file (e.g., from last year). You can find last year's Spectrum file in your organization's Inputs Package for this year as UNAIDS has placed all prior year Spectrum files in their respective Inputs Package for your convenience. If your country will only use one Spectrum file for the national level, you only need to do this once. If you will use separate Spectrum files for different geographic areas (optional), you will update a Spectrum file for each area. </t>
+    <t xml:space="preserve">After you've logged in (or opened your Spectrum AIM program on your computer), you must upload your existing Spectrum projection file (e.g., from last year). You can find last year's Spectrum file in your organization's Dataset for this year as UNAIDS has placed all prior year Spectrum files in their respective Dataset for your convenience. If your country will only use one Spectrum file for the national level, you only need to do this once. If you will use separate Spectrum files for different geographic areas (optional), you will update a Spectrum file for each area. </t>
   </si>
   <si>
     <t>check_manual_confirmation('EST-SPE-03-01-A')</t>
@@ -1407,7 +1481,7 @@
     <t>Do the sum totals for ART - including pediatric, male adults, and female adults - from the user's Spectrum file match the data in the country's Naomi ART file?</t>
   </si>
   <si>
-    <t xml:space="preserve">Countries should be using a single, validated source of information for data used in different estimates models, even if some models require sub-national data (e.g., Naomi) and others use national-level data (e.g., Spectrum in most cases). ART data are one such source used by both Naomi and Spectrum. The ART totals you have entered in Spectrum for pediatric, adult female, and adult male populations must match the sum of the subnational ART data for the same populations in your Naomi Inputs Package. *If these two data sources do not match, please review and correct so what you enter in Spectrum is the same as what you have in your Naomi inputs file.* For countries producing provincial-level Spectrum estimates, ensure that the district data for Naomi match the provincial Spectrum files to which the districts belong. </t>
+    <t xml:space="preserve">Countries should be using a single, validated source of information for data used in different estimates models, even if some models require sub-national data (e.g., Naomi) and others use national-level data (e.g., Spectrum in most cases). ART data are one such source used by both Naomi and Spectrum. The ART totals you have entered in Spectrum for pediatric, adult female, and adult male populations must match the sum of the subnational ART data for the same populations in your Dataset. *If these two data sources do not match, please review and correct so what you enter in Spectrum is the same as what you have in your Naomi inputs file.* For countries producing provincial-level Spectrum estimates, ensure that the district data for Naomi match the provincial Spectrum files to which the districts belong. </t>
   </si>
   <si>
     <t xml:space="preserve">S4: Added 27/Oct. </t>
@@ -1745,7 +1819,7 @@
     <t xml:space="preserve">Have sex/age incidence patterns been restored to default values and then fit either as fixed over time or time-dependent ratios in Spectrum? </t>
   </si>
   <si>
-    <t xml:space="preserve">You are close to completing the Spectrum process. Ensure you have restored the default values for incidence ratios and then fit the incidence rate ratios either using fixed ratios or time-dependent ratios. For generalized epidemics with national surveys, the model will calculate the appropriate sex and age patterns. Begin by navigating to AIM &gt; Sex/Age Pattern in Spectrum. Then click the button ‘Restore default values’. Then set the radio button to ‘Time dependent incidence ratios’ and click the button ‘Fit incidence’. The fit should only take a few minutes. Then set the radio button to ‘Fixed incidence ratios over time’ and click the button ‘Fit incidence ratios’ again. This fit should take only a minute or two. When it is done, look at the values of the Akaike information criterion for each option. This statistic measures the goodness of fit and adjusts for the degrees of freedom. The lower number is the better option. Set the radio button to that option. </t>
+    <t xml:space="preserve">You are close to completing the Spectrum process. The last step created an incidence curve. Now we need to asign that incidence by age and sex. For generalized epidemics with national surveys, the model will calculate the appropriate sex and age incidence patterns from the current age/sex prevlance pattern. Begin by navigating to AIM &gt; Sex/Age Pattern in Spectrum. Then click the button ‘Restore default values’. Then set the radio button to Pattern fitted to HIV prevalence or ART and select Fit Incidence ratios. Set the radio button to ‘Time dependent incidence ratios’ and click the button ‘Fit incidence’. The fit should only take a few minutes. Then set the radio button to ‘Fixed incidence ratios over time’ and click the button ‘Fit incidence ratios’ again. When it is done, look at the values of the Akaike information criterion for each option. This statistic measures the goodness of fit and adjusts for the degrees of freedom. The lower number is the better option. Set the radio button to that option. Also look at how well the modelled results match the prevalence from your surveys. Check this for males and females separately using the radio buttons at the top of the screen. Ideally the values will be within the confidence intervals of the survey. </t>
   </si>
   <si>
     <t>check_manual_confirmation('EST-EPP-06-01-A')</t>
@@ -1933,6 +2007,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
+        <strike/>
         <color theme="1"/>
         <sz val="8.0"/>
       </rPr>
@@ -1941,15 +2016,16 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
+        <strike/>
         <color theme="1"/>
         <sz val="8.0"/>
-        <u/>
       </rPr>
       <t>not</t>
     </r>
     <r>
       <rPr>
         <rFont val="Calibri"/>
+        <strike/>
         <color theme="1"/>
         <sz val="8.0"/>
       </rPr>
@@ -2211,7 +2287,7 @@
     <t>Final, validated Spectrum file has been uploaded to the correct organization on ADR?</t>
   </si>
   <si>
-    <t xml:space="preserve">Before proceeding, you should now upload your final Spectrum file to the AIDS Data Repository (adr.hivtools.org). Saving your file to ADR supports sound knowledge management and will allow your country estimates team and supporters (e.g., UNAIDS) to view the results. Further, if you are proceeding with sub-national estimates, Naomi will require your Spectrum file. Naomi can pull your Spectrum file directly from ADR. To upload your Spectrum file to ADR, proceed to adr.hivtools.org and find your organization (i.e., country). In your country's list of data, you will see the Inputs Package for the reporting period. </t>
+    <t xml:space="preserve">Before proceeding, you should now upload your final Spectrum file to the AIDS Data Repository (adr.hivtools.org). Saving your file to ADR supports sound knowledge management and will allow your country estimates team and supporters (e.g., UNAIDS) to view the results. Further, if you are proceeding with sub-national estimates, Naomi will require your Spectrum file. Naomi can pull your Spectrum file directly from ADR. To upload your Spectrum file to ADR, proceed to adr.hivtools.org and find your organization (i.e., country). In your country's list of data, you will see the Dataset for the reporting period. </t>
   </si>
   <si>
     <r>
@@ -2259,7 +2335,7 @@
         <color theme="1"/>
         <sz val="8.0"/>
       </rPr>
-      <t xml:space="preserve">- Link directly to the user's organization page and possibly Inputs Package for the current year. 
+      <t xml:space="preserve">- Link directly to the user's organization page and possibly Dataset for the current year. 
 Ian: at this point there should be an autmated check to verify that the default parameters have been used, as well as check shiny file has loaded into Spectrum and comparison of ART totals to Naomi input files
 </t>
     </r>
@@ -2279,22 +2355,6 @@
       </rPr>
       <t xml:space="preserve"> Also, Spectrum CSV data checker will validate some (all?) of these things. </t>
     </r>
-  </si>
-  <si>
-    <t>SPF-12-01</t>
-  </si>
-  <si>
-    <t>Confirm no underlying data inputs used for KOS have changed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If any underlying programme data have changed since you completed the first portion of Spectrum, you must return to the beginning of the Spectrum process and repeat all steps before proceeding with the final steps of Spectrum. Note steps you followed to estimate incidence (e.g., EPP) and produce KOS outputs (Shiny 90) must also be repeated. </t>
-  </si>
-  <si>
-    <t>check_manual_confirmation('EST-SPF-12-01-A')</t>
-  </si>
-  <si>
-    <t>JS: Data checker should help here.
-JP: I'm gathering info about how the checker will assist so we can build that into Navigator.</t>
   </si>
   <si>
     <t>SPF-13-01</t>
@@ -2571,7 +2631,7 @@
     <t>Generate District HIV Estimates Using Naomi</t>
   </si>
   <si>
-    <t xml:space="preserve">Countries generating district-level estimates utilize the Naomi model. In this milestone, you will create a project, import your Inputs Package from the AIDS Data Repository, and execute multiple steps to calibrate and run the model for your district estimates. This is the final milestone in the HIV Estimates Navigator. </t>
+    <t xml:space="preserve">Countries generating district-level estimates utilize the Naomi model. In this milestone, you will create a project, import your Dataset from the AIDS Data Repository, and execute multiple steps to calibrate and run the model for your district estimates. This is the final milestone in the HIV Estimates Navigator. </t>
   </si>
   <si>
     <t>User has a validated, final Spectrum file
@@ -2588,13 +2648,13 @@
     <t>NAO-01-10</t>
   </si>
   <si>
-    <t>Upload Naomi data Inputs Package to ADR</t>
-  </si>
-  <si>
-    <t>Is the reporting period's estimates data Inputs Package uploaded to ADR and validated, including: i) Area boundary file, ii) Final, validated Spectrum file, iii) Population data, iv) Survey data, v) ART data, and vi) ANC data?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UNAIDS strongly encourages the use of ADR as the singular location for storing estimates data inputs. There are many advantages to using ADR, including the data validation feature which will ensure your data are in the required structure and meet basic data quality requirements. Naomi requires specific data inputs: i) Area boundary file, ii) Final, validated Spectrum file, iii) Population data, iv) Survey data, v) ART data, and vi) ANC data. Before beginning the Naomi process, UNAIDS recommends uploading these data inputs to this year's data Inputs Package to ADR. Naomi will then import these validated files directly from ADR. </t>
+    <t>Upload Naomi data files to your Dataset on ADR if you haven't already</t>
+  </si>
+  <si>
+    <t>Is the reporting period's estimates Dataset uploaded to ADR and validated, including: i) Area boundary file, ii) Final, validated Spectrum file, iii) Population data, iv) Survey data, v) ART data, and vi) ANC data?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNAIDS strongly encourages the use of ADR as the singular location for storing estimates data inputs. There are many advantages to using ADR, including the data validation feature which will ensure your data are in the required structure and meet basic data quality requirements. Naomi requires specific data inputs: i) Area boundary file, ii) Final, validated Spectrum file, iii) Population data, iv) Survey data, v) ART data, and vi) ANC data. Before beginning the Naomi process, UNAIDS recommends uploading these data inputs to this year's Dataset to ADR. Naomi will then import these validated files directly from ADR. </t>
   </si>
   <si>
     <t>check_manual_confirmation('EST-NAO-01-10-A')</t>
@@ -2640,7 +2700,7 @@
     <t>NAO-03-01</t>
   </si>
   <si>
-    <t xml:space="preserve">In order to take full advantage of Naomi's functionality, UNAIDS recommends you create a Naomi user account. A Naomi user account has multiple advantages, including integration with ADR and direct access to your Inputs Package, project saving, and sharing of draft and final project results. If you do not already have an account, you may request one by completing the brief Naomi user account request form. Responses should be immediate, especially during the time of estimates workshops. If you prefer, you may use Naomi as a guest, but it is not recommended. </t>
+    <t xml:space="preserve">In order to take full advantage of Naomi's functionality, UNAIDS recommends you create a Naomi user account. A Naomi user account has multiple advantages, including integration with ADR and direct access to your Dataset, project saving, and sharing of draft and final project results. If you do not already have an account, you may request one by completing the brief Naomi user account request form. Responses should be immediate, especially during the time of estimates workshops. If you prefer, you may use Naomi as a guest, but it is not recommended. </t>
   </si>
   <si>
     <t>check_manual_confirmation('EST-NAO-03-01-A')</t>
@@ -2799,7 +2859,7 @@
     <t>NAO-11-01</t>
   </si>
   <si>
-    <t>Confirm no data files in your Inputs Package on ADR required for district estimates have changed since you began Naomi</t>
+    <t>Confirm no data files in your Dataset on ADR required for district estimates have changed since you began Naomi</t>
   </si>
   <si>
     <t>No updates have been made to any Naomi data files or underlying data to be used by Naomi before using those files in models which project subnational est?</t>
@@ -3281,7 +3341,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="126">
+  <cellXfs count="130">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3368,6 +3428,9 @@
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3414,9 +3477,6 @@
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -3445,6 +3505,9 @@
     </xf>
     <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="5" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
@@ -3488,6 +3551,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="5" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -3566,6 +3632,12 @@
     </xf>
     <xf borderId="1" fillId="7" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="19" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="2" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -10637,504 +10709,504 @@
         <v>66</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="38" t="s">
         <v>67</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="38">
+      <c r="F2" s="39">
         <v>0.2</v>
       </c>
       <c r="G2" s="11"/>
     </row>
     <row r="3" ht="7.5" customHeight="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="42" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="42" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="43" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" ht="12.0" customHeight="1">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="45" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="45" t="s">
+      <c r="C5" s="46" t="s">
         <v>70</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="46" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="45" t="s">
+      <c r="F5" s="48"/>
+      <c r="G5" s="46" t="s">
         <v>73</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="48"/>
-      <c r="V5" s="48"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="48"/>
-      <c r="Y5" s="48"/>
-      <c r="Z5" s="48"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="49"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="49"/>
+      <c r="V5" s="49"/>
+      <c r="W5" s="49"/>
+      <c r="X5" s="49"/>
+      <c r="Y5" s="49"/>
+      <c r="Z5" s="49"/>
     </row>
     <row r="6" ht="12.0" customHeight="1">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="50" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="51" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45" t="s">
+      <c r="F6" s="46"/>
+      <c r="G6" s="46" t="s">
         <v>80</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="48"/>
-      <c r="U6" s="48"/>
-      <c r="V6" s="48"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="48"/>
-      <c r="Y6" s="48"/>
-      <c r="Z6" s="48"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49"/>
+      <c r="S6" s="49"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="49"/>
+      <c r="V6" s="49"/>
+      <c r="W6" s="49"/>
+      <c r="X6" s="49"/>
+      <c r="Y6" s="49"/>
+      <c r="Z6" s="49"/>
     </row>
     <row r="7" ht="12.0" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="51" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="45" t="s">
+      <c r="E7" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53" t="s">
+      <c r="F7" s="53"/>
+      <c r="G7" s="54" t="s">
         <v>87</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="48"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="49"/>
+      <c r="W7" s="49"/>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="49"/>
     </row>
     <row r="8" ht="12.0" customHeight="1">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="45" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="45" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="52"/>
-      <c r="G8" s="38"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="39"/>
       <c r="H8" s="19"/>
       <c r="I8" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="S8" s="48"/>
-      <c r="T8" s="48"/>
-      <c r="U8" s="48"/>
-      <c r="V8" s="48"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="48"/>
-      <c r="Y8" s="48"/>
-      <c r="Z8" s="48"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="49"/>
+      <c r="O8" s="49"/>
+      <c r="P8" s="49"/>
+      <c r="Q8" s="49"/>
+      <c r="R8" s="49"/>
+      <c r="S8" s="49"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="49"/>
+      <c r="V8" s="49"/>
+      <c r="W8" s="49"/>
+      <c r="X8" s="49"/>
+      <c r="Y8" s="49"/>
+      <c r="Z8" s="49"/>
     </row>
     <row r="9" ht="12.0" customHeight="1">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="45" t="s">
         <v>94</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="45" t="s">
+      <c r="E9" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="52"/>
-      <c r="G9" s="38"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="39"/>
       <c r="H9" s="15"/>
       <c r="I9" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="S9" s="48"/>
-      <c r="T9" s="48"/>
-      <c r="U9" s="48"/>
-      <c r="V9" s="48"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="48"/>
-      <c r="Y9" s="48"/>
-      <c r="Z9" s="48"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="49"/>
+      <c r="O9" s="49"/>
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="49"/>
+      <c r="V9" s="49"/>
+      <c r="W9" s="49"/>
+      <c r="X9" s="49"/>
+      <c r="Y9" s="49"/>
+      <c r="Z9" s="49"/>
     </row>
     <row r="10" ht="12.0" customHeight="1">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="E10" s="45" t="s">
+      <c r="E10" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="38"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="15"/>
       <c r="I10" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
-      <c r="S10" s="48"/>
-      <c r="T10" s="48"/>
-      <c r="U10" s="48"/>
-      <c r="V10" s="48"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="48"/>
-      <c r="Y10" s="48"/>
-      <c r="Z10" s="48"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="49"/>
+      <c r="T10" s="49"/>
+      <c r="U10" s="49"/>
+      <c r="V10" s="49"/>
+      <c r="W10" s="49"/>
+      <c r="X10" s="49"/>
+      <c r="Y10" s="49"/>
+      <c r="Z10" s="49"/>
     </row>
     <row r="11" ht="12.0" customHeight="1">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="45" t="s">
         <v>105</v>
       </c>
       <c r="B11" s="44" t="s">
         <v>106</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="46" t="s">
         <v>107</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="51" t="s">
         <v>108</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="E11" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="38"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="15"/>
       <c r="I11" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
-      <c r="S11" s="48"/>
-      <c r="T11" s="48"/>
-      <c r="U11" s="48"/>
-      <c r="V11" s="48"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="48"/>
-      <c r="Y11" s="48"/>
-      <c r="Z11" s="48"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="49"/>
+      <c r="T11" s="49"/>
+      <c r="U11" s="49"/>
+      <c r="V11" s="49"/>
+      <c r="W11" s="49"/>
+      <c r="X11" s="49"/>
+      <c r="Y11" s="49"/>
+      <c r="Z11" s="49"/>
     </row>
     <row r="12" ht="12.0" customHeight="1">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="45" t="s">
         <v>111</v>
       </c>
       <c r="B12" s="44" t="s">
         <v>112</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="46" t="s">
         <v>113</v>
       </c>
-      <c r="D12" s="50" t="s">
+      <c r="D12" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="45" t="s">
+      <c r="E12" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="38"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="15"/>
       <c r="I12" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="S12" s="48"/>
-      <c r="T12" s="48"/>
-      <c r="U12" s="48"/>
-      <c r="V12" s="48"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="48"/>
-      <c r="Y12" s="48"/>
-      <c r="Z12" s="48"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="49"/>
+      <c r="O12" s="49"/>
+      <c r="P12" s="49"/>
+      <c r="Q12" s="49"/>
+      <c r="R12" s="49"/>
+      <c r="S12" s="49"/>
+      <c r="T12" s="49"/>
+      <c r="U12" s="49"/>
+      <c r="V12" s="49"/>
+      <c r="W12" s="49"/>
+      <c r="X12" s="49"/>
+      <c r="Y12" s="49"/>
+      <c r="Z12" s="49"/>
     </row>
     <row r="13" ht="12.0" customHeight="1">
-      <c r="A13" s="44" t="s">
+      <c r="A13" s="45" t="s">
         <v>116</v>
       </c>
       <c r="B13" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D13" s="50" t="s">
+      <c r="D13" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="E13" s="45" t="s">
+      <c r="E13" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="F13" s="52"/>
-      <c r="G13" s="38"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="15"/>
       <c r="I13" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="49"/>
+      <c r="O13" s="49"/>
+      <c r="P13" s="49"/>
+      <c r="Q13" s="49"/>
+      <c r="R13" s="49"/>
+      <c r="S13" s="49"/>
+      <c r="T13" s="49"/>
+      <c r="U13" s="49"/>
+      <c r="V13" s="49"/>
+      <c r="W13" s="49"/>
+      <c r="X13" s="49"/>
+      <c r="Y13" s="49"/>
+      <c r="Z13" s="49"/>
     </row>
     <row r="14" ht="12.0" customHeight="1">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="45" t="s">
         <v>121</v>
       </c>
       <c r="B14" s="44" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="D14" s="45" t="s">
+      <c r="D14" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="52"/>
-      <c r="G14" s="38"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="39"/>
       <c r="H14" s="15"/>
       <c r="I14" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
-      <c r="S14" s="48"/>
-      <c r="T14" s="48"/>
-      <c r="U14" s="48"/>
-      <c r="V14" s="48"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="48"/>
-      <c r="Y14" s="48"/>
-      <c r="Z14" s="48"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="49"/>
+      <c r="O14" s="49"/>
+      <c r="P14" s="49"/>
+      <c r="Q14" s="49"/>
+      <c r="R14" s="49"/>
+      <c r="S14" s="49"/>
+      <c r="T14" s="49"/>
+      <c r="U14" s="49"/>
+      <c r="V14" s="49"/>
+      <c r="W14" s="49"/>
+      <c r="X14" s="49"/>
+      <c r="Y14" s="49"/>
+      <c r="Z14" s="49"/>
     </row>
     <row r="15" ht="12.0" customHeight="1">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="54"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
-      <c r="S15" s="48"/>
-      <c r="T15" s="48"/>
-      <c r="U15" s="48"/>
-      <c r="V15" s="48"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="48"/>
-      <c r="Y15" s="48"/>
-      <c r="Z15" s="48"/>
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
+      <c r="O15" s="49"/>
+      <c r="P15" s="49"/>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="S15" s="49"/>
+      <c r="T15" s="49"/>
+      <c r="U15" s="49"/>
+      <c r="V15" s="49"/>
+      <c r="W15" s="49"/>
+      <c r="X15" s="49"/>
+      <c r="Y15" s="49"/>
+      <c r="Z15" s="49"/>
     </row>
     <row r="16" ht="12.0" customHeight="1">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="S16" s="48"/>
-      <c r="T16" s="48"/>
-      <c r="U16" s="48"/>
-      <c r="V16" s="48"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="48"/>
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="49"/>
+      <c r="O16" s="49"/>
+      <c r="P16" s="49"/>
+      <c r="Q16" s="49"/>
+      <c r="R16" s="49"/>
+      <c r="S16" s="49"/>
+      <c r="T16" s="49"/>
+      <c r="U16" s="49"/>
+      <c r="V16" s="49"/>
+      <c r="W16" s="49"/>
+      <c r="X16" s="49"/>
+      <c r="Y16" s="49"/>
+      <c r="Z16" s="49"/>
     </row>
     <row r="17" ht="12.0" customHeight="1"/>
     <row r="18" ht="12.0" customHeight="1"/>
@@ -12167,7 +12239,7 @@
       <c r="D1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="55"/>
+      <c r="E1" s="56"/>
       <c r="F1" s="35" t="s">
         <v>3</v>
       </c>
@@ -12176,15 +12248,15 @@
       <c r="A2" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="37" t="s">
         <v>127</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="38" t="s">
         <v>128</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="38">
+      <c r="F2" s="39">
         <v>0.2</v>
       </c>
     </row>
@@ -12201,28 +12273,28 @@
       <c r="A4" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="42" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="43" t="s">
         <v>15</v>
       </c>
     </row>
@@ -12230,17 +12302,17 @@
       <c r="A5" s="60" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="51" t="s">
         <v>131</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="51" t="s">
         <v>132</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="47"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="61" t="s">
         <v>133</v>
       </c>
@@ -12262,8 +12334,8 @@
       <c r="D6" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="47"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="63"/>
       <c r="H6" s="19"/>
       <c r="I6" s="64" t="s">
@@ -12290,17 +12362,17 @@
       <c r="A7" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="45" t="s">
+      <c r="C7" s="46" t="s">
         <v>142</v>
       </c>
-      <c r="D7" s="50" t="s">
+      <c r="D7" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="E7" s="45"/>
-      <c r="F7" s="47"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="48"/>
       <c r="G7" s="63"/>
       <c r="H7" s="19"/>
       <c r="I7" s="18" t="s">
@@ -12327,20 +12399,20 @@
       <c r="A8" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="51" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="45" t="s">
+      <c r="C8" s="46" t="s">
         <v>147</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="52" t="s">
         <v>149</v>
       </c>
-      <c r="F8" s="47"/>
-      <c r="G8" s="45"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="46"/>
       <c r="H8" s="19"/>
       <c r="I8" s="19" t="s">
         <v>150</v>
@@ -12366,20 +12438,20 @@
       <c r="A9" s="66" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="51" t="s">
         <v>152</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="46" t="s">
         <v>153</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="D9" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="F9" s="47"/>
-      <c r="G9" s="45"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="46"/>
       <c r="H9" s="19"/>
       <c r="I9" s="19" t="s">
         <v>156</v>
@@ -12408,19 +12480,19 @@
       <c r="B10" s="68" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="69" t="s">
         <v>159</v>
       </c>
       <c r="D10" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="E10" s="70" t="s">
         <v>161</v>
       </c>
-      <c r="F10" s="70"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="73" t="s">
+      <c r="F10" s="71"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="74" t="s">
         <v>162</v>
       </c>
       <c r="J10" s="6"/>
@@ -12444,39 +12516,39 @@
       <c r="A11" s="66" t="s">
         <v>163</v>
       </c>
-      <c r="B11" s="45" t="s">
+      <c r="B11" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="46" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="E11" s="52" t="s">
         <v>167</v>
       </c>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19" t="s">
         <v>168</v>
       </c>
-      <c r="J11" s="74"/>
-      <c r="K11" s="74"/>
-      <c r="L11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
-      <c r="O11" s="74"/>
-      <c r="P11" s="74"/>
-      <c r="Q11" s="74"/>
-      <c r="R11" s="74"/>
-      <c r="S11" s="74"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="74"/>
-      <c r="V11" s="74"/>
-      <c r="W11" s="74"/>
-      <c r="X11" s="74"/>
+      <c r="J11" s="75"/>
+      <c r="K11" s="75"/>
+      <c r="L11" s="75"/>
+      <c r="M11" s="75"/>
+      <c r="N11" s="75"/>
+      <c r="O11" s="75"/>
+      <c r="P11" s="75"/>
+      <c r="Q11" s="75"/>
+      <c r="R11" s="75"/>
+      <c r="S11" s="75"/>
+      <c r="T11" s="75"/>
+      <c r="U11" s="75"/>
+      <c r="V11" s="75"/>
+      <c r="W11" s="75"/>
+      <c r="X11" s="75"/>
     </row>
     <row r="12" ht="12.0" customHeight="1"/>
     <row r="13" ht="12.0" customHeight="1"/>
@@ -13506,7 +13578,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="34" t="s">
@@ -13516,7 +13588,7 @@
       <c r="D1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="55"/>
+      <c r="E1" s="56"/>
       <c r="F1" s="35" t="s">
         <v>3</v>
       </c>
@@ -13525,7 +13597,7 @@
       <c r="A2" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="37" t="s">
         <v>170</v>
       </c>
       <c r="C2" s="3"/>
@@ -13533,71 +13605,71 @@
         <v>171</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="38">
+      <c r="F2" s="39">
         <v>0.2</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="39"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="41" t="s">
+      <c r="D4" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="41" t="s">
+      <c r="E4" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="41" t="s">
+      <c r="F4" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="41" t="s">
+      <c r="G4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="43" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="76" t="s">
+      <c r="A5" s="77" t="s">
         <v>172</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="77" t="s">
+      <c r="B5" s="77"/>
+      <c r="C5" s="78" t="s">
         <v>173</v>
       </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="78">
+      <c r="D5" s="77"/>
+      <c r="E5" s="77"/>
+      <c r="F5" s="79">
         <v>1.0</v>
       </c>
-      <c r="G5" s="79" t="s">
+      <c r="G5" s="80" t="s">
         <v>174</v>
       </c>
-      <c r="H5" s="80"/>
-      <c r="I5" s="81" t="s">
+      <c r="H5" s="81"/>
+      <c r="I5" s="82" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="46" t="s">
         <v>176</v>
       </c>
       <c r="B6" s="15" t="s">
@@ -13612,17 +13684,17 @@
       <c r="E6" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="F6" s="82">
+      <c r="F6" s="83">
         <v>1.0</v>
       </c>
-      <c r="G6" s="83"/>
+      <c r="G6" s="84"/>
       <c r="H6" s="15"/>
       <c r="I6" s="16" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="45" t="s">
+      <c r="A7" s="46" t="s">
         <v>182</v>
       </c>
       <c r="B7" s="15" t="s">
@@ -13631,86 +13703,94 @@
       <c r="C7" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="16" t="s">
         <v>185</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="82">
+      <c r="E7" s="85" t="s">
+        <v>186</v>
+      </c>
+      <c r="F7" s="83">
         <v>1.0</v>
       </c>
-      <c r="G7" s="83"/>
+      <c r="G7" s="84"/>
       <c r="H7" s="15"/>
       <c r="I7" s="16" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="45" t="s">
-        <v>187</v>
+      <c r="A8" s="46" t="s">
+        <v>188</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>190</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="82">
+        <v>191</v>
+      </c>
+      <c r="E8" s="85" t="s">
+        <v>192</v>
+      </c>
+      <c r="F8" s="83">
         <v>1.0</v>
       </c>
-      <c r="G8" s="83"/>
+      <c r="G8" s="84"/>
       <c r="H8" s="15"/>
       <c r="I8" s="16" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="45" t="s">
-        <v>192</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>193</v>
-      </c>
-      <c r="C9" s="45" t="s">
+      <c r="A9" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="D9" s="50" t="s">
+      <c r="B9" s="51" t="s">
         <v>195</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="82">
+      <c r="C9" s="46" t="s">
+        <v>196</v>
+      </c>
+      <c r="D9" s="51" t="s">
+        <v>197</v>
+      </c>
+      <c r="E9" s="85" t="s">
+        <v>198</v>
+      </c>
+      <c r="F9" s="83">
         <v>1.0</v>
       </c>
-      <c r="G9" s="83"/>
+      <c r="G9" s="84"/>
       <c r="H9" s="15"/>
       <c r="I9" s="16" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="45" t="s">
-        <v>197</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>199</v>
-      </c>
-      <c r="D10" s="50" t="s">
+      <c r="A10" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="83">
+      <c r="B10" s="46" t="s">
+        <v>201</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>202</v>
+      </c>
+      <c r="D10" s="51" t="s">
+        <v>203</v>
+      </c>
+      <c r="E10" s="85" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="84">
         <v>1.0</v>
       </c>
-      <c r="G10" s="84"/>
+      <c r="G10" s="86"/>
       <c r="H10" s="29"/>
       <c r="I10" s="16" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1">
@@ -14814,7 +14894,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="34" t="s">
@@ -14824,102 +14904,102 @@
       <c r="D1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="55"/>
+      <c r="E1" s="56"/>
       <c r="F1" s="35" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>203</v>
+      <c r="A2" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>207</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="37" t="s">
-        <v>204</v>
+      <c r="D2" s="38" t="s">
+        <v>208</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="38">
+      <c r="F2" s="39">
         <v>0.2</v>
       </c>
     </row>
     <row r="3" ht="12.0" customHeight="1"/>
     <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="86" t="s">
-        <v>205</v>
-      </c>
-      <c r="C4" s="85" t="s">
+      <c r="B4" s="88" t="s">
+        <v>209</v>
+      </c>
+      <c r="C4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="87" t="s">
+      <c r="E4" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="85" t="s">
+      <c r="G4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="85" t="s">
+      <c r="H4" s="87" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="88" t="s">
+      <c r="I4" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="43" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="B5" s="89"/>
+        <v>210</v>
+      </c>
+      <c r="B5" s="91"/>
       <c r="C5" s="15" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>208</v>
-      </c>
-      <c r="E5" s="90" t="s">
-        <v>209</v>
-      </c>
-      <c r="F5" s="91" t="s">
-        <v>210</v>
+        <v>212</v>
+      </c>
+      <c r="E5" s="92" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" s="93" t="s">
+        <v>214</v>
       </c>
       <c r="G5" s="15"/>
       <c r="H5" s="15" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="16" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>213</v>
-      </c>
-      <c r="B6" s="89"/>
+        <v>217</v>
+      </c>
+      <c r="B6" s="91"/>
       <c r="C6" s="15" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>215</v>
-      </c>
-      <c r="E6" s="92" t="s">
-        <v>216</v>
+        <v>219</v>
+      </c>
+      <c r="E6" s="94" t="s">
+        <v>220</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G6" s="15">
         <v>1.0</v>
@@ -14927,22 +15007,22 @@
       <c r="H6" s="27"/>
       <c r="I6" s="15"/>
       <c r="J6" s="16" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>219</v>
-      </c>
-      <c r="B7" s="93"/>
+        <v>223</v>
+      </c>
+      <c r="B7" s="95"/>
       <c r="C7" s="15" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="E7" s="90" t="s">
-        <v>222</v>
+        <v>225</v>
+      </c>
+      <c r="E7" s="92" t="s">
+        <v>226</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15">
@@ -14951,381 +15031,381 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="16" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="B8" s="89"/>
+        <v>228</v>
+      </c>
+      <c r="B8" s="91"/>
       <c r="C8" s="15" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="E8" s="90" t="s">
-        <v>227</v>
+        <v>230</v>
+      </c>
+      <c r="E8" s="92" t="s">
+        <v>231</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="16" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="B9" s="93" t="s">
-        <v>231</v>
+        <v>234</v>
+      </c>
+      <c r="B9" s="95" t="s">
+        <v>235</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="E9" s="90" t="s">
-        <v>234</v>
-      </c>
-      <c r="F9" s="91" t="s">
-        <v>235</v>
+        <v>237</v>
+      </c>
+      <c r="E9" s="92" t="s">
+        <v>238</v>
+      </c>
+      <c r="F9" s="93" t="s">
+        <v>239</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="16" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>237</v>
-      </c>
-      <c r="B10" s="93"/>
+        <v>241</v>
+      </c>
+      <c r="B10" s="95"/>
       <c r="C10" s="15" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>239</v>
-      </c>
-      <c r="E10" s="90" t="s">
-        <v>240</v>
-      </c>
-      <c r="F10" s="94"/>
+        <v>243</v>
+      </c>
+      <c r="E10" s="92" t="s">
+        <v>244</v>
+      </c>
+      <c r="F10" s="96"/>
       <c r="G10" s="15"/>
       <c r="H10" s="66" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="I10" s="29"/>
       <c r="J10" s="16" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" ht="57.0" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="B11" s="93"/>
+        <v>247</v>
+      </c>
+      <c r="B11" s="95"/>
       <c r="C11" s="15" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="E11" s="90" t="s">
-        <v>246</v>
+        <v>249</v>
+      </c>
+      <c r="E11" s="92" t="s">
+        <v>250</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G11" s="15"/>
-      <c r="H11" s="95"/>
+      <c r="H11" s="97"/>
       <c r="I11" s="27"/>
       <c r="J11" s="16" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" ht="12.0" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>249</v>
-      </c>
-      <c r="B12" s="89" t="s">
-        <v>250</v>
+        <v>253</v>
+      </c>
+      <c r="B12" s="91" t="s">
+        <v>254</v>
       </c>
       <c r="C12" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="E12" s="92" t="s">
+        <v>257</v>
+      </c>
+      <c r="F12" s="15" t="s">
         <v>251</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="E12" s="90" t="s">
-        <v>253</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>247</v>
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="66"/>
       <c r="I12" s="15"/>
       <c r="J12" s="16" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="13" ht="12.0" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="B13" s="96"/>
+        <v>259</v>
+      </c>
+      <c r="B13" s="98"/>
       <c r="C13" s="15" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E13" s="92" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="66" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="16" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>261</v>
-      </c>
-      <c r="B14" s="93" t="s">
-        <v>262</v>
+        <v>265</v>
+      </c>
+      <c r="B14" s="95" t="s">
+        <v>266</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="E14" s="92" t="s">
-        <v>265</v>
+        <v>268</v>
+      </c>
+      <c r="E14" s="94" t="s">
+        <v>269</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="66"/>
       <c r="I14" s="15"/>
       <c r="J14" s="16" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>267</v>
-      </c>
-      <c r="B15" s="93" t="s">
-        <v>268</v>
+        <v>271</v>
+      </c>
+      <c r="B15" s="95" t="s">
+        <v>272</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>270</v>
-      </c>
-      <c r="E15" s="92" t="s">
-        <v>271</v>
+        <v>274</v>
+      </c>
+      <c r="E15" s="94" t="s">
+        <v>275</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
       <c r="H15" s="15" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="16" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" ht="12.0" customHeight="1">
-      <c r="A16" s="80" t="s">
-        <v>274</v>
-      </c>
-      <c r="B16" s="93"/>
-      <c r="C16" s="80"/>
-      <c r="D16" s="80" t="s">
-        <v>275</v>
-      </c>
-      <c r="E16" s="97"/>
-      <c r="F16" s="80"/>
-      <c r="G16" s="80">
+      <c r="A16" s="81" t="s">
+        <v>278</v>
+      </c>
+      <c r="B16" s="95"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="81" t="s">
+        <v>279</v>
+      </c>
+      <c r="E16" s="99"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="81">
         <v>1.0</v>
       </c>
-      <c r="H16" s="98" t="s">
-        <v>276</v>
+      <c r="H16" s="100" t="s">
+        <v>280</v>
       </c>
       <c r="I16" s="29"/>
-      <c r="J16" s="81" t="s">
-        <v>277</v>
+      <c r="J16" s="82" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="B17" s="93" t="s">
-        <v>279</v>
-      </c>
-      <c r="C17" s="99" t="s">
-        <v>280</v>
-      </c>
-      <c r="D17" s="99" t="s">
-        <v>281</v>
-      </c>
-      <c r="E17" s="100" t="s">
         <v>282</v>
       </c>
-      <c r="F17" s="101" t="s">
+      <c r="B17" s="95" t="s">
         <v>283</v>
       </c>
-      <c r="G17" s="99"/>
-      <c r="H17" s="102"/>
+      <c r="C17" s="101" t="s">
+        <v>284</v>
+      </c>
+      <c r="D17" s="101" t="s">
+        <v>285</v>
+      </c>
+      <c r="E17" s="102" t="s">
+        <v>286</v>
+      </c>
+      <c r="F17" s="103" t="s">
+        <v>287</v>
+      </c>
+      <c r="G17" s="101"/>
+      <c r="H17" s="104"/>
       <c r="I17" s="15"/>
       <c r="J17" s="16" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>285</v>
-      </c>
-      <c r="B18" s="93" t="s">
-        <v>286</v>
-      </c>
-      <c r="C18" s="99" t="s">
+        <v>289</v>
+      </c>
+      <c r="B18" s="95" t="s">
+        <v>290</v>
+      </c>
+      <c r="C18" s="101" t="s">
+        <v>291</v>
+      </c>
+      <c r="D18" s="101" t="s">
+        <v>292</v>
+      </c>
+      <c r="E18" s="102" t="s">
+        <v>293</v>
+      </c>
+      <c r="F18" s="103" t="s">
         <v>287</v>
       </c>
-      <c r="D18" s="99" t="s">
-        <v>288</v>
-      </c>
-      <c r="E18" s="100" t="s">
-        <v>289</v>
-      </c>
-      <c r="F18" s="101" t="s">
-        <v>283</v>
-      </c>
-      <c r="G18" s="99"/>
-      <c r="H18" s="102"/>
+      <c r="G18" s="101"/>
+      <c r="H18" s="104"/>
       <c r="I18" s="15"/>
       <c r="J18" s="16" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="19" ht="12.0" customHeight="1">
       <c r="A19" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="B19" s="93" t="s">
-        <v>292</v>
+        <v>295</v>
+      </c>
+      <c r="B19" s="95" t="s">
+        <v>296</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E19" s="92" t="s">
-        <v>295</v>
-      </c>
-      <c r="F19" s="103" t="s">
-        <v>283</v>
+        <v>298</v>
+      </c>
+      <c r="E19" s="94" t="s">
+        <v>299</v>
+      </c>
+      <c r="F19" s="105" t="s">
+        <v>287</v>
       </c>
       <c r="G19" s="15"/>
-      <c r="H19" s="95"/>
+      <c r="H19" s="97"/>
       <c r="I19" s="15"/>
       <c r="J19" s="16" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" ht="12.0" customHeight="1">
       <c r="A20" s="15" t="s">
-        <v>297</v>
-      </c>
-      <c r="B20" s="93" t="s">
-        <v>298</v>
+        <v>301</v>
+      </c>
+      <c r="B20" s="95" t="s">
+        <v>302</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="E20" s="92" t="s">
-        <v>301</v>
-      </c>
-      <c r="F20" s="103" t="s">
-        <v>302</v>
+        <v>304</v>
+      </c>
+      <c r="E20" s="94" t="s">
+        <v>305</v>
+      </c>
+      <c r="F20" s="105" t="s">
+        <v>306</v>
       </c>
       <c r="G20" s="15"/>
-      <c r="H20" s="95"/>
+      <c r="H20" s="97"/>
       <c r="I20" s="15"/>
       <c r="J20" s="16" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" ht="12.0" customHeight="1">
       <c r="A21" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="B21" s="93" t="s">
-        <v>305</v>
+        <v>308</v>
+      </c>
+      <c r="B21" s="95" t="s">
+        <v>309</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="E21" s="92" t="s">
-        <v>308</v>
-      </c>
-      <c r="F21" s="103" t="s">
-        <v>283</v>
+        <v>311</v>
+      </c>
+      <c r="E21" s="94" t="s">
+        <v>312</v>
+      </c>
+      <c r="F21" s="105" t="s">
+        <v>287</v>
       </c>
       <c r="G21" s="15"/>
-      <c r="H21" s="95"/>
+      <c r="H21" s="97"/>
       <c r="I21" s="29"/>
       <c r="J21" s="16" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="22" ht="12.0" customHeight="1">
-      <c r="A22" s="80" t="s">
-        <v>310</v>
-      </c>
-      <c r="B22" s="104"/>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80" t="s">
-        <v>311</v>
-      </c>
-      <c r="E22" s="97"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="106">
+      <c r="A22" s="81" t="s">
+        <v>314</v>
+      </c>
+      <c r="B22" s="106"/>
+      <c r="C22" s="81"/>
+      <c r="D22" s="81" t="s">
+        <v>315</v>
+      </c>
+      <c r="E22" s="99"/>
+      <c r="F22" s="107"/>
+      <c r="G22" s="108">
         <v>1.0</v>
       </c>
-      <c r="H22" s="98" t="s">
-        <v>312</v>
+      <c r="H22" s="100" t="s">
+        <v>316</v>
       </c>
       <c r="I22" s="15"/>
-      <c r="J22" s="81" t="s">
-        <v>313</v>
+      <c r="J22" s="82" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="23" ht="12.0" customHeight="1">
@@ -16396,7 +16476,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="34" t="s">
@@ -16406,194 +16486,194 @@
       <c r="D1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="55"/>
+      <c r="E1" s="56"/>
       <c r="F1" s="35" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="107" t="s">
-        <v>314</v>
-      </c>
-      <c r="B2" s="108" t="s">
-        <v>315</v>
+      <c r="A2" s="109" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" s="110" t="s">
+        <v>319</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="108" t="s">
-        <v>316</v>
+      <c r="D2" s="110" t="s">
+        <v>320</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="38">
+      <c r="F2" s="39">
         <v>0.2</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1"/>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="85" t="s">
+      <c r="E4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="85" t="s">
-        <v>317</v>
+      <c r="G4" s="87" t="s">
+        <v>321</v>
       </c>
       <c r="H4" s="59" t="s">
-        <v>318</v>
-      </c>
-      <c r="I4" s="42" t="s">
+        <v>322</v>
+      </c>
+      <c r="I4" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="42" t="s">
+      <c r="J4" s="43" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
-      <c r="G5" s="92"/>
+      <c r="G5" s="94"/>
       <c r="H5" s="66"/>
       <c r="I5" s="15"/>
       <c r="J5" s="16" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="92" t="s">
-        <v>328</v>
+      <c r="G6" s="94" t="s">
+        <v>332</v>
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="16" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15"/>
-      <c r="G7" s="92" t="s">
-        <v>328</v>
+      <c r="G7" s="94" t="s">
+        <v>332</v>
       </c>
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="16" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15">
         <v>1.0</v>
       </c>
-      <c r="G8" s="92"/>
+      <c r="G8" s="94"/>
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="16" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>343</v>
-      </c>
-      <c r="E9" s="109" t="s">
-        <v>344</v>
+        <v>347</v>
+      </c>
+      <c r="E9" s="111" t="s">
+        <v>348</v>
       </c>
       <c r="F9" s="15">
         <v>1.0</v>
       </c>
-      <c r="G9" s="92" t="s">
-        <v>345</v>
+      <c r="G9" s="94" t="s">
+        <v>349</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="29"/>
       <c r="J9" s="16" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>349</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>350</v>
+        <v>353</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>354</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15">
@@ -16603,24 +16683,24 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="K10" s="74"/>
-      <c r="L10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
-      <c r="O10" s="74"/>
-      <c r="P10" s="74"/>
-      <c r="Q10" s="74"/>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="74"/>
-      <c r="Y10" s="74"/>
-      <c r="Z10" s="74"/>
+        <v>355</v>
+      </c>
+      <c r="K10" s="75"/>
+      <c r="L10" s="75"/>
+      <c r="M10" s="75"/>
+      <c r="N10" s="75"/>
+      <c r="O10" s="75"/>
+      <c r="P10" s="75"/>
+      <c r="Q10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="75"/>
+      <c r="Y10" s="75"/>
+      <c r="Z10" s="75"/>
     </row>
     <row r="11" ht="14.25" customHeight="1"/>
     <row r="12" ht="14.25" customHeight="1"/>
@@ -17651,7 +17731,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="34" t="s">
@@ -17661,142 +17741,142 @@
       <c r="D1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="55"/>
+      <c r="E1" s="56"/>
       <c r="F1" s="35" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="82.5" customHeight="1">
-      <c r="A2" s="38" t="s">
-        <v>352</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>353</v>
+      <c r="A2" s="39" t="s">
+        <v>356</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>357</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="37" t="s">
-        <v>354</v>
+      <c r="D2" s="38" t="s">
+        <v>358</v>
       </c>
       <c r="E2" s="3"/>
-      <c r="F2" s="38">
+      <c r="F2" s="39">
         <v>0.2</v>
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="J3" s="110"/>
+      <c r="J3" s="112"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="85" t="s">
+      <c r="E4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="85" t="s">
-        <v>317</v>
+      <c r="I4" s="87" t="s">
+        <v>321</v>
       </c>
       <c r="J4" s="59" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C5" s="66" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D5" s="66" t="s">
-        <v>358</v>
-      </c>
-      <c r="E5" s="95"/>
+        <v>362</v>
+      </c>
+      <c r="E5" s="97"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="I5" s="111"/>
+        <v>363</v>
+      </c>
+      <c r="I5" s="113"/>
       <c r="J5" s="66"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="F6" s="15">
         <v>1.0</v>
       </c>
       <c r="G6" s="15"/>
       <c r="H6" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="I6" s="92"/>
+        <v>369</v>
+      </c>
+      <c r="I6" s="94"/>
       <c r="J6" s="15"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="112" t="s">
-        <v>366</v>
-      </c>
-      <c r="B7" s="112"/>
-      <c r="C7" s="112" t="s">
-        <v>367</v>
-      </c>
-      <c r="D7" s="112"/>
-      <c r="E7" s="112"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="112"/>
-      <c r="H7" s="81" t="s">
-        <v>368</v>
-      </c>
-      <c r="I7" s="113" t="s">
-        <v>369</v>
-      </c>
-      <c r="J7" s="114"/>
+      <c r="A7" s="114" t="s">
+        <v>370</v>
+      </c>
+      <c r="B7" s="114"/>
+      <c r="C7" s="114" t="s">
+        <v>371</v>
+      </c>
+      <c r="D7" s="114"/>
+      <c r="E7" s="114"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="114"/>
+      <c r="H7" s="82" t="s">
+        <v>372</v>
+      </c>
+      <c r="I7" s="115" t="s">
+        <v>373</v>
+      </c>
+      <c r="J7" s="116"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15">
@@ -17804,45 +17884,45 @@
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="I8" s="92"/>
-      <c r="J8" s="115"/>
+        <v>378</v>
+      </c>
+      <c r="I8" s="94"/>
+      <c r="J8" s="117"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="I9" s="92"/>
-      <c r="J9" s="115"/>
+        <v>383</v>
+      </c>
+      <c r="I9" s="94"/>
+      <c r="J9" s="117"/>
     </row>
     <row r="10" ht="115.5" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="E10" s="15"/>
       <c r="F10" s="15">
@@ -17850,47 +17930,47 @@
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="I10" s="92" t="s">
-        <v>385</v>
-      </c>
-      <c r="J10" s="115"/>
+        <v>388</v>
+      </c>
+      <c r="I10" s="94" t="s">
+        <v>389</v>
+      </c>
+      <c r="J10" s="117"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="I11" s="92"/>
-      <c r="J11" s="115"/>
+        <v>394</v>
+      </c>
+      <c r="I11" s="94"/>
+      <c r="J11" s="117"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15">
@@ -17898,47 +17978,47 @@
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="I12" s="92" t="s">
-        <v>396</v>
-      </c>
-      <c r="J12" s="115"/>
+        <v>399</v>
+      </c>
+      <c r="I12" s="94" t="s">
+        <v>400</v>
+      </c>
+      <c r="J12" s="117"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="I13" s="92"/>
-      <c r="J13" s="115"/>
+        <v>405</v>
+      </c>
+      <c r="I13" s="94"/>
+      <c r="J13" s="117"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15">
@@ -17946,32 +18026,32 @@
       </c>
       <c r="G14" s="15"/>
       <c r="H14" s="16" t="s">
-        <v>406</v>
-      </c>
-      <c r="I14" s="92"/>
-      <c r="J14" s="115"/>
+        <v>410</v>
+      </c>
+      <c r="I14" s="94"/>
+      <c r="J14" s="117"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="B15" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>409</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="16" t="s">
+      <c r="A15" s="118" t="s">
         <v>411</v>
       </c>
-      <c r="I15" s="92"/>
-      <c r="J15" s="115"/>
+      <c r="B15" s="119" t="s">
+        <v>412</v>
+      </c>
+      <c r="C15" s="118" t="s">
+        <v>413</v>
+      </c>
+      <c r="D15" s="118" t="s">
+        <v>414</v>
+      </c>
+      <c r="E15" s="118"/>
+      <c r="F15" s="118"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="119" t="s">
+        <v>415</v>
+      </c>
+      <c r="I15" s="94"/>
+      <c r="J15" s="117"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="C16" s="33"/>
@@ -19010,13 +19090,13 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116" t="s">
+      <c r="B1" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="117"/>
+      <c r="C1" s="121"/>
       <c r="D1" s="34" t="s">
         <v>2</v>
       </c>
@@ -19024,129 +19104,129 @@
         <v>3</v>
       </c>
       <c r="F1" s="35" t="s">
-        <v>412</v>
-      </c>
-      <c r="I1" s="48"/>
+        <v>416</v>
+      </c>
+      <c r="I1" s="49"/>
     </row>
     <row r="2" ht="75.0" customHeight="1">
-      <c r="A2" s="38" t="s">
-        <v>413</v>
+      <c r="A2" s="39" t="s">
+        <v>417</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>414</v>
-      </c>
-      <c r="C2" s="117"/>
+        <v>418</v>
+      </c>
+      <c r="C2" s="121"/>
       <c r="D2" s="8" t="s">
-        <v>415</v>
-      </c>
-      <c r="E2" s="38">
+        <v>419</v>
+      </c>
+      <c r="E2" s="39">
         <v>0.2</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>416</v>
-      </c>
-      <c r="I2" s="48"/>
+        <v>420</v>
+      </c>
+      <c r="I2" s="49"/>
     </row>
     <row r="3" ht="13.5" customHeight="1">
-      <c r="I3" s="48"/>
+      <c r="I3" s="49"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="85" t="s">
+      <c r="C4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="85" t="s">
+      <c r="E4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="118" t="s">
-        <v>205</v>
-      </c>
-      <c r="J4" s="85" t="s">
+      <c r="I4" s="122" t="s">
+        <v>209</v>
+      </c>
+      <c r="J4" s="87" t="s">
         <v>17</v>
       </c>
       <c r="K4" s="59" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="16" t="s">
-        <v>421</v>
-      </c>
-      <c r="I5" s="119"/>
+        <v>425</v>
+      </c>
+      <c r="I5" s="123"/>
       <c r="J5" s="15" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="K5" s="15"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="16" t="s">
-        <v>427</v>
-      </c>
-      <c r="I6" s="119"/>
+        <v>431</v>
+      </c>
+      <c r="I6" s="123"/>
       <c r="J6" s="15" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="K6" s="15"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="15">
@@ -19154,31 +19234,31 @@
       </c>
       <c r="G7" s="15"/>
       <c r="H7" s="16" t="s">
-        <v>433</v>
-      </c>
-      <c r="I7" s="119" t="s">
-        <v>434</v>
+        <v>437</v>
+      </c>
+      <c r="I7" s="123" t="s">
+        <v>438</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="K7" s="15"/>
-      <c r="L7" s="120" t="s">
-        <v>436</v>
+      <c r="L7" s="124" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15">
@@ -19186,26 +19266,26 @@
       </c>
       <c r="G8" s="15"/>
       <c r="H8" s="16" t="s">
-        <v>441</v>
-      </c>
-      <c r="I8" s="119"/>
+        <v>445</v>
+      </c>
+      <c r="I8" s="123"/>
       <c r="J8" s="15" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="K8" s="15"/>
     </row>
     <row r="9" ht="199.5" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="E9" s="15"/>
       <c r="F9" s="15">
@@ -19213,76 +19293,76 @@
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="16" t="s">
-        <v>447</v>
-      </c>
-      <c r="I9" s="119"/>
+        <v>451</v>
+      </c>
+      <c r="I9" s="123"/>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="E10" s="95"/>
+        <v>455</v>
+      </c>
+      <c r="E10" s="97"/>
       <c r="F10" s="15">
         <v>1.0</v>
       </c>
       <c r="G10" s="15"/>
       <c r="H10" s="16" t="s">
-        <v>452</v>
-      </c>
-      <c r="I10" s="119" t="s">
-        <v>453</v>
+        <v>456</v>
+      </c>
+      <c r="I10" s="123" t="s">
+        <v>457</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="16" t="s">
-        <v>458</v>
-      </c>
-      <c r="I11" s="119"/>
+        <v>462</v>
+      </c>
+      <c r="I11" s="123"/>
       <c r="J11" s="15" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="K11" s="15"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="E12" s="15"/>
       <c r="F12" s="15">
@@ -19290,3422 +19370,3397 @@
       </c>
       <c r="G12" s="15"/>
       <c r="H12" s="16" t="s">
-        <v>464</v>
-      </c>
-      <c r="I12" s="119" t="s">
-        <v>465</v>
+        <v>468</v>
+      </c>
+      <c r="I12" s="123" t="s">
+        <v>469</v>
       </c>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="E13" s="15"/>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="16" t="s">
-        <v>470</v>
-      </c>
-      <c r="I13" s="119"/>
+        <v>474</v>
+      </c>
+      <c r="I13" s="123"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15"/>
       <c r="G14" s="15"/>
       <c r="H14" s="16" t="s">
-        <v>475</v>
-      </c>
-      <c r="I14" s="119"/>
+        <v>479</v>
+      </c>
+      <c r="I14" s="123"/>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>478</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>479</v>
-      </c>
-      <c r="E15" s="91" t="s">
-        <v>480</v>
+        <v>482</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="E15" s="93" t="s">
+        <v>484</v>
       </c>
       <c r="F15" s="15">
         <v>1.0</v>
       </c>
       <c r="G15" s="15"/>
       <c r="H15" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="I15" s="119"/>
-      <c r="J15" s="15" t="s">
-        <v>482</v>
+        <v>485</v>
+      </c>
+      <c r="I15" s="123"/>
+      <c r="J15" s="16" t="s">
+        <v>486</v>
       </c>
       <c r="K15" s="15"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="15" t="s">
-        <v>483</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>484</v>
+      <c r="A16" s="16" t="s">
+        <v>487</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>488</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>485</v>
-      </c>
-      <c r="E16" s="15"/>
+        <v>237</v>
+      </c>
+      <c r="D16" s="92" t="s">
+        <v>489</v>
+      </c>
+      <c r="E16" s="93" t="s">
+        <v>490</v>
+      </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="I16" s="119"/>
-      <c r="J16" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="K16" s="15"/>
+        <v>491</v>
+      </c>
+      <c r="I16" s="91" t="s">
+        <v>235</v>
+      </c>
+      <c r="J16" s="15"/>
+      <c r="K16" s="16" t="s">
+        <v>491</v>
+      </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="16" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>233</v>
-      </c>
-      <c r="D17" s="90" t="s">
-        <v>490</v>
-      </c>
-      <c r="E17" s="91" t="s">
-        <v>491</v>
+        <v>256</v>
+      </c>
+      <c r="D17" s="92" t="s">
+        <v>494</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>251</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="16" t="s">
-        <v>492</v>
-      </c>
-      <c r="I17" s="89" t="s">
-        <v>231</v>
+      <c r="H17" s="125" t="s">
+        <v>495</v>
+      </c>
+      <c r="I17" s="91" t="s">
+        <v>254</v>
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="16" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="16" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>252</v>
-      </c>
-      <c r="D18" s="90" t="s">
-        <v>495</v>
+        <v>268</v>
+      </c>
+      <c r="D18" s="92" t="s">
+        <v>499</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
-      <c r="H18" s="121" t="s">
-        <v>496</v>
-      </c>
-      <c r="I18" s="89" t="s">
-        <v>250</v>
+      <c r="H18" s="125" t="s">
+        <v>500</v>
+      </c>
+      <c r="I18" s="91" t="s">
+        <v>266</v>
       </c>
       <c r="J18" s="15"/>
-      <c r="K18" s="16" t="s">
-        <v>497</v>
-      </c>
+      <c r="K18" s="15"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="16" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>264</v>
-      </c>
-      <c r="D19" s="90" t="s">
-        <v>500</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>247</v>
-      </c>
+        <v>503</v>
+      </c>
+      <c r="D19" s="92" t="s">
+        <v>504</v>
+      </c>
+      <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="121" t="s">
-        <v>501</v>
-      </c>
-      <c r="I19" s="89" t="s">
-        <v>262</v>
+      <c r="H19" s="125" t="s">
+        <v>505</v>
+      </c>
+      <c r="I19" s="91" t="s">
+        <v>272</v>
       </c>
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="16" t="s">
-        <v>502</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>503</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>504</v>
-      </c>
-      <c r="D20" s="90" t="s">
-        <v>505</v>
-      </c>
-      <c r="E20" s="15"/>
+        <v>506</v>
+      </c>
+      <c r="B20" s="126" t="s">
+        <v>507</v>
+      </c>
+      <c r="C20" s="101" t="s">
+        <v>285</v>
+      </c>
+      <c r="D20" s="102" t="s">
+        <v>508</v>
+      </c>
+      <c r="E20" s="103" t="s">
+        <v>287</v>
+      </c>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
-      <c r="H20" s="121" t="s">
-        <v>506</v>
-      </c>
-      <c r="I20" s="89" t="s">
-        <v>268</v>
+      <c r="H20" s="125" t="s">
+        <v>509</v>
+      </c>
+      <c r="I20" s="91" t="s">
+        <v>283</v>
       </c>
       <c r="J20" s="15"/>
       <c r="K20" s="15"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="16" t="s">
-        <v>507</v>
-      </c>
-      <c r="B21" s="122" t="s">
-        <v>508</v>
-      </c>
-      <c r="C21" s="99" t="s">
-        <v>281</v>
-      </c>
-      <c r="D21" s="100" t="s">
-        <v>509</v>
-      </c>
-      <c r="E21" s="101" t="s">
-        <v>283</v>
+        <v>510</v>
+      </c>
+      <c r="B21" s="126" t="s">
+        <v>511</v>
+      </c>
+      <c r="C21" s="101" t="s">
+        <v>292</v>
+      </c>
+      <c r="D21" s="102" t="s">
+        <v>512</v>
+      </c>
+      <c r="E21" s="103" t="s">
+        <v>287</v>
       </c>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
-      <c r="H21" s="121" t="s">
-        <v>510</v>
-      </c>
-      <c r="I21" s="89" t="s">
-        <v>279</v>
+      <c r="H21" s="125" t="s">
+        <v>513</v>
+      </c>
+      <c r="I21" s="91" t="s">
+        <v>290</v>
       </c>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="16" t="s">
-        <v>511</v>
-      </c>
-      <c r="B22" s="122" t="s">
-        <v>512</v>
-      </c>
-      <c r="C22" s="99" t="s">
-        <v>288</v>
-      </c>
-      <c r="D22" s="100" t="s">
-        <v>513</v>
-      </c>
-      <c r="E22" s="101" t="s">
-        <v>283</v>
+        <v>514</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>515</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="D22" s="92" t="s">
+        <v>516</v>
+      </c>
+      <c r="E22" s="105" t="s">
+        <v>287</v>
       </c>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
-      <c r="H22" s="121" t="s">
-        <v>514</v>
-      </c>
-      <c r="I22" s="89" t="s">
-        <v>286</v>
-      </c>
+      <c r="H22" s="125" t="s">
+        <v>517</v>
+      </c>
+      <c r="I22" s="91"/>
       <c r="J22" s="15"/>
       <c r="K22" s="15"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="16" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="D23" s="90" t="s">
-        <v>517</v>
-      </c>
-      <c r="E23" s="103" t="s">
-        <v>283</v>
+        <v>304</v>
+      </c>
+      <c r="D23" s="92" t="s">
+        <v>520</v>
+      </c>
+      <c r="E23" s="105" t="s">
+        <v>306</v>
       </c>
       <c r="F23" s="15"/>
       <c r="G23" s="15"/>
-      <c r="H23" s="121" t="s">
-        <v>518</v>
-      </c>
-      <c r="I23" s="89"/>
+      <c r="H23" s="125" t="s">
+        <v>521</v>
+      </c>
+      <c r="I23" s="91"/>
       <c r="J23" s="15"/>
       <c r="K23" s="15"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="16" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>300</v>
-      </c>
-      <c r="D24" s="90" t="s">
-        <v>521</v>
-      </c>
-      <c r="E24" s="103" t="s">
-        <v>302</v>
+        <v>311</v>
+      </c>
+      <c r="D24" s="92" t="s">
+        <v>524</v>
+      </c>
+      <c r="E24" s="105" t="s">
+        <v>287</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="15"/>
-      <c r="H24" s="121" t="s">
-        <v>522</v>
-      </c>
-      <c r="I24" s="89"/>
+      <c r="H24" s="125" t="s">
+        <v>525</v>
+      </c>
+      <c r="I24" s="91" t="s">
+        <v>309</v>
+      </c>
       <c r="J24" s="15"/>
       <c r="K24" s="15"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="16" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="D25" s="90" t="s">
-        <v>525</v>
-      </c>
-      <c r="E25" s="103" t="s">
-        <v>283</v>
-      </c>
+        <v>435</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>528</v>
+      </c>
+      <c r="E25" s="15"/>
       <c r="F25" s="15"/>
       <c r="G25" s="15"/>
-      <c r="H25" s="121" t="s">
-        <v>526</v>
-      </c>
-      <c r="I25" s="89" t="s">
-        <v>305</v>
+      <c r="H25" s="125" t="s">
+        <v>529</v>
+      </c>
+      <c r="I25" s="123" t="s">
+        <v>438</v>
       </c>
       <c r="J25" s="15"/>
       <c r="K25" s="15"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="16" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>431</v>
+        <v>532</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="E26" s="15"/>
       <c r="F26" s="15"/>
       <c r="G26" s="15"/>
-      <c r="H26" s="121" t="s">
-        <v>530</v>
-      </c>
-      <c r="I26" s="119" t="s">
-        <v>434</v>
+      <c r="H26" s="16" t="s">
+        <v>534</v>
+      </c>
+      <c r="I26" s="123" t="s">
+        <v>457</v>
       </c>
       <c r="J26" s="15"/>
       <c r="K26" s="15"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="16" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>533</v>
+        <v>466</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="E27" s="15"/>
       <c r="F27" s="15"/>
       <c r="G27" s="15"/>
-      <c r="H27" s="16" t="s">
-        <v>535</v>
-      </c>
-      <c r="I27" s="119" t="s">
-        <v>453</v>
+      <c r="H27" s="125" t="s">
+        <v>538</v>
+      </c>
+      <c r="I27" s="123" t="s">
+        <v>469</v>
       </c>
       <c r="J27" s="15"/>
       <c r="K27" s="15"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="16" t="s">
-        <v>536</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>537</v>
+        <v>539</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>540</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>462</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>538</v>
+        <v>541</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>542</v>
       </c>
       <c r="E28" s="15"/>
       <c r="F28" s="15"/>
       <c r="G28" s="15"/>
-      <c r="H28" s="121" t="s">
-        <v>539</v>
-      </c>
-      <c r="I28" s="119" t="s">
-        <v>465</v>
-      </c>
-      <c r="J28" s="15"/>
+      <c r="H28" s="16" t="s">
+        <v>543</v>
+      </c>
+      <c r="I28" s="123"/>
+      <c r="J28" s="15" t="s">
+        <v>544</v>
+      </c>
       <c r="K28" s="15"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="16" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>541</v>
+        <v>546</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
+      <c r="F29" s="15">
+        <v>1.0</v>
+      </c>
       <c r="G29" s="15"/>
       <c r="H29" s="16" t="s">
-        <v>544</v>
-      </c>
-      <c r="I29" s="119"/>
-      <c r="J29" s="15" t="s">
-        <v>545</v>
-      </c>
+        <v>549</v>
+      </c>
+      <c r="I29" s="123"/>
+      <c r="J29" s="15"/>
       <c r="K29" s="15"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="16" t="s">
-        <v>546</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>547</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>548</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>549</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15">
-        <v>1.0</v>
-      </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="16" t="s">
-        <v>550</v>
-      </c>
-      <c r="I30" s="119"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="15"/>
+    <row r="30" ht="13.5" customHeight="1">
+      <c r="I30" s="49"/>
     </row>
     <row r="31" ht="13.5" customHeight="1">
-      <c r="I31" s="48"/>
+      <c r="I31" s="49"/>
     </row>
     <row r="32" ht="13.5" customHeight="1">
-      <c r="I32" s="48"/>
+      <c r="I32" s="49"/>
     </row>
     <row r="33" ht="13.5" customHeight="1">
-      <c r="I33" s="48"/>
+      <c r="I33" s="49"/>
     </row>
     <row r="34" ht="13.5" customHeight="1">
-      <c r="I34" s="48"/>
+      <c r="I34" s="49"/>
     </row>
     <row r="35" ht="13.5" customHeight="1">
-      <c r="I35" s="48"/>
+      <c r="I35" s="49"/>
     </row>
     <row r="36" ht="13.5" customHeight="1">
-      <c r="I36" s="48"/>
+      <c r="I36" s="49"/>
     </row>
     <row r="37" ht="13.5" customHeight="1">
-      <c r="I37" s="48"/>
+      <c r="I37" s="49"/>
     </row>
     <row r="38" ht="13.5" customHeight="1">
-      <c r="I38" s="48"/>
+      <c r="I38" s="49"/>
     </row>
     <row r="39" ht="13.5" customHeight="1">
-      <c r="I39" s="48"/>
+      <c r="I39" s="49"/>
     </row>
     <row r="40" ht="13.5" customHeight="1">
-      <c r="I40" s="48"/>
+      <c r="I40" s="49"/>
     </row>
     <row r="41" ht="13.5" customHeight="1">
-      <c r="I41" s="48"/>
+      <c r="I41" s="49"/>
     </row>
     <row r="42" ht="13.5" customHeight="1">
-      <c r="I42" s="48"/>
+      <c r="I42" s="49"/>
     </row>
     <row r="43" ht="13.5" customHeight="1">
-      <c r="I43" s="48"/>
+      <c r="I43" s="49"/>
     </row>
     <row r="44" ht="13.5" customHeight="1">
-      <c r="I44" s="48"/>
+      <c r="I44" s="49"/>
     </row>
     <row r="45" ht="13.5" customHeight="1">
-      <c r="I45" s="48"/>
+      <c r="I45" s="49"/>
     </row>
     <row r="46" ht="13.5" customHeight="1">
-      <c r="I46" s="48"/>
+      <c r="I46" s="49"/>
     </row>
     <row r="47" ht="13.5" customHeight="1">
-      <c r="I47" s="48"/>
+      <c r="I47" s="49"/>
     </row>
     <row r="48" ht="13.5" customHeight="1">
-      <c r="I48" s="48"/>
+      <c r="I48" s="49"/>
     </row>
     <row r="49" ht="13.5" customHeight="1">
-      <c r="I49" s="48"/>
+      <c r="I49" s="49"/>
     </row>
     <row r="50" ht="13.5" customHeight="1">
-      <c r="I50" s="48"/>
+      <c r="I50" s="49"/>
     </row>
     <row r="51" ht="13.5" customHeight="1">
-      <c r="I51" s="48"/>
+      <c r="I51" s="49"/>
     </row>
     <row r="52" ht="13.5" customHeight="1">
-      <c r="I52" s="48"/>
+      <c r="I52" s="49"/>
     </row>
     <row r="53" ht="13.5" customHeight="1">
-      <c r="I53" s="48"/>
+      <c r="I53" s="49"/>
     </row>
     <row r="54" ht="13.5" customHeight="1">
-      <c r="I54" s="48"/>
+      <c r="I54" s="49"/>
     </row>
     <row r="55" ht="13.5" customHeight="1">
-      <c r="I55" s="48"/>
+      <c r="I55" s="49"/>
     </row>
     <row r="56" ht="13.5" customHeight="1">
-      <c r="I56" s="48"/>
+      <c r="I56" s="49"/>
     </row>
     <row r="57" ht="13.5" customHeight="1">
-      <c r="I57" s="48"/>
+      <c r="I57" s="49"/>
     </row>
     <row r="58" ht="13.5" customHeight="1">
-      <c r="I58" s="48"/>
+      <c r="I58" s="49"/>
     </row>
     <row r="59" ht="13.5" customHeight="1">
-      <c r="I59" s="48"/>
+      <c r="I59" s="49"/>
     </row>
     <row r="60" ht="13.5" customHeight="1">
-      <c r="I60" s="48"/>
+      <c r="I60" s="49"/>
     </row>
     <row r="61" ht="13.5" customHeight="1">
-      <c r="I61" s="48"/>
+      <c r="I61" s="49"/>
     </row>
     <row r="62" ht="13.5" customHeight="1">
-      <c r="I62" s="48"/>
+      <c r="I62" s="49"/>
     </row>
     <row r="63" ht="13.5" customHeight="1">
-      <c r="I63" s="48"/>
+      <c r="I63" s="49"/>
     </row>
     <row r="64" ht="13.5" customHeight="1">
-      <c r="I64" s="48"/>
+      <c r="I64" s="49"/>
     </row>
     <row r="65" ht="13.5" customHeight="1">
-      <c r="I65" s="48"/>
+      <c r="I65" s="49"/>
     </row>
     <row r="66" ht="13.5" customHeight="1">
-      <c r="I66" s="48"/>
+      <c r="I66" s="49"/>
     </row>
     <row r="67" ht="13.5" customHeight="1">
-      <c r="I67" s="48"/>
+      <c r="I67" s="49"/>
     </row>
     <row r="68" ht="13.5" customHeight="1">
-      <c r="I68" s="48"/>
+      <c r="I68" s="49"/>
     </row>
     <row r="69" ht="13.5" customHeight="1">
-      <c r="I69" s="48"/>
+      <c r="I69" s="49"/>
     </row>
     <row r="70" ht="13.5" customHeight="1">
-      <c r="I70" s="48"/>
+      <c r="I70" s="49"/>
     </row>
     <row r="71" ht="13.5" customHeight="1">
-      <c r="I71" s="48"/>
+      <c r="I71" s="49"/>
     </row>
     <row r="72" ht="13.5" customHeight="1">
-      <c r="I72" s="48"/>
+      <c r="I72" s="49"/>
     </row>
     <row r="73" ht="13.5" customHeight="1">
-      <c r="I73" s="48"/>
+      <c r="I73" s="49"/>
     </row>
     <row r="74" ht="13.5" customHeight="1">
-      <c r="I74" s="48"/>
+      <c r="I74" s="49"/>
     </row>
     <row r="75" ht="13.5" customHeight="1">
-      <c r="I75" s="48"/>
+      <c r="I75" s="49"/>
     </row>
     <row r="76" ht="13.5" customHeight="1">
-      <c r="I76" s="48"/>
+      <c r="I76" s="49"/>
     </row>
     <row r="77" ht="13.5" customHeight="1">
-      <c r="I77" s="48"/>
+      <c r="I77" s="49"/>
     </row>
     <row r="78" ht="13.5" customHeight="1">
-      <c r="I78" s="48"/>
+      <c r="I78" s="49"/>
     </row>
     <row r="79" ht="13.5" customHeight="1">
-      <c r="I79" s="48"/>
+      <c r="I79" s="49"/>
     </row>
     <row r="80" ht="13.5" customHeight="1">
-      <c r="I80" s="48"/>
+      <c r="I80" s="49"/>
     </row>
     <row r="81" ht="13.5" customHeight="1">
-      <c r="I81" s="48"/>
+      <c r="I81" s="49"/>
     </row>
     <row r="82" ht="13.5" customHeight="1">
-      <c r="I82" s="48"/>
+      <c r="I82" s="49"/>
     </row>
     <row r="83" ht="13.5" customHeight="1">
-      <c r="I83" s="48"/>
+      <c r="I83" s="49"/>
     </row>
     <row r="84" ht="13.5" customHeight="1">
-      <c r="I84" s="48"/>
+      <c r="I84" s="49"/>
     </row>
     <row r="85" ht="13.5" customHeight="1">
-      <c r="I85" s="48"/>
+      <c r="I85" s="49"/>
     </row>
     <row r="86" ht="13.5" customHeight="1">
-      <c r="I86" s="48"/>
+      <c r="I86" s="49"/>
     </row>
     <row r="87" ht="13.5" customHeight="1">
-      <c r="I87" s="48"/>
+      <c r="I87" s="49"/>
     </row>
     <row r="88" ht="13.5" customHeight="1">
-      <c r="I88" s="48"/>
+      <c r="I88" s="49"/>
     </row>
     <row r="89" ht="13.5" customHeight="1">
-      <c r="I89" s="48"/>
+      <c r="I89" s="49"/>
     </row>
     <row r="90" ht="13.5" customHeight="1">
-      <c r="I90" s="48"/>
+      <c r="I90" s="49"/>
     </row>
     <row r="91" ht="13.5" customHeight="1">
-      <c r="I91" s="48"/>
+      <c r="I91" s="49"/>
     </row>
     <row r="92" ht="13.5" customHeight="1">
-      <c r="I92" s="48"/>
+      <c r="I92" s="49"/>
     </row>
     <row r="93" ht="13.5" customHeight="1">
-      <c r="I93" s="48"/>
+      <c r="I93" s="49"/>
     </row>
     <row r="94" ht="13.5" customHeight="1">
-      <c r="I94" s="48"/>
+      <c r="I94" s="49"/>
     </row>
     <row r="95" ht="13.5" customHeight="1">
-      <c r="I95" s="48"/>
+      <c r="I95" s="49"/>
     </row>
     <row r="96" ht="13.5" customHeight="1">
-      <c r="I96" s="48"/>
+      <c r="I96" s="49"/>
     </row>
     <row r="97" ht="13.5" customHeight="1">
-      <c r="I97" s="48"/>
+      <c r="I97" s="49"/>
     </row>
     <row r="98" ht="13.5" customHeight="1">
-      <c r="I98" s="48"/>
+      <c r="I98" s="49"/>
     </row>
     <row r="99" ht="13.5" customHeight="1">
-      <c r="I99" s="48"/>
+      <c r="I99" s="49"/>
     </row>
     <row r="100" ht="13.5" customHeight="1">
-      <c r="I100" s="48"/>
+      <c r="I100" s="49"/>
     </row>
     <row r="101" ht="13.5" customHeight="1">
-      <c r="I101" s="48"/>
+      <c r="I101" s="49"/>
     </row>
     <row r="102" ht="13.5" customHeight="1">
-      <c r="I102" s="48"/>
+      <c r="I102" s="49"/>
     </row>
     <row r="103" ht="13.5" customHeight="1">
-      <c r="I103" s="48"/>
+      <c r="I103" s="49"/>
     </row>
     <row r="104" ht="13.5" customHeight="1">
-      <c r="I104" s="48"/>
+      <c r="I104" s="49"/>
     </row>
     <row r="105" ht="13.5" customHeight="1">
-      <c r="I105" s="48"/>
+      <c r="I105" s="49"/>
     </row>
     <row r="106" ht="13.5" customHeight="1">
-      <c r="I106" s="48"/>
+      <c r="I106" s="49"/>
     </row>
     <row r="107" ht="13.5" customHeight="1">
-      <c r="I107" s="48"/>
+      <c r="I107" s="49"/>
     </row>
     <row r="108" ht="13.5" customHeight="1">
-      <c r="I108" s="48"/>
+      <c r="I108" s="49"/>
     </row>
     <row r="109" ht="13.5" customHeight="1">
-      <c r="I109" s="48"/>
+      <c r="I109" s="49"/>
     </row>
     <row r="110" ht="13.5" customHeight="1">
-      <c r="I110" s="48"/>
+      <c r="I110" s="49"/>
     </row>
     <row r="111" ht="13.5" customHeight="1">
-      <c r="I111" s="48"/>
+      <c r="I111" s="49"/>
     </row>
     <row r="112" ht="13.5" customHeight="1">
-      <c r="I112" s="48"/>
+      <c r="I112" s="49"/>
     </row>
     <row r="113" ht="13.5" customHeight="1">
-      <c r="I113" s="48"/>
+      <c r="I113" s="49"/>
     </row>
     <row r="114" ht="13.5" customHeight="1">
-      <c r="I114" s="48"/>
+      <c r="I114" s="49"/>
     </row>
     <row r="115" ht="13.5" customHeight="1">
-      <c r="I115" s="48"/>
+      <c r="I115" s="49"/>
     </row>
     <row r="116" ht="13.5" customHeight="1">
-      <c r="I116" s="48"/>
+      <c r="I116" s="49"/>
     </row>
     <row r="117" ht="13.5" customHeight="1">
-      <c r="I117" s="48"/>
+      <c r="I117" s="49"/>
     </row>
     <row r="118" ht="13.5" customHeight="1">
-      <c r="I118" s="48"/>
+      <c r="I118" s="49"/>
     </row>
     <row r="119" ht="13.5" customHeight="1">
-      <c r="I119" s="48"/>
+      <c r="I119" s="49"/>
     </row>
     <row r="120" ht="13.5" customHeight="1">
-      <c r="I120" s="48"/>
+      <c r="I120" s="49"/>
     </row>
     <row r="121" ht="13.5" customHeight="1">
-      <c r="I121" s="48"/>
+      <c r="I121" s="49"/>
     </row>
     <row r="122" ht="13.5" customHeight="1">
-      <c r="I122" s="48"/>
+      <c r="I122" s="49"/>
     </row>
     <row r="123" ht="13.5" customHeight="1">
-      <c r="I123" s="48"/>
+      <c r="I123" s="49"/>
     </row>
     <row r="124" ht="13.5" customHeight="1">
-      <c r="I124" s="48"/>
+      <c r="I124" s="49"/>
     </row>
     <row r="125" ht="13.5" customHeight="1">
-      <c r="I125" s="48"/>
+      <c r="I125" s="49"/>
     </row>
     <row r="126" ht="13.5" customHeight="1">
-      <c r="I126" s="48"/>
+      <c r="I126" s="49"/>
     </row>
     <row r="127" ht="13.5" customHeight="1">
-      <c r="I127" s="48"/>
+      <c r="I127" s="49"/>
     </row>
     <row r="128" ht="13.5" customHeight="1">
-      <c r="I128" s="48"/>
+      <c r="I128" s="49"/>
     </row>
     <row r="129" ht="13.5" customHeight="1">
-      <c r="I129" s="48"/>
+      <c r="I129" s="49"/>
     </row>
     <row r="130" ht="13.5" customHeight="1">
-      <c r="I130" s="48"/>
+      <c r="I130" s="49"/>
     </row>
     <row r="131" ht="13.5" customHeight="1">
-      <c r="I131" s="48"/>
+      <c r="I131" s="49"/>
     </row>
     <row r="132" ht="13.5" customHeight="1">
-      <c r="I132" s="48"/>
+      <c r="I132" s="49"/>
     </row>
     <row r="133" ht="13.5" customHeight="1">
-      <c r="I133" s="48"/>
+      <c r="I133" s="49"/>
     </row>
     <row r="134" ht="13.5" customHeight="1">
-      <c r="I134" s="48"/>
+      <c r="I134" s="49"/>
     </row>
     <row r="135" ht="13.5" customHeight="1">
-      <c r="I135" s="48"/>
+      <c r="I135" s="49"/>
     </row>
     <row r="136" ht="13.5" customHeight="1">
-      <c r="I136" s="48"/>
+      <c r="I136" s="49"/>
     </row>
     <row r="137" ht="13.5" customHeight="1">
-      <c r="I137" s="48"/>
+      <c r="I137" s="49"/>
     </row>
     <row r="138" ht="13.5" customHeight="1">
-      <c r="I138" s="48"/>
+      <c r="I138" s="49"/>
     </row>
     <row r="139" ht="13.5" customHeight="1">
-      <c r="I139" s="48"/>
+      <c r="I139" s="49"/>
     </row>
     <row r="140" ht="13.5" customHeight="1">
-      <c r="I140" s="48"/>
+      <c r="I140" s="49"/>
     </row>
     <row r="141" ht="13.5" customHeight="1">
-      <c r="I141" s="48"/>
+      <c r="I141" s="49"/>
     </row>
     <row r="142" ht="13.5" customHeight="1">
-      <c r="I142" s="48"/>
+      <c r="I142" s="49"/>
     </row>
     <row r="143" ht="13.5" customHeight="1">
-      <c r="I143" s="48"/>
+      <c r="I143" s="49"/>
     </row>
     <row r="144" ht="13.5" customHeight="1">
-      <c r="I144" s="48"/>
+      <c r="I144" s="49"/>
     </row>
     <row r="145" ht="13.5" customHeight="1">
-      <c r="I145" s="48"/>
+      <c r="I145" s="49"/>
     </row>
     <row r="146" ht="13.5" customHeight="1">
-      <c r="I146" s="48"/>
+      <c r="I146" s="49"/>
     </row>
     <row r="147" ht="13.5" customHeight="1">
-      <c r="I147" s="48"/>
+      <c r="I147" s="49"/>
     </row>
     <row r="148" ht="13.5" customHeight="1">
-      <c r="I148" s="48"/>
+      <c r="I148" s="49"/>
     </row>
     <row r="149" ht="13.5" customHeight="1">
-      <c r="I149" s="48"/>
+      <c r="I149" s="49"/>
     </row>
     <row r="150" ht="13.5" customHeight="1">
-      <c r="I150" s="48"/>
+      <c r="I150" s="49"/>
     </row>
     <row r="151" ht="13.5" customHeight="1">
-      <c r="I151" s="48"/>
+      <c r="I151" s="49"/>
     </row>
     <row r="152" ht="13.5" customHeight="1">
-      <c r="I152" s="48"/>
+      <c r="I152" s="49"/>
     </row>
     <row r="153" ht="13.5" customHeight="1">
-      <c r="I153" s="48"/>
+      <c r="I153" s="49"/>
     </row>
     <row r="154" ht="13.5" customHeight="1">
-      <c r="I154" s="48"/>
+      <c r="I154" s="49"/>
     </row>
     <row r="155" ht="13.5" customHeight="1">
-      <c r="I155" s="48"/>
+      <c r="I155" s="49"/>
     </row>
     <row r="156" ht="13.5" customHeight="1">
-      <c r="I156" s="48"/>
+      <c r="I156" s="49"/>
     </row>
     <row r="157" ht="13.5" customHeight="1">
-      <c r="I157" s="48"/>
+      <c r="I157" s="49"/>
     </row>
     <row r="158" ht="13.5" customHeight="1">
-      <c r="I158" s="48"/>
+      <c r="I158" s="49"/>
     </row>
     <row r="159" ht="13.5" customHeight="1">
-      <c r="I159" s="48"/>
+      <c r="I159" s="49"/>
     </row>
     <row r="160" ht="13.5" customHeight="1">
-      <c r="I160" s="48"/>
+      <c r="I160" s="49"/>
     </row>
     <row r="161" ht="13.5" customHeight="1">
-      <c r="I161" s="48"/>
+      <c r="I161" s="49"/>
     </row>
     <row r="162" ht="13.5" customHeight="1">
-      <c r="I162" s="48"/>
+      <c r="I162" s="49"/>
     </row>
     <row r="163" ht="13.5" customHeight="1">
-      <c r="I163" s="48"/>
+      <c r="I163" s="49"/>
     </row>
     <row r="164" ht="13.5" customHeight="1">
-      <c r="I164" s="48"/>
+      <c r="I164" s="49"/>
     </row>
     <row r="165" ht="13.5" customHeight="1">
-      <c r="I165" s="48"/>
+      <c r="I165" s="49"/>
     </row>
     <row r="166" ht="13.5" customHeight="1">
-      <c r="I166" s="48"/>
+      <c r="I166" s="49"/>
     </row>
     <row r="167" ht="13.5" customHeight="1">
-      <c r="I167" s="48"/>
+      <c r="I167" s="49"/>
     </row>
     <row r="168" ht="13.5" customHeight="1">
-      <c r="I168" s="48"/>
+      <c r="I168" s="49"/>
     </row>
     <row r="169" ht="13.5" customHeight="1">
-      <c r="I169" s="48"/>
+      <c r="I169" s="49"/>
     </row>
     <row r="170" ht="13.5" customHeight="1">
-      <c r="I170" s="48"/>
+      <c r="I170" s="49"/>
     </row>
     <row r="171" ht="13.5" customHeight="1">
-      <c r="I171" s="48"/>
+      <c r="I171" s="49"/>
     </row>
     <row r="172" ht="13.5" customHeight="1">
-      <c r="I172" s="48"/>
+      <c r="I172" s="49"/>
     </row>
     <row r="173" ht="13.5" customHeight="1">
-      <c r="I173" s="48"/>
+      <c r="I173" s="49"/>
     </row>
     <row r="174" ht="13.5" customHeight="1">
-      <c r="I174" s="48"/>
+      <c r="I174" s="49"/>
     </row>
     <row r="175" ht="13.5" customHeight="1">
-      <c r="I175" s="48"/>
+      <c r="I175" s="49"/>
     </row>
     <row r="176" ht="13.5" customHeight="1">
-      <c r="I176" s="48"/>
+      <c r="I176" s="49"/>
     </row>
     <row r="177" ht="13.5" customHeight="1">
-      <c r="I177" s="48"/>
+      <c r="I177" s="49"/>
     </row>
     <row r="178" ht="13.5" customHeight="1">
-      <c r="I178" s="48"/>
+      <c r="I178" s="49"/>
     </row>
     <row r="179" ht="13.5" customHeight="1">
-      <c r="I179" s="48"/>
+      <c r="I179" s="49"/>
     </row>
     <row r="180" ht="13.5" customHeight="1">
-      <c r="I180" s="48"/>
+      <c r="I180" s="49"/>
     </row>
     <row r="181" ht="13.5" customHeight="1">
-      <c r="I181" s="48"/>
+      <c r="I181" s="49"/>
     </row>
     <row r="182" ht="13.5" customHeight="1">
-      <c r="I182" s="48"/>
+      <c r="I182" s="49"/>
     </row>
     <row r="183" ht="13.5" customHeight="1">
-      <c r="I183" s="48"/>
+      <c r="I183" s="49"/>
     </row>
     <row r="184" ht="13.5" customHeight="1">
-      <c r="I184" s="48"/>
+      <c r="I184" s="49"/>
     </row>
     <row r="185" ht="13.5" customHeight="1">
-      <c r="I185" s="48"/>
+      <c r="I185" s="49"/>
     </row>
     <row r="186" ht="13.5" customHeight="1">
-      <c r="I186" s="48"/>
+      <c r="I186" s="49"/>
     </row>
     <row r="187" ht="13.5" customHeight="1">
-      <c r="I187" s="48"/>
+      <c r="I187" s="49"/>
     </row>
     <row r="188" ht="13.5" customHeight="1">
-      <c r="I188" s="48"/>
+      <c r="I188" s="49"/>
     </row>
     <row r="189" ht="13.5" customHeight="1">
-      <c r="I189" s="48"/>
+      <c r="I189" s="49"/>
     </row>
     <row r="190" ht="13.5" customHeight="1">
-      <c r="I190" s="48"/>
+      <c r="I190" s="49"/>
     </row>
     <row r="191" ht="13.5" customHeight="1">
-      <c r="I191" s="48"/>
+      <c r="I191" s="49"/>
     </row>
     <row r="192" ht="13.5" customHeight="1">
-      <c r="I192" s="48"/>
+      <c r="I192" s="49"/>
     </row>
     <row r="193" ht="13.5" customHeight="1">
-      <c r="I193" s="48"/>
+      <c r="I193" s="49"/>
     </row>
     <row r="194" ht="13.5" customHeight="1">
-      <c r="I194" s="48"/>
+      <c r="I194" s="49"/>
     </row>
     <row r="195" ht="13.5" customHeight="1">
-      <c r="I195" s="48"/>
+      <c r="I195" s="49"/>
     </row>
     <row r="196" ht="13.5" customHeight="1">
-      <c r="I196" s="48"/>
+      <c r="I196" s="49"/>
     </row>
     <row r="197" ht="13.5" customHeight="1">
-      <c r="I197" s="48"/>
+      <c r="I197" s="49"/>
     </row>
     <row r="198" ht="13.5" customHeight="1">
-      <c r="I198" s="48"/>
+      <c r="I198" s="49"/>
     </row>
     <row r="199" ht="13.5" customHeight="1">
-      <c r="I199" s="48"/>
+      <c r="I199" s="49"/>
     </row>
     <row r="200" ht="13.5" customHeight="1">
-      <c r="I200" s="48"/>
+      <c r="I200" s="49"/>
     </row>
     <row r="201" ht="13.5" customHeight="1">
-      <c r="I201" s="48"/>
+      <c r="I201" s="49"/>
     </row>
     <row r="202" ht="13.5" customHeight="1">
-      <c r="I202" s="48"/>
+      <c r="I202" s="49"/>
     </row>
     <row r="203" ht="13.5" customHeight="1">
-      <c r="I203" s="48"/>
+      <c r="I203" s="49"/>
     </row>
     <row r="204" ht="13.5" customHeight="1">
-      <c r="I204" s="48"/>
+      <c r="I204" s="49"/>
     </row>
     <row r="205" ht="13.5" customHeight="1">
-      <c r="I205" s="48"/>
+      <c r="I205" s="49"/>
     </row>
     <row r="206" ht="13.5" customHeight="1">
-      <c r="I206" s="48"/>
+      <c r="I206" s="49"/>
     </row>
     <row r="207" ht="13.5" customHeight="1">
-      <c r="I207" s="48"/>
+      <c r="I207" s="49"/>
     </row>
     <row r="208" ht="13.5" customHeight="1">
-      <c r="I208" s="48"/>
+      <c r="I208" s="49"/>
     </row>
     <row r="209" ht="13.5" customHeight="1">
-      <c r="I209" s="48"/>
+      <c r="I209" s="49"/>
     </row>
     <row r="210" ht="13.5" customHeight="1">
-      <c r="I210" s="48"/>
+      <c r="I210" s="49"/>
     </row>
     <row r="211" ht="13.5" customHeight="1">
-      <c r="I211" s="48"/>
+      <c r="I211" s="49"/>
     </row>
     <row r="212" ht="13.5" customHeight="1">
-      <c r="I212" s="48"/>
+      <c r="I212" s="49"/>
     </row>
     <row r="213" ht="13.5" customHeight="1">
-      <c r="I213" s="48"/>
+      <c r="I213" s="49"/>
     </row>
     <row r="214" ht="13.5" customHeight="1">
-      <c r="I214" s="48"/>
+      <c r="I214" s="49"/>
     </row>
     <row r="215" ht="13.5" customHeight="1">
-      <c r="I215" s="48"/>
+      <c r="I215" s="49"/>
     </row>
     <row r="216" ht="13.5" customHeight="1">
-      <c r="I216" s="48"/>
+      <c r="I216" s="49"/>
     </row>
     <row r="217" ht="13.5" customHeight="1">
-      <c r="I217" s="48"/>
+      <c r="I217" s="49"/>
     </row>
     <row r="218" ht="13.5" customHeight="1">
-      <c r="I218" s="48"/>
+      <c r="I218" s="49"/>
     </row>
     <row r="219" ht="13.5" customHeight="1">
-      <c r="I219" s="48"/>
+      <c r="I219" s="49"/>
     </row>
     <row r="220" ht="13.5" customHeight="1">
-      <c r="I220" s="48"/>
+      <c r="I220" s="49"/>
     </row>
     <row r="221" ht="13.5" customHeight="1">
-      <c r="I221" s="48"/>
+      <c r="I221" s="49"/>
     </row>
     <row r="222" ht="13.5" customHeight="1">
-      <c r="I222" s="48"/>
+      <c r="I222" s="49"/>
     </row>
     <row r="223" ht="13.5" customHeight="1">
-      <c r="I223" s="48"/>
+      <c r="I223" s="49"/>
     </row>
     <row r="224" ht="13.5" customHeight="1">
-      <c r="I224" s="48"/>
+      <c r="I224" s="49"/>
     </row>
     <row r="225" ht="13.5" customHeight="1">
-      <c r="I225" s="48"/>
+      <c r="I225" s="49"/>
     </row>
     <row r="226" ht="13.5" customHeight="1">
-      <c r="I226" s="48"/>
+      <c r="I226" s="49"/>
     </row>
     <row r="227" ht="13.5" customHeight="1">
-      <c r="I227" s="48"/>
+      <c r="I227" s="49"/>
     </row>
     <row r="228" ht="13.5" customHeight="1">
-      <c r="I228" s="48"/>
+      <c r="I228" s="49"/>
     </row>
     <row r="229" ht="13.5" customHeight="1">
-      <c r="I229" s="48"/>
+      <c r="I229" s="49"/>
     </row>
     <row r="230" ht="13.5" customHeight="1">
-      <c r="I230" s="48"/>
-    </row>
-    <row r="231" ht="13.5" customHeight="1">
-      <c r="I231" s="48"/>
+      <c r="I230" s="49"/>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="I231" s="49"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="I232" s="48"/>
+      <c r="I232" s="49"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="I233" s="48"/>
+      <c r="I233" s="49"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="I234" s="48"/>
+      <c r="I234" s="49"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="I235" s="48"/>
+      <c r="I235" s="49"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="I236" s="48"/>
+      <c r="I236" s="49"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="I237" s="48"/>
+      <c r="I237" s="49"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="I238" s="48"/>
+      <c r="I238" s="49"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="I239" s="48"/>
+      <c r="I239" s="49"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="I240" s="48"/>
+      <c r="I240" s="49"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="I241" s="48"/>
+      <c r="I241" s="49"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="I242" s="48"/>
+      <c r="I242" s="49"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="I243" s="48"/>
+      <c r="I243" s="49"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="I244" s="48"/>
+      <c r="I244" s="49"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="I245" s="48"/>
+      <c r="I245" s="49"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="I246" s="48"/>
+      <c r="I246" s="49"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="I247" s="48"/>
+      <c r="I247" s="49"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="I248" s="48"/>
+      <c r="I248" s="49"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="I249" s="48"/>
+      <c r="I249" s="49"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="I250" s="48"/>
+      <c r="I250" s="49"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="I251" s="48"/>
+      <c r="I251" s="49"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="I252" s="48"/>
+      <c r="I252" s="49"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="I253" s="48"/>
+      <c r="I253" s="49"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="I254" s="48"/>
+      <c r="I254" s="49"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="I255" s="48"/>
+      <c r="I255" s="49"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="I256" s="48"/>
+      <c r="I256" s="49"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="I257" s="48"/>
+      <c r="I257" s="49"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="I258" s="48"/>
+      <c r="I258" s="49"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="I259" s="48"/>
+      <c r="I259" s="49"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="I260" s="48"/>
+      <c r="I260" s="49"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="I261" s="48"/>
+      <c r="I261" s="49"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="I262" s="48"/>
+      <c r="I262" s="49"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="I263" s="48"/>
+      <c r="I263" s="49"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="I264" s="48"/>
+      <c r="I264" s="49"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="I265" s="48"/>
+      <c r="I265" s="49"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="I266" s="48"/>
+      <c r="I266" s="49"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="I267" s="48"/>
+      <c r="I267" s="49"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="I268" s="48"/>
+      <c r="I268" s="49"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="I269" s="48"/>
+      <c r="I269" s="49"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="I270" s="48"/>
+      <c r="I270" s="49"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="I271" s="48"/>
+      <c r="I271" s="49"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="I272" s="48"/>
+      <c r="I272" s="49"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="I273" s="48"/>
+      <c r="I273" s="49"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="I274" s="48"/>
+      <c r="I274" s="49"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="I275" s="48"/>
+      <c r="I275" s="49"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="I276" s="48"/>
+      <c r="I276" s="49"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="I277" s="48"/>
+      <c r="I277" s="49"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="I278" s="48"/>
+      <c r="I278" s="49"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="I279" s="48"/>
+      <c r="I279" s="49"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="I280" s="48"/>
+      <c r="I280" s="49"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="I281" s="48"/>
+      <c r="I281" s="49"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="I282" s="48"/>
+      <c r="I282" s="49"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="I283" s="48"/>
+      <c r="I283" s="49"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="I284" s="48"/>
+      <c r="I284" s="49"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="I285" s="48"/>
+      <c r="I285" s="49"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="I286" s="48"/>
+      <c r="I286" s="49"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="I287" s="48"/>
+      <c r="I287" s="49"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="I288" s="48"/>
+      <c r="I288" s="49"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="I289" s="48"/>
+      <c r="I289" s="49"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="I290" s="48"/>
+      <c r="I290" s="49"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="I291" s="48"/>
+      <c r="I291" s="49"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="I292" s="48"/>
+      <c r="I292" s="49"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="I293" s="48"/>
+      <c r="I293" s="49"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="I294" s="48"/>
+      <c r="I294" s="49"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="I295" s="48"/>
+      <c r="I295" s="49"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="I296" s="48"/>
+      <c r="I296" s="49"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="I297" s="48"/>
+      <c r="I297" s="49"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="I298" s="48"/>
+      <c r="I298" s="49"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="I299" s="48"/>
+      <c r="I299" s="49"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="I300" s="48"/>
+      <c r="I300" s="49"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="I301" s="48"/>
+      <c r="I301" s="49"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="I302" s="48"/>
+      <c r="I302" s="49"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="I303" s="48"/>
+      <c r="I303" s="49"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="I304" s="48"/>
+      <c r="I304" s="49"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="I305" s="48"/>
+      <c r="I305" s="49"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="I306" s="48"/>
+      <c r="I306" s="49"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="I307" s="48"/>
+      <c r="I307" s="49"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="I308" s="48"/>
+      <c r="I308" s="49"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="I309" s="48"/>
+      <c r="I309" s="49"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="I310" s="48"/>
+      <c r="I310" s="49"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="I311" s="48"/>
+      <c r="I311" s="49"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="I312" s="48"/>
+      <c r="I312" s="49"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="I313" s="48"/>
+      <c r="I313" s="49"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="I314" s="48"/>
+      <c r="I314" s="49"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="I315" s="48"/>
+      <c r="I315" s="49"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="I316" s="48"/>
+      <c r="I316" s="49"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="I317" s="48"/>
+      <c r="I317" s="49"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="I318" s="48"/>
+      <c r="I318" s="49"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="I319" s="48"/>
+      <c r="I319" s="49"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="I320" s="48"/>
+      <c r="I320" s="49"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="I321" s="48"/>
+      <c r="I321" s="49"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="I322" s="48"/>
+      <c r="I322" s="49"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="I323" s="48"/>
+      <c r="I323" s="49"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="I324" s="48"/>
+      <c r="I324" s="49"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="I325" s="48"/>
+      <c r="I325" s="49"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="I326" s="48"/>
+      <c r="I326" s="49"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="I327" s="48"/>
+      <c r="I327" s="49"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="I328" s="48"/>
+      <c r="I328" s="49"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="I329" s="48"/>
+      <c r="I329" s="49"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="I330" s="48"/>
+      <c r="I330" s="49"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="I331" s="48"/>
+      <c r="I331" s="49"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="I332" s="48"/>
+      <c r="I332" s="49"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="I333" s="48"/>
+      <c r="I333" s="49"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="I334" s="48"/>
+      <c r="I334" s="49"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="I335" s="48"/>
+      <c r="I335" s="49"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="I336" s="48"/>
+      <c r="I336" s="49"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="I337" s="48"/>
+      <c r="I337" s="49"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="I338" s="48"/>
+      <c r="I338" s="49"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="I339" s="48"/>
+      <c r="I339" s="49"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="I340" s="48"/>
+      <c r="I340" s="49"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="I341" s="48"/>
+      <c r="I341" s="49"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="I342" s="48"/>
+      <c r="I342" s="49"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="I343" s="48"/>
+      <c r="I343" s="49"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="I344" s="48"/>
+      <c r="I344" s="49"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="I345" s="48"/>
+      <c r="I345" s="49"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="I346" s="48"/>
+      <c r="I346" s="49"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="I347" s="48"/>
+      <c r="I347" s="49"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="I348" s="48"/>
+      <c r="I348" s="49"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="I349" s="48"/>
+      <c r="I349" s="49"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="I350" s="48"/>
+      <c r="I350" s="49"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="I351" s="48"/>
+      <c r="I351" s="49"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="I352" s="48"/>
+      <c r="I352" s="49"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="I353" s="48"/>
+      <c r="I353" s="49"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="I354" s="48"/>
+      <c r="I354" s="49"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="I355" s="48"/>
+      <c r="I355" s="49"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="I356" s="48"/>
+      <c r="I356" s="49"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="I357" s="48"/>
+      <c r="I357" s="49"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="I358" s="48"/>
+      <c r="I358" s="49"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="I359" s="48"/>
+      <c r="I359" s="49"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="I360" s="48"/>
+      <c r="I360" s="49"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="I361" s="48"/>
+      <c r="I361" s="49"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="I362" s="48"/>
+      <c r="I362" s="49"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="I363" s="48"/>
+      <c r="I363" s="49"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="I364" s="48"/>
+      <c r="I364" s="49"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="I365" s="48"/>
+      <c r="I365" s="49"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="I366" s="48"/>
+      <c r="I366" s="49"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="I367" s="48"/>
+      <c r="I367" s="49"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="I368" s="48"/>
+      <c r="I368" s="49"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="I369" s="48"/>
+      <c r="I369" s="49"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="I370" s="48"/>
+      <c r="I370" s="49"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="I371" s="48"/>
+      <c r="I371" s="49"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="I372" s="48"/>
+      <c r="I372" s="49"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="I373" s="48"/>
+      <c r="I373" s="49"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="I374" s="48"/>
+      <c r="I374" s="49"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="I375" s="48"/>
+      <c r="I375" s="49"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="I376" s="48"/>
+      <c r="I376" s="49"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="I377" s="48"/>
+      <c r="I377" s="49"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="I378" s="48"/>
+      <c r="I378" s="49"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="I379" s="48"/>
+      <c r="I379" s="49"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="I380" s="48"/>
+      <c r="I380" s="49"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="I381" s="48"/>
+      <c r="I381" s="49"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="I382" s="48"/>
+      <c r="I382" s="49"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="I383" s="48"/>
+      <c r="I383" s="49"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="I384" s="48"/>
+      <c r="I384" s="49"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="I385" s="48"/>
+      <c r="I385" s="49"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="I386" s="48"/>
+      <c r="I386" s="49"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="I387" s="48"/>
+      <c r="I387" s="49"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="I388" s="48"/>
+      <c r="I388" s="49"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="I389" s="48"/>
+      <c r="I389" s="49"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="I390" s="48"/>
+      <c r="I390" s="49"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="I391" s="48"/>
+      <c r="I391" s="49"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="I392" s="48"/>
+      <c r="I392" s="49"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="I393" s="48"/>
+      <c r="I393" s="49"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="I394" s="48"/>
+      <c r="I394" s="49"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="I395" s="48"/>
+      <c r="I395" s="49"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="I396" s="48"/>
+      <c r="I396" s="49"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="I397" s="48"/>
+      <c r="I397" s="49"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="I398" s="48"/>
+      <c r="I398" s="49"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="I399" s="48"/>
+      <c r="I399" s="49"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="I400" s="48"/>
+      <c r="I400" s="49"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="I401" s="48"/>
+      <c r="I401" s="49"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="I402" s="48"/>
+      <c r="I402" s="49"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="I403" s="48"/>
+      <c r="I403" s="49"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="I404" s="48"/>
+      <c r="I404" s="49"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="I405" s="48"/>
+      <c r="I405" s="49"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="I406" s="48"/>
+      <c r="I406" s="49"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="I407" s="48"/>
+      <c r="I407" s="49"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="I408" s="48"/>
+      <c r="I408" s="49"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="I409" s="48"/>
+      <c r="I409" s="49"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="I410" s="48"/>
+      <c r="I410" s="49"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="I411" s="48"/>
+      <c r="I411" s="49"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="I412" s="48"/>
+      <c r="I412" s="49"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="I413" s="48"/>
+      <c r="I413" s="49"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="I414" s="48"/>
+      <c r="I414" s="49"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="I415" s="48"/>
+      <c r="I415" s="49"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="I416" s="48"/>
+      <c r="I416" s="49"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="I417" s="48"/>
+      <c r="I417" s="49"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="I418" s="48"/>
+      <c r="I418" s="49"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="I419" s="48"/>
+      <c r="I419" s="49"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="I420" s="48"/>
+      <c r="I420" s="49"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="I421" s="48"/>
+      <c r="I421" s="49"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="I422" s="48"/>
+      <c r="I422" s="49"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="I423" s="48"/>
+      <c r="I423" s="49"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="I424" s="48"/>
+      <c r="I424" s="49"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="I425" s="48"/>
+      <c r="I425" s="49"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="I426" s="48"/>
+      <c r="I426" s="49"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="I427" s="48"/>
+      <c r="I427" s="49"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="I428" s="48"/>
+      <c r="I428" s="49"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="I429" s="48"/>
+      <c r="I429" s="49"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="I430" s="48"/>
+      <c r="I430" s="49"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="I431" s="48"/>
+      <c r="I431" s="49"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="I432" s="48"/>
+      <c r="I432" s="49"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="I433" s="48"/>
+      <c r="I433" s="49"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="I434" s="48"/>
+      <c r="I434" s="49"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="I435" s="48"/>
+      <c r="I435" s="49"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="I436" s="48"/>
+      <c r="I436" s="49"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="I437" s="48"/>
+      <c r="I437" s="49"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="I438" s="48"/>
+      <c r="I438" s="49"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="I439" s="48"/>
+      <c r="I439" s="49"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="I440" s="48"/>
+      <c r="I440" s="49"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="I441" s="48"/>
+      <c r="I441" s="49"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="I442" s="48"/>
+      <c r="I442" s="49"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="I443" s="48"/>
+      <c r="I443" s="49"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="I444" s="48"/>
+      <c r="I444" s="49"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="I445" s="48"/>
+      <c r="I445" s="49"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="I446" s="48"/>
+      <c r="I446" s="49"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="I447" s="48"/>
+      <c r="I447" s="49"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="I448" s="48"/>
+      <c r="I448" s="49"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="I449" s="48"/>
+      <c r="I449" s="49"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="I450" s="48"/>
+      <c r="I450" s="49"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="I451" s="48"/>
+      <c r="I451" s="49"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="I452" s="48"/>
+      <c r="I452" s="49"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="I453" s="48"/>
+      <c r="I453" s="49"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="I454" s="48"/>
+      <c r="I454" s="49"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="I455" s="48"/>
+      <c r="I455" s="49"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="I456" s="48"/>
+      <c r="I456" s="49"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="I457" s="48"/>
+      <c r="I457" s="49"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="I458" s="48"/>
+      <c r="I458" s="49"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="I459" s="48"/>
+      <c r="I459" s="49"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="I460" s="48"/>
+      <c r="I460" s="49"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="I461" s="48"/>
+      <c r="I461" s="49"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="I462" s="48"/>
+      <c r="I462" s="49"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="I463" s="48"/>
+      <c r="I463" s="49"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="I464" s="48"/>
+      <c r="I464" s="49"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="I465" s="48"/>
+      <c r="I465" s="49"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="I466" s="48"/>
+      <c r="I466" s="49"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="I467" s="48"/>
+      <c r="I467" s="49"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="I468" s="48"/>
+      <c r="I468" s="49"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="I469" s="48"/>
+      <c r="I469" s="49"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="I470" s="48"/>
+      <c r="I470" s="49"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="I471" s="48"/>
+      <c r="I471" s="49"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="I472" s="48"/>
+      <c r="I472" s="49"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="I473" s="48"/>
+      <c r="I473" s="49"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="I474" s="48"/>
+      <c r="I474" s="49"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="I475" s="48"/>
+      <c r="I475" s="49"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="I476" s="48"/>
+      <c r="I476" s="49"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="I477" s="48"/>
+      <c r="I477" s="49"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="I478" s="48"/>
+      <c r="I478" s="49"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="I479" s="48"/>
+      <c r="I479" s="49"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="I480" s="48"/>
+      <c r="I480" s="49"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="I481" s="48"/>
+      <c r="I481" s="49"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="I482" s="48"/>
+      <c r="I482" s="49"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="I483" s="48"/>
+      <c r="I483" s="49"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="I484" s="48"/>
+      <c r="I484" s="49"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="I485" s="48"/>
+      <c r="I485" s="49"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="I486" s="48"/>
+      <c r="I486" s="49"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="I487" s="48"/>
+      <c r="I487" s="49"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="I488" s="48"/>
+      <c r="I488" s="49"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="I489" s="48"/>
+      <c r="I489" s="49"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="I490" s="48"/>
+      <c r="I490" s="49"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="I491" s="48"/>
+      <c r="I491" s="49"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="I492" s="48"/>
+      <c r="I492" s="49"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="I493" s="48"/>
+      <c r="I493" s="49"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="I494" s="48"/>
+      <c r="I494" s="49"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="I495" s="48"/>
+      <c r="I495" s="49"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="I496" s="48"/>
+      <c r="I496" s="49"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="I497" s="48"/>
+      <c r="I497" s="49"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="I498" s="48"/>
+      <c r="I498" s="49"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="I499" s="48"/>
+      <c r="I499" s="49"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="I500" s="48"/>
+      <c r="I500" s="49"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="I501" s="48"/>
+      <c r="I501" s="49"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="I502" s="48"/>
+      <c r="I502" s="49"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="I503" s="48"/>
+      <c r="I503" s="49"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="I504" s="48"/>
+      <c r="I504" s="49"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="I505" s="48"/>
+      <c r="I505" s="49"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="I506" s="48"/>
+      <c r="I506" s="49"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="I507" s="48"/>
+      <c r="I507" s="49"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="I508" s="48"/>
+      <c r="I508" s="49"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="I509" s="48"/>
+      <c r="I509" s="49"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="I510" s="48"/>
+      <c r="I510" s="49"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="I511" s="48"/>
+      <c r="I511" s="49"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="I512" s="48"/>
+      <c r="I512" s="49"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="I513" s="48"/>
+      <c r="I513" s="49"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="I514" s="48"/>
+      <c r="I514" s="49"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="I515" s="48"/>
+      <c r="I515" s="49"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="I516" s="48"/>
+      <c r="I516" s="49"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="I517" s="48"/>
+      <c r="I517" s="49"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="I518" s="48"/>
+      <c r="I518" s="49"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="I519" s="48"/>
+      <c r="I519" s="49"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="I520" s="48"/>
+      <c r="I520" s="49"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="I521" s="48"/>
+      <c r="I521" s="49"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="I522" s="48"/>
+      <c r="I522" s="49"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="I523" s="48"/>
+      <c r="I523" s="49"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="I524" s="48"/>
+      <c r="I524" s="49"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="I525" s="48"/>
+      <c r="I525" s="49"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="I526" s="48"/>
+      <c r="I526" s="49"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="I527" s="48"/>
+      <c r="I527" s="49"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="I528" s="48"/>
+      <c r="I528" s="49"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="I529" s="48"/>
+      <c r="I529" s="49"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="I530" s="48"/>
+      <c r="I530" s="49"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="I531" s="48"/>
+      <c r="I531" s="49"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="I532" s="48"/>
+      <c r="I532" s="49"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="I533" s="48"/>
+      <c r="I533" s="49"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="I534" s="48"/>
+      <c r="I534" s="49"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="I535" s="48"/>
+      <c r="I535" s="49"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="I536" s="48"/>
+      <c r="I536" s="49"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="I537" s="48"/>
+      <c r="I537" s="49"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="I538" s="48"/>
+      <c r="I538" s="49"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="I539" s="48"/>
+      <c r="I539" s="49"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="I540" s="48"/>
+      <c r="I540" s="49"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="I541" s="48"/>
+      <c r="I541" s="49"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="I542" s="48"/>
+      <c r="I542" s="49"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="I543" s="48"/>
+      <c r="I543" s="49"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="I544" s="48"/>
+      <c r="I544" s="49"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="I545" s="48"/>
+      <c r="I545" s="49"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="I546" s="48"/>
+      <c r="I546" s="49"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="I547" s="48"/>
+      <c r="I547" s="49"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="I548" s="48"/>
+      <c r="I548" s="49"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="I549" s="48"/>
+      <c r="I549" s="49"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="I550" s="48"/>
+      <c r="I550" s="49"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="I551" s="48"/>
+      <c r="I551" s="49"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="I552" s="48"/>
+      <c r="I552" s="49"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="I553" s="48"/>
+      <c r="I553" s="49"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="I554" s="48"/>
+      <c r="I554" s="49"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="I555" s="48"/>
+      <c r="I555" s="49"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="I556" s="48"/>
+      <c r="I556" s="49"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="I557" s="48"/>
+      <c r="I557" s="49"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="I558" s="48"/>
+      <c r="I558" s="49"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="I559" s="48"/>
+      <c r="I559" s="49"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="I560" s="48"/>
+      <c r="I560" s="49"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="I561" s="48"/>
+      <c r="I561" s="49"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="I562" s="48"/>
+      <c r="I562" s="49"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="I563" s="48"/>
+      <c r="I563" s="49"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="I564" s="48"/>
+      <c r="I564" s="49"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="I565" s="48"/>
+      <c r="I565" s="49"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="I566" s="48"/>
+      <c r="I566" s="49"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="I567" s="48"/>
+      <c r="I567" s="49"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="I568" s="48"/>
+      <c r="I568" s="49"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="I569" s="48"/>
+      <c r="I569" s="49"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="I570" s="48"/>
+      <c r="I570" s="49"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="I571" s="48"/>
+      <c r="I571" s="49"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="I572" s="48"/>
+      <c r="I572" s="49"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="I573" s="48"/>
+      <c r="I573" s="49"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="I574" s="48"/>
+      <c r="I574" s="49"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="I575" s="48"/>
+      <c r="I575" s="49"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="I576" s="48"/>
+      <c r="I576" s="49"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="I577" s="48"/>
+      <c r="I577" s="49"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="I578" s="48"/>
+      <c r="I578" s="49"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="I579" s="48"/>
+      <c r="I579" s="49"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="I580" s="48"/>
+      <c r="I580" s="49"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="I581" s="48"/>
+      <c r="I581" s="49"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="I582" s="48"/>
+      <c r="I582" s="49"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="I583" s="48"/>
+      <c r="I583" s="49"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="I584" s="48"/>
+      <c r="I584" s="49"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="I585" s="48"/>
+      <c r="I585" s="49"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="I586" s="48"/>
+      <c r="I586" s="49"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="I587" s="48"/>
+      <c r="I587" s="49"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="I588" s="48"/>
+      <c r="I588" s="49"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="I589" s="48"/>
+      <c r="I589" s="49"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="I590" s="48"/>
+      <c r="I590" s="49"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="I591" s="48"/>
+      <c r="I591" s="49"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="I592" s="48"/>
+      <c r="I592" s="49"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="I593" s="48"/>
+      <c r="I593" s="49"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="I594" s="48"/>
+      <c r="I594" s="49"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="I595" s="48"/>
+      <c r="I595" s="49"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="I596" s="48"/>
+      <c r="I596" s="49"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="I597" s="48"/>
+      <c r="I597" s="49"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="I598" s="48"/>
+      <c r="I598" s="49"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="I599" s="48"/>
+      <c r="I599" s="49"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="I600" s="48"/>
+      <c r="I600" s="49"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="I601" s="48"/>
+      <c r="I601" s="49"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="I602" s="48"/>
+      <c r="I602" s="49"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="I603" s="48"/>
+      <c r="I603" s="49"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="I604" s="48"/>
+      <c r="I604" s="49"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="I605" s="48"/>
+      <c r="I605" s="49"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="I606" s="48"/>
+      <c r="I606" s="49"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="I607" s="48"/>
+      <c r="I607" s="49"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="I608" s="48"/>
+      <c r="I608" s="49"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="I609" s="48"/>
+      <c r="I609" s="49"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="I610" s="48"/>
+      <c r="I610" s="49"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="I611" s="48"/>
+      <c r="I611" s="49"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="I612" s="48"/>
+      <c r="I612" s="49"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="I613" s="48"/>
+      <c r="I613" s="49"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="I614" s="48"/>
+      <c r="I614" s="49"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="I615" s="48"/>
+      <c r="I615" s="49"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="I616" s="48"/>
+      <c r="I616" s="49"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="I617" s="48"/>
+      <c r="I617" s="49"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="I618" s="48"/>
+      <c r="I618" s="49"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="I619" s="48"/>
+      <c r="I619" s="49"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="I620" s="48"/>
+      <c r="I620" s="49"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="I621" s="48"/>
+      <c r="I621" s="49"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="I622" s="48"/>
+      <c r="I622" s="49"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="I623" s="48"/>
+      <c r="I623" s="49"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="I624" s="48"/>
+      <c r="I624" s="49"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="I625" s="48"/>
+      <c r="I625" s="49"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="I626" s="48"/>
+      <c r="I626" s="49"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="I627" s="48"/>
+      <c r="I627" s="49"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="I628" s="48"/>
+      <c r="I628" s="49"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="I629" s="48"/>
+      <c r="I629" s="49"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="I630" s="48"/>
+      <c r="I630" s="49"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="I631" s="48"/>
+      <c r="I631" s="49"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="I632" s="48"/>
+      <c r="I632" s="49"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="I633" s="48"/>
+      <c r="I633" s="49"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="I634" s="48"/>
+      <c r="I634" s="49"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="I635" s="48"/>
+      <c r="I635" s="49"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="I636" s="48"/>
+      <c r="I636" s="49"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="I637" s="48"/>
+      <c r="I637" s="49"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="I638" s="48"/>
+      <c r="I638" s="49"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="I639" s="48"/>
+      <c r="I639" s="49"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="I640" s="48"/>
+      <c r="I640" s="49"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="I641" s="48"/>
+      <c r="I641" s="49"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="I642" s="48"/>
+      <c r="I642" s="49"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="I643" s="48"/>
+      <c r="I643" s="49"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="I644" s="48"/>
+      <c r="I644" s="49"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="I645" s="48"/>
+      <c r="I645" s="49"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="I646" s="48"/>
+      <c r="I646" s="49"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="I647" s="48"/>
+      <c r="I647" s="49"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="I648" s="48"/>
+      <c r="I648" s="49"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="I649" s="48"/>
+      <c r="I649" s="49"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="I650" s="48"/>
+      <c r="I650" s="49"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="I651" s="48"/>
+      <c r="I651" s="49"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="I652" s="48"/>
+      <c r="I652" s="49"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="I653" s="48"/>
+      <c r="I653" s="49"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="I654" s="48"/>
+      <c r="I654" s="49"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="I655" s="48"/>
+      <c r="I655" s="49"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="I656" s="48"/>
+      <c r="I656" s="49"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="I657" s="48"/>
+      <c r="I657" s="49"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="I658" s="48"/>
+      <c r="I658" s="49"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="I659" s="48"/>
+      <c r="I659" s="49"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="I660" s="48"/>
+      <c r="I660" s="49"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="I661" s="48"/>
+      <c r="I661" s="49"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="I662" s="48"/>
+      <c r="I662" s="49"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="I663" s="48"/>
+      <c r="I663" s="49"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="I664" s="48"/>
+      <c r="I664" s="49"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="I665" s="48"/>
+      <c r="I665" s="49"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="I666" s="48"/>
+      <c r="I666" s="49"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="I667" s="48"/>
+      <c r="I667" s="49"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="I668" s="48"/>
+      <c r="I668" s="49"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="I669" s="48"/>
+      <c r="I669" s="49"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="I670" s="48"/>
+      <c r="I670" s="49"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="I671" s="48"/>
+      <c r="I671" s="49"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="I672" s="48"/>
+      <c r="I672" s="49"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="I673" s="48"/>
+      <c r="I673" s="49"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="I674" s="48"/>
+      <c r="I674" s="49"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="I675" s="48"/>
+      <c r="I675" s="49"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="I676" s="48"/>
+      <c r="I676" s="49"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="I677" s="48"/>
+      <c r="I677" s="49"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="I678" s="48"/>
+      <c r="I678" s="49"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="I679" s="48"/>
+      <c r="I679" s="49"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="I680" s="48"/>
+      <c r="I680" s="49"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="I681" s="48"/>
+      <c r="I681" s="49"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="I682" s="48"/>
+      <c r="I682" s="49"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="I683" s="48"/>
+      <c r="I683" s="49"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="I684" s="48"/>
+      <c r="I684" s="49"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="I685" s="48"/>
+      <c r="I685" s="49"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="I686" s="48"/>
+      <c r="I686" s="49"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="I687" s="48"/>
+      <c r="I687" s="49"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="I688" s="48"/>
+      <c r="I688" s="49"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="I689" s="48"/>
+      <c r="I689" s="49"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="I690" s="48"/>
+      <c r="I690" s="49"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="I691" s="48"/>
+      <c r="I691" s="49"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="I692" s="48"/>
+      <c r="I692" s="49"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="I693" s="48"/>
+      <c r="I693" s="49"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="I694" s="48"/>
+      <c r="I694" s="49"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="I695" s="48"/>
+      <c r="I695" s="49"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="I696" s="48"/>
+      <c r="I696" s="49"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="I697" s="48"/>
+      <c r="I697" s="49"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="I698" s="48"/>
+      <c r="I698" s="49"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="I699" s="48"/>
+      <c r="I699" s="49"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="I700" s="48"/>
+      <c r="I700" s="49"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="I701" s="48"/>
+      <c r="I701" s="49"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="I702" s="48"/>
+      <c r="I702" s="49"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="I703" s="48"/>
+      <c r="I703" s="49"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="I704" s="48"/>
+      <c r="I704" s="49"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="I705" s="48"/>
+      <c r="I705" s="49"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="I706" s="48"/>
+      <c r="I706" s="49"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="I707" s="48"/>
+      <c r="I707" s="49"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="I708" s="48"/>
+      <c r="I708" s="49"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="I709" s="48"/>
+      <c r="I709" s="49"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="I710" s="48"/>
+      <c r="I710" s="49"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="I711" s="48"/>
+      <c r="I711" s="49"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="I712" s="48"/>
+      <c r="I712" s="49"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="I713" s="48"/>
+      <c r="I713" s="49"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="I714" s="48"/>
+      <c r="I714" s="49"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="I715" s="48"/>
+      <c r="I715" s="49"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="I716" s="48"/>
+      <c r="I716" s="49"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="I717" s="48"/>
+      <c r="I717" s="49"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="I718" s="48"/>
+      <c r="I718" s="49"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="I719" s="48"/>
+      <c r="I719" s="49"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="I720" s="48"/>
+      <c r="I720" s="49"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="I721" s="48"/>
+      <c r="I721" s="49"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="I722" s="48"/>
+      <c r="I722" s="49"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="I723" s="48"/>
+      <c r="I723" s="49"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="I724" s="48"/>
+      <c r="I724" s="49"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="I725" s="48"/>
+      <c r="I725" s="49"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="I726" s="48"/>
+      <c r="I726" s="49"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="I727" s="48"/>
+      <c r="I727" s="49"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="I728" s="48"/>
+      <c r="I728" s="49"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="I729" s="48"/>
+      <c r="I729" s="49"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="I730" s="48"/>
+      <c r="I730" s="49"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="I731" s="48"/>
+      <c r="I731" s="49"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="I732" s="48"/>
+      <c r="I732" s="49"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="I733" s="48"/>
+      <c r="I733" s="49"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="I734" s="48"/>
+      <c r="I734" s="49"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="I735" s="48"/>
+      <c r="I735" s="49"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="I736" s="48"/>
+      <c r="I736" s="49"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="I737" s="48"/>
+      <c r="I737" s="49"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="I738" s="48"/>
+      <c r="I738" s="49"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="I739" s="48"/>
+      <c r="I739" s="49"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="I740" s="48"/>
+      <c r="I740" s="49"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="I741" s="48"/>
+      <c r="I741" s="49"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="I742" s="48"/>
+      <c r="I742" s="49"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="I743" s="48"/>
+      <c r="I743" s="49"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="I744" s="48"/>
+      <c r="I744" s="49"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="I745" s="48"/>
+      <c r="I745" s="49"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="I746" s="48"/>
+      <c r="I746" s="49"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="I747" s="48"/>
+      <c r="I747" s="49"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="I748" s="48"/>
+      <c r="I748" s="49"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="I749" s="48"/>
+      <c r="I749" s="49"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="I750" s="48"/>
+      <c r="I750" s="49"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="I751" s="48"/>
+      <c r="I751" s="49"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="I752" s="48"/>
+      <c r="I752" s="49"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="I753" s="48"/>
+      <c r="I753" s="49"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="I754" s="48"/>
+      <c r="I754" s="49"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="I755" s="48"/>
+      <c r="I755" s="49"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="I756" s="48"/>
+      <c r="I756" s="49"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="I757" s="48"/>
+      <c r="I757" s="49"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="I758" s="48"/>
+      <c r="I758" s="49"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="I759" s="48"/>
+      <c r="I759" s="49"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="I760" s="48"/>
+      <c r="I760" s="49"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="I761" s="48"/>
+      <c r="I761" s="49"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="I762" s="48"/>
+      <c r="I762" s="49"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="I763" s="48"/>
+      <c r="I763" s="49"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="I764" s="48"/>
+      <c r="I764" s="49"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="I765" s="48"/>
+      <c r="I765" s="49"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="I766" s="48"/>
+      <c r="I766" s="49"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="I767" s="48"/>
+      <c r="I767" s="49"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="I768" s="48"/>
+      <c r="I768" s="49"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="I769" s="48"/>
+      <c r="I769" s="49"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="I770" s="48"/>
+      <c r="I770" s="49"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="I771" s="48"/>
+      <c r="I771" s="49"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="I772" s="48"/>
+      <c r="I772" s="49"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="I773" s="48"/>
+      <c r="I773" s="49"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="I774" s="48"/>
+      <c r="I774" s="49"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="I775" s="48"/>
+      <c r="I775" s="49"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="I776" s="48"/>
+      <c r="I776" s="49"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="I777" s="48"/>
+      <c r="I777" s="49"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="I778" s="48"/>
+      <c r="I778" s="49"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="I779" s="48"/>
+      <c r="I779" s="49"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="I780" s="48"/>
+      <c r="I780" s="49"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="I781" s="48"/>
+      <c r="I781" s="49"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="I782" s="48"/>
+      <c r="I782" s="49"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="I783" s="48"/>
+      <c r="I783" s="49"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="I784" s="48"/>
+      <c r="I784" s="49"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="I785" s="48"/>
+      <c r="I785" s="49"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="I786" s="48"/>
+      <c r="I786" s="49"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="I787" s="48"/>
+      <c r="I787" s="49"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="I788" s="48"/>
+      <c r="I788" s="49"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="I789" s="48"/>
+      <c r="I789" s="49"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="I790" s="48"/>
+      <c r="I790" s="49"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="I791" s="48"/>
+      <c r="I791" s="49"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="I792" s="48"/>
+      <c r="I792" s="49"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="I793" s="48"/>
+      <c r="I793" s="49"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="I794" s="48"/>
+      <c r="I794" s="49"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="I795" s="48"/>
+      <c r="I795" s="49"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="I796" s="48"/>
+      <c r="I796" s="49"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="I797" s="48"/>
+      <c r="I797" s="49"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="I798" s="48"/>
+      <c r="I798" s="49"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="I799" s="48"/>
+      <c r="I799" s="49"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="I800" s="48"/>
+      <c r="I800" s="49"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="I801" s="48"/>
+      <c r="I801" s="49"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="I802" s="48"/>
+      <c r="I802" s="49"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="I803" s="48"/>
+      <c r="I803" s="49"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="I804" s="48"/>
+      <c r="I804" s="49"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="I805" s="48"/>
+      <c r="I805" s="49"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="I806" s="48"/>
+      <c r="I806" s="49"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="I807" s="48"/>
+      <c r="I807" s="49"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="I808" s="48"/>
+      <c r="I808" s="49"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="I809" s="48"/>
+      <c r="I809" s="49"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="I810" s="48"/>
+      <c r="I810" s="49"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="I811" s="48"/>
+      <c r="I811" s="49"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="I812" s="48"/>
+      <c r="I812" s="49"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="I813" s="48"/>
+      <c r="I813" s="49"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="I814" s="48"/>
+      <c r="I814" s="49"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="I815" s="48"/>
+      <c r="I815" s="49"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="I816" s="48"/>
+      <c r="I816" s="49"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="I817" s="48"/>
+      <c r="I817" s="49"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="I818" s="48"/>
+      <c r="I818" s="49"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="I819" s="48"/>
+      <c r="I819" s="49"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="I820" s="48"/>
+      <c r="I820" s="49"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="I821" s="48"/>
+      <c r="I821" s="49"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="I822" s="48"/>
+      <c r="I822" s="49"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="I823" s="48"/>
+      <c r="I823" s="49"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="I824" s="48"/>
+      <c r="I824" s="49"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="I825" s="48"/>
+      <c r="I825" s="49"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="I826" s="48"/>
+      <c r="I826" s="49"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="I827" s="48"/>
+      <c r="I827" s="49"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="I828" s="48"/>
+      <c r="I828" s="49"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="I829" s="48"/>
+      <c r="I829" s="49"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="I830" s="48"/>
+      <c r="I830" s="49"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="I831" s="48"/>
+      <c r="I831" s="49"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="I832" s="48"/>
+      <c r="I832" s="49"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="I833" s="48"/>
+      <c r="I833" s="49"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="I834" s="48"/>
+      <c r="I834" s="49"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="I835" s="48"/>
+      <c r="I835" s="49"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="I836" s="48"/>
+      <c r="I836" s="49"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="I837" s="48"/>
+      <c r="I837" s="49"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="I838" s="48"/>
+      <c r="I838" s="49"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="I839" s="48"/>
+      <c r="I839" s="49"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="I840" s="48"/>
+      <c r="I840" s="49"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="I841" s="48"/>
+      <c r="I841" s="49"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="I842" s="48"/>
+      <c r="I842" s="49"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="I843" s="48"/>
+      <c r="I843" s="49"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="I844" s="48"/>
+      <c r="I844" s="49"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="I845" s="48"/>
+      <c r="I845" s="49"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="I846" s="48"/>
+      <c r="I846" s="49"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="I847" s="48"/>
+      <c r="I847" s="49"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="I848" s="48"/>
+      <c r="I848" s="49"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="I849" s="48"/>
+      <c r="I849" s="49"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="I850" s="48"/>
+      <c r="I850" s="49"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="I851" s="48"/>
+      <c r="I851" s="49"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="I852" s="48"/>
+      <c r="I852" s="49"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="I853" s="48"/>
+      <c r="I853" s="49"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="I854" s="48"/>
+      <c r="I854" s="49"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="I855" s="48"/>
+      <c r="I855" s="49"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="I856" s="48"/>
+      <c r="I856" s="49"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="I857" s="48"/>
+      <c r="I857" s="49"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="I858" s="48"/>
+      <c r="I858" s="49"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="I859" s="48"/>
+      <c r="I859" s="49"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="I860" s="48"/>
+      <c r="I860" s="49"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="I861" s="48"/>
+      <c r="I861" s="49"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="I862" s="48"/>
+      <c r="I862" s="49"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="I863" s="48"/>
+      <c r="I863" s="49"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="I864" s="48"/>
+      <c r="I864" s="49"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="I865" s="48"/>
+      <c r="I865" s="49"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="I866" s="48"/>
+      <c r="I866" s="49"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="I867" s="48"/>
+      <c r="I867" s="49"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="I868" s="48"/>
+      <c r="I868" s="49"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="I869" s="48"/>
+      <c r="I869" s="49"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="I870" s="48"/>
+      <c r="I870" s="49"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="I871" s="48"/>
+      <c r="I871" s="49"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="I872" s="48"/>
+      <c r="I872" s="49"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="I873" s="48"/>
+      <c r="I873" s="49"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="I874" s="48"/>
+      <c r="I874" s="49"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="I875" s="48"/>
+      <c r="I875" s="49"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="I876" s="48"/>
+      <c r="I876" s="49"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="I877" s="48"/>
+      <c r="I877" s="49"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="I878" s="48"/>
+      <c r="I878" s="49"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="I879" s="48"/>
+      <c r="I879" s="49"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="I880" s="48"/>
+      <c r="I880" s="49"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="I881" s="48"/>
+      <c r="I881" s="49"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="I882" s="48"/>
+      <c r="I882" s="49"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="I883" s="48"/>
+      <c r="I883" s="49"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="I884" s="48"/>
+      <c r="I884" s="49"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="I885" s="48"/>
+      <c r="I885" s="49"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="I886" s="48"/>
+      <c r="I886" s="49"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="I887" s="48"/>
+      <c r="I887" s="49"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="I888" s="48"/>
+      <c r="I888" s="49"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="I889" s="48"/>
+      <c r="I889" s="49"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="I890" s="48"/>
+      <c r="I890" s="49"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="I891" s="48"/>
+      <c r="I891" s="49"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="I892" s="48"/>
+      <c r="I892" s="49"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="I893" s="48"/>
+      <c r="I893" s="49"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="I894" s="48"/>
+      <c r="I894" s="49"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="I895" s="48"/>
+      <c r="I895" s="49"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="I896" s="48"/>
+      <c r="I896" s="49"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="I897" s="48"/>
+      <c r="I897" s="49"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="I898" s="48"/>
+      <c r="I898" s="49"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="I899" s="48"/>
+      <c r="I899" s="49"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="I900" s="48"/>
+      <c r="I900" s="49"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="I901" s="48"/>
+      <c r="I901" s="49"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="I902" s="48"/>
+      <c r="I902" s="49"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="I903" s="48"/>
+      <c r="I903" s="49"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="I904" s="48"/>
+      <c r="I904" s="49"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="I905" s="48"/>
+      <c r="I905" s="49"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="I906" s="48"/>
+      <c r="I906" s="49"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="I907" s="48"/>
+      <c r="I907" s="49"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="I908" s="48"/>
+      <c r="I908" s="49"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="I909" s="48"/>
+      <c r="I909" s="49"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="I910" s="48"/>
+      <c r="I910" s="49"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="I911" s="48"/>
+      <c r="I911" s="49"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="I912" s="48"/>
+      <c r="I912" s="49"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="I913" s="48"/>
+      <c r="I913" s="49"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="I914" s="48"/>
+      <c r="I914" s="49"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="I915" s="48"/>
+      <c r="I915" s="49"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="I916" s="48"/>
+      <c r="I916" s="49"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="I917" s="48"/>
+      <c r="I917" s="49"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="I918" s="48"/>
+      <c r="I918" s="49"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="I919" s="48"/>
+      <c r="I919" s="49"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="I920" s="48"/>
+      <c r="I920" s="49"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="I921" s="48"/>
+      <c r="I921" s="49"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="I922" s="48"/>
+      <c r="I922" s="49"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="I923" s="48"/>
+      <c r="I923" s="49"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="I924" s="48"/>
+      <c r="I924" s="49"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="I925" s="48"/>
+      <c r="I925" s="49"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="I926" s="48"/>
+      <c r="I926" s="49"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="I927" s="48"/>
+      <c r="I927" s="49"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="I928" s="48"/>
+      <c r="I928" s="49"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="I929" s="48"/>
+      <c r="I929" s="49"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="I930" s="48"/>
+      <c r="I930" s="49"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="I931" s="48"/>
+      <c r="I931" s="49"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="I932" s="48"/>
+      <c r="I932" s="49"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="I933" s="48"/>
+      <c r="I933" s="49"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="I934" s="48"/>
+      <c r="I934" s="49"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="I935" s="48"/>
+      <c r="I935" s="49"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="I936" s="48"/>
+      <c r="I936" s="49"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="I937" s="48"/>
+      <c r="I937" s="49"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="I938" s="48"/>
+      <c r="I938" s="49"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="I939" s="48"/>
+      <c r="I939" s="49"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="I940" s="48"/>
+      <c r="I940" s="49"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="I941" s="48"/>
+      <c r="I941" s="49"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="I942" s="48"/>
+      <c r="I942" s="49"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="I943" s="48"/>
+      <c r="I943" s="49"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="I944" s="48"/>
+      <c r="I944" s="49"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="I945" s="48"/>
+      <c r="I945" s="49"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="I946" s="48"/>
+      <c r="I946" s="49"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="I947" s="48"/>
+      <c r="I947" s="49"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="I948" s="48"/>
+      <c r="I948" s="49"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="I949" s="48"/>
+      <c r="I949" s="49"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="I950" s="48"/>
+      <c r="I950" s="49"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="I951" s="48"/>
+      <c r="I951" s="49"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="I952" s="48"/>
+      <c r="I952" s="49"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="I953" s="48"/>
+      <c r="I953" s="49"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="I954" s="48"/>
+      <c r="I954" s="49"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="I955" s="48"/>
+      <c r="I955" s="49"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="I956" s="48"/>
+      <c r="I956" s="49"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="I957" s="48"/>
+      <c r="I957" s="49"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="I958" s="48"/>
+      <c r="I958" s="49"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="I959" s="48"/>
+      <c r="I959" s="49"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="I960" s="48"/>
+      <c r="I960" s="49"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="I961" s="48"/>
+      <c r="I961" s="49"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="I962" s="48"/>
+      <c r="I962" s="49"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="I963" s="48"/>
+      <c r="I963" s="49"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="I964" s="48"/>
+      <c r="I964" s="49"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="I965" s="48"/>
+      <c r="I965" s="49"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="I966" s="48"/>
+      <c r="I966" s="49"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="I967" s="48"/>
+      <c r="I967" s="49"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="I968" s="48"/>
+      <c r="I968" s="49"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="I969" s="48"/>
+      <c r="I969" s="49"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="I970" s="48"/>
+      <c r="I970" s="49"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="I971" s="48"/>
+      <c r="I971" s="49"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="I972" s="48"/>
+      <c r="I972" s="49"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="I973" s="48"/>
+      <c r="I973" s="49"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="I974" s="48"/>
+      <c r="I974" s="49"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="I975" s="48"/>
+      <c r="I975" s="49"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="I976" s="48"/>
+      <c r="I976" s="49"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="I977" s="48"/>
+      <c r="I977" s="49"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="I978" s="48"/>
+      <c r="I978" s="49"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="I979" s="48"/>
+      <c r="I979" s="49"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="I980" s="48"/>
+      <c r="I980" s="49"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="I981" s="48"/>
+      <c r="I981" s="49"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="I982" s="48"/>
+      <c r="I982" s="49"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="I983" s="48"/>
+      <c r="I983" s="49"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="I984" s="48"/>
+      <c r="I984" s="49"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="I985" s="48"/>
+      <c r="I985" s="49"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="I986" s="48"/>
+      <c r="I986" s="49"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="I987" s="48"/>
+      <c r="I987" s="49"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="I988" s="48"/>
+      <c r="I988" s="49"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="I989" s="48"/>
+      <c r="I989" s="49"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="I990" s="48"/>
+      <c r="I990" s="49"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="I991" s="48"/>
+      <c r="I991" s="49"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="I992" s="48"/>
+      <c r="I992" s="49"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="I993" s="48"/>
+      <c r="I993" s="49"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="I994" s="48"/>
+      <c r="I994" s="49"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="I995" s="48"/>
+      <c r="I995" s="49"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="I996" s="48"/>
+      <c r="I996" s="49"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="I997" s="48"/>
+      <c r="I997" s="49"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="I998" s="48"/>
+      <c r="I998" s="49"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="I999" s="48"/>
+      <c r="I999" s="49"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="I1000" s="48"/>
+      <c r="I1000" s="49"/>
     </row>
     <row r="1001" ht="15.75" customHeight="1">
-      <c r="I1001" s="48"/>
+      <c r="I1001" s="49"/>
     </row>
     <row r="1002" ht="15.75" customHeight="1">
-      <c r="I1002" s="48"/>
+      <c r="I1002" s="49"/>
     </row>
     <row r="1003" ht="15.75" customHeight="1">
-      <c r="I1003" s="48"/>
+      <c r="I1003" s="49"/>
     </row>
     <row r="1004" ht="15.75" customHeight="1">
-      <c r="I1004" s="48"/>
+      <c r="I1004" s="49"/>
     </row>
     <row r="1005" ht="15.75" customHeight="1">
-      <c r="I1005" s="48"/>
+      <c r="I1005" s="49"/>
     </row>
     <row r="1006" ht="15.75" customHeight="1">
-      <c r="I1006" s="48"/>
+      <c r="I1006" s="49"/>
     </row>
     <row r="1007" ht="15.75" customHeight="1">
-      <c r="I1007" s="48"/>
+      <c r="I1007" s="49"/>
     </row>
     <row r="1008" ht="15.75" customHeight="1">
-      <c r="I1008" s="48"/>
+      <c r="I1008" s="49"/>
     </row>
     <row r="1009" ht="15.75" customHeight="1">
-      <c r="I1009" s="48"/>
+      <c r="I1009" s="49"/>
     </row>
     <row r="1010" ht="15.75" customHeight="1">
-      <c r="I1010" s="48"/>
-    </row>
-    <row r="1011" ht="15.75" customHeight="1">
-      <c r="I1011" s="48"/>
+      <c r="I1010" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -22714,7 +22769,7 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId2" ref="E15"/>
-    <hyperlink r:id="rId3" ref="E17"/>
+    <hyperlink r:id="rId3" ref="E16"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
@@ -22749,7 +22804,7 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.0" customHeight="1">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="76" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="34" t="s">
@@ -22759,84 +22814,84 @@
       <c r="D1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="55"/>
+      <c r="E1" s="56"/>
       <c r="F1" s="35" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="35" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" ht="12.0" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
+        <v>550</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>551</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="38" t="s">
         <v>552</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="37" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="G2" s="36" t="s">
         <v>553</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="37">
-        <v>0.2</v>
-      </c>
-      <c r="G2" s="36" t="s">
-        <v>554</v>
-      </c>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
     </row>
     <row r="3" ht="12.0" customHeight="1"/>
     <row r="4" ht="12.0" customHeight="1">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="124" t="s">
-        <v>555</v>
-      </c>
-      <c r="C4" s="85" t="s">
+      <c r="B4" s="128" t="s">
+        <v>554</v>
+      </c>
+      <c r="C4" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="85" t="s">
+      <c r="D4" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="85" t="s">
+      <c r="E4" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="85" t="s">
+      <c r="G4" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H4" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="85" t="s">
+      <c r="J4" s="87" t="s">
         <v>17</v>
       </c>
       <c r="K4" s="59" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="A5" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="B5" s="123"/>
+      <c r="C5" s="16" t="s">
         <v>556</v>
       </c>
-      <c r="B5" s="119"/>
-      <c r="C5" s="15" t="s">
+      <c r="D5" s="16" t="s">
         <v>557</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="16" t="s">
         <v>558</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>559</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15">
@@ -22844,26 +22899,26 @@
       </c>
       <c r="H5" s="15"/>
       <c r="I5" s="16" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="A6" s="15" t="s">
+        <v>560</v>
+      </c>
+      <c r="B6" s="123" t="s">
         <v>561</v>
       </c>
-      <c r="B6" s="119" t="s">
+      <c r="C6" s="15" t="s">
         <v>562</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="15" t="s">
         <v>563</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="E6" s="15" t="s">
         <v>564</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>565</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15">
@@ -22871,26 +22926,26 @@
       </c>
       <c r="H6" s="15"/>
       <c r="I6" s="16" t="s">
+        <v>565</v>
+      </c>
+      <c r="J6" s="15" t="s">
         <v>566</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>567</v>
       </c>
       <c r="K6" s="15"/>
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>568</v>
-      </c>
-      <c r="B7" s="119"/>
+        <v>567</v>
+      </c>
+      <c r="B7" s="123"/>
       <c r="C7" s="15" t="s">
         <v>177</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="E7" s="15" t="s">
-        <v>569</v>
+      <c r="E7" s="16" t="s">
+        <v>568</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>180</v>
@@ -22898,159 +22953,159 @@
       <c r="G7" s="15"/>
       <c r="H7" s="15"/>
       <c r="I7" s="16" t="s">
-        <v>570</v>
-      </c>
-      <c r="J7" s="95"/>
+        <v>569</v>
+      </c>
+      <c r="J7" s="97"/>
       <c r="K7" s="15"/>
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="B8" s="119"/>
+        <v>570</v>
+      </c>
+      <c r="B8" s="123"/>
       <c r="C8" s="15" t="s">
         <v>183</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="16" t="s">
         <v>185</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
       <c r="H8" s="15"/>
       <c r="I8" s="16" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="A9" s="15" t="s">
+        <v>572</v>
+      </c>
+      <c r="B9" s="123" t="s">
         <v>573</v>
       </c>
-      <c r="B9" s="119" t="s">
+      <c r="C9" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="E9" s="15" t="s">
         <v>574</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>188</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>189</v>
-      </c>
-      <c r="E9" s="15" t="s">
-        <v>575</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
       <c r="H9" s="15"/>
       <c r="I9" s="16" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="A10" s="15" t="s">
+        <v>576</v>
+      </c>
+      <c r="B10" s="123" t="s">
         <v>577</v>
       </c>
-      <c r="B10" s="119" t="s">
+      <c r="C10" s="15" t="s">
         <v>578</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="D10" s="15" t="s">
         <v>579</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="E10" s="15" t="s">
         <v>580</v>
       </c>
-      <c r="E10" s="15" t="s">
-        <v>581</v>
-      </c>
-      <c r="F10" s="103" t="s">
-        <v>247</v>
+      <c r="F10" s="105" t="s">
+        <v>251</v>
       </c>
       <c r="G10" s="15">
         <v>1.0</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="16" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
     </row>
     <row r="11" ht="12.0" customHeight="1">
       <c r="A11" s="15" t="s">
+        <v>582</v>
+      </c>
+      <c r="B11" s="123"/>
+      <c r="C11" s="15" t="s">
         <v>583</v>
       </c>
-      <c r="B11" s="119"/>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="15" t="s">
         <v>584</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="E11" s="15" t="s">
         <v>585</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="F11" s="105" t="s">
         <v>586</v>
-      </c>
-      <c r="F11" s="103" t="s">
-        <v>587</v>
       </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="16" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
     </row>
     <row r="12" ht="49.5" customHeight="1">
       <c r="A12" s="15" t="s">
+        <v>588</v>
+      </c>
+      <c r="B12" s="123" t="s">
         <v>589</v>
       </c>
-      <c r="B12" s="119" t="s">
+      <c r="C12" s="15" t="s">
         <v>590</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="D12" s="15" t="s">
         <v>591</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="E12" s="93" t="s">
         <v>592</v>
       </c>
-      <c r="E12" s="91" t="s">
+      <c r="F12" s="15" t="s">
         <v>593</v>
-      </c>
-      <c r="F12" s="15" t="s">
-        <v>594</v>
       </c>
       <c r="G12" s="15">
         <v>1.0</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="J12" s="15" t="s">
         <v>595</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>596</v>
       </c>
       <c r="K12" s="15"/>
     </row>
     <row r="13" ht="12.0" customHeight="1">
       <c r="A13" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="B13" s="123" t="s">
         <v>597</v>
       </c>
-      <c r="B13" s="119" t="s">
+      <c r="C13" s="15" t="s">
         <v>598</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="D13" s="15" t="s">
         <v>599</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="E13" s="15" t="s">
         <v>600</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>601</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15">
@@ -23058,53 +23113,53 @@
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="16" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="A14" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="B14" s="123" t="s">
         <v>603</v>
       </c>
-      <c r="B14" s="119" t="s">
+      <c r="C14" s="15" t="s">
         <v>604</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="D14" s="15" t="s">
         <v>605</v>
       </c>
-      <c r="D14" s="15" t="s">
+      <c r="E14" s="15" t="s">
         <v>606</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="F14" s="15" t="s">
         <v>607</v>
-      </c>
-      <c r="F14" s="15" t="s">
-        <v>608</v>
       </c>
       <c r="G14" s="15">
         <v>1.0</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="16" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="A15" s="15" t="s">
+        <v>609</v>
+      </c>
+      <c r="B15" s="123"/>
+      <c r="C15" s="16" t="s">
         <v>610</v>
       </c>
-      <c r="B15" s="119"/>
-      <c r="C15" s="16" t="s">
+      <c r="D15" s="15" t="s">
         <v>611</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="E15" s="15" t="s">
         <v>612</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>613</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15">
@@ -23112,47 +23167,47 @@
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="16" t="s">
-        <v>614</v>
-      </c>
-      <c r="J15" s="95"/>
+        <v>613</v>
+      </c>
+      <c r="J15" s="97"/>
       <c r="K15" s="15"/>
     </row>
     <row r="16" ht="12.0" customHeight="1">
       <c r="A16" s="15" t="s">
+        <v>614</v>
+      </c>
+      <c r="B16" s="123"/>
+      <c r="C16" s="15" t="s">
         <v>615</v>
       </c>
-      <c r="B16" s="119"/>
-      <c r="C16" s="15" t="s">
+      <c r="D16" s="15" t="s">
         <v>616</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="E16" s="15" t="s">
         <v>617</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>618</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
       <c r="I16" s="16" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="J16" s="15"/>
       <c r="K16" s="15"/>
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="A17" s="15" t="s">
+        <v>619</v>
+      </c>
+      <c r="B17" s="123"/>
+      <c r="C17" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="B17" s="119"/>
-      <c r="C17" s="15" t="s">
+      <c r="D17" s="15" t="s">
         <v>621</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="E17" s="15" t="s">
         <v>622</v>
-      </c>
-      <c r="E17" s="15" t="s">
-        <v>623</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15">
@@ -23160,119 +23215,119 @@
       </c>
       <c r="H17" s="15"/>
       <c r="I17" s="16" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="A18" s="15" t="s">
+        <v>624</v>
+      </c>
+      <c r="B18" s="123"/>
+      <c r="C18" s="15" t="s">
         <v>625</v>
       </c>
-      <c r="B18" s="119"/>
-      <c r="C18" s="15" t="s">
+      <c r="D18" s="15" t="s">
         <v>626</v>
       </c>
-      <c r="D18" s="15" t="s">
+      <c r="E18" s="15" t="s">
         <v>627</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="F18" s="15" t="s">
         <v>628</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>629</v>
       </c>
       <c r="G18" s="15">
         <v>1.0</v>
       </c>
       <c r="H18" s="15"/>
       <c r="I18" s="16" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
     </row>
     <row r="19" ht="12.0" customHeight="1">
       <c r="A19" s="16" t="s">
+        <v>630</v>
+      </c>
+      <c r="B19" s="123" t="s">
+        <v>561</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>631</v>
       </c>
-      <c r="B19" s="119" t="s">
-        <v>562</v>
-      </c>
-      <c r="C19" s="16" t="s">
+      <c r="D19" s="15" t="s">
+        <v>563</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>632</v>
       </c>
-      <c r="D19" s="15" t="s">
-        <v>564</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>633</v>
-      </c>
       <c r="F19" s="16" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="16" t="s">
+        <v>633</v>
+      </c>
+      <c r="J19" s="15" t="s">
         <v>634</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>635</v>
       </c>
       <c r="K19" s="15"/>
     </row>
     <row r="20" ht="49.5" customHeight="1">
       <c r="A20" s="16" t="s">
+        <v>635</v>
+      </c>
+      <c r="B20" s="123" t="s">
+        <v>589</v>
+      </c>
+      <c r="C20" s="16" t="s">
         <v>636</v>
       </c>
-      <c r="B20" s="119" t="s">
-        <v>590</v>
-      </c>
-      <c r="C20" s="16" t="s">
+      <c r="D20" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="E20" s="129" t="s">
         <v>637</v>
       </c>
-      <c r="D20" s="15" t="s">
-        <v>592</v>
-      </c>
-      <c r="E20" s="125" t="s">
-        <v>638</v>
-      </c>
       <c r="F20" s="15" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G20" s="15"/>
       <c r="H20" s="15"/>
       <c r="I20" s="16" t="s">
+        <v>638</v>
+      </c>
+      <c r="J20" s="15" t="s">
         <v>639</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>640</v>
       </c>
       <c r="K20" s="15"/>
     </row>
     <row r="21" ht="12.0" customHeight="1">
       <c r="A21" s="16" t="s">
+        <v>640</v>
+      </c>
+      <c r="B21" s="123" t="s">
+        <v>603</v>
+      </c>
+      <c r="C21" s="16" t="s">
         <v>641</v>
       </c>
-      <c r="B21" s="119" t="s">
-        <v>604</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="D21" s="15" t="s">
+        <v>605</v>
+      </c>
+      <c r="E21" s="16" t="s">
         <v>642</v>
       </c>
-      <c r="D21" s="15" t="s">
-        <v>606</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>643</v>
-      </c>
       <c r="F21" s="15" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G21" s="15"/>
       <c r="H21" s="15"/>
       <c r="I21" s="16" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="J21" s="15"/>
       <c r="K21" s="15"/>

--- a/Estimates 22 BDG [Final].xlsx
+++ b/Estimates 22 BDG [Final].xlsx
@@ -18,7 +18,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataSignature="AMtx7mhXSpO0zDnRWDDj+qpWlZoRJZX+ZA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataSignature="AMtx7mhGx5s0CeZMjj0InGrvmErvoGtmWg=="/>
     </ext>
   </extLst>
 </workbook>
@@ -93,7 +93,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhrb1YODtM0vmOQbqltQvUSazWi6g=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miIKUhu8sG/Mj9s1M0mahx+SgkPaA=="/>
     </ext>
   </extLst>
 </comments>
@@ -185,6 +185,30 @@
     <author/>
   </authors>
   <commentList>
+    <comment authorId="0" ref="A5">
+      <text>
+        <t xml:space="preserve">======
+ID#AAAAS0zQkj8
+Jonathan Pearson    (2021-12-09 14:16:50)
+@jonathan@fjelltopp.org - for deletion.
+_Assigned to Jonathan Berry_</t>
+      </text>
+    </comment>
+  </commentList>
+  <extLst>
+    <ext uri="GoogleSheetsCustomDataVersion1">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhaiwf6jh+HW7z1kK3cW6DR1x9O7Q=="/>
+    </ext>
+  </extLst>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
     <comment authorId="0" ref="D16">
       <text>
         <t xml:space="preserve">======
@@ -222,7 +246,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -256,7 +280,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="649">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="650">
   <si>
     <t>Milestone Title (Visible to User):</t>
   </si>
@@ -1179,7 +1203,7 @@
     <t>ROB-06-01</t>
   </si>
   <si>
-    <t>Review time series results for your ART data file</t>
+    <t>Review time series results for your ANC and ART data file</t>
   </si>
   <si>
     <t>Has user reviewed all plot types for their ART and ANC data files and corrected all anomolies?</t>
@@ -1358,7 +1382,9 @@
     <t>Does the user's Spectrum file have current estimates year data for PMTCT [required / optional data elements available in Indicator Element Matrix]?</t>
   </si>
   <si>
-    <t>Spectrum requires up-to-date PMTCT programme data for the reporting period. These data are required for each Spectrum file. You can find all required data elements in the Guide 8, Data quality, Indicator Element Matrix. Spectrum also provides specific guidance for each regimen in the PMTCT data entry page. *It is highly recommended you finalize your programme data before beginning the Spectrum process.* If edits to PMTCT programme data are required later in the process, you will have to return to this step. For countries with sub-national Spectrum estimates (optional), this step applies to each file.</t>
+    <t>In order to produce updated estimates in Spectrum, updated PMTCT programme data are required. These data are required for each Spectrum file. 
+You can find all required data elements in the Guide 8, Data quality, Indicator Element Matrix. Spectrum also provides specific guidance for each regimen in the PMTCT data entry page. *It is highly recommended you finalize your programme data before proceeding.* 
+If edits to PMTCT programme data are required later in the process, you will have to return to this step. For countries with sub-national Spectrum estimates (optional), this step applies to each file.</t>
   </si>
   <si>
     <r>
@@ -1404,7 +1430,7 @@
     <t>SPE-07-01</t>
   </si>
   <si>
-    <t>Update ANC testing data in Spectrum</t>
+    <t>Update and review ANC testing data in Spectrum</t>
   </si>
   <si>
     <t>Has user updated ANC testing data in their Spectrum file for current reporting period [required / optional data elements available in Indicator Element Matrix]?</t>
@@ -1569,13 +1595,13 @@
     <t>FRRCD4_default,FRRageNoART_default,FRRageART_default</t>
   </si>
   <si>
-    <t>Confirm default values for Fertility Rate Ratios under Advanced Options</t>
-  </si>
-  <si>
-    <t>Has the user confirmed that the default values for Fertility Rate Ratios under Advanced Options are correct?</t>
-  </si>
-  <si>
-    <t>To produce accurate estimates, Spectrum requires the correct options are selected under Advanced Options. Enter Advanced Options in Spectrum Web and confirm the default selections for the "HIV-related fertility reductions" are correct for your country. They must be confirmed for CD4, on ART, and off ART. To learn more about the Advanced Options, see the Spectrum training materials.</t>
+    <t>Update Fertility Rate Ratios or confirm default values are used under Advanced Options</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Has the user updated the Fertility Rate Ratios under Advanced Options? </t>
+  </si>
+  <si>
+    <t>To produce accurate estimates of number of births to women living with HIV, Spectrum requires the correct assumptions about fertility among women living with HIV are selected under Advanced Options. Enter Advanced Options and confirm the default selections for the "HIV-related fertility reductions" are correct for your country. If good quality prevalence from census level ANC data are available, those can be used with the fit local fertility adjustment. The data will be pulled directly from EPP so update your ANC-RT census data in EPP before doing this step.  To learn more about the Advanced Options, see the Spectrum training materials.</t>
   </si>
   <si>
     <t>check_manual_confirmation('EST-SPE-14-01-A')</t>
@@ -1656,6 +1682,7 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
+        <strike/>
         <color theme="1"/>
         <sz val="8.0"/>
       </rPr>
@@ -1664,15 +1691,16 @@
     <r>
       <rPr>
         <rFont val="Calibri"/>
+        <strike/>
         <color theme="1"/>
         <sz val="8.0"/>
-        <u/>
       </rPr>
       <t>not</t>
     </r>
     <r>
       <rPr>
         <rFont val="Calibri"/>
+        <strike/>
         <color theme="1"/>
         <sz val="8.0"/>
       </rPr>
@@ -1697,7 +1725,8 @@
     <t>Has the user defined and reviewed the epidemic structure in EPP?</t>
   </si>
   <si>
-    <t xml:space="preserve">EPP requires the country to have a defined epidemic structure. You can see the previously used epidemic structure for your country in Spectrum (Modules&gt;AIM&gt;Incidence&gt;Configuration (EPP)). You may have to choose EPP as the preferred option under Incidence &gt; Incidence Options. 
+    <t xml:space="preserve">Congratulations on finishing the first of two Spectrum milestones. Now you will begin the process of estimating HIV incidence using EPP. 
+EPP requires the country to have a defined epidemic structure. You can see the previously used epidemic structure for your country in Spectrum (Modules&gt;AIM&gt;Incidence&gt;Configuration (EPP)). You may have to choose EPP as the preferred option under Incidence &gt; Incidence Options. 
 If all the information is valid, you can choose "Save and continue", which will take you to EPP's "Define Pops" page. If the epidemic structure is not correct, you can set it up according to data availability for your country. Once completed, choose "Save and continue" to proceed to the next step. </t>
   </si>
   <si>
@@ -1805,7 +1834,7 @@
     <t>S90-01-10</t>
   </si>
   <si>
-    <t>Ensure pediatric and adult ART programme data inputs and incidence estimates for people living with HIV (EPP) have not changed since you completed your sex/age incidence patterns in Spectrum</t>
+    <t>Ensure pediatric and adult ART programme data inputs, incidence estimates (EPP) and sex/age patterns have not changed in Spectrum</t>
   </si>
   <si>
     <t>Programme data for pediatric and adult ART as well as incidence results are up to date?</t>
@@ -1987,13 +2016,13 @@
     <t>SPF-01-10</t>
   </si>
   <si>
-    <t>Confirm PMTCT, ANC, pediatric ART, adult ART programme data inputs have not changed since beginning the EPP process</t>
-  </si>
-  <si>
-    <t>No updates have been made to any Spectrum data files or underlying data to be used by Spectrum before using those files in models which project knowledge of status (population, PMTCT, ANC, ART, breastfeeding patterns)?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If any underlying programme data have changed since you completed the first portion of Spectrum, you must update the data entry in Spectrum, rerun EPP curve fits, and rerun Shiny 90. </t>
+    <t>Confirm adult ART programme data and ANC and survey prevalence inputs have not changed since beginning the EPP process</t>
+  </si>
+  <si>
+    <t>No updates have been made to any Spectrum data inputs (population, ART programme data, ART, ANC survey and prevalence ) before estimating incidence in EPP?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If ART or surveillance data have changed since you completed the first portion of Spectrum, you must update the data entry in Spectrum, rerun EPP curve fits and update the sex/age patterns. </t>
   </si>
   <si>
     <t>check_manual_confirmation('EST-SPF-01-10-A')</t>
@@ -2419,6 +2448,9 @@
     <t>Spectrum Validation: Confirm default values for Fertility Rate Ratios under Advanced Options</t>
   </si>
   <si>
+    <t>Has the user confirmed that the default values for Fertility Rate Ratios under Advanced Options are correct?</t>
+  </si>
+  <si>
     <t xml:space="preserve">**Navigator has detected that there is a problem with your Spectrum file. **
 To produce accurate estimates, Spectrum requires the correct options are selected under Advanced Options. Enter Advanced Options in Spectrum Web and confirm the default selections for the "HIV-related fertility reductions" are correct for your country. They must be confirmed for CD4, on ART, and off ART. To learn more about the Advanced Options, see the Spectrum training materials.
 Please ensure you correct this in your Spectrum file **and then reupload the file to the ADR** in order to complete this task. </t>
@@ -3078,7 +3110,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3197,6 +3229,12 @@
       <strike/>
       <sz val="8.0"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="8.0"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -3402,7 +3440,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="136">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3682,10 +3720,22 @@
     <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -3707,7 +3757,7 @@
     <xf borderId="1" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -3718,10 +3768,10 @@
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="8" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -3984,7 +4034,7 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="14.0"/>
     <col customWidth="1" min="2" max="2" width="62.86"/>
-    <col customWidth="1" min="3" max="3" width="21.86"/>
+    <col customWidth="1" min="3" max="3" width="46.14"/>
     <col customWidth="1" min="4" max="4" width="43.71"/>
     <col customWidth="1" min="5" max="5" width="18.29"/>
     <col customWidth="1" min="6" max="6" width="11.57"/>
@@ -10624,32 +10674,32 @@
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" s="47" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="46" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="46">
         <v>0.2</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>555</v>
-      </c>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
+        <v>556</v>
+      </c>
+      <c r="H2" s="131"/>
+      <c r="I2" s="131"/>
     </row>
     <row r="3" ht="12.0" customHeight="1"/>
     <row r="4" ht="12.0" customHeight="1">
       <c r="A4" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="128" t="s">
-        <v>556</v>
+      <c r="B4" s="132" t="s">
+        <v>557</v>
       </c>
       <c r="C4" s="89" t="s">
         <v>10</v>
@@ -10681,17 +10731,17 @@
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="A5" s="22" t="s">
-        <v>557</v>
-      </c>
-      <c r="B5" s="123"/>
+        <v>558</v>
+      </c>
+      <c r="B5" s="127"/>
       <c r="C5" s="24" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22">
@@ -10699,45 +10749,45 @@
       </c>
       <c r="H5" s="22"/>
       <c r="I5" s="24" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>562</v>
-      </c>
-      <c r="B6" s="123" t="s">
         <v>563</v>
       </c>
+      <c r="B6" s="127" t="s">
+        <v>564</v>
+      </c>
       <c r="C6" s="22" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F6" s="22"/>
-      <c r="G6" s="22">
-        <v>1.0</v>
+      <c r="G6" s="24">
+        <v>0.0</v>
       </c>
       <c r="H6" s="22"/>
       <c r="I6" s="24" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="K6" s="22"/>
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>569</v>
-      </c>
-      <c r="B7" s="123"/>
+        <v>570</v>
+      </c>
+      <c r="B7" s="127"/>
       <c r="C7" s="22" t="s">
         <v>183</v>
       </c>
@@ -10745,7 +10795,7 @@
         <v>184</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>186</v>
@@ -10753,42 +10803,42 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
       <c r="I7" s="24" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="J7" s="99"/>
       <c r="K7" s="22"/>
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>572</v>
-      </c>
-      <c r="B8" s="123"/>
+        <v>573</v>
+      </c>
+      <c r="B8" s="127"/>
       <c r="C8" s="22" t="s">
         <v>189</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="E8" s="129" t="s">
-        <v>573</v>
+      <c r="E8" s="133" t="s">
+        <v>574</v>
       </c>
       <c r="F8" s="87" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
       <c r="I8" s="24" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>576</v>
-      </c>
-      <c r="B9" s="123" t="s">
         <v>577</v>
+      </c>
+      <c r="B9" s="127" t="s">
+        <v>578</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>195</v>
@@ -10797,117 +10847,117 @@
         <v>196</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
       <c r="I9" s="24" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>580</v>
-      </c>
-      <c r="B10" s="123" t="s">
         <v>581</v>
       </c>
+      <c r="B10" s="127" t="s">
+        <v>582</v>
+      </c>
       <c r="C10" s="22" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>584</v>
-      </c>
-      <c r="F10" s="130" t="s">
         <v>585</v>
+      </c>
+      <c r="F10" s="134" t="s">
+        <v>586</v>
       </c>
       <c r="G10" s="22">
         <v>1.0</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="24" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
     </row>
     <row r="11" ht="12.0" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>587</v>
-      </c>
-      <c r="B11" s="123"/>
+        <v>588</v>
+      </c>
+      <c r="B11" s="127"/>
       <c r="C11" s="22" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F11" s="107" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
       <c r="I11" s="24" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
     </row>
     <row r="12" ht="49.5" customHeight="1">
       <c r="A12" s="22" t="s">
-        <v>593</v>
-      </c>
-      <c r="B12" s="123" t="s">
         <v>594</v>
       </c>
+      <c r="B12" s="127" t="s">
+        <v>595</v>
+      </c>
       <c r="C12" s="22" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>596</v>
-      </c>
-      <c r="E12" s="131" t="s">
         <v>597</v>
       </c>
+      <c r="E12" s="135" t="s">
+        <v>598</v>
+      </c>
       <c r="F12" s="22" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G12" s="22">
         <v>1.0</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="24" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="K12" s="22"/>
     </row>
     <row r="13" ht="12.0" customHeight="1">
       <c r="A13" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="B13" s="123" t="s">
         <v>602</v>
       </c>
+      <c r="B13" s="127" t="s">
+        <v>603</v>
+      </c>
       <c r="C13" s="22" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22">
@@ -10915,53 +10965,53 @@
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="24" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>607</v>
-      </c>
-      <c r="B14" s="123" t="s">
         <v>608</v>
       </c>
+      <c r="B14" s="127" t="s">
+        <v>609</v>
+      </c>
       <c r="C14" s="22" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>612</v>
-      </c>
-      <c r="G14" s="22">
-        <v>1.0</v>
+        <v>613</v>
+      </c>
+      <c r="G14" s="24">
+        <v>0.0</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="24" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="A15" s="22" t="s">
-        <v>614</v>
-      </c>
-      <c r="B15" s="123"/>
+        <v>615</v>
+      </c>
+      <c r="B15" s="127"/>
       <c r="C15" s="24" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="22">
@@ -10969,47 +11019,47 @@
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="24" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="J15" s="99"/>
       <c r="K15" s="22"/>
     </row>
     <row r="16" ht="12.0" customHeight="1">
       <c r="A16" s="22" t="s">
-        <v>619</v>
-      </c>
-      <c r="B16" s="123"/>
+        <v>620</v>
+      </c>
+      <c r="B16" s="127"/>
       <c r="C16" s="22" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
       <c r="I16" s="24" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="A17" s="22" t="s">
-        <v>624</v>
-      </c>
-      <c r="B17" s="123"/>
+        <v>625</v>
+      </c>
+      <c r="B17" s="127"/>
       <c r="C17" s="22" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="22">
@@ -11017,53 +11067,53 @@
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="24" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="A18" s="22" t="s">
-        <v>629</v>
-      </c>
-      <c r="B18" s="123"/>
+        <v>630</v>
+      </c>
+      <c r="B18" s="127"/>
       <c r="C18" s="22" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="G18" s="22">
         <v>1.0</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="24" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
     </row>
     <row r="19" ht="12.0" customHeight="1">
       <c r="A19" s="24" t="s">
-        <v>635</v>
-      </c>
-      <c r="B19" s="123" t="s">
-        <v>563</v>
+        <v>636</v>
+      </c>
+      <c r="B19" s="127" t="s">
+        <v>564</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>257</v>
@@ -11071,65 +11121,65 @@
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
       <c r="I19" s="24" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="K19" s="22"/>
     </row>
     <row r="20" ht="49.5" customHeight="1">
       <c r="A20" s="24" t="s">
-        <v>640</v>
-      </c>
-      <c r="B20" s="123" t="s">
-        <v>594</v>
+        <v>641</v>
+      </c>
+      <c r="B20" s="127" t="s">
+        <v>595</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>596</v>
-      </c>
-      <c r="E20" s="131" t="s">
-        <v>642</v>
+        <v>597</v>
+      </c>
+      <c r="E20" s="135" t="s">
+        <v>643</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
       <c r="I20" s="24" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="K20" s="22"/>
     </row>
     <row r="21" ht="12.0" customHeight="1">
       <c r="A21" s="24" t="s">
-        <v>645</v>
-      </c>
-      <c r="B21" s="123" t="s">
-        <v>608</v>
+        <v>646</v>
+      </c>
+      <c r="B21" s="127" t="s">
+        <v>609</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
       <c r="I21" s="24" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
@@ -16569,7 +16619,7 @@
       <c r="A10" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="54" t="s">
         <v>207</v>
       </c>
       <c r="C10" s="50" t="s">
@@ -17913,7 +17963,7 @@
         <v>253</v>
       </c>
       <c r="B11" s="97"/>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="24" t="s">
         <v>254</v>
       </c>
       <c r="D11" s="22" t="s">
@@ -18115,13 +18165,13 @@
       <c r="B19" s="97" t="s">
         <v>302</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="24" t="s">
         <v>303</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="24" t="s">
         <v>304</v>
       </c>
-      <c r="E19" s="96" t="s">
+      <c r="E19" s="94" t="s">
         <v>305</v>
       </c>
       <c r="F19" s="107" t="s">
@@ -19341,24 +19391,24 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="113" t="s">
         <v>329</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="114" t="s">
         <v>330</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="113" t="s">
         <v>331</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="114" t="s">
         <v>332</v>
       </c>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="96"/>
-      <c r="H5" s="68"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="24" t="s">
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114" t="s">
         <v>333</v>
       </c>
     </row>
@@ -19447,7 +19497,7 @@
       <c r="D9" s="22" t="s">
         <v>353</v>
       </c>
-      <c r="E9" s="113" t="s">
+      <c r="E9" s="117" t="s">
         <v>354</v>
       </c>
       <c r="F9" s="22">
@@ -20498,12 +20548,13 @@
     <mergeCell ref="D2:E2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="E9"/>
+    <hyperlink r:id="rId2" ref="E9"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <legacyDrawing r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -20563,7 +20614,7 @@
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="J3" s="114"/>
+      <c r="J3" s="118"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="89" t="s">
@@ -20601,7 +20652,7 @@
       <c r="A5" s="22" t="s">
         <v>365</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="24" t="s">
         <v>366</v>
       </c>
       <c r="C5" s="68" t="s">
@@ -20616,7 +20667,7 @@
       <c r="H5" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="I5" s="115"/>
+      <c r="I5" s="119"/>
       <c r="J5" s="68"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
@@ -20648,24 +20699,24 @@
       <c r="J6" s="22"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="116" t="s">
+      <c r="A7" s="120" t="s">
         <v>377</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116" t="s">
+      <c r="B7" s="120"/>
+      <c r="C7" s="120" t="s">
         <v>378</v>
       </c>
-      <c r="D7" s="116"/>
-      <c r="E7" s="116"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="120"/>
       <c r="H7" s="84" t="s">
         <v>379</v>
       </c>
-      <c r="I7" s="117" t="s">
+      <c r="I7" s="121" t="s">
         <v>380</v>
       </c>
-      <c r="J7" s="118"/>
+      <c r="J7" s="122"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="22" t="s">
@@ -20689,7 +20740,7 @@
         <v>385</v>
       </c>
       <c r="I8" s="96"/>
-      <c r="J8" s="119"/>
+      <c r="J8" s="123"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="22" t="s">
@@ -20711,7 +20762,7 @@
         <v>390</v>
       </c>
       <c r="I9" s="96"/>
-      <c r="J9" s="119"/>
+      <c r="J9" s="123"/>
     </row>
     <row r="10" ht="115.5" customHeight="1">
       <c r="A10" s="22" t="s">
@@ -20737,7 +20788,7 @@
       <c r="I10" s="96" t="s">
         <v>396</v>
       </c>
-      <c r="J10" s="119"/>
+      <c r="J10" s="123"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="22" t="s">
@@ -20759,7 +20810,7 @@
         <v>401</v>
       </c>
       <c r="I11" s="96"/>
-      <c r="J11" s="119"/>
+      <c r="J11" s="123"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="22" t="s">
@@ -20785,7 +20836,7 @@
       <c r="I12" s="96" t="s">
         <v>407</v>
       </c>
-      <c r="J12" s="119"/>
+      <c r="J12" s="123"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="22" t="s">
@@ -20807,7 +20858,7 @@
         <v>412</v>
       </c>
       <c r="I13" s="96"/>
-      <c r="J13" s="119"/>
+      <c r="J13" s="123"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="22" t="s">
@@ -20831,7 +20882,7 @@
         <v>417</v>
       </c>
       <c r="I14" s="96"/>
-      <c r="J14" s="119"/>
+      <c r="J14" s="123"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="C15" s="27"/>
@@ -21873,10 +21924,10 @@
       <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="124" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="121"/>
+      <c r="C1" s="125"/>
       <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
@@ -21895,7 +21946,7 @@
       <c r="B2" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="C2" s="121"/>
+      <c r="C2" s="125"/>
       <c r="D2" s="8" t="s">
         <v>421</v>
       </c>
@@ -21935,7 +21986,7 @@
       <c r="H4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="122" t="s">
+      <c r="I4" s="126" t="s">
         <v>215</v>
       </c>
       <c r="J4" s="89" t="s">
@@ -21949,10 +22000,10 @@
       <c r="A5" s="22" t="s">
         <v>423</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="24" t="s">
         <v>424</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="24" t="s">
         <v>425</v>
       </c>
       <c r="D5" s="24" t="s">
@@ -21964,7 +22015,7 @@
       <c r="H5" s="24" t="s">
         <v>427</v>
       </c>
-      <c r="I5" s="123"/>
+      <c r="I5" s="127"/>
       <c r="J5" s="22" t="s">
         <v>428</v>
       </c>
@@ -21989,7 +22040,7 @@
       <c r="H6" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="I6" s="123"/>
+      <c r="I6" s="127"/>
       <c r="J6" s="22" t="s">
         <v>434</v>
       </c>
@@ -22016,14 +22067,14 @@
       <c r="H7" s="24" t="s">
         <v>439</v>
       </c>
-      <c r="I7" s="123" t="s">
+      <c r="I7" s="127" t="s">
         <v>440</v>
       </c>
       <c r="J7" s="22" t="s">
         <v>441</v>
       </c>
       <c r="K7" s="22"/>
-      <c r="L7" s="124" t="s">
+      <c r="L7" s="128" t="s">
         <v>442</v>
       </c>
     </row>
@@ -22048,7 +22099,7 @@
       <c r="H8" s="24" t="s">
         <v>447</v>
       </c>
-      <c r="I8" s="123"/>
+      <c r="I8" s="127"/>
       <c r="J8" s="22" t="s">
         <v>448</v>
       </c>
@@ -22075,7 +22126,7 @@
       <c r="H9" s="24" t="s">
         <v>453</v>
       </c>
-      <c r="I9" s="123"/>
+      <c r="I9" s="127"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
     </row>
@@ -22100,7 +22151,7 @@
       <c r="H10" s="24" t="s">
         <v>458</v>
       </c>
-      <c r="I10" s="123" t="s">
+      <c r="I10" s="127" t="s">
         <v>459</v>
       </c>
       <c r="J10" s="22"/>
@@ -22125,7 +22176,7 @@
       <c r="H11" s="24" t="s">
         <v>464</v>
       </c>
-      <c r="I11" s="123"/>
+      <c r="I11" s="127"/>
       <c r="J11" s="22" t="s">
         <v>465</v>
       </c>
@@ -22152,7 +22203,7 @@
       <c r="H12" s="24" t="s">
         <v>470</v>
       </c>
-      <c r="I12" s="123" t="s">
+      <c r="I12" s="127" t="s">
         <v>471</v>
       </c>
       <c r="J12" s="22"/>
@@ -22177,7 +22228,7 @@
       <c r="H13" s="24" t="s">
         <v>476</v>
       </c>
-      <c r="I13" s="123"/>
+      <c r="I13" s="127"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
     </row>
@@ -22200,7 +22251,7 @@
       <c r="H14" s="24" t="s">
         <v>481</v>
       </c>
-      <c r="I14" s="123"/>
+      <c r="I14" s="127"/>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
     </row>
@@ -22227,7 +22278,7 @@
       <c r="H15" s="24" t="s">
         <v>487</v>
       </c>
-      <c r="I15" s="123"/>
+      <c r="I15" s="127"/>
       <c r="J15" s="24" t="s">
         <v>488</v>
       </c>
@@ -22280,7 +22331,7 @@
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="125" t="s">
+      <c r="H17" s="129" t="s">
         <v>497</v>
       </c>
       <c r="I17" s="93" t="s">
@@ -22309,7 +22360,7 @@
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
-      <c r="H18" s="125" t="s">
+      <c r="H18" s="129" t="s">
         <v>502</v>
       </c>
       <c r="I18" s="93" t="s">
@@ -22334,7 +22385,7 @@
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="125" t="s">
+      <c r="H19" s="129" t="s">
         <v>507</v>
       </c>
       <c r="I19" s="93" t="s">
@@ -22347,7 +22398,7 @@
       <c r="A20" s="24" t="s">
         <v>508</v>
       </c>
-      <c r="B20" s="126" t="s">
+      <c r="B20" s="130" t="s">
         <v>509</v>
       </c>
       <c r="C20" s="103" t="s">
@@ -22361,7 +22412,7 @@
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="125" t="s">
+      <c r="H20" s="129" t="s">
         <v>511</v>
       </c>
       <c r="I20" s="93"/>
@@ -22372,7 +22423,7 @@
       <c r="A21" s="24" t="s">
         <v>512</v>
       </c>
-      <c r="B21" s="126" t="s">
+      <c r="B21" s="130" t="s">
         <v>513</v>
       </c>
       <c r="C21" s="103" t="s">
@@ -22386,7 +22437,7 @@
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="125" t="s">
+      <c r="H21" s="129" t="s">
         <v>515</v>
       </c>
       <c r="I21" s="93" t="s">
@@ -22403,18 +22454,18 @@
         <v>517</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>304</v>
+        <v>518</v>
       </c>
       <c r="D22" s="94" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E22" s="107" t="s">
         <v>293</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
-      <c r="H22" s="125" t="s">
-        <v>519</v>
+      <c r="H22" s="129" t="s">
+        <v>520</v>
       </c>
       <c r="I22" s="93"/>
       <c r="J22" s="22"/>
@@ -22422,24 +22473,24 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="24" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>310</v>
       </c>
       <c r="D23" s="94" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="E23" s="107" t="s">
         <v>312</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
-      <c r="H23" s="125" t="s">
-        <v>523</v>
+      <c r="H23" s="129" t="s">
+        <v>524</v>
       </c>
       <c r="I23" s="93"/>
       <c r="J23" s="22"/>
@@ -22447,24 +22498,24 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="24" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>317</v>
       </c>
       <c r="D24" s="94" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="E24" s="107" t="s">
         <v>293</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
-      <c r="H24" s="125" t="s">
-        <v>527</v>
+      <c r="H24" s="129" t="s">
+        <v>528</v>
       </c>
       <c r="I24" s="93" t="s">
         <v>315</v>
@@ -22474,24 +22525,24 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="24" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C25" s="22" t="s">
         <v>437</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
-      <c r="H25" s="125" t="s">
-        <v>531</v>
-      </c>
-      <c r="I25" s="123" t="s">
+      <c r="H25" s="129" t="s">
+        <v>532</v>
+      </c>
+      <c r="I25" s="127" t="s">
         <v>440</v>
       </c>
       <c r="J25" s="22"/>
@@ -22499,24 +22550,24 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="24" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
       <c r="H26" s="24" t="s">
-        <v>536</v>
-      </c>
-      <c r="I26" s="123" t="s">
+        <v>537</v>
+      </c>
+      <c r="I26" s="127" t="s">
         <v>459</v>
       </c>
       <c r="J26" s="22"/>
@@ -22524,24 +22575,24 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="24" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C27" s="22" t="s">
         <v>468</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="125" t="s">
-        <v>540</v>
-      </c>
-      <c r="I27" s="123" t="s">
+      <c r="H27" s="129" t="s">
+        <v>541</v>
+      </c>
+      <c r="I27" s="127" t="s">
         <v>471</v>
       </c>
       <c r="J27" s="22"/>
@@ -22549,41 +22600,41 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="24" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
       <c r="H28" s="24" t="s">
-        <v>545</v>
-      </c>
-      <c r="I28" s="123"/>
+        <v>546</v>
+      </c>
+      <c r="I28" s="127"/>
       <c r="J28" s="22" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="K28" s="22"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="24" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="22">
@@ -22591,9 +22642,9 @@
       </c>
       <c r="G29" s="22"/>
       <c r="H29" s="24" t="s">
-        <v>551</v>
-      </c>
-      <c r="I29" s="123"/>
+        <v>552</v>
+      </c>
+      <c r="I29" s="127"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
     </row>

--- a/Estimates 22 BDG [Final].xlsx
+++ b/Estimates 22 BDG [Final].xlsx
@@ -18,7 +18,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataSignature="AMtx7mhGx5s0CeZMjj0InGrvmErvoGtmWg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataSignature="AMtx7mijv/Yi2GmeSQjMjGB0S/7X8CYI/A=="/>
     </ext>
   </extLst>
 </workbook>
@@ -93,7 +93,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7miIKUhu8sG/Mj9s1M0mahx+SgkPaA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgJ0JgbOCBuUu1yDls2+Zyj6eJPHA=="/>
     </ext>
   </extLst>
 </comments>
@@ -185,30 +185,6 @@
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A5">
-      <text>
-        <t xml:space="preserve">======
-ID#AAAAS0zQkj8
-Jonathan Pearson    (2021-12-09 14:16:50)
-@jonathan@fjelltopp.org - for deletion.
-_Assigned to Jonathan Berry_</t>
-      </text>
-    </comment>
-  </commentList>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mhaiwf6jh+HW7z1kK3cW6DR1x9O7Q=="/>
-    </ext>
-  </extLst>
-</comments>
-</file>
-
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
     <comment authorId="0" ref="D16">
       <text>
         <t xml:space="preserve">======
@@ -246,7 +222,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
@@ -280,7 +256,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="650">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="645">
   <si>
     <t>Milestone Title (Visible to User):</t>
   </si>
@@ -1671,49 +1647,6 @@
   </si>
   <si>
     <t>S4 Follow-up</t>
-  </si>
-  <si>
-    <t>EPP-01-10</t>
-  </si>
-  <si>
-    <t>Ensure pediatric and adult ART programme data inputs have not changed since you completed the first Spectrum milestone</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <strike/>
-        <color theme="1"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t xml:space="preserve">Programme data for pediatric ART and adult ART have </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <strike/>
-        <color theme="1"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t>not</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Calibri"/>
-        <strike/>
-        <color theme="1"/>
-        <sz val="8.0"/>
-      </rPr>
-      <t xml:space="preserve"> changed since the first Spectrum milestone was completed?</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Congratulations on finishing the first of two Spectrum milestones. Now you will begin the process of estimating HIV incidence using EPP. 
-Before you begin, you should be sure that Spectrum has your best, most up-to-date ART data. 
-*If any underlying ART programme data have changed in your source files since you completed the first portion of Spectrum, you must return to the task in Spectrum where you enter your adult and pediatric ART data and then return to EPP.* </t>
-  </si>
-  <si>
-    <t>check_manual_confirmation('EST-EPP-01-10-A')</t>
   </si>
   <si>
     <t>EPP-02-01</t>
@@ -3110,7 +3043,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="29">
+  <fonts count="28">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -3229,12 +3162,6 @@
       <strike/>
       <sz val="8.0"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="8.0"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -3440,7 +3367,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="132">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3720,22 +3647,10 @@
     <xf borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="0" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -3757,7 +3672,7 @@
     <xf borderId="1" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
@@ -3768,10 +3683,10 @@
       <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="8" fontId="20" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -10669,37 +10584,37 @@
         <v>3</v>
       </c>
       <c r="G1" s="29" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" s="47" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="46" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="46">
         <v>0.2</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>556</v>
-      </c>
-      <c r="H2" s="131"/>
-      <c r="I2" s="131"/>
+        <v>551</v>
+      </c>
+      <c r="H2" s="127"/>
+      <c r="I2" s="127"/>
     </row>
     <row r="3" ht="12.0" customHeight="1"/>
     <row r="4" ht="12.0" customHeight="1">
       <c r="A4" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="132" t="s">
-        <v>557</v>
+      <c r="B4" s="128" t="s">
+        <v>552</v>
       </c>
       <c r="C4" s="89" t="s">
         <v>10</v>
@@ -10731,17 +10646,17 @@
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="A5" s="22" t="s">
-        <v>558</v>
-      </c>
-      <c r="B5" s="127"/>
+        <v>553</v>
+      </c>
+      <c r="B5" s="123"/>
       <c r="C5" s="24" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22">
@@ -10749,26 +10664,26 @@
       </c>
       <c r="H5" s="22"/>
       <c r="I5" s="24" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>563</v>
-      </c>
-      <c r="B6" s="127" t="s">
-        <v>564</v>
+        <v>558</v>
+      </c>
+      <c r="B6" s="123" t="s">
+        <v>559</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="24">
@@ -10776,18 +10691,18 @@
       </c>
       <c r="H6" s="22"/>
       <c r="I6" s="24" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="K6" s="22"/>
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>570</v>
-      </c>
-      <c r="B7" s="127"/>
+        <v>565</v>
+      </c>
+      <c r="B7" s="123"/>
       <c r="C7" s="22" t="s">
         <v>183</v>
       </c>
@@ -10795,7 +10710,7 @@
         <v>184</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>186</v>
@@ -10803,42 +10718,42 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
       <c r="I7" s="24" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="J7" s="99"/>
       <c r="K7" s="22"/>
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>573</v>
-      </c>
-      <c r="B8" s="127"/>
+        <v>568</v>
+      </c>
+      <c r="B8" s="123"/>
       <c r="C8" s="22" t="s">
         <v>189</v>
       </c>
       <c r="D8" s="22" t="s">
         <v>190</v>
       </c>
-      <c r="E8" s="133" t="s">
-        <v>574</v>
+      <c r="E8" s="129" t="s">
+        <v>569</v>
       </c>
       <c r="F8" s="87" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
       <c r="I8" s="24" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>577</v>
-      </c>
-      <c r="B9" s="127" t="s">
-        <v>578</v>
+        <v>572</v>
+      </c>
+      <c r="B9" s="123" t="s">
+        <v>573</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>195</v>
@@ -10847,117 +10762,117 @@
         <v>196</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
       <c r="I9" s="24" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="A10" s="22" t="s">
+        <v>576</v>
+      </c>
+      <c r="B10" s="123" t="s">
+        <v>577</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>578</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>579</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>580</v>
+      </c>
+      <c r="F10" s="130" t="s">
         <v>581</v>
-      </c>
-      <c r="B10" s="127" t="s">
-        <v>582</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>583</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>584</v>
-      </c>
-      <c r="E10" s="24" t="s">
-        <v>585</v>
-      </c>
-      <c r="F10" s="134" t="s">
-        <v>586</v>
       </c>
       <c r="G10" s="22">
         <v>1.0</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="24" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
     </row>
     <row r="11" ht="12.0" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>588</v>
-      </c>
-      <c r="B11" s="127"/>
+        <v>583</v>
+      </c>
+      <c r="B11" s="123"/>
       <c r="C11" s="22" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F11" s="107" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
       <c r="I11" s="24" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
     </row>
     <row r="12" ht="49.5" customHeight="1">
       <c r="A12" s="22" t="s">
+        <v>589</v>
+      </c>
+      <c r="B12" s="123" t="s">
+        <v>590</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>591</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>592</v>
+      </c>
+      <c r="E12" s="131" t="s">
+        <v>593</v>
+      </c>
+      <c r="F12" s="22" t="s">
         <v>594</v>
-      </c>
-      <c r="B12" s="127" t="s">
-        <v>595</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>596</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>597</v>
-      </c>
-      <c r="E12" s="135" t="s">
-        <v>598</v>
-      </c>
-      <c r="F12" s="22" t="s">
-        <v>599</v>
       </c>
       <c r="G12" s="22">
         <v>1.0</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="24" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="K12" s="22"/>
     </row>
     <row r="13" ht="12.0" customHeight="1">
       <c r="A13" s="22" t="s">
-        <v>602</v>
-      </c>
-      <c r="B13" s="127" t="s">
-        <v>603</v>
+        <v>597</v>
+      </c>
+      <c r="B13" s="123" t="s">
+        <v>598</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22">
@@ -10965,53 +10880,53 @@
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="24" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="A14" s="22" t="s">
+        <v>603</v>
+      </c>
+      <c r="B14" s="123" t="s">
+        <v>604</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>605</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>606</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>607</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>608</v>
-      </c>
-      <c r="B14" s="127" t="s">
-        <v>609</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>610</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>611</v>
-      </c>
-      <c r="E14" s="24" t="s">
-        <v>612</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>613</v>
       </c>
       <c r="G14" s="24">
         <v>0.0</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="24" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="A15" s="22" t="s">
-        <v>615</v>
-      </c>
-      <c r="B15" s="127"/>
+        <v>610</v>
+      </c>
+      <c r="B15" s="123"/>
       <c r="C15" s="24" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="22">
@@ -11019,47 +10934,47 @@
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="24" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="J15" s="99"/>
       <c r="K15" s="22"/>
     </row>
     <row r="16" ht="12.0" customHeight="1">
       <c r="A16" s="22" t="s">
-        <v>620</v>
-      </c>
-      <c r="B16" s="127"/>
+        <v>615</v>
+      </c>
+      <c r="B16" s="123"/>
       <c r="C16" s="22" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
       <c r="I16" s="24" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="A17" s="22" t="s">
-        <v>625</v>
-      </c>
-      <c r="B17" s="127"/>
+        <v>620</v>
+      </c>
+      <c r="B17" s="123"/>
       <c r="C17" s="22" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="22">
@@ -11067,53 +10982,53 @@
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="24" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="A18" s="22" t="s">
-        <v>630</v>
-      </c>
-      <c r="B18" s="127"/>
+        <v>625</v>
+      </c>
+      <c r="B18" s="123"/>
       <c r="C18" s="22" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G18" s="22">
         <v>1.0</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="24" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
     </row>
     <row r="19" ht="12.0" customHeight="1">
       <c r="A19" s="24" t="s">
-        <v>636</v>
-      </c>
-      <c r="B19" s="127" t="s">
-        <v>564</v>
+        <v>631</v>
+      </c>
+      <c r="B19" s="123" t="s">
+        <v>559</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>257</v>
@@ -11121,65 +11036,65 @@
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
       <c r="I19" s="24" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="K19" s="22"/>
     </row>
     <row r="20" ht="49.5" customHeight="1">
       <c r="A20" s="24" t="s">
-        <v>641</v>
-      </c>
-      <c r="B20" s="127" t="s">
-        <v>595</v>
+        <v>636</v>
+      </c>
+      <c r="B20" s="123" t="s">
+        <v>590</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>597</v>
-      </c>
-      <c r="E20" s="135" t="s">
-        <v>643</v>
+        <v>592</v>
+      </c>
+      <c r="E20" s="131" t="s">
+        <v>638</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
       <c r="I20" s="24" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="K20" s="22"/>
     </row>
     <row r="21" ht="12.0" customHeight="1">
       <c r="A21" s="24" t="s">
-        <v>646</v>
-      </c>
-      <c r="B21" s="127" t="s">
-        <v>609</v>
+        <v>641</v>
+      </c>
+      <c r="B21" s="123" t="s">
+        <v>604</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
       <c r="I21" s="24" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
@@ -19391,44 +19306,46 @@
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="113" t="s">
+      <c r="A5" s="22" t="s">
         <v>329</v>
       </c>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="22" t="s">
         <v>330</v>
       </c>
-      <c r="C5" s="113" t="s">
+      <c r="C5" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="116"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114" t="s">
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="96" t="s">
         <v>333</v>
+      </c>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="24" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="D6" s="24" t="s">
         <v>337</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>338</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
       <c r="G6" s="96" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H6" s="22"/>
       <c r="I6" s="22"/>
@@ -19450,10 +19367,10 @@
         <v>343</v>
       </c>
       <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="96" t="s">
-        <v>338</v>
-      </c>
+      <c r="F7" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G7" s="96"/>
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
       <c r="J7" s="24" t="s">
@@ -19473,85 +19390,62 @@
       <c r="D8" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="E8" s="22"/>
+      <c r="E8" s="113" t="s">
+        <v>349</v>
+      </c>
       <c r="F8" s="22">
         <v>1.0</v>
       </c>
-      <c r="G8" s="96"/>
+      <c r="G8" s="96" t="s">
+        <v>350</v>
+      </c>
       <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
+      <c r="I8" s="21"/>
       <c r="J8" s="24" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>353</v>
-      </c>
-      <c r="E9" s="117" t="s">
         <v>354</v>
       </c>
+      <c r="D9" s="24" t="s">
+        <v>355</v>
+      </c>
+      <c r="E9" s="22"/>
       <c r="F9" s="22">
         <v>1.0</v>
       </c>
-      <c r="G9" s="96" t="s">
-        <v>355</v>
-      </c>
+      <c r="G9" s="22"/>
       <c r="H9" s="22"/>
-      <c r="I9" s="21"/>
+      <c r="I9" s="22"/>
       <c r="J9" s="24" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="22" t="s">
-        <v>357</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>359</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>360</v>
-      </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22">
-        <v>1.0</v>
-      </c>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="24" t="s">
-        <v>361</v>
-      </c>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="77"/>
-      <c r="P10" s="77"/>
-      <c r="Q10" s="77"/>
-      <c r="R10" s="77"/>
-      <c r="S10" s="77"/>
-      <c r="T10" s="77"/>
-      <c r="U10" s="77"/>
-      <c r="V10" s="77"/>
-      <c r="W10" s="77"/>
-      <c r="X10" s="77"/>
-      <c r="Y10" s="77"/>
-      <c r="Z10" s="77"/>
-    </row>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="77"/>
+      <c r="P9" s="77"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
+      <c r="V9" s="77"/>
+      <c r="W9" s="77"/>
+      <c r="X9" s="77"/>
+      <c r="Y9" s="77"/>
+      <c r="Z9" s="77"/>
+    </row>
+    <row r="10" ht="14.25" customHeight="1"/>
     <row r="11" ht="14.25" customHeight="1"/>
     <row r="12" ht="14.25" customHeight="1"/>
     <row r="13" ht="14.25" customHeight="1"/>
@@ -19760,7 +19654,7 @@
     <row r="216" ht="14.25" customHeight="1"/>
     <row r="217" ht="14.25" customHeight="1"/>
     <row r="218" ht="14.25" customHeight="1"/>
-    <row r="219" ht="14.25" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
     <row r="220" ht="15.75" customHeight="1"/>
     <row r="221" ht="15.75" customHeight="1"/>
     <row r="222" ht="15.75" customHeight="1"/>
@@ -20540,7 +20434,6 @@
     <row r="996" ht="15.75" customHeight="1"/>
     <row r="997" ht="15.75" customHeight="1"/>
     <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B1:C1"/>
@@ -20548,13 +20441,12 @@
     <mergeCell ref="D2:E2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="E9"/>
+    <hyperlink r:id="rId1" ref="E8"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -20599,14 +20491,14 @@
     </row>
     <row r="2" ht="82.5" customHeight="1">
       <c r="A2" s="47" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="46" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="47">
@@ -20614,7 +20506,7 @@
       </c>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="J3" s="118"/>
+      <c r="J3" s="114"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="89" t="s">
@@ -20650,86 +20542,86 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="22" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="C5" s="68" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="D5" s="68" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E5" s="99"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
       <c r="H5" s="24" t="s">
-        <v>369</v>
-      </c>
-      <c r="I5" s="119"/>
+        <v>364</v>
+      </c>
+      <c r="I5" s="115"/>
       <c r="J5" s="68"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="E6" s="22" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="F6" s="22">
         <v>1.0</v>
       </c>
       <c r="G6" s="22"/>
       <c r="H6" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="I6" s="94" t="s">
+        <v>371</v>
+      </c>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="116" t="s">
+        <v>372</v>
+      </c>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116" t="s">
+        <v>373</v>
+      </c>
+      <c r="D7" s="116"/>
+      <c r="E7" s="116"/>
+      <c r="F7" s="116"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="84" t="s">
+        <v>374</v>
+      </c>
+      <c r="I7" s="117" t="s">
         <v>375</v>
       </c>
-      <c r="I6" s="94" t="s">
-        <v>376</v>
-      </c>
-      <c r="J6" s="22"/>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="120" t="s">
-        <v>377</v>
-      </c>
-      <c r="B7" s="120"/>
-      <c r="C7" s="120" t="s">
-        <v>378</v>
-      </c>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="84" t="s">
-        <v>379</v>
-      </c>
-      <c r="I7" s="121" t="s">
-        <v>380</v>
-      </c>
-      <c r="J7" s="122"/>
+      <c r="J7" s="118"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22">
@@ -20737,45 +20629,45 @@
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="24" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="I8" s="96"/>
-      <c r="J8" s="123"/>
+      <c r="J8" s="119"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="H9" s="24" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="I9" s="96"/>
-      <c r="J9" s="123"/>
+      <c r="J9" s="119"/>
     </row>
     <row r="10" ht="115.5" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="22">
@@ -20783,47 +20675,47 @@
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="24" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="I10" s="96" t="s">
-        <v>396</v>
-      </c>
-      <c r="J10" s="123"/>
+        <v>391</v>
+      </c>
+      <c r="J10" s="119"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
       <c r="H11" s="24" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="I11" s="96"/>
-      <c r="J11" s="123"/>
+      <c r="J11" s="119"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="22" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22">
@@ -20831,47 +20723,47 @@
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="24" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="I12" s="96" t="s">
-        <v>407</v>
-      </c>
-      <c r="J12" s="123"/>
+        <v>402</v>
+      </c>
+      <c r="J12" s="119"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="22" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
       <c r="H13" s="24" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="I13" s="96"/>
-      <c r="J13" s="123"/>
+      <c r="J13" s="119"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="22">
@@ -20879,10 +20771,10 @@
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="24" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I14" s="96"/>
-      <c r="J14" s="123"/>
+      <c r="J14" s="119"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
       <c r="C15" s="27"/>
@@ -21924,10 +21816,10 @@
       <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="120" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="125"/>
+      <c r="C1" s="121"/>
       <c r="D1" s="28" t="s">
         <v>2</v>
       </c>
@@ -21935,26 +21827,26 @@
         <v>3</v>
       </c>
       <c r="F1" s="29" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="I1" s="44"/>
     </row>
     <row r="2" ht="75.0" customHeight="1">
       <c r="A2" s="47" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>420</v>
-      </c>
-      <c r="C2" s="125"/>
+        <v>415</v>
+      </c>
+      <c r="C2" s="121"/>
       <c r="D2" s="8" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E2" s="47">
         <v>0.2</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="I2" s="44"/>
     </row>
@@ -21986,7 +21878,7 @@
       <c r="H4" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="126" t="s">
+      <c r="I4" s="122" t="s">
         <v>215</v>
       </c>
       <c r="J4" s="89" t="s">
@@ -21998,66 +21890,66 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="22" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
       <c r="H5" s="24" t="s">
-        <v>427</v>
-      </c>
-      <c r="I5" s="127"/>
+        <v>422</v>
+      </c>
+      <c r="I5" s="123"/>
       <c r="J5" s="22" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="K5" s="22"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="24" t="s">
-        <v>433</v>
-      </c>
-      <c r="I6" s="127"/>
+        <v>428</v>
+      </c>
+      <c r="I6" s="123"/>
       <c r="J6" s="22" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="K6" s="22"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="22">
@@ -22065,31 +21957,31 @@
       </c>
       <c r="G7" s="22"/>
       <c r="H7" s="24" t="s">
-        <v>439</v>
-      </c>
-      <c r="I7" s="127" t="s">
-        <v>440</v>
+        <v>434</v>
+      </c>
+      <c r="I7" s="123" t="s">
+        <v>435</v>
       </c>
       <c r="J7" s="22" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="K7" s="22"/>
-      <c r="L7" s="128" t="s">
-        <v>442</v>
+      <c r="L7" s="124" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="22">
@@ -22097,26 +21989,26 @@
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="24" t="s">
-        <v>447</v>
-      </c>
-      <c r="I8" s="127"/>
+        <v>442</v>
+      </c>
+      <c r="I8" s="123"/>
       <c r="J8" s="22" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="K8" s="22"/>
     </row>
     <row r="9" ht="199.5" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="22">
@@ -22124,24 +22016,24 @@
       </c>
       <c r="G9" s="22"/>
       <c r="H9" s="24" t="s">
-        <v>453</v>
-      </c>
-      <c r="I9" s="127"/>
+        <v>448</v>
+      </c>
+      <c r="I9" s="123"/>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E10" s="99"/>
       <c r="F10" s="22">
@@ -22149,51 +22041,51 @@
       </c>
       <c r="G10" s="22"/>
       <c r="H10" s="24" t="s">
-        <v>458</v>
-      </c>
-      <c r="I10" s="127" t="s">
-        <v>459</v>
+        <v>453</v>
+      </c>
+      <c r="I10" s="123" t="s">
+        <v>454</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
       <c r="H11" s="24" t="s">
-        <v>464</v>
-      </c>
-      <c r="I11" s="127"/>
+        <v>459</v>
+      </c>
+      <c r="I11" s="123"/>
       <c r="J11" s="22" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="K11" s="22"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="22" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="B12" s="22" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22">
@@ -22201,167 +22093,167 @@
       </c>
       <c r="G12" s="22"/>
       <c r="H12" s="24" t="s">
-        <v>470</v>
-      </c>
-      <c r="I12" s="127" t="s">
-        <v>471</v>
+        <v>465</v>
+      </c>
+      <c r="I12" s="123" t="s">
+        <v>466</v>
       </c>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="22" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="22"/>
       <c r="G13" s="22"/>
       <c r="H13" s="24" t="s">
-        <v>476</v>
-      </c>
-      <c r="I13" s="127"/>
+        <v>471</v>
+      </c>
+      <c r="I13" s="123"/>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B14" s="22" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
       <c r="H14" s="24" t="s">
-        <v>481</v>
-      </c>
-      <c r="I14" s="127"/>
+        <v>476</v>
+      </c>
+      <c r="I14" s="123"/>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="22" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D15" s="24" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E15" s="95" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="F15" s="22">
         <v>1.0</v>
       </c>
       <c r="G15" s="22"/>
       <c r="H15" s="24" t="s">
-        <v>487</v>
-      </c>
-      <c r="I15" s="127"/>
+        <v>482</v>
+      </c>
+      <c r="I15" s="123"/>
       <c r="J15" s="24" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="K15" s="22"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="24" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>243</v>
       </c>
       <c r="D16" s="94" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E16" s="95" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="24" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="I16" s="93" t="s">
         <v>241</v>
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="24" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="24" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C17" s="22" t="s">
         <v>262</v>
       </c>
       <c r="D17" s="94" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="E17" s="22" t="s">
         <v>257</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="22"/>
-      <c r="H17" s="129" t="s">
-        <v>497</v>
+      <c r="H17" s="125" t="s">
+        <v>492</v>
       </c>
       <c r="I17" s="93" t="s">
         <v>260</v>
       </c>
       <c r="J17" s="22"/>
       <c r="K17" s="24" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="24" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C18" s="22" t="s">
         <v>274</v>
       </c>
       <c r="D18" s="94" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="E18" s="22" t="s">
         <v>257</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
-      <c r="H18" s="129" t="s">
-        <v>502</v>
+      <c r="H18" s="125" t="s">
+        <v>497</v>
       </c>
       <c r="I18" s="93" t="s">
         <v>272</v>
@@ -22371,22 +22263,22 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="24" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C19" s="22" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D19" s="94" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="22"/>
       <c r="G19" s="22"/>
-      <c r="H19" s="129" t="s">
-        <v>507</v>
+      <c r="H19" s="125" t="s">
+        <v>502</v>
       </c>
       <c r="I19" s="93" t="s">
         <v>278</v>
@@ -22396,24 +22288,24 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="24" t="s">
-        <v>508</v>
-      </c>
-      <c r="B20" s="130" t="s">
-        <v>509</v>
+        <v>503</v>
+      </c>
+      <c r="B20" s="126" t="s">
+        <v>504</v>
       </c>
       <c r="C20" s="103" t="s">
         <v>291</v>
       </c>
       <c r="D20" s="104" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="E20" s="105" t="s">
         <v>293</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="129" t="s">
-        <v>511</v>
+      <c r="H20" s="125" t="s">
+        <v>506</v>
       </c>
       <c r="I20" s="93"/>
       <c r="J20" s="22"/>
@@ -22421,24 +22313,24 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="24" t="s">
-        <v>512</v>
-      </c>
-      <c r="B21" s="130" t="s">
-        <v>513</v>
+        <v>507</v>
+      </c>
+      <c r="B21" s="126" t="s">
+        <v>508</v>
       </c>
       <c r="C21" s="103" t="s">
         <v>298</v>
       </c>
       <c r="D21" s="104" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="E21" s="105" t="s">
         <v>293</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="129" t="s">
-        <v>515</v>
+      <c r="H21" s="125" t="s">
+        <v>510</v>
       </c>
       <c r="I21" s="93" t="s">
         <v>296</v>
@@ -22448,24 +22340,24 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="24" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D22" s="94" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="E22" s="107" t="s">
         <v>293</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
-      <c r="H22" s="129" t="s">
-        <v>520</v>
+      <c r="H22" s="125" t="s">
+        <v>515</v>
       </c>
       <c r="I22" s="93"/>
       <c r="J22" s="22"/>
@@ -22473,24 +22365,24 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="24" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C23" s="22" t="s">
         <v>310</v>
       </c>
       <c r="D23" s="94" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="E23" s="107" t="s">
         <v>312</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
-      <c r="H23" s="129" t="s">
-        <v>524</v>
+      <c r="H23" s="125" t="s">
+        <v>519</v>
       </c>
       <c r="I23" s="93"/>
       <c r="J23" s="22"/>
@@ -22498,24 +22390,24 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="24" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C24" s="22" t="s">
         <v>317</v>
       </c>
       <c r="D24" s="94" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="E24" s="107" t="s">
         <v>293</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
-      <c r="H24" s="129" t="s">
-        <v>528</v>
+      <c r="H24" s="125" t="s">
+        <v>523</v>
       </c>
       <c r="I24" s="93" t="s">
         <v>315</v>
@@ -22525,116 +22417,116 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="24" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D25" s="24" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
-      <c r="H25" s="129" t="s">
-        <v>532</v>
-      </c>
-      <c r="I25" s="127" t="s">
-        <v>440</v>
+      <c r="H25" s="125" t="s">
+        <v>527</v>
+      </c>
+      <c r="I25" s="123" t="s">
+        <v>435</v>
       </c>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="24" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="C26" s="22" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="D26" s="24" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
       <c r="H26" s="24" t="s">
-        <v>537</v>
-      </c>
-      <c r="I26" s="127" t="s">
-        <v>459</v>
+        <v>532</v>
+      </c>
+      <c r="I26" s="123" t="s">
+        <v>454</v>
       </c>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="24" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D27" s="24" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
-      <c r="H27" s="129" t="s">
-        <v>541</v>
-      </c>
-      <c r="I27" s="127" t="s">
-        <v>471</v>
+      <c r="H27" s="125" t="s">
+        <v>536</v>
+      </c>
+      <c r="I27" s="123" t="s">
+        <v>466</v>
       </c>
       <c r="J27" s="22"/>
       <c r="K27" s="22"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="24" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
       <c r="H28" s="24" t="s">
-        <v>546</v>
-      </c>
-      <c r="I28" s="127"/>
+        <v>541</v>
+      </c>
+      <c r="I28" s="123"/>
       <c r="J28" s="22" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="K28" s="22"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="24" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C29" s="22" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D29" s="24" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="22">
@@ -22642,9 +22534,9 @@
       </c>
       <c r="G29" s="22"/>
       <c r="H29" s="24" t="s">
-        <v>552</v>
-      </c>
-      <c r="I29" s="127"/>
+        <v>547</v>
+      </c>
+      <c r="I29" s="123"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
     </row>

--- a/Estimates 22 BDG [Final].xlsx
+++ b/Estimates 22 BDG [Final].xlsx
@@ -18,7 +18,7 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataSignature="AMtx7mijv/Yi2GmeSQjMjGB0S/7X8CYI/A=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId14" roundtripDataSignature="AMtx7mgEJWHwflgbFsau28RIk7+4PPZXOA=="/>
     </ext>
   </extLst>
 </workbook>
@@ -93,7 +93,7 @@
   </commentList>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mgJ0JgbOCBuUu1yDls2+Zyj6eJPHA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId1" roundtripDataSignature="AMtx7mjzjTuoRlIIKOQ6XItBD1oh5rK1sw=="/>
     </ext>
   </extLst>
 </comments>
@@ -256,7 +256,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="827" uniqueCount="651">
   <si>
     <t>Milestone Title (Visible to User):</t>
   </si>
@@ -2490,6 +2490,21 @@
     <t>check_spectrum_file(['UAvalid'])</t>
   </si>
   <si>
+    <t>SPF-25-01</t>
+  </si>
+  <si>
+    <t>Upload KP workbook into Spectrum</t>
+  </si>
+  <si>
+    <t>Has the user uploaded their KP workbook into Spectrum</t>
+  </si>
+  <si>
+    <t>A new feature added in 2022 was the review of available key population data. These data will be used in future years to improve the models. In 2022 it will not impact the model. This task requires that you review the prepopulated key population data, update with any missing data, and create national-level estimates of KP size, HIV prevalence, and new HIV infections.  Once you are complete you should upload the file into Spectrum under Program Statistics &gt; Key Populations.  Remember that this step has no impact on your Spectrum estimates.</t>
+  </si>
+  <si>
+    <t>check_manual_confirmation('EST-SPF-25-01-A')</t>
+  </si>
+  <si>
     <t>SPF-26-01</t>
   </si>
   <si>
@@ -2518,8 +2533,9 @@
     <t xml:space="preserve">User is producing district-level HIV estimates? </t>
   </si>
   <si>
-    <t>If you are not producing district-level estimates, congratulations, you have completed the estimates process. You may use results for national reporting or other needs. 
-*If you require estimates to inform your PEPFAR Data Pack or DMPPT, you must product district-level estimates using Naomi.*</t>
+    <t xml:space="preserve">If you are not producing district-level estimates, congratulations, you have completed the estimates process. You may use results for national reporting or other needs. 
+*If you require estimates to inform your PEPFAR Data Pack or DMPPT, you must product district-level estimates using Naomi.*
+If you are planning to produce district-level estimates, mark this task complete and click the "What's Next?" button to proceed to the Naomi milestone. </t>
   </si>
   <si>
     <t>check_manual_confirmation('EST-SPF-27-01-A')</t>
@@ -3028,6 +3044,9 @@
     <t>NAO-17-01</t>
   </si>
   <si>
+    <t>Cal_PLHIV,Cal_ART,Cal_KOS,Cal_new_infections,Cal_method, Cal_Population</t>
+  </si>
+  <si>
     <t>Naomi Validation:  Calibrate the model in Naomi</t>
   </si>
   <si>
@@ -3036,7 +3055,7 @@
 **Please ensure you address this in your Naomi model run and then reupload your Naomi Outputs zip to the ADR in order to complete this task.**</t>
   </si>
   <si>
-    <t>check_naomi_file(['Cal_PLHIV', 'Cal_ART', 'Cal_KOS', 'Cal_new_infections', 'Cal_method'])</t>
+    <t>check_naomi_file(['Cal_PLHIV', 'Cal_ART', 'Cal_KOS', 'Cal_new_infections', 'Cal_method', 'Cal_Population'])</t>
   </si>
 </sst>
 </file>
@@ -3367,7 +3386,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="132">
+  <cellXfs count="133">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3690,6 +3709,9 @@
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="8" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10589,21 +10611,21 @@
     </row>
     <row r="2" ht="12.0" customHeight="1">
       <c r="A2" s="47" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="B2" s="31" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="46" t="s">
-        <v>550</v>
+        <v>555</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="46">
         <v>0.2</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="H2" s="127"/>
       <c r="I2" s="127"/>
@@ -10614,7 +10636,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="128" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="C4" s="89" t="s">
         <v>10</v>
@@ -10646,17 +10668,17 @@
     </row>
     <row r="5" ht="12.0" customHeight="1">
       <c r="A5" s="22" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="B5" s="123"/>
       <c r="C5" s="24" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22">
@@ -10664,26 +10686,26 @@
       </c>
       <c r="H5" s="22"/>
       <c r="I5" s="24" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
     </row>
     <row r="6" ht="12.0" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="B6" s="123" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="F6" s="22"/>
       <c r="G6" s="24">
@@ -10691,16 +10713,16 @@
       </c>
       <c r="H6" s="22"/>
       <c r="I6" s="24" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="J6" s="22" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="K6" s="22"/>
     </row>
     <row r="7" ht="12.0" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="B7" s="123"/>
       <c r="C7" s="22" t="s">
@@ -10710,7 +10732,7 @@
         <v>184</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="F7" s="22" t="s">
         <v>186</v>
@@ -10718,14 +10740,14 @@
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
       <c r="I7" s="24" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
       <c r="J7" s="99"/>
       <c r="K7" s="22"/>
     </row>
     <row r="8" ht="12.0" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="B8" s="123"/>
       <c r="C8" s="22" t="s">
@@ -10735,25 +10757,25 @@
         <v>190</v>
       </c>
       <c r="E8" s="129" t="s">
-        <v>569</v>
+        <v>574</v>
       </c>
       <c r="F8" s="87" t="s">
-        <v>570</v>
+        <v>575</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
       <c r="I8" s="24" t="s">
-        <v>571</v>
+        <v>576</v>
       </c>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
     </row>
     <row r="9" ht="12.0" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>572</v>
+        <v>577</v>
       </c>
       <c r="B9" s="123" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>195</v>
@@ -10762,117 +10784,117 @@
         <v>196</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
       <c r="I9" s="24" t="s">
-        <v>575</v>
+        <v>580</v>
       </c>
       <c r="J9" s="22"/>
       <c r="K9" s="22"/>
     </row>
     <row r="10" ht="12.0" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>576</v>
+        <v>581</v>
       </c>
       <c r="B10" s="123" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="F10" s="130" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="G10" s="22">
         <v>1.0</v>
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="24" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
     </row>
     <row r="11" ht="12.0" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="B11" s="123"/>
       <c r="C11" s="22" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>585</v>
+        <v>590</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="F11" s="107" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="22"/>
       <c r="I11" s="24" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
     </row>
     <row r="12" ht="49.5" customHeight="1">
       <c r="A12" s="22" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="B12" s="123" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="E12" s="131" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="F12" s="22" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="G12" s="22">
         <v>1.0</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="24" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="J12" s="22" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="K12" s="22"/>
     </row>
     <row r="13" ht="12.0" customHeight="1">
       <c r="A13" s="22" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="B13" s="123" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>601</v>
+        <v>606</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="22">
@@ -10880,53 +10902,53 @@
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="24" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="J13" s="22"/>
       <c r="K13" s="22"/>
     </row>
     <row r="14" ht="12.0" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="B14" s="123" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="G14" s="24">
         <v>0.0</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="24" t="s">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
     </row>
     <row r="15" ht="12.0" customHeight="1">
       <c r="A15" s="22" t="s">
-        <v>610</v>
+        <v>615</v>
       </c>
       <c r="B15" s="123"/>
       <c r="C15" s="24" t="s">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>612</v>
+        <v>617</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="22">
@@ -10934,47 +10956,47 @@
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="24" t="s">
-        <v>614</v>
+        <v>619</v>
       </c>
       <c r="J15" s="99"/>
       <c r="K15" s="22"/>
     </row>
     <row r="16" ht="12.0" customHeight="1">
       <c r="A16" s="22" t="s">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="B16" s="123"/>
       <c r="C16" s="22" t="s">
-        <v>616</v>
+        <v>621</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
       <c r="I16" s="24" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
     </row>
     <row r="17" ht="12.0" customHeight="1">
       <c r="A17" s="22" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="B17" s="123"/>
       <c r="C17" s="22" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="22">
@@ -10982,53 +11004,53 @@
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="24" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="J17" s="22"/>
       <c r="K17" s="22"/>
     </row>
     <row r="18" ht="12.0" customHeight="1">
       <c r="A18" s="22" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="B18" s="123"/>
       <c r="C18" s="22" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>628</v>
+        <v>633</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="G18" s="22">
         <v>1.0</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="24" t="s">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
     </row>
     <row r="19" ht="12.0" customHeight="1">
       <c r="A19" s="24" t="s">
-        <v>631</v>
+        <v>636</v>
       </c>
       <c r="B19" s="123" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="F19" s="24" t="s">
         <v>257</v>
@@ -11036,65 +11058,65 @@
       <c r="G19" s="22"/>
       <c r="H19" s="22"/>
       <c r="I19" s="24" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="J19" s="22" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="K19" s="22"/>
     </row>
     <row r="20" ht="49.5" customHeight="1">
       <c r="A20" s="24" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="B20" s="123" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="E20" s="131" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="22"/>
       <c r="I20" s="24" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="J20" s="22" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="K20" s="22"/>
     </row>
     <row r="21" ht="12.0" customHeight="1">
       <c r="A21" s="24" t="s">
-        <v>641</v>
-      </c>
-      <c r="B21" s="123" t="s">
-        <v>604</v>
+        <v>646</v>
+      </c>
+      <c r="B21" s="132" t="s">
+        <v>647</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="22"/>
       <c r="I21" s="24" t="s">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
@@ -22494,54 +22516,76 @@
       <c r="A28" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="24" t="s">
         <v>538</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="24" t="s">
         <v>539</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="24" t="s">
         <v>540</v>
       </c>
-      <c r="E28" s="22"/>
+      <c r="E28" s="107" t="s">
+        <v>293</v>
+      </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
       <c r="H28" s="24" t="s">
         <v>541</v>
       </c>
       <c r="I28" s="123"/>
-      <c r="J28" s="22" t="s">
-        <v>542</v>
-      </c>
+      <c r="J28" s="22"/>
       <c r="K28" s="22"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="24" t="s">
+        <v>542</v>
+      </c>
+      <c r="B29" s="22" t="s">
         <v>543</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="C29" s="22" t="s">
         <v>544</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="D29" s="22" t="s">
         <v>545</v>
       </c>
-      <c r="D29" s="24" t="s">
-        <v>546</v>
-      </c>
       <c r="E29" s="22"/>
-      <c r="F29" s="22">
-        <v>1.0</v>
-      </c>
+      <c r="F29" s="22"/>
       <c r="G29" s="22"/>
       <c r="H29" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="I29" s="123"/>
+      <c r="J29" s="22" t="s">
         <v>547</v>
       </c>
-      <c r="I29" s="123"/>
-      <c r="J29" s="22"/>
       <c r="K29" s="22"/>
     </row>
-    <row r="30" ht="13.5" customHeight="1">
-      <c r="I30" s="44"/>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="B30" s="22" t="s">
+        <v>549</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>550</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>551</v>
+      </c>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G30" s="22"/>
+      <c r="H30" s="24" t="s">
+        <v>552</v>
+      </c>
+      <c r="I30" s="123"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
     </row>
     <row r="31" ht="13.5" customHeight="1">
       <c r="I31" s="44"/>
@@ -23143,7 +23187,7 @@
     <row r="230" ht="13.5" customHeight="1">
       <c r="I230" s="44"/>
     </row>
-    <row r="231" ht="15.75" customHeight="1">
+    <row r="231" ht="13.5" customHeight="1">
       <c r="I231" s="44"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
@@ -25482,6 +25526,9 @@
     </row>
     <row r="1010" ht="15.75" customHeight="1">
       <c r="I1010" s="44"/>
+    </row>
+    <row r="1011" ht="15.75" customHeight="1">
+      <c r="I1011" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="2">
